--- a/public/port-battle.xlsx
+++ b/public/port-battle.xlsx
@@ -77,33 +77,33 @@
     <t>St. Pavel</t>
   </si>
   <si>
+    <t>3rd Rate</t>
+  </si>
+  <si>
     <t>Bellona</t>
   </si>
   <si>
-    <t>3rd Rate</t>
-  </si>
-  <si>
     <t>Wasa</t>
   </si>
   <si>
+    <t>Agamemnon</t>
+  </si>
+  <si>
     <t>Constitution</t>
   </si>
   <si>
+    <t>Wapen von Hamburg</t>
+  </si>
+  <si>
     <t>Ingermanland</t>
   </si>
   <si>
-    <t>Wapen von Hamburg</t>
-  </si>
-  <si>
-    <t>Agamemnon</t>
+    <t>Constitution Classic</t>
   </si>
   <si>
     <t>Indefatigable</t>
   </si>
   <si>
-    <t>Constitution Classic</t>
-  </si>
-  <si>
     <t>Trincomalee</t>
   </si>
   <si>
@@ -113,76 +113,79 @@
     <t>Endymion</t>
   </si>
   <si>
+    <t>L’Hermione</t>
+  </si>
+  <si>
+    <t>Santa Cecilia</t>
+  </si>
+  <si>
+    <t>Essex</t>
+  </si>
+  <si>
+    <t>Belle Poule</t>
+  </si>
+  <si>
     <t>Indiaman</t>
   </si>
   <si>
-    <t>Essex</t>
-  </si>
-  <si>
-    <t>Belle Poule</t>
-  </si>
-  <si>
     <t>Pirate Frigate</t>
   </si>
   <si>
+    <t>Frigate</t>
+  </si>
+  <si>
+    <t>Surprise</t>
+  </si>
+  <si>
+    <t>Renommee</t>
+  </si>
+  <si>
     <t>Le Gros Ventre Refit</t>
   </si>
   <si>
-    <t>Frigate</t>
-  </si>
-  <si>
-    <t>Santa Cecilia</t>
-  </si>
-  <si>
-    <t>L’Hermione</t>
-  </si>
-  <si>
-    <t>Surprise</t>
-  </si>
-  <si>
     <t>Le Gros Ventre</t>
   </si>
   <si>
-    <t>Renommee</t>
+    <t>Xebec</t>
   </si>
   <si>
     <t>Cerberus</t>
   </si>
   <si>
-    <t>Xebec</t>
-  </si>
-  <si>
     <t>Mortar Brig</t>
   </si>
   <si>
     <t>Brig</t>
   </si>
   <si>
+    <t>Mercury</t>
+  </si>
+  <si>
+    <t>NavyBrig</t>
+  </si>
+  <si>
+    <t>Niagara</t>
+  </si>
+  <si>
+    <t>Prince de Neufchatel</t>
+  </si>
+  <si>
+    <t>Rattlesnake</t>
+  </si>
+  <si>
     <t>Snow</t>
   </si>
   <si>
-    <t>Prince de Neufchatel</t>
-  </si>
-  <si>
-    <t>Rattlesnake</t>
-  </si>
-  <si>
-    <t>NavyBrig</t>
-  </si>
-  <si>
-    <t>Niagara</t>
+    <t>Rattlesnake Heavy</t>
+  </si>
+  <si>
+    <t>Hercules</t>
   </si>
   <si>
     <t>Pandora</t>
   </si>
   <si>
-    <t>Mercury</t>
-  </si>
-  <si>
-    <t>Rattlesnake Heavy</t>
-  </si>
-  <si>
-    <t>Hercules</t>
+    <t>Lynx</t>
   </si>
   <si>
     <t>Cutter</t>
@@ -191,16 +194,13 @@
     <t>GunBoat</t>
   </si>
   <si>
-    <t>Lynx</t>
+    <t>Yacht</t>
+  </si>
+  <si>
+    <t>Yacht Silver</t>
   </si>
   <si>
     <t>Privateer</t>
-  </si>
-  <si>
-    <t>Yacht</t>
-  </si>
-  <si>
-    <t>Yacht Silver</t>
   </si>
   <si>
     <t>Pickle</t>
@@ -753,7 +753,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="12">
-        <v>650</v>
+        <v>605</v>
       </c>
       <c r="D4" s="12">
         <f t="shared" ref="D4:D35" si="0">COUNTIF(F4:AE4,"*")</f>
@@ -801,7 +801,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="12">
-        <v>625</v>
+        <v>570</v>
       </c>
       <c r="D5" s="12">
         <f t="shared" si="0"/>
@@ -849,7 +849,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="12">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="D6" s="12">
         <f t="shared" si="0"/>
@@ -933,7 +933,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="12">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="D8" s="12">
         <f t="shared" si="0"/>
@@ -975,7 +975,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="12">
-        <v>450</v>
+        <v>385</v>
       </c>
       <c r="D9" s="12">
         <f t="shared" si="0"/>
@@ -1017,7 +1017,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="12">
-        <v>400</v>
+        <v>355</v>
       </c>
       <c r="D10" s="12">
         <f t="shared" si="0"/>
@@ -1059,7 +1059,7 @@
         <v>22</v>
       </c>
       <c r="C11" s="12">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="D11" s="12">
         <f t="shared" si="0"/>
@@ -1101,7 +1101,7 @@
         <v>23</v>
       </c>
       <c r="C12" s="12">
-        <v>380</v>
+        <v>290</v>
       </c>
       <c r="D12" s="12">
         <f t="shared" si="0"/>
@@ -1143,7 +1143,7 @@
         <v>24</v>
       </c>
       <c r="C13" s="12">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="D13" s="12">
         <f t="shared" si="0"/>
@@ -1185,7 +1185,7 @@
         <v>25</v>
       </c>
       <c r="C14" s="12">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="D14" s="12">
         <f t="shared" si="0"/>
@@ -1227,7 +1227,7 @@
         <v>26</v>
       </c>
       <c r="C15" s="12">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="D15" s="12">
         <f t="shared" si="0"/>
@@ -1269,7 +1269,7 @@
         <v>27</v>
       </c>
       <c r="C16" s="12">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="D16" s="12">
         <f t="shared" si="0"/>
@@ -1311,7 +1311,7 @@
         <v>28</v>
       </c>
       <c r="C17" s="12">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="D17" s="12">
         <f t="shared" si="0"/>
@@ -1353,7 +1353,7 @@
         <v>29</v>
       </c>
       <c r="C18" s="12">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D18" s="12">
         <f t="shared" si="0"/>
@@ -1395,7 +1395,7 @@
         <v>30</v>
       </c>
       <c r="C19" s="12">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="D19" s="12">
         <f t="shared" si="0"/>
@@ -1437,7 +1437,7 @@
         <v>31</v>
       </c>
       <c r="C20" s="12">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="D20" s="12">
         <f t="shared" si="0"/>
@@ -1479,7 +1479,7 @@
         <v>32</v>
       </c>
       <c r="C21" s="12">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="D21" s="12">
         <f t="shared" si="0"/>
@@ -1521,7 +1521,7 @@
         <v>33</v>
       </c>
       <c r="C22" s="12">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="D22" s="12">
         <f t="shared" si="0"/>
@@ -1563,7 +1563,7 @@
         <v>34</v>
       </c>
       <c r="C23" s="12">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="D23" s="12">
         <f t="shared" si="0"/>
@@ -1605,7 +1605,7 @@
         <v>35</v>
       </c>
       <c r="C24" s="12">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="D24" s="12">
         <f t="shared" si="0"/>
@@ -1647,7 +1647,7 @@
         <v>36</v>
       </c>
       <c r="C25" s="12">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="D25" s="12">
         <f t="shared" si="0"/>
@@ -1689,7 +1689,7 @@
         <v>37</v>
       </c>
       <c r="C26" s="12">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="D26" s="12">
         <f t="shared" si="0"/>
@@ -1731,7 +1731,7 @@
         <v>38</v>
       </c>
       <c r="C27" s="12">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D27" s="12">
         <f t="shared" si="0"/>
@@ -1773,7 +1773,7 @@
         <v>39</v>
       </c>
       <c r="C28" s="12">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D28" s="12">
         <f t="shared" si="0"/>
@@ -1815,7 +1815,7 @@
         <v>40</v>
       </c>
       <c r="C29" s="12">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="D29" s="12">
         <f t="shared" si="0"/>
@@ -1857,7 +1857,7 @@
         <v>41</v>
       </c>
       <c r="C30" s="12">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="D30" s="12">
         <f t="shared" si="0"/>
@@ -1899,7 +1899,7 @@
         <v>42</v>
       </c>
       <c r="C31" s="12">
-        <v>110</v>
+        <v>165</v>
       </c>
       <c r="D31" s="12">
         <f t="shared" si="0"/>
@@ -1941,7 +1941,7 @@
         <v>43</v>
       </c>
       <c r="C32" s="12">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="D32" s="12">
         <f t="shared" si="0"/>
@@ -1983,7 +1983,7 @@
         <v>44</v>
       </c>
       <c r="C33" s="12">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="D33" s="12">
         <f t="shared" si="0"/>
@@ -2025,7 +2025,7 @@
         <v>45</v>
       </c>
       <c r="C34" s="12">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D34" s="12">
         <f t="shared" si="0"/>
@@ -2067,7 +2067,7 @@
         <v>46</v>
       </c>
       <c r="C35" s="12">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="D35" s="12">
         <f t="shared" si="0"/>
@@ -2200,7 +2200,7 @@
         <v>47</v>
       </c>
       <c r="C4" s="12">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="D4" s="12">
         <f t="shared" ref="D4:D21" si="0">COUNTIF(F4:AE4,"*")</f>
@@ -2248,7 +2248,7 @@
         <v>48</v>
       </c>
       <c r="C5" s="12">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="D5" s="12">
         <f t="shared" si="0"/>
@@ -2296,7 +2296,7 @@
         <v>49</v>
       </c>
       <c r="C6" s="12">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="D6" s="12">
         <f t="shared" si="0"/>
@@ -2338,7 +2338,7 @@
         <v>50</v>
       </c>
       <c r="C7" s="12">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="D7" s="12">
         <f t="shared" si="0"/>
@@ -2380,7 +2380,7 @@
         <v>51</v>
       </c>
       <c r="C8" s="12">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D8" s="12">
         <f t="shared" si="0"/>
@@ -2422,7 +2422,7 @@
         <v>52</v>
       </c>
       <c r="C9" s="12">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D9" s="12">
         <f t="shared" si="0"/>
@@ -2464,7 +2464,7 @@
         <v>53</v>
       </c>
       <c r="C10" s="12">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D10" s="12">
         <f t="shared" si="0"/>
@@ -2506,7 +2506,7 @@
         <v>54</v>
       </c>
       <c r="C11" s="12">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D11" s="12">
         <f t="shared" si="0"/>
@@ -2545,10 +2545,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C12" s="12">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D12" s="12">
         <f t="shared" si="0"/>
@@ -2587,10 +2587,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C13" s="12">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="D13" s="12">
         <f t="shared" si="0"/>
@@ -2632,7 +2632,7 @@
         <v>56</v>
       </c>
       <c r="C14" s="12">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D14" s="12">
         <f t="shared" si="0"/>
@@ -2674,7 +2674,7 @@
         <v>57</v>
       </c>
       <c r="C15" s="12">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D15" s="12">
         <f t="shared" si="0"/>
@@ -2716,7 +2716,7 @@
         <v>58</v>
       </c>
       <c r="C16" s="12">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D16" s="12">
         <f t="shared" si="0"/>
@@ -2758,7 +2758,7 @@
         <v>59</v>
       </c>
       <c r="C17" s="12">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D17" s="12">
         <f t="shared" si="0"/>
@@ -2800,7 +2800,7 @@
         <v>60</v>
       </c>
       <c r="C18" s="12">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D18" s="12">
         <f t="shared" si="0"/>
@@ -2842,7 +2842,7 @@
         <v>61</v>
       </c>
       <c r="C19" s="12">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D19" s="12">
         <f t="shared" si="0"/>
@@ -2884,7 +2884,7 @@
         <v>62</v>
       </c>
       <c r="C20" s="12">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="D20" s="12">
         <f t="shared" si="0"/>
@@ -2926,7 +2926,7 @@
         <v>63</v>
       </c>
       <c r="C21" s="12">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D21" s="12">
         <f t="shared" si="0"/>

--- a/public/port-battle.xlsx
+++ b/public/port-battle.xlsx
@@ -71,12 +71,12 @@
     <t>St. Pavel</t>
   </si>
   <si>
+    <t>3rd Rate</t>
+  </si>
+  <si>
     <t>Bellona</t>
   </si>
   <si>
-    <t>3rd Rate</t>
-  </si>
-  <si>
     <t>Wasa</t>
   </si>
   <si>
@@ -86,12 +86,12 @@
     <t>Constitution</t>
   </si>
   <si>
+    <t>Wapen von Hamburg</t>
+  </si>
+  <si>
     <t>Ingermanland</t>
   </si>
   <si>
-    <t>Wapen von Hamburg</t>
-  </si>
-  <si>
     <t>Constitution Classic</t>
   </si>
   <si>
@@ -101,57 +101,66 @@
     <t>Diana</t>
   </si>
   <si>
+    <t>Trincomalee</t>
+  </si>
+  <si>
     <t>Endymion</t>
   </si>
   <si>
-    <t>Trincomalee</t>
+    <t>L’Hermione</t>
+  </si>
+  <si>
+    <t>Santa Cecilia</t>
+  </si>
+  <si>
+    <t>Belle Poule</t>
+  </si>
+  <si>
+    <t>Essex</t>
   </si>
   <si>
     <t>Indiaman</t>
   </si>
   <si>
-    <t>Belle Poule</t>
-  </si>
-  <si>
-    <t>Essex</t>
+    <t>Frigate</t>
+  </si>
+  <si>
+    <t>Pirate Frigate</t>
+  </si>
+  <si>
+    <t>Surprise</t>
   </si>
   <si>
     <t>Le Gros Ventre Refit</t>
   </si>
   <si>
-    <t>Pirate Frigate</t>
-  </si>
-  <si>
-    <t>Frigate</t>
-  </si>
-  <si>
-    <t>Santa Cecilia</t>
-  </si>
-  <si>
-    <t>L’Hermione</t>
-  </si>
-  <si>
-    <t>Surprise</t>
+    <t>Renommee</t>
   </si>
   <si>
     <t>Le Gros Ventre</t>
   </si>
   <si>
-    <t>Renommee</t>
+    <t>Xebec</t>
   </si>
   <si>
     <t>Cerberus</t>
   </si>
   <si>
-    <t>Xebec</t>
-  </si>
-  <si>
     <t>Mortar Brig</t>
   </si>
   <si>
     <t>Hercules</t>
   </si>
   <si>
+    <t>Pandora</t>
+  </si>
+  <si>
+    <t>Rattlesnake Heavy</t>
+  </si>
+  <si>
+    <t>Snow</t>
+  </si>
+  <si>
     <t>Mercury</t>
   </si>
   <si>
@@ -161,43 +170,34 @@
     <t>Niagara</t>
   </si>
   <si>
-    <t>Pandora</t>
-  </si>
-  <si>
-    <t>Rattlesnake Heavy</t>
+    <t>Prince de Neufchatel</t>
+  </si>
+  <si>
+    <t>Rattlesnake</t>
   </si>
   <si>
     <t>Brig</t>
   </si>
   <si>
-    <t>Prince de Neufchatel</t>
-  </si>
-  <si>
-    <t>Rattlesnake</t>
-  </si>
-  <si>
-    <t>Snow</t>
-  </si>
-  <si>
     <t>Pickle</t>
   </si>
   <si>
+    <t>Privateer</t>
+  </si>
+  <si>
     <t>Cutter</t>
   </si>
   <si>
     <t>GunBoat</t>
   </si>
   <si>
+    <t>Yacht</t>
+  </si>
+  <si>
+    <t>Yacht Silver</t>
+  </si>
+  <si>
     <t>Lynx</t>
-  </si>
-  <si>
-    <t>Privateer</t>
-  </si>
-  <si>
-    <t>Yacht</t>
-  </si>
-  <si>
-    <t>Yacht Silver</t>
   </si>
 </sst>
 </file>
@@ -729,7 +729,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="10">
-        <v>650</v>
+        <v>605</v>
       </c>
       <c r="D3" s="10">
         <f t="shared" ref="D3:D34" si="0">COUNTIF(F3:AE3,"*")</f>
@@ -777,7 +777,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="10">
-        <v>625</v>
+        <v>570</v>
       </c>
       <c r="D4" s="10">
         <f t="shared" si="0"/>
@@ -825,7 +825,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="10">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="D5" s="10">
         <f t="shared" si="0"/>
@@ -909,7 +909,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="10">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="D7" s="10">
         <f t="shared" si="0"/>
@@ -951,7 +951,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="10">
-        <v>450</v>
+        <v>385</v>
       </c>
       <c r="D8" s="10">
         <f t="shared" si="0"/>
@@ -993,7 +993,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="10">
-        <v>400</v>
+        <v>355</v>
       </c>
       <c r="D9" s="10">
         <f t="shared" si="0"/>
@@ -1035,7 +1035,7 @@
         <v>20</v>
       </c>
       <c r="C10" s="10">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="D10" s="10">
         <f t="shared" si="0"/>
@@ -1077,7 +1077,7 @@
         <v>21</v>
       </c>
       <c r="C11" s="10">
-        <v>380</v>
+        <v>290</v>
       </c>
       <c r="D11" s="10">
         <f t="shared" si="0"/>
@@ -1119,7 +1119,7 @@
         <v>22</v>
       </c>
       <c r="C12" s="10">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="D12" s="10">
         <f t="shared" si="0"/>
@@ -1161,7 +1161,7 @@
         <v>23</v>
       </c>
       <c r="C13" s="10">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="D13" s="10">
         <f t="shared" si="0"/>
@@ -1203,7 +1203,7 @@
         <v>24</v>
       </c>
       <c r="C14" s="10">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="D14" s="10">
         <f t="shared" si="0"/>
@@ -1245,7 +1245,7 @@
         <v>25</v>
       </c>
       <c r="C15" s="10">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="D15" s="10">
         <f t="shared" si="0"/>
@@ -1287,7 +1287,7 @@
         <v>26</v>
       </c>
       <c r="C16" s="10">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="D16" s="10">
         <f t="shared" si="0"/>
@@ -1329,7 +1329,7 @@
         <v>27</v>
       </c>
       <c r="C17" s="10">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D17" s="10">
         <f t="shared" si="0"/>
@@ -1371,7 +1371,7 @@
         <v>28</v>
       </c>
       <c r="C18" s="10">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="D18" s="10">
         <f t="shared" si="0"/>
@@ -1413,7 +1413,7 @@
         <v>29</v>
       </c>
       <c r="C19" s="10">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="D19" s="10">
         <f t="shared" si="0"/>
@@ -1455,7 +1455,7 @@
         <v>30</v>
       </c>
       <c r="C20" s="10">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="D20" s="10">
         <f t="shared" si="0"/>
@@ -1497,7 +1497,7 @@
         <v>31</v>
       </c>
       <c r="C21" s="10">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="D21" s="10">
         <f t="shared" si="0"/>
@@ -1539,7 +1539,7 @@
         <v>32</v>
       </c>
       <c r="C22" s="10">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="D22" s="10">
         <f t="shared" si="0"/>
@@ -1581,7 +1581,7 @@
         <v>33</v>
       </c>
       <c r="C23" s="10">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="D23" s="10">
         <f t="shared" si="0"/>
@@ -1623,7 +1623,7 @@
         <v>34</v>
       </c>
       <c r="C24" s="10">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="D24" s="10">
         <f t="shared" si="0"/>
@@ -1665,7 +1665,7 @@
         <v>35</v>
       </c>
       <c r="C25" s="10">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="D25" s="10">
         <f t="shared" si="0"/>
@@ -1707,7 +1707,7 @@
         <v>36</v>
       </c>
       <c r="C26" s="10">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D26" s="10">
         <f t="shared" si="0"/>
@@ -1749,7 +1749,7 @@
         <v>37</v>
       </c>
       <c r="C27" s="10">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D27" s="10">
         <f t="shared" si="0"/>
@@ -1791,7 +1791,7 @@
         <v>38</v>
       </c>
       <c r="C28" s="10">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="D28" s="10">
         <f t="shared" si="0"/>
@@ -1833,7 +1833,7 @@
         <v>39</v>
       </c>
       <c r="C29" s="10">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="D29" s="10">
         <f t="shared" si="0"/>
@@ -1875,7 +1875,7 @@
         <v>40</v>
       </c>
       <c r="C30" s="10">
-        <v>110</v>
+        <v>165</v>
       </c>
       <c r="D30" s="10">
         <f t="shared" si="0"/>
@@ -1917,7 +1917,7 @@
         <v>41</v>
       </c>
       <c r="C31" s="10">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="D31" s="10">
         <f t="shared" si="0"/>
@@ -1959,7 +1959,7 @@
         <v>42</v>
       </c>
       <c r="C32" s="10">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="D32" s="10">
         <f t="shared" si="0"/>
@@ -2001,7 +2001,7 @@
         <v>43</v>
       </c>
       <c r="C33" s="10">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="D33" s="10">
         <f t="shared" si="0"/>
@@ -2043,7 +2043,7 @@
         <v>44</v>
       </c>
       <c r="C34" s="10">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="D34" s="10">
         <f t="shared" si="0"/>
@@ -2160,7 +2160,7 @@
         <v>45</v>
       </c>
       <c r="C3" s="10">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D3" s="10">
         <f t="shared" ref="D3:D20" si="0">COUNTIF(F3:AE3,"*")</f>
@@ -2205,10 +2205,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C4" s="10">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="D4" s="10">
         <f t="shared" si="0"/>
@@ -2253,10 +2253,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C5" s="10">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D5" s="10">
         <f t="shared" si="0"/>
@@ -2298,7 +2298,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="10">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D6" s="10">
         <f t="shared" si="0"/>
@@ -2340,7 +2340,7 @@
         <v>48</v>
       </c>
       <c r="C7" s="10">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D7" s="10">
         <f t="shared" si="0"/>
@@ -2382,7 +2382,7 @@
         <v>49</v>
       </c>
       <c r="C8" s="10">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D8" s="10">
         <f t="shared" si="0"/>
@@ -2424,7 +2424,7 @@
         <v>50</v>
       </c>
       <c r="C9" s="10">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D9" s="10">
         <f t="shared" si="0"/>
@@ -2466,7 +2466,7 @@
         <v>51</v>
       </c>
       <c r="C10" s="10">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="D10" s="10">
         <f t="shared" si="0"/>
@@ -2508,7 +2508,7 @@
         <v>52</v>
       </c>
       <c r="C11" s="10">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="D11" s="10">
         <f t="shared" si="0"/>
@@ -2550,7 +2550,7 @@
         <v>53</v>
       </c>
       <c r="C12" s="10">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="D12" s="10">
         <f t="shared" si="0"/>
@@ -2592,7 +2592,7 @@
         <v>54</v>
       </c>
       <c r="C13" s="10">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="D13" s="10">
         <f t="shared" si="0"/>
@@ -2634,7 +2634,7 @@
         <v>55</v>
       </c>
       <c r="C14" s="10">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D14" s="10">
         <f t="shared" si="0"/>
@@ -2676,7 +2676,7 @@
         <v>56</v>
       </c>
       <c r="C15" s="10">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="D15" s="10">
         <f t="shared" si="0"/>
@@ -2718,7 +2718,7 @@
         <v>57</v>
       </c>
       <c r="C16" s="10">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D16" s="10">
         <f t="shared" si="0"/>
@@ -2760,7 +2760,7 @@
         <v>58</v>
       </c>
       <c r="C17" s="10">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D17" s="10">
         <f t="shared" si="0"/>
@@ -2802,7 +2802,7 @@
         <v>59</v>
       </c>
       <c r="C18" s="10">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D18" s="10">
         <f t="shared" si="0"/>
@@ -2844,7 +2844,7 @@
         <v>60</v>
       </c>
       <c r="C19" s="10">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D19" s="10">
         <f t="shared" si="0"/>
@@ -2886,7 +2886,7 @@
         <v>61</v>
       </c>
       <c r="C20" s="10">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D20" s="10">
         <f t="shared" si="0"/>

--- a/public/port-battle.xlsx
+++ b/public/port-battle.xlsx
@@ -71,12 +71,12 @@
     <t>St. Pavel</t>
   </si>
   <si>
+    <t>Bellona</t>
+  </si>
+  <si>
     <t>3rd Rate</t>
   </si>
   <si>
-    <t>Bellona</t>
-  </si>
-  <si>
     <t>Wasa</t>
   </si>
   <si>
@@ -101,45 +101,45 @@
     <t>Diana</t>
   </si>
   <si>
+    <t>Endymion</t>
+  </si>
+  <si>
     <t>Trincomalee</t>
   </si>
   <si>
-    <t>Endymion</t>
+    <t>Essex</t>
+  </si>
+  <si>
+    <t>Santa Cecilia</t>
+  </si>
+  <si>
+    <t>Indiaman</t>
   </si>
   <si>
     <t>L’Hermione</t>
   </si>
   <si>
-    <t>Santa Cecilia</t>
-  </si>
-  <si>
     <t>Belle Poule</t>
   </si>
   <si>
-    <t>Essex</t>
-  </si>
-  <si>
-    <t>Indiaman</t>
+    <t>Pirate Frigate</t>
   </si>
   <si>
     <t>Frigate</t>
   </si>
   <si>
-    <t>Pirate Frigate</t>
-  </si>
-  <si>
     <t>Surprise</t>
   </si>
   <si>
+    <t>Le Gros Ventre</t>
+  </si>
+  <si>
     <t>Le Gros Ventre Refit</t>
   </si>
   <si>
     <t>Renommee</t>
   </si>
   <si>
-    <t>Le Gros Ventre</t>
-  </si>
-  <si>
     <t>Xebec</t>
   </si>
   <si>
@@ -155,49 +155,49 @@
     <t>Pandora</t>
   </si>
   <si>
+    <t>Mercury</t>
+  </si>
+  <si>
+    <t>NavyBrig</t>
+  </si>
+  <si>
+    <t>Niagara</t>
+  </si>
+  <si>
+    <t>Prince de Neufchatel</t>
+  </si>
+  <si>
+    <t>Rattlesnake</t>
+  </si>
+  <si>
     <t>Rattlesnake Heavy</t>
   </si>
   <si>
     <t>Snow</t>
   </si>
   <si>
-    <t>Mercury</t>
-  </si>
-  <si>
-    <t>NavyBrig</t>
-  </si>
-  <si>
-    <t>Niagara</t>
-  </si>
-  <si>
-    <t>Prince de Neufchatel</t>
-  </si>
-  <si>
-    <t>Rattlesnake</t>
-  </si>
-  <si>
     <t>Brig</t>
   </si>
   <si>
     <t>Pickle</t>
   </si>
   <si>
+    <t>Cutter</t>
+  </si>
+  <si>
+    <t>GunBoat</t>
+  </si>
+  <si>
+    <t>Lynx</t>
+  </si>
+  <si>
     <t>Privateer</t>
   </si>
   <si>
-    <t>Cutter</t>
-  </si>
-  <si>
-    <t>GunBoat</t>
-  </si>
-  <si>
     <t>Yacht</t>
   </si>
   <si>
     <t>Yacht Silver</t>
-  </si>
-  <si>
-    <t>Lynx</t>
   </si>
 </sst>
 </file>
@@ -777,7 +777,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="10">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="D4" s="10">
         <f t="shared" si="0"/>
@@ -825,7 +825,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="10">
-        <v>500</v>
+        <v>515</v>
       </c>
       <c r="D5" s="10">
         <f t="shared" si="0"/>
@@ -909,7 +909,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="10">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="D7" s="10">
         <f t="shared" si="0"/>
@@ -951,7 +951,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="10">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="D8" s="10">
         <f t="shared" si="0"/>
@@ -993,7 +993,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="10">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="D9" s="10">
         <f t="shared" si="0"/>
@@ -1035,7 +1035,7 @@
         <v>20</v>
       </c>
       <c r="C10" s="10">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="D10" s="10">
         <f t="shared" si="0"/>
@@ -1077,7 +1077,7 @@
         <v>21</v>
       </c>
       <c r="C11" s="10">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="D11" s="10">
         <f t="shared" si="0"/>
@@ -1203,7 +1203,7 @@
         <v>24</v>
       </c>
       <c r="C14" s="10">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D14" s="10">
         <f t="shared" si="0"/>
@@ -1245,7 +1245,7 @@
         <v>25</v>
       </c>
       <c r="C15" s="10">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D15" s="10">
         <f t="shared" si="0"/>
@@ -1329,7 +1329,7 @@
         <v>27</v>
       </c>
       <c r="C17" s="10">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="D17" s="10">
         <f t="shared" si="0"/>
@@ -1413,7 +1413,7 @@
         <v>29</v>
       </c>
       <c r="C19" s="10">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D19" s="10">
         <f t="shared" si="0"/>
@@ -1455,7 +1455,7 @@
         <v>30</v>
       </c>
       <c r="C20" s="10">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D20" s="10">
         <f t="shared" si="0"/>
@@ -1497,7 +1497,7 @@
         <v>31</v>
       </c>
       <c r="C21" s="10">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="D21" s="10">
         <f t="shared" si="0"/>
@@ -1539,7 +1539,7 @@
         <v>32</v>
       </c>
       <c r="C22" s="10">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="D22" s="10">
         <f t="shared" si="0"/>
@@ -1581,7 +1581,7 @@
         <v>33</v>
       </c>
       <c r="C23" s="10">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="D23" s="10">
         <f t="shared" si="0"/>
@@ -1623,7 +1623,7 @@
         <v>34</v>
       </c>
       <c r="C24" s="10">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="D24" s="10">
         <f t="shared" si="0"/>
@@ -1665,7 +1665,7 @@
         <v>35</v>
       </c>
       <c r="C25" s="10">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="D25" s="10">
         <f t="shared" si="0"/>
@@ -1749,7 +1749,7 @@
         <v>37</v>
       </c>
       <c r="C27" s="10">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D27" s="10">
         <f t="shared" si="0"/>
@@ -1791,7 +1791,7 @@
         <v>38</v>
       </c>
       <c r="C28" s="10">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="D28" s="10">
         <f t="shared" si="0"/>
@@ -1833,7 +1833,7 @@
         <v>39</v>
       </c>
       <c r="C29" s="10">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="D29" s="10">
         <f t="shared" si="0"/>
@@ -1875,7 +1875,7 @@
         <v>40</v>
       </c>
       <c r="C30" s="10">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="D30" s="10">
         <f t="shared" si="0"/>
@@ -1917,7 +1917,7 @@
         <v>41</v>
       </c>
       <c r="C31" s="10">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="D31" s="10">
         <f t="shared" si="0"/>
@@ -1959,7 +1959,7 @@
         <v>42</v>
       </c>
       <c r="C32" s="10">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="D32" s="10">
         <f t="shared" si="0"/>
@@ -2001,7 +2001,7 @@
         <v>43</v>
       </c>
       <c r="C33" s="10">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D33" s="10">
         <f t="shared" si="0"/>
@@ -2043,7 +2043,7 @@
         <v>44</v>
       </c>
       <c r="C34" s="10">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D34" s="10">
         <f t="shared" si="0"/>
@@ -2160,7 +2160,7 @@
         <v>45</v>
       </c>
       <c r="C3" s="10">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D3" s="10">
         <f t="shared" ref="D3:D20" si="0">COUNTIF(F3:AE3,"*")</f>
@@ -2208,7 +2208,7 @@
         <v>46</v>
       </c>
       <c r="C4" s="10">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D4" s="10">
         <f t="shared" si="0"/>
@@ -2253,10 +2253,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C5" s="10">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D5" s="10">
         <f t="shared" si="0"/>
@@ -2295,10 +2295,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C6" s="10">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D6" s="10">
         <f t="shared" si="0"/>
@@ -2340,7 +2340,7 @@
         <v>48</v>
       </c>
       <c r="C7" s="10">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D7" s="10">
         <f t="shared" si="0"/>
@@ -2382,7 +2382,7 @@
         <v>49</v>
       </c>
       <c r="C8" s="10">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D8" s="10">
         <f t="shared" si="0"/>
@@ -2424,7 +2424,7 @@
         <v>50</v>
       </c>
       <c r="C9" s="10">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D9" s="10">
         <f t="shared" si="0"/>
@@ -2466,7 +2466,7 @@
         <v>51</v>
       </c>
       <c r="C10" s="10">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D10" s="10">
         <f t="shared" si="0"/>
@@ -2508,7 +2508,7 @@
         <v>52</v>
       </c>
       <c r="C11" s="10">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D11" s="10">
         <f t="shared" si="0"/>
@@ -2550,7 +2550,7 @@
         <v>53</v>
       </c>
       <c r="C12" s="10">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D12" s="10">
         <f t="shared" si="0"/>
@@ -2592,7 +2592,7 @@
         <v>54</v>
       </c>
       <c r="C13" s="10">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D13" s="10">
         <f t="shared" si="0"/>
@@ -2634,7 +2634,7 @@
         <v>55</v>
       </c>
       <c r="C14" s="10">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D14" s="10">
         <f t="shared" si="0"/>
@@ -2676,7 +2676,7 @@
         <v>56</v>
       </c>
       <c r="C15" s="10">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D15" s="10">
         <f t="shared" si="0"/>
@@ -2886,7 +2886,7 @@
         <v>61</v>
       </c>
       <c r="C20" s="10">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D20" s="10">
         <f t="shared" si="0"/>

--- a/public/port-battle.xlsx
+++ b/public/port-battle.xlsx
@@ -77,12 +77,12 @@
     <t>St. Pavel</t>
   </si>
   <si>
+    <t>Bellona</t>
+  </si>
+  <si>
     <t>3rd Rate</t>
   </si>
   <si>
-    <t>Bellona</t>
-  </si>
-  <si>
     <t>Wasa</t>
   </si>
   <si>
@@ -104,30 +104,30 @@
     <t>Indefatigable</t>
   </si>
   <si>
+    <t>Diana</t>
+  </si>
+  <si>
+    <t>Endymion</t>
+  </si>
+  <si>
     <t>Trincomalee</t>
   </si>
   <si>
-    <t>Diana</t>
-  </si>
-  <si>
-    <t>Endymion</t>
+    <t>Essex</t>
+  </si>
+  <si>
+    <t>Santa Cecilia</t>
+  </si>
+  <si>
+    <t>Indiaman</t>
   </si>
   <si>
     <t>L’Hermione</t>
   </si>
   <si>
-    <t>Santa Cecilia</t>
-  </si>
-  <si>
-    <t>Essex</t>
-  </si>
-  <si>
     <t>Belle Poule</t>
   </si>
   <si>
-    <t>Indiaman</t>
-  </si>
-  <si>
     <t>Pirate Frigate</t>
   </si>
   <si>
@@ -137,15 +137,15 @@
     <t>Surprise</t>
   </si>
   <si>
+    <t>Le Gros Ventre Refit</t>
+  </si>
+  <si>
+    <t>Le Gros Ventre</t>
+  </si>
+  <si>
     <t>Renommee</t>
   </si>
   <si>
-    <t>Le Gros Ventre Refit</t>
-  </si>
-  <si>
-    <t>Le Gros Ventre</t>
-  </si>
-  <si>
     <t>Xebec</t>
   </si>
   <si>
@@ -158,6 +158,9 @@
     <t>Brig</t>
   </si>
   <si>
+    <t>Rattlesnake Heavy</t>
+  </si>
+  <si>
     <t>Mercury</t>
   </si>
   <si>
@@ -167,40 +170,37 @@
     <t>Niagara</t>
   </si>
   <si>
+    <t>Snow</t>
+  </si>
+  <si>
     <t>Prince de Neufchatel</t>
   </si>
   <si>
     <t>Rattlesnake</t>
   </si>
   <si>
-    <t>Snow</t>
-  </si>
-  <si>
-    <t>Rattlesnake Heavy</t>
-  </si>
-  <si>
     <t>Hercules</t>
   </si>
   <si>
     <t>Pandora</t>
   </si>
   <si>
+    <t>Cutter</t>
+  </si>
+  <si>
+    <t>GunBoat</t>
+  </si>
+  <si>
     <t>Lynx</t>
   </si>
   <si>
-    <t>Cutter</t>
-  </si>
-  <si>
-    <t>GunBoat</t>
+    <t>Privateer</t>
   </si>
   <si>
     <t>Yacht</t>
   </si>
   <si>
     <t>Yacht Silver</t>
-  </si>
-  <si>
-    <t>Privateer</t>
   </si>
   <si>
     <t>Pickle</t>
@@ -801,7 +801,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="12">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="D5" s="12">
         <f t="shared" si="0"/>
@@ -849,7 +849,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="12">
-        <v>500</v>
+        <v>515</v>
       </c>
       <c r="D6" s="12">
         <f t="shared" si="0"/>
@@ -933,7 +933,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="12">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="D8" s="12">
         <f t="shared" si="0"/>
@@ -975,7 +975,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="12">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="D9" s="12">
         <f t="shared" si="0"/>
@@ -1017,7 +1017,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="12">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="D10" s="12">
         <f t="shared" si="0"/>
@@ -1059,7 +1059,7 @@
         <v>22</v>
       </c>
       <c r="C11" s="12">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="D11" s="12">
         <f t="shared" si="0"/>
@@ -1101,7 +1101,7 @@
         <v>23</v>
       </c>
       <c r="C12" s="12">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="D12" s="12">
         <f t="shared" si="0"/>
@@ -1227,7 +1227,7 @@
         <v>26</v>
       </c>
       <c r="C15" s="12">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D15" s="12">
         <f t="shared" si="0"/>
@@ -1269,7 +1269,7 @@
         <v>27</v>
       </c>
       <c r="C16" s="12">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D16" s="12">
         <f t="shared" si="0"/>
@@ -1353,7 +1353,7 @@
         <v>29</v>
       </c>
       <c r="C18" s="12">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="D18" s="12">
         <f t="shared" si="0"/>
@@ -1437,7 +1437,7 @@
         <v>31</v>
       </c>
       <c r="C20" s="12">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D20" s="12">
         <f t="shared" si="0"/>
@@ -1479,7 +1479,7 @@
         <v>32</v>
       </c>
       <c r="C21" s="12">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D21" s="12">
         <f t="shared" si="0"/>
@@ -1521,7 +1521,7 @@
         <v>33</v>
       </c>
       <c r="C22" s="12">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="D22" s="12">
         <f t="shared" si="0"/>
@@ -1563,7 +1563,7 @@
         <v>34</v>
       </c>
       <c r="C23" s="12">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="D23" s="12">
         <f t="shared" si="0"/>
@@ -1605,7 +1605,7 @@
         <v>35</v>
       </c>
       <c r="C24" s="12">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="D24" s="12">
         <f t="shared" si="0"/>
@@ -1647,7 +1647,7 @@
         <v>36</v>
       </c>
       <c r="C25" s="12">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="D25" s="12">
         <f t="shared" si="0"/>
@@ -1689,7 +1689,7 @@
         <v>37</v>
       </c>
       <c r="C26" s="12">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="D26" s="12">
         <f t="shared" si="0"/>
@@ -1773,7 +1773,7 @@
         <v>39</v>
       </c>
       <c r="C28" s="12">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D28" s="12">
         <f t="shared" si="0"/>
@@ -1815,7 +1815,7 @@
         <v>40</v>
       </c>
       <c r="C29" s="12">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="D29" s="12">
         <f t="shared" si="0"/>
@@ -1857,7 +1857,7 @@
         <v>41</v>
       </c>
       <c r="C30" s="12">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="D30" s="12">
         <f t="shared" si="0"/>
@@ -1899,7 +1899,7 @@
         <v>42</v>
       </c>
       <c r="C31" s="12">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="D31" s="12">
         <f t="shared" si="0"/>
@@ -1941,7 +1941,7 @@
         <v>43</v>
       </c>
       <c r="C32" s="12">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="D32" s="12">
         <f t="shared" si="0"/>
@@ -1983,7 +1983,7 @@
         <v>44</v>
       </c>
       <c r="C33" s="12">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="D33" s="12">
         <f t="shared" si="0"/>
@@ -2025,7 +2025,7 @@
         <v>45</v>
       </c>
       <c r="C34" s="12">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D34" s="12">
         <f t="shared" si="0"/>
@@ -2067,7 +2067,7 @@
         <v>46</v>
       </c>
       <c r="C35" s="12">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D35" s="12">
         <f t="shared" si="0"/>
@@ -2200,7 +2200,7 @@
         <v>47</v>
       </c>
       <c r="C4" s="12">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D4" s="12">
         <f t="shared" ref="D4:D21" si="0">COUNTIF(F4:AE4,"*")</f>
@@ -2248,7 +2248,7 @@
         <v>48</v>
       </c>
       <c r="C5" s="12">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D5" s="12">
         <f t="shared" si="0"/>
@@ -2296,7 +2296,7 @@
         <v>49</v>
       </c>
       <c r="C6" s="12">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D6" s="12">
         <f t="shared" si="0"/>
@@ -2335,10 +2335,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C7" s="12">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D7" s="12">
         <f t="shared" si="0"/>
@@ -2377,10 +2377,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" s="12">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D8" s="12">
         <f t="shared" si="0"/>
@@ -2419,10 +2419,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="12">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D9" s="12">
         <f t="shared" si="0"/>
@@ -2461,10 +2461,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" s="12">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D10" s="12">
         <f t="shared" si="0"/>
@@ -2503,10 +2503,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="12">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D11" s="12">
         <f t="shared" si="0"/>
@@ -2545,10 +2545,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C12" s="12">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D12" s="12">
         <f t="shared" si="0"/>
@@ -2590,7 +2590,7 @@
         <v>55</v>
       </c>
       <c r="C13" s="12">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D13" s="12">
         <f t="shared" si="0"/>
@@ -2632,7 +2632,7 @@
         <v>56</v>
       </c>
       <c r="C14" s="12">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D14" s="12">
         <f t="shared" si="0"/>
@@ -2674,7 +2674,7 @@
         <v>57</v>
       </c>
       <c r="C15" s="12">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D15" s="12">
         <f t="shared" si="0"/>
@@ -2884,7 +2884,7 @@
         <v>62</v>
       </c>
       <c r="C20" s="12">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D20" s="12">
         <f t="shared" si="0"/>
@@ -2926,7 +2926,7 @@
         <v>63</v>
       </c>
       <c r="C21" s="12">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D21" s="12">
         <f t="shared" si="0"/>

--- a/public/port-battle.xlsx
+++ b/public/port-battle.xlsx
@@ -119,12 +119,12 @@
     <t>Santa Cecilia</t>
   </si>
   <si>
+    <t>Indiaman</t>
+  </si>
+  <si>
     <t>L’Hermione</t>
   </si>
   <si>
-    <t>Indiaman</t>
-  </si>
-  <si>
     <t>Belle Poule</t>
   </si>
   <si>
@@ -140,15 +140,15 @@
     <t>Le Gros Ventre Refit</t>
   </si>
   <si>
+    <t>Le Gros Ventre</t>
+  </si>
+  <si>
+    <t>Renommee</t>
+  </si>
+  <si>
     <t>Xebec</t>
   </si>
   <si>
-    <t>Renommee</t>
-  </si>
-  <si>
-    <t>Le Gros Ventre</t>
-  </si>
-  <si>
     <t>Cerberus</t>
   </si>
   <si>
@@ -158,49 +158,49 @@
     <t>Brig</t>
   </si>
   <si>
+    <t>Rattlesnake Heavy</t>
+  </si>
+  <si>
     <t>Mercury</t>
   </si>
   <si>
-    <t>Rattlesnake Heavy</t>
+    <t>NavyBrig</t>
   </si>
   <si>
     <t>Niagara</t>
   </si>
   <si>
-    <t>NavyBrig</t>
+    <t>Snow</t>
+  </si>
+  <si>
+    <t>Prince de Neufchatel</t>
   </si>
   <si>
     <t>Rattlesnake</t>
   </si>
   <si>
-    <t>Prince de Neufchatel</t>
-  </si>
-  <si>
-    <t>Snow</t>
-  </si>
-  <si>
     <t>Hercules</t>
   </si>
   <si>
     <t>Pandora</t>
   </si>
   <si>
+    <t>Cutter</t>
+  </si>
+  <si>
+    <t>GunBoat</t>
+  </si>
+  <si>
+    <t>Lynx</t>
+  </si>
+  <si>
     <t>Privateer</t>
   </si>
   <si>
-    <t>GunBoat</t>
-  </si>
-  <si>
-    <t>Cutter</t>
-  </si>
-  <si>
-    <t>Lynx</t>
+    <t>Yacht</t>
   </si>
   <si>
     <t>Yacht Silver</t>
-  </si>
-  <si>
-    <t>Yacht</t>
   </si>
   <si>
     <t>Pickle</t>

--- a/public/port-battle.xlsx
+++ b/public/port-battle.xlsx
@@ -155,34 +155,37 @@
     <t>Mortar Brig</t>
   </si>
   <si>
+    <t>Hercules</t>
+  </si>
+  <si>
+    <t>Pandora</t>
+  </si>
+  <si>
+    <t>Mercury</t>
+  </si>
+  <si>
+    <t>NavyBrig</t>
+  </si>
+  <si>
+    <t>Niagara</t>
+  </si>
+  <si>
+    <t>Prince de Neufchatel</t>
+  </si>
+  <si>
+    <t>Rattlesnake</t>
+  </si>
+  <si>
+    <t>Rattlesnake Heavy</t>
+  </si>
+  <si>
+    <t>Snow</t>
+  </si>
+  <si>
     <t>Brig</t>
   </si>
   <si>
-    <t>Rattlesnake Heavy</t>
-  </si>
-  <si>
-    <t>Mercury</t>
-  </si>
-  <si>
-    <t>NavyBrig</t>
-  </si>
-  <si>
-    <t>Niagara</t>
-  </si>
-  <si>
-    <t>Snow</t>
-  </si>
-  <si>
-    <t>Prince de Neufchatel</t>
-  </si>
-  <si>
-    <t>Rattlesnake</t>
-  </si>
-  <si>
-    <t>Hercules</t>
-  </si>
-  <si>
-    <t>Pandora</t>
+    <t>Pickle</t>
   </si>
   <si>
     <t>Cutter</t>
@@ -201,15 +204,15 @@
   </si>
   <si>
     <t>Yacht Silver</t>
-  </si>
-  <si>
-    <t>Pickle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#"/>
+  </numFmts>
   <fonts count="6">
     <font>
       <color theme="1"/>
@@ -296,18 +299,18 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -316,14 +319,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -733,10 +736,10 @@
         <v>8</v>
       </c>
       <c r="D3" s="9">
-        <f>SUM(D4:D34)</f>
+        <f>SUM(D4:D35)</f>
       </c>
       <c r="E3" s="9">
-        <f>SUM(E4:E34)</f>
+        <f>SUM(E4:E35)</f>
       </c>
       <c r="F3" s="10" t="s">
         <v>9</v>
@@ -2180,10 +2183,10 @@
         <v>8</v>
       </c>
       <c r="D3" s="9">
-        <f>SUM(D4:D20)</f>
+        <f>SUM(D4:D21)</f>
       </c>
       <c r="E3" s="9">
-        <f>SUM(E4:E20)</f>
+        <f>SUM(E4:E21)</f>
       </c>
       <c r="F3" s="10" t="s">
         <v>9</v>
@@ -2200,7 +2203,7 @@
         <v>47</v>
       </c>
       <c r="C4" s="12">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D4" s="12">
         <f t="shared" ref="D4:D21" si="0">COUNTIF(F4:AE4,"*")</f>
@@ -2248,7 +2251,7 @@
         <v>48</v>
       </c>
       <c r="C5" s="12">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D5" s="12">
         <f t="shared" si="0"/>
@@ -2590,7 +2593,7 @@
         <v>55</v>
       </c>
       <c r="C13" s="12">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D13" s="12">
         <f t="shared" si="0"/>
@@ -2632,7 +2635,7 @@
         <v>56</v>
       </c>
       <c r="C14" s="12">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="D14" s="12">
         <f t="shared" si="0"/>
@@ -2674,7 +2677,7 @@
         <v>57</v>
       </c>
       <c r="C15" s="12">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D15" s="12">
         <f t="shared" si="0"/>
@@ -2926,7 +2929,7 @@
         <v>63</v>
       </c>
       <c r="C21" s="12">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D21" s="12">
         <f t="shared" si="0"/>

--- a/public/port-battle.xlsx
+++ b/public/port-battle.xlsx
@@ -92,15 +92,15 @@
     <t>Constitution</t>
   </si>
   <si>
+    <t>Constitution Classic</t>
+  </si>
+  <si>
     <t>Wapen von Hamburg</t>
   </si>
   <si>
     <t>Ingermanland</t>
   </si>
   <si>
-    <t>Constitution Classic</t>
-  </si>
-  <si>
     <t>Indefatigable</t>
   </si>
   <si>
@@ -146,16 +146,16 @@
     <t>Renommee</t>
   </si>
   <si>
-    <t>Xebec</t>
-  </si>
-  <si>
     <t>Cerberus</t>
   </si>
   <si>
+    <t>Le Requin</t>
+  </si>
+  <si>
+    <t>Pandora</t>
+  </si>
+  <si>
     <t>Hercules</t>
-  </si>
-  <si>
-    <t>Pandora</t>
   </si>
   <si>
     <t>Mercury</t>
@@ -1249,7 +1249,7 @@
         <v>26</v>
       </c>
       <c r="C15" s="15">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="D15" s="15">
         <f t="shared" si="0"/>
@@ -1291,7 +1291,7 @@
         <v>27</v>
       </c>
       <c r="C16" s="15">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="D16" s="15">
         <f t="shared" si="0"/>
@@ -1326,46 +1326,46 @@
       <c r="AD16" s="17"/>
     </row>
     <row r="17" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
-        <v>5</v>
-      </c>
-      <c r="B17" s="13" t="s">
+      <c r="A17" s="15">
+        <v>4</v>
+      </c>
+      <c r="B17" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="12">
-        <v>290</v>
-      </c>
-      <c r="D17" s="12">
-        <f t="shared" si="0"/>
-      </c>
-      <c r="E17" s="12">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="14"/>
-      <c r="X17" s="14"/>
-      <c r="Y17" s="14"/>
-      <c r="Z17" s="14"/>
-      <c r="AA17" s="14"/>
-      <c r="AB17" s="14"/>
-      <c r="AC17" s="14"/>
-      <c r="AD17" s="14"/>
+      <c r="C17" s="15">
+        <v>275</v>
+      </c>
+      <c r="D17" s="15">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="E17" s="15">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="17"/>
+      <c r="AA17" s="17"/>
+      <c r="AB17" s="17"/>
+      <c r="AC17" s="17"/>
+      <c r="AD17" s="17"/>
     </row>
     <row r="18" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
@@ -2005,7 +2005,7 @@
         <v>44</v>
       </c>
       <c r="C33" s="12">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D33" s="12">
         <f t="shared" si="0"/>
@@ -2047,7 +2047,7 @@
         <v>45</v>
       </c>
       <c r="C34" s="12">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D34" s="12">
         <f t="shared" si="0"/>
@@ -2131,7 +2131,7 @@
         <v>47</v>
       </c>
       <c r="C36" s="15">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D36" s="15">
         <f t="shared" si="0"/>
@@ -2648,7 +2648,7 @@
         <v>47</v>
       </c>
       <c r="C5" s="15">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D5" s="15">
         <f t="shared" si="0"/>

--- a/public/port-battle.xlsx
+++ b/public/port-battle.xlsx
@@ -1791,7 +1791,7 @@
         <v>605</v>
       </c>
       <c r="D5" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F5:AC5)))</f>
+        <f>COUNTA(F5:AC5)</f>
       </c>
       <c r="E5" s="27">
         <f>C5*D5</f>
@@ -1844,7 +1844,7 @@
         <v>580</v>
       </c>
       <c r="D6" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F6:AC6)))</f>
+        <f>COUNTA(F6:AC6)</f>
       </c>
       <c r="E6" s="27">
         <f>C6*D6</f>
@@ -1897,7 +1897,7 @@
         <v>515</v>
       </c>
       <c r="D7" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F7:AC7)))</f>
+        <f>COUNTA(F7:AC7)</f>
       </c>
       <c r="E7" s="27">
         <f>C7*D7</f>
@@ -1944,7 +1944,7 @@
         <v>500</v>
       </c>
       <c r="D8" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F8:AC8)))</f>
+        <f>COUNTA(F8:AC8)</f>
       </c>
       <c r="E8" s="32">
         <f>C8*D8</f>
@@ -1991,7 +1991,7 @@
         <v>450</v>
       </c>
       <c r="D9" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F9:AC9)))</f>
+        <f>COUNTA(F9:AC9)</f>
       </c>
       <c r="E9" s="32">
         <f>C9*D9</f>
@@ -2038,7 +2038,7 @@
         <v>395</v>
       </c>
       <c r="D10" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F10:AC10)))</f>
+        <f>COUNTA(F10:AC10)</f>
       </c>
       <c r="E10" s="32">
         <f>C10*D10</f>
@@ -2085,7 +2085,7 @@
         <v>365</v>
       </c>
       <c r="D11" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F11:AC11)))</f>
+        <f>COUNTA(F11:AC11)</f>
       </c>
       <c r="E11" s="27">
         <f>C11*D11</f>
@@ -2132,7 +2132,7 @@
         <v>355</v>
       </c>
       <c r="D12" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F12:AC12)))</f>
+        <f>COUNTA(F12:AC12)</f>
       </c>
       <c r="E12" s="27">
         <f>C12*D12</f>
@@ -2179,7 +2179,7 @@
         <v>305</v>
       </c>
       <c r="D13" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F13:AC13)))</f>
+        <f>COUNTA(F13:AC13)</f>
       </c>
       <c r="E13" s="27">
         <f>C13*D13</f>
@@ -2226,7 +2226,7 @@
         <v>300</v>
       </c>
       <c r="D14" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F14:AC14)))</f>
+        <f>COUNTA(F14:AC14)</f>
       </c>
       <c r="E14" s="32">
         <f>C14*D14</f>
@@ -2273,7 +2273,7 @@
         <v>290</v>
       </c>
       <c r="D15" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F15:AC15)))</f>
+        <f>COUNTA(F15:AC15)</f>
       </c>
       <c r="E15" s="32">
         <f>C15*D15</f>
@@ -2320,7 +2320,7 @@
         <v>290</v>
       </c>
       <c r="D16" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F16:AC16)))</f>
+        <f>COUNTA(F16:AC16)</f>
       </c>
       <c r="E16" s="32">
         <f>C16*D16</f>
@@ -2367,7 +2367,7 @@
         <v>280</v>
       </c>
       <c r="D17" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F17:AC17)))</f>
+        <f>COUNTA(F17:AC17)</f>
       </c>
       <c r="E17" s="32">
         <f>C17*D17</f>
@@ -2414,7 +2414,7 @@
         <v>275</v>
       </c>
       <c r="D18" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F18:AC18)))</f>
+        <f>COUNTA(F18:AC18)</f>
       </c>
       <c r="E18" s="32">
         <f>C18*D18</f>
@@ -2461,7 +2461,7 @@
         <v>250</v>
       </c>
       <c r="D19" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F19:AC19)))</f>
+        <f>COUNTA(F19:AC19)</f>
       </c>
       <c r="E19" s="27">
         <f>C19*D19</f>
@@ -2508,7 +2508,7 @@
         <v>240</v>
       </c>
       <c r="D20" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F20:AC20)))</f>
+        <f>COUNTA(F20:AC20)</f>
       </c>
       <c r="E20" s="27">
         <f>C20*D20</f>
@@ -2555,7 +2555,7 @@
         <v>235</v>
       </c>
       <c r="D21" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F21:AC21)))</f>
+        <f>COUNTA(F21:AC21)</f>
       </c>
       <c r="E21" s="27">
         <f>C21*D21</f>
@@ -2602,7 +2602,7 @@
         <v>230</v>
       </c>
       <c r="D22" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F22:AC22)))</f>
+        <f>COUNTA(F22:AC22)</f>
       </c>
       <c r="E22" s="27">
         <f>C22*D22</f>
@@ -2649,7 +2649,7 @@
         <v>200</v>
       </c>
       <c r="D23" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F23:AC23)))</f>
+        <f>COUNTA(F23:AC23)</f>
       </c>
       <c r="E23" s="27">
         <f>C23*D23</f>
@@ -2696,7 +2696,7 @@
         <v>195</v>
       </c>
       <c r="D24" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F24:AC24)))</f>
+        <f>COUNTA(F24:AC24)</f>
       </c>
       <c r="E24" s="27">
         <f>C24*D24</f>
@@ -2743,7 +2743,7 @@
         <v>190</v>
       </c>
       <c r="D25" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F25:AC25)))</f>
+        <f>COUNTA(F25:AC25)</f>
       </c>
       <c r="E25" s="27">
         <f>C25*D25</f>
@@ -2790,7 +2790,7 @@
         <v>190</v>
       </c>
       <c r="D26" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F26:AC26)))</f>
+        <f>COUNTA(F26:AC26)</f>
       </c>
       <c r="E26" s="27">
         <f>C26*D26</f>
@@ -2837,7 +2837,7 @@
         <v>185</v>
       </c>
       <c r="D27" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F27:AC27)))</f>
+        <f>COUNTA(F27:AC27)</f>
       </c>
       <c r="E27" s="27">
         <f>C27*D27</f>
@@ -2884,7 +2884,7 @@
         <v>180</v>
       </c>
       <c r="D28" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F28:AC28)))</f>
+        <f>COUNTA(F28:AC28)</f>
       </c>
       <c r="E28" s="27">
         <f>C28*D28</f>
@@ -2931,7 +2931,7 @@
         <v>175</v>
       </c>
       <c r="D29" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F29:AC29)))</f>
+        <f>COUNTA(F29:AC29)</f>
       </c>
       <c r="E29" s="27">
         <f>C29*D29</f>
@@ -2978,7 +2978,7 @@
         <v>155</v>
       </c>
       <c r="D30" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F30:AC30)))</f>
+        <f>COUNTA(F30:AC30)</f>
       </c>
       <c r="E30" s="27">
         <f>C30*D30</f>
@@ -3025,7 +3025,7 @@
         <v>150</v>
       </c>
       <c r="D31" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F31:AC31)))</f>
+        <f>COUNTA(F31:AC31)</f>
       </c>
       <c r="E31" s="27">
         <f>C31*D31</f>
@@ -3072,7 +3072,7 @@
         <v>150</v>
       </c>
       <c r="D32" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F32:AC32)))</f>
+        <f>COUNTA(F32:AC32)</f>
       </c>
       <c r="E32" s="27">
         <f>C32*D32</f>
@@ -3119,7 +3119,7 @@
         <v>150</v>
       </c>
       <c r="D33" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F33:AC33)))</f>
+        <f>COUNTA(F33:AC33)</f>
       </c>
       <c r="E33" s="27">
         <f>C33*D33</f>
@@ -3166,7 +3166,7 @@
         <v>140</v>
       </c>
       <c r="D34" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F34:AC34)))</f>
+        <f>COUNTA(F34:AC34)</f>
       </c>
       <c r="E34" s="27">
         <f>C34*D34</f>
@@ -3213,7 +3213,7 @@
         <v>80</v>
       </c>
       <c r="D35" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F35:AC35)))</f>
+        <f>COUNTA(F35:AC35)</f>
       </c>
       <c r="E35" s="27">
         <f>C35*D35</f>
@@ -3260,7 +3260,7 @@
         <v>100</v>
       </c>
       <c r="D36" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F36:AC36)))</f>
+        <f>COUNTA(F36:AC36)</f>
       </c>
       <c r="E36" s="32">
         <f>C36*D36</f>
@@ -3307,7 +3307,7 @@
         <v>80</v>
       </c>
       <c r="D37" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F37:AC37)))</f>
+        <f>COUNTA(F37:AC37)</f>
       </c>
       <c r="E37" s="32">
         <f>C37*D37</f>
@@ -3354,7 +3354,7 @@
         <v>80</v>
       </c>
       <c r="D38" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F38:AC38)))</f>
+        <f>COUNTA(F38:AC38)</f>
       </c>
       <c r="E38" s="32">
         <f>C38*D38</f>
@@ -3401,7 +3401,7 @@
         <v>80</v>
       </c>
       <c r="D39" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F39:AC39)))</f>
+        <f>COUNTA(F39:AC39)</f>
       </c>
       <c r="E39" s="32">
         <f>C39*D39</f>
@@ -3448,7 +3448,7 @@
         <v>80</v>
       </c>
       <c r="D40" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F40:AC40)))</f>
+        <f>COUNTA(F40:AC40)</f>
       </c>
       <c r="E40" s="32">
         <f>C40*D40</f>
@@ -3495,7 +3495,7 @@
         <v>80</v>
       </c>
       <c r="D41" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F41:AC41)))</f>
+        <f>COUNTA(F41:AC41)</f>
       </c>
       <c r="E41" s="32">
         <f>C41*D41</f>
@@ -3542,7 +3542,7 @@
         <v>80</v>
       </c>
       <c r="D42" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F42:AC42)))</f>
+        <f>COUNTA(F42:AC42)</f>
       </c>
       <c r="E42" s="32">
         <f>C42*D42</f>
@@ -3589,7 +3589,7 @@
         <v>80</v>
       </c>
       <c r="D43" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F43:AC43)))</f>
+        <f>COUNTA(F43:AC43)</f>
       </c>
       <c r="E43" s="32">
         <f>C43*D43</f>
@@ -3636,7 +3636,7 @@
         <v>80</v>
       </c>
       <c r="D44" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F44:AC44)))</f>
+        <f>COUNTA(F44:AC44)</f>
       </c>
       <c r="E44" s="32">
         <f>C44*D44</f>
@@ -3683,7 +3683,7 @@
         <v>80</v>
       </c>
       <c r="D45" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F45:AC45)))</f>
+        <f>COUNTA(F45:AC45)</f>
       </c>
       <c r="E45" s="32">
         <f>C45*D45</f>
@@ -6057,7 +6057,7 @@
         <v>100</v>
       </c>
       <c r="D5" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F5:AC5)))</f>
+        <f>COUNTA(F5:AC5)</f>
       </c>
       <c r="E5" s="32">
         <f>C5*D5</f>
@@ -6110,7 +6110,7 @@
         <v>80</v>
       </c>
       <c r="D6" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F6:AC6)))</f>
+        <f>COUNTA(F6:AC6)</f>
       </c>
       <c r="E6" s="32">
         <f>C6*D6</f>
@@ -6163,7 +6163,7 @@
         <v>80</v>
       </c>
       <c r="D7" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F7:AC7)))</f>
+        <f>COUNTA(F7:AC7)</f>
       </c>
       <c r="E7" s="32">
         <f>C7*D7</f>
@@ -6210,7 +6210,7 @@
         <v>80</v>
       </c>
       <c r="D8" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F8:AC8)))</f>
+        <f>COUNTA(F8:AC8)</f>
       </c>
       <c r="E8" s="32">
         <f>C8*D8</f>
@@ -6257,7 +6257,7 @@
         <v>80</v>
       </c>
       <c r="D9" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F9:AC9)))</f>
+        <f>COUNTA(F9:AC9)</f>
       </c>
       <c r="E9" s="32">
         <f>C9*D9</f>
@@ -6304,7 +6304,7 @@
         <v>80</v>
       </c>
       <c r="D10" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F10:AC10)))</f>
+        <f>COUNTA(F10:AC10)</f>
       </c>
       <c r="E10" s="32">
         <f>C10*D10</f>
@@ -6351,7 +6351,7 @@
         <v>80</v>
       </c>
       <c r="D11" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F11:AC11)))</f>
+        <f>COUNTA(F11:AC11)</f>
       </c>
       <c r="E11" s="32">
         <f>C11*D11</f>
@@ -6398,7 +6398,7 @@
         <v>80</v>
       </c>
       <c r="D12" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F12:AC12)))</f>
+        <f>COUNTA(F12:AC12)</f>
       </c>
       <c r="E12" s="32">
         <f>C12*D12</f>
@@ -6445,7 +6445,7 @@
         <v>80</v>
       </c>
       <c r="D13" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F13:AC13)))</f>
+        <f>COUNTA(F13:AC13)</f>
       </c>
       <c r="E13" s="32">
         <f>C13*D13</f>
@@ -6492,7 +6492,7 @@
         <v>80</v>
       </c>
       <c r="D14" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F14:AC14)))</f>
+        <f>COUNTA(F14:AC14)</f>
       </c>
       <c r="E14" s="32">
         <f>C14*D14</f>
@@ -6539,7 +6539,7 @@
         <v>70</v>
       </c>
       <c r="D15" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F15:AC15)))</f>
+        <f>COUNTA(F15:AC15)</f>
       </c>
       <c r="E15" s="32">
         <f>C15*D15</f>
@@ -6586,7 +6586,7 @@
         <v>55</v>
       </c>
       <c r="D16" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F16:AC16)))</f>
+        <f>COUNTA(F16:AC16)</f>
       </c>
       <c r="E16" s="27">
         <f>C16*D16</f>
@@ -6633,7 +6633,7 @@
         <v>50</v>
       </c>
       <c r="D17" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F17:AC17)))</f>
+        <f>COUNTA(F17:AC17)</f>
       </c>
       <c r="E17" s="27">
         <f>C17*D17</f>
@@ -6680,7 +6680,7 @@
         <v>50</v>
       </c>
       <c r="D18" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F18:AC18)))</f>
+        <f>COUNTA(F18:AC18)</f>
       </c>
       <c r="E18" s="27">
         <f>C18*D18</f>
@@ -6727,7 +6727,7 @@
         <v>50</v>
       </c>
       <c r="D19" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F19:AC19)))</f>
+        <f>COUNTA(F19:AC19)</f>
       </c>
       <c r="E19" s="27">
         <f>C19*D19</f>
@@ -6774,7 +6774,7 @@
         <v>50</v>
       </c>
       <c r="D20" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F20:AC20)))</f>
+        <f>COUNTA(F20:AC20)</f>
       </c>
       <c r="E20" s="27">
         <f>C20*D20</f>
@@ -6821,7 +6821,7 @@
         <v>50</v>
       </c>
       <c r="D21" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F21:AC21)))</f>
+        <f>COUNTA(F21:AC21)</f>
       </c>
       <c r="E21" s="27">
         <f>C21*D21</f>
@@ -6868,7 +6868,7 @@
         <v>50</v>
       </c>
       <c r="D22" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F22:AC22)))</f>
+        <f>COUNTA(F22:AC22)</f>
       </c>
       <c r="E22" s="27">
         <f>C22*D22</f>

--- a/public/port-battle.xlsx
+++ b/public/port-battle.xlsx
@@ -1363,14 +1363,14 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFD68F96"/>
+      <color rgb="FFE192B6"/>
       <name val="Calibri"/>
       <family val="1"/>
       <b/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF6B7478"/>
+      <color rgb="FF616454"/>
       <name val="Calibri"/>
       <family val="1"/>
     </font>
@@ -1383,28 +1383,28 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF586776"/>
+      <color rgb="FF79B0EA"/>
       <name val="Calibri"/>
       <family val="1"/>
       <b/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFF3F7F9"/>
+      <color rgb="FFE7E8DE"/>
       <name val="Calibri"/>
       <family val="1"/>
       <b/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF6B7478"/>
+      <color rgb="FF616454"/>
       <name val="Calibri"/>
       <family val="1"/>
       <b/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF6F6150"/>
+      <color rgb="FF727069"/>
       <name val="Calibri"/>
       <family val="1"/>
     </font>
@@ -1418,32 +1418,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE9F1F4"/>
+        <fgColor rgb="FFDCDECF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFACBBC1"/>
+        <fgColor rgb="FF9DA188"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCDDFE6"/>
+        <fgColor rgb="FFC6CAB1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEDE1D2"/>
+        <fgColor rgb="FFEDEAE3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF9FBFC"/>
+        <fgColor rgb="FFF1F2EC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFAF7F3"/>
+        <fgColor rgb="FFF8F7F4"/>
       </patternFill>
     </fill>
   </fills>
@@ -1459,10 +1459,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color rgb="FFC5BBBB"/>
+        <color rgb="FFC6C5C5"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFC5BBBB"/>
+        <color rgb="FFC6C5C5"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1550,7 +1550,7 @@
     <dxf>
       <font>
         <sz val="12"/>
-        <color rgb="FFD68F96"/>
+        <color rgb="FFE192B6"/>
         <name val="Calibri"/>
         <family val="1"/>
         <b/>

--- a/public/port-battle.xlsx
+++ b/public/port-battle.xlsx
@@ -1363,14 +1363,14 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFD68F96"/>
+      <color rgb="FFE192B6"/>
       <name val="Calibri"/>
       <family val="1"/>
       <b/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF6B7478"/>
+      <color rgb="FF616454"/>
       <name val="Calibri"/>
       <family val="1"/>
     </font>
@@ -1383,28 +1383,28 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF586776"/>
+      <color rgb="FF79B0EA"/>
       <name val="Calibri"/>
       <family val="1"/>
       <b/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFF3F7F9"/>
+      <color rgb="FFE7E8DE"/>
       <name val="Calibri"/>
       <family val="1"/>
       <b/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF6B7478"/>
+      <color rgb="FF616454"/>
       <name val="Calibri"/>
       <family val="1"/>
       <b/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF6F6150"/>
+      <color rgb="FF727069"/>
       <name val="Calibri"/>
       <family val="1"/>
     </font>
@@ -1418,32 +1418,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE9F1F4"/>
+        <fgColor rgb="FFDCDECF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFACBBC1"/>
+        <fgColor rgb="FF9DA188"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCDDFE6"/>
+        <fgColor rgb="FFC6CAB1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEDE1D2"/>
+        <fgColor rgb="FFEDEAE3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF9FBFC"/>
+        <fgColor rgb="FFF1F2EC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFAF7F3"/>
+        <fgColor rgb="FFF8F7F4"/>
       </patternFill>
     </fill>
   </fills>
@@ -1459,10 +1459,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color rgb="FFC5BBBB"/>
+        <color rgb="FFC6C5C5"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFC5BBBB"/>
+        <color rgb="FFC6C5C5"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1550,7 +1550,7 @@
     <dxf>
       <font>
         <sz val="12"/>
-        <color rgb="FFD68F96"/>
+        <color rgb="FFE192B6"/>
         <name val="Calibri"/>
         <family val="1"/>
         <b/>
@@ -1791,7 +1791,7 @@
         <v>605</v>
       </c>
       <c r="D5" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F5:AC5)))</f>
+        <f>COUNTA(F5:AC5)</f>
       </c>
       <c r="E5" s="27">
         <f>C5*D5</f>
@@ -1844,7 +1844,7 @@
         <v>580</v>
       </c>
       <c r="D6" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F6:AC6)))</f>
+        <f>COUNTA(F6:AC6)</f>
       </c>
       <c r="E6" s="27">
         <f>C6*D6</f>
@@ -1897,7 +1897,7 @@
         <v>515</v>
       </c>
       <c r="D7" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F7:AC7)))</f>
+        <f>COUNTA(F7:AC7)</f>
       </c>
       <c r="E7" s="27">
         <f>C7*D7</f>
@@ -1944,7 +1944,7 @@
         <v>500</v>
       </c>
       <c r="D8" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F8:AC8)))</f>
+        <f>COUNTA(F8:AC8)</f>
       </c>
       <c r="E8" s="32">
         <f>C8*D8</f>
@@ -1991,7 +1991,7 @@
         <v>450</v>
       </c>
       <c r="D9" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F9:AC9)))</f>
+        <f>COUNTA(F9:AC9)</f>
       </c>
       <c r="E9" s="32">
         <f>C9*D9</f>
@@ -2038,7 +2038,7 @@
         <v>395</v>
       </c>
       <c r="D10" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F10:AC10)))</f>
+        <f>COUNTA(F10:AC10)</f>
       </c>
       <c r="E10" s="32">
         <f>C10*D10</f>
@@ -2085,7 +2085,7 @@
         <v>365</v>
       </c>
       <c r="D11" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F11:AC11)))</f>
+        <f>COUNTA(F11:AC11)</f>
       </c>
       <c r="E11" s="27">
         <f>C11*D11</f>
@@ -2132,7 +2132,7 @@
         <v>355</v>
       </c>
       <c r="D12" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F12:AC12)))</f>
+        <f>COUNTA(F12:AC12)</f>
       </c>
       <c r="E12" s="27">
         <f>C12*D12</f>
@@ -2179,7 +2179,7 @@
         <v>305</v>
       </c>
       <c r="D13" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F13:AC13)))</f>
+        <f>COUNTA(F13:AC13)</f>
       </c>
       <c r="E13" s="27">
         <f>C13*D13</f>
@@ -2226,7 +2226,7 @@
         <v>300</v>
       </c>
       <c r="D14" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F14:AC14)))</f>
+        <f>COUNTA(F14:AC14)</f>
       </c>
       <c r="E14" s="32">
         <f>C14*D14</f>
@@ -2273,7 +2273,7 @@
         <v>290</v>
       </c>
       <c r="D15" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F15:AC15)))</f>
+        <f>COUNTA(F15:AC15)</f>
       </c>
       <c r="E15" s="32">
         <f>C15*D15</f>
@@ -2320,7 +2320,7 @@
         <v>290</v>
       </c>
       <c r="D16" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F16:AC16)))</f>
+        <f>COUNTA(F16:AC16)</f>
       </c>
       <c r="E16" s="32">
         <f>C16*D16</f>
@@ -2367,7 +2367,7 @@
         <v>280</v>
       </c>
       <c r="D17" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F17:AC17)))</f>
+        <f>COUNTA(F17:AC17)</f>
       </c>
       <c r="E17" s="32">
         <f>C17*D17</f>
@@ -2414,7 +2414,7 @@
         <v>275</v>
       </c>
       <c r="D18" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F18:AC18)))</f>
+        <f>COUNTA(F18:AC18)</f>
       </c>
       <c r="E18" s="32">
         <f>C18*D18</f>
@@ -2461,7 +2461,7 @@
         <v>250</v>
       </c>
       <c r="D19" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F19:AC19)))</f>
+        <f>COUNTA(F19:AC19)</f>
       </c>
       <c r="E19" s="27">
         <f>C19*D19</f>
@@ -2508,7 +2508,7 @@
         <v>240</v>
       </c>
       <c r="D20" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F20:AC20)))</f>
+        <f>COUNTA(F20:AC20)</f>
       </c>
       <c r="E20" s="27">
         <f>C20*D20</f>
@@ -2555,7 +2555,7 @@
         <v>235</v>
       </c>
       <c r="D21" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F21:AC21)))</f>
+        <f>COUNTA(F21:AC21)</f>
       </c>
       <c r="E21" s="27">
         <f>C21*D21</f>
@@ -2602,7 +2602,7 @@
         <v>230</v>
       </c>
       <c r="D22" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F22:AC22)))</f>
+        <f>COUNTA(F22:AC22)</f>
       </c>
       <c r="E22" s="27">
         <f>C22*D22</f>
@@ -2649,7 +2649,7 @@
         <v>200</v>
       </c>
       <c r="D23" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F23:AC23)))</f>
+        <f>COUNTA(F23:AC23)</f>
       </c>
       <c r="E23" s="27">
         <f>C23*D23</f>
@@ -2696,7 +2696,7 @@
         <v>195</v>
       </c>
       <c r="D24" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F24:AC24)))</f>
+        <f>COUNTA(F24:AC24)</f>
       </c>
       <c r="E24" s="27">
         <f>C24*D24</f>
@@ -2743,7 +2743,7 @@
         <v>190</v>
       </c>
       <c r="D25" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F25:AC25)))</f>
+        <f>COUNTA(F25:AC25)</f>
       </c>
       <c r="E25" s="27">
         <f>C25*D25</f>
@@ -2790,7 +2790,7 @@
         <v>190</v>
       </c>
       <c r="D26" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F26:AC26)))</f>
+        <f>COUNTA(F26:AC26)</f>
       </c>
       <c r="E26" s="27">
         <f>C26*D26</f>
@@ -2837,7 +2837,7 @@
         <v>185</v>
       </c>
       <c r="D27" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F27:AC27)))</f>
+        <f>COUNTA(F27:AC27)</f>
       </c>
       <c r="E27" s="27">
         <f>C27*D27</f>
@@ -2884,7 +2884,7 @@
         <v>180</v>
       </c>
       <c r="D28" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F28:AC28)))</f>
+        <f>COUNTA(F28:AC28)</f>
       </c>
       <c r="E28" s="27">
         <f>C28*D28</f>
@@ -2931,7 +2931,7 @@
         <v>175</v>
       </c>
       <c r="D29" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F29:AC29)))</f>
+        <f>COUNTA(F29:AC29)</f>
       </c>
       <c r="E29" s="27">
         <f>C29*D29</f>
@@ -2978,7 +2978,7 @@
         <v>155</v>
       </c>
       <c r="D30" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F30:AC30)))</f>
+        <f>COUNTA(F30:AC30)</f>
       </c>
       <c r="E30" s="27">
         <f>C30*D30</f>
@@ -3025,7 +3025,7 @@
         <v>150</v>
       </c>
       <c r="D31" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F31:AC31)))</f>
+        <f>COUNTA(F31:AC31)</f>
       </c>
       <c r="E31" s="27">
         <f>C31*D31</f>
@@ -3072,7 +3072,7 @@
         <v>150</v>
       </c>
       <c r="D32" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F32:AC32)))</f>
+        <f>COUNTA(F32:AC32)</f>
       </c>
       <c r="E32" s="27">
         <f>C32*D32</f>
@@ -3119,7 +3119,7 @@
         <v>150</v>
       </c>
       <c r="D33" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F33:AC33)))</f>
+        <f>COUNTA(F33:AC33)</f>
       </c>
       <c r="E33" s="27">
         <f>C33*D33</f>
@@ -3166,7 +3166,7 @@
         <v>140</v>
       </c>
       <c r="D34" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F34:AC34)))</f>
+        <f>COUNTA(F34:AC34)</f>
       </c>
       <c r="E34" s="27">
         <f>C34*D34</f>
@@ -3213,7 +3213,7 @@
         <v>80</v>
       </c>
       <c r="D35" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F35:AC35)))</f>
+        <f>COUNTA(F35:AC35)</f>
       </c>
       <c r="E35" s="27">
         <f>C35*D35</f>
@@ -3260,7 +3260,7 @@
         <v>100</v>
       </c>
       <c r="D36" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F36:AC36)))</f>
+        <f>COUNTA(F36:AC36)</f>
       </c>
       <c r="E36" s="32">
         <f>C36*D36</f>
@@ -3307,7 +3307,7 @@
         <v>80</v>
       </c>
       <c r="D37" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F37:AC37)))</f>
+        <f>COUNTA(F37:AC37)</f>
       </c>
       <c r="E37" s="32">
         <f>C37*D37</f>
@@ -3354,7 +3354,7 @@
         <v>80</v>
       </c>
       <c r="D38" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F38:AC38)))</f>
+        <f>COUNTA(F38:AC38)</f>
       </c>
       <c r="E38" s="32">
         <f>C38*D38</f>
@@ -3401,7 +3401,7 @@
         <v>80</v>
       </c>
       <c r="D39" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F39:AC39)))</f>
+        <f>COUNTA(F39:AC39)</f>
       </c>
       <c r="E39" s="32">
         <f>C39*D39</f>
@@ -3448,7 +3448,7 @@
         <v>80</v>
       </c>
       <c r="D40" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F40:AC40)))</f>
+        <f>COUNTA(F40:AC40)</f>
       </c>
       <c r="E40" s="32">
         <f>C40*D40</f>
@@ -3495,7 +3495,7 @@
         <v>80</v>
       </c>
       <c r="D41" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F41:AC41)))</f>
+        <f>COUNTA(F41:AC41)</f>
       </c>
       <c r="E41" s="32">
         <f>C41*D41</f>
@@ -3542,7 +3542,7 @@
         <v>80</v>
       </c>
       <c r="D42" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F42:AC42)))</f>
+        <f>COUNTA(F42:AC42)</f>
       </c>
       <c r="E42" s="32">
         <f>C42*D42</f>
@@ -3589,7 +3589,7 @@
         <v>80</v>
       </c>
       <c r="D43" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F43:AC43)))</f>
+        <f>COUNTA(F43:AC43)</f>
       </c>
       <c r="E43" s="32">
         <f>C43*D43</f>
@@ -3636,7 +3636,7 @@
         <v>80</v>
       </c>
       <c r="D44" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F44:AC44)))</f>
+        <f>COUNTA(F44:AC44)</f>
       </c>
       <c r="E44" s="32">
         <f>C44*D44</f>
@@ -3683,7 +3683,7 @@
         <v>80</v>
       </c>
       <c r="D45" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F45:AC45)))</f>
+        <f>COUNTA(F45:AC45)</f>
       </c>
       <c r="E45" s="32">
         <f>C45*D45</f>
@@ -6057,7 +6057,7 @@
         <v>100</v>
       </c>
       <c r="D5" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F5:AC5)))</f>
+        <f>COUNTA(F5:AC5)</f>
       </c>
       <c r="E5" s="32">
         <f>C5*D5</f>
@@ -6110,7 +6110,7 @@
         <v>80</v>
       </c>
       <c r="D6" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F6:AC6)))</f>
+        <f>COUNTA(F6:AC6)</f>
       </c>
       <c r="E6" s="32">
         <f>C6*D6</f>
@@ -6163,7 +6163,7 @@
         <v>80</v>
       </c>
       <c r="D7" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F7:AC7)))</f>
+        <f>COUNTA(F7:AC7)</f>
       </c>
       <c r="E7" s="32">
         <f>C7*D7</f>
@@ -6210,7 +6210,7 @@
         <v>80</v>
       </c>
       <c r="D8" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F8:AC8)))</f>
+        <f>COUNTA(F8:AC8)</f>
       </c>
       <c r="E8" s="32">
         <f>C8*D8</f>
@@ -6257,7 +6257,7 @@
         <v>80</v>
       </c>
       <c r="D9" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F9:AC9)))</f>
+        <f>COUNTA(F9:AC9)</f>
       </c>
       <c r="E9" s="32">
         <f>C9*D9</f>
@@ -6304,7 +6304,7 @@
         <v>80</v>
       </c>
       <c r="D10" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F10:AC10)))</f>
+        <f>COUNTA(F10:AC10)</f>
       </c>
       <c r="E10" s="32">
         <f>C10*D10</f>
@@ -6351,7 +6351,7 @@
         <v>80</v>
       </c>
       <c r="D11" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F11:AC11)))</f>
+        <f>COUNTA(F11:AC11)</f>
       </c>
       <c r="E11" s="32">
         <f>C11*D11</f>
@@ -6398,7 +6398,7 @@
         <v>80</v>
       </c>
       <c r="D12" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F12:AC12)))</f>
+        <f>COUNTA(F12:AC12)</f>
       </c>
       <c r="E12" s="32">
         <f>C12*D12</f>
@@ -6445,7 +6445,7 @@
         <v>80</v>
       </c>
       <c r="D13" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F13:AC13)))</f>
+        <f>COUNTA(F13:AC13)</f>
       </c>
       <c r="E13" s="32">
         <f>C13*D13</f>
@@ -6492,7 +6492,7 @@
         <v>80</v>
       </c>
       <c r="D14" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F14:AC14)))</f>
+        <f>COUNTA(F14:AC14)</f>
       </c>
       <c r="E14" s="32">
         <f>C14*D14</f>
@@ -6539,7 +6539,7 @@
         <v>70</v>
       </c>
       <c r="D15" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F15:AC15)))</f>
+        <f>COUNTA(F15:AC15)</f>
       </c>
       <c r="E15" s="32">
         <f>C15*D15</f>
@@ -6586,7 +6586,7 @@
         <v>55</v>
       </c>
       <c r="D16" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F16:AC16)))</f>
+        <f>COUNTA(F16:AC16)</f>
       </c>
       <c r="E16" s="27">
         <f>C16*D16</f>
@@ -6633,7 +6633,7 @@
         <v>50</v>
       </c>
       <c r="D17" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F17:AC17)))</f>
+        <f>COUNTA(F17:AC17)</f>
       </c>
       <c r="E17" s="27">
         <f>C17*D17</f>
@@ -6680,7 +6680,7 @@
         <v>50</v>
       </c>
       <c r="D18" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F18:AC18)))</f>
+        <f>COUNTA(F18:AC18)</f>
       </c>
       <c r="E18" s="27">
         <f>C18*D18</f>
@@ -6727,7 +6727,7 @@
         <v>50</v>
       </c>
       <c r="D19" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F19:AC19)))</f>
+        <f>COUNTA(F19:AC19)</f>
       </c>
       <c r="E19" s="27">
         <f>C19*D19</f>
@@ -6774,7 +6774,7 @@
         <v>50</v>
       </c>
       <c r="D20" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F20:AC20)))</f>
+        <f>COUNTA(F20:AC20)</f>
       </c>
       <c r="E20" s="27">
         <f>C20*D20</f>
@@ -6821,7 +6821,7 @@
         <v>50</v>
       </c>
       <c r="D21" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F21:AC21)))</f>
+        <f>COUNTA(F21:AC21)</f>
       </c>
       <c r="E21" s="27">
         <f>C21*D21</f>
@@ -6868,7 +6868,7 @@
         <v>50</v>
       </c>
       <c r="D22" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F22:AC22)))</f>
+        <f>COUNTA(F22:AC22)</f>
       </c>
       <c r="E22" s="27">
         <f>C22*D22</f>

--- a/public/port-battle.xlsx
+++ b/public/port-battle.xlsx
@@ -1363,7 +1363,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFE192B6"/>
+      <color rgb="FFDEAEC4"/>
       <name val="Calibri"/>
       <family val="1"/>
       <b/>
@@ -1383,7 +1383,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF79B0EA"/>
+      <color rgb="FFA2C1E3"/>
       <name val="Calibri"/>
       <family val="1"/>
       <b/>
@@ -1459,10 +1459,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color rgb="FFC6C5C5"/>
+        <color rgb="FFC5C3C3"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFC6C5C5"/>
+        <color rgb="FFC5C3C3"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1550,7 +1550,7 @@
     <dxf>
       <font>
         <sz val="12"/>
-        <color rgb="FFE192B6"/>
+        <color rgb="FFDEAEC4"/>
         <name val="Calibri"/>
         <family val="1"/>
         <b/>

--- a/public/port-battle.xlsx
+++ b/public/port-battle.xlsx
@@ -140,13 +140,13 @@
     <t>Cerberus</t>
   </si>
   <si>
+    <t>Hercules</t>
+  </si>
+  <si>
+    <t>Pandora</t>
+  </si>
+  <si>
     <t>Le Requin</t>
-  </si>
-  <si>
-    <t>Pandora</t>
-  </si>
-  <si>
-    <t>Hercules</t>
   </si>
   <si>
     <t>Mercury</t>
@@ -3210,7 +3210,7 @@
         <v>42</v>
       </c>
       <c r="C35" s="27" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D35" s="27">
         <f>COUNTA(F35:AC35)</f>

--- a/public/port-battle.xlsx
+++ b/public/port-battle.xlsx
@@ -50,12 +50,12 @@
     <t>2. Enter player names</t>
   </si>
   <si>
+    <t>L’Océan</t>
+  </si>
+  <si>
     <t>Santisima</t>
   </si>
   <si>
-    <t>L’Océan</t>
-  </si>
-  <si>
     <t>Victory</t>
   </si>
   <si>
@@ -71,1054 +71,1054 @@
     <t>Bellona</t>
   </si>
   <si>
+    <t>Wasa</t>
+  </si>
+  <si>
     <t>3rd Rate</t>
   </si>
   <si>
-    <t>Wasa</t>
+    <t>Constitution</t>
+  </si>
+  <si>
+    <t>Constitution Classic</t>
   </si>
   <si>
     <t>Agamemnon</t>
   </si>
   <si>
-    <t>Constitution</t>
-  </si>
-  <si>
-    <t>Constitution Classic</t>
-  </si>
-  <si>
     <t>Wapen von Hamburg</t>
   </si>
   <si>
     <t>Ingermanland</t>
   </si>
   <si>
+    <t>Endymion</t>
+  </si>
+  <si>
+    <t>Trincomalee</t>
+  </si>
+  <si>
+    <t>Diana</t>
+  </si>
+  <si>
+    <t>Hercules</t>
+  </si>
+  <si>
     <t>Indefatigable</t>
   </si>
   <si>
-    <t>Diana</t>
-  </si>
-  <si>
-    <t>Endymion</t>
-  </si>
-  <si>
-    <t>Trincomalee</t>
+    <t>Le Gros Ventre Refit</t>
+  </si>
+  <si>
+    <t>Pirate Frigate</t>
+  </si>
+  <si>
+    <t>Santa Cecilia</t>
+  </si>
+  <si>
+    <t>Belle Poule</t>
+  </si>
+  <si>
+    <t>Frigate</t>
+  </si>
+  <si>
+    <t>Renommee</t>
+  </si>
+  <si>
+    <t>Cerberus</t>
   </si>
   <si>
     <t>Essex</t>
   </si>
   <si>
-    <t>Santa Cecilia</t>
-  </si>
-  <si>
     <t>Indiaman</t>
   </si>
   <si>
+    <t>Le Gros Ventre</t>
+  </si>
+  <si>
     <t>L’Hermione</t>
   </si>
   <si>
-    <t>Belle Poule</t>
-  </si>
-  <si>
-    <t>Pirate Frigate</t>
-  </si>
-  <si>
-    <t>Frigate</t>
-  </si>
-  <si>
     <t>Surprise</t>
   </si>
   <si>
-    <t>Le Gros Ventre</t>
-  </si>
-  <si>
-    <t>Le Gros Ventre Refit</t>
-  </si>
-  <si>
-    <t>Renommee</t>
-  </si>
-  <si>
-    <t>Cerberus</t>
-  </si>
-  <si>
-    <t>Hercules</t>
+    <t>Le Requin</t>
+  </si>
+  <si>
+    <t>Prince de Neufchatel</t>
   </si>
   <si>
     <t>Pandora</t>
   </si>
   <si>
-    <t>Le Requin</t>
+    <t>Rattlesnake Heavy</t>
+  </si>
+  <si>
+    <t>Mortar Brig</t>
+  </si>
+  <si>
+    <t>Niagara</t>
+  </si>
+  <si>
+    <t>Aguadilla</t>
+  </si>
+  <si>
+    <t>All Saints</t>
+  </si>
+  <si>
+    <t>Almeria</t>
+  </si>
+  <si>
+    <t>Almirante</t>
+  </si>
+  <si>
+    <t>Alvarado</t>
+  </si>
+  <si>
+    <t>Amalienborg</t>
+  </si>
+  <si>
+    <t>Ambergrease Caye</t>
+  </si>
+  <si>
+    <t>Apalachicola</t>
+  </si>
+  <si>
+    <t>Aransas</t>
+  </si>
+  <si>
+    <t>Arecibo</t>
+  </si>
+  <si>
+    <t>Atchafalaya</t>
+  </si>
+  <si>
+    <t>Atwood</t>
+  </si>
+  <si>
+    <t>Aves</t>
+  </si>
+  <si>
+    <t>Ayamonte</t>
+  </si>
+  <si>
+    <t>Ays</t>
+  </si>
+  <si>
+    <t>Azua</t>
+  </si>
+  <si>
+    <t>Bahía Escocesa</t>
+  </si>
+  <si>
+    <t>Bahía Honda</t>
+  </si>
+  <si>
+    <t>Baja</t>
+  </si>
+  <si>
+    <t>Baní</t>
+  </si>
+  <si>
+    <t>Baracoa</t>
+  </si>
+  <si>
+    <t>Barahona</t>
+  </si>
+  <si>
+    <t>Barataria</t>
+  </si>
+  <si>
+    <t>Barranquilla</t>
+  </si>
+  <si>
+    <t>Basse-Terre</t>
+  </si>
+  <si>
+    <t>Basseterre Town</t>
+  </si>
+  <si>
+    <t>Batabanó</t>
+  </si>
+  <si>
+    <t>Beaufort</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Bensalem</t>
+  </si>
+  <si>
+    <t>Bernal</t>
+  </si>
+  <si>
+    <t>Biloxi</t>
+  </si>
+  <si>
+    <t>Black River</t>
+  </si>
+  <si>
+    <t>Bluefields</t>
+  </si>
+  <si>
+    <t>Bonacca</t>
+  </si>
+  <si>
+    <t>Brangman’s Bluff</t>
+  </si>
+  <si>
+    <t>Bridgetown</t>
+  </si>
+  <si>
+    <t>Brunswick</t>
+  </si>
+  <si>
+    <t>Buena Vista</t>
+  </si>
+  <si>
+    <t>Cabo Cañaveral</t>
+  </si>
+  <si>
+    <t>Cabo Rojo</t>
+  </si>
+  <si>
+    <t>Cabo de la Vela</t>
+  </si>
+  <si>
+    <t>Calcasieu</t>
+  </si>
+  <si>
+    <t>Calobelo</t>
+  </si>
+  <si>
+    <t>Camp du Roy</t>
+  </si>
+  <si>
+    <t>Campeche</t>
+  </si>
+  <si>
+    <t>Canalete</t>
+  </si>
+  <si>
+    <t>Cap-Français</t>
+  </si>
+  <si>
+    <t>Caracas</t>
+  </si>
+  <si>
+    <t>Cariaco</t>
+  </si>
+  <si>
+    <t>Carlisle</t>
+  </si>
+  <si>
+    <t>Carriacou</t>
+  </si>
+  <si>
+    <t>Cartagena de Indias</t>
+  </si>
+  <si>
+    <t>Carúpano</t>
+  </si>
+  <si>
+    <t>Casigua</t>
+  </si>
+  <si>
+    <t>Castries</t>
+  </si>
+  <si>
+    <t>Cayman Brac</t>
+  </si>
+  <si>
+    <t>Cayo Biscayno</t>
+  </si>
+  <si>
+    <t>Cayo Romano</t>
+  </si>
+  <si>
+    <t>Cayo de Sal</t>
+  </si>
+  <si>
+    <t>Cayo del Anclote</t>
+  </si>
+  <si>
+    <t>Caño Araguabisi</t>
+  </si>
+  <si>
+    <t>Caño Araguao</t>
+  </si>
+  <si>
+    <t>Caño Macareo</t>
+  </si>
+  <si>
+    <t>Chagres</t>
+  </si>
+  <si>
+    <t>Champotón</t>
+  </si>
+  <si>
+    <t>Charles Town</t>
+  </si>
+  <si>
+    <t>Charleston</t>
+  </si>
+  <si>
+    <t>Christiansted</t>
+  </si>
+  <si>
+    <t>Codrington</t>
+  </si>
+  <si>
+    <t>Cojoro</t>
+  </si>
+  <si>
+    <t>Concepción</t>
+  </si>
+  <si>
+    <t>Congrios</t>
+  </si>
+  <si>
+    <t>Conil</t>
+  </si>
+  <si>
+    <t>Constance</t>
+  </si>
+  <si>
+    <t>Conttoy</t>
+  </si>
+  <si>
+    <t>Coquibacoa</t>
+  </si>
+  <si>
+    <t>Coral Bay</t>
+  </si>
+  <si>
+    <t>Coro</t>
+  </si>
+  <si>
+    <t>Corrientes</t>
+  </si>
+  <si>
+    <t>Cul-de-Sac</t>
+  </si>
+  <si>
+    <t>Cumaná</t>
+  </si>
+  <si>
+    <t>Cuyo</t>
+  </si>
+  <si>
+    <t>Dariena</t>
+  </si>
+  <si>
+    <t>Deshaies</t>
+  </si>
+  <si>
+    <t>El Rancho</t>
+  </si>
+  <si>
+    <t>El Soco</t>
+  </si>
+  <si>
+    <t>El Toco</t>
+  </si>
+  <si>
+    <t>Encontrados</t>
+  </si>
+  <si>
+    <t>English Harbour</t>
+  </si>
+  <si>
+    <t>Espíritu Santo</t>
+  </si>
+  <si>
+    <t>Esteros</t>
+  </si>
+  <si>
+    <t>Fajardo</t>
+  </si>
+  <si>
+    <t>Flatts</t>
+  </si>
+  <si>
+    <t>Fort Baai</t>
+  </si>
+  <si>
+    <t>Fort Oranje</t>
+  </si>
+  <si>
+    <t>Fort Zoutman</t>
+  </si>
+  <si>
+    <t>Fort-Dauphin</t>
+  </si>
+  <si>
+    <t>Fort-Royal</t>
+  </si>
+  <si>
+    <t>Frederiksted</t>
+  </si>
+  <si>
+    <t>Galdonas</t>
+  </si>
+  <si>
+    <t>Gasparilla</t>
+  </si>
+  <si>
+    <t>George Town</t>
+  </si>
+  <si>
+    <t>Georgetown</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>Gracias a Dios</t>
+  </si>
+  <si>
+    <t>Grand Anse</t>
+  </si>
+  <si>
+    <t>Grand Turk</t>
+  </si>
+  <si>
+    <t>Great Corn</t>
+  </si>
+  <si>
+    <t>Great River</t>
+  </si>
+  <si>
+    <t>Grindstone</t>
+  </si>
+  <si>
+    <t>Guamá Sevilla</t>
+  </si>
+  <si>
+    <t>Guayaguayare</t>
+  </si>
+  <si>
+    <t>Guayama</t>
+  </si>
+  <si>
+    <t>Guibara</t>
+  </si>
+  <si>
+    <t>Gustavia</t>
+  </si>
+  <si>
+    <t>Guánica</t>
+  </si>
+  <si>
+    <t>Güiria</t>
+  </si>
+  <si>
+    <t>Hat Island</t>
+  </si>
+  <si>
+    <t>Higüey</t>
+  </si>
+  <si>
+    <t>Islamorada</t>
+  </si>
+  <si>
+    <t>Island Harbour</t>
+  </si>
+  <si>
+    <t>Jacmel</t>
+  </si>
+  <si>
+    <t>Jagua</t>
+  </si>
+  <si>
+    <t>Jobe</t>
+  </si>
+  <si>
+    <t>Jérémie</t>
+  </si>
+  <si>
+    <t>Key West</t>
+  </si>
+  <si>
+    <t>Kidd’s Harbour</t>
+  </si>
+  <si>
+    <t>Kingston / Port Royal</t>
+  </si>
+  <si>
+    <t>Kingstown</t>
+  </si>
+  <si>
+    <t>La Blanquilla</t>
+  </si>
+  <si>
+    <t>La Désirade</t>
+  </si>
+  <si>
+    <t>La Habana</t>
+  </si>
+  <si>
+    <t>La Isabela</t>
+  </si>
+  <si>
+    <t>La Mona</t>
+  </si>
+  <si>
+    <t>La Moussette</t>
+  </si>
+  <si>
+    <t>La Navasse</t>
+  </si>
+  <si>
+    <t>La Orchila</t>
+  </si>
+  <si>
+    <t>La Tortue</t>
+  </si>
+  <si>
+    <t>La Trinité</t>
+  </si>
+  <si>
+    <t>Lagunillas</t>
+  </si>
+  <si>
+    <t>Las Aves</t>
+  </si>
+  <si>
+    <t>Las Tortugas</t>
+  </si>
+  <si>
+    <t>Le Moule</t>
+  </si>
+  <si>
+    <t>Les Cayes</t>
+  </si>
+  <si>
+    <t>Les Gonaïves</t>
+  </si>
+  <si>
+    <t>Little Cayman</t>
+  </si>
+  <si>
+    <t>Little Inagua</t>
+  </si>
+  <si>
+    <t>Little River</t>
+  </si>
+  <si>
+    <t>Lorimers</t>
+  </si>
+  <si>
+    <t>Léogane</t>
+  </si>
+  <si>
+    <t>Macanao</t>
+  </si>
+  <si>
+    <t>Macao</t>
+  </si>
+  <si>
+    <t>Manataca</t>
+  </si>
+  <si>
+    <t>Mandinga</t>
+  </si>
+  <si>
+    <t>Mantua</t>
+  </si>
+  <si>
+    <t>Manzanilla</t>
+  </si>
+  <si>
+    <t>Maracaibo</t>
+  </si>
+  <si>
+    <t>Mariel</t>
+  </si>
+  <si>
+    <t>Marigot</t>
+  </si>
+  <si>
+    <t>Marin</t>
+  </si>
+  <si>
+    <t>Matanzas</t>
+  </si>
+  <si>
+    <t>Matina</t>
+  </si>
+  <si>
+    <t>Misteriosa</t>
+  </si>
+  <si>
+    <t>Mitara</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Monte Cristi</t>
+  </si>
+  <si>
+    <t>Montego Bay</t>
+  </si>
+  <si>
+    <t>Morro Chico</t>
+  </si>
+  <si>
+    <t>Mortimer Town</t>
+  </si>
+  <si>
+    <t>Mugeres</t>
+  </si>
+  <si>
+    <t>Naparima</t>
+  </si>
+  <si>
+    <t>New Edinburgh</t>
+  </si>
+  <si>
+    <t>New Smyrna</t>
+  </si>
+  <si>
+    <t>Nippes</t>
+  </si>
+  <si>
+    <t>North Inlet</t>
+  </si>
+  <si>
+    <t>Nouvelle-Orléans</t>
+  </si>
+  <si>
+    <t>Nueva Barcelona</t>
+  </si>
+  <si>
+    <t>Nuevitas</t>
+  </si>
+  <si>
+    <t>Ocean Bight</t>
+  </si>
+  <si>
+    <t>Old Providence</t>
+  </si>
+  <si>
+    <t>Omoa</t>
+  </si>
+  <si>
+    <t>Oranjestad</t>
+  </si>
+  <si>
+    <t>Pampatar</t>
+  </si>
+  <si>
+    <t>Parrot Cay</t>
+  </si>
+  <si>
+    <t>Pasaje</t>
+  </si>
+  <si>
+    <t>Pedernales</t>
+  </si>
+  <si>
+    <t>Penzacola</t>
+  </si>
+  <si>
+    <t>Perijá</t>
+  </si>
+  <si>
+    <t>Philipsburg</t>
+  </si>
+  <si>
+    <t>Pinar del Río</t>
+  </si>
+  <si>
+    <t>Pitt’s Town</t>
+  </si>
+  <si>
+    <t>Placentia</t>
+  </si>
+  <si>
+    <t>Placer</t>
+  </si>
+  <si>
+    <t>Playón</t>
+  </si>
+  <si>
+    <t>Plymouth</t>
+  </si>
+  <si>
+    <t>Pointe-à-Pitre</t>
+  </si>
+  <si>
+    <t>Ponce</t>
+  </si>
+  <si>
+    <t>Port Antonio</t>
+  </si>
+  <si>
+    <t>Port Morant</t>
+  </si>
+  <si>
+    <t>Port-Louis</t>
+  </si>
+  <si>
+    <t>Port-au-Prince</t>
+  </si>
+  <si>
+    <t>Port-de-Paix</t>
+  </si>
+  <si>
+    <t>Portillo</t>
+  </si>
+  <si>
+    <t>Portobelo</t>
+  </si>
+  <si>
+    <t>Prinzapolka</t>
+  </si>
+  <si>
+    <t>Puerto Cabello</t>
+  </si>
+  <si>
+    <t>Puerto Escondido</t>
+  </si>
+  <si>
+    <t>Puerto Plata</t>
+  </si>
+  <si>
+    <t>Puerto Real</t>
+  </si>
+  <si>
+    <t>Puerto de España</t>
+  </si>
+  <si>
+    <t>Puerto de Nipe</t>
+  </si>
+  <si>
+    <t>Puerto del Padre</t>
+  </si>
+  <si>
+    <t>Píritu</t>
+  </si>
+  <si>
+    <t>Remedios</t>
+  </si>
+  <si>
+    <t>Rincón</t>
+  </si>
+  <si>
+    <t>Road Town</t>
+  </si>
+  <si>
+    <t>Robras</t>
+  </si>
+  <si>
+    <t>Rosaly</t>
+  </si>
+  <si>
+    <t>Roseau</t>
+  </si>
+  <si>
+    <t>Ruatan</t>
+  </si>
+  <si>
+    <t>Río Chico</t>
+  </si>
+  <si>
+    <t>Río Seco</t>
+  </si>
+  <si>
+    <t>Río Tocuyo</t>
+  </si>
+  <si>
+    <t>Río de la Hacha</t>
+  </si>
+  <si>
+    <t>Sabina</t>
+  </si>
+  <si>
+    <t>Saint Ann</t>
+  </si>
+  <si>
+    <t>Saint George</t>
+  </si>
+  <si>
+    <t>Saint George’s Town</t>
+  </si>
+  <si>
+    <t>Saint John’s</t>
+  </si>
+  <si>
+    <t>Saint Joseph</t>
+  </si>
+  <si>
+    <t>Saint Marys</t>
+  </si>
+  <si>
+    <t>Saint-François</t>
+  </si>
+  <si>
+    <t>Saint-Louis</t>
+  </si>
+  <si>
+    <t>Saint-Malo</t>
+  </si>
+  <si>
+    <t>Saint-Marc</t>
+  </si>
+  <si>
+    <t>Saint-Nicolas</t>
+  </si>
+  <si>
+    <t>Saint-Pierre</t>
+  </si>
+  <si>
+    <t>Salamanca</t>
+  </si>
+  <si>
+    <t>Sale-Trou</t>
+  </si>
+  <si>
+    <t>Salinas</t>
+  </si>
+  <si>
+    <t>Samaná</t>
+  </si>
+  <si>
+    <t>San Agustín</t>
+  </si>
+  <si>
+    <t>San Andrés</t>
+  </si>
+  <si>
+    <t>San José</t>
+  </si>
+  <si>
+    <t>San Juan</t>
+  </si>
+  <si>
+    <t>San Juan del Norte</t>
+  </si>
+  <si>
+    <t>San Lazaro</t>
+  </si>
+  <si>
+    <t>San Luis</t>
+  </si>
+  <si>
+    <t>San Mateo</t>
+  </si>
+  <si>
+    <t>San Sebastian</t>
+  </si>
+  <si>
+    <t>San Timoteo</t>
+  </si>
+  <si>
+    <t>Sancti Spíritus</t>
+  </si>
+  <si>
+    <t>Sandy Bay</t>
+  </si>
+  <si>
+    <t>Sandy Hill</t>
+  </si>
+  <si>
+    <t>Sant Iago</t>
+  </si>
+  <si>
+    <t>Santa Ana</t>
+  </si>
+  <si>
+    <t>Santa Cruz</t>
+  </si>
+  <si>
+    <t>Santa Marta</t>
+  </si>
+  <si>
+    <t>Santa María</t>
+  </si>
+  <si>
+    <t>Santa Rosa</t>
+  </si>
+  <si>
+    <t>Santanillas</t>
+  </si>
+  <si>
+    <t>Santo Domingo</t>
+  </si>
+  <si>
+    <t>Santo Tomás</t>
+  </si>
+  <si>
+    <t>Santo Tomé de Guayana</t>
+  </si>
+  <si>
+    <t>Sarazota</t>
+  </si>
+  <si>
+    <t>Savanna la Mar</t>
+  </si>
+  <si>
+    <t>Savannah</t>
+  </si>
+  <si>
+    <t>Scarborough</t>
+  </si>
+  <si>
+    <t>Selam</t>
+  </si>
+  <si>
+    <t>Sinamaica</t>
+  </si>
+  <si>
+    <t>Sisal</t>
+  </si>
+  <si>
+    <t>Somerset</t>
+  </si>
+  <si>
+    <t>Soto La Marina</t>
+  </si>
+  <si>
+    <t>Spanish Town</t>
+  </si>
+  <si>
+    <t>Sunbury</t>
+  </si>
+  <si>
+    <t>Swannsborough</t>
+  </si>
+  <si>
+    <t>Talamanca</t>
+  </si>
+  <si>
+    <t>Tamiagua</t>
+  </si>
+  <si>
+    <t>Tampa</t>
+  </si>
+  <si>
+    <t>Tampico</t>
+  </si>
+  <si>
+    <t>Tantun Cuzamil</t>
+  </si>
+  <si>
+    <t>Terre-de-Bas</t>
+  </si>
+  <si>
+    <t>Terrebonne</t>
+  </si>
+  <si>
+    <t>Tiburon</t>
+  </si>
+  <si>
+    <t>Tolú</t>
+  </si>
+  <si>
+    <t>Tordo</t>
+  </si>
+  <si>
+    <t>Trinidad</t>
+  </si>
+  <si>
+    <t>Triunfo de la Cruz</t>
+  </si>
+  <si>
+    <t>Truxillo</t>
+  </si>
+  <si>
+    <t>Tulum</t>
+  </si>
+  <si>
+    <t>Tumbado</t>
+  </si>
+  <si>
+    <t>Turneffe</t>
+  </si>
+  <si>
+    <t>Tuspan</t>
+  </si>
+  <si>
+    <t>Vera Cruz</t>
+  </si>
+  <si>
+    <t>Vermiou</t>
+  </si>
+  <si>
+    <t>Victoria</t>
+  </si>
+  <si>
+    <t>Vieques</t>
+  </si>
+  <si>
+    <t>Vieux-Fort</t>
+  </si>
+  <si>
+    <t>Wantlands Ferry</t>
+  </si>
+  <si>
+    <t>Willemstad</t>
+  </si>
+  <si>
+    <t>Wilmington</t>
+  </si>
+  <si>
+    <t>Xpu Ha</t>
+  </si>
+  <si>
+    <t>Yaguaraparo</t>
+  </si>
+  <si>
+    <t>Ysil</t>
+  </si>
+  <si>
+    <t>Fritz</t>
+  </si>
+  <si>
+    <t>Franz</t>
+  </si>
+  <si>
+    <t>Klaus</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
   <si>
     <t>Mercury</t>
   </si>
   <si>
-    <t>Mortar Brig</t>
+    <t>Rattlesnake</t>
+  </si>
+  <si>
+    <t>Snow</t>
   </si>
   <si>
     <t>NavyBrig</t>
   </si>
   <si>
-    <t>Niagara</t>
-  </si>
-  <si>
-    <t>Prince de Neufchatel</t>
-  </si>
-  <si>
-    <t>Rattlesnake</t>
-  </si>
-  <si>
-    <t>Rattlesnake Heavy</t>
-  </si>
-  <si>
-    <t>Snow</t>
-  </si>
-  <si>
-    <t>Aguadilla</t>
-  </si>
-  <si>
-    <t>All Saints</t>
-  </si>
-  <si>
-    <t>Almeria</t>
-  </si>
-  <si>
-    <t>Almirante</t>
-  </si>
-  <si>
-    <t>Alvarado</t>
-  </si>
-  <si>
-    <t>Amalienborg</t>
-  </si>
-  <si>
-    <t>Ambergrease Caye</t>
-  </si>
-  <si>
-    <t>Apalachicola</t>
-  </si>
-  <si>
-    <t>Aransas</t>
-  </si>
-  <si>
-    <t>Arecibo</t>
-  </si>
-  <si>
-    <t>Atchafalaya</t>
-  </si>
-  <si>
-    <t>Atwood</t>
-  </si>
-  <si>
-    <t>Aves</t>
-  </si>
-  <si>
-    <t>Ayamonte</t>
-  </si>
-  <si>
-    <t>Ays</t>
-  </si>
-  <si>
-    <t>Azua</t>
-  </si>
-  <si>
-    <t>Bahía Escocesa</t>
-  </si>
-  <si>
-    <t>Bahía Honda</t>
-  </si>
-  <si>
-    <t>Baja</t>
-  </si>
-  <si>
-    <t>Baní</t>
-  </si>
-  <si>
-    <t>Baracoa</t>
-  </si>
-  <si>
-    <t>Barahona</t>
-  </si>
-  <si>
-    <t>Barataria</t>
-  </si>
-  <si>
-    <t>Barranquilla</t>
-  </si>
-  <si>
-    <t>Basse-Terre</t>
-  </si>
-  <si>
-    <t>Basseterre Town</t>
-  </si>
-  <si>
-    <t>Batabanó</t>
-  </si>
-  <si>
-    <t>Beaufort</t>
-  </si>
-  <si>
-    <t>Belize</t>
-  </si>
-  <si>
-    <t>Bensalem</t>
-  </si>
-  <si>
-    <t>Bernal</t>
-  </si>
-  <si>
-    <t>Biloxi</t>
-  </si>
-  <si>
-    <t>Black River</t>
-  </si>
-  <si>
-    <t>Bluefields</t>
-  </si>
-  <si>
-    <t>Bonacca</t>
-  </si>
-  <si>
-    <t>Brangman’s Bluff</t>
-  </si>
-  <si>
-    <t>Bridgetown</t>
-  </si>
-  <si>
-    <t>Brunswick</t>
-  </si>
-  <si>
-    <t>Buena Vista</t>
-  </si>
-  <si>
-    <t>Cabo Cañaveral</t>
-  </si>
-  <si>
-    <t>Cabo Rojo</t>
-  </si>
-  <si>
-    <t>Cabo de la Vela</t>
-  </si>
-  <si>
-    <t>Calcasieu</t>
-  </si>
-  <si>
-    <t>Calobelo</t>
-  </si>
-  <si>
-    <t>Camp du Roy</t>
-  </si>
-  <si>
-    <t>Campeche</t>
-  </si>
-  <si>
-    <t>Canalete</t>
-  </si>
-  <si>
-    <t>Cap-Français</t>
-  </si>
-  <si>
-    <t>Caracas</t>
-  </si>
-  <si>
-    <t>Cariaco</t>
-  </si>
-  <si>
-    <t>Carlisle</t>
-  </si>
-  <si>
-    <t>Carriacou</t>
-  </si>
-  <si>
-    <t>Cartagena de Indias</t>
-  </si>
-  <si>
-    <t>Carúpano</t>
-  </si>
-  <si>
-    <t>Casigua</t>
-  </si>
-  <si>
-    <t>Castries</t>
-  </si>
-  <si>
-    <t>Cayman Brac</t>
-  </si>
-  <si>
-    <t>Cayo Biscayno</t>
-  </si>
-  <si>
-    <t>Cayo Romano</t>
-  </si>
-  <si>
-    <t>Cayo de Sal</t>
-  </si>
-  <si>
-    <t>Cayo del Anclote</t>
-  </si>
-  <si>
-    <t>Caño Araguabisi</t>
-  </si>
-  <si>
-    <t>Caño Araguao</t>
-  </si>
-  <si>
-    <t>Caño Macareo</t>
-  </si>
-  <si>
-    <t>Chagres</t>
-  </si>
-  <si>
-    <t>Champotón</t>
-  </si>
-  <si>
-    <t>Charles Town</t>
-  </si>
-  <si>
-    <t>Charleston</t>
-  </si>
-  <si>
-    <t>Christiansted</t>
-  </si>
-  <si>
-    <t>Codrington</t>
-  </si>
-  <si>
-    <t>Cojoro</t>
-  </si>
-  <si>
-    <t>Concepción</t>
-  </si>
-  <si>
-    <t>Congrios</t>
-  </si>
-  <si>
-    <t>Conil</t>
-  </si>
-  <si>
-    <t>Constance</t>
-  </si>
-  <si>
-    <t>Conttoy</t>
-  </si>
-  <si>
-    <t>Coquibacoa</t>
-  </si>
-  <si>
-    <t>Coral Bay</t>
-  </si>
-  <si>
-    <t>Coro</t>
-  </si>
-  <si>
-    <t>Corrientes</t>
-  </si>
-  <si>
-    <t>Cul-de-Sac</t>
-  </si>
-  <si>
-    <t>Cumaná</t>
-  </si>
-  <si>
-    <t>Cuyo</t>
-  </si>
-  <si>
-    <t>Dariena</t>
-  </si>
-  <si>
-    <t>Deshaies</t>
-  </si>
-  <si>
-    <t>El Rancho</t>
-  </si>
-  <si>
-    <t>El Soco</t>
-  </si>
-  <si>
-    <t>El Toco</t>
-  </si>
-  <si>
-    <t>Encontrados</t>
-  </si>
-  <si>
-    <t>English Harbour</t>
-  </si>
-  <si>
-    <t>Espíritu Santo</t>
-  </si>
-  <si>
-    <t>Esteros</t>
-  </si>
-  <si>
-    <t>Fajardo</t>
-  </si>
-  <si>
-    <t>Flatts</t>
-  </si>
-  <si>
-    <t>Fort Baai</t>
-  </si>
-  <si>
-    <t>Fort Oranje</t>
-  </si>
-  <si>
-    <t>Fort Zoutman</t>
-  </si>
-  <si>
-    <t>Fort-Dauphin</t>
-  </si>
-  <si>
-    <t>Fort-Royal</t>
-  </si>
-  <si>
-    <t>Frederiksted</t>
-  </si>
-  <si>
-    <t>Galdonas</t>
-  </si>
-  <si>
-    <t>Gasparilla</t>
-  </si>
-  <si>
-    <t>George Town</t>
-  </si>
-  <si>
-    <t>Georgetown</t>
-  </si>
-  <si>
-    <t>Gibraltar</t>
-  </si>
-  <si>
-    <t>Gracias a Dios</t>
-  </si>
-  <si>
-    <t>Grand Anse</t>
-  </si>
-  <si>
-    <t>Grand Turk</t>
-  </si>
-  <si>
-    <t>Great Corn</t>
-  </si>
-  <si>
-    <t>Great River</t>
-  </si>
-  <si>
-    <t>Grindstone</t>
-  </si>
-  <si>
-    <t>Guamá Sevilla</t>
-  </si>
-  <si>
-    <t>Guayaguayare</t>
-  </si>
-  <si>
-    <t>Guayama</t>
-  </si>
-  <si>
-    <t>Guibara</t>
-  </si>
-  <si>
-    <t>Gustavia</t>
-  </si>
-  <si>
-    <t>Guánica</t>
-  </si>
-  <si>
-    <t>Güiria</t>
-  </si>
-  <si>
-    <t>Hat Island</t>
-  </si>
-  <si>
-    <t>Higüey</t>
-  </si>
-  <si>
-    <t>Islamorada</t>
-  </si>
-  <si>
-    <t>Island Harbour</t>
-  </si>
-  <si>
-    <t>Jacmel</t>
-  </si>
-  <si>
-    <t>Jagua</t>
-  </si>
-  <si>
-    <t>Jobe</t>
-  </si>
-  <si>
-    <t>Jérémie</t>
-  </si>
-  <si>
-    <t>Key West</t>
-  </si>
-  <si>
-    <t>Kidd’s Harbour</t>
-  </si>
-  <si>
-    <t>Kingston / Port Royal</t>
-  </si>
-  <si>
-    <t>Kingstown</t>
-  </si>
-  <si>
-    <t>La Blanquilla</t>
-  </si>
-  <si>
-    <t>La Désirade</t>
-  </si>
-  <si>
-    <t>La Habana</t>
-  </si>
-  <si>
-    <t>La Isabela</t>
-  </si>
-  <si>
-    <t>La Mona</t>
-  </si>
-  <si>
-    <t>La Moussette</t>
-  </si>
-  <si>
-    <t>La Navasse</t>
-  </si>
-  <si>
-    <t>La Orchila</t>
-  </si>
-  <si>
-    <t>La Tortue</t>
-  </si>
-  <si>
-    <t>La Trinité</t>
-  </si>
-  <si>
-    <t>Lagunillas</t>
-  </si>
-  <si>
-    <t>Las Aves</t>
-  </si>
-  <si>
-    <t>Las Tortugas</t>
-  </si>
-  <si>
-    <t>Le Moule</t>
-  </si>
-  <si>
-    <t>Les Cayes</t>
-  </si>
-  <si>
-    <t>Les Gonaïves</t>
-  </si>
-  <si>
-    <t>Little Cayman</t>
-  </si>
-  <si>
-    <t>Little Inagua</t>
-  </si>
-  <si>
-    <t>Little River</t>
-  </si>
-  <si>
-    <t>Lorimers</t>
-  </si>
-  <si>
-    <t>Léogane</t>
-  </si>
-  <si>
-    <t>Macanao</t>
-  </si>
-  <si>
-    <t>Macao</t>
-  </si>
-  <si>
-    <t>Manataca</t>
-  </si>
-  <si>
-    <t>Mandinga</t>
-  </si>
-  <si>
-    <t>Mantua</t>
-  </si>
-  <si>
-    <t>Manzanilla</t>
-  </si>
-  <si>
-    <t>Maracaibo</t>
-  </si>
-  <si>
-    <t>Mariel</t>
-  </si>
-  <si>
-    <t>Marigot</t>
-  </si>
-  <si>
-    <t>Marin</t>
-  </si>
-  <si>
-    <t>Matanzas</t>
-  </si>
-  <si>
-    <t>Matina</t>
-  </si>
-  <si>
-    <t>Misteriosa</t>
-  </si>
-  <si>
-    <t>Mitara</t>
-  </si>
-  <si>
-    <t>Mobile</t>
-  </si>
-  <si>
-    <t>Monte Cristi</t>
-  </si>
-  <si>
-    <t>Montego Bay</t>
-  </si>
-  <si>
-    <t>Morro Chico</t>
-  </si>
-  <si>
-    <t>Mortimer Town</t>
-  </si>
-  <si>
-    <t>Mugeres</t>
-  </si>
-  <si>
-    <t>Naparima</t>
-  </si>
-  <si>
-    <t>New Edinburgh</t>
-  </si>
-  <si>
-    <t>New Smyrna</t>
-  </si>
-  <si>
-    <t>Nippes</t>
-  </si>
-  <si>
-    <t>North Inlet</t>
-  </si>
-  <si>
-    <t>Nouvelle-Orléans</t>
-  </si>
-  <si>
-    <t>Nueva Barcelona</t>
-  </si>
-  <si>
-    <t>Nuevitas</t>
-  </si>
-  <si>
-    <t>Ocean Bight</t>
-  </si>
-  <si>
-    <t>Old Providence</t>
-  </si>
-  <si>
-    <t>Omoa</t>
-  </si>
-  <si>
-    <t>Oranjestad</t>
-  </si>
-  <si>
-    <t>Pampatar</t>
-  </si>
-  <si>
-    <t>Parrot Cay</t>
-  </si>
-  <si>
-    <t>Pasaje</t>
-  </si>
-  <si>
-    <t>Pedernales</t>
-  </si>
-  <si>
-    <t>Penzacola</t>
-  </si>
-  <si>
-    <t>Perijá</t>
-  </si>
-  <si>
-    <t>Philipsburg</t>
-  </si>
-  <si>
-    <t>Pinar del Río</t>
-  </si>
-  <si>
-    <t>Pitt’s Town</t>
-  </si>
-  <si>
-    <t>Placentia</t>
-  </si>
-  <si>
-    <t>Placer</t>
-  </si>
-  <si>
-    <t>Playón</t>
-  </si>
-  <si>
-    <t>Plymouth</t>
-  </si>
-  <si>
-    <t>Pointe-à-Pitre</t>
-  </si>
-  <si>
-    <t>Ponce</t>
-  </si>
-  <si>
-    <t>Port Antonio</t>
-  </si>
-  <si>
-    <t>Port Morant</t>
-  </si>
-  <si>
-    <t>Port-Louis</t>
-  </si>
-  <si>
-    <t>Port-au-Prince</t>
-  </si>
-  <si>
-    <t>Port-de-Paix</t>
-  </si>
-  <si>
-    <t>Portillo</t>
-  </si>
-  <si>
-    <t>Portobelo</t>
-  </si>
-  <si>
-    <t>Prinzapolka</t>
-  </si>
-  <si>
-    <t>Puerto Cabello</t>
-  </si>
-  <si>
-    <t>Puerto Escondido</t>
-  </si>
-  <si>
-    <t>Puerto Plata</t>
-  </si>
-  <si>
-    <t>Puerto Real</t>
-  </si>
-  <si>
-    <t>Puerto de España</t>
-  </si>
-  <si>
-    <t>Puerto de Nipe</t>
-  </si>
-  <si>
-    <t>Puerto del Padre</t>
-  </si>
-  <si>
-    <t>Píritu</t>
-  </si>
-  <si>
-    <t>Remedios</t>
-  </si>
-  <si>
-    <t>Rincón</t>
-  </si>
-  <si>
-    <t>Road Town</t>
-  </si>
-  <si>
-    <t>Robras</t>
-  </si>
-  <si>
-    <t>Rosaly</t>
-  </si>
-  <si>
-    <t>Roseau</t>
-  </si>
-  <si>
-    <t>Ruatan</t>
-  </si>
-  <si>
-    <t>Río Chico</t>
-  </si>
-  <si>
-    <t>Río Seco</t>
-  </si>
-  <si>
-    <t>Río Tocuyo</t>
-  </si>
-  <si>
-    <t>Río de la Hacha</t>
-  </si>
-  <si>
-    <t>Sabina</t>
-  </si>
-  <si>
-    <t>Saint Ann</t>
-  </si>
-  <si>
-    <t>Saint George</t>
-  </si>
-  <si>
-    <t>Saint George’s Town</t>
-  </si>
-  <si>
-    <t>Saint John’s</t>
-  </si>
-  <si>
-    <t>Saint Joseph</t>
-  </si>
-  <si>
-    <t>Saint Marys</t>
-  </si>
-  <si>
-    <t>Saint-François</t>
-  </si>
-  <si>
-    <t>Saint-Louis</t>
-  </si>
-  <si>
-    <t>Saint-Malo</t>
-  </si>
-  <si>
-    <t>Saint-Marc</t>
-  </si>
-  <si>
-    <t>Saint-Nicolas</t>
-  </si>
-  <si>
-    <t>Saint-Pierre</t>
-  </si>
-  <si>
-    <t>Salamanca</t>
-  </si>
-  <si>
-    <t>Sale-Trou</t>
-  </si>
-  <si>
-    <t>Salinas</t>
-  </si>
-  <si>
-    <t>Samaná</t>
-  </si>
-  <si>
-    <t>San Agustín</t>
-  </si>
-  <si>
-    <t>San Andrés</t>
-  </si>
-  <si>
-    <t>San José</t>
-  </si>
-  <si>
-    <t>San Juan</t>
-  </si>
-  <si>
-    <t>San Juan del Norte</t>
-  </si>
-  <si>
-    <t>San Lazaro</t>
-  </si>
-  <si>
-    <t>San Luis</t>
-  </si>
-  <si>
-    <t>San Mateo</t>
-  </si>
-  <si>
-    <t>San Sebastian</t>
-  </si>
-  <si>
-    <t>San Timoteo</t>
-  </si>
-  <si>
-    <t>Sancti Spíritus</t>
-  </si>
-  <si>
-    <t>Sandy Bay</t>
-  </si>
-  <si>
-    <t>Sandy Hill</t>
-  </si>
-  <si>
-    <t>Sant Iago</t>
-  </si>
-  <si>
-    <t>Santa Ana</t>
-  </si>
-  <si>
-    <t>Santa Cruz</t>
-  </si>
-  <si>
-    <t>Santa Marta</t>
-  </si>
-  <si>
-    <t>Santa María</t>
-  </si>
-  <si>
-    <t>Santa Rosa</t>
-  </si>
-  <si>
-    <t>Santanillas</t>
-  </si>
-  <si>
-    <t>Santo Domingo</t>
-  </si>
-  <si>
-    <t>Santo Tomás</t>
-  </si>
-  <si>
-    <t>Santo Tomé de Guayana</t>
-  </si>
-  <si>
-    <t>Sarazota</t>
-  </si>
-  <si>
-    <t>Savanna la Mar</t>
-  </si>
-  <si>
-    <t>Savannah</t>
-  </si>
-  <si>
-    <t>Scarborough</t>
-  </si>
-  <si>
-    <t>Selam</t>
-  </si>
-  <si>
-    <t>Sinamaica</t>
-  </si>
-  <si>
-    <t>Sisal</t>
-  </si>
-  <si>
-    <t>Somerset</t>
-  </si>
-  <si>
-    <t>Soto La Marina</t>
-  </si>
-  <si>
-    <t>Spanish Town</t>
-  </si>
-  <si>
-    <t>Sunbury</t>
-  </si>
-  <si>
-    <t>Swannsborough</t>
-  </si>
-  <si>
-    <t>Talamanca</t>
-  </si>
-  <si>
-    <t>Tamiagua</t>
-  </si>
-  <si>
-    <t>Tampa</t>
-  </si>
-  <si>
-    <t>Tampico</t>
-  </si>
-  <si>
-    <t>Tantun Cuzamil</t>
-  </si>
-  <si>
-    <t>Terre-de-Bas</t>
-  </si>
-  <si>
-    <t>Terrebonne</t>
-  </si>
-  <si>
-    <t>Tiburon</t>
-  </si>
-  <si>
-    <t>Tolú</t>
-  </si>
-  <si>
-    <t>Tordo</t>
-  </si>
-  <si>
-    <t>Trinidad</t>
-  </si>
-  <si>
-    <t>Triunfo de la Cruz</t>
-  </si>
-  <si>
-    <t>Truxillo</t>
-  </si>
-  <si>
-    <t>Tulum</t>
-  </si>
-  <si>
-    <t>Tumbado</t>
-  </si>
-  <si>
-    <t>Turneffe</t>
-  </si>
-  <si>
-    <t>Tuspan</t>
-  </si>
-  <si>
-    <t>Vera Cruz</t>
-  </si>
-  <si>
-    <t>Vermiou</t>
-  </si>
-  <si>
-    <t>Victoria</t>
-  </si>
-  <si>
-    <t>Vieques</t>
-  </si>
-  <si>
-    <t>Vieux-Fort</t>
-  </si>
-  <si>
-    <t>Wantlands Ferry</t>
-  </si>
-  <si>
-    <t>Willemstad</t>
-  </si>
-  <si>
-    <t>Wilmington</t>
-  </si>
-  <si>
-    <t>Xpu Ha</t>
-  </si>
-  <si>
-    <t>Yaguaraparo</t>
-  </si>
-  <si>
-    <t>Ysil</t>
-  </si>
-  <si>
-    <t>Fritz</t>
-  </si>
-  <si>
-    <t>Franz</t>
-  </si>
-  <si>
-    <t>Klaus</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>Brig</t>
   </si>
   <si>
+    <t>GunBoat</t>
+  </si>
+  <si>
+    <t>Lynx</t>
+  </si>
+  <si>
+    <t>Privateer</t>
+  </si>
+  <si>
+    <t>Cutter</t>
+  </si>
+  <si>
     <t>Pickle</t>
-  </si>
-  <si>
-    <t>Cutter</t>
-  </si>
-  <si>
-    <t>GunBoat</t>
-  </si>
-  <si>
-    <t>Lynx</t>
-  </si>
-  <si>
-    <t>Privateer</t>
   </si>
   <si>
     <t>Yacht</t>
@@ -1637,7 +1637,7 @@
       <c r="AB1" s="8"/>
       <c r="AC1" s="8"/>
       <c r="AD1" s="0" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="AE1" s="0" t="n">
         <v>8210</v>
@@ -1682,7 +1682,7 @@
       <c r="AB2" s="8"/>
       <c r="AC2" s="8"/>
       <c r="AD2" s="0" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="AE2" s="0" t="n">
         <v>5090</v>
@@ -1731,7 +1731,7 @@
       <c r="AB3" s="16"/>
       <c r="AC3" s="16"/>
       <c r="AD3" s="0" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AE3" s="0" t="n">
         <v>5040</v>
@@ -1742,10 +1742,10 @@
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
       <c r="D4" s="21">
-        <f>SUM(D5:D45)</f>
+        <f>SUM(D5:D41)</f>
       </c>
       <c r="E4" s="21">
-        <f>SUM(E5:E45)</f>
+        <f>SUM(E5:E41)</f>
       </c>
       <c r="F4" s="22" t="s">
         <v>11</v>
@@ -1774,7 +1774,7 @@
       <c r="AB4" s="22"/>
       <c r="AC4" s="22"/>
       <c r="AD4" s="0" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AE4" s="0" t="n">
         <v>2670</v>
@@ -1788,7 +1788,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="27" t="n">
-        <v>605</v>
+        <v>900</v>
       </c>
       <c r="D5" s="27">
         <f>COUNTA(F5:AC5)</f>
@@ -1797,13 +1797,13 @@
         <f>C5*D5</f>
       </c>
       <c r="F5" s="29" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="I5" s="29"/>
       <c r="J5" s="29"/>
@@ -1827,7 +1827,7 @@
       <c r="AB5" s="29"/>
       <c r="AC5" s="29"/>
       <c r="AD5" s="0" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AE5" s="0" t="n">
         <v>7780</v>
@@ -1841,7 +1841,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="27" t="n">
-        <v>580</v>
+        <v>800</v>
       </c>
       <c r="D6" s="27">
         <f>COUNTA(F6:AC6)</f>
@@ -1850,13 +1850,13 @@
         <f>C6*D6</f>
       </c>
       <c r="F6" s="29" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="I6" s="29"/>
       <c r="J6" s="29"/>
@@ -1880,7 +1880,7 @@
       <c r="AB6" s="29"/>
       <c r="AC6" s="29"/>
       <c r="AD6" s="0" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AE6" s="0" t="n">
         <v>7920</v>
@@ -1894,7 +1894,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="27" t="n">
-        <v>515</v>
+        <v>780</v>
       </c>
       <c r="D7" s="27">
         <f>COUNTA(F7:AC7)</f>
@@ -1927,7 +1927,7 @@
       <c r="AB7" s="29"/>
       <c r="AC7" s="29"/>
       <c r="AD7" s="0" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AE7" s="0" t="n">
         <v>2720</v>
@@ -1974,7 +1974,7 @@
       <c r="AB8" s="34"/>
       <c r="AC8" s="34"/>
       <c r="AD8" s="0" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="AE8" s="0" t="n">
         <v>2720</v>
@@ -1988,7 +1988,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="32" t="n">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="D9" s="32">
         <f>COUNTA(F9:AC9)</f>
@@ -2021,7 +2021,7 @@
       <c r="AB9" s="34"/>
       <c r="AC9" s="34"/>
       <c r="AD9" s="0" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="AE9" s="0" t="n">
         <v>2620</v>
@@ -2035,7 +2035,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="32" t="n">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="D10" s="32">
         <f>COUNTA(F10:AC10)</f>
@@ -2068,7 +2068,7 @@
       <c r="AB10" s="34"/>
       <c r="AC10" s="34"/>
       <c r="AD10" s="0" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="AE10" s="0" t="n">
         <v>8210</v>
@@ -2082,7 +2082,7 @@
         <v>18</v>
       </c>
       <c r="C11" s="27" t="n">
-        <v>365</v>
+        <v>450</v>
       </c>
       <c r="D11" s="27">
         <f>COUNTA(F11:AC11)</f>
@@ -2115,7 +2115,7 @@
       <c r="AB11" s="29"/>
       <c r="AC11" s="29"/>
       <c r="AD11" s="0" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="AE11" s="0" t="n">
         <v>2720</v>
@@ -2129,7 +2129,7 @@
         <v>19</v>
       </c>
       <c r="C12" s="27" t="n">
-        <v>355</v>
+        <v>450</v>
       </c>
       <c r="D12" s="27">
         <f>COUNTA(F12:AC12)</f>
@@ -2162,7 +2162,7 @@
       <c r="AB12" s="29"/>
       <c r="AC12" s="29"/>
       <c r="AD12" s="0" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="AE12" s="0" t="n">
         <v>2720</v>
@@ -2176,7 +2176,7 @@
         <v>20</v>
       </c>
       <c r="C13" s="27" t="n">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D13" s="27">
         <f>COUNTA(F13:AC13)</f>
@@ -2209,7 +2209,7 @@
       <c r="AB13" s="29"/>
       <c r="AC13" s="29"/>
       <c r="AD13" s="0" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="AE13" s="0" t="n">
         <v>2570</v>
@@ -2223,7 +2223,7 @@
         <v>21</v>
       </c>
       <c r="C14" s="32" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="D14" s="32">
         <f>COUNTA(F14:AC14)</f>
@@ -2256,7 +2256,7 @@
       <c r="AB14" s="34"/>
       <c r="AC14" s="34"/>
       <c r="AD14" s="0" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="AE14" s="0" t="n">
         <v>2570</v>
@@ -2270,7 +2270,7 @@
         <v>22</v>
       </c>
       <c r="C15" s="32" t="n">
-        <v>290</v>
+        <v>340</v>
       </c>
       <c r="D15" s="32">
         <f>COUNTA(F15:AC15)</f>
@@ -2303,7 +2303,7 @@
       <c r="AB15" s="34"/>
       <c r="AC15" s="34"/>
       <c r="AD15" s="0" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="AE15" s="0" t="n">
         <v>5140</v>
@@ -2317,7 +2317,7 @@
         <v>23</v>
       </c>
       <c r="C16" s="32" t="n">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="D16" s="32">
         <f>COUNTA(F16:AC16)</f>
@@ -2350,7 +2350,7 @@
       <c r="AB16" s="34"/>
       <c r="AC16" s="34"/>
       <c r="AD16" s="0" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="AE16" s="0" t="n">
         <v>7920</v>
@@ -2364,7 +2364,7 @@
         <v>24</v>
       </c>
       <c r="C17" s="32" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="D17" s="32">
         <f>COUNTA(F17:AC17)</f>
@@ -2397,7 +2397,7 @@
       <c r="AB17" s="34"/>
       <c r="AC17" s="34"/>
       <c r="AD17" s="0" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="AE17" s="0" t="n">
         <v>2720</v>
@@ -2411,7 +2411,7 @@
         <v>25</v>
       </c>
       <c r="C18" s="32" t="n">
-        <v>275</v>
+        <v>230</v>
       </c>
       <c r="D18" s="32">
         <f>COUNTA(F18:AC18)</f>
@@ -2444,7 +2444,7 @@
       <c r="AB18" s="34"/>
       <c r="AC18" s="34"/>
       <c r="AD18" s="0" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="AE18" s="0" t="n">
         <v>7780</v>
@@ -2458,7 +2458,7 @@
         <v>26</v>
       </c>
       <c r="C19" s="27" t="n">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="D19" s="27">
         <f>COUNTA(F19:AC19)</f>
@@ -2491,7 +2491,7 @@
       <c r="AB19" s="29"/>
       <c r="AC19" s="29"/>
       <c r="AD19" s="0" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="AE19" s="0" t="n">
         <v>5520</v>
@@ -2505,7 +2505,7 @@
         <v>27</v>
       </c>
       <c r="C20" s="27" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="D20" s="27">
         <f>COUNTA(F20:AC20)</f>
@@ -2538,7 +2538,7 @@
       <c r="AB20" s="29"/>
       <c r="AC20" s="29"/>
       <c r="AD20" s="0" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="AE20" s="0" t="n">
         <v>7780</v>
@@ -2552,7 +2552,7 @@
         <v>28</v>
       </c>
       <c r="C21" s="27" t="n">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="D21" s="27">
         <f>COUNTA(F21:AC21)</f>
@@ -2585,7 +2585,7 @@
       <c r="AB21" s="29"/>
       <c r="AC21" s="29"/>
       <c r="AD21" s="0" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AE21" s="0" t="n">
         <v>10560</v>
@@ -2599,7 +2599,7 @@
         <v>29</v>
       </c>
       <c r="C22" s="27" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="D22" s="27">
         <f>COUNTA(F22:AC22)</f>
@@ -2632,7 +2632,7 @@
       <c r="AB22" s="29"/>
       <c r="AC22" s="29"/>
       <c r="AD22" s="0" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AE22" s="0" t="n">
         <v>5380</v>
@@ -2646,7 +2646,7 @@
         <v>30</v>
       </c>
       <c r="C23" s="27" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="D23" s="27">
         <f>COUNTA(F23:AC23)</f>
@@ -2679,7 +2679,7 @@
       <c r="AB23" s="29"/>
       <c r="AC23" s="29"/>
       <c r="AD23" s="0" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AE23" s="0" t="n">
         <v>2600</v>
@@ -2693,7 +2693,7 @@
         <v>31</v>
       </c>
       <c r="C24" s="27" t="n">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="D24" s="27">
         <f>COUNTA(F24:AC24)</f>
@@ -2726,7 +2726,7 @@
       <c r="AB24" s="29"/>
       <c r="AC24" s="29"/>
       <c r="AD24" s="0" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AE24" s="0" t="n">
         <v>5380</v>
@@ -2740,7 +2740,7 @@
         <v>32</v>
       </c>
       <c r="C25" s="27" t="n">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="D25" s="27">
         <f>COUNTA(F25:AC25)</f>
@@ -2773,7 +2773,7 @@
       <c r="AB25" s="29"/>
       <c r="AC25" s="29"/>
       <c r="AD25" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AE25" s="0" t="n">
         <v>10080</v>
@@ -2787,7 +2787,7 @@
         <v>33</v>
       </c>
       <c r="C26" s="27" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="D26" s="27">
         <f>COUNTA(F26:AC26)</f>
@@ -2820,7 +2820,7 @@
       <c r="AB26" s="29"/>
       <c r="AC26" s="29"/>
       <c r="AD26" s="0" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AE26" s="0" t="n">
         <v>8140</v>
@@ -2834,7 +2834,7 @@
         <v>34</v>
       </c>
       <c r="C27" s="27" t="n">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="D27" s="27">
         <f>COUNTA(F27:AC27)</f>
@@ -2867,7 +2867,7 @@
       <c r="AB27" s="29"/>
       <c r="AC27" s="29"/>
       <c r="AD27" s="0" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE27" s="0" t="n">
         <v>10850</v>
@@ -2881,7 +2881,7 @@
         <v>35</v>
       </c>
       <c r="C28" s="27" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="D28" s="27">
         <f>COUNTA(F28:AC28)</f>
@@ -2914,7 +2914,7 @@
       <c r="AB28" s="29"/>
       <c r="AC28" s="29"/>
       <c r="AD28" s="0" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AE28" s="0" t="n">
         <v>7560</v>
@@ -2928,7 +2928,7 @@
         <v>36</v>
       </c>
       <c r="C29" s="27" t="n">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D29" s="27">
         <f>COUNTA(F29:AC29)</f>
@@ -2961,7 +2961,7 @@
       <c r="AB29" s="29"/>
       <c r="AC29" s="29"/>
       <c r="AD29" s="0" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AE29" s="0" t="n">
         <v>10660</v>
@@ -2975,7 +2975,7 @@
         <v>37</v>
       </c>
       <c r="C30" s="27" t="n">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D30" s="27">
         <f>COUNTA(F30:AC30)</f>
@@ -3008,7 +3008,7 @@
       <c r="AB30" s="29"/>
       <c r="AC30" s="29"/>
       <c r="AD30" s="0" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AE30" s="0" t="n">
         <v>2620</v>
@@ -3022,7 +3022,7 @@
         <v>38</v>
       </c>
       <c r="C31" s="27" t="n">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="D31" s="27">
         <f>COUNTA(F31:AC31)</f>
@@ -3055,7 +3055,7 @@
       <c r="AB31" s="29"/>
       <c r="AC31" s="29"/>
       <c r="AD31" s="0" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="AE31" s="0" t="n">
         <v>2640</v>
@@ -3069,7 +3069,7 @@
         <v>39</v>
       </c>
       <c r="C32" s="27" t="n">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="D32" s="27">
         <f>COUNTA(F32:AC32)</f>
@@ -3102,7 +3102,7 @@
       <c r="AB32" s="29"/>
       <c r="AC32" s="29"/>
       <c r="AD32" s="0" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="AE32" s="0" t="n">
         <v>8000</v>
@@ -3116,7 +3116,7 @@
         <v>40</v>
       </c>
       <c r="C33" s="27" t="n">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="D33" s="27">
         <f>COUNTA(F33:AC33)</f>
@@ -3149,7 +3149,7 @@
       <c r="AB33" s="29"/>
       <c r="AC33" s="29"/>
       <c r="AD33" s="0" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="AE33" s="0" t="n">
         <v>2600</v>
@@ -3163,7 +3163,7 @@
         <v>41</v>
       </c>
       <c r="C34" s="27" t="n">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="D34" s="27">
         <f>COUNTA(F34:AC34)</f>
@@ -3196,7 +3196,7 @@
       <c r="AB34" s="29"/>
       <c r="AC34" s="29"/>
       <c r="AD34" s="0" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AE34" s="0" t="n">
         <v>8280</v>
@@ -3210,7 +3210,7 @@
         <v>42</v>
       </c>
       <c r="C35" s="27" t="n">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="D35" s="27">
         <f>COUNTA(F35:AC35)</f>
@@ -3243,7 +3243,7 @@
       <c r="AB35" s="29"/>
       <c r="AC35" s="29"/>
       <c r="AD35" s="0" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AE35" s="0" t="n">
         <v>2740</v>
@@ -3257,7 +3257,7 @@
         <v>43</v>
       </c>
       <c r="C36" s="32" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="D36" s="32">
         <f>COUNTA(F36:AC36)</f>
@@ -3290,7 +3290,7 @@
       <c r="AB36" s="34"/>
       <c r="AC36" s="34"/>
       <c r="AD36" s="0" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AE36" s="0" t="n">
         <v>5280</v>
@@ -3304,7 +3304,7 @@
         <v>44</v>
       </c>
       <c r="C37" s="32" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="D37" s="32">
         <f>COUNTA(F37:AC37)</f>
@@ -3337,7 +3337,7 @@
       <c r="AB37" s="34"/>
       <c r="AC37" s="34"/>
       <c r="AD37" s="0" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="AE37" s="0" t="n">
         <v>10950</v>
@@ -3351,7 +3351,7 @@
         <v>45</v>
       </c>
       <c r="C38" s="32" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D38" s="32">
         <f>COUNTA(F38:AC38)</f>
@@ -3384,7 +3384,7 @@
       <c r="AB38" s="34"/>
       <c r="AC38" s="34"/>
       <c r="AD38" s="0" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AE38" s="0" t="n">
         <v>7640</v>
@@ -3398,7 +3398,7 @@
         <v>46</v>
       </c>
       <c r="C39" s="32" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D39" s="32">
         <f>COUNTA(F39:AC39)</f>
@@ -3431,7 +3431,7 @@
       <c r="AB39" s="34"/>
       <c r="AC39" s="34"/>
       <c r="AD39" s="0" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AE39" s="0" t="n">
         <v>5040</v>
@@ -3478,7 +3478,7 @@
       <c r="AB40" s="34"/>
       <c r="AC40" s="34"/>
       <c r="AD40" s="0" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="AE40" s="0" t="n">
         <v>2640</v>
@@ -3525,195 +3525,39 @@
       <c r="AB41" s="34"/>
       <c r="AC41" s="34"/>
       <c r="AD41" s="0" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AE41" s="0" t="n">
         <v>5240</v>
       </c>
     </row>
-    <row r="42" spans="1:31" customHeight="1">
-      <c r="A42" s="32" t="n">
-        <v>6</v>
-      </c>
-      <c r="B42" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="C42" s="32" t="n">
-        <v>80</v>
-      </c>
-      <c r="D42" s="32">
-        <f>COUNTA(F42:AC42)</f>
-      </c>
-      <c r="E42" s="32">
-        <f>C42*D42</f>
-      </c>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="34"/>
-      <c r="K42" s="34"/>
-      <c r="L42" s="34"/>
-      <c r="M42" s="34"/>
-      <c r="N42" s="34"/>
-      <c r="O42" s="34"/>
-      <c r="P42" s="34"/>
-      <c r="Q42" s="34"/>
-      <c r="R42" s="34"/>
-      <c r="S42" s="34"/>
-      <c r="T42" s="34"/>
-      <c r="U42" s="34"/>
-      <c r="V42" s="34"/>
-      <c r="W42" s="34"/>
-      <c r="X42" s="34"/>
-      <c r="Y42" s="34"/>
-      <c r="Z42" s="34"/>
-      <c r="AA42" s="34"/>
-      <c r="AB42" s="34"/>
-      <c r="AC42" s="34"/>
+    <row r="42" spans="30:31" customHeight="1">
       <c r="AD42" s="0" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="AE42" s="0" t="n">
         <v>2640</v>
       </c>
     </row>
-    <row r="43" spans="1:31" customHeight="1">
-      <c r="A43" s="32" t="n">
-        <v>6</v>
-      </c>
-      <c r="B43" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="C43" s="32" t="n">
-        <v>80</v>
-      </c>
-      <c r="D43" s="32">
-        <f>COUNTA(F43:AC43)</f>
-      </c>
-      <c r="E43" s="32">
-        <f>C43*D43</f>
-      </c>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="34"/>
-      <c r="K43" s="34"/>
-      <c r="L43" s="34"/>
-      <c r="M43" s="34"/>
-      <c r="N43" s="34"/>
-      <c r="O43" s="34"/>
-      <c r="P43" s="34"/>
-      <c r="Q43" s="34"/>
-      <c r="R43" s="34"/>
-      <c r="S43" s="34"/>
-      <c r="T43" s="34"/>
-      <c r="U43" s="34"/>
-      <c r="V43" s="34"/>
-      <c r="W43" s="34"/>
-      <c r="X43" s="34"/>
-      <c r="Y43" s="34"/>
-      <c r="Z43" s="34"/>
-      <c r="AA43" s="34"/>
-      <c r="AB43" s="34"/>
-      <c r="AC43" s="34"/>
+    <row r="43" spans="30:31" customHeight="1">
       <c r="AD43" s="0" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AE43" s="0" t="n">
         <v>2670</v>
       </c>
     </row>
-    <row r="44" spans="1:31" customHeight="1">
-      <c r="A44" s="32" t="n">
-        <v>6</v>
-      </c>
-      <c r="B44" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="C44" s="32" t="n">
-        <v>80</v>
-      </c>
-      <c r="D44" s="32">
-        <f>COUNTA(F44:AC44)</f>
-      </c>
-      <c r="E44" s="32">
-        <f>C44*D44</f>
-      </c>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="34"/>
-      <c r="K44" s="34"/>
-      <c r="L44" s="34"/>
-      <c r="M44" s="34"/>
-      <c r="N44" s="34"/>
-      <c r="O44" s="34"/>
-      <c r="P44" s="34"/>
-      <c r="Q44" s="34"/>
-      <c r="R44" s="34"/>
-      <c r="S44" s="34"/>
-      <c r="T44" s="34"/>
-      <c r="U44" s="34"/>
-      <c r="V44" s="34"/>
-      <c r="W44" s="34"/>
-      <c r="X44" s="34"/>
-      <c r="Y44" s="34"/>
-      <c r="Z44" s="34"/>
-      <c r="AA44" s="34"/>
-      <c r="AB44" s="34"/>
-      <c r="AC44" s="34"/>
+    <row r="44" spans="30:31" customHeight="1">
       <c r="AD44" s="0" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AE44" s="0" t="n">
         <v>2760</v>
       </c>
     </row>
-    <row r="45" spans="1:31" customHeight="1">
-      <c r="A45" s="32" t="n">
-        <v>6</v>
-      </c>
-      <c r="B45" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="C45" s="32" t="n">
-        <v>80</v>
-      </c>
-      <c r="D45" s="32">
-        <f>COUNTA(F45:AC45)</f>
-      </c>
-      <c r="E45" s="32">
-        <f>C45*D45</f>
-      </c>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="34"/>
-      <c r="K45" s="34"/>
-      <c r="L45" s="34"/>
-      <c r="M45" s="34"/>
-      <c r="N45" s="34"/>
-      <c r="O45" s="34"/>
-      <c r="P45" s="34"/>
-      <c r="Q45" s="34"/>
-      <c r="R45" s="34"/>
-      <c r="S45" s="34"/>
-      <c r="T45" s="34"/>
-      <c r="U45" s="34"/>
-      <c r="V45" s="34"/>
-      <c r="W45" s="34"/>
-      <c r="X45" s="34"/>
-      <c r="Y45" s="34"/>
-      <c r="Z45" s="34"/>
-      <c r="AA45" s="34"/>
-      <c r="AB45" s="34"/>
-      <c r="AC45" s="34"/>
+    <row r="45" spans="30:31" customHeight="1">
       <c r="AD45" s="0" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AE45" s="0" t="n">
         <v>2690</v>
@@ -3721,7 +3565,7 @@
     </row>
     <row r="46" spans="30:31" customHeight="1">
       <c r="AD46" s="0" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="AE46" s="0" t="n">
         <v>11770</v>
@@ -3729,7 +3573,7 @@
     </row>
     <row r="47" spans="30:31" customHeight="1">
       <c r="AD47" s="0" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="AE47" s="0" t="n">
         <v>2570</v>
@@ -3737,7 +3581,7 @@
     </row>
     <row r="48" spans="30:31" customHeight="1">
       <c r="AD48" s="0" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="AE48" s="0" t="n">
         <v>10760</v>
@@ -3745,7 +3589,7 @@
     </row>
     <row r="49" spans="30:31" customHeight="1">
       <c r="AD49" s="0" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="AE49" s="0" t="n">
         <v>10370</v>
@@ -3753,7 +3597,7 @@
     </row>
     <row r="50" spans="30:31" customHeight="1">
       <c r="AD50" s="0" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AE50" s="0" t="n">
         <v>7710</v>
@@ -3761,7 +3605,7 @@
     </row>
     <row r="51" spans="30:31" customHeight="1">
       <c r="AD51" s="0" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AE51" s="0" t="n">
         <v>7920</v>
@@ -3769,7 +3613,7 @@
     </row>
     <row r="52" spans="30:31" customHeight="1">
       <c r="AD52" s="0" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="AE52" s="0" t="n">
         <v>2720</v>
@@ -3777,7 +3621,7 @@
     </row>
     <row r="53" spans="30:31" customHeight="1">
       <c r="AD53" s="0" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AE53" s="0" t="n">
         <v>10560</v>
@@ -3785,7 +3629,7 @@
     </row>
     <row r="54" spans="30:31" customHeight="1">
       <c r="AD54" s="0" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="AE54" s="0" t="n">
         <v>5280</v>
@@ -3793,7 +3637,7 @@
     </row>
     <row r="55" spans="30:31" customHeight="1">
       <c r="AD55" s="0" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="AE55" s="0" t="n">
         <v>5040</v>
@@ -3801,7 +3645,7 @@
     </row>
     <row r="56" spans="30:31" customHeight="1">
       <c r="AD56" s="0" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="AE56" s="0" t="n">
         <v>7560</v>
@@ -3809,7 +3653,7 @@
     </row>
     <row r="57" spans="30:31" customHeight="1">
       <c r="AD57" s="0" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AE57" s="0" t="n">
         <v>2620</v>
@@ -3817,7 +3661,7 @@
     </row>
     <row r="58" spans="30:31" customHeight="1">
       <c r="AD58" s="0" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AE58" s="0" t="n">
         <v>2640</v>
@@ -3825,7 +3669,7 @@
     </row>
     <row r="59" spans="30:31" customHeight="1">
       <c r="AD59" s="0" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AE59" s="0" t="n">
         <v>2720</v>
@@ -3833,7 +3677,7 @@
     </row>
     <row r="60" spans="30:31" customHeight="1">
       <c r="AD60" s="0" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="AE60" s="0" t="n">
         <v>2550</v>
@@ -3841,7 +3685,7 @@
     </row>
     <row r="61" spans="30:31" customHeight="1">
       <c r="AD61" s="0" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="AE61" s="0" t="n">
         <v>2520</v>
@@ -3849,7 +3693,7 @@
     </row>
     <row r="62" spans="30:31" customHeight="1">
       <c r="AD62" s="0" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="AE62" s="0" t="n">
         <v>2520</v>
@@ -3857,7 +3701,7 @@
     </row>
     <row r="63" spans="30:31" customHeight="1">
       <c r="AD63" s="0" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AE63" s="0" t="n">
         <v>2600</v>
@@ -3865,7 +3709,7 @@
     </row>
     <row r="64" spans="30:31" customHeight="1">
       <c r="AD64" s="0" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="AE64" s="0" t="n">
         <v>2550</v>
@@ -3873,7 +3717,7 @@
     </row>
     <row r="65" spans="30:31" customHeight="1">
       <c r="AD65" s="0" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="AE65" s="0" t="n">
         <v>10080</v>
@@ -3881,7 +3725,7 @@
     </row>
     <row r="66" spans="30:31" customHeight="1">
       <c r="AD66" s="0" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="AE66" s="0" t="n">
         <v>5090</v>
@@ -3889,7 +3733,7 @@
     </row>
     <row r="67" spans="30:31" customHeight="1">
       <c r="AD67" s="0" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="AE67" s="0" t="n">
         <v>7920</v>
@@ -3897,7 +3741,7 @@
     </row>
     <row r="68" spans="30:31" customHeight="1">
       <c r="AD68" s="0" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="AE68" s="0" t="n">
         <v>10080</v>
@@ -3905,7 +3749,7 @@
     </row>
     <row r="69" spans="30:31" customHeight="1">
       <c r="AD69" s="0" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="AE69" s="0" t="n">
         <v>10280</v>
@@ -3913,7 +3757,7 @@
     </row>
     <row r="70" spans="30:31" customHeight="1">
       <c r="AD70" s="0" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="AE70" s="0" t="n">
         <v>8000</v>
@@ -3921,7 +3765,7 @@
     </row>
     <row r="71" spans="30:31" customHeight="1">
       <c r="AD71" s="0" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="AE71" s="0" t="n">
         <v>5480</v>
@@ -3929,7 +3773,7 @@
     </row>
     <row r="72" spans="30:31" customHeight="1">
       <c r="AD72" s="0" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AE72" s="0" t="n">
         <v>5190</v>
@@ -3937,7 +3781,7 @@
     </row>
     <row r="73" spans="30:31" customHeight="1">
       <c r="AD73" s="0" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="AE73" s="0" t="n">
         <v>2760</v>
@@ -3945,7 +3789,7 @@
     </row>
     <row r="74" spans="30:31" customHeight="1">
       <c r="AD74" s="0" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AE74" s="0" t="n">
         <v>5480</v>
@@ -3953,7 +3797,7 @@
     </row>
     <row r="75" spans="30:31" customHeight="1">
       <c r="AD75" s="0" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="AE75" s="0" t="n">
         <v>2760</v>
@@ -3961,7 +3805,7 @@
     </row>
     <row r="76" spans="30:31" customHeight="1">
       <c r="AD76" s="0" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AE76" s="0" t="n">
         <v>2740</v>
@@ -3969,7 +3813,7 @@
     </row>
     <row r="77" spans="30:31" customHeight="1">
       <c r="AD77" s="0" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="AE77" s="0" t="n">
         <v>2690</v>
@@ -3977,7 +3821,7 @@
     </row>
     <row r="78" spans="30:31" customHeight="1">
       <c r="AD78" s="0" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="AE78" s="0" t="n">
         <v>5190</v>
@@ -3985,7 +3829,7 @@
     </row>
     <row r="79" spans="30:31" customHeight="1">
       <c r="AD79" s="0" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="AE79" s="0" t="n">
         <v>10370</v>
@@ -3993,7 +3837,7 @@
     </row>
     <row r="80" spans="30:31" customHeight="1">
       <c r="AD80" s="0" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="AE80" s="0" t="n">
         <v>2640</v>
@@ -4001,7 +3845,7 @@
     </row>
     <row r="81" spans="30:31" customHeight="1">
       <c r="AD81" s="0" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="AE81" s="0" t="n">
         <v>2690</v>
@@ -4009,7 +3853,7 @@
     </row>
     <row r="82" spans="30:31" customHeight="1">
       <c r="AD82" s="0" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="AE82" s="0" t="n">
         <v>10660</v>
@@ -4017,7 +3861,7 @@
     </row>
     <row r="83" spans="30:31" customHeight="1">
       <c r="AD83" s="0" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AE83" s="0" t="n">
         <v>5280</v>
@@ -4025,7 +3869,7 @@
     </row>
     <row r="84" spans="30:31" customHeight="1">
       <c r="AD84" s="0" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="AE84" s="0" t="n">
         <v>2620</v>
@@ -4033,7 +3877,7 @@
     </row>
     <row r="85" spans="30:31" customHeight="1">
       <c r="AD85" s="0" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="AE85" s="0" t="n">
         <v>7850</v>
@@ -4041,7 +3885,7 @@
     </row>
     <row r="86" spans="30:31" customHeight="1">
       <c r="AD86" s="0" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AE86" s="0" t="n">
         <v>2670</v>
@@ -4049,7 +3893,7 @@
     </row>
     <row r="87" spans="30:31" customHeight="1">
       <c r="AD87" s="0" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AE87" s="0" t="n">
         <v>5040</v>
@@ -4057,7 +3901,7 @@
     </row>
     <row r="88" spans="30:31" customHeight="1">
       <c r="AD88" s="0" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AE88" s="0" t="n">
         <v>2640</v>
@@ -4065,7 +3909,7 @@
     </row>
     <row r="89" spans="30:31" customHeight="1">
       <c r="AD89" s="0" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="AE89" s="0" t="n">
         <v>2550</v>
@@ -4073,7 +3917,7 @@
     </row>
     <row r="90" spans="30:31" customHeight="1">
       <c r="AD90" s="0" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="AE90" s="0" t="n">
         <v>5090</v>
@@ -4081,7 +3925,7 @@
     </row>
     <row r="91" spans="30:31" customHeight="1">
       <c r="AD91" s="0" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AE91" s="0" t="n">
         <v>5430</v>
@@ -4089,7 +3933,7 @@
     </row>
     <row r="92" spans="30:31" customHeight="1">
       <c r="AD92" s="0" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AE92" s="0" t="n">
         <v>8140</v>
@@ -4097,7 +3941,7 @@
     </row>
     <row r="93" spans="30:31" customHeight="1">
       <c r="AD93" s="0" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="AE93" s="0" t="n">
         <v>5330</v>
@@ -4105,7 +3949,7 @@
     </row>
     <row r="94" spans="30:31" customHeight="1">
       <c r="AD94" s="0" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="AE94" s="0" t="n">
         <v>5090</v>
@@ -4113,7 +3957,7 @@
     </row>
     <row r="95" spans="30:31" customHeight="1">
       <c r="AD95" s="0" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="AE95" s="0" t="n">
         <v>5280</v>
@@ -4121,7 +3965,7 @@
     </row>
     <row r="96" spans="30:31" customHeight="1">
       <c r="AD96" s="0" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="AE96" s="0" t="n">
         <v>5090</v>
@@ -4129,7 +3973,7 @@
     </row>
     <row r="97" spans="30:31" customHeight="1">
       <c r="AD97" s="0" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="AE97" s="0" t="n">
         <v>5040</v>
@@ -4137,7 +3981,7 @@
     </row>
     <row r="98" spans="30:31" customHeight="1">
       <c r="AD98" s="0" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AE98" s="0" t="n">
         <v>8210</v>
@@ -4145,7 +3989,7 @@
     </row>
     <row r="99" spans="30:31" customHeight="1">
       <c r="AD99" s="0" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="AE99" s="0" t="n">
         <v>10370</v>
@@ -4153,7 +3997,7 @@
     </row>
     <row r="100" spans="30:31" customHeight="1">
       <c r="AD100" s="0" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="AE100" s="0" t="n">
         <v>7920</v>
@@ -4161,7 +4005,7 @@
     </row>
     <row r="101" spans="30:31" customHeight="1">
       <c r="AD101" s="0" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AE101" s="0" t="n">
         <v>5040</v>
@@ -4169,7 +4013,7 @@
     </row>
     <row r="102" spans="30:31" customHeight="1">
       <c r="AD102" s="0" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AE102" s="0" t="n">
         <v>2670</v>
@@ -4177,7 +4021,7 @@
     </row>
     <row r="103" spans="30:31" customHeight="1">
       <c r="AD103" s="0" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AE103" s="0" t="n">
         <v>5040</v>
@@ -4185,7 +4029,7 @@
     </row>
     <row r="104" spans="30:31" customHeight="1">
       <c r="AD104" s="0" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AE104" s="0" t="n">
         <v>10470</v>
@@ -4193,7 +4037,7 @@
     </row>
     <row r="105" spans="30:31" customHeight="1">
       <c r="AD105" s="0" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AE105" s="0" t="n">
         <v>5140</v>
@@ -4201,7 +4045,7 @@
     </row>
     <row r="106" spans="30:31" customHeight="1">
       <c r="AD106" s="0" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="AE106" s="0" t="n">
         <v>5040</v>
@@ -4209,7 +4053,7 @@
     </row>
     <row r="107" spans="30:31" customHeight="1">
       <c r="AD107" s="0" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="AE107" s="0" t="n">
         <v>8000</v>
@@ -4217,7 +4061,7 @@
     </row>
     <row r="108" spans="30:31" customHeight="1">
       <c r="AD108" s="0" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="AE108" s="0" t="n">
         <v>8210</v>
@@ -4225,7 +4069,7 @@
     </row>
     <row r="109" spans="30:31" customHeight="1">
       <c r="AD109" s="0" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AE109" s="0" t="n">
         <v>2670</v>
@@ -4233,7 +4077,7 @@
     </row>
     <row r="110" spans="30:31" customHeight="1">
       <c r="AD110" s="0" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AE110" s="0" t="n">
         <v>2550</v>
@@ -4241,7 +4085,7 @@
     </row>
     <row r="111" spans="30:31" customHeight="1">
       <c r="AD111" s="0" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="AE111" s="0" t="n">
         <v>2670</v>
@@ -4249,7 +4093,7 @@
     </row>
     <row r="112" spans="30:31" customHeight="1">
       <c r="AD112" s="0" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="AE112" s="0" t="n">
         <v>5190</v>
@@ -4257,7 +4101,7 @@
     </row>
     <row r="113" spans="30:31" customHeight="1">
       <c r="AD113" s="0" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AE113" s="0" t="n">
         <v>2740</v>
@@ -4265,7 +4109,7 @@
     </row>
     <row r="114" spans="30:31" customHeight="1">
       <c r="AD114" s="0" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="AE114" s="0" t="n">
         <v>5330</v>
@@ -4273,7 +4117,7 @@
     </row>
     <row r="115" spans="30:31" customHeight="1">
       <c r="AD115" s="0" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AE115" s="0" t="n">
         <v>5520</v>
@@ -4281,7 +4125,7 @@
     </row>
     <row r="116" spans="30:31" customHeight="1">
       <c r="AD116" s="0" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="AE116" s="0" t="n">
         <v>10660</v>
@@ -4289,7 +4133,7 @@
     </row>
     <row r="117" spans="30:31" customHeight="1">
       <c r="AD117" s="0" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="AE117" s="0" t="n">
         <v>7710</v>
@@ -4297,7 +4141,7 @@
     </row>
     <row r="118" spans="30:31" customHeight="1">
       <c r="AD118" s="0" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="AE118" s="0" t="n">
         <v>7640</v>
@@ -4305,7 +4149,7 @@
     </row>
     <row r="119" spans="30:31" customHeight="1">
       <c r="AD119" s="0" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="AE119" s="0" t="n">
         <v>2760</v>
@@ -4313,7 +4157,7 @@
     </row>
     <row r="120" spans="30:31" customHeight="1">
       <c r="AD120" s="0" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AE120" s="0" t="n">
         <v>7640</v>
@@ -4321,7 +4165,7 @@
     </row>
     <row r="121" spans="30:31" customHeight="1">
       <c r="AD121" s="0" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="AE121" s="0" t="n">
         <v>5140</v>
@@ -4329,7 +4173,7 @@
     </row>
     <row r="122" spans="30:31" customHeight="1">
       <c r="AD122" s="0" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="AE122" s="0" t="n">
         <v>8280</v>
@@ -4337,7 +4181,7 @@
     </row>
     <row r="123" spans="30:31" customHeight="1">
       <c r="AD123" s="0" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="AE123" s="0" t="n">
         <v>7560</v>
@@ -4345,7 +4189,7 @@
     </row>
     <row r="124" spans="30:31" customHeight="1">
       <c r="AD124" s="0" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="AE124" s="0" t="n">
         <v>5090</v>
@@ -4353,7 +4197,7 @@
     </row>
     <row r="125" spans="30:31" customHeight="1">
       <c r="AD125" s="0" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AE125" s="0" t="n">
         <v>2550</v>
@@ -4361,7 +4205,7 @@
     </row>
     <row r="126" spans="30:31" customHeight="1">
       <c r="AD126" s="0" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="AE126" s="0" t="n">
         <v>8280</v>
@@ -4369,7 +4213,7 @@
     </row>
     <row r="127" spans="30:31" customHeight="1">
       <c r="AD127" s="0" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="AE127" s="0" t="n">
         <v>5480</v>
@@ -4377,7 +4221,7 @@
     </row>
     <row r="128" spans="30:31" customHeight="1">
       <c r="AD128" s="0" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AE128" s="0" t="n">
         <v>2520</v>
@@ -4385,7 +4229,7 @@
     </row>
     <row r="129" spans="30:31" customHeight="1">
       <c r="AD129" s="0" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="AE129" s="0" t="n">
         <v>11550</v>
@@ -4393,7 +4237,7 @@
     </row>
     <row r="130" spans="30:31" customHeight="1">
       <c r="AD130" s="0" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="AE130" s="0" t="n">
         <v>7710</v>
@@ -4401,7 +4245,7 @@
     </row>
     <row r="131" spans="30:31" customHeight="1">
       <c r="AD131" s="0" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AE131" s="0" t="n">
         <v>2550</v>
@@ -4409,7 +4253,7 @@
     </row>
     <row r="132" spans="30:31" customHeight="1">
       <c r="AD132" s="0" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="AE132" s="0" t="n">
         <v>2740</v>
@@ -4417,7 +4261,7 @@
     </row>
     <row r="133" spans="30:31" customHeight="1">
       <c r="AD133" s="0" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="AE133" s="0" t="n">
         <v>12430</v>
@@ -4425,7 +4269,7 @@
     </row>
     <row r="134" spans="30:31" customHeight="1">
       <c r="AD134" s="0" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AE134" s="0" t="n">
         <v>5140</v>
@@ -4433,7 +4277,7 @@
     </row>
     <row r="135" spans="30:31" customHeight="1">
       <c r="AD135" s="0" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="AE135" s="0" t="n">
         <v>2600</v>
@@ -4441,7 +4285,7 @@
     </row>
     <row r="136" spans="30:31" customHeight="1">
       <c r="AD136" s="0" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="AE136" s="0" t="n">
         <v>2760</v>
@@ -4449,7 +4293,7 @@
     </row>
     <row r="137" spans="30:31" customHeight="1">
       <c r="AD137" s="0" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="AE137" s="0" t="n">
         <v>2620</v>
@@ -4457,7 +4301,7 @@
     </row>
     <row r="138" spans="30:31" customHeight="1">
       <c r="AD138" s="0" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="AE138" s="0" t="n">
         <v>2640</v>
@@ -4465,7 +4309,7 @@
     </row>
     <row r="139" spans="30:31" customHeight="1">
       <c r="AD139" s="0" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AE139" s="0" t="n">
         <v>5240</v>
@@ -4473,7 +4317,7 @@
     </row>
     <row r="140" spans="30:31" customHeight="1">
       <c r="AD140" s="0" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AE140" s="0" t="n">
         <v>7710</v>
@@ -4481,7 +4325,7 @@
     </row>
     <row r="141" spans="30:31" customHeight="1">
       <c r="AD141" s="0" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="AE141" s="0" t="n">
         <v>5280</v>
@@ -4489,7 +4333,7 @@
     </row>
     <row r="142" spans="30:31" customHeight="1">
       <c r="AD142" s="0" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AE142" s="0" t="n">
         <v>2640</v>
@@ -4497,7 +4341,7 @@
     </row>
     <row r="143" spans="30:31" customHeight="1">
       <c r="AD143" s="0" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AE143" s="0" t="n">
         <v>2570</v>
@@ -4505,7 +4349,7 @@
     </row>
     <row r="144" spans="30:31" customHeight="1">
       <c r="AD144" s="0" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="AE144" s="0" t="n">
         <v>5140</v>
@@ -4513,7 +4357,7 @@
     </row>
     <row r="145" spans="30:31" customHeight="1">
       <c r="AD145" s="0" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="AE145" s="0" t="n">
         <v>10950</v>
@@ -4521,7 +4365,7 @@
     </row>
     <row r="146" spans="30:31" customHeight="1">
       <c r="AD146" s="0" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="AE146" s="0" t="n">
         <v>7780</v>
@@ -4529,7 +4373,7 @@
     </row>
     <row r="147" spans="30:31" customHeight="1">
       <c r="AD147" s="0" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="AE147" s="0" t="n">
         <v>2520</v>
@@ -4537,7 +4381,7 @@
     </row>
     <row r="148" spans="30:31" customHeight="1">
       <c r="AD148" s="0" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="AE148" s="0" t="n">
         <v>2690</v>
@@ -4545,7 +4389,7 @@
     </row>
     <row r="149" spans="30:31" customHeight="1">
       <c r="AD149" s="0" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="AE149" s="0" t="n">
         <v>2550</v>
@@ -4553,7 +4397,7 @@
     </row>
     <row r="150" spans="30:31" customHeight="1">
       <c r="AD150" s="0" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="AE150" s="0" t="n">
         <v>5190</v>
@@ -4561,7 +4405,7 @@
     </row>
     <row r="151" spans="30:31" customHeight="1">
       <c r="AD151" s="0" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="AE151" s="0" t="n">
         <v>8140</v>
@@ -4569,7 +4413,7 @@
     </row>
     <row r="152" spans="30:31" customHeight="1">
       <c r="AD152" s="0" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AE152" s="0" t="n">
         <v>7710</v>
@@ -4577,7 +4421,7 @@
     </row>
     <row r="153" spans="30:31" customHeight="1">
       <c r="AD153" s="0" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="AE153" s="0" t="n">
         <v>2720</v>
@@ -4585,7 +4429,7 @@
     </row>
     <row r="154" spans="30:31" customHeight="1">
       <c r="AD154" s="0" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="AE154" s="0" t="n">
         <v>2640</v>
@@ -4593,7 +4437,7 @@
     </row>
     <row r="155" spans="30:31" customHeight="1">
       <c r="AD155" s="0" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="AE155" s="0" t="n">
         <v>2600</v>
@@ -4601,7 +4445,7 @@
     </row>
     <row r="156" spans="30:31" customHeight="1">
       <c r="AD156" s="0" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="AE156" s="0" t="n">
         <v>8140</v>
@@ -4609,7 +4453,7 @@
     </row>
     <row r="157" spans="30:31" customHeight="1">
       <c r="AD157" s="0" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AE157" s="0" t="n">
         <v>5040</v>
@@ -4617,7 +4461,7 @@
     </row>
     <row r="158" spans="30:31" customHeight="1">
       <c r="AD158" s="0" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="AE158" s="0" t="n">
         <v>10280</v>
@@ -4625,7 +4469,7 @@
     </row>
     <row r="159" spans="30:31" customHeight="1">
       <c r="AD159" s="0" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="AE159" s="0" t="n">
         <v>5430</v>
@@ -4633,7 +4477,7 @@
     </row>
     <row r="160" spans="30:31" customHeight="1">
       <c r="AD160" s="0" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="AE160" s="0" t="n">
         <v>8140</v>
@@ -4641,7 +4485,7 @@
     </row>
     <row r="161" spans="30:31" customHeight="1">
       <c r="AD161" s="0" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="AE161" s="0" t="n">
         <v>5430</v>
@@ -4649,7 +4493,7 @@
     </row>
     <row r="162" spans="30:31" customHeight="1">
       <c r="AD162" s="0" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="AE162" s="0" t="n">
         <v>10950</v>
@@ -4657,7 +4501,7 @@
     </row>
     <row r="163" spans="30:31" customHeight="1">
       <c r="AD163" s="0" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="AE163" s="0" t="n">
         <v>7710</v>
@@ -4665,7 +4509,7 @@
     </row>
     <row r="164" spans="30:31" customHeight="1">
       <c r="AD164" s="0" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="AE164" s="0" t="n">
         <v>2690</v>
@@ -4673,7 +4517,7 @@
     </row>
     <row r="165" spans="30:31" customHeight="1">
       <c r="AD165" s="0" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="AE165" s="0" t="n">
         <v>5520</v>
@@ -4681,7 +4525,7 @@
     </row>
     <row r="166" spans="30:31" customHeight="1">
       <c r="AD166" s="0" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="AE166" s="0" t="n">
         <v>8000</v>
@@ -4689,7 +4533,7 @@
     </row>
     <row r="167" spans="30:31" customHeight="1">
       <c r="AD167" s="0" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="AE167" s="0" t="n">
         <v>7920</v>
@@ -4697,7 +4541,7 @@
     </row>
     <row r="168" spans="30:31" customHeight="1">
       <c r="AD168" s="0" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="AE168" s="0" t="n">
         <v>10560</v>
@@ -4705,7 +4549,7 @@
     </row>
     <row r="169" spans="30:31" customHeight="1">
       <c r="AD169" s="0" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="AE169" s="0" t="n">
         <v>2670</v>
@@ -4713,7 +4557,7 @@
     </row>
     <row r="170" spans="30:31" customHeight="1">
       <c r="AD170" s="0" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AE170" s="0" t="n">
         <v>5330</v>
@@ -4721,7 +4565,7 @@
     </row>
     <row r="171" spans="30:31" customHeight="1">
       <c r="AD171" s="0" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="AE171" s="0" t="n">
         <v>2520</v>
@@ -4729,7 +4573,7 @@
     </row>
     <row r="172" spans="30:31" customHeight="1">
       <c r="AD172" s="0" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="AE172" s="0" t="n">
         <v>5190</v>
@@ -4737,7 +4581,7 @@
     </row>
     <row r="173" spans="30:31" customHeight="1">
       <c r="AD173" s="0" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="AE173" s="0" t="n">
         <v>2720</v>
@@ -4745,7 +4589,7 @@
     </row>
     <row r="174" spans="30:31" customHeight="1">
       <c r="AD174" s="0" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="AE174" s="0" t="n">
         <v>2520</v>
@@ -4753,7 +4597,7 @@
     </row>
     <row r="175" spans="30:31" customHeight="1">
       <c r="AD175" s="0" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AE175" s="0" t="n">
         <v>5090</v>
@@ -4761,7 +4605,7 @@
     </row>
     <row r="176" spans="30:31" customHeight="1">
       <c r="AD176" s="0" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AE176" s="0" t="n">
         <v>2570</v>
@@ -4769,7 +4613,7 @@
     </row>
     <row r="177" spans="30:31" customHeight="1">
       <c r="AD177" s="0" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="AE177" s="0" t="n">
         <v>7780</v>
@@ -4777,7 +4621,7 @@
     </row>
     <row r="178" spans="30:31" customHeight="1">
       <c r="AD178" s="0" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="AE178" s="0" t="n">
         <v>10760</v>
@@ -4785,7 +4629,7 @@
     </row>
     <row r="179" spans="30:31" customHeight="1">
       <c r="AD179" s="0" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="AE179" s="0" t="n">
         <v>10280</v>
@@ -4793,7 +4637,7 @@
     </row>
     <row r="180" spans="30:31" customHeight="1">
       <c r="AD180" s="0" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="AE180" s="0" t="n">
         <v>2720</v>
@@ -4801,7 +4645,7 @@
     </row>
     <row r="181" spans="30:31" customHeight="1">
       <c r="AD181" s="0" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="AE181" s="0" t="n">
         <v>2600</v>
@@ -4809,7 +4653,7 @@
     </row>
     <row r="182" spans="30:31" customHeight="1">
       <c r="AD182" s="0" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="AE182" s="0" t="n">
         <v>8070</v>
@@ -4817,7 +4661,7 @@
     </row>
     <row r="183" spans="30:31" customHeight="1">
       <c r="AD183" s="0" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="AE183" s="0" t="n">
         <v>10660</v>
@@ -4825,7 +4669,7 @@
     </row>
     <row r="184" spans="30:31" customHeight="1">
       <c r="AD184" s="0" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="AE184" s="0" t="n">
         <v>7920</v>
@@ -4833,7 +4677,7 @@
     </row>
     <row r="185" spans="30:31" customHeight="1">
       <c r="AD185" s="0" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="AE185" s="0" t="n">
         <v>2600</v>
@@ -4841,7 +4685,7 @@
     </row>
     <row r="186" spans="30:31" customHeight="1">
       <c r="AD186" s="0" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="AE186" s="0" t="n">
         <v>2570</v>
@@ -4849,7 +4693,7 @@
     </row>
     <row r="187" spans="30:31" customHeight="1">
       <c r="AD187" s="0" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="AE187" s="0" t="n">
         <v>5040</v>
@@ -4857,7 +4701,7 @@
     </row>
     <row r="188" spans="30:31" customHeight="1">
       <c r="AD188" s="0" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="AE188" s="0" t="n">
         <v>7710</v>
@@ -4865,7 +4709,7 @@
     </row>
     <row r="189" spans="30:31" customHeight="1">
       <c r="AD189" s="0" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="AE189" s="0" t="n">
         <v>2670</v>
@@ -4873,7 +4717,7 @@
     </row>
     <row r="190" spans="30:31" customHeight="1">
       <c r="AD190" s="0" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="AE190" s="0" t="n">
         <v>8280</v>
@@ -4881,7 +4725,7 @@
     </row>
     <row r="191" spans="30:31" customHeight="1">
       <c r="AD191" s="0" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="AE191" s="0" t="n">
         <v>7920</v>
@@ -4889,7 +4733,7 @@
     </row>
     <row r="192" spans="30:31" customHeight="1">
       <c r="AD192" s="0" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="AE192" s="0" t="n">
         <v>5330</v>
@@ -4897,7 +4741,7 @@
     </row>
     <row r="193" spans="30:31" customHeight="1">
       <c r="AD193" s="0" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="AE193" s="0" t="n">
         <v>5480</v>
@@ -4905,7 +4749,7 @@
     </row>
     <row r="194" spans="30:31" customHeight="1">
       <c r="AD194" s="0" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="AE194" s="0" t="n">
         <v>2640</v>
@@ -4913,7 +4757,7 @@
     </row>
     <row r="195" spans="30:31" customHeight="1">
       <c r="AD195" s="0" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="AE195" s="0" t="n">
         <v>5140</v>
@@ -4921,7 +4765,7 @@
     </row>
     <row r="196" spans="30:31" customHeight="1">
       <c r="AD196" s="0" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="AE196" s="0" t="n">
         <v>5280</v>
@@ -4929,7 +4773,7 @@
     </row>
     <row r="197" spans="30:31" customHeight="1">
       <c r="AD197" s="0" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AE197" s="0" t="n">
         <v>8140</v>
@@ -4937,7 +4781,7 @@
     </row>
     <row r="198" spans="30:31" customHeight="1">
       <c r="AD198" s="0" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="AE198" s="0" t="n">
         <v>8070</v>
@@ -4945,7 +4789,7 @@
     </row>
     <row r="199" spans="30:31" customHeight="1">
       <c r="AD199" s="0" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="AE199" s="0" t="n">
         <v>8280</v>
@@ -4953,7 +4797,7 @@
     </row>
     <row r="200" spans="30:31" customHeight="1">
       <c r="AD200" s="0" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="AE200" s="0" t="n">
         <v>7920</v>
@@ -4961,7 +4805,7 @@
     </row>
     <row r="201" spans="30:31" customHeight="1">
       <c r="AD201" s="0" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="AE201" s="0" t="n">
         <v>8280</v>
@@ -4969,7 +4813,7 @@
     </row>
     <row r="202" spans="30:31" customHeight="1">
       <c r="AD202" s="0" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AE202" s="0" t="n">
         <v>10950</v>
@@ -4977,7 +4821,7 @@
     </row>
     <row r="203" spans="30:31" customHeight="1">
       <c r="AD203" s="0" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="AE203" s="0" t="n">
         <v>7560</v>
@@ -4985,7 +4829,7 @@
     </row>
     <row r="204" spans="30:31" customHeight="1">
       <c r="AD204" s="0" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="AE204" s="0" t="n">
         <v>5380</v>
@@ -4993,7 +4837,7 @@
     </row>
     <row r="205" spans="30:31" customHeight="1">
       <c r="AD205" s="0" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="AE205" s="0" t="n">
         <v>7560</v>
@@ -5001,7 +4845,7 @@
     </row>
     <row r="206" spans="30:31" customHeight="1">
       <c r="AD206" s="0" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="AE206" s="0" t="n">
         <v>5240</v>
@@ -5009,7 +4853,7 @@
     </row>
     <row r="207" spans="30:31" customHeight="1">
       <c r="AD207" s="0" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="AE207" s="0" t="n">
         <v>8070</v>
@@ -5017,7 +4861,7 @@
     </row>
     <row r="208" spans="30:31" customHeight="1">
       <c r="AD208" s="0" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="AE208" s="0" t="n">
         <v>5520</v>
@@ -5025,7 +4869,7 @@
     </row>
     <row r="209" spans="30:31" customHeight="1">
       <c r="AD209" s="0" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="AE209" s="0" t="n">
         <v>10850</v>
@@ -5033,7 +4877,7 @@
     </row>
     <row r="210" spans="30:31" customHeight="1">
       <c r="AD210" s="0" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="AE210" s="0" t="n">
         <v>5520</v>
@@ -5041,7 +4885,7 @@
     </row>
     <row r="211" spans="30:31" customHeight="1">
       <c r="AD211" s="0" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="AE211" s="0" t="n">
         <v>8140</v>
@@ -5049,7 +4893,7 @@
     </row>
     <row r="212" spans="30:31" customHeight="1">
       <c r="AD212" s="0" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="AE212" s="0" t="n">
         <v>7640</v>
@@ -5057,7 +4901,7 @@
     </row>
     <row r="213" spans="30:31" customHeight="1">
       <c r="AD213" s="0" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="AE213" s="0" t="n">
         <v>5380</v>
@@ -5065,7 +4909,7 @@
     </row>
     <row r="214" spans="30:31" customHeight="1">
       <c r="AD214" s="0" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="AE214" s="0" t="n">
         <v>5380</v>
@@ -5073,7 +4917,7 @@
     </row>
     <row r="215" spans="30:31" customHeight="1">
       <c r="AD215" s="0" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AE215" s="0" t="n">
         <v>10560</v>
@@ -5081,7 +4925,7 @@
     </row>
     <row r="216" spans="30:31" customHeight="1">
       <c r="AD216" s="0" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AE216" s="0" t="n">
         <v>2760</v>
@@ -5089,7 +4933,7 @@
     </row>
     <row r="217" spans="30:31" customHeight="1">
       <c r="AD217" s="0" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="AE217" s="0" t="n">
         <v>8000</v>
@@ -5097,7 +4941,7 @@
     </row>
     <row r="218" spans="30:31" customHeight="1">
       <c r="AD218" s="0" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="AE218" s="0" t="n">
         <v>5520</v>
@@ -5105,7 +4949,7 @@
     </row>
     <row r="219" spans="30:31" customHeight="1">
       <c r="AD219" s="0" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="AE219" s="0" t="n">
         <v>7640</v>
@@ -5113,7 +4957,7 @@
     </row>
     <row r="220" spans="30:31" customHeight="1">
       <c r="AD220" s="0" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="AE220" s="0" t="n">
         <v>7560</v>
@@ -5121,7 +4965,7 @@
     </row>
     <row r="221" spans="30:31" customHeight="1">
       <c r="AD221" s="0" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="AE221" s="0" t="n">
         <v>5480</v>
@@ -5129,7 +4973,7 @@
     </row>
     <row r="222" spans="30:31" customHeight="1">
       <c r="AD222" s="0" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="AE222" s="0" t="n">
         <v>8280</v>
@@ -5137,7 +4981,7 @@
     </row>
     <row r="223" spans="30:31" customHeight="1">
       <c r="AD223" s="0" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="AE223" s="0" t="n">
         <v>2670</v>
@@ -5145,7 +4989,7 @@
     </row>
     <row r="224" spans="30:31" customHeight="1">
       <c r="AD224" s="0" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="AE224" s="0" t="n">
         <v>5330</v>
@@ -5153,7 +4997,7 @@
     </row>
     <row r="225" spans="30:31" customHeight="1">
       <c r="AD225" s="0" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AE225" s="0" t="n">
         <v>10180</v>
@@ -5161,7 +5005,7 @@
     </row>
     <row r="226" spans="30:31" customHeight="1">
       <c r="AD226" s="0" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="AE226" s="0" t="n">
         <v>2640</v>
@@ -5169,7 +5013,7 @@
     </row>
     <row r="227" spans="30:31" customHeight="1">
       <c r="AD227" s="0" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="AE227" s="0" t="n">
         <v>10950</v>
@@ -5177,7 +5021,7 @@
     </row>
     <row r="228" spans="30:31" customHeight="1">
       <c r="AD228" s="0" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="AE228" s="0" t="n">
         <v>7920</v>
@@ -5185,7 +5029,7 @@
     </row>
     <row r="229" spans="30:31" customHeight="1">
       <c r="AD229" s="0" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="AE229" s="0" t="n">
         <v>10470</v>
@@ -5193,7 +5037,7 @@
     </row>
     <row r="230" spans="30:31" customHeight="1">
       <c r="AD230" s="0" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="AE230" s="0" t="n">
         <v>10660</v>
@@ -5201,7 +5045,7 @@
     </row>
     <row r="231" spans="30:31" customHeight="1">
       <c r="AD231" s="0" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="AE231" s="0" t="n">
         <v>5480</v>
@@ -5209,7 +5053,7 @@
     </row>
     <row r="232" spans="30:31" customHeight="1">
       <c r="AD232" s="0" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="AE232" s="0" t="n">
         <v>5280</v>
@@ -5217,7 +5061,7 @@
     </row>
     <row r="233" spans="30:31" customHeight="1">
       <c r="AD233" s="0" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="AE233" s="0" t="n">
         <v>5190</v>
@@ -5225,7 +5069,7 @@
     </row>
     <row r="234" spans="30:31" customHeight="1">
       <c r="AD234" s="0" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="AE234" s="0" t="n">
         <v>7560</v>
@@ -5233,7 +5077,7 @@
     </row>
     <row r="235" spans="30:31" customHeight="1">
       <c r="AD235" s="0" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="AE235" s="0" t="n">
         <v>2640</v>
@@ -5241,7 +5085,7 @@
     </row>
     <row r="236" spans="30:31" customHeight="1">
       <c r="AD236" s="0" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="AE236" s="0" t="n">
         <v>8070</v>
@@ -5249,7 +5093,7 @@
     </row>
     <row r="237" spans="30:31" customHeight="1">
       <c r="AD237" s="0" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="AE237" s="0" t="n">
         <v>7920</v>
@@ -5257,7 +5101,7 @@
     </row>
     <row r="238" spans="30:31" customHeight="1">
       <c r="AD238" s="0" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="AE238" s="0" t="n">
         <v>10850</v>
@@ -5265,7 +5109,7 @@
     </row>
     <row r="239" spans="30:31" customHeight="1">
       <c r="AD239" s="0" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="AE239" s="0" t="n">
         <v>10280</v>
@@ -5273,7 +5117,7 @@
     </row>
     <row r="240" spans="30:31" customHeight="1">
       <c r="AD240" s="0" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="AE240" s="0" t="n">
         <v>5040</v>
@@ -5281,7 +5125,7 @@
     </row>
     <row r="241" spans="30:31" customHeight="1">
       <c r="AD241" s="0" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="AE241" s="0" t="n">
         <v>2520</v>
@@ -5289,7 +5133,7 @@
     </row>
     <row r="242" spans="30:31" customHeight="1">
       <c r="AD242" s="0" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="AE242" s="0" t="n">
         <v>8070</v>
@@ -5297,7 +5141,7 @@
     </row>
     <row r="243" spans="30:31" customHeight="1">
       <c r="AD243" s="0" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="AE243" s="0" t="n">
         <v>10080</v>
@@ -5305,7 +5149,7 @@
     </row>
     <row r="244" spans="30:31" customHeight="1">
       <c r="AD244" s="0" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="AE244" s="0" t="n">
         <v>2600</v>
@@ -5313,7 +5157,7 @@
     </row>
     <row r="245" spans="30:31" customHeight="1">
       <c r="AD245" s="0" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="AE245" s="0" t="n">
         <v>2600</v>
@@ -5321,7 +5165,7 @@
     </row>
     <row r="246" spans="30:31" customHeight="1">
       <c r="AD246" s="0" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AE246" s="0" t="n">
         <v>12320</v>
@@ -5329,7 +5173,7 @@
     </row>
     <row r="247" spans="30:31" customHeight="1">
       <c r="AD247" s="0" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="AE247" s="0" t="n">
         <v>8000</v>
@@ -5337,7 +5181,7 @@
     </row>
     <row r="248" spans="30:31" customHeight="1">
       <c r="AD248" s="0" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="AE248" s="0" t="n">
         <v>5330</v>
@@ -5345,7 +5189,7 @@
     </row>
     <row r="249" spans="30:31" customHeight="1">
       <c r="AD249" s="0" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="AE249" s="0" t="n">
         <v>2600</v>
@@ -5353,7 +5197,7 @@
     </row>
     <row r="250" spans="30:31" customHeight="1">
       <c r="AD250" s="0" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="AE250" s="0" t="n">
         <v>5480</v>
@@ -5361,7 +5205,7 @@
     </row>
     <row r="251" spans="30:31" customHeight="1">
       <c r="AD251" s="0" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="AE251" s="0" t="n">
         <v>2620</v>
@@ -5369,7 +5213,7 @@
     </row>
     <row r="252" spans="30:31" customHeight="1">
       <c r="AD252" s="0" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="AE252" s="0" t="n">
         <v>5090</v>
@@ -5377,7 +5221,7 @@
     </row>
     <row r="253" spans="30:31" customHeight="1">
       <c r="AD253" s="0" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AE253" s="0" t="n">
         <v>8070</v>
@@ -5385,7 +5229,7 @@
     </row>
     <row r="254" spans="30:31" customHeight="1">
       <c r="AD254" s="0" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="AE254" s="0" t="n">
         <v>5330</v>
@@ -5393,7 +5237,7 @@
     </row>
     <row r="255" spans="30:31" customHeight="1">
       <c r="AD255" s="0" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="AE255" s="0" t="n">
         <v>5520</v>
@@ -5401,7 +5245,7 @@
     </row>
     <row r="256" spans="30:31" customHeight="1">
       <c r="AD256" s="0" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="AE256" s="0" t="n">
         <v>12650</v>
@@ -5409,7 +5253,7 @@
     </row>
     <row r="257" spans="30:31" customHeight="1">
       <c r="AD257" s="0" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AE257" s="0" t="n">
         <v>5280</v>
@@ -5417,7 +5261,7 @@
     </row>
     <row r="258" spans="30:31" customHeight="1">
       <c r="AD258" s="0" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="AE258" s="0" t="n">
         <v>5140</v>
@@ -5425,7 +5269,7 @@
     </row>
     <row r="259" spans="30:31" customHeight="1">
       <c r="AD259" s="0" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="AE259" s="0" t="n">
         <v>10560</v>
@@ -5433,7 +5277,7 @@
     </row>
     <row r="260" spans="30:31" customHeight="1">
       <c r="AD260" s="0" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="AE260" s="0" t="n">
         <v>5430</v>
@@ -5441,7 +5285,7 @@
     </row>
     <row r="261" spans="30:31" customHeight="1">
       <c r="AD261" s="0" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="AE261" s="0" t="n">
         <v>2670</v>
@@ -5449,7 +5293,7 @@
     </row>
     <row r="262" spans="30:31" customHeight="1">
       <c r="AD262" s="0" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AE262" s="0" t="n">
         <v>2720</v>
@@ -5457,7 +5301,7 @@
     </row>
     <row r="263" spans="30:31" customHeight="1">
       <c r="AD263" s="0" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="AE263" s="0" t="n">
         <v>11040</v>
@@ -5465,7 +5309,7 @@
     </row>
     <row r="264" spans="30:31" customHeight="1">
       <c r="AD264" s="0" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="AE264" s="0" t="n">
         <v>8140</v>
@@ -5473,7 +5317,7 @@
     </row>
     <row r="265" spans="30:31" customHeight="1">
       <c r="AD265" s="0" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="AE265" s="0" t="n">
         <v>11040</v>
@@ -5481,7 +5325,7 @@
     </row>
     <row r="266" spans="30:31" customHeight="1">
       <c r="AD266" s="0" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="AE266" s="0" t="n">
         <v>5190</v>
@@ -5489,7 +5333,7 @@
     </row>
     <row r="267" spans="30:31" customHeight="1">
       <c r="AD267" s="0" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="AE267" s="0" t="n">
         <v>10280</v>
@@ -5497,7 +5341,7 @@
     </row>
     <row r="268" spans="30:31" customHeight="1">
       <c r="AD268" s="0" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AE268" s="0" t="n">
         <v>8140</v>
@@ -5505,7 +5349,7 @@
     </row>
     <row r="269" spans="30:31" customHeight="1">
       <c r="AD269" s="0" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="AE269" s="0" t="n">
         <v>5190</v>
@@ -5513,7 +5357,7 @@
     </row>
     <row r="270" spans="30:31" customHeight="1">
       <c r="AD270" s="0" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="AE270" s="0" t="n">
         <v>8000</v>
@@ -5521,7 +5365,7 @@
     </row>
     <row r="271" spans="30:31" customHeight="1">
       <c r="AD271" s="0" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AE271" s="0" t="n">
         <v>5380</v>
@@ -5529,7 +5373,7 @@
     </row>
     <row r="272" spans="30:31" customHeight="1">
       <c r="AD272" s="0" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AE272" s="0" t="n">
         <v>10180</v>
@@ -5537,7 +5381,7 @@
     </row>
     <row r="273" spans="30:31" customHeight="1">
       <c r="AD273" s="0" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="AE273" s="0" t="n">
         <v>2640</v>
@@ -5545,7 +5389,7 @@
     </row>
     <row r="274" spans="30:31" customHeight="1">
       <c r="AD274" s="0" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="AE274" s="0" t="n">
         <v>7920</v>
@@ -5553,7 +5397,7 @@
     </row>
     <row r="275" spans="30:31" customHeight="1">
       <c r="AD275" s="0" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="AE275" s="0" t="n">
         <v>7710</v>
@@ -5561,7 +5405,7 @@
     </row>
     <row r="276" spans="30:31" customHeight="1">
       <c r="AD276" s="0" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="AE276" s="0" t="n">
         <v>8000</v>
@@ -5569,7 +5413,7 @@
     </row>
     <row r="277" spans="30:31" customHeight="1">
       <c r="AD277" s="0" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="AE277" s="0" t="n">
         <v>5520</v>
@@ -5577,7 +5421,7 @@
     </row>
     <row r="278" spans="30:31" customHeight="1">
       <c r="AD278" s="0" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="AE278" s="0" t="n">
         <v>2640</v>
@@ -5585,7 +5429,7 @@
     </row>
     <row r="279" spans="30:31" customHeight="1">
       <c r="AD279" s="0" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="AE279" s="0" t="n">
         <v>5240</v>
@@ -5593,7 +5437,7 @@
     </row>
     <row r="280" spans="30:31" customHeight="1">
       <c r="AD280" s="0" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="AE280" s="0" t="n">
         <v>2690</v>
@@ -5601,7 +5445,7 @@
     </row>
     <row r="281" spans="30:31" customHeight="1">
       <c r="AD281" s="0" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AE281" s="0" t="n">
         <v>7560</v>
@@ -5609,7 +5453,7 @@
     </row>
     <row r="282" spans="30:31" customHeight="1">
       <c r="AD282" s="0" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="AE282" s="0" t="n">
         <v>5040</v>
@@ -5617,7 +5461,7 @@
     </row>
     <row r="283" spans="30:31" customHeight="1">
       <c r="AD283" s="0" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="AE283" s="0" t="n">
         <v>2570</v>
@@ -5625,7 +5469,7 @@
     </row>
     <row r="284" spans="30:31" customHeight="1">
       <c r="AD284" s="0" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="AE284" s="0" t="n">
         <v>2520</v>
@@ -5633,7 +5477,7 @@
     </row>
     <row r="285" spans="30:31" customHeight="1">
       <c r="AD285" s="0" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="AE285" s="0" t="n">
         <v>8210</v>
@@ -5641,7 +5485,7 @@
     </row>
     <row r="286" spans="30:31" customHeight="1">
       <c r="AD286" s="0" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="AE286" s="0" t="n">
         <v>10950</v>
@@ -5649,7 +5493,7 @@
     </row>
     <row r="287" spans="30:31" customHeight="1">
       <c r="AD287" s="0" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="AE287" s="0" t="n">
         <v>2670</v>
@@ -5657,7 +5501,7 @@
     </row>
     <row r="288" spans="30:31" customHeight="1">
       <c r="AD288" s="0" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="AE288" s="0" t="n">
         <v>10280</v>
@@ -5665,7 +5509,7 @@
     </row>
     <row r="289" spans="30:31" customHeight="1">
       <c r="AD289" s="0" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="AE289" s="0" t="n">
         <v>8210</v>
@@ -5673,7 +5517,7 @@
     </row>
     <row r="290" spans="30:31" customHeight="1">
       <c r="AD290" s="0" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="AE290" s="0" t="n">
         <v>10080</v>
@@ -5681,7 +5525,7 @@
     </row>
     <row r="291" spans="30:31" customHeight="1">
       <c r="AD291" s="0" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="AE291" s="0" t="n">
         <v>2690</v>
@@ -5689,7 +5533,7 @@
     </row>
     <row r="292" spans="30:31" customHeight="1">
       <c r="AD292" s="0" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="AE292" s="0" t="n">
         <v>2550</v>
@@ -5697,7 +5541,7 @@
     </row>
     <row r="293" spans="30:31" customHeight="1">
       <c r="AD293" s="0" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="AE293" s="0" t="n">
         <v>5280</v>
@@ -5705,7 +5549,7 @@
     </row>
     <row r="294" spans="30:31" customHeight="1">
       <c r="AD294" s="0" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="AE294" s="0" t="n">
         <v>8210</v>
@@ -5713,7 +5557,7 @@
     </row>
     <row r="295" spans="30:31" customHeight="1">
       <c r="AD295" s="0" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="AE295" s="0" t="n">
         <v>12100</v>
@@ -5721,7 +5565,7 @@
     </row>
     <row r="296" spans="30:31" customHeight="1">
       <c r="AD296" s="0" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="AE296" s="0" t="n">
         <v>5190</v>
@@ -5729,7 +5573,7 @@
     </row>
     <row r="297" spans="30:31" customHeight="1">
       <c r="AD297" s="0" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="AE297" s="0" t="n">
         <v>5330</v>
@@ -5737,7 +5581,7 @@
     </row>
     <row r="298" spans="30:31" customHeight="1">
       <c r="AD298" s="0" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="AE298" s="0" t="n">
         <v>5240</v>
@@ -5745,7 +5589,7 @@
     </row>
     <row r="299" spans="30:31" customHeight="1">
       <c r="AD299" s="0" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="AE299" s="0" t="n">
         <v>7920</v>
@@ -5753,7 +5597,7 @@
     </row>
     <row r="300" spans="30:31" customHeight="1">
       <c r="AD300" s="0" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="AE300" s="0" t="n">
         <v>5040</v>
@@ -5761,7 +5605,7 @@
     </row>
     <row r="301" spans="30:31" customHeight="1">
       <c r="AD301" s="0" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="AE301" s="0" t="n">
         <v>10280</v>
@@ -5769,7 +5613,7 @@
     </row>
     <row r="302" spans="30:31" customHeight="1">
       <c r="AD302" s="0" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="AE302" s="0" t="n">
         <v>10470</v>
@@ -5777,7 +5621,7 @@
     </row>
     <row r="303" spans="30:31" customHeight="1">
       <c r="AD303" s="0" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="AE303" s="0" t="n">
         <v>5040</v>
@@ -5785,7 +5629,7 @@
     </row>
     <row r="304" spans="30:31" customHeight="1">
       <c r="AD304" s="0" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="AE304" s="0" t="n">
         <v>5240</v>
@@ -5793,7 +5637,7 @@
     </row>
     <row r="305" spans="30:31" customHeight="1">
       <c r="AD305" s="0" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="AE305" s="0" t="n">
         <v>7920</v>
@@ -6054,7 +5898,7 @@
         <v>43</v>
       </c>
       <c r="C5" s="32" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="D5" s="32">
         <f>COUNTA(F5:AC5)</f>
@@ -6063,13 +5907,13 @@
         <f>C5*D5</f>
       </c>
       <c r="F5" s="34" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G5" s="34" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="H5" s="34" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="I5" s="34"/>
       <c r="J5" s="34"/>
@@ -6107,7 +5951,7 @@
         <v>44</v>
       </c>
       <c r="C6" s="32" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="D6" s="32">
         <f>COUNTA(F6:AC6)</f>
@@ -6116,13 +5960,13 @@
         <f>C6*D6</f>
       </c>
       <c r="F6" s="34" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="H6" s="34" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="I6" s="34"/>
       <c r="J6" s="34"/>
@@ -6160,7 +6004,7 @@
         <v>45</v>
       </c>
       <c r="C7" s="32" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D7" s="32">
         <f>COUNTA(F7:AC7)</f>
@@ -6207,7 +6051,7 @@
         <v>46</v>
       </c>
       <c r="C8" s="32" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D8" s="32">
         <f>COUNTA(F8:AC8)</f>
@@ -6345,10 +6189,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>49</v>
+        <v>359</v>
       </c>
       <c r="C11" s="32" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D11" s="32">
         <f>COUNTA(F11:AC11)</f>
@@ -6392,10 +6236,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>50</v>
+        <v>360</v>
       </c>
       <c r="C12" s="32" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D12" s="32">
         <f>COUNTA(F12:AC12)</f>
@@ -6439,10 +6283,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>51</v>
+        <v>361</v>
       </c>
       <c r="C13" s="32" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D13" s="32">
         <f>COUNTA(F13:AC13)</f>
@@ -6486,10 +6330,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>52</v>
+        <v>362</v>
       </c>
       <c r="C14" s="32" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D14" s="32">
         <f>COUNTA(F14:AC14)</f>
@@ -6536,7 +6380,7 @@
         <v>363</v>
       </c>
       <c r="C15" s="32" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D15" s="32">
         <f>COUNTA(F15:AC15)</f>
@@ -6583,7 +6427,7 @@
         <v>364</v>
       </c>
       <c r="C16" s="27" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D16" s="27">
         <f>COUNTA(F16:AC16)</f>
@@ -6724,7 +6568,7 @@
         <v>367</v>
       </c>
       <c r="C19" s="27" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D19" s="27">
         <f>COUNTA(F19:AC19)</f>
@@ -6771,7 +6615,7 @@
         <v>368</v>
       </c>
       <c r="C20" s="27" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D20" s="27">
         <f>COUNTA(F20:AC20)</f>
@@ -6818,7 +6662,7 @@
         <v>369</v>
       </c>
       <c r="C21" s="27" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D21" s="27">
         <f>COUNTA(F21:AC21)</f>
@@ -6865,7 +6709,7 @@
         <v>370</v>
       </c>
       <c r="C22" s="27" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D22" s="27">
         <f>COUNTA(F22:AC22)</f>

--- a/public/port-battle.xlsx
+++ b/public/port-battle.xlsx
@@ -1354,7 +1354,7 @@
     <numFmt formatCode="#" numFmtId="164"/>
     <numFmt formatCode="@" numFmtId="165"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1391,6 +1391,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FFE7E8DE"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="1"/>
       <b/>
@@ -1469,20 +1476,20 @@
   </borders>
   <cellXfs count="35">
     <xf applyFont="1" fontId="0"/>
-    <xf applyBorder="1" borderId="1"/>
+    <xf applyFont="1" fontId="0" applyBorder="1" borderId="1"/>
     <xf applyFont="1" fontId="1"/>
-    <xf applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+    <xf applyFont="1" fontId="0" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
       <alignment horizontal="right" indent="1" vertical="center"/>
     </xf>
-    <xf applyNumberFormat="1" numFmtId="165" applyAlignment="1">
+    <xf applyFont="1" fontId="0" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
       <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
     <xf applyFont="1" fontId="2"/>
     <xf applyFont="1" fontId="2" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
       <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
-    <xf applyFill="1" fillId="2"/>
-    <xf applyFont="1" fontId="2" applyFill="1" fillId="2" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
+    <xf applyFont="1" fontId="0" applyFill="1" fillId="2"/>
+    <xf applyFont="1" fontId="0" applyFill="1" fillId="2" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
       <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
     <xf applyFont="1" fontId="3" applyFill="1" fillId="2" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
@@ -1492,57 +1499,57 @@
     <xf applyFont="1" fontId="4" applyFill="1" fillId="2" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
       <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
-    <xf applyFont="1" fontId="2" applyFill="1" fillId="2" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+    <xf applyFont="1" fontId="0" applyFill="1" fillId="2" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
       <alignment horizontal="right" indent="1" vertical="center"/>
     </xf>
     <xf applyFont="1" fontId="5"/>
     <xf applyFont="1" fontId="5" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
       <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
-    <xf applyFill="1" fillId="3"/>
-    <xf applyFont="1" fontId="5" applyFill="1" fillId="3" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
+    <xf applyFont="1" fontId="0" applyFill="1" fillId="3"/>
+    <xf applyFont="1" fontId="6" applyFill="1" fillId="3" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
       <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
-    <xf applyFont="1" fontId="5" applyFill="1" fillId="3" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
-      <alignment horizontal="right" indent="1" vertical="center"/>
-    </xf>
-    <xf applyFont="1" fontId="6"/>
     <xf applyFont="1" fontId="6" applyFill="1" fillId="3" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
       <alignment horizontal="right" indent="1" vertical="center"/>
     </xf>
-    <xf applyFill="1" fillId="4"/>
+    <xf applyFont="1" fontId="7"/>
+    <xf applyFont="1" fontId="7" applyFill="1" fillId="3" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+      <alignment horizontal="right" indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="1" fontId="0" applyFill="1" fillId="4"/>
     <xf applyFont="1" fontId="6" applyFill="1" fillId="4" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
       <alignment horizontal="right" indent="1" vertical="center"/>
     </xf>
     <xf applyFont="1" fontId="4" applyFill="1" fillId="3" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
       <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
-    <xf applyFont="1" fontId="7"/>
-    <xf applyFont="1" fontId="7" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
+    <xf applyFont="1" fontId="8"/>
+    <xf applyFont="1" fontId="8" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
       <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
-    <xf applyFont="1" fontId="7" applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
+    <xf applyFont="1" fontId="0" applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
       <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
-    <xf applyFont="1" fontId="7" applyFill="1" fillId="2" applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
+    <xf applyFont="1" fontId="0" applyFill="1" fillId="2" applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
       <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
-    <xf applyFont="1" fontId="7" applyFill="1" fillId="2" applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+    <xf applyFont="1" fontId="0" applyFill="1" fillId="2" applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
       <alignment horizontal="right" indent="1" vertical="center"/>
     </xf>
-    <xf applyFill="1" fillId="5"/>
-    <xf applyFont="1" fontId="7" applyFill="1" fillId="5" applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
+    <xf applyFont="1" fontId="0" applyFill="1" fillId="5"/>
+    <xf applyFont="1" fontId="0" applyFill="1" fillId="5" applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
       <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
-    <xf applyFill="1" fillId="6"/>
-    <xf applyFont="1" fontId="7" applyFill="1" fillId="6" applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
+    <xf applyFont="1" fontId="0" applyFill="1" fillId="6"/>
+    <xf applyFont="1" fontId="0" applyFill="1" fillId="6" applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
       <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
-    <xf applyFont="1" fontId="7" applyFill="1" fillId="6" applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+    <xf applyFont="1" fontId="0" applyFill="1" fillId="6" applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
       <alignment horizontal="right" indent="1" vertical="center"/>
     </xf>
-    <xf applyFill="1" fillId="7"/>
-    <xf applyFont="1" fontId="7" applyFill="1" fillId="7" applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
+    <xf applyFont="1" fontId="0" applyFill="1" fillId="7"/>
+    <xf applyFont="1" fontId="0" applyFill="1" fillId="7" applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
       <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
   </cellXfs>

--- a/public/port-battle.xlsx
+++ b/public/port-battle.xlsx
@@ -6669,7 +6669,7 @@
         <v>369</v>
       </c>
       <c r="C21" s="27" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D21" s="27">
         <f>COUNTA(F21:AC21)</f>
@@ -6716,7 +6716,7 @@
         <v>370</v>
       </c>
       <c r="C22" s="27" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D22" s="27">
         <f>COUNTA(F22:AC22)</f>

--- a/public/port-battle.xlsx
+++ b/public/port-battle.xlsx
@@ -1354,7 +1354,7 @@
     <numFmt formatCode="#" numFmtId="164"/>
     <numFmt formatCode="@" numFmtId="165"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1391,6 +1391,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FFE7E8DE"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="1"/>
       <b/>
@@ -1469,20 +1476,20 @@
   </borders>
   <cellXfs count="35">
     <xf applyFont="1" fontId="0"/>
-    <xf applyBorder="1" borderId="1"/>
+    <xf applyFont="1" fontId="0" applyBorder="1" borderId="1"/>
     <xf applyFont="1" fontId="1"/>
-    <xf applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+    <xf applyFont="1" fontId="0" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
       <alignment horizontal="right" indent="1" vertical="center"/>
     </xf>
-    <xf applyNumberFormat="1" numFmtId="165" applyAlignment="1">
+    <xf applyFont="1" fontId="0" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
       <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
     <xf applyFont="1" fontId="2"/>
     <xf applyFont="1" fontId="2" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
       <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
-    <xf applyFill="1" fillId="2"/>
-    <xf applyFont="1" fontId="2" applyFill="1" fillId="2" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
+    <xf applyFont="1" fontId="0" applyFill="1" fillId="2"/>
+    <xf applyFont="1" fontId="0" applyFill="1" fillId="2" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
       <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
     <xf applyFont="1" fontId="3" applyFill="1" fillId="2" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
@@ -1492,57 +1499,57 @@
     <xf applyFont="1" fontId="4" applyFill="1" fillId="2" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
       <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
-    <xf applyFont="1" fontId="2" applyFill="1" fillId="2" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+    <xf applyFont="1" fontId="0" applyFill="1" fillId="2" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
       <alignment horizontal="right" indent="1" vertical="center"/>
     </xf>
     <xf applyFont="1" fontId="5"/>
     <xf applyFont="1" fontId="5" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
       <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
-    <xf applyFill="1" fillId="3"/>
-    <xf applyFont="1" fontId="5" applyFill="1" fillId="3" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
+    <xf applyFont="1" fontId="0" applyFill="1" fillId="3"/>
+    <xf applyFont="1" fontId="6" applyFill="1" fillId="3" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
       <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
-    <xf applyFont="1" fontId="5" applyFill="1" fillId="3" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
-      <alignment horizontal="right" indent="1" vertical="center"/>
-    </xf>
-    <xf applyFont="1" fontId="6"/>
     <xf applyFont="1" fontId="6" applyFill="1" fillId="3" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
       <alignment horizontal="right" indent="1" vertical="center"/>
     </xf>
-    <xf applyFill="1" fillId="4"/>
+    <xf applyFont="1" fontId="7"/>
+    <xf applyFont="1" fontId="7" applyFill="1" fillId="3" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+      <alignment horizontal="right" indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="1" fontId="0" applyFill="1" fillId="4"/>
     <xf applyFont="1" fontId="6" applyFill="1" fillId="4" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
       <alignment horizontal="right" indent="1" vertical="center"/>
     </xf>
     <xf applyFont="1" fontId="4" applyFill="1" fillId="3" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
       <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
-    <xf applyFont="1" fontId="7"/>
-    <xf applyFont="1" fontId="7" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
+    <xf applyFont="1" fontId="8"/>
+    <xf applyFont="1" fontId="8" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
       <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
-    <xf applyFont="1" fontId="7" applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
+    <xf applyFont="1" fontId="0" applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
       <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
-    <xf applyFont="1" fontId="7" applyFill="1" fillId="2" applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
+    <xf applyFont="1" fontId="0" applyFill="1" fillId="2" applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
       <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
-    <xf applyFont="1" fontId="7" applyFill="1" fillId="2" applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+    <xf applyFont="1" fontId="0" applyFill="1" fillId="2" applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
       <alignment horizontal="right" indent="1" vertical="center"/>
     </xf>
-    <xf applyFill="1" fillId="5"/>
-    <xf applyFont="1" fontId="7" applyFill="1" fillId="5" applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
+    <xf applyFont="1" fontId="0" applyFill="1" fillId="5"/>
+    <xf applyFont="1" fontId="0" applyFill="1" fillId="5" applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
       <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
-    <xf applyFill="1" fillId="6"/>
-    <xf applyFont="1" fontId="7" applyFill="1" fillId="6" applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
+    <xf applyFont="1" fontId="0" applyFill="1" fillId="6"/>
+    <xf applyFont="1" fontId="0" applyFill="1" fillId="6" applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
       <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
-    <xf applyFont="1" fontId="7" applyFill="1" fillId="6" applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+    <xf applyFont="1" fontId="0" applyFill="1" fillId="6" applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
       <alignment horizontal="right" indent="1" vertical="center"/>
     </xf>
-    <xf applyFill="1" fillId="7"/>
-    <xf applyFont="1" fontId="7" applyFill="1" fillId="7" applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
+    <xf applyFont="1" fontId="0" applyFill="1" fillId="7"/>
+    <xf applyFont="1" fontId="0" applyFill="1" fillId="7" applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
       <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6662,7 +6669,7 @@
         <v>369</v>
       </c>
       <c r="C21" s="27" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D21" s="27">
         <f>COUNTA(F21:AC21)</f>
@@ -6709,7 +6716,7 @@
         <v>370</v>
       </c>
       <c r="C22" s="27" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D22" s="27">
         <f>COUNTA(F22:AC22)</f>

--- a/public/port-battle.xlsx
+++ b/public/port-battle.xlsx
@@ -1362,11 +1362,11 @@
       <family val="1"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FFDEAEC4"/>
       <name val="Calibri"/>
       <family val="1"/>
-      <b/>
     </font>
     <font>
       <sz val="12"/>
@@ -1375,39 +1375,39 @@
       <family val="1"/>
     </font>
     <font>
+      <u/>
       <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="1"/>
-      <u/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FFA2C1E3"/>
       <name val="Calibri"/>
       <family val="1"/>
-      <b/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FFE7E8DE"/>
       <name val="Calibri"/>
       <family val="1"/>
-      <b/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="1"/>
-      <b/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF616454"/>
       <name val="Calibri"/>
       <family val="1"/>
-      <b/>
     </font>
     <font>
       <sz val="12"/>
@@ -1556,11 +1556,11 @@
   <dxfs count="1">
     <dxf>
       <font>
+        <b/>
         <sz val="12"/>
         <color rgb="FFDEAEC4"/>
         <name val="Calibri"/>
         <family val="1"/>
-        <b/>
       </font>
     </dxf>
   </dxfs>
@@ -1569,10 +1569,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr/>
   <dimension ref="A1:AE305"/>
   <sheetViews>
-    <sheetView showGridLines="false" tabSelected="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView showGridLines="false" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
     </sheetView>
   </sheetViews>
@@ -5679,10 +5678,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr/>
   <dimension ref="A1:AE73"/>
   <sheetViews>
-    <sheetView showGridLines="false" tabSelected="0" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView showGridLines="false" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
     </sheetView>
   </sheetViews>

--- a/public/port-battle.xlsx
+++ b/public/port-battle.xlsx
@@ -59,10 +59,10 @@
     <t>Victory</t>
   </si>
   <si>
+    <t>Bucentaure</t>
+  </si>
+  <si>
     <t>Christian</t>
-  </si>
-  <si>
-    <t>Bucentaure</t>
   </si>
   <si>
     <t>St. Pavel</t>
@@ -1948,7 +1948,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="32" t="n">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="D8" s="32">
         <f>COUNTA(F8:AC8)</f>
@@ -1995,7 +1995,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="32" t="n">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="D9" s="32">
         <f>COUNTA(F9:AC9)</f>

--- a/public/port-battle.xlsx
+++ b/public/port-battle.xlsx
@@ -59,10 +59,10 @@
     <t>Victory</t>
   </si>
   <si>
+    <t>Bucentaure</t>
+  </si>
+  <si>
     <t>Christian</t>
-  </si>
-  <si>
-    <t>Bucentaure</t>
   </si>
   <si>
     <t>St. Pavel</t>
@@ -1947,7 +1947,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="32" t="n">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="D8" s="32">
         <f>COUNTA(F8:AC8)</f>
@@ -1994,7 +1994,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="32" t="n">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="D9" s="32">
         <f>COUNTA(F9:AC9)</f>

--- a/public/port-battle.xlsx
+++ b/public/port-battle.xlsx
@@ -1364,13 +1364,13 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FFDEAEC4"/>
+      <color rgb="FFCF95B0"/>
       <name val="Calibri"/>
       <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF616454"/>
+      <color rgb="FF3D3F26"/>
       <name val="Calibri"/>
       <family val="1"/>
     </font>
@@ -1384,14 +1384,14 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FFA2C1E3"/>
+      <color rgb="FF89ADD4"/>
       <name val="Calibri"/>
       <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FFE7E8DE"/>
+      <color rgb="FFCECFBD"/>
       <name val="Calibri"/>
       <family val="1"/>
     </font>
@@ -1405,13 +1405,13 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FF616454"/>
+      <color rgb="FF3D3F26"/>
       <name val="Calibri"/>
       <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF727069"/>
+      <color rgb="FF696459"/>
       <name val="Calibri"/>
       <family val="1"/>
     </font>
@@ -1425,32 +1425,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDCDECF"/>
+        <fgColor rgb="FFB8BAA0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF9DA188"/>
+        <fgColor rgb="FF63663D"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6CAB1"/>
+        <fgColor rgb="FF8C8F66"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEDEAE3"/>
+        <fgColor rgb="FFE3DED3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF1F2EC"/>
+        <fgColor rgb="FFE4E4DB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF8F7F4"/>
+        <fgColor rgb="FFF4F2EE"/>
       </patternFill>
     </fill>
   </fills>
@@ -1466,10 +1466,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color rgb="FFC5C3C3"/>
+        <color rgb="FFC3BFBF"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFC5C3C3"/>
+        <color rgb="FFC3BFBF"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1558,7 +1558,7 @@
       <font>
         <b/>
         <sz val="12"/>
-        <color rgb="FFDEAEC4"/>
+        <color rgb="FFCF95B0"/>
         <name val="Calibri"/>
         <family val="1"/>
       </font>

--- a/public/port-battle.xlsx
+++ b/public/port-battle.xlsx
@@ -101,43 +101,43 @@
     <t>Diana</t>
   </si>
   <si>
+    <t>Indefatigable</t>
+  </si>
+  <si>
+    <t>Le Gros Ventre Refit</t>
+  </si>
+  <si>
+    <t>Pirate Frigate</t>
+  </si>
+  <si>
+    <t>Santa Cecilia</t>
+  </si>
+  <si>
+    <t>Essex</t>
+  </si>
+  <si>
+    <t>Frigate</t>
+  </si>
+  <si>
+    <t>L’Hermione</t>
+  </si>
+  <si>
+    <t>Belle Poule</t>
+  </si>
+  <si>
     <t>Hercules</t>
   </si>
   <si>
-    <t>Indefatigable</t>
-  </si>
-  <si>
-    <t>Le Gros Ventre Refit</t>
-  </si>
-  <si>
-    <t>Pirate Frigate</t>
-  </si>
-  <si>
-    <t>Santa Cecilia</t>
-  </si>
-  <si>
-    <t>Belle Poule</t>
-  </si>
-  <si>
-    <t>Frigate</t>
-  </si>
-  <si>
     <t>Renommee</t>
   </si>
   <si>
     <t>Cerberus</t>
   </si>
   <si>
-    <t>Essex</t>
-  </si>
-  <si>
     <t>Indiaman</t>
   </si>
   <si>
     <t>Le Gros Ventre</t>
-  </si>
-  <si>
-    <t>L’Hermione</t>
   </si>
   <si>
     <t>Surprise</t>
@@ -2746,7 +2746,7 @@
         <v>32</v>
       </c>
       <c r="C25" s="27" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="D25" s="27">
         <f>COUNTA(F25:AC25)</f>
@@ -2793,7 +2793,7 @@
         <v>33</v>
       </c>
       <c r="C26" s="27" t="n">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D26" s="27">
         <f>COUNTA(F26:AC26)</f>
@@ -2840,7 +2840,7 @@
         <v>34</v>
       </c>
       <c r="C27" s="27" t="n">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D27" s="27">
         <f>COUNTA(F27:AC27)</f>
@@ -2887,7 +2887,7 @@
         <v>35</v>
       </c>
       <c r="C28" s="27" t="n">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D28" s="27">
         <f>COUNTA(F28:AC28)</f>
@@ -2981,7 +2981,7 @@
         <v>37</v>
       </c>
       <c r="C30" s="27" t="n">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D30" s="27">
         <f>COUNTA(F30:AC30)</f>
@@ -3028,7 +3028,7 @@
         <v>38</v>
       </c>
       <c r="C31" s="27" t="n">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D31" s="27">
         <f>COUNTA(F31:AC31)</f>

--- a/public/port-battle.xlsx
+++ b/public/port-battle.xlsx
@@ -113,6 +113,9 @@
     <t>Santa Cecilia</t>
   </si>
   <si>
+    <t>Belle Poule</t>
+  </si>
+  <si>
     <t>Essex</t>
   </si>
   <si>
@@ -120,9 +123,6 @@
   </si>
   <si>
     <t>L’Hermione</t>
-  </si>
-  <si>
-    <t>Belle Poule</t>
   </si>
   <si>
     <t>Hercules</t>
@@ -2934,7 +2934,7 @@
         <v>36</v>
       </c>
       <c r="C29" s="27" t="n">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D29" s="27">
         <f>COUNTA(F29:AC29)</f>

--- a/public/port-battle.xlsx
+++ b/public/port-battle.xlsx
@@ -113,6 +113,9 @@
     <t>Santa Cecilia</t>
   </si>
   <si>
+    <t>Belle Poule</t>
+  </si>
+  <si>
     <t>Essex</t>
   </si>
   <si>
@@ -120,9 +123,6 @@
   </si>
   <si>
     <t>L’Hermione</t>
-  </si>
-  <si>
-    <t>Belle Poule</t>
   </si>
   <si>
     <t>Hercules</t>
@@ -1364,13 +1364,13 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FFCF95B0"/>
+      <color rgb="FFB67A95"/>
       <name val="Calibri"/>
       <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF3D3F26"/>
+      <color rgb="FF373B2B"/>
       <name val="Calibri"/>
       <family val="1"/>
     </font>
@@ -1384,14 +1384,14 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FF89ADD4"/>
+      <color rgb="FF6E93BA"/>
       <name val="Calibri"/>
       <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FFCECFBD"/>
+      <color rgb="FFC9CCC1"/>
       <name val="Calibri"/>
       <family val="1"/>
     </font>
@@ -1405,13 +1405,13 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FF3D3F26"/>
+      <color rgb="FF373B2B"/>
       <name val="Calibri"/>
       <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF696459"/>
+      <color rgb="FF585247"/>
       <name val="Calibri"/>
       <family val="1"/>
     </font>
@@ -1425,32 +1425,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB8BAA0"/>
+        <fgColor rgb="FFB2B5A6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF63663D"/>
+        <fgColor rgb="FF595F46"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8C8F66"/>
+        <fgColor rgb="FF82886F"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE3DED3"/>
+        <fgColor rgb="FFD2CCC2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE4E4DB"/>
+        <fgColor rgb="FFE1E3DD"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF4F2EE"/>
+        <fgColor rgb="FFEEEBE7"/>
       </patternFill>
     </fill>
   </fills>
@@ -1466,10 +1466,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color rgb="FFC3BFBF"/>
+        <color rgb="FFBFBABA"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFC3BFBF"/>
+        <color rgb="FFBFBABA"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1558,7 +1558,7 @@
       <font>
         <b/>
         <sz val="12"/>
-        <color rgb="FFCF95B0"/>
+        <color rgb="FFB67A95"/>
         <name val="Calibri"/>
         <family val="1"/>
       </font>
@@ -2934,7 +2934,7 @@
         <v>36</v>
       </c>
       <c r="C29" s="27" t="n">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D29" s="27">
         <f>COUNTA(F29:AC29)</f>

--- a/public/port-battle.xlsx
+++ b/public/port-battle.xlsx
@@ -1364,13 +1364,13 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FFB67A95"/>
+      <color rgb="FFBC7394"/>
       <name val="Calibri"/>
       <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF373B2B"/>
+      <color rgb="FF4E5439"/>
       <name val="Calibri"/>
       <family val="1"/>
     </font>
@@ -1384,14 +1384,14 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FF6E93BA"/>
+      <color rgb="FF6090C3"/>
       <name val="Calibri"/>
       <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FFC9CCC1"/>
+      <color rgb="FFD2D4CB"/>
       <name val="Calibri"/>
       <family val="1"/>
     </font>
@@ -1405,13 +1405,13 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FF373B2B"/>
+      <color rgb="FF4E5439"/>
       <name val="Calibri"/>
       <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF585247"/>
+      <color rgb="FF8F816C"/>
       <name val="Calibri"/>
       <family val="1"/>
     </font>
@@ -1425,32 +1425,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB2B5A6"/>
+        <fgColor rgb="FFB5B8A9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF595F46"/>
+        <fgColor rgb="FF62694C"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF82886F"/>
+        <fgColor rgb="FF80866D"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD2CCC2"/>
+        <fgColor rgb="FFD4CEC4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE1E3DD"/>
+        <fgColor rgb="FFEDEEEA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEEEBE7"/>
+        <fgColor rgb="FFF5F3F1"/>
       </patternFill>
     </fill>
   </fills>
@@ -1465,12 +1465,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color rgb="FFBFBABA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFBFBABA"/>
-      </bottom>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -1558,7 +1554,7 @@
       <font>
         <b/>
         <sz val="12"/>
-        <color rgb="FFB67A95"/>
+        <color rgb="FFBC7394"/>
         <name val="Calibri"/>
         <family val="1"/>
       </font>

--- a/public/port-battle.xlsx
+++ b/public/port-battle.xlsx
@@ -50,22 +50,25 @@
     <t>2. Enter player names</t>
   </si>
   <si>
+    <t>Victory</t>
+  </si>
+  <si>
+    <t>Santisima</t>
+  </si>
+  <si>
     <t>L’Océan</t>
   </si>
   <si>
-    <t>Santisima</t>
-  </si>
-  <si>
-    <t>Victory</t>
+    <t>St. Pavel</t>
+  </si>
+  <si>
+    <t>Christian</t>
   </si>
   <si>
     <t>Bucentaure</t>
   </si>
   <si>
-    <t>Christian</t>
-  </si>
-  <si>
-    <t>St. Pavel</t>
+    <t>3rd Rate</t>
   </si>
   <si>
     <t>Bellona</t>
@@ -74,7 +77,13 @@
     <t>Wasa</t>
   </si>
   <si>
-    <t>3rd Rate</t>
+    <t>Ingermanland</t>
+  </si>
+  <si>
+    <t>Agamemnon</t>
+  </si>
+  <si>
+    <t>Wapen von Hamburg</t>
   </si>
   <si>
     <t>Constitution</t>
@@ -83,84 +92,75 @@
     <t>Constitution Classic</t>
   </si>
   <si>
-    <t>Agamemnon</t>
-  </si>
-  <si>
-    <t>Wapen von Hamburg</t>
-  </si>
-  <si>
-    <t>Ingermanland</t>
+    <t>Cerberus</t>
+  </si>
+  <si>
+    <t>Indiaman</t>
+  </si>
+  <si>
+    <t>Le Gros Ventre</t>
+  </si>
+  <si>
+    <t>Surprise</t>
+  </si>
+  <si>
+    <t>Hercules</t>
+  </si>
+  <si>
+    <t>Renommee</t>
+  </si>
+  <si>
+    <t>Belle Poule</t>
+  </si>
+  <si>
+    <t>Essex</t>
+  </si>
+  <si>
+    <t>Frigate</t>
+  </si>
+  <si>
+    <t>L’Hermione</t>
+  </si>
+  <si>
+    <t>Santa Cecilia</t>
+  </si>
+  <si>
+    <t>Diana</t>
+  </si>
+  <si>
+    <t>Indefatigable</t>
+  </si>
+  <si>
+    <t>Le Gros Ventre Refit</t>
+  </si>
+  <si>
+    <t>Pirate Frigate</t>
+  </si>
+  <si>
+    <t>Trincomalee</t>
   </si>
   <si>
     <t>Endymion</t>
   </si>
   <si>
-    <t>Trincomalee</t>
-  </si>
-  <si>
-    <t>Diana</t>
-  </si>
-  <si>
-    <t>Indefatigable</t>
-  </si>
-  <si>
-    <t>Le Gros Ventre Refit</t>
-  </si>
-  <si>
-    <t>Pirate Frigate</t>
-  </si>
-  <si>
-    <t>Santa Cecilia</t>
-  </si>
-  <si>
-    <t>Belle Poule</t>
-  </si>
-  <si>
-    <t>Essex</t>
-  </si>
-  <si>
-    <t>Frigate</t>
-  </si>
-  <si>
-    <t>L’Hermione</t>
-  </si>
-  <si>
-    <t>Hercules</t>
-  </si>
-  <si>
-    <t>Renommee</t>
-  </si>
-  <si>
-    <t>Cerberus</t>
-  </si>
-  <si>
-    <t>Indiaman</t>
-  </si>
-  <si>
-    <t>Le Gros Ventre</t>
-  </si>
-  <si>
-    <t>Surprise</t>
+    <t>Mortar Brig</t>
+  </si>
+  <si>
+    <t>Niagara</t>
+  </si>
+  <si>
+    <t>Rattlesnake Heavy</t>
+  </si>
+  <si>
+    <t>Pandora</t>
+  </si>
+  <si>
+    <t>Prince de Neufchatel</t>
   </si>
   <si>
     <t>Le Requin</t>
   </si>
   <si>
-    <t>Prince de Neufchatel</t>
-  </si>
-  <si>
-    <t>Pandora</t>
-  </si>
-  <si>
-    <t>Rattlesnake Heavy</t>
-  </si>
-  <si>
-    <t>Mortar Brig</t>
-  </si>
-  <si>
-    <t>Niagara</t>
-  </si>
-  <si>
     <t>Aguadilla</t>
   </si>
   <si>
@@ -1091,6 +1091,12 @@
     <t>X</t>
   </si>
   <si>
+    <t>Brig</t>
+  </si>
+  <si>
+    <t>NavyBrig</t>
+  </si>
+  <si>
     <t>Mercury</t>
   </si>
   <si>
@@ -1100,10 +1106,16 @@
     <t>Snow</t>
   </si>
   <si>
-    <t>NavyBrig</t>
-  </si>
-  <si>
-    <t>Brig</t>
+    <t>Cutter</t>
+  </si>
+  <si>
+    <t>Pickle</t>
+  </si>
+  <si>
+    <t>Yacht</t>
+  </si>
+  <si>
+    <t>Yacht Silver</t>
   </si>
   <si>
     <t>GunBoat</t>
@@ -1113,18 +1125,6 @@
   </si>
   <si>
     <t>Privateer</t>
-  </si>
-  <si>
-    <t>Cutter</t>
-  </si>
-  <si>
-    <t>Pickle</t>
-  </si>
-  <si>
-    <t>Yacht</t>
-  </si>
-  <si>
-    <t>Yacht Silver</t>
   </si>
   <si>
     <t>Ahumada</t>
@@ -1790,7 +1790,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="27" t="n">
-        <v>900</v>
+        <v>780</v>
       </c>
       <c r="D5" s="27">
         <f>COUNTA(F5:AC5)</f>
@@ -1896,7 +1896,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="27" t="n">
-        <v>780</v>
+        <v>900</v>
       </c>
       <c r="D7" s="27">
         <f>COUNTA(F7:AC7)</f>
@@ -1943,7 +1943,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="32" t="n">
-        <v>460</v>
+        <v>400</v>
       </c>
       <c r="D8" s="32">
         <f>COUNTA(F8:AC8)</f>
@@ -2037,7 +2037,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="32" t="n">
-        <v>400</v>
+        <v>460</v>
       </c>
       <c r="D10" s="32">
         <f>COUNTA(F10:AC10)</f>
@@ -2084,7 +2084,7 @@
         <v>18</v>
       </c>
       <c r="C11" s="27" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="D11" s="27">
         <f>COUNTA(F11:AC11)</f>
@@ -2178,7 +2178,7 @@
         <v>20</v>
       </c>
       <c r="C13" s="27" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="D13" s="27">
         <f>COUNTA(F13:AC13)</f>
@@ -2225,7 +2225,7 @@
         <v>21</v>
       </c>
       <c r="C14" s="32" t="n">
-        <v>340</v>
+        <v>230</v>
       </c>
       <c r="D14" s="32">
         <f>COUNTA(F14:AC14)</f>
@@ -2272,7 +2272,7 @@
         <v>22</v>
       </c>
       <c r="C15" s="32" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="D15" s="32">
         <f>COUNTA(F15:AC15)</f>
@@ -2366,7 +2366,7 @@
         <v>24</v>
       </c>
       <c r="C17" s="32" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="D17" s="32">
         <f>COUNTA(F17:AC17)</f>
@@ -2413,7 +2413,7 @@
         <v>25</v>
       </c>
       <c r="C18" s="32" t="n">
-        <v>230</v>
+        <v>340</v>
       </c>
       <c r="D18" s="32">
         <f>COUNTA(F18:AC18)</f>
@@ -2460,7 +2460,7 @@
         <v>26</v>
       </c>
       <c r="C19" s="27" t="n">
-        <v>330</v>
+        <v>165</v>
       </c>
       <c r="D19" s="27">
         <f>COUNTA(F19:AC19)</f>
@@ -2507,7 +2507,7 @@
         <v>27</v>
       </c>
       <c r="C20" s="27" t="n">
-        <v>300</v>
+        <v>165</v>
       </c>
       <c r="D20" s="27">
         <f>COUNTA(F20:AC20)</f>
@@ -2554,7 +2554,7 @@
         <v>28</v>
       </c>
       <c r="C21" s="27" t="n">
-        <v>220</v>
+        <v>165</v>
       </c>
       <c r="D21" s="27">
         <f>COUNTA(F21:AC21)</f>
@@ -2601,7 +2601,7 @@
         <v>29</v>
       </c>
       <c r="C22" s="27" t="n">
-        <v>220</v>
+        <v>165</v>
       </c>
       <c r="D22" s="27">
         <f>COUNTA(F22:AC22)</f>
@@ -2648,7 +2648,7 @@
         <v>30</v>
       </c>
       <c r="C23" s="27" t="n">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="D23" s="27">
         <f>COUNTA(F23:AC23)</f>
@@ -2695,7 +2695,7 @@
         <v>31</v>
       </c>
       <c r="C24" s="27" t="n">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="D24" s="27">
         <f>COUNTA(F24:AC24)</f>
@@ -2742,7 +2742,7 @@
         <v>32</v>
       </c>
       <c r="C25" s="27" t="n">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D25" s="27">
         <f>COUNTA(F25:AC25)</f>
@@ -2930,7 +2930,7 @@
         <v>36</v>
       </c>
       <c r="C29" s="27" t="n">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D29" s="27">
         <f>COUNTA(F29:AC29)</f>
@@ -2977,7 +2977,7 @@
         <v>37</v>
       </c>
       <c r="C30" s="27" t="n">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="D30" s="27">
         <f>COUNTA(F30:AC30)</f>
@@ -3024,7 +3024,7 @@
         <v>38</v>
       </c>
       <c r="C31" s="27" t="n">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="D31" s="27">
         <f>COUNTA(F31:AC31)</f>
@@ -3071,7 +3071,7 @@
         <v>39</v>
       </c>
       <c r="C32" s="27" t="n">
-        <v>165</v>
+        <v>220</v>
       </c>
       <c r="D32" s="27">
         <f>COUNTA(F32:AC32)</f>
@@ -3118,7 +3118,7 @@
         <v>40</v>
       </c>
       <c r="C33" s="27" t="n">
-        <v>165</v>
+        <v>220</v>
       </c>
       <c r="D33" s="27">
         <f>COUNTA(F33:AC33)</f>
@@ -3165,7 +3165,7 @@
         <v>41</v>
       </c>
       <c r="C34" s="27" t="n">
-        <v>165</v>
+        <v>300</v>
       </c>
       <c r="D34" s="27">
         <f>COUNTA(F34:AC34)</f>
@@ -3212,7 +3212,7 @@
         <v>42</v>
       </c>
       <c r="C35" s="27" t="n">
-        <v>165</v>
+        <v>330</v>
       </c>
       <c r="D35" s="27">
         <f>COUNTA(F35:AC35)</f>
@@ -3259,7 +3259,7 @@
         <v>43</v>
       </c>
       <c r="C36" s="32" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="D36" s="32">
         <f>COUNTA(F36:AC36)</f>
@@ -3306,7 +3306,7 @@
         <v>44</v>
       </c>
       <c r="C37" s="32" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="D37" s="32">
         <f>COUNTA(F37:AC37)</f>
@@ -3353,7 +3353,7 @@
         <v>45</v>
       </c>
       <c r="C38" s="32" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D38" s="32">
         <f>COUNTA(F38:AC38)</f>
@@ -3400,7 +3400,7 @@
         <v>46</v>
       </c>
       <c r="C39" s="32" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D39" s="32">
         <f>COUNTA(F39:AC39)</f>
@@ -3447,7 +3447,7 @@
         <v>47</v>
       </c>
       <c r="C40" s="32" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="D40" s="32">
         <f>COUNTA(F40:AC40)</f>
@@ -3494,7 +3494,7 @@
         <v>48</v>
       </c>
       <c r="C41" s="32" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D41" s="32">
         <f>COUNTA(F41:AC41)</f>
@@ -5853,10 +5853,10 @@
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
       <c r="D4" s="21">
-        <f>SUM(D5:D22)</f>
+        <f>SUM(D5:D26)</f>
       </c>
       <c r="E4" s="21">
-        <f>SUM(E5:E22)</f>
+        <f>SUM(E5:E26)</f>
       </c>
       <c r="F4" s="22" t="s">
         <v>11</v>
@@ -5892,51 +5892,51 @@
       </c>
     </row>
     <row r="5" spans="1:31" customHeight="1">
-      <c r="A5" s="32" t="n">
-        <v>6</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="32" t="n">
-        <v>160</v>
-      </c>
-      <c r="D5" s="32">
+      <c r="A5" s="27" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="27" t="n">
+        <v>165</v>
+      </c>
+      <c r="D5" s="27">
         <f>COUNTA(F5:AC5)</f>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="27">
         <f>C5*D5</f>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="29" t="s">
         <v>354</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="29" t="s">
         <v>356</v>
       </c>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="34"/>
-      <c r="U5" s="34"/>
-      <c r="V5" s="34"/>
-      <c r="W5" s="34"/>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="34"/>
-      <c r="Z5" s="34"/>
-      <c r="AA5" s="34"/>
-      <c r="AB5" s="34"/>
-      <c r="AC5" s="34"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="29"/>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="29"/>
+      <c r="AA5" s="29"/>
+      <c r="AB5" s="29"/>
+      <c r="AC5" s="29"/>
       <c r="AD5" s="0" t="s">
         <v>375</v>
       </c>
@@ -5945,51 +5945,51 @@
       </c>
     </row>
     <row r="6" spans="1:31" customHeight="1">
-      <c r="A6" s="32" t="n">
-        <v>6</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="32" t="n">
-        <v>110</v>
-      </c>
-      <c r="D6" s="32">
+      <c r="A6" s="27" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="27" t="n">
+        <v>165</v>
+      </c>
+      <c r="D6" s="27">
         <f>COUNTA(F6:AC6)</f>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="27">
         <f>C6*D6</f>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="29" t="s">
         <v>357</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="29" t="s">
         <v>358</v>
       </c>
-      <c r="H6" s="34" t="s">
+      <c r="H6" s="29" t="s">
         <v>357</v>
       </c>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="34"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="34"/>
-      <c r="X6" s="34"/>
-      <c r="Y6" s="34"/>
-      <c r="Z6" s="34"/>
-      <c r="AA6" s="34"/>
-      <c r="AB6" s="34"/>
-      <c r="AC6" s="34"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="29"/>
+      <c r="AA6" s="29"/>
+      <c r="AB6" s="29"/>
+      <c r="AC6" s="29"/>
       <c r="AD6" s="0" t="s">
         <v>376</v>
       </c>
@@ -5998,45 +5998,45 @@
       </c>
     </row>
     <row r="7" spans="1:31" customHeight="1">
-      <c r="A7" s="32" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="32" t="n">
-        <v>100</v>
-      </c>
-      <c r="D7" s="32">
+      <c r="A7" s="27" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="27" t="n">
+        <v>170</v>
+      </c>
+      <c r="D7" s="27">
         <f>COUNTA(F7:AC7)</f>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="27">
         <f>C7*D7</f>
       </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="34"/>
-      <c r="U7" s="34"/>
-      <c r="V7" s="34"/>
-      <c r="W7" s="34"/>
-      <c r="X7" s="34"/>
-      <c r="Y7" s="34"/>
-      <c r="Z7" s="34"/>
-      <c r="AA7" s="34"/>
-      <c r="AB7" s="34"/>
-      <c r="AC7" s="34"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="29"/>
+      <c r="AA7" s="29"/>
+      <c r="AB7" s="29"/>
+      <c r="AC7" s="29"/>
       <c r="AD7" s="0" t="s">
         <v>377</v>
       </c>
@@ -6045,45 +6045,45 @@
       </c>
     </row>
     <row r="8" spans="1:31" customHeight="1">
-      <c r="A8" s="32" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="32" t="n">
-        <v>90</v>
-      </c>
-      <c r="D8" s="32">
+      <c r="A8" s="27" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="27" t="n">
+        <v>175</v>
+      </c>
+      <c r="D8" s="27">
         <f>COUNTA(F8:AC8)</f>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="27">
         <f>C8*D8</f>
       </c>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="34"/>
-      <c r="U8" s="34"/>
-      <c r="V8" s="34"/>
-      <c r="W8" s="34"/>
-      <c r="X8" s="34"/>
-      <c r="Y8" s="34"/>
-      <c r="Z8" s="34"/>
-      <c r="AA8" s="34"/>
-      <c r="AB8" s="34"/>
-      <c r="AC8" s="34"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="29"/>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="29"/>
+      <c r="AA8" s="29"/>
+      <c r="AB8" s="29"/>
+      <c r="AC8" s="29"/>
       <c r="AD8" s="0" t="s">
         <v>378</v>
       </c>
@@ -6096,10 +6096,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>47</v>
+        <v>359</v>
       </c>
       <c r="C9" s="32" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="D9" s="32">
         <f>COUNTA(F9:AC9)</f>
@@ -6143,10 +6143,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>48</v>
+        <v>360</v>
       </c>
       <c r="C10" s="32" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D10" s="32">
         <f>COUNTA(F10:AC10)</f>
@@ -6190,7 +6190,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C11" s="32" t="n">
         <v>70</v>
@@ -6237,7 +6237,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C12" s="32" t="n">
         <v>70</v>
@@ -6284,7 +6284,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C13" s="32" t="n">
         <v>70</v>
@@ -6331,10 +6331,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>362</v>
+        <v>43</v>
       </c>
       <c r="C14" s="32" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D14" s="32">
         <f>COUNTA(F14:AC14)</f>
@@ -6378,10 +6378,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>363</v>
+        <v>44</v>
       </c>
       <c r="C15" s="32" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="D15" s="32">
         <f>COUNTA(F15:AC15)</f>
@@ -6421,45 +6421,45 @@
       </c>
     </row>
     <row r="16" spans="1:31" customHeight="1">
-      <c r="A16" s="27" t="n">
-        <v>7</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>364</v>
-      </c>
-      <c r="C16" s="27" t="n">
-        <v>50</v>
-      </c>
-      <c r="D16" s="27">
+      <c r="A16" s="32" t="n">
+        <v>6</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="32" t="n">
+        <v>90</v>
+      </c>
+      <c r="D16" s="32">
         <f>COUNTA(F16:AC16)</f>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="32">
         <f>C16*D16</f>
       </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="29"/>
-      <c r="U16" s="29"/>
-      <c r="V16" s="29"/>
-      <c r="W16" s="29"/>
-      <c r="X16" s="29"/>
-      <c r="Y16" s="29"/>
-      <c r="Z16" s="29"/>
-      <c r="AA16" s="29"/>
-      <c r="AB16" s="29"/>
-      <c r="AC16" s="29"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="34"/>
+      <c r="T16" s="34"/>
+      <c r="U16" s="34"/>
+      <c r="V16" s="34"/>
+      <c r="W16" s="34"/>
+      <c r="X16" s="34"/>
+      <c r="Y16" s="34"/>
+      <c r="Z16" s="34"/>
+      <c r="AA16" s="34"/>
+      <c r="AB16" s="34"/>
+      <c r="AC16" s="34"/>
       <c r="AD16" s="0" t="s">
         <v>386</v>
       </c>
@@ -6468,45 +6468,45 @@
       </c>
     </row>
     <row r="17" spans="1:31" customHeight="1">
-      <c r="A17" s="27" t="n">
-        <v>7</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>365</v>
-      </c>
-      <c r="C17" s="27" t="n">
-        <v>50</v>
-      </c>
-      <c r="D17" s="27">
+      <c r="A17" s="32" t="n">
+        <v>6</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="32" t="n">
+        <v>100</v>
+      </c>
+      <c r="D17" s="32">
         <f>COUNTA(F17:AC17)</f>
       </c>
-      <c r="E17" s="27">
+      <c r="E17" s="32">
         <f>C17*D17</f>
       </c>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
-      <c r="T17" s="29"/>
-      <c r="U17" s="29"/>
-      <c r="V17" s="29"/>
-      <c r="W17" s="29"/>
-      <c r="X17" s="29"/>
-      <c r="Y17" s="29"/>
-      <c r="Z17" s="29"/>
-      <c r="AA17" s="29"/>
-      <c r="AB17" s="29"/>
-      <c r="AC17" s="29"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="34"/>
+      <c r="U17" s="34"/>
+      <c r="V17" s="34"/>
+      <c r="W17" s="34"/>
+      <c r="X17" s="34"/>
+      <c r="Y17" s="34"/>
+      <c r="Z17" s="34"/>
+      <c r="AA17" s="34"/>
+      <c r="AB17" s="34"/>
+      <c r="AC17" s="34"/>
       <c r="AD17" s="0" t="s">
         <v>387</v>
       </c>
@@ -6515,45 +6515,45 @@
       </c>
     </row>
     <row r="18" spans="1:31" customHeight="1">
-      <c r="A18" s="27" t="n">
-        <v>7</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>366</v>
-      </c>
-      <c r="C18" s="27" t="n">
-        <v>50</v>
-      </c>
-      <c r="D18" s="27">
+      <c r="A18" s="32" t="n">
+        <v>6</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="32" t="n">
+        <v>110</v>
+      </c>
+      <c r="D18" s="32">
         <f>COUNTA(F18:AC18)</f>
       </c>
-      <c r="E18" s="27">
+      <c r="E18" s="32">
         <f>C18*D18</f>
       </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="29"/>
-      <c r="T18" s="29"/>
-      <c r="U18" s="29"/>
-      <c r="V18" s="29"/>
-      <c r="W18" s="29"/>
-      <c r="X18" s="29"/>
-      <c r="Y18" s="29"/>
-      <c r="Z18" s="29"/>
-      <c r="AA18" s="29"/>
-      <c r="AB18" s="29"/>
-      <c r="AC18" s="29"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="34"/>
+      <c r="V18" s="34"/>
+      <c r="W18" s="34"/>
+      <c r="X18" s="34"/>
+      <c r="Y18" s="34"/>
+      <c r="Z18" s="34"/>
+      <c r="AA18" s="34"/>
+      <c r="AB18" s="34"/>
+      <c r="AC18" s="34"/>
       <c r="AD18" s="0" t="s">
         <v>388</v>
       </c>
@@ -6562,45 +6562,45 @@
       </c>
     </row>
     <row r="19" spans="1:31" customHeight="1">
-      <c r="A19" s="27" t="n">
-        <v>7</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>367</v>
-      </c>
-      <c r="C19" s="27" t="n">
-        <v>40</v>
-      </c>
-      <c r="D19" s="27">
+      <c r="A19" s="32" t="n">
+        <v>6</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="32" t="n">
+        <v>160</v>
+      </c>
+      <c r="D19" s="32">
         <f>COUNTA(F19:AC19)</f>
       </c>
-      <c r="E19" s="27">
+      <c r="E19" s="32">
         <f>C19*D19</f>
       </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="29"/>
-      <c r="V19" s="29"/>
-      <c r="W19" s="29"/>
-      <c r="X19" s="29"/>
-      <c r="Y19" s="29"/>
-      <c r="Z19" s="29"/>
-      <c r="AA19" s="29"/>
-      <c r="AB19" s="29"/>
-      <c r="AC19" s="29"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="34"/>
+      <c r="U19" s="34"/>
+      <c r="V19" s="34"/>
+      <c r="W19" s="34"/>
+      <c r="X19" s="34"/>
+      <c r="Y19" s="34"/>
+      <c r="Z19" s="34"/>
+      <c r="AA19" s="34"/>
+      <c r="AB19" s="34"/>
+      <c r="AC19" s="34"/>
       <c r="AD19" s="0" t="s">
         <v>389</v>
       </c>
@@ -6613,7 +6613,7 @@
         <v>7</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C20" s="27" t="n">
         <v>40</v>
@@ -6660,7 +6660,7 @@
         <v>7</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C21" s="27" t="n">
         <v>40</v>
@@ -6707,7 +6707,7 @@
         <v>7</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C22" s="27" t="n">
         <v>40</v>
@@ -6749,7 +6749,46 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="23" spans="30:31" customHeight="1">
+    <row r="23" spans="1:31" customHeight="1">
+      <c r="A23" s="27" t="n">
+        <v>7</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="C23" s="27" t="n">
+        <v>40</v>
+      </c>
+      <c r="D23" s="27">
+        <f>COUNTA(F23:AC23)</f>
+      </c>
+      <c r="E23" s="27">
+        <f>C23*D23</f>
+      </c>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="29"/>
+      <c r="X23" s="29"/>
+      <c r="Y23" s="29"/>
+      <c r="Z23" s="29"/>
+      <c r="AA23" s="29"/>
+      <c r="AB23" s="29"/>
+      <c r="AC23" s="29"/>
       <c r="AD23" s="0" t="s">
         <v>393</v>
       </c>
@@ -6757,7 +6796,46 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="24" spans="30:31" customHeight="1">
+    <row r="24" spans="1:31" customHeight="1">
+      <c r="A24" s="27" t="n">
+        <v>7</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="C24" s="27" t="n">
+        <v>50</v>
+      </c>
+      <c r="D24" s="27">
+        <f>COUNTA(F24:AC24)</f>
+      </c>
+      <c r="E24" s="27">
+        <f>C24*D24</f>
+      </c>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="29"/>
+      <c r="X24" s="29"/>
+      <c r="Y24" s="29"/>
+      <c r="Z24" s="29"/>
+      <c r="AA24" s="29"/>
+      <c r="AB24" s="29"/>
+      <c r="AC24" s="29"/>
       <c r="AD24" s="0" t="s">
         <v>394</v>
       </c>
@@ -6765,7 +6843,46 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="25" spans="30:31" customHeight="1">
+    <row r="25" spans="1:31" customHeight="1">
+      <c r="A25" s="27" t="n">
+        <v>7</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="C25" s="27" t="n">
+        <v>50</v>
+      </c>
+      <c r="D25" s="27">
+        <f>COUNTA(F25:AC25)</f>
+      </c>
+      <c r="E25" s="27">
+        <f>C25*D25</f>
+      </c>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="29"/>
+      <c r="V25" s="29"/>
+      <c r="W25" s="29"/>
+      <c r="X25" s="29"/>
+      <c r="Y25" s="29"/>
+      <c r="Z25" s="29"/>
+      <c r="AA25" s="29"/>
+      <c r="AB25" s="29"/>
+      <c r="AC25" s="29"/>
       <c r="AD25" s="0" t="s">
         <v>395</v>
       </c>
@@ -6773,7 +6890,46 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="26" spans="30:31" customHeight="1">
+    <row r="26" spans="1:31" customHeight="1">
+      <c r="A26" s="27" t="n">
+        <v>7</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>370</v>
+      </c>
+      <c r="C26" s="27" t="n">
+        <v>50</v>
+      </c>
+      <c r="D26" s="27">
+        <f>COUNTA(F26:AC26)</f>
+      </c>
+      <c r="E26" s="27">
+        <f>C26*D26</f>
+      </c>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="29"/>
+      <c r="V26" s="29"/>
+      <c r="W26" s="29"/>
+      <c r="X26" s="29"/>
+      <c r="Y26" s="29"/>
+      <c r="Z26" s="29"/>
+      <c r="AA26" s="29"/>
+      <c r="AB26" s="29"/>
+      <c r="AC26" s="29"/>
       <c r="AD26" s="0" t="s">
         <v>396</v>
       </c>

--- a/public/port-battle.xlsx
+++ b/public/port-battle.xlsx
@@ -5853,10 +5853,10 @@
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
       <c r="D4" s="21">
-        <f>SUM(D5:D26)</f>
+        <f>SUM(D5:D27)</f>
       </c>
       <c r="E4" s="21">
-        <f>SUM(E5:E26)</f>
+        <f>SUM(E5:E27)</f>
       </c>
       <c r="F4" s="22" t="s">
         <v>11</v>
@@ -6002,7 +6002,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="27" t="n">
         <v>170</v>
@@ -6049,10 +6049,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C8" s="27" t="n">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D8" s="27">
         <f>COUNTA(F8:AC8)</f>
@@ -6092,45 +6092,45 @@
       </c>
     </row>
     <row r="9" spans="1:31" customHeight="1">
-      <c r="A9" s="32" t="n">
-        <v>6</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>359</v>
-      </c>
-      <c r="C9" s="32" t="n">
-        <v>50</v>
-      </c>
-      <c r="D9" s="32">
+      <c r="A9" s="27" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="27" t="n">
+        <v>175</v>
+      </c>
+      <c r="D9" s="27">
         <f>COUNTA(F9:AC9)</f>
       </c>
-      <c r="E9" s="32">
+      <c r="E9" s="27">
         <f>C9*D9</f>
       </c>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="34"/>
-      <c r="U9" s="34"/>
-      <c r="V9" s="34"/>
-      <c r="W9" s="34"/>
-      <c r="X9" s="34"/>
-      <c r="Y9" s="34"/>
-      <c r="Z9" s="34"/>
-      <c r="AA9" s="34"/>
-      <c r="AB9" s="34"/>
-      <c r="AC9" s="34"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="29"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="29"/>
+      <c r="AA9" s="29"/>
+      <c r="AB9" s="29"/>
+      <c r="AC9" s="29"/>
       <c r="AD9" s="0" t="s">
         <v>379</v>
       </c>
@@ -6143,10 +6143,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C10" s="32" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D10" s="32">
         <f>COUNTA(F10:AC10)</f>
@@ -6190,10 +6190,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C11" s="32" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D11" s="32">
         <f>COUNTA(F11:AC11)</f>
@@ -6237,7 +6237,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C12" s="32" t="n">
         <v>70</v>
@@ -6284,7 +6284,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C13" s="32" t="n">
         <v>70</v>
@@ -6331,10 +6331,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>43</v>
+        <v>363</v>
       </c>
       <c r="C14" s="32" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D14" s="32">
         <f>COUNTA(F14:AC14)</f>
@@ -6378,7 +6378,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="32" t="n">
         <v>80</v>
@@ -6425,10 +6425,10 @@
         <v>6</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="32" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D16" s="32">
         <f>COUNTA(F16:AC16)</f>
@@ -6472,10 +6472,10 @@
         <v>6</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" s="32" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D17" s="32">
         <f>COUNTA(F17:AC17)</f>
@@ -6519,10 +6519,10 @@
         <v>6</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="32" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D18" s="32">
         <f>COUNTA(F18:AC18)</f>
@@ -6566,10 +6566,10 @@
         <v>6</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="32" t="n">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="D19" s="32">
         <f>COUNTA(F19:AC19)</f>
@@ -6609,45 +6609,45 @@
       </c>
     </row>
     <row r="20" spans="1:31" customHeight="1">
-      <c r="A20" s="27" t="n">
-        <v>7</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>364</v>
-      </c>
-      <c r="C20" s="27" t="n">
-        <v>40</v>
-      </c>
-      <c r="D20" s="27">
+      <c r="A20" s="32" t="n">
+        <v>6</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="32" t="n">
+        <v>160</v>
+      </c>
+      <c r="D20" s="32">
         <f>COUNTA(F20:AC20)</f>
       </c>
-      <c r="E20" s="27">
+      <c r="E20" s="32">
         <f>C20*D20</f>
       </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
-      <c r="T20" s="29"/>
-      <c r="U20" s="29"/>
-      <c r="V20" s="29"/>
-      <c r="W20" s="29"/>
-      <c r="X20" s="29"/>
-      <c r="Y20" s="29"/>
-      <c r="Z20" s="29"/>
-      <c r="AA20" s="29"/>
-      <c r="AB20" s="29"/>
-      <c r="AC20" s="29"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="34"/>
+      <c r="T20" s="34"/>
+      <c r="U20" s="34"/>
+      <c r="V20" s="34"/>
+      <c r="W20" s="34"/>
+      <c r="X20" s="34"/>
+      <c r="Y20" s="34"/>
+      <c r="Z20" s="34"/>
+      <c r="AA20" s="34"/>
+      <c r="AB20" s="34"/>
+      <c r="AC20" s="34"/>
       <c r="AD20" s="0" t="s">
         <v>390</v>
       </c>
@@ -6660,7 +6660,7 @@
         <v>7</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C21" s="27" t="n">
         <v>40</v>
@@ -6707,7 +6707,7 @@
         <v>7</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C22" s="27" t="n">
         <v>40</v>
@@ -6754,7 +6754,7 @@
         <v>7</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C23" s="27" t="n">
         <v>40</v>
@@ -6801,10 +6801,10 @@
         <v>7</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C24" s="27" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D24" s="27">
         <f>COUNTA(F24:AC24)</f>
@@ -6848,7 +6848,7 @@
         <v>7</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C25" s="27" t="n">
         <v>50</v>
@@ -6895,7 +6895,7 @@
         <v>7</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C26" s="27" t="n">
         <v>50</v>
@@ -6937,7 +6937,46 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="27" spans="30:31" customHeight="1">
+    <row r="27" spans="1:31" customHeight="1">
+      <c r="A27" s="27" t="n">
+        <v>7</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>370</v>
+      </c>
+      <c r="C27" s="27" t="n">
+        <v>50</v>
+      </c>
+      <c r="D27" s="27">
+        <f>COUNTA(F27:AC27)</f>
+      </c>
+      <c r="E27" s="27">
+        <f>C27*D27</f>
+      </c>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="29"/>
+      <c r="Y27" s="29"/>
+      <c r="Z27" s="29"/>
+      <c r="AA27" s="29"/>
+      <c r="AB27" s="29"/>
+      <c r="AC27" s="29"/>
       <c r="AD27" s="0" t="s">
         <v>397</v>
       </c>

--- a/public/port-battle.xlsx
+++ b/public/port-battle.xlsx
@@ -50,22 +50,25 @@
     <t>2. Enter player names</t>
   </si>
   <si>
+    <t>Victory</t>
+  </si>
+  <si>
+    <t>Santisima</t>
+  </si>
+  <si>
     <t>L’Océan</t>
   </si>
   <si>
-    <t>Santisima</t>
-  </si>
-  <si>
-    <t>Victory</t>
+    <t>St. Pavel</t>
+  </si>
+  <si>
+    <t>Christian</t>
   </si>
   <si>
     <t>Bucentaure</t>
   </si>
   <si>
-    <t>Christian</t>
-  </si>
-  <si>
-    <t>St. Pavel</t>
+    <t>3rd Rate</t>
   </si>
   <si>
     <t>Bellona</t>
@@ -74,7 +77,13 @@
     <t>Wasa</t>
   </si>
   <si>
-    <t>3rd Rate</t>
+    <t>Ingermanland</t>
+  </si>
+  <si>
+    <t>Agamemnon</t>
+  </si>
+  <si>
+    <t>Wapen von Hamburg</t>
   </si>
   <si>
     <t>Constitution</t>
@@ -83,84 +92,75 @@
     <t>Constitution Classic</t>
   </si>
   <si>
-    <t>Agamemnon</t>
-  </si>
-  <si>
-    <t>Wapen von Hamburg</t>
-  </si>
-  <si>
-    <t>Ingermanland</t>
+    <t>Cerberus</t>
+  </si>
+  <si>
+    <t>Indiaman</t>
+  </si>
+  <si>
+    <t>Le Gros Ventre</t>
+  </si>
+  <si>
+    <t>Surprise</t>
+  </si>
+  <si>
+    <t>Hercules</t>
+  </si>
+  <si>
+    <t>Renommee</t>
+  </si>
+  <si>
+    <t>Belle Poule</t>
+  </si>
+  <si>
+    <t>Essex</t>
+  </si>
+  <si>
+    <t>Frigate</t>
+  </si>
+  <si>
+    <t>L’Hermione</t>
+  </si>
+  <si>
+    <t>Santa Cecilia</t>
+  </si>
+  <si>
+    <t>Diana</t>
+  </si>
+  <si>
+    <t>Indefatigable</t>
+  </si>
+  <si>
+    <t>Le Gros Ventre Refit</t>
+  </si>
+  <si>
+    <t>Pirate Frigate</t>
+  </si>
+  <si>
+    <t>Trincomalee</t>
   </si>
   <si>
     <t>Endymion</t>
   </si>
   <si>
-    <t>Trincomalee</t>
-  </si>
-  <si>
-    <t>Diana</t>
-  </si>
-  <si>
-    <t>Indefatigable</t>
-  </si>
-  <si>
-    <t>Le Gros Ventre Refit</t>
-  </si>
-  <si>
-    <t>Pirate Frigate</t>
-  </si>
-  <si>
-    <t>Santa Cecilia</t>
-  </si>
-  <si>
-    <t>Belle Poule</t>
-  </si>
-  <si>
-    <t>Essex</t>
-  </si>
-  <si>
-    <t>Frigate</t>
-  </si>
-  <si>
-    <t>L’Hermione</t>
-  </si>
-  <si>
-    <t>Hercules</t>
-  </si>
-  <si>
-    <t>Renommee</t>
-  </si>
-  <si>
-    <t>Cerberus</t>
-  </si>
-  <si>
-    <t>Indiaman</t>
-  </si>
-  <si>
-    <t>Le Gros Ventre</t>
-  </si>
-  <si>
-    <t>Surprise</t>
+    <t>Mortar Brig</t>
+  </si>
+  <si>
+    <t>Niagara</t>
+  </si>
+  <si>
+    <t>Rattlesnake Heavy</t>
+  </si>
+  <si>
+    <t>Pandora</t>
+  </si>
+  <si>
+    <t>Prince de Neufchatel</t>
   </si>
   <si>
     <t>Le Requin</t>
   </si>
   <si>
-    <t>Prince de Neufchatel</t>
-  </si>
-  <si>
-    <t>Pandora</t>
-  </si>
-  <si>
-    <t>Rattlesnake Heavy</t>
-  </si>
-  <si>
-    <t>Mortar Brig</t>
-  </si>
-  <si>
-    <t>Niagara</t>
-  </si>
-  <si>
     <t>Aguadilla</t>
   </si>
   <si>
@@ -1091,6 +1091,12 @@
     <t>X</t>
   </si>
   <si>
+    <t>Brig</t>
+  </si>
+  <si>
+    <t>NavyBrig</t>
+  </si>
+  <si>
     <t>Mercury</t>
   </si>
   <si>
@@ -1100,10 +1106,16 @@
     <t>Snow</t>
   </si>
   <si>
-    <t>NavyBrig</t>
-  </si>
-  <si>
-    <t>Brig</t>
+    <t>Cutter</t>
+  </si>
+  <si>
+    <t>Pickle</t>
+  </si>
+  <si>
+    <t>Yacht</t>
+  </si>
+  <si>
+    <t>Yacht Silver</t>
   </si>
   <si>
     <t>GunBoat</t>
@@ -1113,18 +1125,6 @@
   </si>
   <si>
     <t>Privateer</t>
-  </si>
-  <si>
-    <t>Cutter</t>
-  </si>
-  <si>
-    <t>Pickle</t>
-  </si>
-  <si>
-    <t>Yacht</t>
-  </si>
-  <si>
-    <t>Yacht Silver</t>
   </si>
   <si>
     <t>Ahumada</t>
@@ -1790,7 +1790,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="27" t="n">
-        <v>900</v>
+        <v>780</v>
       </c>
       <c r="D5" s="27">
         <f>COUNTA(F5:AC5)</f>
@@ -1896,7 +1896,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="27" t="n">
-        <v>780</v>
+        <v>900</v>
       </c>
       <c r="D7" s="27">
         <f>COUNTA(F7:AC7)</f>
@@ -1943,7 +1943,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="32" t="n">
-        <v>460</v>
+        <v>400</v>
       </c>
       <c r="D8" s="32">
         <f>COUNTA(F8:AC8)</f>
@@ -2037,7 +2037,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="32" t="n">
-        <v>400</v>
+        <v>460</v>
       </c>
       <c r="D10" s="32">
         <f>COUNTA(F10:AC10)</f>
@@ -2084,7 +2084,7 @@
         <v>18</v>
       </c>
       <c r="C11" s="27" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="D11" s="27">
         <f>COUNTA(F11:AC11)</f>
@@ -2178,7 +2178,7 @@
         <v>20</v>
       </c>
       <c r="C13" s="27" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="D13" s="27">
         <f>COUNTA(F13:AC13)</f>
@@ -2225,7 +2225,7 @@
         <v>21</v>
       </c>
       <c r="C14" s="32" t="n">
-        <v>340</v>
+        <v>230</v>
       </c>
       <c r="D14" s="32">
         <f>COUNTA(F14:AC14)</f>
@@ -2272,7 +2272,7 @@
         <v>22</v>
       </c>
       <c r="C15" s="32" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="D15" s="32">
         <f>COUNTA(F15:AC15)</f>
@@ -2366,7 +2366,7 @@
         <v>24</v>
       </c>
       <c r="C17" s="32" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="D17" s="32">
         <f>COUNTA(F17:AC17)</f>
@@ -2413,7 +2413,7 @@
         <v>25</v>
       </c>
       <c r="C18" s="32" t="n">
-        <v>230</v>
+        <v>340</v>
       </c>
       <c r="D18" s="32">
         <f>COUNTA(F18:AC18)</f>
@@ -2460,7 +2460,7 @@
         <v>26</v>
       </c>
       <c r="C19" s="27" t="n">
-        <v>330</v>
+        <v>165</v>
       </c>
       <c r="D19" s="27">
         <f>COUNTA(F19:AC19)</f>
@@ -2507,7 +2507,7 @@
         <v>27</v>
       </c>
       <c r="C20" s="27" t="n">
-        <v>300</v>
+        <v>165</v>
       </c>
       <c r="D20" s="27">
         <f>COUNTA(F20:AC20)</f>
@@ -2554,7 +2554,7 @@
         <v>28</v>
       </c>
       <c r="C21" s="27" t="n">
-        <v>220</v>
+        <v>165</v>
       </c>
       <c r="D21" s="27">
         <f>COUNTA(F21:AC21)</f>
@@ -2601,7 +2601,7 @@
         <v>29</v>
       </c>
       <c r="C22" s="27" t="n">
-        <v>220</v>
+        <v>165</v>
       </c>
       <c r="D22" s="27">
         <f>COUNTA(F22:AC22)</f>
@@ -2648,7 +2648,7 @@
         <v>30</v>
       </c>
       <c r="C23" s="27" t="n">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="D23" s="27">
         <f>COUNTA(F23:AC23)</f>
@@ -2695,7 +2695,7 @@
         <v>31</v>
       </c>
       <c r="C24" s="27" t="n">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="D24" s="27">
         <f>COUNTA(F24:AC24)</f>
@@ -2742,7 +2742,7 @@
         <v>32</v>
       </c>
       <c r="C25" s="27" t="n">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D25" s="27">
         <f>COUNTA(F25:AC25)</f>
@@ -2930,7 +2930,7 @@
         <v>36</v>
       </c>
       <c r="C29" s="27" t="n">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D29" s="27">
         <f>COUNTA(F29:AC29)</f>
@@ -2977,7 +2977,7 @@
         <v>37</v>
       </c>
       <c r="C30" s="27" t="n">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="D30" s="27">
         <f>COUNTA(F30:AC30)</f>
@@ -3024,7 +3024,7 @@
         <v>38</v>
       </c>
       <c r="C31" s="27" t="n">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="D31" s="27">
         <f>COUNTA(F31:AC31)</f>
@@ -3071,7 +3071,7 @@
         <v>39</v>
       </c>
       <c r="C32" s="27" t="n">
-        <v>165</v>
+        <v>220</v>
       </c>
       <c r="D32" s="27">
         <f>COUNTA(F32:AC32)</f>
@@ -3118,7 +3118,7 @@
         <v>40</v>
       </c>
       <c r="C33" s="27" t="n">
-        <v>165</v>
+        <v>220</v>
       </c>
       <c r="D33" s="27">
         <f>COUNTA(F33:AC33)</f>
@@ -3165,7 +3165,7 @@
         <v>41</v>
       </c>
       <c r="C34" s="27" t="n">
-        <v>165</v>
+        <v>300</v>
       </c>
       <c r="D34" s="27">
         <f>COUNTA(F34:AC34)</f>
@@ -3212,7 +3212,7 @@
         <v>42</v>
       </c>
       <c r="C35" s="27" t="n">
-        <v>165</v>
+        <v>330</v>
       </c>
       <c r="D35" s="27">
         <f>COUNTA(F35:AC35)</f>
@@ -3259,7 +3259,7 @@
         <v>43</v>
       </c>
       <c r="C36" s="32" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="D36" s="32">
         <f>COUNTA(F36:AC36)</f>
@@ -3306,7 +3306,7 @@
         <v>44</v>
       </c>
       <c r="C37" s="32" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="D37" s="32">
         <f>COUNTA(F37:AC37)</f>
@@ -3353,7 +3353,7 @@
         <v>45</v>
       </c>
       <c r="C38" s="32" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D38" s="32">
         <f>COUNTA(F38:AC38)</f>
@@ -3400,7 +3400,7 @@
         <v>46</v>
       </c>
       <c r="C39" s="32" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D39" s="32">
         <f>COUNTA(F39:AC39)</f>
@@ -3447,7 +3447,7 @@
         <v>47</v>
       </c>
       <c r="C40" s="32" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="D40" s="32">
         <f>COUNTA(F40:AC40)</f>
@@ -3494,7 +3494,7 @@
         <v>48</v>
       </c>
       <c r="C41" s="32" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D41" s="32">
         <f>COUNTA(F41:AC41)</f>
@@ -5853,10 +5853,10 @@
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
       <c r="D4" s="21">
-        <f>SUM(D5:D22)</f>
+        <f>SUM(D5:D27)</f>
       </c>
       <c r="E4" s="21">
-        <f>SUM(E5:E22)</f>
+        <f>SUM(E5:E27)</f>
       </c>
       <c r="F4" s="22" t="s">
         <v>11</v>
@@ -5892,51 +5892,51 @@
       </c>
     </row>
     <row r="5" spans="1:31" customHeight="1">
-      <c r="A5" s="32" t="n">
-        <v>6</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="32" t="n">
-        <v>160</v>
-      </c>
-      <c r="D5" s="32">
+      <c r="A5" s="27" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="27" t="n">
+        <v>165</v>
+      </c>
+      <c r="D5" s="27">
         <f>COUNTA(F5:AC5)</f>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="27">
         <f>C5*D5</f>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="29" t="s">
         <v>354</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="29" t="s">
         <v>356</v>
       </c>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="34"/>
-      <c r="U5" s="34"/>
-      <c r="V5" s="34"/>
-      <c r="W5" s="34"/>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="34"/>
-      <c r="Z5" s="34"/>
-      <c r="AA5" s="34"/>
-      <c r="AB5" s="34"/>
-      <c r="AC5" s="34"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="29"/>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="29"/>
+      <c r="AA5" s="29"/>
+      <c r="AB5" s="29"/>
+      <c r="AC5" s="29"/>
       <c r="AD5" s="0" t="s">
         <v>375</v>
       </c>
@@ -5945,51 +5945,51 @@
       </c>
     </row>
     <row r="6" spans="1:31" customHeight="1">
-      <c r="A6" s="32" t="n">
-        <v>6</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="32" t="n">
-        <v>110</v>
-      </c>
-      <c r="D6" s="32">
+      <c r="A6" s="27" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="27" t="n">
+        <v>165</v>
+      </c>
+      <c r="D6" s="27">
         <f>COUNTA(F6:AC6)</f>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="27">
         <f>C6*D6</f>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="29" t="s">
         <v>357</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="29" t="s">
         <v>358</v>
       </c>
-      <c r="H6" s="34" t="s">
+      <c r="H6" s="29" t="s">
         <v>357</v>
       </c>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="34"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="34"/>
-      <c r="X6" s="34"/>
-      <c r="Y6" s="34"/>
-      <c r="Z6" s="34"/>
-      <c r="AA6" s="34"/>
-      <c r="AB6" s="34"/>
-      <c r="AC6" s="34"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="29"/>
+      <c r="AA6" s="29"/>
+      <c r="AB6" s="29"/>
+      <c r="AC6" s="29"/>
       <c r="AD6" s="0" t="s">
         <v>376</v>
       </c>
@@ -5998,45 +5998,45 @@
       </c>
     </row>
     <row r="7" spans="1:31" customHeight="1">
-      <c r="A7" s="32" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="32" t="n">
-        <v>100</v>
-      </c>
-      <c r="D7" s="32">
+      <c r="A7" s="27" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="27" t="n">
+        <v>170</v>
+      </c>
+      <c r="D7" s="27">
         <f>COUNTA(F7:AC7)</f>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="27">
         <f>C7*D7</f>
       </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="34"/>
-      <c r="U7" s="34"/>
-      <c r="V7" s="34"/>
-      <c r="W7" s="34"/>
-      <c r="X7" s="34"/>
-      <c r="Y7" s="34"/>
-      <c r="Z7" s="34"/>
-      <c r="AA7" s="34"/>
-      <c r="AB7" s="34"/>
-      <c r="AC7" s="34"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="29"/>
+      <c r="AA7" s="29"/>
+      <c r="AB7" s="29"/>
+      <c r="AC7" s="29"/>
       <c r="AD7" s="0" t="s">
         <v>377</v>
       </c>
@@ -6045,45 +6045,45 @@
       </c>
     </row>
     <row r="8" spans="1:31" customHeight="1">
-      <c r="A8" s="32" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="32" t="n">
-        <v>90</v>
-      </c>
-      <c r="D8" s="32">
+      <c r="A8" s="27" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="27" t="n">
+        <v>170</v>
+      </c>
+      <c r="D8" s="27">
         <f>COUNTA(F8:AC8)</f>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="27">
         <f>C8*D8</f>
       </c>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="34"/>
-      <c r="U8" s="34"/>
-      <c r="V8" s="34"/>
-      <c r="W8" s="34"/>
-      <c r="X8" s="34"/>
-      <c r="Y8" s="34"/>
-      <c r="Z8" s="34"/>
-      <c r="AA8" s="34"/>
-      <c r="AB8" s="34"/>
-      <c r="AC8" s="34"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="29"/>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="29"/>
+      <c r="AA8" s="29"/>
+      <c r="AB8" s="29"/>
+      <c r="AC8" s="29"/>
       <c r="AD8" s="0" t="s">
         <v>378</v>
       </c>
@@ -6092,45 +6092,45 @@
       </c>
     </row>
     <row r="9" spans="1:31" customHeight="1">
-      <c r="A9" s="32" t="n">
-        <v>6</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="32" t="n">
-        <v>80</v>
-      </c>
-      <c r="D9" s="32">
+      <c r="A9" s="27" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="27" t="n">
+        <v>175</v>
+      </c>
+      <c r="D9" s="27">
         <f>COUNTA(F9:AC9)</f>
       </c>
-      <c r="E9" s="32">
+      <c r="E9" s="27">
         <f>C9*D9</f>
       </c>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="34"/>
-      <c r="U9" s="34"/>
-      <c r="V9" s="34"/>
-      <c r="W9" s="34"/>
-      <c r="X9" s="34"/>
-      <c r="Y9" s="34"/>
-      <c r="Z9" s="34"/>
-      <c r="AA9" s="34"/>
-      <c r="AB9" s="34"/>
-      <c r="AC9" s="34"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="29"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="29"/>
+      <c r="AA9" s="29"/>
+      <c r="AB9" s="29"/>
+      <c r="AC9" s="29"/>
       <c r="AD9" s="0" t="s">
         <v>379</v>
       </c>
@@ -6143,10 +6143,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>48</v>
+        <v>359</v>
       </c>
       <c r="C10" s="32" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="D10" s="32">
         <f>COUNTA(F10:AC10)</f>
@@ -6190,10 +6190,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C11" s="32" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D11" s="32">
         <f>COUNTA(F11:AC11)</f>
@@ -6237,7 +6237,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C12" s="32" t="n">
         <v>70</v>
@@ -6284,7 +6284,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C13" s="32" t="n">
         <v>70</v>
@@ -6331,10 +6331,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C14" s="32" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D14" s="32">
         <f>COUNTA(F14:AC14)</f>
@@ -6378,10 +6378,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>363</v>
+        <v>43</v>
       </c>
       <c r="C15" s="32" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="D15" s="32">
         <f>COUNTA(F15:AC15)</f>
@@ -6421,45 +6421,45 @@
       </c>
     </row>
     <row r="16" spans="1:31" customHeight="1">
-      <c r="A16" s="27" t="n">
-        <v>7</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>364</v>
-      </c>
-      <c r="C16" s="27" t="n">
-        <v>50</v>
-      </c>
-      <c r="D16" s="27">
+      <c r="A16" s="32" t="n">
+        <v>6</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="32" t="n">
+        <v>80</v>
+      </c>
+      <c r="D16" s="32">
         <f>COUNTA(F16:AC16)</f>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="32">
         <f>C16*D16</f>
       </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="29"/>
-      <c r="U16" s="29"/>
-      <c r="V16" s="29"/>
-      <c r="W16" s="29"/>
-      <c r="X16" s="29"/>
-      <c r="Y16" s="29"/>
-      <c r="Z16" s="29"/>
-      <c r="AA16" s="29"/>
-      <c r="AB16" s="29"/>
-      <c r="AC16" s="29"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="34"/>
+      <c r="T16" s="34"/>
+      <c r="U16" s="34"/>
+      <c r="V16" s="34"/>
+      <c r="W16" s="34"/>
+      <c r="X16" s="34"/>
+      <c r="Y16" s="34"/>
+      <c r="Z16" s="34"/>
+      <c r="AA16" s="34"/>
+      <c r="AB16" s="34"/>
+      <c r="AC16" s="34"/>
       <c r="AD16" s="0" t="s">
         <v>386</v>
       </c>
@@ -6468,45 +6468,45 @@
       </c>
     </row>
     <row r="17" spans="1:31" customHeight="1">
-      <c r="A17" s="27" t="n">
-        <v>7</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>365</v>
-      </c>
-      <c r="C17" s="27" t="n">
-        <v>50</v>
-      </c>
-      <c r="D17" s="27">
+      <c r="A17" s="32" t="n">
+        <v>6</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="32" t="n">
+        <v>90</v>
+      </c>
+      <c r="D17" s="32">
         <f>COUNTA(F17:AC17)</f>
       </c>
-      <c r="E17" s="27">
+      <c r="E17" s="32">
         <f>C17*D17</f>
       </c>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
-      <c r="T17" s="29"/>
-      <c r="U17" s="29"/>
-      <c r="V17" s="29"/>
-      <c r="W17" s="29"/>
-      <c r="X17" s="29"/>
-      <c r="Y17" s="29"/>
-      <c r="Z17" s="29"/>
-      <c r="AA17" s="29"/>
-      <c r="AB17" s="29"/>
-      <c r="AC17" s="29"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="34"/>
+      <c r="U17" s="34"/>
+      <c r="V17" s="34"/>
+      <c r="W17" s="34"/>
+      <c r="X17" s="34"/>
+      <c r="Y17" s="34"/>
+      <c r="Z17" s="34"/>
+      <c r="AA17" s="34"/>
+      <c r="AB17" s="34"/>
+      <c r="AC17" s="34"/>
       <c r="AD17" s="0" t="s">
         <v>387</v>
       </c>
@@ -6515,45 +6515,45 @@
       </c>
     </row>
     <row r="18" spans="1:31" customHeight="1">
-      <c r="A18" s="27" t="n">
-        <v>7</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>366</v>
-      </c>
-      <c r="C18" s="27" t="n">
-        <v>50</v>
-      </c>
-      <c r="D18" s="27">
+      <c r="A18" s="32" t="n">
+        <v>6</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="32" t="n">
+        <v>100</v>
+      </c>
+      <c r="D18" s="32">
         <f>COUNTA(F18:AC18)</f>
       </c>
-      <c r="E18" s="27">
+      <c r="E18" s="32">
         <f>C18*D18</f>
       </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="29"/>
-      <c r="T18" s="29"/>
-      <c r="U18" s="29"/>
-      <c r="V18" s="29"/>
-      <c r="W18" s="29"/>
-      <c r="X18" s="29"/>
-      <c r="Y18" s="29"/>
-      <c r="Z18" s="29"/>
-      <c r="AA18" s="29"/>
-      <c r="AB18" s="29"/>
-      <c r="AC18" s="29"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="34"/>
+      <c r="V18" s="34"/>
+      <c r="W18" s="34"/>
+      <c r="X18" s="34"/>
+      <c r="Y18" s="34"/>
+      <c r="Z18" s="34"/>
+      <c r="AA18" s="34"/>
+      <c r="AB18" s="34"/>
+      <c r="AC18" s="34"/>
       <c r="AD18" s="0" t="s">
         <v>388</v>
       </c>
@@ -6562,45 +6562,45 @@
       </c>
     </row>
     <row r="19" spans="1:31" customHeight="1">
-      <c r="A19" s="27" t="n">
-        <v>7</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>367</v>
-      </c>
-      <c r="C19" s="27" t="n">
-        <v>40</v>
-      </c>
-      <c r="D19" s="27">
+      <c r="A19" s="32" t="n">
+        <v>6</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="32" t="n">
+        <v>110</v>
+      </c>
+      <c r="D19" s="32">
         <f>COUNTA(F19:AC19)</f>
       </c>
-      <c r="E19" s="27">
+      <c r="E19" s="32">
         <f>C19*D19</f>
       </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="29"/>
-      <c r="V19" s="29"/>
-      <c r="W19" s="29"/>
-      <c r="X19" s="29"/>
-      <c r="Y19" s="29"/>
-      <c r="Z19" s="29"/>
-      <c r="AA19" s="29"/>
-      <c r="AB19" s="29"/>
-      <c r="AC19" s="29"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="34"/>
+      <c r="U19" s="34"/>
+      <c r="V19" s="34"/>
+      <c r="W19" s="34"/>
+      <c r="X19" s="34"/>
+      <c r="Y19" s="34"/>
+      <c r="Z19" s="34"/>
+      <c r="AA19" s="34"/>
+      <c r="AB19" s="34"/>
+      <c r="AC19" s="34"/>
       <c r="AD19" s="0" t="s">
         <v>389</v>
       </c>
@@ -6609,45 +6609,45 @@
       </c>
     </row>
     <row r="20" spans="1:31" customHeight="1">
-      <c r="A20" s="27" t="n">
-        <v>7</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>368</v>
-      </c>
-      <c r="C20" s="27" t="n">
-        <v>40</v>
-      </c>
-      <c r="D20" s="27">
+      <c r="A20" s="32" t="n">
+        <v>6</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="32" t="n">
+        <v>160</v>
+      </c>
+      <c r="D20" s="32">
         <f>COUNTA(F20:AC20)</f>
       </c>
-      <c r="E20" s="27">
+      <c r="E20" s="32">
         <f>C20*D20</f>
       </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
-      <c r="T20" s="29"/>
-      <c r="U20" s="29"/>
-      <c r="V20" s="29"/>
-      <c r="W20" s="29"/>
-      <c r="X20" s="29"/>
-      <c r="Y20" s="29"/>
-      <c r="Z20" s="29"/>
-      <c r="AA20" s="29"/>
-      <c r="AB20" s="29"/>
-      <c r="AC20" s="29"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="34"/>
+      <c r="T20" s="34"/>
+      <c r="U20" s="34"/>
+      <c r="V20" s="34"/>
+      <c r="W20" s="34"/>
+      <c r="X20" s="34"/>
+      <c r="Y20" s="34"/>
+      <c r="Z20" s="34"/>
+      <c r="AA20" s="34"/>
+      <c r="AB20" s="34"/>
+      <c r="AC20" s="34"/>
       <c r="AD20" s="0" t="s">
         <v>390</v>
       </c>
@@ -6660,7 +6660,7 @@
         <v>7</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C21" s="27" t="n">
         <v>40</v>
@@ -6707,7 +6707,7 @@
         <v>7</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C22" s="27" t="n">
         <v>40</v>
@@ -6749,7 +6749,46 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="23" spans="30:31" customHeight="1">
+    <row r="23" spans="1:31" customHeight="1">
+      <c r="A23" s="27" t="n">
+        <v>7</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="C23" s="27" t="n">
+        <v>40</v>
+      </c>
+      <c r="D23" s="27">
+        <f>COUNTA(F23:AC23)</f>
+      </c>
+      <c r="E23" s="27">
+        <f>C23*D23</f>
+      </c>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="29"/>
+      <c r="X23" s="29"/>
+      <c r="Y23" s="29"/>
+      <c r="Z23" s="29"/>
+      <c r="AA23" s="29"/>
+      <c r="AB23" s="29"/>
+      <c r="AC23" s="29"/>
       <c r="AD23" s="0" t="s">
         <v>393</v>
       </c>
@@ -6757,7 +6796,46 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="24" spans="30:31" customHeight="1">
+    <row r="24" spans="1:31" customHeight="1">
+      <c r="A24" s="27" t="n">
+        <v>7</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="C24" s="27" t="n">
+        <v>40</v>
+      </c>
+      <c r="D24" s="27">
+        <f>COUNTA(F24:AC24)</f>
+      </c>
+      <c r="E24" s="27">
+        <f>C24*D24</f>
+      </c>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="29"/>
+      <c r="X24" s="29"/>
+      <c r="Y24" s="29"/>
+      <c r="Z24" s="29"/>
+      <c r="AA24" s="29"/>
+      <c r="AB24" s="29"/>
+      <c r="AC24" s="29"/>
       <c r="AD24" s="0" t="s">
         <v>394</v>
       </c>
@@ -6765,7 +6843,46 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="25" spans="30:31" customHeight="1">
+    <row r="25" spans="1:31" customHeight="1">
+      <c r="A25" s="27" t="n">
+        <v>7</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="C25" s="27" t="n">
+        <v>50</v>
+      </c>
+      <c r="D25" s="27">
+        <f>COUNTA(F25:AC25)</f>
+      </c>
+      <c r="E25" s="27">
+        <f>C25*D25</f>
+      </c>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="29"/>
+      <c r="V25" s="29"/>
+      <c r="W25" s="29"/>
+      <c r="X25" s="29"/>
+      <c r="Y25" s="29"/>
+      <c r="Z25" s="29"/>
+      <c r="AA25" s="29"/>
+      <c r="AB25" s="29"/>
+      <c r="AC25" s="29"/>
       <c r="AD25" s="0" t="s">
         <v>395</v>
       </c>
@@ -6773,7 +6890,46 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="26" spans="30:31" customHeight="1">
+    <row r="26" spans="1:31" customHeight="1">
+      <c r="A26" s="27" t="n">
+        <v>7</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="C26" s="27" t="n">
+        <v>50</v>
+      </c>
+      <c r="D26" s="27">
+        <f>COUNTA(F26:AC26)</f>
+      </c>
+      <c r="E26" s="27">
+        <f>C26*D26</f>
+      </c>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="29"/>
+      <c r="V26" s="29"/>
+      <c r="W26" s="29"/>
+      <c r="X26" s="29"/>
+      <c r="Y26" s="29"/>
+      <c r="Z26" s="29"/>
+      <c r="AA26" s="29"/>
+      <c r="AB26" s="29"/>
+      <c r="AC26" s="29"/>
       <c r="AD26" s="0" t="s">
         <v>396</v>
       </c>
@@ -6781,7 +6937,46 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="27" spans="30:31" customHeight="1">
+    <row r="27" spans="1:31" customHeight="1">
+      <c r="A27" s="27" t="n">
+        <v>7</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>370</v>
+      </c>
+      <c r="C27" s="27" t="n">
+        <v>50</v>
+      </c>
+      <c r="D27" s="27">
+        <f>COUNTA(F27:AC27)</f>
+      </c>
+      <c r="E27" s="27">
+        <f>C27*D27</f>
+      </c>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="29"/>
+      <c r="Y27" s="29"/>
+      <c r="Z27" s="29"/>
+      <c r="AA27" s="29"/>
+      <c r="AB27" s="29"/>
+      <c r="AC27" s="29"/>
       <c r="AD27" s="0" t="s">
         <v>397</v>
       </c>

--- a/public/port-battle.xlsx
+++ b/public/port-battle.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="445">
   <si>
     <t>Port battle calculator by Felix Victor</t>
   </si>
@@ -53,12 +53,12 @@
     <t>Victory</t>
   </si>
   <si>
+    <t>L’Océan</t>
+  </si>
+  <si>
     <t>Santisima</t>
   </si>
   <si>
-    <t>L’Océan</t>
-  </si>
-  <si>
     <t>St. Pavel</t>
   </si>
   <si>
@@ -68,1063 +68,1066 @@
     <t>Bucentaure</t>
   </si>
   <si>
+    <t>Ru00E4ttvisan</t>
+  </si>
+  <si>
+    <t>Wasa</t>
+  </si>
+  <si>
     <t>3rd Rate</t>
   </si>
   <si>
     <t>Bellona</t>
   </si>
   <si>
-    <t>Wasa</t>
-  </si>
-  <si>
     <t>Ingermanland</t>
   </si>
   <si>
+    <t>Wapen von Hamburg</t>
+  </si>
+  <si>
     <t>Agamemnon</t>
   </si>
   <si>
-    <t>Wapen von Hamburg</t>
-  </si>
-  <si>
     <t>Constitution</t>
   </si>
   <si>
-    <t>Constitution Classic</t>
+    <t>United States</t>
   </si>
   <si>
     <t>Cerberus</t>
   </si>
   <si>
+    <t>Hercules</t>
+  </si>
+  <si>
+    <t>Le Gros Ventre</t>
+  </si>
+  <si>
+    <t>Renommee</t>
+  </si>
+  <si>
+    <t>Surprise</t>
+  </si>
+  <si>
     <t>Indiaman</t>
   </si>
   <si>
-    <t>Le Gros Ventre</t>
-  </si>
-  <si>
-    <t>Surprise</t>
-  </si>
-  <si>
-    <t>Hercules</t>
-  </si>
-  <si>
-    <t>Renommee</t>
+    <t>Le Gros Ventre Refit</t>
+  </si>
+  <si>
+    <t>Frigate</t>
   </si>
   <si>
     <t>Belle Poule</t>
   </si>
   <si>
+    <t>Pirate Frigate</t>
+  </si>
+  <si>
     <t>Essex</t>
   </si>
   <si>
-    <t>Frigate</t>
+    <t>Santa Cecilia</t>
   </si>
   <si>
     <t>L’Hermione</t>
   </si>
   <si>
-    <t>Santa Cecilia</t>
-  </si>
-  <si>
     <t>Diana</t>
   </si>
   <si>
+    <t>Trincomalee</t>
+  </si>
+  <si>
+    <t>Endymion</t>
+  </si>
+  <si>
     <t>Indefatigable</t>
   </si>
   <si>
-    <t>Le Gros Ventre Refit</t>
-  </si>
-  <si>
-    <t>Pirate Frigate</t>
-  </si>
-  <si>
-    <t>Trincomalee</t>
-  </si>
-  <si>
-    <t>Endymion</t>
-  </si>
-  <si>
     <t>Mortar Brig</t>
   </si>
   <si>
     <t>Niagara</t>
   </si>
   <si>
+    <t>Le Requin</t>
+  </si>
+  <si>
+    <t>Pandora</t>
+  </si>
+  <si>
     <t>Rattlesnake Heavy</t>
   </si>
   <si>
-    <t>Pandora</t>
+    <t>Aguadilla</t>
+  </si>
+  <si>
+    <t>All Saints</t>
+  </si>
+  <si>
+    <t>Almeria</t>
+  </si>
+  <si>
+    <t>Almirante</t>
+  </si>
+  <si>
+    <t>Alvarado</t>
+  </si>
+  <si>
+    <t>Amalienborg</t>
+  </si>
+  <si>
+    <t>Ambergrease Caye</t>
+  </si>
+  <si>
+    <t>Apalachicola</t>
+  </si>
+  <si>
+    <t>Aransas</t>
+  </si>
+  <si>
+    <t>Arecibo</t>
+  </si>
+  <si>
+    <t>Atchafalaya</t>
+  </si>
+  <si>
+    <t>Atwood</t>
+  </si>
+  <si>
+    <t>Aves</t>
+  </si>
+  <si>
+    <t>Ayamonte</t>
+  </si>
+  <si>
+    <t>Ays</t>
+  </si>
+  <si>
+    <t>Azua</t>
+  </si>
+  <si>
+    <t>Bahía Escocesa</t>
+  </si>
+  <si>
+    <t>Bahía Honda</t>
+  </si>
+  <si>
+    <t>Baja</t>
+  </si>
+  <si>
+    <t>Baní</t>
+  </si>
+  <si>
+    <t>Baracoa</t>
+  </si>
+  <si>
+    <t>Barahona</t>
+  </si>
+  <si>
+    <t>Barataria</t>
+  </si>
+  <si>
+    <t>Barranquilla</t>
+  </si>
+  <si>
+    <t>Basse-Terre</t>
+  </si>
+  <si>
+    <t>Basseterre Town</t>
+  </si>
+  <si>
+    <t>Batabanó</t>
+  </si>
+  <si>
+    <t>Beaufort</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Bensalem</t>
+  </si>
+  <si>
+    <t>Bernal</t>
+  </si>
+  <si>
+    <t>Biloxi</t>
+  </si>
+  <si>
+    <t>Black River</t>
+  </si>
+  <si>
+    <t>Bluefields</t>
+  </si>
+  <si>
+    <t>Bonacca</t>
+  </si>
+  <si>
+    <t>Brangman’s Bluff</t>
+  </si>
+  <si>
+    <t>Bridgetown</t>
+  </si>
+  <si>
+    <t>Brunswick</t>
+  </si>
+  <si>
+    <t>Buena Vista</t>
+  </si>
+  <si>
+    <t>Cabo Cañaveral</t>
+  </si>
+  <si>
+    <t>Cabo Rojo</t>
+  </si>
+  <si>
+    <t>Cabo de la Vela</t>
+  </si>
+  <si>
+    <t>Calcasieu</t>
+  </si>
+  <si>
+    <t>Calobelo</t>
+  </si>
+  <si>
+    <t>Camp du Roy</t>
+  </si>
+  <si>
+    <t>Campeche</t>
+  </si>
+  <si>
+    <t>Canalete</t>
+  </si>
+  <si>
+    <t>Cap-Français</t>
+  </si>
+  <si>
+    <t>Caracas</t>
+  </si>
+  <si>
+    <t>Cariaco</t>
+  </si>
+  <si>
+    <t>Carlisle</t>
+  </si>
+  <si>
+    <t>Carriacou</t>
+  </si>
+  <si>
+    <t>Cartagena de Indias</t>
+  </si>
+  <si>
+    <t>Carúpano</t>
+  </si>
+  <si>
+    <t>Casigua</t>
+  </si>
+  <si>
+    <t>Castries</t>
+  </si>
+  <si>
+    <t>Cayman Brac</t>
+  </si>
+  <si>
+    <t>Cayo Biscayno</t>
+  </si>
+  <si>
+    <t>Cayo Romano</t>
+  </si>
+  <si>
+    <t>Cayo de Sal</t>
+  </si>
+  <si>
+    <t>Cayo del Anclote</t>
+  </si>
+  <si>
+    <t>Caño Araguabisi</t>
+  </si>
+  <si>
+    <t>Caño Araguao</t>
+  </si>
+  <si>
+    <t>Caño Macareo</t>
+  </si>
+  <si>
+    <t>Chagres</t>
+  </si>
+  <si>
+    <t>Champotón</t>
+  </si>
+  <si>
+    <t>Charles Town</t>
+  </si>
+  <si>
+    <t>Charleston</t>
+  </si>
+  <si>
+    <t>Christiansted</t>
+  </si>
+  <si>
+    <t>Codrington</t>
+  </si>
+  <si>
+    <t>Cojoro</t>
+  </si>
+  <si>
+    <t>Concepción</t>
+  </si>
+  <si>
+    <t>Congrios</t>
+  </si>
+  <si>
+    <t>Conil</t>
+  </si>
+  <si>
+    <t>Constance</t>
+  </si>
+  <si>
+    <t>Conttoy</t>
+  </si>
+  <si>
+    <t>Coquibacoa</t>
+  </si>
+  <si>
+    <t>Coral Bay</t>
+  </si>
+  <si>
+    <t>Coro</t>
+  </si>
+  <si>
+    <t>Corrientes</t>
+  </si>
+  <si>
+    <t>Cul-de-Sac</t>
+  </si>
+  <si>
+    <t>Cumaná</t>
+  </si>
+  <si>
+    <t>Cuyo</t>
+  </si>
+  <si>
+    <t>Dariena</t>
+  </si>
+  <si>
+    <t>Deshaies</t>
+  </si>
+  <si>
+    <t>El Rancho</t>
+  </si>
+  <si>
+    <t>El Soco</t>
+  </si>
+  <si>
+    <t>El Toco</t>
+  </si>
+  <si>
+    <t>Encontrados</t>
+  </si>
+  <si>
+    <t>English Harbour</t>
+  </si>
+  <si>
+    <t>Espíritu Santo</t>
+  </si>
+  <si>
+    <t>Esteros</t>
+  </si>
+  <si>
+    <t>Fajardo</t>
+  </si>
+  <si>
+    <t>Flatts</t>
+  </si>
+  <si>
+    <t>Fort Baai</t>
+  </si>
+  <si>
+    <t>Fort Oranje</t>
+  </si>
+  <si>
+    <t>Fort Zoutman</t>
+  </si>
+  <si>
+    <t>Fort-Dauphin</t>
+  </si>
+  <si>
+    <t>Fort-Royal</t>
+  </si>
+  <si>
+    <t>Frederiksted</t>
+  </si>
+  <si>
+    <t>Galdonas</t>
+  </si>
+  <si>
+    <t>Gasparilla</t>
+  </si>
+  <si>
+    <t>George Town</t>
+  </si>
+  <si>
+    <t>Georgetown</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>Gracias a Dios</t>
+  </si>
+  <si>
+    <t>Grand Anse</t>
+  </si>
+  <si>
+    <t>Grand Turk</t>
+  </si>
+  <si>
+    <t>Great Corn</t>
+  </si>
+  <si>
+    <t>Great River</t>
+  </si>
+  <si>
+    <t>Grindstone</t>
+  </si>
+  <si>
+    <t>Guamá Sevilla</t>
+  </si>
+  <si>
+    <t>Guayaguayare</t>
+  </si>
+  <si>
+    <t>Guayama</t>
+  </si>
+  <si>
+    <t>Guibara</t>
+  </si>
+  <si>
+    <t>Gustavia</t>
+  </si>
+  <si>
+    <t>Guánica</t>
+  </si>
+  <si>
+    <t>Güiria</t>
+  </si>
+  <si>
+    <t>Hat Island</t>
+  </si>
+  <si>
+    <t>Higüey</t>
+  </si>
+  <si>
+    <t>Islamorada</t>
+  </si>
+  <si>
+    <t>Island Harbour</t>
+  </si>
+  <si>
+    <t>Jacmel</t>
+  </si>
+  <si>
+    <t>Jagua</t>
+  </si>
+  <si>
+    <t>Jobe</t>
+  </si>
+  <si>
+    <t>Jérémie</t>
+  </si>
+  <si>
+    <t>Key West</t>
+  </si>
+  <si>
+    <t>Kidd’s Harbour</t>
+  </si>
+  <si>
+    <t>Kingston / Port Royal</t>
+  </si>
+  <si>
+    <t>Kingstown</t>
+  </si>
+  <si>
+    <t>La Blanquilla</t>
+  </si>
+  <si>
+    <t>La Désirade</t>
+  </si>
+  <si>
+    <t>La Habana</t>
+  </si>
+  <si>
+    <t>La Isabela</t>
+  </si>
+  <si>
+    <t>La Mona</t>
+  </si>
+  <si>
+    <t>La Moussette</t>
+  </si>
+  <si>
+    <t>La Navasse</t>
+  </si>
+  <si>
+    <t>La Orchila</t>
+  </si>
+  <si>
+    <t>La Tortue</t>
+  </si>
+  <si>
+    <t>La Trinité</t>
+  </si>
+  <si>
+    <t>Lagunillas</t>
+  </si>
+  <si>
+    <t>Las Aves</t>
+  </si>
+  <si>
+    <t>Las Tortugas</t>
+  </si>
+  <si>
+    <t>Le Moule</t>
+  </si>
+  <si>
+    <t>Les Cayes</t>
+  </si>
+  <si>
+    <t>Les Gonaïves</t>
+  </si>
+  <si>
+    <t>Little Cayman</t>
+  </si>
+  <si>
+    <t>Little Inagua</t>
+  </si>
+  <si>
+    <t>Little River</t>
+  </si>
+  <si>
+    <t>Lorimers</t>
+  </si>
+  <si>
+    <t>Léogane</t>
+  </si>
+  <si>
+    <t>Macanao</t>
+  </si>
+  <si>
+    <t>Macao</t>
+  </si>
+  <si>
+    <t>Manataca</t>
+  </si>
+  <si>
+    <t>Mandinga</t>
+  </si>
+  <si>
+    <t>Mantua</t>
+  </si>
+  <si>
+    <t>Manzanilla</t>
+  </si>
+  <si>
+    <t>Maracaibo</t>
+  </si>
+  <si>
+    <t>Mariel</t>
+  </si>
+  <si>
+    <t>Marigot</t>
+  </si>
+  <si>
+    <t>Marin</t>
+  </si>
+  <si>
+    <t>Matanzas</t>
+  </si>
+  <si>
+    <t>Matina</t>
+  </si>
+  <si>
+    <t>Misteriosa</t>
+  </si>
+  <si>
+    <t>Mitara</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Monte Cristi</t>
+  </si>
+  <si>
+    <t>Montego Bay</t>
+  </si>
+  <si>
+    <t>Morro Chico</t>
+  </si>
+  <si>
+    <t>Mortimer Town</t>
+  </si>
+  <si>
+    <t>Mugeres</t>
+  </si>
+  <si>
+    <t>Naparima</t>
+  </si>
+  <si>
+    <t>New Edinburgh</t>
+  </si>
+  <si>
+    <t>New Smyrna</t>
+  </si>
+  <si>
+    <t>Nippes</t>
+  </si>
+  <si>
+    <t>North Inlet</t>
+  </si>
+  <si>
+    <t>Nouvelle-Orléans</t>
+  </si>
+  <si>
+    <t>Nueva Barcelona</t>
+  </si>
+  <si>
+    <t>Nuevitas</t>
+  </si>
+  <si>
+    <t>Ocean Bight</t>
+  </si>
+  <si>
+    <t>Old Providence</t>
+  </si>
+  <si>
+    <t>Omoa</t>
+  </si>
+  <si>
+    <t>Oranjestad</t>
+  </si>
+  <si>
+    <t>Pampatar</t>
+  </si>
+  <si>
+    <t>Parrot Cay</t>
+  </si>
+  <si>
+    <t>Pasaje</t>
+  </si>
+  <si>
+    <t>Pedernales</t>
+  </si>
+  <si>
+    <t>Penzacola</t>
+  </si>
+  <si>
+    <t>Perijá</t>
+  </si>
+  <si>
+    <t>Philipsburg</t>
+  </si>
+  <si>
+    <t>Pinar del Río</t>
+  </si>
+  <si>
+    <t>Pitt’s Town</t>
+  </si>
+  <si>
+    <t>Placentia</t>
+  </si>
+  <si>
+    <t>Placer</t>
+  </si>
+  <si>
+    <t>Playón</t>
+  </si>
+  <si>
+    <t>Plymouth</t>
+  </si>
+  <si>
+    <t>Pointe-à-Pitre</t>
+  </si>
+  <si>
+    <t>Ponce</t>
+  </si>
+  <si>
+    <t>Port Antonio</t>
+  </si>
+  <si>
+    <t>Port Morant</t>
+  </si>
+  <si>
+    <t>Port-Louis</t>
+  </si>
+  <si>
+    <t>Port-au-Prince</t>
+  </si>
+  <si>
+    <t>Port-de-Paix</t>
+  </si>
+  <si>
+    <t>Portillo</t>
+  </si>
+  <si>
+    <t>Portobelo</t>
+  </si>
+  <si>
+    <t>Prinzapolka</t>
+  </si>
+  <si>
+    <t>Puerto Cabello</t>
+  </si>
+  <si>
+    <t>Puerto Escondido</t>
+  </si>
+  <si>
+    <t>Puerto Plata</t>
+  </si>
+  <si>
+    <t>Puerto Real</t>
+  </si>
+  <si>
+    <t>Puerto de España</t>
+  </si>
+  <si>
+    <t>Puerto de Nipe</t>
+  </si>
+  <si>
+    <t>Puerto del Padre</t>
+  </si>
+  <si>
+    <t>Píritu</t>
+  </si>
+  <si>
+    <t>Remedios</t>
+  </si>
+  <si>
+    <t>Rincón</t>
+  </si>
+  <si>
+    <t>Road Town</t>
+  </si>
+  <si>
+    <t>Robras</t>
+  </si>
+  <si>
+    <t>Rosaly</t>
+  </si>
+  <si>
+    <t>Roseau</t>
+  </si>
+  <si>
+    <t>Ruatan</t>
+  </si>
+  <si>
+    <t>Río Chico</t>
+  </si>
+  <si>
+    <t>Río Seco</t>
+  </si>
+  <si>
+    <t>Río Tocuyo</t>
+  </si>
+  <si>
+    <t>Río de la Hacha</t>
+  </si>
+  <si>
+    <t>Sabina</t>
+  </si>
+  <si>
+    <t>Saint Ann</t>
+  </si>
+  <si>
+    <t>Saint George</t>
+  </si>
+  <si>
+    <t>Saint George’s Town</t>
+  </si>
+  <si>
+    <t>Saint John’s</t>
+  </si>
+  <si>
+    <t>Saint Joseph</t>
+  </si>
+  <si>
+    <t>Saint Marys</t>
+  </si>
+  <si>
+    <t>Saint-François</t>
+  </si>
+  <si>
+    <t>Saint-Louis</t>
+  </si>
+  <si>
+    <t>Saint-Malo</t>
+  </si>
+  <si>
+    <t>Saint-Marc</t>
+  </si>
+  <si>
+    <t>Saint-Nicolas</t>
+  </si>
+  <si>
+    <t>Saint-Pierre</t>
+  </si>
+  <si>
+    <t>Salamanca</t>
+  </si>
+  <si>
+    <t>Sale-Trou</t>
+  </si>
+  <si>
+    <t>Salinas</t>
+  </si>
+  <si>
+    <t>Samaná</t>
+  </si>
+  <si>
+    <t>San Agustín</t>
+  </si>
+  <si>
+    <t>San Andrés</t>
+  </si>
+  <si>
+    <t>San José</t>
+  </si>
+  <si>
+    <t>San Juan</t>
+  </si>
+  <si>
+    <t>San Juan del Norte</t>
+  </si>
+  <si>
+    <t>San Lazaro</t>
+  </si>
+  <si>
+    <t>San Luis</t>
+  </si>
+  <si>
+    <t>San Mateo</t>
+  </si>
+  <si>
+    <t>San Sebastian</t>
+  </si>
+  <si>
+    <t>San Timoteo</t>
+  </si>
+  <si>
+    <t>Sancti Spíritus</t>
+  </si>
+  <si>
+    <t>Sandy Bay</t>
+  </si>
+  <si>
+    <t>Sandy Hill</t>
+  </si>
+  <si>
+    <t>Sant Iago</t>
+  </si>
+  <si>
+    <t>Santa Ana</t>
+  </si>
+  <si>
+    <t>Santa Cruz</t>
+  </si>
+  <si>
+    <t>Santa Marta</t>
+  </si>
+  <si>
+    <t>Santa María</t>
+  </si>
+  <si>
+    <t>Santa Rosa</t>
+  </si>
+  <si>
+    <t>Santanillas</t>
+  </si>
+  <si>
+    <t>Santo Domingo</t>
+  </si>
+  <si>
+    <t>Santo Tomás</t>
+  </si>
+  <si>
+    <t>Santo Tomé de Guayana</t>
+  </si>
+  <si>
+    <t>Sarazota</t>
+  </si>
+  <si>
+    <t>Savanna la Mar</t>
+  </si>
+  <si>
+    <t>Savannah</t>
+  </si>
+  <si>
+    <t>Scarborough</t>
+  </si>
+  <si>
+    <t>Selam</t>
+  </si>
+  <si>
+    <t>Sinamaica</t>
+  </si>
+  <si>
+    <t>Sisal</t>
+  </si>
+  <si>
+    <t>Somerset</t>
+  </si>
+  <si>
+    <t>Soto La Marina</t>
+  </si>
+  <si>
+    <t>Spanish Town</t>
+  </si>
+  <si>
+    <t>Sunbury</t>
+  </si>
+  <si>
+    <t>Swannsborough</t>
+  </si>
+  <si>
+    <t>Talamanca</t>
+  </si>
+  <si>
+    <t>Tamiagua</t>
+  </si>
+  <si>
+    <t>Tampa</t>
+  </si>
+  <si>
+    <t>Tampico</t>
+  </si>
+  <si>
+    <t>Tantun Cuzamil</t>
+  </si>
+  <si>
+    <t>Terre-de-Bas</t>
+  </si>
+  <si>
+    <t>Terrebonne</t>
+  </si>
+  <si>
+    <t>Tiburon</t>
+  </si>
+  <si>
+    <t>Tolú</t>
+  </si>
+  <si>
+    <t>Tordo</t>
+  </si>
+  <si>
+    <t>Trinidad</t>
+  </si>
+  <si>
+    <t>Triunfo de la Cruz</t>
+  </si>
+  <si>
+    <t>Truxillo</t>
+  </si>
+  <si>
+    <t>Tulum</t>
+  </si>
+  <si>
+    <t>Tumbado</t>
+  </si>
+  <si>
+    <t>Turneffe</t>
+  </si>
+  <si>
+    <t>Tuspan</t>
+  </si>
+  <si>
+    <t>Vera Cruz</t>
+  </si>
+  <si>
+    <t>Vermiou</t>
+  </si>
+  <si>
+    <t>Victoria</t>
+  </si>
+  <si>
+    <t>Vieques</t>
+  </si>
+  <si>
+    <t>Vieux-Fort</t>
+  </si>
+  <si>
+    <t>Wantlands Ferry</t>
+  </si>
+  <si>
+    <t>Willemstad</t>
+  </si>
+  <si>
+    <t>Wilmington</t>
+  </si>
+  <si>
+    <t>Xpu Ha</t>
+  </si>
+  <si>
+    <t>Yaguaraparo</t>
+  </si>
+  <si>
+    <t>Ysil</t>
+  </si>
+  <si>
+    <t>Fritz</t>
+  </si>
+  <si>
+    <t>Franz</t>
+  </si>
+  <si>
+    <t>Klaus</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Brig</t>
+  </si>
+  <si>
+    <t>NavyBrig</t>
+  </si>
+  <si>
+    <t>Rattlesnake</t>
   </si>
   <si>
     <t>Prince de Neufchatel</t>
   </si>
   <si>
-    <t>Le Requin</t>
-  </si>
-  <si>
-    <t>Aguadilla</t>
-  </si>
-  <si>
-    <t>All Saints</t>
-  </si>
-  <si>
-    <t>Almeria</t>
-  </si>
-  <si>
-    <t>Almirante</t>
-  </si>
-  <si>
-    <t>Alvarado</t>
-  </si>
-  <si>
-    <t>Amalienborg</t>
-  </si>
-  <si>
-    <t>Ambergrease Caye</t>
-  </si>
-  <si>
-    <t>Apalachicola</t>
-  </si>
-  <si>
-    <t>Aransas</t>
-  </si>
-  <si>
-    <t>Arecibo</t>
-  </si>
-  <si>
-    <t>Atchafalaya</t>
-  </si>
-  <si>
-    <t>Atwood</t>
-  </si>
-  <si>
-    <t>Aves</t>
-  </si>
-  <si>
-    <t>Ayamonte</t>
-  </si>
-  <si>
-    <t>Ays</t>
-  </si>
-  <si>
-    <t>Azua</t>
-  </si>
-  <si>
-    <t>Bahía Escocesa</t>
-  </si>
-  <si>
-    <t>Bahía Honda</t>
-  </si>
-  <si>
-    <t>Baja</t>
-  </si>
-  <si>
-    <t>Baní</t>
-  </si>
-  <si>
-    <t>Baracoa</t>
-  </si>
-  <si>
-    <t>Barahona</t>
-  </si>
-  <si>
-    <t>Barataria</t>
-  </si>
-  <si>
-    <t>Barranquilla</t>
-  </si>
-  <si>
-    <t>Basse-Terre</t>
-  </si>
-  <si>
-    <t>Basseterre Town</t>
-  </si>
-  <si>
-    <t>Batabanó</t>
-  </si>
-  <si>
-    <t>Beaufort</t>
-  </si>
-  <si>
-    <t>Belize</t>
-  </si>
-  <si>
-    <t>Bensalem</t>
-  </si>
-  <si>
-    <t>Bernal</t>
-  </si>
-  <si>
-    <t>Biloxi</t>
-  </si>
-  <si>
-    <t>Black River</t>
-  </si>
-  <si>
-    <t>Bluefields</t>
-  </si>
-  <si>
-    <t>Bonacca</t>
-  </si>
-  <si>
-    <t>Brangman’s Bluff</t>
-  </si>
-  <si>
-    <t>Bridgetown</t>
-  </si>
-  <si>
-    <t>Brunswick</t>
-  </si>
-  <si>
-    <t>Buena Vista</t>
-  </si>
-  <si>
-    <t>Cabo Cañaveral</t>
-  </si>
-  <si>
-    <t>Cabo Rojo</t>
-  </si>
-  <si>
-    <t>Cabo de la Vela</t>
-  </si>
-  <si>
-    <t>Calcasieu</t>
-  </si>
-  <si>
-    <t>Calobelo</t>
-  </si>
-  <si>
-    <t>Camp du Roy</t>
-  </si>
-  <si>
-    <t>Campeche</t>
-  </si>
-  <si>
-    <t>Canalete</t>
-  </si>
-  <si>
-    <t>Cap-Français</t>
-  </si>
-  <si>
-    <t>Caracas</t>
-  </si>
-  <si>
-    <t>Cariaco</t>
-  </si>
-  <si>
-    <t>Carlisle</t>
-  </si>
-  <si>
-    <t>Carriacou</t>
-  </si>
-  <si>
-    <t>Cartagena de Indias</t>
-  </si>
-  <si>
-    <t>Carúpano</t>
-  </si>
-  <si>
-    <t>Casigua</t>
-  </si>
-  <si>
-    <t>Castries</t>
-  </si>
-  <si>
-    <t>Cayman Brac</t>
-  </si>
-  <si>
-    <t>Cayo Biscayno</t>
-  </si>
-  <si>
-    <t>Cayo Romano</t>
-  </si>
-  <si>
-    <t>Cayo de Sal</t>
-  </si>
-  <si>
-    <t>Cayo del Anclote</t>
-  </si>
-  <si>
-    <t>Caño Araguabisi</t>
-  </si>
-  <si>
-    <t>Caño Araguao</t>
-  </si>
-  <si>
-    <t>Caño Macareo</t>
-  </si>
-  <si>
-    <t>Chagres</t>
-  </si>
-  <si>
-    <t>Champotón</t>
-  </si>
-  <si>
-    <t>Charles Town</t>
-  </si>
-  <si>
-    <t>Charleston</t>
-  </si>
-  <si>
-    <t>Christiansted</t>
-  </si>
-  <si>
-    <t>Codrington</t>
-  </si>
-  <si>
-    <t>Cojoro</t>
-  </si>
-  <si>
-    <t>Concepción</t>
-  </si>
-  <si>
-    <t>Congrios</t>
-  </si>
-  <si>
-    <t>Conil</t>
-  </si>
-  <si>
-    <t>Constance</t>
-  </si>
-  <si>
-    <t>Conttoy</t>
-  </si>
-  <si>
-    <t>Coquibacoa</t>
-  </si>
-  <si>
-    <t>Coral Bay</t>
-  </si>
-  <si>
-    <t>Coro</t>
-  </si>
-  <si>
-    <t>Corrientes</t>
-  </si>
-  <si>
-    <t>Cul-de-Sac</t>
-  </si>
-  <si>
-    <t>Cumaná</t>
-  </si>
-  <si>
-    <t>Cuyo</t>
-  </si>
-  <si>
-    <t>Dariena</t>
-  </si>
-  <si>
-    <t>Deshaies</t>
-  </si>
-  <si>
-    <t>El Rancho</t>
-  </si>
-  <si>
-    <t>El Soco</t>
-  </si>
-  <si>
-    <t>El Toco</t>
-  </si>
-  <si>
-    <t>Encontrados</t>
-  </si>
-  <si>
-    <t>English Harbour</t>
-  </si>
-  <si>
-    <t>Espíritu Santo</t>
-  </si>
-  <si>
-    <t>Esteros</t>
-  </si>
-  <si>
-    <t>Fajardo</t>
-  </si>
-  <si>
-    <t>Flatts</t>
-  </si>
-  <si>
-    <t>Fort Baai</t>
-  </si>
-  <si>
-    <t>Fort Oranje</t>
-  </si>
-  <si>
-    <t>Fort Zoutman</t>
-  </si>
-  <si>
-    <t>Fort-Dauphin</t>
-  </si>
-  <si>
-    <t>Fort-Royal</t>
-  </si>
-  <si>
-    <t>Frederiksted</t>
-  </si>
-  <si>
-    <t>Galdonas</t>
-  </si>
-  <si>
-    <t>Gasparilla</t>
-  </si>
-  <si>
-    <t>George Town</t>
-  </si>
-  <si>
-    <t>Georgetown</t>
-  </si>
-  <si>
-    <t>Gibraltar</t>
-  </si>
-  <si>
-    <t>Gracias a Dios</t>
-  </si>
-  <si>
-    <t>Grand Anse</t>
-  </si>
-  <si>
-    <t>Grand Turk</t>
-  </si>
-  <si>
-    <t>Great Corn</t>
-  </si>
-  <si>
-    <t>Great River</t>
-  </si>
-  <si>
-    <t>Grindstone</t>
-  </si>
-  <si>
-    <t>Guamá Sevilla</t>
-  </si>
-  <si>
-    <t>Guayaguayare</t>
-  </si>
-  <si>
-    <t>Guayama</t>
-  </si>
-  <si>
-    <t>Guibara</t>
-  </si>
-  <si>
-    <t>Gustavia</t>
-  </si>
-  <si>
-    <t>Guánica</t>
-  </si>
-  <si>
-    <t>Güiria</t>
-  </si>
-  <si>
-    <t>Hat Island</t>
-  </si>
-  <si>
-    <t>Higüey</t>
-  </si>
-  <si>
-    <t>Islamorada</t>
-  </si>
-  <si>
-    <t>Island Harbour</t>
-  </si>
-  <si>
-    <t>Jacmel</t>
-  </si>
-  <si>
-    <t>Jagua</t>
-  </si>
-  <si>
-    <t>Jobe</t>
-  </si>
-  <si>
-    <t>Jérémie</t>
-  </si>
-  <si>
-    <t>Key West</t>
-  </si>
-  <si>
-    <t>Kidd’s Harbour</t>
-  </si>
-  <si>
-    <t>Kingston / Port Royal</t>
-  </si>
-  <si>
-    <t>Kingstown</t>
-  </si>
-  <si>
-    <t>La Blanquilla</t>
-  </si>
-  <si>
-    <t>La Désirade</t>
-  </si>
-  <si>
-    <t>La Habana</t>
-  </si>
-  <si>
-    <t>La Isabela</t>
-  </si>
-  <si>
-    <t>La Mona</t>
-  </si>
-  <si>
-    <t>La Moussette</t>
-  </si>
-  <si>
-    <t>La Navasse</t>
-  </si>
-  <si>
-    <t>La Orchila</t>
-  </si>
-  <si>
-    <t>La Tortue</t>
-  </si>
-  <si>
-    <t>La Trinité</t>
-  </si>
-  <si>
-    <t>Lagunillas</t>
-  </si>
-  <si>
-    <t>Las Aves</t>
-  </si>
-  <si>
-    <t>Las Tortugas</t>
-  </si>
-  <si>
-    <t>Le Moule</t>
-  </si>
-  <si>
-    <t>Les Cayes</t>
-  </si>
-  <si>
-    <t>Les Gonaïves</t>
-  </si>
-  <si>
-    <t>Little Cayman</t>
-  </si>
-  <si>
-    <t>Little Inagua</t>
-  </si>
-  <si>
-    <t>Little River</t>
-  </si>
-  <si>
-    <t>Lorimers</t>
-  </si>
-  <si>
-    <t>Léogane</t>
-  </si>
-  <si>
-    <t>Macanao</t>
-  </si>
-  <si>
-    <t>Macao</t>
-  </si>
-  <si>
-    <t>Manataca</t>
-  </si>
-  <si>
-    <t>Mandinga</t>
-  </si>
-  <si>
-    <t>Mantua</t>
-  </si>
-  <si>
-    <t>Manzanilla</t>
-  </si>
-  <si>
-    <t>Maracaibo</t>
-  </si>
-  <si>
-    <t>Mariel</t>
-  </si>
-  <si>
-    <t>Marigot</t>
-  </si>
-  <si>
-    <t>Marin</t>
-  </si>
-  <si>
-    <t>Matanzas</t>
-  </si>
-  <si>
-    <t>Matina</t>
-  </si>
-  <si>
-    <t>Misteriosa</t>
-  </si>
-  <si>
-    <t>Mitara</t>
-  </si>
-  <si>
-    <t>Mobile</t>
-  </si>
-  <si>
-    <t>Monte Cristi</t>
-  </si>
-  <si>
-    <t>Montego Bay</t>
-  </si>
-  <si>
-    <t>Morro Chico</t>
-  </si>
-  <si>
-    <t>Mortimer Town</t>
-  </si>
-  <si>
-    <t>Mugeres</t>
-  </si>
-  <si>
-    <t>Naparima</t>
-  </si>
-  <si>
-    <t>New Edinburgh</t>
-  </si>
-  <si>
-    <t>New Smyrna</t>
-  </si>
-  <si>
-    <t>Nippes</t>
-  </si>
-  <si>
-    <t>North Inlet</t>
-  </si>
-  <si>
-    <t>Nouvelle-Orléans</t>
-  </si>
-  <si>
-    <t>Nueva Barcelona</t>
-  </si>
-  <si>
-    <t>Nuevitas</t>
-  </si>
-  <si>
-    <t>Ocean Bight</t>
-  </si>
-  <si>
-    <t>Old Providence</t>
-  </si>
-  <si>
-    <t>Omoa</t>
-  </si>
-  <si>
-    <t>Oranjestad</t>
-  </si>
-  <si>
-    <t>Pampatar</t>
-  </si>
-  <si>
-    <t>Parrot Cay</t>
-  </si>
-  <si>
-    <t>Pasaje</t>
-  </si>
-  <si>
-    <t>Pedernales</t>
-  </si>
-  <si>
-    <t>Penzacola</t>
-  </si>
-  <si>
-    <t>Perijá</t>
-  </si>
-  <si>
-    <t>Philipsburg</t>
-  </si>
-  <si>
-    <t>Pinar del Río</t>
-  </si>
-  <si>
-    <t>Pitt’s Town</t>
-  </si>
-  <si>
-    <t>Placentia</t>
-  </si>
-  <si>
-    <t>Placer</t>
-  </si>
-  <si>
-    <t>Playón</t>
-  </si>
-  <si>
-    <t>Plymouth</t>
-  </si>
-  <si>
-    <t>Pointe-à-Pitre</t>
-  </si>
-  <si>
-    <t>Ponce</t>
-  </si>
-  <si>
-    <t>Port Antonio</t>
-  </si>
-  <si>
-    <t>Port Morant</t>
-  </si>
-  <si>
-    <t>Port-Louis</t>
-  </si>
-  <si>
-    <t>Port-au-Prince</t>
-  </si>
-  <si>
-    <t>Port-de-Paix</t>
-  </si>
-  <si>
-    <t>Portillo</t>
-  </si>
-  <si>
-    <t>Portobelo</t>
-  </si>
-  <si>
-    <t>Prinzapolka</t>
-  </si>
-  <si>
-    <t>Puerto Cabello</t>
-  </si>
-  <si>
-    <t>Puerto Escondido</t>
-  </si>
-  <si>
-    <t>Puerto Plata</t>
-  </si>
-  <si>
-    <t>Puerto Real</t>
-  </si>
-  <si>
-    <t>Puerto de España</t>
-  </si>
-  <si>
-    <t>Puerto de Nipe</t>
-  </si>
-  <si>
-    <t>Puerto del Padre</t>
-  </si>
-  <si>
-    <t>Píritu</t>
-  </si>
-  <si>
-    <t>Remedios</t>
-  </si>
-  <si>
-    <t>Rincón</t>
-  </si>
-  <si>
-    <t>Road Town</t>
-  </si>
-  <si>
-    <t>Robras</t>
-  </si>
-  <si>
-    <t>Rosaly</t>
-  </si>
-  <si>
-    <t>Roseau</t>
-  </si>
-  <si>
-    <t>Ruatan</t>
-  </si>
-  <si>
-    <t>Río Chico</t>
-  </si>
-  <si>
-    <t>Río Seco</t>
-  </si>
-  <si>
-    <t>Río Tocuyo</t>
-  </si>
-  <si>
-    <t>Río de la Hacha</t>
-  </si>
-  <si>
-    <t>Sabina</t>
-  </si>
-  <si>
-    <t>Saint Ann</t>
-  </si>
-  <si>
-    <t>Saint George</t>
-  </si>
-  <si>
-    <t>Saint George’s Town</t>
-  </si>
-  <si>
-    <t>Saint John’s</t>
-  </si>
-  <si>
-    <t>Saint Joseph</t>
-  </si>
-  <si>
-    <t>Saint Marys</t>
-  </si>
-  <si>
-    <t>Saint-François</t>
-  </si>
-  <si>
-    <t>Saint-Louis</t>
-  </si>
-  <si>
-    <t>Saint-Malo</t>
-  </si>
-  <si>
-    <t>Saint-Marc</t>
-  </si>
-  <si>
-    <t>Saint-Nicolas</t>
-  </si>
-  <si>
-    <t>Saint-Pierre</t>
-  </si>
-  <si>
-    <t>Salamanca</t>
-  </si>
-  <si>
-    <t>Sale-Trou</t>
-  </si>
-  <si>
-    <t>Salinas</t>
-  </si>
-  <si>
-    <t>Samaná</t>
-  </si>
-  <si>
-    <t>San Agustín</t>
-  </si>
-  <si>
-    <t>San Andrés</t>
-  </si>
-  <si>
-    <t>San José</t>
-  </si>
-  <si>
-    <t>San Juan</t>
-  </si>
-  <si>
-    <t>San Juan del Norte</t>
-  </si>
-  <si>
-    <t>San Lazaro</t>
-  </si>
-  <si>
-    <t>San Luis</t>
-  </si>
-  <si>
-    <t>San Mateo</t>
-  </si>
-  <si>
-    <t>San Sebastian</t>
-  </si>
-  <si>
-    <t>San Timoteo</t>
-  </si>
-  <si>
-    <t>Sancti Spíritus</t>
-  </si>
-  <si>
-    <t>Sandy Bay</t>
-  </si>
-  <si>
-    <t>Sandy Hill</t>
-  </si>
-  <si>
-    <t>Sant Iago</t>
-  </si>
-  <si>
-    <t>Santa Ana</t>
-  </si>
-  <si>
-    <t>Santa Cruz</t>
-  </si>
-  <si>
-    <t>Santa Marta</t>
-  </si>
-  <si>
-    <t>Santa María</t>
-  </si>
-  <si>
-    <t>Santa Rosa</t>
-  </si>
-  <si>
-    <t>Santanillas</t>
-  </si>
-  <si>
-    <t>Santo Domingo</t>
-  </si>
-  <si>
-    <t>Santo Tomás</t>
-  </si>
-  <si>
-    <t>Santo Tomé de Guayana</t>
-  </si>
-  <si>
-    <t>Sarazota</t>
-  </si>
-  <si>
-    <t>Savanna la Mar</t>
-  </si>
-  <si>
-    <t>Savannah</t>
-  </si>
-  <si>
-    <t>Scarborough</t>
-  </si>
-  <si>
-    <t>Selam</t>
-  </si>
-  <si>
-    <t>Sinamaica</t>
-  </si>
-  <si>
-    <t>Sisal</t>
-  </si>
-  <si>
-    <t>Somerset</t>
-  </si>
-  <si>
-    <t>Soto La Marina</t>
-  </si>
-  <si>
-    <t>Spanish Town</t>
-  </si>
-  <si>
-    <t>Sunbury</t>
-  </si>
-  <si>
-    <t>Swannsborough</t>
-  </si>
-  <si>
-    <t>Talamanca</t>
-  </si>
-  <si>
-    <t>Tamiagua</t>
-  </si>
-  <si>
-    <t>Tampa</t>
-  </si>
-  <si>
-    <t>Tampico</t>
-  </si>
-  <si>
-    <t>Tantun Cuzamil</t>
-  </si>
-  <si>
-    <t>Terre-de-Bas</t>
-  </si>
-  <si>
-    <t>Terrebonne</t>
-  </si>
-  <si>
-    <t>Tiburon</t>
-  </si>
-  <si>
-    <t>Tolú</t>
-  </si>
-  <si>
-    <t>Tordo</t>
-  </si>
-  <si>
-    <t>Trinidad</t>
-  </si>
-  <si>
-    <t>Triunfo de la Cruz</t>
-  </si>
-  <si>
-    <t>Truxillo</t>
-  </si>
-  <si>
-    <t>Tulum</t>
-  </si>
-  <si>
-    <t>Tumbado</t>
-  </si>
-  <si>
-    <t>Turneffe</t>
-  </si>
-  <si>
-    <t>Tuspan</t>
-  </si>
-  <si>
-    <t>Vera Cruz</t>
-  </si>
-  <si>
-    <t>Vermiou</t>
-  </si>
-  <si>
-    <t>Victoria</t>
-  </si>
-  <si>
-    <t>Vieques</t>
-  </si>
-  <si>
-    <t>Vieux-Fort</t>
-  </si>
-  <si>
-    <t>Wantlands Ferry</t>
-  </si>
-  <si>
-    <t>Willemstad</t>
-  </si>
-  <si>
-    <t>Wilmington</t>
-  </si>
-  <si>
-    <t>Xpu Ha</t>
-  </si>
-  <si>
-    <t>Yaguaraparo</t>
-  </si>
-  <si>
-    <t>Ysil</t>
-  </si>
-  <si>
-    <t>Fritz</t>
-  </si>
-  <si>
-    <t>Franz</t>
-  </si>
-  <si>
-    <t>Klaus</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Brig</t>
-  </si>
-  <si>
-    <t>NavyBrig</t>
-  </si>
-  <si>
     <t>Mercury</t>
   </si>
   <si>
-    <t>Rattlesnake</t>
-  </si>
-  <si>
     <t>Snow</t>
   </si>
   <si>
+    <t>Lynx</t>
+  </si>
+  <si>
     <t>Cutter</t>
   </si>
   <si>
+    <t>GunBoat</t>
+  </si>
+  <si>
+    <t>Privateer</t>
+  </si>
+  <si>
+    <t>Yacht</t>
+  </si>
+  <si>
+    <t>Yacht Silver</t>
+  </si>
+  <si>
     <t>Pickle</t>
-  </si>
-  <si>
-    <t>Yacht</t>
-  </si>
-  <si>
-    <t>Yacht Silver</t>
-  </si>
-  <si>
-    <t>GunBoat</t>
-  </si>
-  <si>
-    <t>Lynx</t>
-  </si>
-  <si>
-    <t>Privateer</t>
   </si>
   <si>
     <t>Ahumada</t>
@@ -1790,7 +1793,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="27" t="n">
-        <v>780</v>
+        <v>800</v>
       </c>
       <c r="D5" s="27">
         <f>COUNTA(F5:AC5)</f>
@@ -1843,7 +1846,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="27" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="D6" s="27">
         <f>COUNTA(F6:AC6)</f>
@@ -1943,7 +1946,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="32" t="n">
-        <v>400</v>
+        <v>570</v>
       </c>
       <c r="D8" s="32">
         <f>COUNTA(F8:AC8)</f>
@@ -1990,7 +1993,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="32" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="D9" s="32">
         <f>COUNTA(F9:AC9)</f>
@@ -2037,7 +2040,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="32" t="n">
-        <v>460</v>
+        <v>700</v>
       </c>
       <c r="D10" s="32">
         <f>COUNTA(F10:AC10)</f>
@@ -2084,7 +2087,7 @@
         <v>18</v>
       </c>
       <c r="C11" s="27" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="D11" s="27">
         <f>COUNTA(F11:AC11)</f>
@@ -2131,7 +2134,7 @@
         <v>19</v>
       </c>
       <c r="C12" s="27" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="D12" s="27">
         <f>COUNTA(F12:AC12)</f>
@@ -2178,7 +2181,7 @@
         <v>20</v>
       </c>
       <c r="C13" s="27" t="n">
-        <v>450</v>
+        <v>490</v>
       </c>
       <c r="D13" s="27">
         <f>COUNTA(F13:AC13)</f>
@@ -2218,45 +2221,45 @@
       </c>
     </row>
     <row r="14" spans="1:31" customHeight="1">
-      <c r="A14" s="32" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" s="31" t="s">
+      <c r="A14" s="27" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="32" t="n">
-        <v>230</v>
-      </c>
-      <c r="D14" s="32">
+      <c r="C14" s="27" t="n">
+        <v>500</v>
+      </c>
+      <c r="D14" s="27">
         <f>COUNTA(F14:AC14)</f>
       </c>
-      <c r="E14" s="32">
+      <c r="E14" s="27">
         <f>C14*D14</f>
       </c>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="34"/>
-      <c r="T14" s="34"/>
-      <c r="U14" s="34"/>
-      <c r="V14" s="34"/>
-      <c r="W14" s="34"/>
-      <c r="X14" s="34"/>
-      <c r="Y14" s="34"/>
-      <c r="Z14" s="34"/>
-      <c r="AA14" s="34"/>
-      <c r="AB14" s="34"/>
-      <c r="AC14" s="34"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="29"/>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="29"/>
+      <c r="Z14" s="29"/>
+      <c r="AA14" s="29"/>
+      <c r="AB14" s="29"/>
+      <c r="AC14" s="29"/>
       <c r="AD14" s="0" t="s">
         <v>62</v>
       </c>
@@ -2272,7 +2275,7 @@
         <v>22</v>
       </c>
       <c r="C15" s="32" t="n">
-        <v>250</v>
+        <v>310</v>
       </c>
       <c r="D15" s="32">
         <f>COUNTA(F15:AC15)</f>
@@ -2319,7 +2322,7 @@
         <v>23</v>
       </c>
       <c r="C16" s="32" t="n">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="D16" s="32">
         <f>COUNTA(F16:AC16)</f>
@@ -2413,7 +2416,7 @@
         <v>25</v>
       </c>
       <c r="C18" s="32" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="D18" s="32">
         <f>COUNTA(F18:AC18)</f>
@@ -2453,45 +2456,45 @@
       </c>
     </row>
     <row r="19" spans="1:31" customHeight="1">
-      <c r="A19" s="27" t="n">
-        <v>5</v>
-      </c>
-      <c r="B19" s="26" t="s">
+      <c r="A19" s="32" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="27" t="n">
-        <v>165</v>
-      </c>
-      <c r="D19" s="27">
+      <c r="C19" s="32" t="n">
+        <v>400</v>
+      </c>
+      <c r="D19" s="32">
         <f>COUNTA(F19:AC19)</f>
       </c>
-      <c r="E19" s="27">
+      <c r="E19" s="32">
         <f>C19*D19</f>
       </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="29"/>
-      <c r="V19" s="29"/>
-      <c r="W19" s="29"/>
-      <c r="X19" s="29"/>
-      <c r="Y19" s="29"/>
-      <c r="Z19" s="29"/>
-      <c r="AA19" s="29"/>
-      <c r="AB19" s="29"/>
-      <c r="AC19" s="29"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="34"/>
+      <c r="U19" s="34"/>
+      <c r="V19" s="34"/>
+      <c r="W19" s="34"/>
+      <c r="X19" s="34"/>
+      <c r="Y19" s="34"/>
+      <c r="Z19" s="34"/>
+      <c r="AA19" s="34"/>
+      <c r="AB19" s="34"/>
+      <c r="AC19" s="34"/>
       <c r="AD19" s="0" t="s">
         <v>67</v>
       </c>
@@ -2507,7 +2510,7 @@
         <v>27</v>
       </c>
       <c r="C20" s="27" t="n">
-        <v>165</v>
+        <v>100</v>
       </c>
       <c r="D20" s="27">
         <f>COUNTA(F20:AC20)</f>
@@ -2554,7 +2557,7 @@
         <v>28</v>
       </c>
       <c r="C21" s="27" t="n">
-        <v>165</v>
+        <v>110</v>
       </c>
       <c r="D21" s="27">
         <f>COUNTA(F21:AC21)</f>
@@ -2601,7 +2604,7 @@
         <v>29</v>
       </c>
       <c r="C22" s="27" t="n">
-        <v>165</v>
+        <v>120</v>
       </c>
       <c r="D22" s="27">
         <f>COUNTA(F22:AC22)</f>
@@ -2648,7 +2651,7 @@
         <v>30</v>
       </c>
       <c r="C23" s="27" t="n">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="D23" s="27">
         <f>COUNTA(F23:AC23)</f>
@@ -2695,7 +2698,7 @@
         <v>31</v>
       </c>
       <c r="C24" s="27" t="n">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="D24" s="27">
         <f>COUNTA(F24:AC24)</f>
@@ -2742,7 +2745,7 @@
         <v>32</v>
       </c>
       <c r="C25" s="27" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="D25" s="27">
         <f>COUNTA(F25:AC25)</f>
@@ -2789,7 +2792,7 @@
         <v>33</v>
       </c>
       <c r="C26" s="27" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="D26" s="27">
         <f>COUNTA(F26:AC26)</f>
@@ -2836,7 +2839,7 @@
         <v>34</v>
       </c>
       <c r="C27" s="27" t="n">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="D27" s="27">
         <f>COUNTA(F27:AC27)</f>
@@ -2883,7 +2886,7 @@
         <v>35</v>
       </c>
       <c r="C28" s="27" t="n">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D28" s="27">
         <f>COUNTA(F28:AC28)</f>
@@ -2977,7 +2980,7 @@
         <v>37</v>
       </c>
       <c r="C30" s="27" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="D30" s="27">
         <f>COUNTA(F30:AC30)</f>
@@ -3024,7 +3027,7 @@
         <v>38</v>
       </c>
       <c r="C31" s="27" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="D31" s="27">
         <f>COUNTA(F31:AC31)</f>
@@ -3071,7 +3074,7 @@
         <v>39</v>
       </c>
       <c r="C32" s="27" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D32" s="27">
         <f>COUNTA(F32:AC32)</f>
@@ -3118,7 +3121,7 @@
         <v>40</v>
       </c>
       <c r="C33" s="27" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="D33" s="27">
         <f>COUNTA(F33:AC33)</f>
@@ -3165,7 +3168,7 @@
         <v>41</v>
       </c>
       <c r="C34" s="27" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="D34" s="27">
         <f>COUNTA(F34:AC34)</f>
@@ -3212,7 +3215,7 @@
         <v>42</v>
       </c>
       <c r="C35" s="27" t="n">
-        <v>330</v>
+        <v>280</v>
       </c>
       <c r="D35" s="27">
         <f>COUNTA(F35:AC35)</f>
@@ -3252,45 +3255,45 @@
       </c>
     </row>
     <row r="36" spans="1:31" customHeight="1">
-      <c r="A36" s="32" t="n">
-        <v>6</v>
-      </c>
-      <c r="B36" s="31" t="s">
+      <c r="A36" s="27" t="n">
+        <v>5</v>
+      </c>
+      <c r="B36" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="32" t="n">
-        <v>80</v>
-      </c>
-      <c r="D36" s="32">
+      <c r="C36" s="27" t="n">
+        <v>320</v>
+      </c>
+      <c r="D36" s="27">
         <f>COUNTA(F36:AC36)</f>
       </c>
-      <c r="E36" s="32">
+      <c r="E36" s="27">
         <f>C36*D36</f>
       </c>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="34"/>
-      <c r="L36" s="34"/>
-      <c r="M36" s="34"/>
-      <c r="N36" s="34"/>
-      <c r="O36" s="34"/>
-      <c r="P36" s="34"/>
-      <c r="Q36" s="34"/>
-      <c r="R36" s="34"/>
-      <c r="S36" s="34"/>
-      <c r="T36" s="34"/>
-      <c r="U36" s="34"/>
-      <c r="V36" s="34"/>
-      <c r="W36" s="34"/>
-      <c r="X36" s="34"/>
-      <c r="Y36" s="34"/>
-      <c r="Z36" s="34"/>
-      <c r="AA36" s="34"/>
-      <c r="AB36" s="34"/>
-      <c r="AC36" s="34"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="29"/>
+      <c r="S36" s="29"/>
+      <c r="T36" s="29"/>
+      <c r="U36" s="29"/>
+      <c r="V36" s="29"/>
+      <c r="W36" s="29"/>
+      <c r="X36" s="29"/>
+      <c r="Y36" s="29"/>
+      <c r="Z36" s="29"/>
+      <c r="AA36" s="29"/>
+      <c r="AB36" s="29"/>
+      <c r="AC36" s="29"/>
       <c r="AD36" s="0" t="s">
         <v>84</v>
       </c>
@@ -3447,7 +3450,7 @@
         <v>47</v>
       </c>
       <c r="C40" s="32" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D40" s="32">
         <f>COUNTA(F40:AC40)</f>
@@ -3494,7 +3497,7 @@
         <v>48</v>
       </c>
       <c r="C41" s="32" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="D41" s="32">
         <f>COUNTA(F41:AC41)</f>
@@ -5748,7 +5751,7 @@
       <c r="AB1" s="8"/>
       <c r="AC1" s="8"/>
       <c r="AD1" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AE1" s="0" t="n">
         <v>2160</v>
@@ -5793,7 +5796,7 @@
       <c r="AB2" s="8"/>
       <c r="AC2" s="8"/>
       <c r="AD2" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AE2" s="0" t="n">
         <v>1050</v>
@@ -5842,7 +5845,7 @@
       <c r="AB3" s="16"/>
       <c r="AC3" s="16"/>
       <c r="AD3" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AE3" s="0" t="n">
         <v>1140</v>
@@ -5885,7 +5888,7 @@
       <c r="AB4" s="22"/>
       <c r="AC4" s="22"/>
       <c r="AD4" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AE4" s="0" t="n">
         <v>1090</v>
@@ -5896,10 +5899,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" s="27" t="n">
-        <v>165</v>
+        <v>100</v>
       </c>
       <c r="D5" s="27">
         <f>COUNTA(F5:AC5)</f>
@@ -5938,7 +5941,7 @@
       <c r="AB5" s="29"/>
       <c r="AC5" s="29"/>
       <c r="AD5" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AE5" s="0" t="n">
         <v>1110</v>
@@ -5949,10 +5952,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="27" t="n">
-        <v>165</v>
+        <v>110</v>
       </c>
       <c r="D6" s="27">
         <f>COUNTA(F6:AC6)</f>
@@ -5991,7 +5994,7 @@
       <c r="AB6" s="29"/>
       <c r="AC6" s="29"/>
       <c r="AD6" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AE6" s="0" t="n">
         <v>2240</v>
@@ -6005,7 +6008,7 @@
         <v>30</v>
       </c>
       <c r="C7" s="27" t="n">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="D7" s="27">
         <f>COUNTA(F7:AC7)</f>
@@ -6038,7 +6041,7 @@
       <c r="AB7" s="29"/>
       <c r="AC7" s="29"/>
       <c r="AD7" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AE7" s="0" t="n">
         <v>1080</v>
@@ -6052,7 +6055,7 @@
         <v>31</v>
       </c>
       <c r="C8" s="27" t="n">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="D8" s="27">
         <f>COUNTA(F8:AC8)</f>
@@ -6085,7 +6088,7 @@
       <c r="AB8" s="29"/>
       <c r="AC8" s="29"/>
       <c r="AD8" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AE8" s="0" t="n">
         <v>1100</v>
@@ -6096,10 +6099,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C9" s="27" t="n">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="D9" s="27">
         <f>COUNTA(F9:AC9)</f>
@@ -6132,7 +6135,7 @@
       <c r="AB9" s="29"/>
       <c r="AC9" s="29"/>
       <c r="AD9" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AE9" s="0" t="n">
         <v>1120</v>
@@ -6146,7 +6149,7 @@
         <v>359</v>
       </c>
       <c r="C10" s="32" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D10" s="32">
         <f>COUNTA(F10:AC10)</f>
@@ -6179,7 +6182,7 @@
       <c r="AB10" s="34"/>
       <c r="AC10" s="34"/>
       <c r="AD10" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AE10" s="0" t="n">
         <v>1110</v>
@@ -6226,7 +6229,7 @@
       <c r="AB11" s="34"/>
       <c r="AC11" s="34"/>
       <c r="AD11" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AE11" s="0" t="n">
         <v>1060</v>
@@ -6240,7 +6243,7 @@
         <v>361</v>
       </c>
       <c r="C12" s="32" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D12" s="32">
         <f>COUNTA(F12:AC12)</f>
@@ -6273,7 +6276,7 @@
       <c r="AB12" s="34"/>
       <c r="AC12" s="34"/>
       <c r="AD12" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AE12" s="0" t="n">
         <v>1050</v>
@@ -6287,7 +6290,7 @@
         <v>362</v>
       </c>
       <c r="C13" s="32" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D13" s="32">
         <f>COUNTA(F13:AC13)</f>
@@ -6320,7 +6323,7 @@
       <c r="AB13" s="34"/>
       <c r="AC13" s="34"/>
       <c r="AD13" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AE13" s="0" t="n">
         <v>1060</v>
@@ -6367,7 +6370,7 @@
       <c r="AB14" s="34"/>
       <c r="AC14" s="34"/>
       <c r="AD14" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AE14" s="0" t="n">
         <v>1130</v>
@@ -6378,10 +6381,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>43</v>
+        <v>364</v>
       </c>
       <c r="C15" s="32" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D15" s="32">
         <f>COUNTA(F15:AC15)</f>
@@ -6414,7 +6417,7 @@
       <c r="AB15" s="34"/>
       <c r="AC15" s="34"/>
       <c r="AD15" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AE15" s="0" t="n">
         <v>2180</v>
@@ -6461,7 +6464,7 @@
       <c r="AB16" s="34"/>
       <c r="AC16" s="34"/>
       <c r="AD16" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AE16" s="0" t="n">
         <v>2140</v>
@@ -6508,7 +6511,7 @@
       <c r="AB17" s="34"/>
       <c r="AC17" s="34"/>
       <c r="AD17" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AE17" s="0" t="n">
         <v>1100</v>
@@ -6555,7 +6558,7 @@
       <c r="AB18" s="34"/>
       <c r="AC18" s="34"/>
       <c r="AD18" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AE18" s="0" t="n">
         <v>1060</v>
@@ -6569,7 +6572,7 @@
         <v>47</v>
       </c>
       <c r="C19" s="32" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D19" s="32">
         <f>COUNTA(F19:AC19)</f>
@@ -6602,7 +6605,7 @@
       <c r="AB19" s="34"/>
       <c r="AC19" s="34"/>
       <c r="AD19" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AE19" s="0" t="n">
         <v>1070</v>
@@ -6616,7 +6619,7 @@
         <v>48</v>
       </c>
       <c r="C20" s="32" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="D20" s="32">
         <f>COUNTA(F20:AC20)</f>
@@ -6649,7 +6652,7 @@
       <c r="AB20" s="34"/>
       <c r="AC20" s="34"/>
       <c r="AD20" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AE20" s="0" t="n">
         <v>1100</v>
@@ -6660,10 +6663,10 @@
         <v>7</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C21" s="27" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D21" s="27">
         <f>COUNTA(F21:AC21)</f>
@@ -6696,7 +6699,7 @@
       <c r="AB21" s="29"/>
       <c r="AC21" s="29"/>
       <c r="AD21" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AE21" s="0" t="n">
         <v>1090</v>
@@ -6707,10 +6710,10 @@
         <v>7</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C22" s="27" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D22" s="27">
         <f>COUNTA(F22:AC22)</f>
@@ -6743,7 +6746,7 @@
       <c r="AB22" s="29"/>
       <c r="AC22" s="29"/>
       <c r="AD22" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AE22" s="0" t="n">
         <v>2280</v>
@@ -6754,10 +6757,10 @@
         <v>7</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C23" s="27" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D23" s="27">
         <f>COUNTA(F23:AC23)</f>
@@ -6790,7 +6793,7 @@
       <c r="AB23" s="29"/>
       <c r="AC23" s="29"/>
       <c r="AD23" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AE23" s="0" t="n">
         <v>1130</v>
@@ -6801,10 +6804,10 @@
         <v>7</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C24" s="27" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D24" s="27">
         <f>COUNTA(F24:AC24)</f>
@@ -6837,7 +6840,7 @@
       <c r="AB24" s="29"/>
       <c r="AC24" s="29"/>
       <c r="AD24" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AE24" s="0" t="n">
         <v>1050</v>
@@ -6848,10 +6851,10 @@
         <v>7</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C25" s="27" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D25" s="27">
         <f>COUNTA(F25:AC25)</f>
@@ -6884,7 +6887,7 @@
       <c r="AB25" s="29"/>
       <c r="AC25" s="29"/>
       <c r="AD25" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AE25" s="0" t="n">
         <v>1070</v>
@@ -6895,10 +6898,10 @@
         <v>7</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C26" s="27" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D26" s="27">
         <f>COUNTA(F26:AC26)</f>
@@ -6931,7 +6934,7 @@
       <c r="AB26" s="29"/>
       <c r="AC26" s="29"/>
       <c r="AD26" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AE26" s="0" t="n">
         <v>1060</v>
@@ -6942,10 +6945,10 @@
         <v>7</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C27" s="27" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D27" s="27">
         <f>COUNTA(F27:AC27)</f>
@@ -6978,7 +6981,7 @@
       <c r="AB27" s="29"/>
       <c r="AC27" s="29"/>
       <c r="AD27" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AE27" s="0" t="n">
         <v>2260</v>
@@ -6986,7 +6989,7 @@
     </row>
     <row r="28" spans="30:31" customHeight="1">
       <c r="AD28" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AE28" s="0" t="n">
         <v>2630</v>
@@ -6994,7 +6997,7 @@
     </row>
     <row r="29" spans="30:31" customHeight="1">
       <c r="AD29" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AE29" s="0" t="n">
         <v>1050</v>
@@ -7002,7 +7005,7 @@
     </row>
     <row r="30" spans="30:31" customHeight="1">
       <c r="AD30" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AE30" s="0" t="n">
         <v>1070</v>
@@ -7010,7 +7013,7 @@
     </row>
     <row r="31" spans="30:31" customHeight="1">
       <c r="AD31" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AE31" s="0" t="n">
         <v>2120</v>
@@ -7018,7 +7021,7 @@
     </row>
     <row r="32" spans="30:31" customHeight="1">
       <c r="AD32" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AE32" s="0" t="n">
         <v>1120</v>
@@ -7026,7 +7029,7 @@
     </row>
     <row r="33" spans="30:31" customHeight="1">
       <c r="AD33" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AE33" s="0" t="n">
         <v>2280</v>
@@ -7034,7 +7037,7 @@
     </row>
     <row r="34" spans="30:31" customHeight="1">
       <c r="AD34" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AE34" s="0" t="n">
         <v>1110</v>
@@ -7042,7 +7045,7 @@
     </row>
     <row r="35" spans="30:31" customHeight="1">
       <c r="AD35" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AE35" s="0" t="n">
         <v>1070</v>
@@ -7050,7 +7053,7 @@
     </row>
     <row r="36" spans="30:31" customHeight="1">
       <c r="AD36" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AE36" s="0" t="n">
         <v>1100</v>
@@ -7058,7 +7061,7 @@
     </row>
     <row r="37" spans="30:31" customHeight="1">
       <c r="AD37" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AE37" s="0" t="n">
         <v>2300</v>
@@ -7066,7 +7069,7 @@
     </row>
     <row r="38" spans="30:31" customHeight="1">
       <c r="AD38" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AE38" s="0" t="n">
         <v>1130</v>
@@ -7074,7 +7077,7 @@
     </row>
     <row r="39" spans="30:31" customHeight="1">
       <c r="AD39" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AE39" s="0" t="n">
         <v>1140</v>
@@ -7082,7 +7085,7 @@
     </row>
     <row r="40" spans="30:31" customHeight="1">
       <c r="AD40" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AE40" s="0" t="n">
         <v>2830</v>
@@ -7090,7 +7093,7 @@
     </row>
     <row r="41" spans="30:31" customHeight="1">
       <c r="AD41" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AE41" s="0" t="n">
         <v>1130</v>
@@ -7098,7 +7101,7 @@
     </row>
     <row r="42" spans="30:31" customHeight="1">
       <c r="AD42" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AE42" s="0" t="n">
         <v>1130</v>
@@ -7106,7 +7109,7 @@
     </row>
     <row r="43" spans="30:31" customHeight="1">
       <c r="AD43" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AE43" s="0" t="n">
         <v>1060</v>
@@ -7114,7 +7117,7 @@
     </row>
     <row r="44" spans="30:31" customHeight="1">
       <c r="AD44" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AE44" s="0" t="n">
         <v>1120</v>
@@ -7122,7 +7125,7 @@
     </row>
     <row r="45" spans="30:31" customHeight="1">
       <c r="AD45" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AE45" s="0" t="n">
         <v>1120</v>
@@ -7130,7 +7133,7 @@
     </row>
     <row r="46" spans="30:31" customHeight="1">
       <c r="AD46" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AE46" s="0" t="n">
         <v>2750</v>
@@ -7138,7 +7141,7 @@
     </row>
     <row r="47" spans="30:31" customHeight="1">
       <c r="AD47" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AE47" s="0" t="n">
         <v>1080</v>
@@ -7146,7 +7149,7 @@
     </row>
     <row r="48" spans="30:31" customHeight="1">
       <c r="AD48" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AE48" s="0" t="n">
         <v>1060</v>
@@ -7154,7 +7157,7 @@
     </row>
     <row r="49" spans="30:31" customHeight="1">
       <c r="AD49" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AE49" s="0" t="n">
         <v>1120</v>
@@ -7162,7 +7165,7 @@
     </row>
     <row r="50" spans="30:31" customHeight="1">
       <c r="AD50" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AE50" s="0" t="n">
         <v>1070</v>
@@ -7170,7 +7173,7 @@
     </row>
     <row r="51" spans="30:31" customHeight="1">
       <c r="AD51" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AE51" s="0" t="n">
         <v>2850</v>
@@ -7178,7 +7181,7 @@
     </row>
     <row r="52" spans="30:31" customHeight="1">
       <c r="AD52" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AE52" s="0" t="n">
         <v>1070</v>
@@ -7186,7 +7189,7 @@
     </row>
     <row r="53" spans="30:31" customHeight="1">
       <c r="AD53" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AE53" s="0" t="n">
         <v>2180</v>
@@ -7194,7 +7197,7 @@
     </row>
     <row r="54" spans="30:31" customHeight="1">
       <c r="AD54" s="0" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AE54" s="0" t="n">
         <v>2300</v>
@@ -7202,7 +7205,7 @@
     </row>
     <row r="55" spans="30:31" customHeight="1">
       <c r="AD55" s="0" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AE55" s="0" t="n">
         <v>1060</v>
@@ -7210,7 +7213,7 @@
     </row>
     <row r="56" spans="30:31" customHeight="1">
       <c r="AD56" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AE56" s="0" t="n">
         <v>1110</v>
@@ -7218,7 +7221,7 @@
     </row>
     <row r="57" spans="30:31" customHeight="1">
       <c r="AD57" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AE57" s="0" t="n">
         <v>1150</v>
@@ -7226,7 +7229,7 @@
     </row>
     <row r="58" spans="30:31" customHeight="1">
       <c r="AD58" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AE58" s="0" t="n">
         <v>2730</v>
@@ -7234,7 +7237,7 @@
     </row>
     <row r="59" spans="30:31" customHeight="1">
       <c r="AD59" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AE59" s="0" t="n">
         <v>2780</v>
@@ -7242,7 +7245,7 @@
     </row>
     <row r="60" spans="30:31" customHeight="1">
       <c r="AD60" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AE60" s="0" t="n">
         <v>2160</v>
@@ -7250,7 +7253,7 @@
     </row>
     <row r="61" spans="30:31" customHeight="1">
       <c r="AD61" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AE61" s="0" t="n">
         <v>2280</v>
@@ -7258,7 +7261,7 @@
     </row>
     <row r="62" spans="30:31" customHeight="1">
       <c r="AD62" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AE62" s="0" t="n">
         <v>1150</v>
@@ -7266,7 +7269,7 @@
     </row>
     <row r="63" spans="30:31" customHeight="1">
       <c r="AD63" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AE63" s="0" t="n">
         <v>1090</v>
@@ -7274,7 +7277,7 @@
     </row>
     <row r="64" spans="30:31" customHeight="1">
       <c r="AD64" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AE64" s="0" t="n">
         <v>1050</v>
@@ -7282,7 +7285,7 @@
     </row>
     <row r="65" spans="30:31" customHeight="1">
       <c r="AD65" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AE65" s="0" t="n">
         <v>2180</v>
@@ -7290,7 +7293,7 @@
     </row>
     <row r="66" spans="30:31" customHeight="1">
       <c r="AD66" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AE66" s="0" t="n">
         <v>1140</v>
@@ -7298,7 +7301,7 @@
     </row>
     <row r="67" spans="30:31" customHeight="1">
       <c r="AD67" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AE67" s="0" t="n">
         <v>2280</v>
@@ -7306,7 +7309,7 @@
     </row>
     <row r="68" spans="30:31" customHeight="1">
       <c r="AD68" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AE68" s="0" t="n">
         <v>2220</v>
@@ -7314,7 +7317,7 @@
     </row>
     <row r="69" spans="30:31" customHeight="1">
       <c r="AD69" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AE69" s="0" t="n">
         <v>1150</v>
@@ -7322,7 +7325,7 @@
     </row>
     <row r="70" spans="30:31" customHeight="1">
       <c r="AD70" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AE70" s="0" t="n">
         <v>2160</v>
@@ -7330,7 +7333,7 @@
     </row>
     <row r="71" spans="30:31" customHeight="1">
       <c r="AD71" s="0" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AE71" s="0" t="n">
         <v>2280</v>
@@ -7338,7 +7341,7 @@
     </row>
     <row r="72" spans="30:31" customHeight="1">
       <c r="AD72" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AE72" s="0" t="n">
         <v>1100</v>
@@ -7346,7 +7349,7 @@
     </row>
     <row r="73" spans="30:31" customHeight="1">
       <c r="AD73" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AE73" s="0" t="n">
         <v>1060</v>

--- a/public/port-battle.xlsx
+++ b/public/port-battle.xlsx
@@ -68,7 +68,7 @@
     <t>Bucentaure</t>
   </si>
   <si>
-    <t>Ru00E4ttvisan</t>
+    <t>Ruättvisan</t>
   </si>
   <si>
     <t>Wasa</t>
@@ -92,7 +92,7 @@
     <t>Constitution</t>
   </si>
   <si>
-    <t>United States</t>
+    <t>USS United States</t>
   </si>
   <si>
     <t>Cerberus</t>

--- a/public/port-battle.xlsx
+++ b/public/port-battle.xlsx
@@ -68,9 +68,15 @@
     <t>Bucentaure</t>
   </si>
   <si>
+    <t>Constitution</t>
+  </si>
+  <si>
     <t>Ruättvisan</t>
   </si>
   <si>
+    <t>USS United States</t>
+  </si>
+  <si>
     <t>Wasa</t>
   </si>
   <si>
@@ -83,21 +89,21 @@
     <t>Ingermanland</t>
   </si>
   <si>
+    <t>Indefatigable</t>
+  </si>
+  <si>
     <t>Wapen von Hamburg</t>
   </si>
   <si>
     <t>Agamemnon</t>
   </si>
   <si>
-    <t>Constitution</t>
-  </si>
-  <si>
-    <t>USS United States</t>
-  </si>
-  <si>
     <t>Cerberus</t>
   </si>
   <si>
+    <t>Pandora</t>
+  </si>
+  <si>
     <t>Hercules</t>
   </si>
   <si>
@@ -143,9 +149,6 @@
     <t>Endymion</t>
   </si>
   <si>
-    <t>Indefatigable</t>
-  </si>
-  <si>
     <t>Mortar Brig</t>
   </si>
   <si>
@@ -153,9 +156,6 @@
   </si>
   <si>
     <t>Le Requin</t>
-  </si>
-  <si>
-    <t>Pandora</t>
   </si>
   <si>
     <t>Rattlesnake Heavy</t>
@@ -2181,7 +2181,7 @@
         <v>20</v>
       </c>
       <c r="C13" s="27" t="n">
-        <v>490</v>
+        <v>400</v>
       </c>
       <c r="D13" s="27">
         <f>COUNTA(F13:AC13)</f>
@@ -2228,7 +2228,7 @@
         <v>21</v>
       </c>
       <c r="C14" s="27" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="D14" s="27">
         <f>COUNTA(F14:AC14)</f>
@@ -2268,45 +2268,45 @@
       </c>
     </row>
     <row r="15" spans="1:31" customHeight="1">
-      <c r="A15" s="32" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" s="31" t="s">
+      <c r="A15" s="27" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="32" t="n">
-        <v>310</v>
-      </c>
-      <c r="D15" s="32">
+      <c r="C15" s="27" t="n">
+        <v>490</v>
+      </c>
+      <c r="D15" s="27">
         <f>COUNTA(F15:AC15)</f>
       </c>
-      <c r="E15" s="32">
+      <c r="E15" s="27">
         <f>C15*D15</f>
       </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="34"/>
-      <c r="T15" s="34"/>
-      <c r="U15" s="34"/>
-      <c r="V15" s="34"/>
-      <c r="W15" s="34"/>
-      <c r="X15" s="34"/>
-      <c r="Y15" s="34"/>
-      <c r="Z15" s="34"/>
-      <c r="AA15" s="34"/>
-      <c r="AB15" s="34"/>
-      <c r="AC15" s="34"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="29"/>
+      <c r="Z15" s="29"/>
+      <c r="AA15" s="29"/>
+      <c r="AB15" s="29"/>
+      <c r="AC15" s="29"/>
       <c r="AD15" s="0" t="s">
         <v>63</v>
       </c>
@@ -2315,45 +2315,45 @@
       </c>
     </row>
     <row r="16" spans="1:31" customHeight="1">
-      <c r="A16" s="32" t="n">
-        <v>4</v>
-      </c>
-      <c r="B16" s="31" t="s">
+      <c r="A16" s="27" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="32" t="n">
-        <v>330</v>
-      </c>
-      <c r="D16" s="32">
+      <c r="C16" s="27" t="n">
+        <v>500</v>
+      </c>
+      <c r="D16" s="27">
         <f>COUNTA(F16:AC16)</f>
       </c>
-      <c r="E16" s="32">
+      <c r="E16" s="27">
         <f>C16*D16</f>
       </c>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="34"/>
-      <c r="S16" s="34"/>
-      <c r="T16" s="34"/>
-      <c r="U16" s="34"/>
-      <c r="V16" s="34"/>
-      <c r="W16" s="34"/>
-      <c r="X16" s="34"/>
-      <c r="Y16" s="34"/>
-      <c r="Z16" s="34"/>
-      <c r="AA16" s="34"/>
-      <c r="AB16" s="34"/>
-      <c r="AC16" s="34"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="29"/>
+      <c r="Z16" s="29"/>
+      <c r="AA16" s="29"/>
+      <c r="AB16" s="29"/>
+      <c r="AC16" s="29"/>
       <c r="AD16" s="0" t="s">
         <v>64</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>24</v>
       </c>
       <c r="C17" s="32" t="n">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="D17" s="32">
         <f>COUNTA(F17:AC17)</f>
@@ -2416,7 +2416,7 @@
         <v>25</v>
       </c>
       <c r="C18" s="32" t="n">
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="D18" s="32">
         <f>COUNTA(F18:AC18)</f>
@@ -2463,7 +2463,7 @@
         <v>26</v>
       </c>
       <c r="C19" s="32" t="n">
-        <v>400</v>
+        <v>330</v>
       </c>
       <c r="D19" s="32">
         <f>COUNTA(F19:AC19)</f>
@@ -2503,45 +2503,45 @@
       </c>
     </row>
     <row r="20" spans="1:31" customHeight="1">
-      <c r="A20" s="27" t="n">
-        <v>5</v>
-      </c>
-      <c r="B20" s="26" t="s">
+      <c r="A20" s="32" t="n">
+        <v>4</v>
+      </c>
+      <c r="B20" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="27" t="n">
-        <v>100</v>
-      </c>
-      <c r="D20" s="27">
+      <c r="C20" s="32" t="n">
+        <v>340</v>
+      </c>
+      <c r="D20" s="32">
         <f>COUNTA(F20:AC20)</f>
       </c>
-      <c r="E20" s="27">
+      <c r="E20" s="32">
         <f>C20*D20</f>
       </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
-      <c r="T20" s="29"/>
-      <c r="U20" s="29"/>
-      <c r="V20" s="29"/>
-      <c r="W20" s="29"/>
-      <c r="X20" s="29"/>
-      <c r="Y20" s="29"/>
-      <c r="Z20" s="29"/>
-      <c r="AA20" s="29"/>
-      <c r="AB20" s="29"/>
-      <c r="AC20" s="29"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="34"/>
+      <c r="T20" s="34"/>
+      <c r="U20" s="34"/>
+      <c r="V20" s="34"/>
+      <c r="W20" s="34"/>
+      <c r="X20" s="34"/>
+      <c r="Y20" s="34"/>
+      <c r="Z20" s="34"/>
+      <c r="AA20" s="34"/>
+      <c r="AB20" s="34"/>
+      <c r="AC20" s="34"/>
       <c r="AD20" s="0" t="s">
         <v>68</v>
       </c>
@@ -2557,7 +2557,7 @@
         <v>28</v>
       </c>
       <c r="C21" s="27" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D21" s="27">
         <f>COUNTA(F21:AC21)</f>
@@ -2604,7 +2604,7 @@
         <v>29</v>
       </c>
       <c r="C22" s="27" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D22" s="27">
         <f>COUNTA(F22:AC22)</f>
@@ -2651,7 +2651,7 @@
         <v>30</v>
       </c>
       <c r="C23" s="27" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D23" s="27">
         <f>COUNTA(F23:AC23)</f>
@@ -2698,7 +2698,7 @@
         <v>31</v>
       </c>
       <c r="C24" s="27" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D24" s="27">
         <f>COUNTA(F24:AC24)</f>
@@ -2745,7 +2745,7 @@
         <v>32</v>
       </c>
       <c r="C25" s="27" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D25" s="27">
         <f>COUNTA(F25:AC25)</f>
@@ -2792,7 +2792,7 @@
         <v>33</v>
       </c>
       <c r="C26" s="27" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D26" s="27">
         <f>COUNTA(F26:AC26)</f>
@@ -2839,7 +2839,7 @@
         <v>34</v>
       </c>
       <c r="C27" s="27" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="D27" s="27">
         <f>COUNTA(F27:AC27)</f>
@@ -2886,7 +2886,7 @@
         <v>35</v>
       </c>
       <c r="C28" s="27" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="D28" s="27">
         <f>COUNTA(F28:AC28)</f>
@@ -2933,7 +2933,7 @@
         <v>36</v>
       </c>
       <c r="C29" s="27" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="D29" s="27">
         <f>COUNTA(F29:AC29)</f>
@@ -2980,7 +2980,7 @@
         <v>37</v>
       </c>
       <c r="C30" s="27" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="D30" s="27">
         <f>COUNTA(F30:AC30)</f>
@@ -3027,7 +3027,7 @@
         <v>38</v>
       </c>
       <c r="C31" s="27" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="D31" s="27">
         <f>COUNTA(F31:AC31)</f>
@@ -3074,7 +3074,7 @@
         <v>39</v>
       </c>
       <c r="C32" s="27" t="n">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="D32" s="27">
         <f>COUNTA(F32:AC32)</f>
@@ -3121,7 +3121,7 @@
         <v>40</v>
       </c>
       <c r="C33" s="27" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="D33" s="27">
         <f>COUNTA(F33:AC33)</f>
@@ -3168,7 +3168,7 @@
         <v>41</v>
       </c>
       <c r="C34" s="27" t="n">
-        <v>270</v>
+        <v>215</v>
       </c>
       <c r="D34" s="27">
         <f>COUNTA(F34:AC34)</f>
@@ -3215,7 +3215,7 @@
         <v>42</v>
       </c>
       <c r="C35" s="27" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="D35" s="27">
         <f>COUNTA(F35:AC35)</f>
@@ -3262,7 +3262,7 @@
         <v>43</v>
       </c>
       <c r="C36" s="27" t="n">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="D36" s="27">
         <f>COUNTA(F36:AC36)</f>
@@ -3302,45 +3302,45 @@
       </c>
     </row>
     <row r="37" spans="1:31" customHeight="1">
-      <c r="A37" s="32" t="n">
-        <v>6</v>
-      </c>
-      <c r="B37" s="31" t="s">
+      <c r="A37" s="27" t="n">
+        <v>5</v>
+      </c>
+      <c r="B37" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="32" t="n">
-        <v>80</v>
-      </c>
-      <c r="D37" s="32">
+      <c r="C37" s="27" t="n">
+        <v>280</v>
+      </c>
+      <c r="D37" s="27">
         <f>COUNTA(F37:AC37)</f>
       </c>
-      <c r="E37" s="32">
+      <c r="E37" s="27">
         <f>C37*D37</f>
       </c>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="34"/>
-      <c r="M37" s="34"/>
-      <c r="N37" s="34"/>
-      <c r="O37" s="34"/>
-      <c r="P37" s="34"/>
-      <c r="Q37" s="34"/>
-      <c r="R37" s="34"/>
-      <c r="S37" s="34"/>
-      <c r="T37" s="34"/>
-      <c r="U37" s="34"/>
-      <c r="V37" s="34"/>
-      <c r="W37" s="34"/>
-      <c r="X37" s="34"/>
-      <c r="Y37" s="34"/>
-      <c r="Z37" s="34"/>
-      <c r="AA37" s="34"/>
-      <c r="AB37" s="34"/>
-      <c r="AC37" s="34"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="29"/>
+      <c r="S37" s="29"/>
+      <c r="T37" s="29"/>
+      <c r="U37" s="29"/>
+      <c r="V37" s="29"/>
+      <c r="W37" s="29"/>
+      <c r="X37" s="29"/>
+      <c r="Y37" s="29"/>
+      <c r="Z37" s="29"/>
+      <c r="AA37" s="29"/>
+      <c r="AB37" s="29"/>
+      <c r="AC37" s="29"/>
       <c r="AD37" s="0" t="s">
         <v>85</v>
       </c>
@@ -3356,7 +3356,7 @@
         <v>45</v>
       </c>
       <c r="C38" s="32" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D38" s="32">
         <f>COUNTA(F38:AC38)</f>
@@ -3403,7 +3403,7 @@
         <v>46</v>
       </c>
       <c r="C39" s="32" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D39" s="32">
         <f>COUNTA(F39:AC39)</f>
@@ -5856,10 +5856,10 @@
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
       <c r="D4" s="21">
-        <f>SUM(D5:D27)</f>
+        <f>SUM(D5:D26)</f>
       </c>
       <c r="E4" s="21">
-        <f>SUM(E5:E27)</f>
+        <f>SUM(E5:E26)</f>
       </c>
       <c r="F4" s="22" t="s">
         <v>11</v>
@@ -5899,7 +5899,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" s="27" t="n">
         <v>100</v>
@@ -5952,7 +5952,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C6" s="27" t="n">
         <v>110</v>
@@ -6005,7 +6005,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C7" s="27" t="n">
         <v>120</v>
@@ -6052,7 +6052,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C8" s="27" t="n">
         <v>130</v>
@@ -6099,7 +6099,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C9" s="27" t="n">
         <v>215</v>
@@ -6428,7 +6428,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" s="32" t="n">
         <v>80</v>
@@ -6475,7 +6475,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" s="32" t="n">
         <v>90</v>
@@ -6522,7 +6522,7 @@
         <v>6</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" s="32" t="n">
         <v>100</v>
@@ -6569,7 +6569,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C19" s="32" t="n">
         <v>100</v>
@@ -6612,45 +6612,45 @@
       </c>
     </row>
     <row r="20" spans="1:31" customHeight="1">
-      <c r="A20" s="32" t="n">
-        <v>6</v>
-      </c>
-      <c r="B20" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="32" t="n">
-        <v>100</v>
-      </c>
-      <c r="D20" s="32">
+      <c r="A20" s="27" t="n">
+        <v>7</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="C20" s="27" t="n">
+        <v>20</v>
+      </c>
+      <c r="D20" s="27">
         <f>COUNTA(F20:AC20)</f>
       </c>
-      <c r="E20" s="32">
+      <c r="E20" s="27">
         <f>C20*D20</f>
       </c>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="34"/>
-      <c r="S20" s="34"/>
-      <c r="T20" s="34"/>
-      <c r="U20" s="34"/>
-      <c r="V20" s="34"/>
-      <c r="W20" s="34"/>
-      <c r="X20" s="34"/>
-      <c r="Y20" s="34"/>
-      <c r="Z20" s="34"/>
-      <c r="AA20" s="34"/>
-      <c r="AB20" s="34"/>
-      <c r="AC20" s="34"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="29"/>
+      <c r="V20" s="29"/>
+      <c r="W20" s="29"/>
+      <c r="X20" s="29"/>
+      <c r="Y20" s="29"/>
+      <c r="Z20" s="29"/>
+      <c r="AA20" s="29"/>
+      <c r="AB20" s="29"/>
+      <c r="AC20" s="29"/>
       <c r="AD20" s="0" t="s">
         <v>391</v>
       </c>
@@ -6663,10 +6663,10 @@
         <v>7</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C21" s="27" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D21" s="27">
         <f>COUNTA(F21:AC21)</f>
@@ -6710,7 +6710,7 @@
         <v>7</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C22" s="27" t="n">
         <v>30</v>
@@ -6757,7 +6757,7 @@
         <v>7</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C23" s="27" t="n">
         <v>30</v>
@@ -6804,7 +6804,7 @@
         <v>7</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C24" s="27" t="n">
         <v>30</v>
@@ -6851,7 +6851,7 @@
         <v>7</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C25" s="27" t="n">
         <v>30</v>
@@ -6898,10 +6898,10 @@
         <v>7</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C26" s="27" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D26" s="27">
         <f>COUNTA(F26:AC26)</f>
@@ -6940,46 +6940,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="27" spans="1:31" customHeight="1">
-      <c r="A27" s="27" t="n">
-        <v>7</v>
-      </c>
-      <c r="B27" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="C27" s="27" t="n">
-        <v>35</v>
-      </c>
-      <c r="D27" s="27">
-        <f>COUNTA(F27:AC27)</f>
-      </c>
-      <c r="E27" s="27">
-        <f>C27*D27</f>
-      </c>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="29"/>
-      <c r="U27" s="29"/>
-      <c r="V27" s="29"/>
-      <c r="W27" s="29"/>
-      <c r="X27" s="29"/>
-      <c r="Y27" s="29"/>
-      <c r="Z27" s="29"/>
-      <c r="AA27" s="29"/>
-      <c r="AB27" s="29"/>
-      <c r="AC27" s="29"/>
+    <row r="27" spans="30:31" customHeight="1">
       <c r="AD27" s="0" t="s">
         <v>398</v>
       </c>

--- a/public/port-battle.xlsx
+++ b/public/port-battle.xlsx
@@ -71,7 +71,7 @@
     <t>Constitution</t>
   </si>
   <si>
-    <t>Ruättvisan</t>
+    <t>Rättvisan</t>
   </si>
   <si>
     <t>USS United States</t>

--- a/public/port-battle.xlsx
+++ b/public/port-battle.xlsx
@@ -71,31 +71,31 @@
     <t>Constitution</t>
   </si>
   <si>
+    <t>USS United States</t>
+  </si>
+  <si>
+    <t>Wasa</t>
+  </si>
+  <si>
+    <t>3rd Rate</t>
+  </si>
+  <si>
+    <t>Bellona</t>
+  </si>
+  <si>
+    <t>Ingermanland</t>
+  </si>
+  <si>
+    <t>Indefatigable</t>
+  </si>
+  <si>
+    <t>Wapen von Hamburg</t>
+  </si>
+  <si>
+    <t>Agamemnon</t>
+  </si>
+  <si>
     <t>Rättvisan</t>
-  </si>
-  <si>
-    <t>USS United States</t>
-  </si>
-  <si>
-    <t>Wasa</t>
-  </si>
-  <si>
-    <t>3rd Rate</t>
-  </si>
-  <si>
-    <t>Bellona</t>
-  </si>
-  <si>
-    <t>Ingermanland</t>
-  </si>
-  <si>
-    <t>Indefatigable</t>
-  </si>
-  <si>
-    <t>Wapen von Hamburg</t>
-  </si>
-  <si>
-    <t>Agamemnon</t>
   </si>
   <si>
     <t>Cerberus</t>
@@ -2228,7 +2228,7 @@
         <v>21</v>
       </c>
       <c r="C14" s="27" t="n">
-        <v>400</v>
+        <v>490</v>
       </c>
       <c r="D14" s="27">
         <f>COUNTA(F14:AC14)</f>
@@ -2275,7 +2275,7 @@
         <v>22</v>
       </c>
       <c r="C15" s="27" t="n">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="D15" s="27">
         <f>COUNTA(F15:AC15)</f>
@@ -2315,45 +2315,45 @@
       </c>
     </row>
     <row r="16" spans="1:31" customHeight="1">
-      <c r="A16" s="27" t="n">
-        <v>3</v>
-      </c>
-      <c r="B16" s="26" t="s">
+      <c r="A16" s="32" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="27" t="n">
-        <v>500</v>
-      </c>
-      <c r="D16" s="27">
+      <c r="C16" s="32" t="n">
+        <v>310</v>
+      </c>
+      <c r="D16" s="32">
         <f>COUNTA(F16:AC16)</f>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="32">
         <f>C16*D16</f>
       </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="29"/>
-      <c r="U16" s="29"/>
-      <c r="V16" s="29"/>
-      <c r="W16" s="29"/>
-      <c r="X16" s="29"/>
-      <c r="Y16" s="29"/>
-      <c r="Z16" s="29"/>
-      <c r="AA16" s="29"/>
-      <c r="AB16" s="29"/>
-      <c r="AC16" s="29"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="34"/>
+      <c r="T16" s="34"/>
+      <c r="U16" s="34"/>
+      <c r="V16" s="34"/>
+      <c r="W16" s="34"/>
+      <c r="X16" s="34"/>
+      <c r="Y16" s="34"/>
+      <c r="Z16" s="34"/>
+      <c r="AA16" s="34"/>
+      <c r="AB16" s="34"/>
+      <c r="AC16" s="34"/>
       <c r="AD16" s="0" t="s">
         <v>64</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>24</v>
       </c>
       <c r="C17" s="32" t="n">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="D17" s="32">
         <f>COUNTA(F17:AC17)</f>
@@ -2416,7 +2416,7 @@
         <v>25</v>
       </c>
       <c r="C18" s="32" t="n">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="D18" s="32">
         <f>COUNTA(F18:AC18)</f>
@@ -2463,7 +2463,7 @@
         <v>26</v>
       </c>
       <c r="C19" s="32" t="n">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="D19" s="32">
         <f>COUNTA(F19:AC19)</f>

--- a/public/port-battle.xlsx
+++ b/public/port-battle.xlsx
@@ -95,7 +95,7 @@
     <t>Agamemnon</t>
   </si>
   <si>
-    <t>Rättvisan</t>
+    <t>Rattvisan</t>
   </si>
   <si>
     <t>Cerberus</t>

--- a/public/port-battle.xlsx
+++ b/public/port-battle.xlsx
@@ -95,7 +95,7 @@
     <t>Agamemnon</t>
   </si>
   <si>
-    <t>Rattvisan</t>
+    <t>Rättvisan</t>
   </si>
   <si>
     <t>Cerberus</t>
@@ -179,7 +179,7 @@
     <t>Amalienborg</t>
   </si>
   <si>
-    <t>Ambergrease Caye</t>
+    <t>Ambergrease Cay</t>
   </si>
   <si>
     <t>Apalachicola</t>
@@ -194,7 +194,7 @@
     <t>Atchafalaya</t>
   </si>
   <si>
-    <t>Atwood</t>
+    <t>Atwoods</t>
   </si>
   <si>
     <t>Aves</t>
@@ -407,15 +407,15 @@
     <t>Cumaná</t>
   </si>
   <si>
-    <t>Cuyo</t>
-  </si>
-  <si>
     <t>Dariena</t>
   </si>
   <si>
     <t>Deshaies</t>
   </si>
   <si>
+    <t>El Cuyo</t>
+  </si>
+  <si>
     <t>El Rancho</t>
   </si>
   <si>
@@ -572,7 +572,7 @@
     <t>La Navasse</t>
   </si>
   <si>
-    <t>La Orchila</t>
+    <t>La Orchilla</t>
   </si>
   <si>
     <t>La Tortue</t>
@@ -629,7 +629,7 @@
     <t>Mantua</t>
   </si>
   <si>
-    <t>Manzanilla</t>
+    <t>Manzanillo</t>
   </si>
   <si>
     <t>Maracaibo</t>
@@ -659,7 +659,7 @@
     <t>Mobile</t>
   </si>
   <si>
-    <t>Monte Cristi</t>
+    <t>Montecristi</t>
   </si>
   <si>
     <t>Montego Bay</t>
@@ -926,9 +926,6 @@
     <t>Sandy Hill</t>
   </si>
   <si>
-    <t>Sant Iago</t>
-  </si>
-  <si>
     <t>Santa Ana</t>
   </si>
   <si>
@@ -947,6 +944,9 @@
     <t>Santanillas</t>
   </si>
   <si>
+    <t>Santiago de Cuba</t>
+  </si>
+  <si>
     <t>Santo Domingo</t>
   </si>
   <si>
@@ -1190,7 +1190,7 @@
     <t>Cochinos</t>
   </si>
   <si>
-    <t>Cocodrillo</t>
+    <t>Cocodrilo</t>
   </si>
   <si>
     <t>Croata</t>
@@ -1232,10 +1232,10 @@
     <t>Islet</t>
   </si>
   <si>
-    <t>Kemps Bay</t>
-  </si>
-  <si>
-    <t>La Anguilla</t>
+    <t>Kemp’s Bay</t>
+  </si>
+  <si>
+    <t>La Anguila</t>
   </si>
   <si>
     <t>La Bahía</t>
@@ -1325,7 +1325,7 @@
     <t>The Settlement</t>
   </si>
   <si>
-    <t>Triangles</t>
+    <t>Triangulo</t>
   </si>
   <si>
     <t>Turtle Cay</t>
@@ -1337,7 +1337,7 @@
     <t>Water Bay</t>
   </si>
   <si>
-    <t>Watling</t>
+    <t>Watlings</t>
   </si>
   <si>
     <t>West End</t>
@@ -1645,7 +1645,7 @@
         <v>49</v>
       </c>
       <c r="AE1" s="0" t="n">
-        <v>8210</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="40" customHeight="1">
@@ -1690,7 +1690,7 @@
         <v>50</v>
       </c>
       <c r="AE2" s="0" t="n">
-        <v>5090</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="40" customHeight="1">
@@ -1739,7 +1739,7 @@
         <v>51</v>
       </c>
       <c r="AE3" s="0" t="n">
-        <v>5040</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="40" customHeight="1">
@@ -1782,7 +1782,7 @@
         <v>52</v>
       </c>
       <c r="AE4" s="0" t="n">
-        <v>2670</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="5" spans="1:31" customHeight="1">
@@ -1835,7 +1835,7 @@
         <v>53</v>
       </c>
       <c r="AE5" s="0" t="n">
-        <v>7780</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="6" spans="1:31" customHeight="1">
@@ -1888,7 +1888,7 @@
         <v>54</v>
       </c>
       <c r="AE6" s="0" t="n">
-        <v>7920</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="7" spans="1:31" customHeight="1">
@@ -1935,7 +1935,7 @@
         <v>55</v>
       </c>
       <c r="AE7" s="0" t="n">
-        <v>2720</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="8" spans="1:31" customHeight="1">
@@ -1982,7 +1982,7 @@
         <v>56</v>
       </c>
       <c r="AE8" s="0" t="n">
-        <v>2720</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="9" spans="1:31" customHeight="1">
@@ -2029,7 +2029,7 @@
         <v>57</v>
       </c>
       <c r="AE9" s="0" t="n">
-        <v>2620</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="10" spans="1:31" customHeight="1">
@@ -2076,7 +2076,7 @@
         <v>58</v>
       </c>
       <c r="AE10" s="0" t="n">
-        <v>8210</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="11" spans="1:31" customHeight="1">
@@ -2123,7 +2123,7 @@
         <v>59</v>
       </c>
       <c r="AE11" s="0" t="n">
-        <v>2720</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="12" spans="1:31" customHeight="1">
@@ -2170,7 +2170,7 @@
         <v>60</v>
       </c>
       <c r="AE12" s="0" t="n">
-        <v>2720</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="13" spans="1:31" customHeight="1">
@@ -2217,7 +2217,7 @@
         <v>61</v>
       </c>
       <c r="AE13" s="0" t="n">
-        <v>2570</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="14" spans="1:31" customHeight="1">
@@ -2264,7 +2264,7 @@
         <v>62</v>
       </c>
       <c r="AE14" s="0" t="n">
-        <v>2570</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="15" spans="1:31" customHeight="1">
@@ -2311,7 +2311,7 @@
         <v>63</v>
       </c>
       <c r="AE15" s="0" t="n">
-        <v>5140</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="16" spans="1:31" customHeight="1">
@@ -2358,7 +2358,7 @@
         <v>64</v>
       </c>
       <c r="AE16" s="0" t="n">
-        <v>7920</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="17" spans="1:31" customHeight="1">
@@ -2405,7 +2405,7 @@
         <v>65</v>
       </c>
       <c r="AE17" s="0" t="n">
-        <v>2720</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="18" spans="1:31" customHeight="1">
@@ -2452,7 +2452,7 @@
         <v>66</v>
       </c>
       <c r="AE18" s="0" t="n">
-        <v>7780</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="19" spans="1:31" customHeight="1">
@@ -2499,7 +2499,7 @@
         <v>67</v>
       </c>
       <c r="AE19" s="0" t="n">
-        <v>5520</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="20" spans="1:31" customHeight="1">
@@ -2546,7 +2546,7 @@
         <v>68</v>
       </c>
       <c r="AE20" s="0" t="n">
-        <v>7780</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="21" spans="1:31" customHeight="1">
@@ -2593,7 +2593,7 @@
         <v>69</v>
       </c>
       <c r="AE21" s="0" t="n">
-        <v>10560</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="22" spans="1:31" customHeight="1">
@@ -2640,7 +2640,7 @@
         <v>70</v>
       </c>
       <c r="AE22" s="0" t="n">
-        <v>5380</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="23" spans="1:31" customHeight="1">
@@ -2687,7 +2687,7 @@
         <v>71</v>
       </c>
       <c r="AE23" s="0" t="n">
-        <v>2600</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="24" spans="1:31" customHeight="1">
@@ -2734,7 +2734,7 @@
         <v>72</v>
       </c>
       <c r="AE24" s="0" t="n">
-        <v>5380</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="25" spans="1:31" customHeight="1">
@@ -2781,7 +2781,7 @@
         <v>73</v>
       </c>
       <c r="AE25" s="0" t="n">
-        <v>10080</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="26" spans="1:31" customHeight="1">
@@ -2828,7 +2828,7 @@
         <v>74</v>
       </c>
       <c r="AE26" s="0" t="n">
-        <v>8140</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="27" spans="1:31" customHeight="1">
@@ -2875,7 +2875,7 @@
         <v>75</v>
       </c>
       <c r="AE27" s="0" t="n">
-        <v>10850</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="28" spans="1:31" customHeight="1">
@@ -2922,7 +2922,7 @@
         <v>76</v>
       </c>
       <c r="AE28" s="0" t="n">
-        <v>7560</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="29" spans="1:31" customHeight="1">
@@ -2969,7 +2969,7 @@
         <v>77</v>
       </c>
       <c r="AE29" s="0" t="n">
-        <v>10660</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="30" spans="1:31" customHeight="1">
@@ -3016,7 +3016,7 @@
         <v>78</v>
       </c>
       <c r="AE30" s="0" t="n">
-        <v>2620</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="31" spans="1:31" customHeight="1">
@@ -3063,7 +3063,7 @@
         <v>79</v>
       </c>
       <c r="AE31" s="0" t="n">
-        <v>2640</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="32" spans="1:31" customHeight="1">
@@ -3110,7 +3110,7 @@
         <v>80</v>
       </c>
       <c r="AE32" s="0" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="33" spans="1:31" customHeight="1">
@@ -3157,7 +3157,7 @@
         <v>81</v>
       </c>
       <c r="AE33" s="0" t="n">
-        <v>2600</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="34" spans="1:31" customHeight="1">
@@ -3204,7 +3204,7 @@
         <v>82</v>
       </c>
       <c r="AE34" s="0" t="n">
-        <v>8280</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="35" spans="1:31" customHeight="1">
@@ -3251,7 +3251,7 @@
         <v>83</v>
       </c>
       <c r="AE35" s="0" t="n">
-        <v>2740</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="36" spans="1:31" customHeight="1">
@@ -3298,7 +3298,7 @@
         <v>84</v>
       </c>
       <c r="AE36" s="0" t="n">
-        <v>5280</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="37" spans="1:31" customHeight="1">
@@ -3345,7 +3345,7 @@
         <v>85</v>
       </c>
       <c r="AE37" s="0" t="n">
-        <v>10950</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="38" spans="1:31" customHeight="1">
@@ -3392,7 +3392,7 @@
         <v>86</v>
       </c>
       <c r="AE38" s="0" t="n">
-        <v>7640</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="39" spans="1:31" customHeight="1">
@@ -3439,7 +3439,7 @@
         <v>87</v>
       </c>
       <c r="AE39" s="0" t="n">
-        <v>5040</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="40" spans="1:31" customHeight="1">
@@ -3486,7 +3486,7 @@
         <v>88</v>
       </c>
       <c r="AE40" s="0" t="n">
-        <v>2640</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="41" spans="1:31" customHeight="1">
@@ -3533,7 +3533,7 @@
         <v>89</v>
       </c>
       <c r="AE41" s="0" t="n">
-        <v>5240</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="42" spans="30:31" customHeight="1">
@@ -3541,7 +3541,7 @@
         <v>90</v>
       </c>
       <c r="AE42" s="0" t="n">
-        <v>2640</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="43" spans="30:31" customHeight="1">
@@ -3549,7 +3549,7 @@
         <v>91</v>
       </c>
       <c r="AE43" s="0" t="n">
-        <v>2670</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="44" spans="30:31" customHeight="1">
@@ -3557,7 +3557,7 @@
         <v>92</v>
       </c>
       <c r="AE44" s="0" t="n">
-        <v>2760</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="45" spans="30:31" customHeight="1">
@@ -3565,7 +3565,7 @@
         <v>93</v>
       </c>
       <c r="AE45" s="0" t="n">
-        <v>2690</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="46" spans="30:31" customHeight="1">
@@ -3573,7 +3573,7 @@
         <v>94</v>
       </c>
       <c r="AE46" s="0" t="n">
-        <v>11770</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="47" spans="30:31" customHeight="1">
@@ -3581,7 +3581,7 @@
         <v>95</v>
       </c>
       <c r="AE47" s="0" t="n">
-        <v>2570</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="48" spans="30:31" customHeight="1">
@@ -3589,7 +3589,7 @@
         <v>96</v>
       </c>
       <c r="AE48" s="0" t="n">
-        <v>10760</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="49" spans="30:31" customHeight="1">
@@ -3597,7 +3597,7 @@
         <v>97</v>
       </c>
       <c r="AE49" s="0" t="n">
-        <v>10370</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="50" spans="30:31" customHeight="1">
@@ -3605,7 +3605,7 @@
         <v>98</v>
       </c>
       <c r="AE50" s="0" t="n">
-        <v>7710</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="51" spans="30:31" customHeight="1">
@@ -3613,7 +3613,7 @@
         <v>99</v>
       </c>
       <c r="AE51" s="0" t="n">
-        <v>7920</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="52" spans="30:31" customHeight="1">
@@ -3621,7 +3621,7 @@
         <v>100</v>
       </c>
       <c r="AE52" s="0" t="n">
-        <v>2720</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="53" spans="30:31" customHeight="1">
@@ -3629,7 +3629,7 @@
         <v>101</v>
       </c>
       <c r="AE53" s="0" t="n">
-        <v>10560</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="54" spans="30:31" customHeight="1">
@@ -3637,7 +3637,7 @@
         <v>102</v>
       </c>
       <c r="AE54" s="0" t="n">
-        <v>5280</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="55" spans="30:31" customHeight="1">
@@ -3645,7 +3645,7 @@
         <v>103</v>
       </c>
       <c r="AE55" s="0" t="n">
-        <v>5040</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="56" spans="30:31" customHeight="1">
@@ -3653,7 +3653,7 @@
         <v>104</v>
       </c>
       <c r="AE56" s="0" t="n">
-        <v>7560</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="57" spans="30:31" customHeight="1">
@@ -3661,7 +3661,7 @@
         <v>105</v>
       </c>
       <c r="AE57" s="0" t="n">
-        <v>2620</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="58" spans="30:31" customHeight="1">
@@ -3669,7 +3669,7 @@
         <v>106</v>
       </c>
       <c r="AE58" s="0" t="n">
-        <v>2640</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="59" spans="30:31" customHeight="1">
@@ -3677,7 +3677,7 @@
         <v>107</v>
       </c>
       <c r="AE59" s="0" t="n">
-        <v>2720</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="60" spans="30:31" customHeight="1">
@@ -3685,7 +3685,7 @@
         <v>108</v>
       </c>
       <c r="AE60" s="0" t="n">
-        <v>2550</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="61" spans="30:31" customHeight="1">
@@ -3693,7 +3693,7 @@
         <v>109</v>
       </c>
       <c r="AE61" s="0" t="n">
-        <v>2520</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="62" spans="30:31" customHeight="1">
@@ -3701,7 +3701,7 @@
         <v>110</v>
       </c>
       <c r="AE62" s="0" t="n">
-        <v>2520</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="63" spans="30:31" customHeight="1">
@@ -3709,7 +3709,7 @@
         <v>111</v>
       </c>
       <c r="AE63" s="0" t="n">
-        <v>2600</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="64" spans="30:31" customHeight="1">
@@ -3717,7 +3717,7 @@
         <v>112</v>
       </c>
       <c r="AE64" s="0" t="n">
-        <v>2550</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="65" spans="30:31" customHeight="1">
@@ -3725,7 +3725,7 @@
         <v>113</v>
       </c>
       <c r="AE65" s="0" t="n">
-        <v>10080</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="66" spans="30:31" customHeight="1">
@@ -3733,7 +3733,7 @@
         <v>114</v>
       </c>
       <c r="AE66" s="0" t="n">
-        <v>5090</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="67" spans="30:31" customHeight="1">
@@ -3741,7 +3741,7 @@
         <v>115</v>
       </c>
       <c r="AE67" s="0" t="n">
-        <v>7920</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="68" spans="30:31" customHeight="1">
@@ -3749,7 +3749,7 @@
         <v>116</v>
       </c>
       <c r="AE68" s="0" t="n">
-        <v>10080</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="69" spans="30:31" customHeight="1">
@@ -3757,7 +3757,7 @@
         <v>117</v>
       </c>
       <c r="AE69" s="0" t="n">
-        <v>10280</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="70" spans="30:31" customHeight="1">
@@ -3765,7 +3765,7 @@
         <v>118</v>
       </c>
       <c r="AE70" s="0" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="71" spans="30:31" customHeight="1">
@@ -3773,7 +3773,7 @@
         <v>119</v>
       </c>
       <c r="AE71" s="0" t="n">
-        <v>5480</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="72" spans="30:31" customHeight="1">
@@ -3781,7 +3781,7 @@
         <v>120</v>
       </c>
       <c r="AE72" s="0" t="n">
-        <v>5190</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="73" spans="30:31" customHeight="1">
@@ -3789,7 +3789,7 @@
         <v>121</v>
       </c>
       <c r="AE73" s="0" t="n">
-        <v>2760</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="74" spans="30:31" customHeight="1">
@@ -3797,7 +3797,7 @@
         <v>122</v>
       </c>
       <c r="AE74" s="0" t="n">
-        <v>5480</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="75" spans="30:31" customHeight="1">
@@ -3805,7 +3805,7 @@
         <v>123</v>
       </c>
       <c r="AE75" s="0" t="n">
-        <v>2760</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="76" spans="30:31" customHeight="1">
@@ -3813,7 +3813,7 @@
         <v>124</v>
       </c>
       <c r="AE76" s="0" t="n">
-        <v>2740</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="77" spans="30:31" customHeight="1">
@@ -3821,7 +3821,7 @@
         <v>125</v>
       </c>
       <c r="AE77" s="0" t="n">
-        <v>2690</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="78" spans="30:31" customHeight="1">
@@ -3829,7 +3829,7 @@
         <v>126</v>
       </c>
       <c r="AE78" s="0" t="n">
-        <v>5190</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="79" spans="30:31" customHeight="1">
@@ -3837,7 +3837,7 @@
         <v>127</v>
       </c>
       <c r="AE79" s="0" t="n">
-        <v>10370</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="80" spans="30:31" customHeight="1">
@@ -3845,7 +3845,7 @@
         <v>128</v>
       </c>
       <c r="AE80" s="0" t="n">
-        <v>2640</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="81" spans="30:31" customHeight="1">
@@ -3853,7 +3853,7 @@
         <v>129</v>
       </c>
       <c r="AE81" s="0" t="n">
-        <v>2690</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="82" spans="30:31" customHeight="1">
@@ -3861,7 +3861,7 @@
         <v>130</v>
       </c>
       <c r="AE82" s="0" t="n">
-        <v>10660</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="83" spans="30:31" customHeight="1">
@@ -3869,7 +3869,7 @@
         <v>131</v>
       </c>
       <c r="AE83" s="0" t="n">
-        <v>5280</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="84" spans="30:31" customHeight="1">
@@ -3877,7 +3877,7 @@
         <v>132</v>
       </c>
       <c r="AE84" s="0" t="n">
-        <v>2620</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="85" spans="30:31" customHeight="1">
@@ -3885,7 +3885,7 @@
         <v>133</v>
       </c>
       <c r="AE85" s="0" t="n">
-        <v>7850</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="86" spans="30:31" customHeight="1">
@@ -3893,7 +3893,7 @@
         <v>134</v>
       </c>
       <c r="AE86" s="0" t="n">
-        <v>2670</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="87" spans="30:31" customHeight="1">
@@ -3901,7 +3901,7 @@
         <v>135</v>
       </c>
       <c r="AE87" s="0" t="n">
-        <v>5040</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="88" spans="30:31" customHeight="1">
@@ -3909,7 +3909,7 @@
         <v>136</v>
       </c>
       <c r="AE88" s="0" t="n">
-        <v>2640</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="89" spans="30:31" customHeight="1">
@@ -3917,7 +3917,7 @@
         <v>137</v>
       </c>
       <c r="AE89" s="0" t="n">
-        <v>2550</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="90" spans="30:31" customHeight="1">
@@ -3925,7 +3925,7 @@
         <v>138</v>
       </c>
       <c r="AE90" s="0" t="n">
-        <v>5090</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="91" spans="30:31" customHeight="1">
@@ -3933,7 +3933,7 @@
         <v>139</v>
       </c>
       <c r="AE91" s="0" t="n">
-        <v>5430</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="92" spans="30:31" customHeight="1">
@@ -3941,7 +3941,7 @@
         <v>140</v>
       </c>
       <c r="AE92" s="0" t="n">
-        <v>8140</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="93" spans="30:31" customHeight="1">
@@ -3949,7 +3949,7 @@
         <v>141</v>
       </c>
       <c r="AE93" s="0" t="n">
-        <v>5330</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="94" spans="30:31" customHeight="1">
@@ -3957,7 +3957,7 @@
         <v>142</v>
       </c>
       <c r="AE94" s="0" t="n">
-        <v>5090</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="95" spans="30:31" customHeight="1">
@@ -3965,7 +3965,7 @@
         <v>143</v>
       </c>
       <c r="AE95" s="0" t="n">
-        <v>5280</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="96" spans="30:31" customHeight="1">
@@ -3973,7 +3973,7 @@
         <v>144</v>
       </c>
       <c r="AE96" s="0" t="n">
-        <v>5090</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="97" spans="30:31" customHeight="1">
@@ -3981,7 +3981,7 @@
         <v>145</v>
       </c>
       <c r="AE97" s="0" t="n">
-        <v>5040</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="98" spans="30:31" customHeight="1">
@@ -3989,7 +3989,7 @@
         <v>146</v>
       </c>
       <c r="AE98" s="0" t="n">
-        <v>8210</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="99" spans="30:31" customHeight="1">
@@ -3997,7 +3997,7 @@
         <v>147</v>
       </c>
       <c r="AE99" s="0" t="n">
-        <v>10370</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="100" spans="30:31" customHeight="1">
@@ -4005,7 +4005,7 @@
         <v>148</v>
       </c>
       <c r="AE100" s="0" t="n">
-        <v>7920</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="101" spans="30:31" customHeight="1">
@@ -4013,7 +4013,7 @@
         <v>149</v>
       </c>
       <c r="AE101" s="0" t="n">
-        <v>5040</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="102" spans="30:31" customHeight="1">
@@ -4021,7 +4021,7 @@
         <v>150</v>
       </c>
       <c r="AE102" s="0" t="n">
-        <v>2670</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="103" spans="30:31" customHeight="1">
@@ -4029,7 +4029,7 @@
         <v>151</v>
       </c>
       <c r="AE103" s="0" t="n">
-        <v>5040</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="104" spans="30:31" customHeight="1">
@@ -4037,7 +4037,7 @@
         <v>152</v>
       </c>
       <c r="AE104" s="0" t="n">
-        <v>10470</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="105" spans="30:31" customHeight="1">
@@ -4045,7 +4045,7 @@
         <v>153</v>
       </c>
       <c r="AE105" s="0" t="n">
-        <v>5140</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="106" spans="30:31" customHeight="1">
@@ -4053,7 +4053,7 @@
         <v>154</v>
       </c>
       <c r="AE106" s="0" t="n">
-        <v>5040</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="107" spans="30:31" customHeight="1">
@@ -4061,7 +4061,7 @@
         <v>155</v>
       </c>
       <c r="AE107" s="0" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="108" spans="30:31" customHeight="1">
@@ -4069,7 +4069,7 @@
         <v>156</v>
       </c>
       <c r="AE108" s="0" t="n">
-        <v>8210</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="109" spans="30:31" customHeight="1">
@@ -4077,7 +4077,7 @@
         <v>157</v>
       </c>
       <c r="AE109" s="0" t="n">
-        <v>2670</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="110" spans="30:31" customHeight="1">
@@ -4085,7 +4085,7 @@
         <v>158</v>
       </c>
       <c r="AE110" s="0" t="n">
-        <v>2550</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="111" spans="30:31" customHeight="1">
@@ -4093,7 +4093,7 @@
         <v>159</v>
       </c>
       <c r="AE111" s="0" t="n">
-        <v>2670</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="112" spans="30:31" customHeight="1">
@@ -4101,7 +4101,7 @@
         <v>160</v>
       </c>
       <c r="AE112" s="0" t="n">
-        <v>5190</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="113" spans="30:31" customHeight="1">
@@ -4109,7 +4109,7 @@
         <v>161</v>
       </c>
       <c r="AE113" s="0" t="n">
-        <v>2740</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="114" spans="30:31" customHeight="1">
@@ -4117,7 +4117,7 @@
         <v>162</v>
       </c>
       <c r="AE114" s="0" t="n">
-        <v>5330</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="115" spans="30:31" customHeight="1">
@@ -4125,7 +4125,7 @@
         <v>163</v>
       </c>
       <c r="AE115" s="0" t="n">
-        <v>5520</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="116" spans="30:31" customHeight="1">
@@ -4133,7 +4133,7 @@
         <v>164</v>
       </c>
       <c r="AE116" s="0" t="n">
-        <v>10660</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="117" spans="30:31" customHeight="1">
@@ -4141,7 +4141,7 @@
         <v>165</v>
       </c>
       <c r="AE117" s="0" t="n">
-        <v>7710</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="118" spans="30:31" customHeight="1">
@@ -4149,7 +4149,7 @@
         <v>166</v>
       </c>
       <c r="AE118" s="0" t="n">
-        <v>7640</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="119" spans="30:31" customHeight="1">
@@ -4157,7 +4157,7 @@
         <v>167</v>
       </c>
       <c r="AE119" s="0" t="n">
-        <v>2760</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="120" spans="30:31" customHeight="1">
@@ -4165,7 +4165,7 @@
         <v>168</v>
       </c>
       <c r="AE120" s="0" t="n">
-        <v>7640</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="121" spans="30:31" customHeight="1">
@@ -4173,7 +4173,7 @@
         <v>169</v>
       </c>
       <c r="AE121" s="0" t="n">
-        <v>5140</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="122" spans="30:31" customHeight="1">
@@ -4181,7 +4181,7 @@
         <v>170</v>
       </c>
       <c r="AE122" s="0" t="n">
-        <v>8280</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="123" spans="30:31" customHeight="1">
@@ -4189,7 +4189,7 @@
         <v>171</v>
       </c>
       <c r="AE123" s="0" t="n">
-        <v>7560</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="124" spans="30:31" customHeight="1">
@@ -4197,7 +4197,7 @@
         <v>172</v>
       </c>
       <c r="AE124" s="0" t="n">
-        <v>5090</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="125" spans="30:31" customHeight="1">
@@ -4205,7 +4205,7 @@
         <v>173</v>
       </c>
       <c r="AE125" s="0" t="n">
-        <v>2550</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="126" spans="30:31" customHeight="1">
@@ -4213,7 +4213,7 @@
         <v>174</v>
       </c>
       <c r="AE126" s="0" t="n">
-        <v>8280</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="127" spans="30:31" customHeight="1">
@@ -4221,7 +4221,7 @@
         <v>175</v>
       </c>
       <c r="AE127" s="0" t="n">
-        <v>5480</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="128" spans="30:31" customHeight="1">
@@ -4229,7 +4229,7 @@
         <v>176</v>
       </c>
       <c r="AE128" s="0" t="n">
-        <v>2520</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="129" spans="30:31" customHeight="1">
@@ -4237,7 +4237,7 @@
         <v>177</v>
       </c>
       <c r="AE129" s="0" t="n">
-        <v>11550</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="130" spans="30:31" customHeight="1">
@@ -4245,7 +4245,7 @@
         <v>178</v>
       </c>
       <c r="AE130" s="0" t="n">
-        <v>7710</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="131" spans="30:31" customHeight="1">
@@ -4253,7 +4253,7 @@
         <v>179</v>
       </c>
       <c r="AE131" s="0" t="n">
-        <v>2550</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="132" spans="30:31" customHeight="1">
@@ -4261,7 +4261,7 @@
         <v>180</v>
       </c>
       <c r="AE132" s="0" t="n">
-        <v>2740</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="133" spans="30:31" customHeight="1">
@@ -4269,7 +4269,7 @@
         <v>181</v>
       </c>
       <c r="AE133" s="0" t="n">
-        <v>12430</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="134" spans="30:31" customHeight="1">
@@ -4277,7 +4277,7 @@
         <v>182</v>
       </c>
       <c r="AE134" s="0" t="n">
-        <v>5140</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="135" spans="30:31" customHeight="1">
@@ -4285,7 +4285,7 @@
         <v>183</v>
       </c>
       <c r="AE135" s="0" t="n">
-        <v>2600</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="136" spans="30:31" customHeight="1">
@@ -4293,7 +4293,7 @@
         <v>184</v>
       </c>
       <c r="AE136" s="0" t="n">
-        <v>2760</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="137" spans="30:31" customHeight="1">
@@ -4301,7 +4301,7 @@
         <v>185</v>
       </c>
       <c r="AE137" s="0" t="n">
-        <v>2620</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="138" spans="30:31" customHeight="1">
@@ -4309,7 +4309,7 @@
         <v>186</v>
       </c>
       <c r="AE138" s="0" t="n">
-        <v>2640</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="139" spans="30:31" customHeight="1">
@@ -4317,7 +4317,7 @@
         <v>187</v>
       </c>
       <c r="AE139" s="0" t="n">
-        <v>5240</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="140" spans="30:31" customHeight="1">
@@ -4325,7 +4325,7 @@
         <v>188</v>
       </c>
       <c r="AE140" s="0" t="n">
-        <v>7710</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="141" spans="30:31" customHeight="1">
@@ -4333,7 +4333,7 @@
         <v>189</v>
       </c>
       <c r="AE141" s="0" t="n">
-        <v>5280</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="142" spans="30:31" customHeight="1">
@@ -4341,7 +4341,7 @@
         <v>190</v>
       </c>
       <c r="AE142" s="0" t="n">
-        <v>2640</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="143" spans="30:31" customHeight="1">
@@ -4349,7 +4349,7 @@
         <v>191</v>
       </c>
       <c r="AE143" s="0" t="n">
-        <v>2570</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="144" spans="30:31" customHeight="1">
@@ -4357,7 +4357,7 @@
         <v>192</v>
       </c>
       <c r="AE144" s="0" t="n">
-        <v>5140</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="145" spans="30:31" customHeight="1">
@@ -4365,7 +4365,7 @@
         <v>193</v>
       </c>
       <c r="AE145" s="0" t="n">
-        <v>10950</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="146" spans="30:31" customHeight="1">
@@ -4373,7 +4373,7 @@
         <v>194</v>
       </c>
       <c r="AE146" s="0" t="n">
-        <v>7780</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="147" spans="30:31" customHeight="1">
@@ -4381,7 +4381,7 @@
         <v>195</v>
       </c>
       <c r="AE147" s="0" t="n">
-        <v>2520</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="148" spans="30:31" customHeight="1">
@@ -4389,7 +4389,7 @@
         <v>196</v>
       </c>
       <c r="AE148" s="0" t="n">
-        <v>2690</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="149" spans="30:31" customHeight="1">
@@ -4397,7 +4397,7 @@
         <v>197</v>
       </c>
       <c r="AE149" s="0" t="n">
-        <v>2550</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="150" spans="30:31" customHeight="1">
@@ -4405,7 +4405,7 @@
         <v>198</v>
       </c>
       <c r="AE150" s="0" t="n">
-        <v>5190</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="151" spans="30:31" customHeight="1">
@@ -4413,7 +4413,7 @@
         <v>199</v>
       </c>
       <c r="AE151" s="0" t="n">
-        <v>8140</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="152" spans="30:31" customHeight="1">
@@ -4421,7 +4421,7 @@
         <v>200</v>
       </c>
       <c r="AE152" s="0" t="n">
-        <v>7710</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="153" spans="30:31" customHeight="1">
@@ -4429,7 +4429,7 @@
         <v>201</v>
       </c>
       <c r="AE153" s="0" t="n">
-        <v>2720</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="154" spans="30:31" customHeight="1">
@@ -4437,7 +4437,7 @@
         <v>202</v>
       </c>
       <c r="AE154" s="0" t="n">
-        <v>2640</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="155" spans="30:31" customHeight="1">
@@ -4445,7 +4445,7 @@
         <v>203</v>
       </c>
       <c r="AE155" s="0" t="n">
-        <v>2600</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="156" spans="30:31" customHeight="1">
@@ -4453,7 +4453,7 @@
         <v>204</v>
       </c>
       <c r="AE156" s="0" t="n">
-        <v>8140</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="157" spans="30:31" customHeight="1">
@@ -4461,7 +4461,7 @@
         <v>205</v>
       </c>
       <c r="AE157" s="0" t="n">
-        <v>5040</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="158" spans="30:31" customHeight="1">
@@ -4469,7 +4469,7 @@
         <v>206</v>
       </c>
       <c r="AE158" s="0" t="n">
-        <v>10280</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="159" spans="30:31" customHeight="1">
@@ -4477,7 +4477,7 @@
         <v>207</v>
       </c>
       <c r="AE159" s="0" t="n">
-        <v>5430</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="160" spans="30:31" customHeight="1">
@@ -4485,7 +4485,7 @@
         <v>208</v>
       </c>
       <c r="AE160" s="0" t="n">
-        <v>8140</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="161" spans="30:31" customHeight="1">
@@ -4493,7 +4493,7 @@
         <v>209</v>
       </c>
       <c r="AE161" s="0" t="n">
-        <v>5430</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="162" spans="30:31" customHeight="1">
@@ -4501,7 +4501,7 @@
         <v>210</v>
       </c>
       <c r="AE162" s="0" t="n">
-        <v>10950</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="163" spans="30:31" customHeight="1">
@@ -4509,7 +4509,7 @@
         <v>211</v>
       </c>
       <c r="AE163" s="0" t="n">
-        <v>7710</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="164" spans="30:31" customHeight="1">
@@ -4517,7 +4517,7 @@
         <v>212</v>
       </c>
       <c r="AE164" s="0" t="n">
-        <v>2690</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="165" spans="30:31" customHeight="1">
@@ -4525,7 +4525,7 @@
         <v>213</v>
       </c>
       <c r="AE165" s="0" t="n">
-        <v>5520</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="166" spans="30:31" customHeight="1">
@@ -4533,7 +4533,7 @@
         <v>214</v>
       </c>
       <c r="AE166" s="0" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="167" spans="30:31" customHeight="1">
@@ -4541,7 +4541,7 @@
         <v>215</v>
       </c>
       <c r="AE167" s="0" t="n">
-        <v>7920</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="168" spans="30:31" customHeight="1">
@@ -4549,7 +4549,7 @@
         <v>216</v>
       </c>
       <c r="AE168" s="0" t="n">
-        <v>10560</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="169" spans="30:31" customHeight="1">
@@ -4557,7 +4557,7 @@
         <v>217</v>
       </c>
       <c r="AE169" s="0" t="n">
-        <v>2670</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="170" spans="30:31" customHeight="1">
@@ -4565,7 +4565,7 @@
         <v>218</v>
       </c>
       <c r="AE170" s="0" t="n">
-        <v>5330</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="171" spans="30:31" customHeight="1">
@@ -4573,7 +4573,7 @@
         <v>219</v>
       </c>
       <c r="AE171" s="0" t="n">
-        <v>2520</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="172" spans="30:31" customHeight="1">
@@ -4581,7 +4581,7 @@
         <v>220</v>
       </c>
       <c r="AE172" s="0" t="n">
-        <v>5190</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="173" spans="30:31" customHeight="1">
@@ -4589,7 +4589,7 @@
         <v>221</v>
       </c>
       <c r="AE173" s="0" t="n">
-        <v>2720</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="174" spans="30:31" customHeight="1">
@@ -4597,7 +4597,7 @@
         <v>222</v>
       </c>
       <c r="AE174" s="0" t="n">
-        <v>2520</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="175" spans="30:31" customHeight="1">
@@ -4605,7 +4605,7 @@
         <v>223</v>
       </c>
       <c r="AE175" s="0" t="n">
-        <v>5090</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="176" spans="30:31" customHeight="1">
@@ -4613,7 +4613,7 @@
         <v>224</v>
       </c>
       <c r="AE176" s="0" t="n">
-        <v>2570</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="177" spans="30:31" customHeight="1">
@@ -4621,7 +4621,7 @@
         <v>225</v>
       </c>
       <c r="AE177" s="0" t="n">
-        <v>7780</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="178" spans="30:31" customHeight="1">
@@ -4629,7 +4629,7 @@
         <v>226</v>
       </c>
       <c r="AE178" s="0" t="n">
-        <v>10760</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="179" spans="30:31" customHeight="1">
@@ -4637,7 +4637,7 @@
         <v>227</v>
       </c>
       <c r="AE179" s="0" t="n">
-        <v>10280</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="180" spans="30:31" customHeight="1">
@@ -4645,7 +4645,7 @@
         <v>228</v>
       </c>
       <c r="AE180" s="0" t="n">
-        <v>2720</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="181" spans="30:31" customHeight="1">
@@ -4653,7 +4653,7 @@
         <v>229</v>
       </c>
       <c r="AE181" s="0" t="n">
-        <v>2600</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="182" spans="30:31" customHeight="1">
@@ -4661,7 +4661,7 @@
         <v>230</v>
       </c>
       <c r="AE182" s="0" t="n">
-        <v>8070</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="183" spans="30:31" customHeight="1">
@@ -4669,7 +4669,7 @@
         <v>231</v>
       </c>
       <c r="AE183" s="0" t="n">
-        <v>10660</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="184" spans="30:31" customHeight="1">
@@ -4677,7 +4677,7 @@
         <v>232</v>
       </c>
       <c r="AE184" s="0" t="n">
-        <v>7920</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="185" spans="30:31" customHeight="1">
@@ -4685,7 +4685,7 @@
         <v>233</v>
       </c>
       <c r="AE185" s="0" t="n">
-        <v>2600</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="186" spans="30:31" customHeight="1">
@@ -4693,7 +4693,7 @@
         <v>234</v>
       </c>
       <c r="AE186" s="0" t="n">
-        <v>2570</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="187" spans="30:31" customHeight="1">
@@ -4701,7 +4701,7 @@
         <v>235</v>
       </c>
       <c r="AE187" s="0" t="n">
-        <v>5040</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="188" spans="30:31" customHeight="1">
@@ -4709,7 +4709,7 @@
         <v>236</v>
       </c>
       <c r="AE188" s="0" t="n">
-        <v>7710</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="189" spans="30:31" customHeight="1">
@@ -4717,7 +4717,7 @@
         <v>237</v>
       </c>
       <c r="AE189" s="0" t="n">
-        <v>2670</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="190" spans="30:31" customHeight="1">
@@ -4725,7 +4725,7 @@
         <v>238</v>
       </c>
       <c r="AE190" s="0" t="n">
-        <v>8280</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="191" spans="30:31" customHeight="1">
@@ -4733,7 +4733,7 @@
         <v>239</v>
       </c>
       <c r="AE191" s="0" t="n">
-        <v>7920</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="192" spans="30:31" customHeight="1">
@@ -4741,7 +4741,7 @@
         <v>240</v>
       </c>
       <c r="AE192" s="0" t="n">
-        <v>5330</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="193" spans="30:31" customHeight="1">
@@ -4749,7 +4749,7 @@
         <v>241</v>
       </c>
       <c r="AE193" s="0" t="n">
-        <v>5480</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="194" spans="30:31" customHeight="1">
@@ -4757,7 +4757,7 @@
         <v>242</v>
       </c>
       <c r="AE194" s="0" t="n">
-        <v>2640</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="195" spans="30:31" customHeight="1">
@@ -4765,7 +4765,7 @@
         <v>243</v>
       </c>
       <c r="AE195" s="0" t="n">
-        <v>5140</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="196" spans="30:31" customHeight="1">
@@ -4773,7 +4773,7 @@
         <v>244</v>
       </c>
       <c r="AE196" s="0" t="n">
-        <v>5280</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="197" spans="30:31" customHeight="1">
@@ -4781,7 +4781,7 @@
         <v>245</v>
       </c>
       <c r="AE197" s="0" t="n">
-        <v>8140</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="198" spans="30:31" customHeight="1">
@@ -4789,7 +4789,7 @@
         <v>246</v>
       </c>
       <c r="AE198" s="0" t="n">
-        <v>8070</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="199" spans="30:31" customHeight="1">
@@ -4797,7 +4797,7 @@
         <v>247</v>
       </c>
       <c r="AE199" s="0" t="n">
-        <v>8280</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="200" spans="30:31" customHeight="1">
@@ -4805,7 +4805,7 @@
         <v>248</v>
       </c>
       <c r="AE200" s="0" t="n">
-        <v>7920</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="201" spans="30:31" customHeight="1">
@@ -4813,7 +4813,7 @@
         <v>249</v>
       </c>
       <c r="AE201" s="0" t="n">
-        <v>8280</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="202" spans="30:31" customHeight="1">
@@ -4821,7 +4821,7 @@
         <v>250</v>
       </c>
       <c r="AE202" s="0" t="n">
-        <v>10950</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="203" spans="30:31" customHeight="1">
@@ -4829,7 +4829,7 @@
         <v>251</v>
       </c>
       <c r="AE203" s="0" t="n">
-        <v>7560</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="204" spans="30:31" customHeight="1">
@@ -4837,7 +4837,7 @@
         <v>252</v>
       </c>
       <c r="AE204" s="0" t="n">
-        <v>5380</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="205" spans="30:31" customHeight="1">
@@ -4845,7 +4845,7 @@
         <v>253</v>
       </c>
       <c r="AE205" s="0" t="n">
-        <v>7560</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="206" spans="30:31" customHeight="1">
@@ -4853,7 +4853,7 @@
         <v>254</v>
       </c>
       <c r="AE206" s="0" t="n">
-        <v>5240</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="207" spans="30:31" customHeight="1">
@@ -4861,7 +4861,7 @@
         <v>255</v>
       </c>
       <c r="AE207" s="0" t="n">
-        <v>8070</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="208" spans="30:31" customHeight="1">
@@ -4869,7 +4869,7 @@
         <v>256</v>
       </c>
       <c r="AE208" s="0" t="n">
-        <v>5520</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="209" spans="30:31" customHeight="1">
@@ -4877,7 +4877,7 @@
         <v>257</v>
       </c>
       <c r="AE209" s="0" t="n">
-        <v>10850</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="210" spans="30:31" customHeight="1">
@@ -4885,7 +4885,7 @@
         <v>258</v>
       </c>
       <c r="AE210" s="0" t="n">
-        <v>5520</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="211" spans="30:31" customHeight="1">
@@ -4893,7 +4893,7 @@
         <v>259</v>
       </c>
       <c r="AE211" s="0" t="n">
-        <v>8140</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="212" spans="30:31" customHeight="1">
@@ -4901,7 +4901,7 @@
         <v>260</v>
       </c>
       <c r="AE212" s="0" t="n">
-        <v>7640</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="213" spans="30:31" customHeight="1">
@@ -4909,7 +4909,7 @@
         <v>261</v>
       </c>
       <c r="AE213" s="0" t="n">
-        <v>5380</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="214" spans="30:31" customHeight="1">
@@ -4917,7 +4917,7 @@
         <v>262</v>
       </c>
       <c r="AE214" s="0" t="n">
-        <v>5380</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="215" spans="30:31" customHeight="1">
@@ -4925,7 +4925,7 @@
         <v>263</v>
       </c>
       <c r="AE215" s="0" t="n">
-        <v>10560</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="216" spans="30:31" customHeight="1">
@@ -4933,7 +4933,7 @@
         <v>264</v>
       </c>
       <c r="AE216" s="0" t="n">
-        <v>2760</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="217" spans="30:31" customHeight="1">
@@ -4941,7 +4941,7 @@
         <v>265</v>
       </c>
       <c r="AE217" s="0" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="218" spans="30:31" customHeight="1">
@@ -4949,7 +4949,7 @@
         <v>266</v>
       </c>
       <c r="AE218" s="0" t="n">
-        <v>5520</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="219" spans="30:31" customHeight="1">
@@ -4957,7 +4957,7 @@
         <v>267</v>
       </c>
       <c r="AE219" s="0" t="n">
-        <v>7640</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="220" spans="30:31" customHeight="1">
@@ -4965,7 +4965,7 @@
         <v>268</v>
       </c>
       <c r="AE220" s="0" t="n">
-        <v>7560</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="221" spans="30:31" customHeight="1">
@@ -4973,7 +4973,7 @@
         <v>269</v>
       </c>
       <c r="AE221" s="0" t="n">
-        <v>5480</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="222" spans="30:31" customHeight="1">
@@ -4981,7 +4981,7 @@
         <v>270</v>
       </c>
       <c r="AE222" s="0" t="n">
-        <v>8280</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="223" spans="30:31" customHeight="1">
@@ -4989,7 +4989,7 @@
         <v>271</v>
       </c>
       <c r="AE223" s="0" t="n">
-        <v>2670</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="224" spans="30:31" customHeight="1">
@@ -4997,7 +4997,7 @@
         <v>272</v>
       </c>
       <c r="AE224" s="0" t="n">
-        <v>5330</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="225" spans="30:31" customHeight="1">
@@ -5005,7 +5005,7 @@
         <v>273</v>
       </c>
       <c r="AE225" s="0" t="n">
-        <v>10180</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="226" spans="30:31" customHeight="1">
@@ -5013,7 +5013,7 @@
         <v>274</v>
       </c>
       <c r="AE226" s="0" t="n">
-        <v>2640</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="227" spans="30:31" customHeight="1">
@@ -5021,7 +5021,7 @@
         <v>275</v>
       </c>
       <c r="AE227" s="0" t="n">
-        <v>10950</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="228" spans="30:31" customHeight="1">
@@ -5029,7 +5029,7 @@
         <v>276</v>
       </c>
       <c r="AE228" s="0" t="n">
-        <v>7920</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="229" spans="30:31" customHeight="1">
@@ -5037,7 +5037,7 @@
         <v>277</v>
       </c>
       <c r="AE229" s="0" t="n">
-        <v>10470</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="230" spans="30:31" customHeight="1">
@@ -5045,7 +5045,7 @@
         <v>278</v>
       </c>
       <c r="AE230" s="0" t="n">
-        <v>10660</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="231" spans="30:31" customHeight="1">
@@ -5053,7 +5053,7 @@
         <v>279</v>
       </c>
       <c r="AE231" s="0" t="n">
-        <v>5480</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="232" spans="30:31" customHeight="1">
@@ -5061,7 +5061,7 @@
         <v>280</v>
       </c>
       <c r="AE232" s="0" t="n">
-        <v>5280</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="233" spans="30:31" customHeight="1">
@@ -5069,7 +5069,7 @@
         <v>281</v>
       </c>
       <c r="AE233" s="0" t="n">
-        <v>5190</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="234" spans="30:31" customHeight="1">
@@ -5077,7 +5077,7 @@
         <v>282</v>
       </c>
       <c r="AE234" s="0" t="n">
-        <v>7560</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="235" spans="30:31" customHeight="1">
@@ -5085,7 +5085,7 @@
         <v>283</v>
       </c>
       <c r="AE235" s="0" t="n">
-        <v>2640</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="236" spans="30:31" customHeight="1">
@@ -5093,7 +5093,7 @@
         <v>284</v>
       </c>
       <c r="AE236" s="0" t="n">
-        <v>8070</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="237" spans="30:31" customHeight="1">
@@ -5101,7 +5101,7 @@
         <v>285</v>
       </c>
       <c r="AE237" s="0" t="n">
-        <v>7920</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="238" spans="30:31" customHeight="1">
@@ -5109,7 +5109,7 @@
         <v>286</v>
       </c>
       <c r="AE238" s="0" t="n">
-        <v>10850</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="239" spans="30:31" customHeight="1">
@@ -5117,7 +5117,7 @@
         <v>287</v>
       </c>
       <c r="AE239" s="0" t="n">
-        <v>10280</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="240" spans="30:31" customHeight="1">
@@ -5125,7 +5125,7 @@
         <v>288</v>
       </c>
       <c r="AE240" s="0" t="n">
-        <v>5040</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="241" spans="30:31" customHeight="1">
@@ -5133,7 +5133,7 @@
         <v>289</v>
       </c>
       <c r="AE241" s="0" t="n">
-        <v>2520</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="242" spans="30:31" customHeight="1">
@@ -5141,7 +5141,7 @@
         <v>290</v>
       </c>
       <c r="AE242" s="0" t="n">
-        <v>8070</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="243" spans="30:31" customHeight="1">
@@ -5149,7 +5149,7 @@
         <v>291</v>
       </c>
       <c r="AE243" s="0" t="n">
-        <v>10080</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="244" spans="30:31" customHeight="1">
@@ -5157,7 +5157,7 @@
         <v>292</v>
       </c>
       <c r="AE244" s="0" t="n">
-        <v>2600</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="245" spans="30:31" customHeight="1">
@@ -5165,7 +5165,7 @@
         <v>293</v>
       </c>
       <c r="AE245" s="0" t="n">
-        <v>2600</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="246" spans="30:31" customHeight="1">
@@ -5173,7 +5173,7 @@
         <v>294</v>
       </c>
       <c r="AE246" s="0" t="n">
-        <v>12320</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="247" spans="30:31" customHeight="1">
@@ -5181,7 +5181,7 @@
         <v>295</v>
       </c>
       <c r="AE247" s="0" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="248" spans="30:31" customHeight="1">
@@ -5189,7 +5189,7 @@
         <v>296</v>
       </c>
       <c r="AE248" s="0" t="n">
-        <v>5330</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="249" spans="30:31" customHeight="1">
@@ -5197,7 +5197,7 @@
         <v>297</v>
       </c>
       <c r="AE249" s="0" t="n">
-        <v>2600</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="250" spans="30:31" customHeight="1">
@@ -5205,7 +5205,7 @@
         <v>298</v>
       </c>
       <c r="AE250" s="0" t="n">
-        <v>5480</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="251" spans="30:31" customHeight="1">
@@ -5213,7 +5213,7 @@
         <v>299</v>
       </c>
       <c r="AE251" s="0" t="n">
-        <v>2620</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="252" spans="30:31" customHeight="1">
@@ -5221,7 +5221,7 @@
         <v>300</v>
       </c>
       <c r="AE252" s="0" t="n">
-        <v>5090</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="253" spans="30:31" customHeight="1">
@@ -5229,7 +5229,7 @@
         <v>301</v>
       </c>
       <c r="AE253" s="0" t="n">
-        <v>8070</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="254" spans="30:31" customHeight="1">
@@ -5237,7 +5237,7 @@
         <v>302</v>
       </c>
       <c r="AE254" s="0" t="n">
-        <v>5330</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="255" spans="30:31" customHeight="1">
@@ -5245,7 +5245,7 @@
         <v>303</v>
       </c>
       <c r="AE255" s="0" t="n">
-        <v>5520</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="256" spans="30:31" customHeight="1">
@@ -5253,7 +5253,7 @@
         <v>304</v>
       </c>
       <c r="AE256" s="0" t="n">
-        <v>12650</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="257" spans="30:31" customHeight="1">
@@ -5261,7 +5261,7 @@
         <v>305</v>
       </c>
       <c r="AE257" s="0" t="n">
-        <v>5280</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="258" spans="30:31" customHeight="1">
@@ -5269,7 +5269,7 @@
         <v>306</v>
       </c>
       <c r="AE258" s="0" t="n">
-        <v>5140</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="259" spans="30:31" customHeight="1">
@@ -5277,7 +5277,7 @@
         <v>307</v>
       </c>
       <c r="AE259" s="0" t="n">
-        <v>10560</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="260" spans="30:31" customHeight="1">
@@ -5285,7 +5285,7 @@
         <v>308</v>
       </c>
       <c r="AE260" s="0" t="n">
-        <v>5430</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="261" spans="30:31" customHeight="1">
@@ -5293,7 +5293,7 @@
         <v>309</v>
       </c>
       <c r="AE261" s="0" t="n">
-        <v>2670</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="262" spans="30:31" customHeight="1">
@@ -5301,7 +5301,7 @@
         <v>310</v>
       </c>
       <c r="AE262" s="0" t="n">
-        <v>2720</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="263" spans="30:31" customHeight="1">
@@ -5309,7 +5309,7 @@
         <v>311</v>
       </c>
       <c r="AE263" s="0" t="n">
-        <v>11040</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="264" spans="30:31" customHeight="1">
@@ -5317,7 +5317,7 @@
         <v>312</v>
       </c>
       <c r="AE264" s="0" t="n">
-        <v>8140</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="265" spans="30:31" customHeight="1">
@@ -5325,7 +5325,7 @@
         <v>313</v>
       </c>
       <c r="AE265" s="0" t="n">
-        <v>11040</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="266" spans="30:31" customHeight="1">
@@ -5333,7 +5333,7 @@
         <v>314</v>
       </c>
       <c r="AE266" s="0" t="n">
-        <v>5190</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="267" spans="30:31" customHeight="1">
@@ -5341,7 +5341,7 @@
         <v>315</v>
       </c>
       <c r="AE267" s="0" t="n">
-        <v>10280</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="268" spans="30:31" customHeight="1">
@@ -5349,7 +5349,7 @@
         <v>316</v>
       </c>
       <c r="AE268" s="0" t="n">
-        <v>8140</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="269" spans="30:31" customHeight="1">
@@ -5357,7 +5357,7 @@
         <v>317</v>
       </c>
       <c r="AE269" s="0" t="n">
-        <v>5190</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="270" spans="30:31" customHeight="1">
@@ -5365,7 +5365,7 @@
         <v>318</v>
       </c>
       <c r="AE270" s="0" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="271" spans="30:31" customHeight="1">
@@ -5373,7 +5373,7 @@
         <v>319</v>
       </c>
       <c r="AE271" s="0" t="n">
-        <v>5380</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="272" spans="30:31" customHeight="1">
@@ -5381,7 +5381,7 @@
         <v>320</v>
       </c>
       <c r="AE272" s="0" t="n">
-        <v>10180</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="273" spans="30:31" customHeight="1">
@@ -5389,7 +5389,7 @@
         <v>321</v>
       </c>
       <c r="AE273" s="0" t="n">
-        <v>2640</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="274" spans="30:31" customHeight="1">
@@ -5397,7 +5397,7 @@
         <v>322</v>
       </c>
       <c r="AE274" s="0" t="n">
-        <v>7920</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="275" spans="30:31" customHeight="1">
@@ -5405,7 +5405,7 @@
         <v>323</v>
       </c>
       <c r="AE275" s="0" t="n">
-        <v>7710</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="276" spans="30:31" customHeight="1">
@@ -5413,7 +5413,7 @@
         <v>324</v>
       </c>
       <c r="AE276" s="0" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="277" spans="30:31" customHeight="1">
@@ -5421,7 +5421,7 @@
         <v>325</v>
       </c>
       <c r="AE277" s="0" t="n">
-        <v>5520</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="278" spans="30:31" customHeight="1">
@@ -5429,7 +5429,7 @@
         <v>326</v>
       </c>
       <c r="AE278" s="0" t="n">
-        <v>2640</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="279" spans="30:31" customHeight="1">
@@ -5437,7 +5437,7 @@
         <v>327</v>
       </c>
       <c r="AE279" s="0" t="n">
-        <v>5240</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="280" spans="30:31" customHeight="1">
@@ -5445,7 +5445,7 @@
         <v>328</v>
       </c>
       <c r="AE280" s="0" t="n">
-        <v>2690</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="281" spans="30:31" customHeight="1">
@@ -5453,7 +5453,7 @@
         <v>329</v>
       </c>
       <c r="AE281" s="0" t="n">
-        <v>7560</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="282" spans="30:31" customHeight="1">
@@ -5461,7 +5461,7 @@
         <v>330</v>
       </c>
       <c r="AE282" s="0" t="n">
-        <v>5040</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="283" spans="30:31" customHeight="1">
@@ -5469,7 +5469,7 @@
         <v>331</v>
       </c>
       <c r="AE283" s="0" t="n">
-        <v>2570</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="284" spans="30:31" customHeight="1">
@@ -5477,7 +5477,7 @@
         <v>332</v>
       </c>
       <c r="AE284" s="0" t="n">
-        <v>2520</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="285" spans="30:31" customHeight="1">
@@ -5485,7 +5485,7 @@
         <v>333</v>
       </c>
       <c r="AE285" s="0" t="n">
-        <v>8210</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="286" spans="30:31" customHeight="1">
@@ -5493,7 +5493,7 @@
         <v>334</v>
       </c>
       <c r="AE286" s="0" t="n">
-        <v>10950</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="287" spans="30:31" customHeight="1">
@@ -5501,7 +5501,7 @@
         <v>335</v>
       </c>
       <c r="AE287" s="0" t="n">
-        <v>2670</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="288" spans="30:31" customHeight="1">
@@ -5509,7 +5509,7 @@
         <v>336</v>
       </c>
       <c r="AE288" s="0" t="n">
-        <v>10280</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="289" spans="30:31" customHeight="1">
@@ -5517,7 +5517,7 @@
         <v>337</v>
       </c>
       <c r="AE289" s="0" t="n">
-        <v>8210</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="290" spans="30:31" customHeight="1">
@@ -5525,7 +5525,7 @@
         <v>338</v>
       </c>
       <c r="AE290" s="0" t="n">
-        <v>10080</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="291" spans="30:31" customHeight="1">
@@ -5533,7 +5533,7 @@
         <v>339</v>
       </c>
       <c r="AE291" s="0" t="n">
-        <v>2690</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="292" spans="30:31" customHeight="1">
@@ -5541,7 +5541,7 @@
         <v>340</v>
       </c>
       <c r="AE292" s="0" t="n">
-        <v>2550</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="293" spans="30:31" customHeight="1">
@@ -5549,7 +5549,7 @@
         <v>341</v>
       </c>
       <c r="AE293" s="0" t="n">
-        <v>5280</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="294" spans="30:31" customHeight="1">
@@ -5557,7 +5557,7 @@
         <v>342</v>
       </c>
       <c r="AE294" s="0" t="n">
-        <v>8210</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="295" spans="30:31" customHeight="1">
@@ -5565,7 +5565,7 @@
         <v>343</v>
       </c>
       <c r="AE295" s="0" t="n">
-        <v>12100</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="296" spans="30:31" customHeight="1">
@@ -5573,7 +5573,7 @@
         <v>344</v>
       </c>
       <c r="AE296" s="0" t="n">
-        <v>5190</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="297" spans="30:31" customHeight="1">
@@ -5581,7 +5581,7 @@
         <v>345</v>
       </c>
       <c r="AE297" s="0" t="n">
-        <v>5330</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="298" spans="30:31" customHeight="1">
@@ -5589,7 +5589,7 @@
         <v>346</v>
       </c>
       <c r="AE298" s="0" t="n">
-        <v>5240</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="299" spans="30:31" customHeight="1">
@@ -5597,7 +5597,7 @@
         <v>347</v>
       </c>
       <c r="AE299" s="0" t="n">
-        <v>7920</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="300" spans="30:31" customHeight="1">
@@ -5605,7 +5605,7 @@
         <v>348</v>
       </c>
       <c r="AE300" s="0" t="n">
-        <v>5040</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="301" spans="30:31" customHeight="1">
@@ -5613,7 +5613,7 @@
         <v>349</v>
       </c>
       <c r="AE301" s="0" t="n">
-        <v>10280</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="302" spans="30:31" customHeight="1">
@@ -5621,7 +5621,7 @@
         <v>350</v>
       </c>
       <c r="AE302" s="0" t="n">
-        <v>10470</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="303" spans="30:31" customHeight="1">
@@ -5629,7 +5629,7 @@
         <v>351</v>
       </c>
       <c r="AE303" s="0" t="n">
-        <v>5040</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="304" spans="30:31" customHeight="1">
@@ -5637,7 +5637,7 @@
         <v>352</v>
       </c>
       <c r="AE304" s="0" t="n">
-        <v>5240</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="305" spans="30:31" customHeight="1">
@@ -5645,7 +5645,7 @@
         <v>353</v>
       </c>
       <c r="AE305" s="0" t="n">
-        <v>7920</v>
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
@@ -5754,7 +5754,7 @@
         <v>372</v>
       </c>
       <c r="AE1" s="0" t="n">
-        <v>2160</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="40" customHeight="1">
@@ -5799,7 +5799,7 @@
         <v>373</v>
       </c>
       <c r="AE2" s="0" t="n">
-        <v>1050</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="40" customHeight="1">
@@ -5848,7 +5848,7 @@
         <v>374</v>
       </c>
       <c r="AE3" s="0" t="n">
-        <v>1140</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="40" customHeight="1">
@@ -5891,7 +5891,7 @@
         <v>375</v>
       </c>
       <c r="AE4" s="0" t="n">
-        <v>1090</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="5" spans="1:31" customHeight="1">
@@ -5944,7 +5944,7 @@
         <v>376</v>
       </c>
       <c r="AE5" s="0" t="n">
-        <v>1110</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="6" spans="1:31" customHeight="1">
@@ -5997,7 +5997,7 @@
         <v>377</v>
       </c>
       <c r="AE6" s="0" t="n">
-        <v>2240</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="7" spans="1:31" customHeight="1">
@@ -6044,7 +6044,7 @@
         <v>378</v>
       </c>
       <c r="AE7" s="0" t="n">
-        <v>1080</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="8" spans="1:31" customHeight="1">
@@ -6091,7 +6091,7 @@
         <v>379</v>
       </c>
       <c r="AE8" s="0" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="9" spans="1:31" customHeight="1">
@@ -6138,7 +6138,7 @@
         <v>380</v>
       </c>
       <c r="AE9" s="0" t="n">
-        <v>1120</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="10" spans="1:31" customHeight="1">
@@ -6185,7 +6185,7 @@
         <v>381</v>
       </c>
       <c r="AE10" s="0" t="n">
-        <v>1110</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="11" spans="1:31" customHeight="1">
@@ -6232,7 +6232,7 @@
         <v>382</v>
       </c>
       <c r="AE11" s="0" t="n">
-        <v>1060</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="12" spans="1:31" customHeight="1">
@@ -6279,7 +6279,7 @@
         <v>383</v>
       </c>
       <c r="AE12" s="0" t="n">
-        <v>1050</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="13" spans="1:31" customHeight="1">
@@ -6326,7 +6326,7 @@
         <v>384</v>
       </c>
       <c r="AE13" s="0" t="n">
-        <v>1060</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="14" spans="1:31" customHeight="1">
@@ -6373,7 +6373,7 @@
         <v>385</v>
       </c>
       <c r="AE14" s="0" t="n">
-        <v>1130</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="15" spans="1:31" customHeight="1">
@@ -6420,7 +6420,7 @@
         <v>386</v>
       </c>
       <c r="AE15" s="0" t="n">
-        <v>2180</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="16" spans="1:31" customHeight="1">
@@ -6467,7 +6467,7 @@
         <v>387</v>
       </c>
       <c r="AE16" s="0" t="n">
-        <v>2140</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="17" spans="1:31" customHeight="1">
@@ -6514,7 +6514,7 @@
         <v>388</v>
       </c>
       <c r="AE17" s="0" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="18" spans="1:31" customHeight="1">
@@ -6561,7 +6561,7 @@
         <v>389</v>
       </c>
       <c r="AE18" s="0" t="n">
-        <v>1060</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="19" spans="1:31" customHeight="1">
@@ -6608,7 +6608,7 @@
         <v>390</v>
       </c>
       <c r="AE19" s="0" t="n">
-        <v>1070</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="20" spans="1:31" customHeight="1">
@@ -6655,7 +6655,7 @@
         <v>391</v>
       </c>
       <c r="AE20" s="0" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="21" spans="1:31" customHeight="1">
@@ -6702,7 +6702,7 @@
         <v>392</v>
       </c>
       <c r="AE21" s="0" t="n">
-        <v>1090</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="22" spans="1:31" customHeight="1">
@@ -6749,7 +6749,7 @@
         <v>393</v>
       </c>
       <c r="AE22" s="0" t="n">
-        <v>2280</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="23" spans="1:31" customHeight="1">
@@ -6796,7 +6796,7 @@
         <v>394</v>
       </c>
       <c r="AE23" s="0" t="n">
-        <v>1130</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="24" spans="1:31" customHeight="1">
@@ -6843,7 +6843,7 @@
         <v>395</v>
       </c>
       <c r="AE24" s="0" t="n">
-        <v>1050</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="25" spans="1:31" customHeight="1">
@@ -6890,7 +6890,7 @@
         <v>396</v>
       </c>
       <c r="AE25" s="0" t="n">
-        <v>1070</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="26" spans="1:31" customHeight="1">
@@ -6937,7 +6937,7 @@
         <v>397</v>
       </c>
       <c r="AE26" s="0" t="n">
-        <v>1060</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="27" spans="30:31" customHeight="1">
@@ -6945,7 +6945,7 @@
         <v>398</v>
       </c>
       <c r="AE27" s="0" t="n">
-        <v>2260</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="28" spans="30:31" customHeight="1">
@@ -6953,7 +6953,7 @@
         <v>399</v>
       </c>
       <c r="AE28" s="0" t="n">
-        <v>2630</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="29" spans="30:31" customHeight="1">
@@ -6961,7 +6961,7 @@
         <v>400</v>
       </c>
       <c r="AE29" s="0" t="n">
-        <v>1050</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="30" spans="30:31" customHeight="1">
@@ -6969,7 +6969,7 @@
         <v>401</v>
       </c>
       <c r="AE30" s="0" t="n">
-        <v>1070</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="31" spans="30:31" customHeight="1">
@@ -6977,7 +6977,7 @@
         <v>402</v>
       </c>
       <c r="AE31" s="0" t="n">
-        <v>2120</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="32" spans="30:31" customHeight="1">
@@ -6985,7 +6985,7 @@
         <v>403</v>
       </c>
       <c r="AE32" s="0" t="n">
-        <v>1120</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="33" spans="30:31" customHeight="1">
@@ -6993,7 +6993,7 @@
         <v>404</v>
       </c>
       <c r="AE33" s="0" t="n">
-        <v>2280</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="34" spans="30:31" customHeight="1">
@@ -7001,7 +7001,7 @@
         <v>405</v>
       </c>
       <c r="AE34" s="0" t="n">
-        <v>1110</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="35" spans="30:31" customHeight="1">
@@ -7009,7 +7009,7 @@
         <v>406</v>
       </c>
       <c r="AE35" s="0" t="n">
-        <v>1070</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="36" spans="30:31" customHeight="1">
@@ -7017,7 +7017,7 @@
         <v>407</v>
       </c>
       <c r="AE36" s="0" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="37" spans="30:31" customHeight="1">
@@ -7025,7 +7025,7 @@
         <v>408</v>
       </c>
       <c r="AE37" s="0" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="38" spans="30:31" customHeight="1">
@@ -7033,7 +7033,7 @@
         <v>409</v>
       </c>
       <c r="AE38" s="0" t="n">
-        <v>1130</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="39" spans="30:31" customHeight="1">
@@ -7041,7 +7041,7 @@
         <v>410</v>
       </c>
       <c r="AE39" s="0" t="n">
-        <v>1140</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="40" spans="30:31" customHeight="1">
@@ -7049,7 +7049,7 @@
         <v>411</v>
       </c>
       <c r="AE40" s="0" t="n">
-        <v>2830</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="41" spans="30:31" customHeight="1">
@@ -7057,7 +7057,7 @@
         <v>412</v>
       </c>
       <c r="AE41" s="0" t="n">
-        <v>1130</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="42" spans="30:31" customHeight="1">
@@ -7065,7 +7065,7 @@
         <v>413</v>
       </c>
       <c r="AE42" s="0" t="n">
-        <v>1130</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="43" spans="30:31" customHeight="1">
@@ -7073,7 +7073,7 @@
         <v>414</v>
       </c>
       <c r="AE43" s="0" t="n">
-        <v>1060</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="44" spans="30:31" customHeight="1">
@@ -7081,7 +7081,7 @@
         <v>415</v>
       </c>
       <c r="AE44" s="0" t="n">
-        <v>1120</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="45" spans="30:31" customHeight="1">
@@ -7089,7 +7089,7 @@
         <v>416</v>
       </c>
       <c r="AE45" s="0" t="n">
-        <v>1120</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="46" spans="30:31" customHeight="1">
@@ -7097,7 +7097,7 @@
         <v>417</v>
       </c>
       <c r="AE46" s="0" t="n">
-        <v>2750</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="47" spans="30:31" customHeight="1">
@@ -7105,7 +7105,7 @@
         <v>418</v>
       </c>
       <c r="AE47" s="0" t="n">
-        <v>1080</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="48" spans="30:31" customHeight="1">
@@ -7113,7 +7113,7 @@
         <v>419</v>
       </c>
       <c r="AE48" s="0" t="n">
-        <v>1060</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="49" spans="30:31" customHeight="1">
@@ -7121,7 +7121,7 @@
         <v>420</v>
       </c>
       <c r="AE49" s="0" t="n">
-        <v>1120</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="50" spans="30:31" customHeight="1">
@@ -7129,7 +7129,7 @@
         <v>421</v>
       </c>
       <c r="AE50" s="0" t="n">
-        <v>1070</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="51" spans="30:31" customHeight="1">
@@ -7137,7 +7137,7 @@
         <v>422</v>
       </c>
       <c r="AE51" s="0" t="n">
-        <v>2850</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="52" spans="30:31" customHeight="1">
@@ -7145,7 +7145,7 @@
         <v>423</v>
       </c>
       <c r="AE52" s="0" t="n">
-        <v>1070</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="53" spans="30:31" customHeight="1">
@@ -7153,7 +7153,7 @@
         <v>424</v>
       </c>
       <c r="AE53" s="0" t="n">
-        <v>2180</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="54" spans="30:31" customHeight="1">
@@ -7161,7 +7161,7 @@
         <v>425</v>
       </c>
       <c r="AE54" s="0" t="n">
-        <v>2300</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="55" spans="30:31" customHeight="1">
@@ -7169,7 +7169,7 @@
         <v>426</v>
       </c>
       <c r="AE55" s="0" t="n">
-        <v>1060</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="56" spans="30:31" customHeight="1">
@@ -7177,7 +7177,7 @@
         <v>427</v>
       </c>
       <c r="AE56" s="0" t="n">
-        <v>1110</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="57" spans="30:31" customHeight="1">
@@ -7185,7 +7185,7 @@
         <v>428</v>
       </c>
       <c r="AE57" s="0" t="n">
-        <v>1150</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="58" spans="30:31" customHeight="1">
@@ -7193,7 +7193,7 @@
         <v>429</v>
       </c>
       <c r="AE58" s="0" t="n">
-        <v>2730</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="59" spans="30:31" customHeight="1">
@@ -7201,7 +7201,7 @@
         <v>430</v>
       </c>
       <c r="AE59" s="0" t="n">
-        <v>2780</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="60" spans="30:31" customHeight="1">
@@ -7209,7 +7209,7 @@
         <v>431</v>
       </c>
       <c r="AE60" s="0" t="n">
-        <v>2160</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="61" spans="30:31" customHeight="1">
@@ -7217,7 +7217,7 @@
         <v>432</v>
       </c>
       <c r="AE61" s="0" t="n">
-        <v>2280</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="62" spans="30:31" customHeight="1">
@@ -7225,7 +7225,7 @@
         <v>433</v>
       </c>
       <c r="AE62" s="0" t="n">
-        <v>1150</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="63" spans="30:31" customHeight="1">
@@ -7233,7 +7233,7 @@
         <v>434</v>
       </c>
       <c r="AE63" s="0" t="n">
-        <v>1090</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="64" spans="30:31" customHeight="1">
@@ -7241,7 +7241,7 @@
         <v>435</v>
       </c>
       <c r="AE64" s="0" t="n">
-        <v>1050</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="65" spans="30:31" customHeight="1">
@@ -7249,7 +7249,7 @@
         <v>436</v>
       </c>
       <c r="AE65" s="0" t="n">
-        <v>2180</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="66" spans="30:31" customHeight="1">
@@ -7257,7 +7257,7 @@
         <v>437</v>
       </c>
       <c r="AE66" s="0" t="n">
-        <v>1140</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="67" spans="30:31" customHeight="1">
@@ -7265,7 +7265,7 @@
         <v>438</v>
       </c>
       <c r="AE67" s="0" t="n">
-        <v>2280</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="68" spans="30:31" customHeight="1">
@@ -7273,7 +7273,7 @@
         <v>439</v>
       </c>
       <c r="AE68" s="0" t="n">
-        <v>2220</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="69" spans="30:31" customHeight="1">
@@ -7281,7 +7281,7 @@
         <v>440</v>
       </c>
       <c r="AE69" s="0" t="n">
-        <v>1150</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="70" spans="30:31" customHeight="1">
@@ -7289,7 +7289,7 @@
         <v>441</v>
       </c>
       <c r="AE70" s="0" t="n">
-        <v>2160</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="71" spans="30:31" customHeight="1">
@@ -7297,7 +7297,7 @@
         <v>442</v>
       </c>
       <c r="AE71" s="0" t="n">
-        <v>2280</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="72" spans="30:31" customHeight="1">
@@ -7305,7 +7305,7 @@
         <v>443</v>
       </c>
       <c r="AE72" s="0" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="73" spans="30:31" customHeight="1">
@@ -7313,7 +7313,7 @@
         <v>444</v>
       </c>
       <c r="AE73" s="0" t="n">
-        <v>1060</v>
+        <v>1500</v>
       </c>
     </row>
   </sheetData>

--- a/public/port-battle.xlsx
+++ b/public/port-battle.xlsx
@@ -56,7 +56,7 @@
     <t>L’Océan</t>
   </si>
   <si>
-    <t>Santisima</t>
+    <t>Santísima Trinidad</t>
   </si>
   <si>
     <t>St. Pavel</t>
@@ -65,7 +65,7 @@
     <t>Christian</t>
   </si>
   <si>
-    <t>Bucentaure</t>
+    <t>Le Bucentaure</t>
   </si>
   <si>
     <t>Constitution</t>
@@ -107,12 +107,12 @@
     <t>Hercules</t>
   </si>
   <si>
+    <t>La Renommée</t>
+  </si>
+  <si>
     <t>Le Gros Ventre</t>
   </si>
   <si>
-    <t>Renommee</t>
-  </si>
-  <si>
     <t>Surprise</t>
   </si>
   <si>
@@ -125,7 +125,7 @@
     <t>Frigate</t>
   </si>
   <si>
-    <t>Belle Poule</t>
+    <t>La Belle-Poule</t>
   </si>
   <si>
     <t>Pirate Frigate</t>
@@ -1100,7 +1100,7 @@
     <t>Rattlesnake</t>
   </si>
   <si>
-    <t>Prince de Neufchatel</t>
+    <t>Prince de Neufchâtel</t>
   </si>
   <si>
     <t>Mercury</t>
@@ -5856,10 +5856,10 @@
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
       <c r="D4" s="21">
-        <f>SUM(D5:D26)</f>
+        <f>SUM(D5:D25)</f>
       </c>
       <c r="E4" s="21">
-        <f>SUM(E5:E26)</f>
+        <f>SUM(E5:E25)</f>
       </c>
       <c r="F4" s="22" t="s">
         <v>11</v>
@@ -6005,10 +6005,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" s="27" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D7" s="27">
         <f>COUNTA(F7:AC7)</f>
@@ -6052,10 +6052,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C8" s="27" t="n">
-        <v>130</v>
+        <v>215</v>
       </c>
       <c r="D8" s="27">
         <f>COUNTA(F8:AC8)</f>
@@ -6095,45 +6095,45 @@
       </c>
     </row>
     <row r="9" spans="1:31" customHeight="1">
-      <c r="A9" s="27" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="27" t="n">
-        <v>215</v>
-      </c>
-      <c r="D9" s="27">
+      <c r="A9" s="32" t="n">
+        <v>6</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="C9" s="32" t="n">
+        <v>45</v>
+      </c>
+      <c r="D9" s="32">
         <f>COUNTA(F9:AC9)</f>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="32">
         <f>C9*D9</f>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="29"/>
-      <c r="W9" s="29"/>
-      <c r="X9" s="29"/>
-      <c r="Y9" s="29"/>
-      <c r="Z9" s="29"/>
-      <c r="AA9" s="29"/>
-      <c r="AB9" s="29"/>
-      <c r="AC9" s="29"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="34"/>
+      <c r="U9" s="34"/>
+      <c r="V9" s="34"/>
+      <c r="W9" s="34"/>
+      <c r="X9" s="34"/>
+      <c r="Y9" s="34"/>
+      <c r="Z9" s="34"/>
+      <c r="AA9" s="34"/>
+      <c r="AB9" s="34"/>
+      <c r="AC9" s="34"/>
       <c r="AD9" s="0" t="s">
         <v>380</v>
       </c>
@@ -6146,10 +6146,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C10" s="32" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D10" s="32">
         <f>COUNTA(F10:AC10)</f>
@@ -6193,7 +6193,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C11" s="32" t="n">
         <v>60</v>
@@ -6240,10 +6240,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C12" s="32" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D12" s="32">
         <f>COUNTA(F12:AC12)</f>
@@ -6287,10 +6287,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C13" s="32" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D13" s="32">
         <f>COUNTA(F13:AC13)</f>
@@ -6334,7 +6334,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C14" s="32" t="n">
         <v>70</v>
@@ -6381,10 +6381,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>364</v>
+        <v>45</v>
       </c>
       <c r="C15" s="32" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D15" s="32">
         <f>COUNTA(F15:AC15)</f>
@@ -6428,10 +6428,10 @@
         <v>6</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" s="32" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D16" s="32">
         <f>COUNTA(F16:AC16)</f>
@@ -6475,10 +6475,10 @@
         <v>6</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C17" s="32" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D17" s="32">
         <f>COUNTA(F17:AC17)</f>
@@ -6522,7 +6522,7 @@
         <v>6</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" s="32" t="n">
         <v>100</v>
@@ -6565,45 +6565,45 @@
       </c>
     </row>
     <row r="19" spans="1:31" customHeight="1">
-      <c r="A19" s="32" t="n">
-        <v>6</v>
-      </c>
-      <c r="B19" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="32" t="n">
-        <v>100</v>
-      </c>
-      <c r="D19" s="32">
+      <c r="A19" s="27" t="n">
+        <v>7</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="C19" s="27" t="n">
+        <v>20</v>
+      </c>
+      <c r="D19" s="27">
         <f>COUNTA(F19:AC19)</f>
       </c>
-      <c r="E19" s="32">
+      <c r="E19" s="27">
         <f>C19*D19</f>
       </c>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="34"/>
-      <c r="S19" s="34"/>
-      <c r="T19" s="34"/>
-      <c r="U19" s="34"/>
-      <c r="V19" s="34"/>
-      <c r="W19" s="34"/>
-      <c r="X19" s="34"/>
-      <c r="Y19" s="34"/>
-      <c r="Z19" s="34"/>
-      <c r="AA19" s="34"/>
-      <c r="AB19" s="34"/>
-      <c r="AC19" s="34"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="29"/>
+      <c r="V19" s="29"/>
+      <c r="W19" s="29"/>
+      <c r="X19" s="29"/>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="29"/>
+      <c r="AA19" s="29"/>
+      <c r="AB19" s="29"/>
+      <c r="AC19" s="29"/>
       <c r="AD19" s="0" t="s">
         <v>390</v>
       </c>
@@ -6616,10 +6616,10 @@
         <v>7</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C20" s="27" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D20" s="27">
         <f>COUNTA(F20:AC20)</f>
@@ -6663,7 +6663,7 @@
         <v>7</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C21" s="27" t="n">
         <v>30</v>
@@ -6710,7 +6710,7 @@
         <v>7</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C22" s="27" t="n">
         <v>30</v>
@@ -6757,7 +6757,7 @@
         <v>7</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C23" s="27" t="n">
         <v>30</v>
@@ -6804,7 +6804,7 @@
         <v>7</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C24" s="27" t="n">
         <v>30</v>
@@ -6851,10 +6851,10 @@
         <v>7</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C25" s="27" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D25" s="27">
         <f>COUNTA(F25:AC25)</f>
@@ -6893,46 +6893,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="26" spans="1:31" customHeight="1">
-      <c r="A26" s="27" t="n">
-        <v>7</v>
-      </c>
-      <c r="B26" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="C26" s="27" t="n">
-        <v>35</v>
-      </c>
-      <c r="D26" s="27">
-        <f>COUNTA(F26:AC26)</f>
-      </c>
-      <c r="E26" s="27">
-        <f>C26*D26</f>
-      </c>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="29"/>
-      <c r="T26" s="29"/>
-      <c r="U26" s="29"/>
-      <c r="V26" s="29"/>
-      <c r="W26" s="29"/>
-      <c r="X26" s="29"/>
-      <c r="Y26" s="29"/>
-      <c r="Z26" s="29"/>
-      <c r="AA26" s="29"/>
-      <c r="AB26" s="29"/>
-      <c r="AC26" s="29"/>
+    <row r="26" spans="30:31" customHeight="1">
       <c r="AD26" s="0" t="s">
         <v>397</v>
       </c>

--- a/public/port-battle.xlsx
+++ b/public/port-battle.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="446">
   <si>
     <t>Port battle calculator by Felix Victor</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>Wasa</t>
+  </si>
+  <si>
+    <t>Leopard</t>
   </si>
   <si>
     <t>Agamemnon</t>
@@ -1628,7 +1631,7 @@
       <c r="AC1" s="6"/>
       <c r="AD1" s="6"/>
       <c r="AE1" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AF1" s="0" t="n">
         <v>10000</v>
@@ -1674,7 +1677,7 @@
       <c r="AC2" s="9"/>
       <c r="AD2" s="9"/>
       <c r="AE2" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AF2" s="0" t="n">
         <v>10000</v>
@@ -1724,7 +1727,7 @@
       <c r="AC3" s="16"/>
       <c r="AD3" s="16"/>
       <c r="AE3" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AF3" s="0" t="n">
         <v>10000</v>
@@ -1735,10 +1738,10 @@
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
       <c r="D4" s="21">
-        <f>SUM(D5:D41)</f>
+        <f>SUM(D5:D42)</f>
       </c>
       <c r="E4" s="21">
-        <f>SUM(E5:E41)</f>
+        <f>SUM(E5:E42)</f>
       </c>
       <c r="F4" s="22" t="s">
         <v>11</v>
@@ -1768,7 +1771,7 @@
       <c r="AC4" s="22"/>
       <c r="AD4" s="22"/>
       <c r="AE4" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AF4" s="0" t="n">
         <v>10000</v>
@@ -1791,13 +1794,13 @@
         <f>C5*D5</f>
       </c>
       <c r="F5" s="28" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="I5" s="28"/>
       <c r="J5" s="28"/>
@@ -1822,7 +1825,7 @@
       <c r="AC5" s="28"/>
       <c r="AD5" s="28"/>
       <c r="AE5" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AF5" s="0" t="n">
         <v>10000</v>
@@ -1845,13 +1848,13 @@
         <f>C6*D6</f>
       </c>
       <c r="F6" s="28" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G6" s="28" t="s">
+        <v>359</v>
+      </c>
+      <c r="H6" s="28" t="s">
         <v>358</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>357</v>
       </c>
       <c r="I6" s="28"/>
       <c r="J6" s="28"/>
@@ -1876,7 +1879,7 @@
       <c r="AC6" s="28"/>
       <c r="AD6" s="28"/>
       <c r="AE6" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF6" s="0" t="n">
         <v>10000</v>
@@ -1924,7 +1927,7 @@
       <c r="AC7" s="28"/>
       <c r="AD7" s="28"/>
       <c r="AE7" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AF7" s="0" t="n">
         <v>10000</v>
@@ -1972,7 +1975,7 @@
       <c r="AC8" s="29"/>
       <c r="AD8" s="29"/>
       <c r="AE8" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AF8" s="0" t="n">
         <v>10000</v>
@@ -2020,7 +2023,7 @@
       <c r="AC9" s="29"/>
       <c r="AD9" s="29"/>
       <c r="AE9" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF9" s="0" t="n">
         <v>10000</v>
@@ -2068,7 +2071,7 @@
       <c r="AC10" s="29"/>
       <c r="AD10" s="29"/>
       <c r="AE10" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF10" s="0" t="n">
         <v>10000</v>
@@ -2116,7 +2119,7 @@
       <c r="AC11" s="28"/>
       <c r="AD11" s="28"/>
       <c r="AE11" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AF11" s="0" t="n">
         <v>10000</v>
@@ -2164,7 +2167,7 @@
       <c r="AC12" s="28"/>
       <c r="AD12" s="28"/>
       <c r="AE12" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AF12" s="0" t="n">
         <v>10000</v>
@@ -2212,7 +2215,7 @@
       <c r="AC13" s="28"/>
       <c r="AD13" s="28"/>
       <c r="AE13" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AF13" s="0" t="n">
         <v>10000</v>
@@ -2260,7 +2263,7 @@
       <c r="AC14" s="28"/>
       <c r="AD14" s="28"/>
       <c r="AE14" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AF14" s="0" t="n">
         <v>10000</v>
@@ -2308,7 +2311,7 @@
       <c r="AC15" s="28"/>
       <c r="AD15" s="28"/>
       <c r="AE15" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AF15" s="0" t="n">
         <v>20000</v>
@@ -2322,7 +2325,7 @@
         <v>23</v>
       </c>
       <c r="C16" s="30" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="D16" s="30">
         <f>COUNTA(F16:AD16)</f>
@@ -2356,7 +2359,7 @@
       <c r="AC16" s="29"/>
       <c r="AD16" s="29"/>
       <c r="AE16" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AF16" s="0" t="n">
         <v>10000</v>
@@ -2404,7 +2407,7 @@
       <c r="AC17" s="29"/>
       <c r="AD17" s="29"/>
       <c r="AE17" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AF17" s="0" t="n">
         <v>10000</v>
@@ -2418,7 +2421,7 @@
         <v>25</v>
       </c>
       <c r="C18" s="30" t="n">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="D18" s="30">
         <f>COUNTA(F18:AD18)</f>
@@ -2452,7 +2455,7 @@
       <c r="AC18" s="29"/>
       <c r="AD18" s="29"/>
       <c r="AE18" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF18" s="0" t="n">
         <v>10000</v>
@@ -2466,7 +2469,7 @@
         <v>26</v>
       </c>
       <c r="C19" s="30" t="n">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="D19" s="30">
         <f>COUNTA(F19:AD19)</f>
@@ -2500,7 +2503,7 @@
       <c r="AC19" s="29"/>
       <c r="AD19" s="29"/>
       <c r="AE19" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF19" s="0" t="n">
         <v>10000</v>
@@ -2514,7 +2517,7 @@
         <v>27</v>
       </c>
       <c r="C20" s="30" t="n">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="D20" s="30">
         <f>COUNTA(F20:AD20)</f>
@@ -2548,55 +2551,55 @@
       <c r="AC20" s="29"/>
       <c r="AD20" s="29"/>
       <c r="AE20" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AF20" s="0" t="n">
         <v>10000</v>
       </c>
     </row>
     <row r="21" spans="1:32" customHeight="1">
-      <c r="A21" s="26" t="n">
-        <v>5</v>
-      </c>
-      <c r="B21" s="25" t="s">
+      <c r="A21" s="30" t="n">
+        <v>4</v>
+      </c>
+      <c r="B21" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="26" t="n">
-        <v>280</v>
-      </c>
-      <c r="D21" s="26">
+      <c r="C21" s="30" t="n">
+        <v>310</v>
+      </c>
+      <c r="D21" s="30">
         <f>COUNTA(F21:AD21)</f>
       </c>
-      <c r="E21" s="26">
+      <c r="E21" s="30">
         <f>C21*D21</f>
       </c>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="28"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="28"/>
-      <c r="U21" s="28"/>
-      <c r="V21" s="28"/>
-      <c r="W21" s="28"/>
-      <c r="X21" s="28"/>
-      <c r="Y21" s="28"/>
-      <c r="Z21" s="28"/>
-      <c r="AA21" s="28"/>
-      <c r="AB21" s="28"/>
-      <c r="AC21" s="28"/>
-      <c r="AD21" s="28"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="29"/>
+      <c r="V21" s="29"/>
+      <c r="W21" s="29"/>
+      <c r="X21" s="29"/>
+      <c r="Y21" s="29"/>
+      <c r="Z21" s="29"/>
+      <c r="AA21" s="29"/>
+      <c r="AB21" s="29"/>
+      <c r="AC21" s="29"/>
+      <c r="AD21" s="29"/>
       <c r="AE21" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AF21" s="0" t="n">
         <v>20000</v>
@@ -2610,7 +2613,7 @@
         <v>29</v>
       </c>
       <c r="C22" s="26" t="n">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="D22" s="26">
         <f>COUNTA(F22:AD22)</f>
@@ -2644,7 +2647,7 @@
       <c r="AC22" s="28"/>
       <c r="AD22" s="28"/>
       <c r="AE22" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF22" s="0" t="n">
         <v>10000</v>
@@ -2658,7 +2661,7 @@
         <v>30</v>
       </c>
       <c r="C23" s="26" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="D23" s="26">
         <f>COUNTA(F23:AD23)</f>
@@ -2692,7 +2695,7 @@
       <c r="AC23" s="28"/>
       <c r="AD23" s="28"/>
       <c r="AE23" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF23" s="0" t="n">
         <v>10000</v>
@@ -2706,7 +2709,7 @@
         <v>31</v>
       </c>
       <c r="C24" s="26" t="n">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="D24" s="26">
         <f>COUNTA(F24:AD24)</f>
@@ -2740,7 +2743,7 @@
       <c r="AC24" s="28"/>
       <c r="AD24" s="28"/>
       <c r="AE24" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF24" s="0" t="n">
         <v>10000</v>
@@ -2754,7 +2757,7 @@
         <v>32</v>
       </c>
       <c r="C25" s="26" t="n">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="D25" s="26">
         <f>COUNTA(F25:AD25)</f>
@@ -2788,7 +2791,7 @@
       <c r="AC25" s="28"/>
       <c r="AD25" s="28"/>
       <c r="AE25" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF25" s="0" t="n">
         <v>20000</v>
@@ -2836,7 +2839,7 @@
       <c r="AC26" s="28"/>
       <c r="AD26" s="28"/>
       <c r="AE26" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF26" s="0" t="n">
         <v>10000</v>
@@ -2850,7 +2853,7 @@
         <v>34</v>
       </c>
       <c r="C27" s="26" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="D27" s="26">
         <f>COUNTA(F27:AD27)</f>
@@ -2884,7 +2887,7 @@
       <c r="AC27" s="28"/>
       <c r="AD27" s="28"/>
       <c r="AE27" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF27" s="0" t="n">
         <v>10000</v>
@@ -2932,7 +2935,7 @@
       <c r="AC28" s="28"/>
       <c r="AD28" s="28"/>
       <c r="AE28" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF28" s="0" t="n">
         <v>10000</v>
@@ -2946,7 +2949,7 @@
         <v>36</v>
       </c>
       <c r="C29" s="26" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="D29" s="26">
         <f>COUNTA(F29:AD29)</f>
@@ -2980,7 +2983,7 @@
       <c r="AC29" s="28"/>
       <c r="AD29" s="28"/>
       <c r="AE29" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF29" s="0" t="n">
         <v>20000</v>
@@ -2994,7 +2997,7 @@
         <v>37</v>
       </c>
       <c r="C30" s="26" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="D30" s="26">
         <f>COUNTA(F30:AD30)</f>
@@ -3028,7 +3031,7 @@
       <c r="AC30" s="28"/>
       <c r="AD30" s="28"/>
       <c r="AE30" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AF30" s="0" t="n">
         <v>10000</v>
@@ -3076,7 +3079,7 @@
       <c r="AC31" s="28"/>
       <c r="AD31" s="28"/>
       <c r="AE31" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF31" s="0" t="n">
         <v>10000</v>
@@ -3090,7 +3093,7 @@
         <v>39</v>
       </c>
       <c r="C32" s="26" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D32" s="26">
         <f>COUNTA(F32:AD32)</f>
@@ -3124,7 +3127,7 @@
       <c r="AC32" s="28"/>
       <c r="AD32" s="28"/>
       <c r="AE32" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AF32" s="0" t="n">
         <v>10000</v>
@@ -3138,7 +3141,7 @@
         <v>40</v>
       </c>
       <c r="C33" s="26" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D33" s="26">
         <f>COUNTA(F33:AD33)</f>
@@ -3172,7 +3175,7 @@
       <c r="AC33" s="28"/>
       <c r="AD33" s="28"/>
       <c r="AE33" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AF33" s="0" t="n">
         <v>20000</v>
@@ -3220,7 +3223,7 @@
       <c r="AC34" s="28"/>
       <c r="AD34" s="28"/>
       <c r="AE34" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF34" s="0" t="n">
         <v>20000</v>
@@ -3234,7 +3237,7 @@
         <v>42</v>
       </c>
       <c r="C35" s="26" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D35" s="26">
         <f>COUNTA(F35:AD35)</f>
@@ -3268,7 +3271,7 @@
       <c r="AC35" s="28"/>
       <c r="AD35" s="28"/>
       <c r="AE35" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AF35" s="0" t="n">
         <v>10000</v>
@@ -3282,7 +3285,7 @@
         <v>43</v>
       </c>
       <c r="C36" s="26" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D36" s="26">
         <f>COUNTA(F36:AD36)</f>
@@ -3316,7 +3319,7 @@
       <c r="AC36" s="28"/>
       <c r="AD36" s="28"/>
       <c r="AE36" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AF36" s="0" t="n">
         <v>20000</v>
@@ -3364,55 +3367,55 @@
       <c r="AC37" s="28"/>
       <c r="AD37" s="28"/>
       <c r="AE37" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AF37" s="0" t="n">
         <v>20000</v>
       </c>
     </row>
     <row r="38" spans="1:32" customHeight="1">
-      <c r="A38" s="30" t="n">
-        <v>6</v>
-      </c>
-      <c r="B38" s="29" t="s">
+      <c r="A38" s="26" t="n">
+        <v>5</v>
+      </c>
+      <c r="B38" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="30" t="n">
+      <c r="C38" s="26" t="n">
         <v>100</v>
       </c>
-      <c r="D38" s="30">
+      <c r="D38" s="26">
         <f>COUNTA(F38:AD38)</f>
       </c>
-      <c r="E38" s="30">
+      <c r="E38" s="26">
         <f>C38*D38</f>
       </c>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="29"/>
-      <c r="N38" s="29"/>
-      <c r="O38" s="29"/>
-      <c r="P38" s="29"/>
-      <c r="Q38" s="29"/>
-      <c r="R38" s="29"/>
-      <c r="S38" s="29"/>
-      <c r="T38" s="29"/>
-      <c r="U38" s="29"/>
-      <c r="V38" s="29"/>
-      <c r="W38" s="29"/>
-      <c r="X38" s="29"/>
-      <c r="Y38" s="29"/>
-      <c r="Z38" s="29"/>
-      <c r="AA38" s="29"/>
-      <c r="AB38" s="29"/>
-      <c r="AC38" s="29"/>
-      <c r="AD38" s="29"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="28"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="28"/>
+      <c r="O38" s="28"/>
+      <c r="P38" s="28"/>
+      <c r="Q38" s="28"/>
+      <c r="R38" s="28"/>
+      <c r="S38" s="28"/>
+      <c r="T38" s="28"/>
+      <c r="U38" s="28"/>
+      <c r="V38" s="28"/>
+      <c r="W38" s="28"/>
+      <c r="X38" s="28"/>
+      <c r="Y38" s="28"/>
+      <c r="Z38" s="28"/>
+      <c r="AA38" s="28"/>
+      <c r="AB38" s="28"/>
+      <c r="AC38" s="28"/>
+      <c r="AD38" s="28"/>
       <c r="AE38" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AF38" s="0" t="n">
         <v>10000</v>
@@ -3460,7 +3463,7 @@
       <c r="AC39" s="29"/>
       <c r="AD39" s="29"/>
       <c r="AE39" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AF39" s="0" t="n">
         <v>10000</v>
@@ -3474,7 +3477,7 @@
         <v>47</v>
       </c>
       <c r="C40" s="30" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D40" s="30">
         <f>COUNTA(F40:AD40)</f>
@@ -3508,7 +3511,7 @@
       <c r="AC40" s="29"/>
       <c r="AD40" s="29"/>
       <c r="AE40" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AF40" s="0" t="n">
         <v>10000</v>
@@ -3522,7 +3525,7 @@
         <v>48</v>
       </c>
       <c r="C41" s="30" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D41" s="30">
         <f>COUNTA(F41:AD41)</f>
@@ -3556,15 +3559,55 @@
       <c r="AC41" s="29"/>
       <c r="AD41" s="29"/>
       <c r="AE41" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF41" s="0" t="n">
         <v>10000</v>
       </c>
     </row>
-    <row r="42" spans="31:32" customHeight="1">
+    <row r="42" spans="1:32" customHeight="1">
+      <c r="A42" s="30" t="n">
+        <v>6</v>
+      </c>
+      <c r="B42" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="30" t="n">
+        <v>80</v>
+      </c>
+      <c r="D42" s="30">
+        <f>COUNTA(F42:AD42)</f>
+      </c>
+      <c r="E42" s="30">
+        <f>C42*D42</f>
+      </c>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="29"/>
+      <c r="O42" s="29"/>
+      <c r="P42" s="29"/>
+      <c r="Q42" s="29"/>
+      <c r="R42" s="29"/>
+      <c r="S42" s="29"/>
+      <c r="T42" s="29"/>
+      <c r="U42" s="29"/>
+      <c r="V42" s="29"/>
+      <c r="W42" s="29"/>
+      <c r="X42" s="29"/>
+      <c r="Y42" s="29"/>
+      <c r="Z42" s="29"/>
+      <c r="AA42" s="29"/>
+      <c r="AB42" s="29"/>
+      <c r="AC42" s="29"/>
+      <c r="AD42" s="29"/>
       <c r="AE42" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AF42" s="0" t="n">
         <v>10000</v>
@@ -3572,7 +3615,7 @@
     </row>
     <row r="43" spans="31:32" customHeight="1">
       <c r="AE43" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AF43" s="0" t="n">
         <v>10000</v>
@@ -3580,7 +3623,7 @@
     </row>
     <row r="44" spans="31:32" customHeight="1">
       <c r="AE44" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AF44" s="0" t="n">
         <v>10000</v>
@@ -3588,7 +3631,7 @@
     </row>
     <row r="45" spans="31:32" customHeight="1">
       <c r="AE45" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AF45" s="0" t="n">
         <v>10000</v>
@@ -3596,7 +3639,7 @@
     </row>
     <row r="46" spans="31:32" customHeight="1">
       <c r="AE46" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF46" s="0" t="n">
         <v>20000</v>
@@ -3604,7 +3647,7 @@
     </row>
     <row r="47" spans="31:32" customHeight="1">
       <c r="AE47" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF47" s="0" t="n">
         <v>10000</v>
@@ -3612,7 +3655,7 @@
     </row>
     <row r="48" spans="31:32" customHeight="1">
       <c r="AE48" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF48" s="0" t="n">
         <v>20000</v>
@@ -3620,7 +3663,7 @@
     </row>
     <row r="49" spans="31:32" customHeight="1">
       <c r="AE49" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AF49" s="0" t="n">
         <v>20000</v>
@@ -3628,7 +3671,7 @@
     </row>
     <row r="50" spans="31:32" customHeight="1">
       <c r="AE50" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AF50" s="0" t="n">
         <v>10000</v>
@@ -3636,7 +3679,7 @@
     </row>
     <row r="51" spans="31:32" customHeight="1">
       <c r="AE51" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF51" s="0" t="n">
         <v>10000</v>
@@ -3644,7 +3687,7 @@
     </row>
     <row r="52" spans="31:32" customHeight="1">
       <c r="AE52" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF52" s="0" t="n">
         <v>10000</v>
@@ -3652,7 +3695,7 @@
     </row>
     <row r="53" spans="31:32" customHeight="1">
       <c r="AE53" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF53" s="0" t="n">
         <v>20000</v>
@@ -3660,7 +3703,7 @@
     </row>
     <row r="54" spans="31:32" customHeight="1">
       <c r="AE54" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AF54" s="0" t="n">
         <v>10000</v>
@@ -3668,7 +3711,7 @@
     </row>
     <row r="55" spans="31:32" customHeight="1">
       <c r="AE55" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AF55" s="0" t="n">
         <v>10000</v>
@@ -3676,7 +3719,7 @@
     </row>
     <row r="56" spans="31:32" customHeight="1">
       <c r="AE56" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF56" s="0" t="n">
         <v>20000</v>
@@ -3684,7 +3727,7 @@
     </row>
     <row r="57" spans="31:32" customHeight="1">
       <c r="AE57" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AF57" s="0" t="n">
         <v>10000</v>
@@ -3692,7 +3735,7 @@
     </row>
     <row r="58" spans="31:32" customHeight="1">
       <c r="AE58" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AF58" s="0" t="n">
         <v>10000</v>
@@ -3700,7 +3743,7 @@
     </row>
     <row r="59" spans="31:32" customHeight="1">
       <c r="AE59" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AF59" s="0" t="n">
         <v>10000</v>
@@ -3708,7 +3751,7 @@
     </row>
     <row r="60" spans="31:32" customHeight="1">
       <c r="AE60" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AF60" s="0" t="n">
         <v>10000</v>
@@ -3716,7 +3759,7 @@
     </row>
     <row r="61" spans="31:32" customHeight="1">
       <c r="AE61" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF61" s="0" t="n">
         <v>10000</v>
@@ -3724,7 +3767,7 @@
     </row>
     <row r="62" spans="31:32" customHeight="1">
       <c r="AE62" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AF62" s="0" t="n">
         <v>10000</v>
@@ -3732,7 +3775,7 @@
     </row>
     <row r="63" spans="31:32" customHeight="1">
       <c r="AE63" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF63" s="0" t="n">
         <v>10000</v>
@@ -3740,7 +3783,7 @@
     </row>
     <row r="64" spans="31:32" customHeight="1">
       <c r="AE64" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF64" s="0" t="n">
         <v>10000</v>
@@ -3748,7 +3791,7 @@
     </row>
     <row r="65" spans="31:32" customHeight="1">
       <c r="AE65" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF65" s="0" t="n">
         <v>10000</v>
@@ -3756,7 +3799,7 @@
     </row>
     <row r="66" spans="31:32" customHeight="1">
       <c r="AE66" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AF66" s="0" t="n">
         <v>10000</v>
@@ -3764,7 +3807,7 @@
     </row>
     <row r="67" spans="31:32" customHeight="1">
       <c r="AE67" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AF67" s="0" t="n">
         <v>10000</v>
@@ -3772,7 +3815,7 @@
     </row>
     <row r="68" spans="31:32" customHeight="1">
       <c r="AE68" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AF68" s="0" t="n">
         <v>20000</v>
@@ -3780,7 +3823,7 @@
     </row>
     <row r="69" spans="31:32" customHeight="1">
       <c r="AE69" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AF69" s="0" t="n">
         <v>20000</v>
@@ -3788,7 +3831,7 @@
     </row>
     <row r="70" spans="31:32" customHeight="1">
       <c r="AE70" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AF70" s="0" t="n">
         <v>10000</v>
@@ -3796,7 +3839,7 @@
     </row>
     <row r="71" spans="31:32" customHeight="1">
       <c r="AE71" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AF71" s="0" t="n">
         <v>10000</v>
@@ -3804,7 +3847,7 @@
     </row>
     <row r="72" spans="31:32" customHeight="1">
       <c r="AE72" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AF72" s="0" t="n">
         <v>10000</v>
@@ -3812,7 +3855,7 @@
     </row>
     <row r="73" spans="31:32" customHeight="1">
       <c r="AE73" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AF73" s="0" t="n">
         <v>10000</v>
@@ -3820,7 +3863,7 @@
     </row>
     <row r="74" spans="31:32" customHeight="1">
       <c r="AE74" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AF74" s="0" t="n">
         <v>10000</v>
@@ -3828,7 +3871,7 @@
     </row>
     <row r="75" spans="31:32" customHeight="1">
       <c r="AE75" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AF75" s="0" t="n">
         <v>10000</v>
@@ -3836,7 +3879,7 @@
     </row>
     <row r="76" spans="31:32" customHeight="1">
       <c r="AE76" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AF76" s="0" t="n">
         <v>10000</v>
@@ -3844,7 +3887,7 @@
     </row>
     <row r="77" spans="31:32" customHeight="1">
       <c r="AE77" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AF77" s="0" t="n">
         <v>10000</v>
@@ -3852,7 +3895,7 @@
     </row>
     <row r="78" spans="31:32" customHeight="1">
       <c r="AE78" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AF78" s="0" t="n">
         <v>10000</v>
@@ -3860,7 +3903,7 @@
     </row>
     <row r="79" spans="31:32" customHeight="1">
       <c r="AE79" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AF79" s="0" t="n">
         <v>10000</v>
@@ -3868,7 +3911,7 @@
     </row>
     <row r="80" spans="31:32" customHeight="1">
       <c r="AE80" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AF80" s="0" t="n">
         <v>10000</v>
@@ -3876,7 +3919,7 @@
     </row>
     <row r="81" spans="31:32" customHeight="1">
       <c r="AE81" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AF81" s="0" t="n">
         <v>10000</v>
@@ -3884,7 +3927,7 @@
     </row>
     <row r="82" spans="31:32" customHeight="1">
       <c r="AE82" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF82" s="0" t="n">
         <v>20000</v>
@@ -3892,7 +3935,7 @@
     </row>
     <row r="83" spans="31:32" customHeight="1">
       <c r="AE83" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AF83" s="0" t="n">
         <v>10000</v>
@@ -3900,7 +3943,7 @@
     </row>
     <row r="84" spans="31:32" customHeight="1">
       <c r="AE84" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AF84" s="0" t="n">
         <v>10000</v>
@@ -3908,7 +3951,7 @@
     </row>
     <row r="85" spans="31:32" customHeight="1">
       <c r="AE85" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF85" s="0" t="n">
         <v>10000</v>
@@ -3916,7 +3959,7 @@
     </row>
     <row r="86" spans="31:32" customHeight="1">
       <c r="AE86" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AF86" s="0" t="n">
         <v>10000</v>
@@ -3924,7 +3967,7 @@
     </row>
     <row r="87" spans="31:32" customHeight="1">
       <c r="AE87" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AF87" s="0" t="n">
         <v>10000</v>
@@ -3932,7 +3975,7 @@
     </row>
     <row r="88" spans="31:32" customHeight="1">
       <c r="AE88" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AF88" s="0" t="n">
         <v>10000</v>
@@ -3940,7 +3983,7 @@
     </row>
     <row r="89" spans="31:32" customHeight="1">
       <c r="AE89" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF89" s="0" t="n">
         <v>10000</v>
@@ -3948,7 +3991,7 @@
     </row>
     <row r="90" spans="31:32" customHeight="1">
       <c r="AE90" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF90" s="0" t="n">
         <v>10000</v>
@@ -3956,7 +3999,7 @@
     </row>
     <row r="91" spans="31:32" customHeight="1">
       <c r="AE91" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AF91" s="0" t="n">
         <v>10000</v>
@@ -3964,7 +4007,7 @@
     </row>
     <row r="92" spans="31:32" customHeight="1">
       <c r="AE92" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF92" s="0" t="n">
         <v>10000</v>
@@ -3972,7 +4015,7 @@
     </row>
     <row r="93" spans="31:32" customHeight="1">
       <c r="AE93" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AF93" s="0" t="n">
         <v>10000</v>
@@ -3980,7 +4023,7 @@
     </row>
     <row r="94" spans="31:32" customHeight="1">
       <c r="AE94" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AF94" s="0" t="n">
         <v>10000</v>
@@ -3988,7 +4031,7 @@
     </row>
     <row r="95" spans="31:32" customHeight="1">
       <c r="AE95" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF95" s="0" t="n">
         <v>10000</v>
@@ -3996,7 +4039,7 @@
     </row>
     <row r="96" spans="31:32" customHeight="1">
       <c r="AE96" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AF96" s="0" t="n">
         <v>10000</v>
@@ -4004,7 +4047,7 @@
     </row>
     <row r="97" spans="31:32" customHeight="1">
       <c r="AE97" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF97" s="0" t="n">
         <v>10000</v>
@@ -4012,7 +4055,7 @@
     </row>
     <row r="98" spans="31:32" customHeight="1">
       <c r="AE98" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF98" s="0" t="n">
         <v>10000</v>
@@ -4020,7 +4063,7 @@
     </row>
     <row r="99" spans="31:32" customHeight="1">
       <c r="AE99" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF99" s="0" t="n">
         <v>20000</v>
@@ -4028,7 +4071,7 @@
     </row>
     <row r="100" spans="31:32" customHeight="1">
       <c r="AE100" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF100" s="0" t="n">
         <v>10000</v>
@@ -4036,7 +4079,7 @@
     </row>
     <row r="101" spans="31:32" customHeight="1">
       <c r="AE101" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF101" s="0" t="n">
         <v>10000</v>
@@ -4044,7 +4087,7 @@
     </row>
     <row r="102" spans="31:32" customHeight="1">
       <c r="AE102" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AF102" s="0" t="n">
         <v>20000</v>
@@ -4052,7 +4095,7 @@
     </row>
     <row r="103" spans="31:32" customHeight="1">
       <c r="AE103" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF103" s="0" t="n">
         <v>20000</v>
@@ -4060,7 +4103,7 @@
     </row>
     <row r="104" spans="31:32" customHeight="1">
       <c r="AE104" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF104" s="0" t="n">
         <v>10000</v>
@@ -4068,7 +4111,7 @@
     </row>
     <row r="105" spans="31:32" customHeight="1">
       <c r="AE105" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AF105" s="0" t="n">
         <v>20000</v>
@@ -4076,7 +4119,7 @@
     </row>
     <row r="106" spans="31:32" customHeight="1">
       <c r="AE106" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AF106" s="0" t="n">
         <v>10000</v>
@@ -4084,7 +4127,7 @@
     </row>
     <row r="107" spans="31:32" customHeight="1">
       <c r="AE107" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF107" s="0" t="n">
         <v>10000</v>
@@ -4092,7 +4135,7 @@
     </row>
     <row r="108" spans="31:32" customHeight="1">
       <c r="AE108" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AF108" s="0" t="n">
         <v>20000</v>
@@ -4100,7 +4143,7 @@
     </row>
     <row r="109" spans="31:32" customHeight="1">
       <c r="AE109" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF109" s="0" t="n">
         <v>10000</v>
@@ -4108,7 +4151,7 @@
     </row>
     <row r="110" spans="31:32" customHeight="1">
       <c r="AE110" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AF110" s="0" t="n">
         <v>10000</v>
@@ -4116,7 +4159,7 @@
     </row>
     <row r="111" spans="31:32" customHeight="1">
       <c r="AE111" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AF111" s="0" t="n">
         <v>10000</v>
@@ -4124,7 +4167,7 @@
     </row>
     <row r="112" spans="31:32" customHeight="1">
       <c r="AE112" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF112" s="0" t="n">
         <v>10000</v>
@@ -4132,7 +4175,7 @@
     </row>
     <row r="113" spans="31:32" customHeight="1">
       <c r="AE113" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AF113" s="0" t="n">
         <v>10000</v>
@@ -4140,7 +4183,7 @@
     </row>
     <row r="114" spans="31:32" customHeight="1">
       <c r="AE114" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF114" s="0" t="n">
         <v>10000</v>
@@ -4148,7 +4191,7 @@
     </row>
     <row r="115" spans="31:32" customHeight="1">
       <c r="AE115" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF115" s="0" t="n">
         <v>10000</v>
@@ -4156,7 +4199,7 @@
     </row>
     <row r="116" spans="31:32" customHeight="1">
       <c r="AE116" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF116" s="0" t="n">
         <v>20000</v>
@@ -4164,7 +4207,7 @@
     </row>
     <row r="117" spans="31:32" customHeight="1">
       <c r="AE117" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AF117" s="0" t="n">
         <v>10000</v>
@@ -4172,7 +4215,7 @@
     </row>
     <row r="118" spans="31:32" customHeight="1">
       <c r="AE118" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF118" s="0" t="n">
         <v>10000</v>
@@ -4180,7 +4223,7 @@
     </row>
     <row r="119" spans="31:32" customHeight="1">
       <c r="AE119" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF119" s="0" t="n">
         <v>10000</v>
@@ -4188,7 +4231,7 @@
     </row>
     <row r="120" spans="31:32" customHeight="1">
       <c r="AE120" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF120" s="0" t="n">
         <v>10000</v>
@@ -4196,7 +4239,7 @@
     </row>
     <row r="121" spans="31:32" customHeight="1">
       <c r="AE121" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF121" s="0" t="n">
         <v>20000</v>
@@ -4204,7 +4247,7 @@
     </row>
     <row r="122" spans="31:32" customHeight="1">
       <c r="AE122" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AF122" s="0" t="n">
         <v>10000</v>
@@ -4212,7 +4255,7 @@
     </row>
     <row r="123" spans="31:32" customHeight="1">
       <c r="AE123" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF123" s="0" t="n">
         <v>10000</v>
@@ -4220,7 +4263,7 @@
     </row>
     <row r="124" spans="31:32" customHeight="1">
       <c r="AE124" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF124" s="0" t="n">
         <v>10000</v>
@@ -4228,7 +4271,7 @@
     </row>
     <row r="125" spans="31:32" customHeight="1">
       <c r="AE125" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AF125" s="0" t="n">
         <v>10000</v>
@@ -4236,7 +4279,7 @@
     </row>
     <row r="126" spans="31:32" customHeight="1">
       <c r="AE126" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF126" s="0" t="n">
         <v>10000</v>
@@ -4244,7 +4287,7 @@
     </row>
     <row r="127" spans="31:32" customHeight="1">
       <c r="AE127" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF127" s="0" t="n">
         <v>10000</v>
@@ -4252,7 +4295,7 @@
     </row>
     <row r="128" spans="31:32" customHeight="1">
       <c r="AE128" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AF128" s="0" t="n">
         <v>20000</v>
@@ -4260,7 +4303,7 @@
     </row>
     <row r="129" spans="31:32" customHeight="1">
       <c r="AE129" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AF129" s="0" t="n">
         <v>20000</v>
@@ -4268,7 +4311,7 @@
     </row>
     <row r="130" spans="31:32" customHeight="1">
       <c r="AE130" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AF130" s="0" t="n">
         <v>10000</v>
@@ -4276,7 +4319,7 @@
     </row>
     <row r="131" spans="31:32" customHeight="1">
       <c r="AE131" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF131" s="0" t="n">
         <v>10000</v>
@@ -4284,7 +4327,7 @@
     </row>
     <row r="132" spans="31:32" customHeight="1">
       <c r="AE132" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AF132" s="0" t="n">
         <v>10000</v>
@@ -4292,7 +4335,7 @@
     </row>
     <row r="133" spans="31:32" customHeight="1">
       <c r="AE133" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF133" s="0" t="n">
         <v>20000</v>
@@ -4300,7 +4343,7 @@
     </row>
     <row r="134" spans="31:32" customHeight="1">
       <c r="AE134" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF134" s="0" t="n">
         <v>10000</v>
@@ -4308,7 +4351,7 @@
     </row>
     <row r="135" spans="31:32" customHeight="1">
       <c r="AE135" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF135" s="0" t="n">
         <v>10000</v>
@@ -4316,7 +4359,7 @@
     </row>
     <row r="136" spans="31:32" customHeight="1">
       <c r="AE136" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AF136" s="0" t="n">
         <v>10000</v>
@@ -4324,7 +4367,7 @@
     </row>
     <row r="137" spans="31:32" customHeight="1">
       <c r="AE137" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF137" s="0" t="n">
         <v>10000</v>
@@ -4332,7 +4375,7 @@
     </row>
     <row r="138" spans="31:32" customHeight="1">
       <c r="AE138" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF138" s="0" t="n">
         <v>10000</v>
@@ -4340,7 +4383,7 @@
     </row>
     <row r="139" spans="31:32" customHeight="1">
       <c r="AE139" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AF139" s="0" t="n">
         <v>10000</v>
@@ -4348,7 +4391,7 @@
     </row>
     <row r="140" spans="31:32" customHeight="1">
       <c r="AE140" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF140" s="0" t="n">
         <v>10000</v>
@@ -4356,7 +4399,7 @@
     </row>
     <row r="141" spans="31:32" customHeight="1">
       <c r="AE141" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF141" s="0" t="n">
         <v>10000</v>
@@ -4364,7 +4407,7 @@
     </row>
     <row r="142" spans="31:32" customHeight="1">
       <c r="AE142" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF142" s="0" t="n">
         <v>10000</v>
@@ -4372,7 +4415,7 @@
     </row>
     <row r="143" spans="31:32" customHeight="1">
       <c r="AE143" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AF143" s="0" t="n">
         <v>10000</v>
@@ -4380,7 +4423,7 @@
     </row>
     <row r="144" spans="31:32" customHeight="1">
       <c r="AE144" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AF144" s="0" t="n">
         <v>10000</v>
@@ -4388,7 +4431,7 @@
     </row>
     <row r="145" spans="31:32" customHeight="1">
       <c r="AE145" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF145" s="0" t="n">
         <v>20000</v>
@@ -4396,7 +4439,7 @@
     </row>
     <row r="146" spans="31:32" customHeight="1">
       <c r="AE146" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AF146" s="0" t="n">
         <v>10000</v>
@@ -4404,7 +4447,7 @@
     </row>
     <row r="147" spans="31:32" customHeight="1">
       <c r="AE147" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AF147" s="0" t="n">
         <v>10000</v>
@@ -4412,7 +4455,7 @@
     </row>
     <row r="148" spans="31:32" customHeight="1">
       <c r="AE148" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF148" s="0" t="n">
         <v>10000</v>
@@ -4420,7 +4463,7 @@
     </row>
     <row r="149" spans="31:32" customHeight="1">
       <c r="AE149" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AF149" s="0" t="n">
         <v>10000</v>
@@ -4428,7 +4471,7 @@
     </row>
     <row r="150" spans="31:32" customHeight="1">
       <c r="AE150" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AF150" s="0" t="n">
         <v>10000</v>
@@ -4436,7 +4479,7 @@
     </row>
     <row r="151" spans="31:32" customHeight="1">
       <c r="AE151" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF151" s="0" t="n">
         <v>10000</v>
@@ -4444,7 +4487,7 @@
     </row>
     <row r="152" spans="31:32" customHeight="1">
       <c r="AE152" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF152" s="0" t="n">
         <v>10000</v>
@@ -4452,7 +4495,7 @@
     </row>
     <row r="153" spans="31:32" customHeight="1">
       <c r="AE153" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AF153" s="0" t="n">
         <v>10000</v>
@@ -4460,7 +4503,7 @@
     </row>
     <row r="154" spans="31:32" customHeight="1">
       <c r="AE154" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AF154" s="0" t="n">
         <v>10000</v>
@@ -4468,7 +4511,7 @@
     </row>
     <row r="155" spans="31:32" customHeight="1">
       <c r="AE155" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AF155" s="0" t="n">
         <v>10000</v>
@@ -4476,7 +4519,7 @@
     </row>
     <row r="156" spans="31:32" customHeight="1">
       <c r="AE156" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AF156" s="0" t="n">
         <v>10000</v>
@@ -4484,7 +4527,7 @@
     </row>
     <row r="157" spans="31:32" customHeight="1">
       <c r="AE157" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF157" s="0" t="n">
         <v>10000</v>
@@ -4492,7 +4535,7 @@
     </row>
     <row r="158" spans="31:32" customHeight="1">
       <c r="AE158" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF158" s="0" t="n">
         <v>20000</v>
@@ -4500,7 +4543,7 @@
     </row>
     <row r="159" spans="31:32" customHeight="1">
       <c r="AE159" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF159" s="0" t="n">
         <v>10000</v>
@@ -4508,7 +4551,7 @@
     </row>
     <row r="160" spans="31:32" customHeight="1">
       <c r="AE160" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF160" s="0" t="n">
         <v>10000</v>
@@ -4516,7 +4559,7 @@
     </row>
     <row r="161" spans="31:32" customHeight="1">
       <c r="AE161" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AF161" s="0" t="n">
         <v>10000</v>
@@ -4524,7 +4567,7 @@
     </row>
     <row r="162" spans="31:32" customHeight="1">
       <c r="AE162" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF162" s="0" t="n">
         <v>10000</v>
@@ -4532,7 +4575,7 @@
     </row>
     <row r="163" spans="31:32" customHeight="1">
       <c r="AE163" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF163" s="0" t="n">
         <v>20000</v>
@@ -4540,7 +4583,7 @@
     </row>
     <row r="164" spans="31:32" customHeight="1">
       <c r="AE164" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF164" s="0" t="n">
         <v>10000</v>
@@ -4548,7 +4591,7 @@
     </row>
     <row r="165" spans="31:32" customHeight="1">
       <c r="AE165" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AF165" s="0" t="n">
         <v>10000</v>
@@ -4556,7 +4599,7 @@
     </row>
     <row r="166" spans="31:32" customHeight="1">
       <c r="AE166" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF166" s="0" t="n">
         <v>10000</v>
@@ -4564,7 +4607,7 @@
     </row>
     <row r="167" spans="31:32" customHeight="1">
       <c r="AE167" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF167" s="0" t="n">
         <v>10000</v>
@@ -4572,7 +4615,7 @@
     </row>
     <row r="168" spans="31:32" customHeight="1">
       <c r="AE168" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF168" s="0" t="n">
         <v>10000</v>
@@ -4580,7 +4623,7 @@
     </row>
     <row r="169" spans="31:32" customHeight="1">
       <c r="AE169" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AF169" s="0" t="n">
         <v>10000</v>
@@ -4588,7 +4631,7 @@
     </row>
     <row r="170" spans="31:32" customHeight="1">
       <c r="AE170" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF170" s="0" t="n">
         <v>20000</v>
@@ -4596,7 +4639,7 @@
     </row>
     <row r="171" spans="31:32" customHeight="1">
       <c r="AE171" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF171" s="0" t="n">
         <v>10000</v>
@@ -4604,7 +4647,7 @@
     </row>
     <row r="172" spans="31:32" customHeight="1">
       <c r="AE172" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AF172" s="0" t="n">
         <v>10000</v>
@@ -4612,7 +4655,7 @@
     </row>
     <row r="173" spans="31:32" customHeight="1">
       <c r="AE173" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AF173" s="0" t="n">
         <v>10000</v>
@@ -4620,7 +4663,7 @@
     </row>
     <row r="174" spans="31:32" customHeight="1">
       <c r="AE174" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF174" s="0" t="n">
         <v>10000</v>
@@ -4628,7 +4671,7 @@
     </row>
     <row r="175" spans="31:32" customHeight="1">
       <c r="AE175" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF175" s="0" t="n">
         <v>10000</v>
@@ -4636,7 +4679,7 @@
     </row>
     <row r="176" spans="31:32" customHeight="1">
       <c r="AE176" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF176" s="0" t="n">
         <v>10000</v>
@@ -4644,7 +4687,7 @@
     </row>
     <row r="177" spans="31:32" customHeight="1">
       <c r="AE177" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF177" s="0" t="n">
         <v>25000</v>
@@ -4652,7 +4695,7 @@
     </row>
     <row r="178" spans="31:32" customHeight="1">
       <c r="AE178" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF178" s="0" t="n">
         <v>10000</v>
@@ -4660,7 +4703,7 @@
     </row>
     <row r="179" spans="31:32" customHeight="1">
       <c r="AE179" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF179" s="0" t="n">
         <v>20000</v>
@@ -4668,7 +4711,7 @@
     </row>
     <row r="180" spans="31:32" customHeight="1">
       <c r="AE180" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF180" s="0" t="n">
         <v>10000</v>
@@ -4676,7 +4719,7 @@
     </row>
     <row r="181" spans="31:32" customHeight="1">
       <c r="AE181" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF181" s="0" t="n">
         <v>20000</v>
@@ -4684,7 +4727,7 @@
     </row>
     <row r="182" spans="31:32" customHeight="1">
       <c r="AE182" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF182" s="0" t="n">
         <v>20000</v>
@@ -4692,7 +4735,7 @@
     </row>
     <row r="183" spans="31:32" customHeight="1">
       <c r="AE183" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF183" s="0" t="n">
         <v>20000</v>
@@ -4700,7 +4743,7 @@
     </row>
     <row r="184" spans="31:32" customHeight="1">
       <c r="AE184" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF184" s="0" t="n">
         <v>20000</v>
@@ -4708,7 +4751,7 @@
     </row>
     <row r="185" spans="31:32" customHeight="1">
       <c r="AE185" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF185" s="0" t="n">
         <v>10000</v>
@@ -4716,7 +4759,7 @@
     </row>
     <row r="186" spans="31:32" customHeight="1">
       <c r="AE186" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF186" s="0" t="n">
         <v>10000</v>
@@ -4724,7 +4767,7 @@
     </row>
     <row r="187" spans="31:32" customHeight="1">
       <c r="AE187" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF187" s="0" t="n">
         <v>10000</v>
@@ -4732,7 +4775,7 @@
     </row>
     <row r="188" spans="31:32" customHeight="1">
       <c r="AE188" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AF188" s="0" t="n">
         <v>20000</v>
@@ -4740,7 +4783,7 @@
     </row>
     <row r="189" spans="31:32" customHeight="1">
       <c r="AE189" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF189" s="0" t="n">
         <v>10000</v>
@@ -4748,7 +4791,7 @@
     </row>
     <row r="190" spans="31:32" customHeight="1">
       <c r="AE190" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF190" s="0" t="n">
         <v>10000</v>
@@ -4756,7 +4799,7 @@
     </row>
     <row r="191" spans="31:32" customHeight="1">
       <c r="AE191" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF191" s="0" t="n">
         <v>20000</v>
@@ -4764,7 +4807,7 @@
     </row>
     <row r="192" spans="31:32" customHeight="1">
       <c r="AE192" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF192" s="0" t="n">
         <v>20000</v>
@@ -4772,7 +4815,7 @@
     </row>
     <row r="193" spans="31:32" customHeight="1">
       <c r="AE193" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AF193" s="0" t="n">
         <v>10000</v>
@@ -4780,7 +4823,7 @@
     </row>
     <row r="194" spans="31:32" customHeight="1">
       <c r="AE194" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AF194" s="0" t="n">
         <v>10000</v>
@@ -4788,7 +4831,7 @@
     </row>
     <row r="195" spans="31:32" customHeight="1">
       <c r="AE195" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AF195" s="0" t="n">
         <v>10000</v>
@@ -4796,7 +4839,7 @@
     </row>
     <row r="196" spans="31:32" customHeight="1">
       <c r="AE196" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AF196" s="0" t="n">
         <v>10000</v>
@@ -4804,7 +4847,7 @@
     </row>
     <row r="197" spans="31:32" customHeight="1">
       <c r="AE197" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF197" s="0" t="n">
         <v>20000</v>
@@ -4812,7 +4855,7 @@
     </row>
     <row r="198" spans="31:32" customHeight="1">
       <c r="AE198" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF198" s="0" t="n">
         <v>20000</v>
@@ -4820,7 +4863,7 @@
     </row>
     <row r="199" spans="31:32" customHeight="1">
       <c r="AE199" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AF199" s="0" t="n">
         <v>10000</v>
@@ -4828,7 +4871,7 @@
     </row>
     <row r="200" spans="31:32" customHeight="1">
       <c r="AE200" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF200" s="0" t="n">
         <v>10000</v>
@@ -4836,7 +4879,7 @@
     </row>
     <row r="201" spans="31:32" customHeight="1">
       <c r="AE201" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AF201" s="0" t="n">
         <v>10000</v>
@@ -4844,7 +4887,7 @@
     </row>
     <row r="202" spans="31:32" customHeight="1">
       <c r="AE202" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AF202" s="0" t="n">
         <v>20000</v>
@@ -4852,7 +4895,7 @@
     </row>
     <row r="203" spans="31:32" customHeight="1">
       <c r="AE203" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF203" s="0" t="n">
         <v>10000</v>
@@ -4860,7 +4903,7 @@
     </row>
     <row r="204" spans="31:32" customHeight="1">
       <c r="AE204" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AF204" s="0" t="n">
         <v>10000</v>
@@ -4868,7 +4911,7 @@
     </row>
     <row r="205" spans="31:32" customHeight="1">
       <c r="AE205" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF205" s="0" t="n">
         <v>20000</v>
@@ -4876,7 +4919,7 @@
     </row>
     <row r="206" spans="31:32" customHeight="1">
       <c r="AE206" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF206" s="0" t="n">
         <v>10000</v>
@@ -4884,7 +4927,7 @@
     </row>
     <row r="207" spans="31:32" customHeight="1">
       <c r="AE207" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AF207" s="0" t="n">
         <v>10000</v>
@@ -4892,7 +4935,7 @@
     </row>
     <row r="208" spans="31:32" customHeight="1">
       <c r="AE208" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AF208" s="0" t="n">
         <v>10000</v>
@@ -4900,7 +4943,7 @@
     </row>
     <row r="209" spans="31:32" customHeight="1">
       <c r="AE209" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AF209" s="0" t="n">
         <v>20000</v>
@@ -4908,7 +4951,7 @@
     </row>
     <row r="210" spans="31:32" customHeight="1">
       <c r="AE210" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AF210" s="0" t="n">
         <v>10000</v>
@@ -4916,7 +4959,7 @@
     </row>
     <row r="211" spans="31:32" customHeight="1">
       <c r="AE211" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AF211" s="0" t="n">
         <v>20000</v>
@@ -4924,7 +4967,7 @@
     </row>
     <row r="212" spans="31:32" customHeight="1">
       <c r="AE212" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF212" s="0" t="n">
         <v>10000</v>
@@ -4932,7 +4975,7 @@
     </row>
     <row r="213" spans="31:32" customHeight="1">
       <c r="AE213" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF213" s="0" t="n">
         <v>10000</v>
@@ -4940,7 +4983,7 @@
     </row>
     <row r="214" spans="31:32" customHeight="1">
       <c r="AE214" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF214" s="0" t="n">
         <v>10000</v>
@@ -4948,7 +4991,7 @@
     </row>
     <row r="215" spans="31:32" customHeight="1">
       <c r="AE215" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AF215" s="0" t="n">
         <v>20000</v>
@@ -4956,7 +4999,7 @@
     </row>
     <row r="216" spans="31:32" customHeight="1">
       <c r="AE216" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AF216" s="0" t="n">
         <v>10000</v>
@@ -4964,7 +5007,7 @@
     </row>
     <row r="217" spans="31:32" customHeight="1">
       <c r="AE217" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AF217" s="0" t="n">
         <v>10000</v>
@@ -4972,7 +5015,7 @@
     </row>
     <row r="218" spans="31:32" customHeight="1">
       <c r="AE218" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AF218" s="0" t="n">
         <v>10000</v>
@@ -4980,7 +5023,7 @@
     </row>
     <row r="219" spans="31:32" customHeight="1">
       <c r="AE219" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AF219" s="0" t="n">
         <v>10000</v>
@@ -4988,7 +5031,7 @@
     </row>
     <row r="220" spans="31:32" customHeight="1">
       <c r="AE220" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AF220" s="0" t="n">
         <v>20000</v>
@@ -4996,7 +5039,7 @@
     </row>
     <row r="221" spans="31:32" customHeight="1">
       <c r="AE221" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF221" s="0" t="n">
         <v>10000</v>
@@ -5004,7 +5047,7 @@
     </row>
     <row r="222" spans="31:32" customHeight="1">
       <c r="AE222" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF222" s="0" t="n">
         <v>10000</v>
@@ -5012,7 +5055,7 @@
     </row>
     <row r="223" spans="31:32" customHeight="1">
       <c r="AE223" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AF223" s="0" t="n">
         <v>10000</v>
@@ -5020,7 +5063,7 @@
     </row>
     <row r="224" spans="31:32" customHeight="1">
       <c r="AE224" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AF224" s="0" t="n">
         <v>10000</v>
@@ -5028,7 +5071,7 @@
     </row>
     <row r="225" spans="31:32" customHeight="1">
       <c r="AE225" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AF225" s="0" t="n">
         <v>10000</v>
@@ -5036,7 +5079,7 @@
     </row>
     <row r="226" spans="31:32" customHeight="1">
       <c r="AE226" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AF226" s="0" t="n">
         <v>10000</v>
@@ -5044,7 +5087,7 @@
     </row>
     <row r="227" spans="31:32" customHeight="1">
       <c r="AE227" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF227" s="0" t="n">
         <v>10000</v>
@@ -5052,7 +5095,7 @@
     </row>
     <row r="228" spans="31:32" customHeight="1">
       <c r="AE228" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AF228" s="0" t="n">
         <v>10000</v>
@@ -5060,7 +5103,7 @@
     </row>
     <row r="229" spans="31:32" customHeight="1">
       <c r="AE229" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF229" s="0" t="n">
         <v>20000</v>
@@ -5068,7 +5111,7 @@
     </row>
     <row r="230" spans="31:32" customHeight="1">
       <c r="AE230" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AF230" s="0" t="n">
         <v>20000</v>
@@ -5076,7 +5119,7 @@
     </row>
     <row r="231" spans="31:32" customHeight="1">
       <c r="AE231" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF231" s="0" t="n">
         <v>10000</v>
@@ -5084,7 +5127,7 @@
     </row>
     <row r="232" spans="31:32" customHeight="1">
       <c r="AE232" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF232" s="0" t="n">
         <v>10000</v>
@@ -5092,7 +5135,7 @@
     </row>
     <row r="233" spans="31:32" customHeight="1">
       <c r="AE233" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AF233" s="0" t="n">
         <v>10000</v>
@@ -5100,7 +5143,7 @@
     </row>
     <row r="234" spans="31:32" customHeight="1">
       <c r="AE234" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF234" s="0" t="n">
         <v>10000</v>
@@ -5108,7 +5151,7 @@
     </row>
     <row r="235" spans="31:32" customHeight="1">
       <c r="AE235" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF235" s="0" t="n">
         <v>10000</v>
@@ -5116,7 +5159,7 @@
     </row>
     <row r="236" spans="31:32" customHeight="1">
       <c r="AE236" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AF236" s="0" t="n">
         <v>10000</v>
@@ -5124,7 +5167,7 @@
     </row>
     <row r="237" spans="31:32" customHeight="1">
       <c r="AE237" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AF237" s="0" t="n">
         <v>10000</v>
@@ -5132,7 +5175,7 @@
     </row>
     <row r="238" spans="31:32" customHeight="1">
       <c r="AE238" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AF238" s="0" t="n">
         <v>10000</v>
@@ -5140,7 +5183,7 @@
     </row>
     <row r="239" spans="31:32" customHeight="1">
       <c r="AE239" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AF239" s="0" t="n">
         <v>20000</v>
@@ -5148,7 +5191,7 @@
     </row>
     <row r="240" spans="31:32" customHeight="1">
       <c r="AE240" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AF240" s="0" t="n">
         <v>10000</v>
@@ -5156,7 +5199,7 @@
     </row>
     <row r="241" spans="31:32" customHeight="1">
       <c r="AE241" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AF241" s="0" t="n">
         <v>10000</v>
@@ -5164,7 +5207,7 @@
     </row>
     <row r="242" spans="31:32" customHeight="1">
       <c r="AE242" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AF242" s="0" t="n">
         <v>10000</v>
@@ -5172,7 +5215,7 @@
     </row>
     <row r="243" spans="31:32" customHeight="1">
       <c r="AE243" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AF243" s="0" t="n">
         <v>20000</v>
@@ -5180,7 +5223,7 @@
     </row>
     <row r="244" spans="31:32" customHeight="1">
       <c r="AE244" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF244" s="0" t="n">
         <v>10000</v>
@@ -5188,7 +5231,7 @@
     </row>
     <row r="245" spans="31:32" customHeight="1">
       <c r="AE245" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AF245" s="0" t="n">
         <v>10000</v>
@@ -5196,7 +5239,7 @@
     </row>
     <row r="246" spans="31:32" customHeight="1">
       <c r="AE246" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AF246" s="0" t="n">
         <v>25000</v>
@@ -5204,7 +5247,7 @@
     </row>
     <row r="247" spans="31:32" customHeight="1">
       <c r="AE247" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AF247" s="0" t="n">
         <v>10000</v>
@@ -5212,7 +5255,7 @@
     </row>
     <row r="248" spans="31:32" customHeight="1">
       <c r="AE248" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AF248" s="0" t="n">
         <v>10000</v>
@@ -5220,7 +5263,7 @@
     </row>
     <row r="249" spans="31:32" customHeight="1">
       <c r="AE249" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AF249" s="0" t="n">
         <v>10000</v>
@@ -5228,7 +5271,7 @@
     </row>
     <row r="250" spans="31:32" customHeight="1">
       <c r="AE250" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AF250" s="0" t="n">
         <v>10000</v>
@@ -5236,7 +5279,7 @@
     </row>
     <row r="251" spans="31:32" customHeight="1">
       <c r="AE251" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AF251" s="0" t="n">
         <v>10000</v>
@@ -5244,7 +5287,7 @@
     </row>
     <row r="252" spans="31:32" customHeight="1">
       <c r="AE252" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AF252" s="0" t="n">
         <v>10000</v>
@@ -5252,7 +5295,7 @@
     </row>
     <row r="253" spans="31:32" customHeight="1">
       <c r="AE253" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AF253" s="0" t="n">
         <v>10000</v>
@@ -5260,7 +5303,7 @@
     </row>
     <row r="254" spans="31:32" customHeight="1">
       <c r="AE254" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AF254" s="0" t="n">
         <v>10000</v>
@@ -5268,7 +5311,7 @@
     </row>
     <row r="255" spans="31:32" customHeight="1">
       <c r="AE255" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AF255" s="0" t="n">
         <v>10000</v>
@@ -5276,7 +5319,7 @@
     </row>
     <row r="256" spans="31:32" customHeight="1">
       <c r="AE256" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AF256" s="0" t="n">
         <v>10000</v>
@@ -5284,7 +5327,7 @@
     </row>
     <row r="257" spans="31:32" customHeight="1">
       <c r="AE257" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AF257" s="0" t="n">
         <v>10000</v>
@@ -5292,7 +5335,7 @@
     </row>
     <row r="258" spans="31:32" customHeight="1">
       <c r="AE258" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AF258" s="0" t="n">
         <v>20000</v>
@@ -5300,7 +5343,7 @@
     </row>
     <row r="259" spans="31:32" customHeight="1">
       <c r="AE259" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AF259" s="0" t="n">
         <v>10000</v>
@@ -5308,7 +5351,7 @@
     </row>
     <row r="260" spans="31:32" customHeight="1">
       <c r="AE260" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AF260" s="0" t="n">
         <v>10000</v>
@@ -5316,7 +5359,7 @@
     </row>
     <row r="261" spans="31:32" customHeight="1">
       <c r="AE261" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AF261" s="0" t="n">
         <v>10000</v>
@@ -5324,7 +5367,7 @@
     </row>
     <row r="262" spans="31:32" customHeight="1">
       <c r="AE262" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AF262" s="0" t="n">
         <v>25000</v>
@@ -5332,7 +5375,7 @@
     </row>
     <row r="263" spans="31:32" customHeight="1">
       <c r="AE263" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AF263" s="0" t="n">
         <v>25000</v>
@@ -5340,7 +5383,7 @@
     </row>
     <row r="264" spans="31:32" customHeight="1">
       <c r="AE264" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AF264" s="0" t="n">
         <v>10000</v>
@@ -5348,7 +5391,7 @@
     </row>
     <row r="265" spans="31:32" customHeight="1">
       <c r="AE265" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AF265" s="0" t="n">
         <v>20000</v>
@@ -5356,7 +5399,7 @@
     </row>
     <row r="266" spans="31:32" customHeight="1">
       <c r="AE266" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AF266" s="0" t="n">
         <v>10000</v>
@@ -5364,7 +5407,7 @@
     </row>
     <row r="267" spans="31:32" customHeight="1">
       <c r="AE267" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF267" s="0" t="n">
         <v>20000</v>
@@ -5372,7 +5415,7 @@
     </row>
     <row r="268" spans="31:32" customHeight="1">
       <c r="AE268" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF268" s="0" t="n">
         <v>20000</v>
@@ -5380,7 +5423,7 @@
     </row>
     <row r="269" spans="31:32" customHeight="1">
       <c r="AE269" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AF269" s="0" t="n">
         <v>10000</v>
@@ -5388,7 +5431,7 @@
     </row>
     <row r="270" spans="31:32" customHeight="1">
       <c r="AE270" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AF270" s="0" t="n">
         <v>10000</v>
@@ -5396,7 +5439,7 @@
     </row>
     <row r="271" spans="31:32" customHeight="1">
       <c r="AE271" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AF271" s="0" t="n">
         <v>10000</v>
@@ -5404,7 +5447,7 @@
     </row>
     <row r="272" spans="31:32" customHeight="1">
       <c r="AE272" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AF272" s="0" t="n">
         <v>20000</v>
@@ -5412,7 +5455,7 @@
     </row>
     <row r="273" spans="31:32" customHeight="1">
       <c r="AE273" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AF273" s="0" t="n">
         <v>10000</v>
@@ -5420,7 +5463,7 @@
     </row>
     <row r="274" spans="31:32" customHeight="1">
       <c r="AE274" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF274" s="0" t="n">
         <v>20000</v>
@@ -5428,7 +5471,7 @@
     </row>
     <row r="275" spans="31:32" customHeight="1">
       <c r="AE275" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AF275" s="0" t="n">
         <v>20000</v>
@@ -5436,7 +5479,7 @@
     </row>
     <row r="276" spans="31:32" customHeight="1">
       <c r="AE276" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF276" s="0" t="n">
         <v>10000</v>
@@ -5444,7 +5487,7 @@
     </row>
     <row r="277" spans="31:32" customHeight="1">
       <c r="AE277" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AF277" s="0" t="n">
         <v>10000</v>
@@ -5452,7 +5495,7 @@
     </row>
     <row r="278" spans="31:32" customHeight="1">
       <c r="AE278" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AF278" s="0" t="n">
         <v>10000</v>
@@ -5460,7 +5503,7 @@
     </row>
     <row r="279" spans="31:32" customHeight="1">
       <c r="AE279" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AF279" s="0" t="n">
         <v>10000</v>
@@ -5468,7 +5511,7 @@
     </row>
     <row r="280" spans="31:32" customHeight="1">
       <c r="AE280" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF280" s="0" t="n">
         <v>10000</v>
@@ -5476,7 +5519,7 @@
     </row>
     <row r="281" spans="31:32" customHeight="1">
       <c r="AE281" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF281" s="0" t="n">
         <v>10000</v>
@@ -5484,7 +5527,7 @@
     </row>
     <row r="282" spans="31:32" customHeight="1">
       <c r="AE282" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AF282" s="0" t="n">
         <v>10000</v>
@@ -5492,7 +5535,7 @@
     </row>
     <row r="283" spans="31:32" customHeight="1">
       <c r="AE283" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF283" s="0" t="n">
         <v>10000</v>
@@ -5500,7 +5543,7 @@
     </row>
     <row r="284" spans="31:32" customHeight="1">
       <c r="AE284" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AF284" s="0" t="n">
         <v>10000</v>
@@ -5508,7 +5551,7 @@
     </row>
     <row r="285" spans="31:32" customHeight="1">
       <c r="AE285" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AF285" s="0" t="n">
         <v>10000</v>
@@ -5516,7 +5559,7 @@
     </row>
     <row r="286" spans="31:32" customHeight="1">
       <c r="AE286" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AF286" s="0" t="n">
         <v>10000</v>
@@ -5524,7 +5567,7 @@
     </row>
     <row r="287" spans="31:32" customHeight="1">
       <c r="AE287" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AF287" s="0" t="n">
         <v>10000</v>
@@ -5532,7 +5575,7 @@
     </row>
     <row r="288" spans="31:32" customHeight="1">
       <c r="AE288" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AF288" s="0" t="n">
         <v>20000</v>
@@ -5540,7 +5583,7 @@
     </row>
     <row r="289" spans="31:32" customHeight="1">
       <c r="AE289" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AF289" s="0" t="n">
         <v>10000</v>
@@ -5548,7 +5591,7 @@
     </row>
     <row r="290" spans="31:32" customHeight="1">
       <c r="AE290" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AF290" s="0" t="n">
         <v>10000</v>
@@ -5556,7 +5599,7 @@
     </row>
     <row r="291" spans="31:32" customHeight="1">
       <c r="AE291" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AF291" s="0" t="n">
         <v>10000</v>
@@ -5564,7 +5607,7 @@
     </row>
     <row r="292" spans="31:32" customHeight="1">
       <c r="AE292" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AF292" s="0" t="n">
         <v>10000</v>
@@ -5572,7 +5615,7 @@
     </row>
     <row r="293" spans="31:32" customHeight="1">
       <c r="AE293" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AF293" s="0" t="n">
         <v>10000</v>
@@ -5580,7 +5623,7 @@
     </row>
     <row r="294" spans="31:32" customHeight="1">
       <c r="AE294" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AF294" s="0" t="n">
         <v>10000</v>
@@ -5588,7 +5631,7 @@
     </row>
     <row r="295" spans="31:32" customHeight="1">
       <c r="AE295" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AF295" s="0" t="n">
         <v>25000</v>
@@ -5596,7 +5639,7 @@
     </row>
     <row r="296" spans="31:32" customHeight="1">
       <c r="AE296" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AF296" s="0" t="n">
         <v>10000</v>
@@ -5604,7 +5647,7 @@
     </row>
     <row r="297" spans="31:32" customHeight="1">
       <c r="AE297" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AF297" s="0" t="n">
         <v>10000</v>
@@ -5612,7 +5655,7 @@
     </row>
     <row r="298" spans="31:32" customHeight="1">
       <c r="AE298" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AF298" s="0" t="n">
         <v>10000</v>
@@ -5620,7 +5663,7 @@
     </row>
     <row r="299" spans="31:32" customHeight="1">
       <c r="AE299" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AF299" s="0" t="n">
         <v>10000</v>
@@ -5628,7 +5671,7 @@
     </row>
     <row r="300" spans="31:32" customHeight="1">
       <c r="AE300" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AF300" s="0" t="n">
         <v>10000</v>
@@ -5636,7 +5679,7 @@
     </row>
     <row r="301" spans="31:32" customHeight="1">
       <c r="AE301" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AF301" s="0" t="n">
         <v>20000</v>
@@ -5644,7 +5687,7 @@
     </row>
     <row r="302" spans="31:32" customHeight="1">
       <c r="AE302" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AF302" s="0" t="n">
         <v>20000</v>
@@ -5652,7 +5695,7 @@
     </row>
     <row r="303" spans="31:32" customHeight="1">
       <c r="AE303" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AF303" s="0" t="n">
         <v>10000</v>
@@ -5660,7 +5703,7 @@
     </row>
     <row r="304" spans="31:32" customHeight="1">
       <c r="AE304" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AF304" s="0" t="n">
         <v>10000</v>
@@ -5668,7 +5711,7 @@
     </row>
     <row r="305" spans="31:32" customHeight="1">
       <c r="AE305" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AF305" s="0" t="n">
         <v>10000</v>
@@ -5779,7 +5822,7 @@
       <c r="AC1" s="6"/>
       <c r="AD1" s="6"/>
       <c r="AE1" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AF1" s="0" t="n">
         <v>1500</v>
@@ -5825,7 +5868,7 @@
       <c r="AC2" s="9"/>
       <c r="AD2" s="9"/>
       <c r="AE2" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AF2" s="0" t="n">
         <v>1500</v>
@@ -5875,7 +5918,7 @@
       <c r="AC3" s="16"/>
       <c r="AD3" s="16"/>
       <c r="AE3" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AF3" s="0" t="n">
         <v>1500</v>
@@ -5919,7 +5962,7 @@
       <c r="AC4" s="22"/>
       <c r="AD4" s="22"/>
       <c r="AE4" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AF4" s="0" t="n">
         <v>1500</v>
@@ -5930,7 +5973,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" s="26" t="n">
         <v>215</v>
@@ -5942,13 +5985,13 @@
         <f>C5*D5</f>
       </c>
       <c r="F5" s="28" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="I5" s="28"/>
       <c r="J5" s="28"/>
@@ -5973,7 +6016,7 @@
       <c r="AC5" s="28"/>
       <c r="AD5" s="28"/>
       <c r="AE5" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AF5" s="0" t="n">
         <v>2500</v>
@@ -5984,7 +6027,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6" s="26" t="n">
         <v>130</v>
@@ -5996,13 +6039,13 @@
         <f>C6*D6</f>
       </c>
       <c r="F6" s="28" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G6" s="28" t="s">
+        <v>359</v>
+      </c>
+      <c r="H6" s="28" t="s">
         <v>358</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>357</v>
       </c>
       <c r="I6" s="28"/>
       <c r="J6" s="28"/>
@@ -6027,7 +6070,7 @@
       <c r="AC6" s="28"/>
       <c r="AD6" s="28"/>
       <c r="AE6" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AF6" s="0" t="n">
         <v>1500</v>
@@ -6038,7 +6081,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" s="26" t="n">
         <v>120</v>
@@ -6075,7 +6118,7 @@
       <c r="AC7" s="28"/>
       <c r="AD7" s="28"/>
       <c r="AE7" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AF7" s="0" t="n">
         <v>1500</v>
@@ -6086,7 +6129,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" s="26" t="n">
         <v>110</v>
@@ -6123,7 +6166,7 @@
       <c r="AC8" s="28"/>
       <c r="AD8" s="28"/>
       <c r="AE8" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AF8" s="0" t="n">
         <v>1500</v>
@@ -6134,7 +6177,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" s="26" t="n">
         <v>100</v>
@@ -6171,7 +6214,7 @@
       <c r="AC9" s="28"/>
       <c r="AD9" s="28"/>
       <c r="AE9" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AF9" s="0" t="n">
         <v>1500</v>
@@ -6182,7 +6225,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C10" s="30" t="n">
         <v>100</v>
@@ -6219,7 +6262,7 @@
       <c r="AC10" s="29"/>
       <c r="AD10" s="29"/>
       <c r="AE10" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AF10" s="0" t="n">
         <v>1500</v>
@@ -6230,7 +6273,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C11" s="30" t="n">
         <v>100</v>
@@ -6267,7 +6310,7 @@
       <c r="AC11" s="29"/>
       <c r="AD11" s="29"/>
       <c r="AE11" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AF11" s="0" t="n">
         <v>1500</v>
@@ -6278,7 +6321,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12" s="30" t="n">
         <v>90</v>
@@ -6315,7 +6358,7 @@
       <c r="AC12" s="29"/>
       <c r="AD12" s="29"/>
       <c r="AE12" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AF12" s="0" t="n">
         <v>1500</v>
@@ -6326,7 +6369,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C13" s="30" t="n">
         <v>80</v>
@@ -6363,7 +6406,7 @@
       <c r="AC13" s="29"/>
       <c r="AD13" s="29"/>
       <c r="AE13" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AF13" s="0" t="n">
         <v>1500</v>
@@ -6374,7 +6417,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C14" s="30" t="n">
         <v>70</v>
@@ -6411,7 +6454,7 @@
       <c r="AC14" s="29"/>
       <c r="AD14" s="29"/>
       <c r="AE14" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AF14" s="0" t="n">
         <v>1500</v>
@@ -6422,7 +6465,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C15" s="30" t="n">
         <v>70</v>
@@ -6459,7 +6502,7 @@
       <c r="AC15" s="29"/>
       <c r="AD15" s="29"/>
       <c r="AE15" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AF15" s="0" t="n">
         <v>1500</v>
@@ -6470,7 +6513,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C16" s="30" t="n">
         <v>65</v>
@@ -6507,7 +6550,7 @@
       <c r="AC16" s="29"/>
       <c r="AD16" s="29"/>
       <c r="AE16" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AF16" s="0" t="n">
         <v>1500</v>
@@ -6518,7 +6561,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C17" s="30" t="n">
         <v>60</v>
@@ -6555,7 +6598,7 @@
       <c r="AC17" s="29"/>
       <c r="AD17" s="29"/>
       <c r="AE17" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AF17" s="0" t="n">
         <v>1500</v>
@@ -6566,7 +6609,7 @@
         <v>6</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C18" s="30" t="n">
         <v>60</v>
@@ -6603,7 +6646,7 @@
       <c r="AC18" s="29"/>
       <c r="AD18" s="29"/>
       <c r="AE18" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AF18" s="0" t="n">
         <v>1500</v>
@@ -6614,7 +6657,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C19" s="30" t="n">
         <v>45</v>
@@ -6651,7 +6694,7 @@
       <c r="AC19" s="29"/>
       <c r="AD19" s="29"/>
       <c r="AE19" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AF19" s="0" t="n">
         <v>1500</v>
@@ -6662,7 +6705,7 @@
         <v>7</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C20" s="26" t="n">
         <v>35</v>
@@ -6699,7 +6742,7 @@
       <c r="AC20" s="28"/>
       <c r="AD20" s="28"/>
       <c r="AE20" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AF20" s="0" t="n">
         <v>1500</v>
@@ -6710,7 +6753,7 @@
         <v>7</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C21" s="26" t="n">
         <v>30</v>
@@ -6747,7 +6790,7 @@
       <c r="AC21" s="28"/>
       <c r="AD21" s="28"/>
       <c r="AE21" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AF21" s="0" t="n">
         <v>1500</v>
@@ -6758,7 +6801,7 @@
         <v>7</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C22" s="26" t="n">
         <v>30</v>
@@ -6795,7 +6838,7 @@
       <c r="AC22" s="28"/>
       <c r="AD22" s="28"/>
       <c r="AE22" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AF22" s="0" t="n">
         <v>1500</v>
@@ -6806,7 +6849,7 @@
         <v>7</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C23" s="26" t="n">
         <v>30</v>
@@ -6843,7 +6886,7 @@
       <c r="AC23" s="28"/>
       <c r="AD23" s="28"/>
       <c r="AE23" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AF23" s="0" t="n">
         <v>1500</v>
@@ -6854,7 +6897,7 @@
         <v>7</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C24" s="26" t="n">
         <v>30</v>
@@ -6891,7 +6934,7 @@
       <c r="AC24" s="28"/>
       <c r="AD24" s="28"/>
       <c r="AE24" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AF24" s="0" t="n">
         <v>1500</v>
@@ -6902,7 +6945,7 @@
         <v>7</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C25" s="26" t="n">
         <v>30</v>
@@ -6939,7 +6982,7 @@
       <c r="AC25" s="28"/>
       <c r="AD25" s="28"/>
       <c r="AE25" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AF25" s="0" t="n">
         <v>1500</v>
@@ -6950,7 +6993,7 @@
         <v>7</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C26" s="26" t="n">
         <v>20</v>
@@ -6987,7 +7030,7 @@
       <c r="AC26" s="28"/>
       <c r="AD26" s="28"/>
       <c r="AE26" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AF26" s="0" t="n">
         <v>1500</v>
@@ -6995,7 +7038,7 @@
     </row>
     <row r="27" spans="31:32" customHeight="1">
       <c r="AE27" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AF27" s="0" t="n">
         <v>2500</v>
@@ -7003,7 +7046,7 @@
     </row>
     <row r="28" spans="31:32" customHeight="1">
       <c r="AE28" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AF28" s="0" t="n">
         <v>1500</v>
@@ -7011,7 +7054,7 @@
     </row>
     <row r="29" spans="31:32" customHeight="1">
       <c r="AE29" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AF29" s="0" t="n">
         <v>1500</v>
@@ -7019,7 +7062,7 @@
     </row>
     <row r="30" spans="31:32" customHeight="1">
       <c r="AE30" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AF30" s="0" t="n">
         <v>1500</v>
@@ -7027,7 +7070,7 @@
     </row>
     <row r="31" spans="31:32" customHeight="1">
       <c r="AE31" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AF31" s="0" t="n">
         <v>1500</v>
@@ -7035,7 +7078,7 @@
     </row>
     <row r="32" spans="31:32" customHeight="1">
       <c r="AE32" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AF32" s="0" t="n">
         <v>1500</v>
@@ -7043,7 +7086,7 @@
     </row>
     <row r="33" spans="31:32" customHeight="1">
       <c r="AE33" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AF33" s="0" t="n">
         <v>1500</v>
@@ -7051,7 +7094,7 @@
     </row>
     <row r="34" spans="31:32" customHeight="1">
       <c r="AE34" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AF34" s="0" t="n">
         <v>1500</v>
@@ -7059,7 +7102,7 @@
     </row>
     <row r="35" spans="31:32" customHeight="1">
       <c r="AE35" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AF35" s="0" t="n">
         <v>1500</v>
@@ -7067,7 +7110,7 @@
     </row>
     <row r="36" spans="31:32" customHeight="1">
       <c r="AE36" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AF36" s="0" t="n">
         <v>1500</v>
@@ -7075,7 +7118,7 @@
     </row>
     <row r="37" spans="31:32" customHeight="1">
       <c r="AE37" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AF37" s="0" t="n">
         <v>2500</v>
@@ -7083,7 +7126,7 @@
     </row>
     <row r="38" spans="31:32" customHeight="1">
       <c r="AE38" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AF38" s="0" t="n">
         <v>1500</v>
@@ -7091,7 +7134,7 @@
     </row>
     <row r="39" spans="31:32" customHeight="1">
       <c r="AE39" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AF39" s="0" t="n">
         <v>1500</v>
@@ -7099,7 +7142,7 @@
     </row>
     <row r="40" spans="31:32" customHeight="1">
       <c r="AE40" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AF40" s="0" t="n">
         <v>1500</v>
@@ -7107,7 +7150,7 @@
     </row>
     <row r="41" spans="31:32" customHeight="1">
       <c r="AE41" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AF41" s="0" t="n">
         <v>1500</v>
@@ -7115,7 +7158,7 @@
     </row>
     <row r="42" spans="31:32" customHeight="1">
       <c r="AE42" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AF42" s="0" t="n">
         <v>1500</v>
@@ -7123,7 +7166,7 @@
     </row>
     <row r="43" spans="31:32" customHeight="1">
       <c r="AE43" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AF43" s="0" t="n">
         <v>1500</v>
@@ -7131,7 +7174,7 @@
     </row>
     <row r="44" spans="31:32" customHeight="1">
       <c r="AE44" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AF44" s="0" t="n">
         <v>1500</v>
@@ -7139,7 +7182,7 @@
     </row>
     <row r="45" spans="31:32" customHeight="1">
       <c r="AE45" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AF45" s="0" t="n">
         <v>1500</v>
@@ -7147,7 +7190,7 @@
     </row>
     <row r="46" spans="31:32" customHeight="1">
       <c r="AE46" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AF46" s="0" t="n">
         <v>2500</v>
@@ -7155,7 +7198,7 @@
     </row>
     <row r="47" spans="31:32" customHeight="1">
       <c r="AE47" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AF47" s="0" t="n">
         <v>1500</v>
@@ -7163,7 +7206,7 @@
     </row>
     <row r="48" spans="31:32" customHeight="1">
       <c r="AE48" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AF48" s="0" t="n">
         <v>1500</v>
@@ -7171,7 +7214,7 @@
     </row>
     <row r="49" spans="31:32" customHeight="1">
       <c r="AE49" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AF49" s="0" t="n">
         <v>2500</v>
@@ -7179,7 +7222,7 @@
     </row>
     <row r="50" spans="31:32" customHeight="1">
       <c r="AE50" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AF50" s="0" t="n">
         <v>1500</v>
@@ -7187,7 +7230,7 @@
     </row>
     <row r="51" spans="31:32" customHeight="1">
       <c r="AE51" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AF51" s="0" t="n">
         <v>3000</v>
@@ -7195,7 +7238,7 @@
     </row>
     <row r="52" spans="31:32" customHeight="1">
       <c r="AE52" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AF52" s="0" t="n">
         <v>2500</v>
@@ -7203,7 +7246,7 @@
     </row>
     <row r="53" spans="31:32" customHeight="1">
       <c r="AE53" s="0" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AF53" s="0" t="n">
         <v>1500</v>
@@ -7211,7 +7254,7 @@
     </row>
     <row r="54" spans="31:32" customHeight="1">
       <c r="AE54" s="0" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AF54" s="0" t="n">
         <v>1500</v>
@@ -7219,7 +7262,7 @@
     </row>
     <row r="55" spans="31:32" customHeight="1">
       <c r="AE55" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AF55" s="0" t="n">
         <v>1500</v>
@@ -7227,7 +7270,7 @@
     </row>
     <row r="56" spans="31:32" customHeight="1">
       <c r="AE56" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AF56" s="0" t="n">
         <v>1500</v>
@@ -7235,7 +7278,7 @@
     </row>
     <row r="57" spans="31:32" customHeight="1">
       <c r="AE57" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AF57" s="0" t="n">
         <v>1500</v>
@@ -7243,7 +7286,7 @@
     </row>
     <row r="58" spans="31:32" customHeight="1">
       <c r="AE58" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AF58" s="0" t="n">
         <v>1500</v>
@@ -7251,7 +7294,7 @@
     </row>
     <row r="59" spans="31:32" customHeight="1">
       <c r="AE59" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AF59" s="0" t="n">
         <v>2500</v>
@@ -7259,7 +7302,7 @@
     </row>
     <row r="60" spans="31:32" customHeight="1">
       <c r="AE60" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AF60" s="0" t="n">
         <v>1500</v>
@@ -7267,7 +7310,7 @@
     </row>
     <row r="61" spans="31:32" customHeight="1">
       <c r="AE61" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AF61" s="0" t="n">
         <v>2500</v>
@@ -7275,7 +7318,7 @@
     </row>
     <row r="62" spans="31:32" customHeight="1">
       <c r="AE62" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AF62" s="0" t="n">
         <v>1500</v>
@@ -7283,7 +7326,7 @@
     </row>
     <row r="63" spans="31:32" customHeight="1">
       <c r="AE63" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AF63" s="0" t="n">
         <v>1500</v>
@@ -7291,7 +7334,7 @@
     </row>
     <row r="64" spans="31:32" customHeight="1">
       <c r="AE64" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AF64" s="0" t="n">
         <v>1500</v>
@@ -7299,7 +7342,7 @@
     </row>
     <row r="65" spans="31:32" customHeight="1">
       <c r="AE65" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AF65" s="0" t="n">
         <v>1500</v>
@@ -7307,7 +7350,7 @@
     </row>
     <row r="66" spans="31:32" customHeight="1">
       <c r="AE66" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AF66" s="0" t="n">
         <v>1500</v>
@@ -7315,7 +7358,7 @@
     </row>
     <row r="67" spans="31:32" customHeight="1">
       <c r="AE67" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AF67" s="0" t="n">
         <v>1500</v>
@@ -7323,7 +7366,7 @@
     </row>
     <row r="68" spans="31:32" customHeight="1">
       <c r="AE68" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AF68" s="0" t="n">
         <v>1500</v>
@@ -7331,7 +7374,7 @@
     </row>
     <row r="69" spans="31:32" customHeight="1">
       <c r="AE69" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AF69" s="0" t="n">
         <v>1500</v>
@@ -7339,7 +7382,7 @@
     </row>
     <row r="70" spans="31:32" customHeight="1">
       <c r="AE70" s="0" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AF70" s="0" t="n">
         <v>1500</v>
@@ -7347,7 +7390,7 @@
     </row>
     <row r="71" spans="31:32" customHeight="1">
       <c r="AE71" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AF71" s="0" t="n">
         <v>2500</v>
@@ -7355,7 +7398,7 @@
     </row>
     <row r="72" spans="31:32" customHeight="1">
       <c r="AE72" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AF72" s="0" t="n">
         <v>1500</v>
@@ -7363,7 +7406,7 @@
     </row>
     <row r="73" spans="31:32" customHeight="1">
       <c r="AE73" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AF73" s="0" t="n">
         <v>1500</v>

--- a/public/port-battle.xlsx
+++ b/public/port-battle.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="448">
   <si>
     <t>Port battle calculator by Felix Victor</t>
   </si>
@@ -74,6 +74,9 @@
     <t>3rd Rate</t>
   </si>
   <si>
+    <t>Redoutable</t>
+  </si>
+  <si>
     <t>Constitution</t>
   </si>
   <si>
@@ -126,6 +129,9 @@
   </si>
   <si>
     <t>Frigate</t>
+  </si>
+  <si>
+    <t>Hulk Indiaman</t>
   </si>
   <si>
     <t>Indiaman</t>
@@ -1631,7 +1637,7 @@
       <c r="AC1" s="6"/>
       <c r="AD1" s="6"/>
       <c r="AE1" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AF1" s="0" t="n">
         <v>10000</v>
@@ -1677,7 +1683,7 @@
       <c r="AC2" s="9"/>
       <c r="AD2" s="9"/>
       <c r="AE2" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AF2" s="0" t="n">
         <v>10000</v>
@@ -1727,7 +1733,7 @@
       <c r="AC3" s="16"/>
       <c r="AD3" s="16"/>
       <c r="AE3" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AF3" s="0" t="n">
         <v>10000</v>
@@ -1738,10 +1744,10 @@
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
       <c r="D4" s="21">
-        <f>SUM(D5:D42)</f>
+        <f>SUM(D5:D44)</f>
       </c>
       <c r="E4" s="21">
-        <f>SUM(E5:E42)</f>
+        <f>SUM(E5:E44)</f>
       </c>
       <c r="F4" s="22" t="s">
         <v>11</v>
@@ -1771,7 +1777,7 @@
       <c r="AC4" s="22"/>
       <c r="AD4" s="22"/>
       <c r="AE4" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AF4" s="0" t="n">
         <v>10000</v>
@@ -1794,13 +1800,13 @@
         <f>C5*D5</f>
       </c>
       <c r="F5" s="28" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="I5" s="28"/>
       <c r="J5" s="28"/>
@@ -1825,7 +1831,7 @@
       <c r="AC5" s="28"/>
       <c r="AD5" s="28"/>
       <c r="AE5" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AF5" s="0" t="n">
         <v>10000</v>
@@ -1848,13 +1854,13 @@
         <f>C6*D6</f>
       </c>
       <c r="F6" s="28" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I6" s="28"/>
       <c r="J6" s="28"/>
@@ -1879,7 +1885,7 @@
       <c r="AC6" s="28"/>
       <c r="AD6" s="28"/>
       <c r="AE6" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AF6" s="0" t="n">
         <v>10000</v>
@@ -1927,7 +1933,7 @@
       <c r="AC7" s="28"/>
       <c r="AD7" s="28"/>
       <c r="AE7" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AF7" s="0" t="n">
         <v>10000</v>
@@ -1975,7 +1981,7 @@
       <c r="AC8" s="29"/>
       <c r="AD8" s="29"/>
       <c r="AE8" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AF8" s="0" t="n">
         <v>10000</v>
@@ -2023,7 +2029,7 @@
       <c r="AC9" s="29"/>
       <c r="AD9" s="29"/>
       <c r="AE9" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AF9" s="0" t="n">
         <v>10000</v>
@@ -2071,7 +2077,7 @@
       <c r="AC10" s="29"/>
       <c r="AD10" s="29"/>
       <c r="AE10" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AF10" s="0" t="n">
         <v>10000</v>
@@ -2119,7 +2125,7 @@
       <c r="AC11" s="28"/>
       <c r="AD11" s="28"/>
       <c r="AE11" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AF11" s="0" t="n">
         <v>10000</v>
@@ -2167,7 +2173,7 @@
       <c r="AC12" s="28"/>
       <c r="AD12" s="28"/>
       <c r="AE12" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AF12" s="0" t="n">
         <v>10000</v>
@@ -2181,7 +2187,7 @@
         <v>20</v>
       </c>
       <c r="C13" s="26" t="n">
-        <v>400</v>
+        <v>490</v>
       </c>
       <c r="D13" s="26">
         <f>COUNTA(F13:AD13)</f>
@@ -2215,7 +2221,7 @@
       <c r="AC13" s="28"/>
       <c r="AD13" s="28"/>
       <c r="AE13" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AF13" s="0" t="n">
         <v>10000</v>
@@ -2263,7 +2269,7 @@
       <c r="AC14" s="28"/>
       <c r="AD14" s="28"/>
       <c r="AE14" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AF14" s="0" t="n">
         <v>10000</v>
@@ -2311,55 +2317,55 @@
       <c r="AC15" s="28"/>
       <c r="AD15" s="28"/>
       <c r="AE15" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AF15" s="0" t="n">
         <v>20000</v>
       </c>
     </row>
     <row r="16" spans="1:32" customHeight="1">
-      <c r="A16" s="30" t="n">
-        <v>4</v>
-      </c>
-      <c r="B16" s="29" t="s">
+      <c r="A16" s="26" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="30" t="n">
+      <c r="C16" s="26" t="n">
         <v>400</v>
       </c>
-      <c r="D16" s="30">
+      <c r="D16" s="26">
         <f>COUNTA(F16:AD16)</f>
       </c>
-      <c r="E16" s="30">
+      <c r="E16" s="26">
         <f>C16*D16</f>
       </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="29"/>
-      <c r="U16" s="29"/>
-      <c r="V16" s="29"/>
-      <c r="W16" s="29"/>
-      <c r="X16" s="29"/>
-      <c r="Y16" s="29"/>
-      <c r="Z16" s="29"/>
-      <c r="AA16" s="29"/>
-      <c r="AB16" s="29"/>
-      <c r="AC16" s="29"/>
-      <c r="AD16" s="29"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="28"/>
+      <c r="W16" s="28"/>
+      <c r="X16" s="28"/>
+      <c r="Y16" s="28"/>
+      <c r="Z16" s="28"/>
+      <c r="AA16" s="28"/>
+      <c r="AB16" s="28"/>
+      <c r="AC16" s="28"/>
+      <c r="AD16" s="28"/>
       <c r="AE16" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AF16" s="0" t="n">
         <v>10000</v>
@@ -2373,7 +2379,7 @@
         <v>24</v>
       </c>
       <c r="C17" s="30" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="D17" s="30">
         <f>COUNTA(F17:AD17)</f>
@@ -2407,7 +2413,7 @@
       <c r="AC17" s="29"/>
       <c r="AD17" s="29"/>
       <c r="AE17" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AF17" s="0" t="n">
         <v>10000</v>
@@ -2455,7 +2461,7 @@
       <c r="AC18" s="29"/>
       <c r="AD18" s="29"/>
       <c r="AE18" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AF18" s="0" t="n">
         <v>10000</v>
@@ -2469,7 +2475,7 @@
         <v>26</v>
       </c>
       <c r="C19" s="30" t="n">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="D19" s="30">
         <f>COUNTA(F19:AD19)</f>
@@ -2503,7 +2509,7 @@
       <c r="AC19" s="29"/>
       <c r="AD19" s="29"/>
       <c r="AE19" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AF19" s="0" t="n">
         <v>10000</v>
@@ -2517,7 +2523,7 @@
         <v>27</v>
       </c>
       <c r="C20" s="30" t="n">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="D20" s="30">
         <f>COUNTA(F20:AD20)</f>
@@ -2551,7 +2557,7 @@
       <c r="AC20" s="29"/>
       <c r="AD20" s="29"/>
       <c r="AE20" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AF20" s="0" t="n">
         <v>10000</v>
@@ -2565,7 +2571,7 @@
         <v>28</v>
       </c>
       <c r="C21" s="30" t="n">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="D21" s="30">
         <f>COUNTA(F21:AD21)</f>
@@ -2599,55 +2605,55 @@
       <c r="AC21" s="29"/>
       <c r="AD21" s="29"/>
       <c r="AE21" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AF21" s="0" t="n">
         <v>20000</v>
       </c>
     </row>
     <row r="22" spans="1:32" customHeight="1">
-      <c r="A22" s="26" t="n">
-        <v>5</v>
-      </c>
-      <c r="B22" s="25" t="s">
+      <c r="A22" s="30" t="n">
+        <v>4</v>
+      </c>
+      <c r="B22" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="26" t="n">
-        <v>280</v>
-      </c>
-      <c r="D22" s="26">
+      <c r="C22" s="30" t="n">
+        <v>310</v>
+      </c>
+      <c r="D22" s="30">
         <f>COUNTA(F22:AD22)</f>
       </c>
-      <c r="E22" s="26">
+      <c r="E22" s="30">
         <f>C22*D22</f>
       </c>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="28"/>
-      <c r="S22" s="28"/>
-      <c r="T22" s="28"/>
-      <c r="U22" s="28"/>
-      <c r="V22" s="28"/>
-      <c r="W22" s="28"/>
-      <c r="X22" s="28"/>
-      <c r="Y22" s="28"/>
-      <c r="Z22" s="28"/>
-      <c r="AA22" s="28"/>
-      <c r="AB22" s="28"/>
-      <c r="AC22" s="28"/>
-      <c r="AD22" s="28"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="29"/>
+      <c r="V22" s="29"/>
+      <c r="W22" s="29"/>
+      <c r="X22" s="29"/>
+      <c r="Y22" s="29"/>
+      <c r="Z22" s="29"/>
+      <c r="AA22" s="29"/>
+      <c r="AB22" s="29"/>
+      <c r="AC22" s="29"/>
+      <c r="AD22" s="29"/>
       <c r="AE22" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AF22" s="0" t="n">
         <v>10000</v>
@@ -2661,7 +2667,7 @@
         <v>30</v>
       </c>
       <c r="C23" s="26" t="n">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="D23" s="26">
         <f>COUNTA(F23:AD23)</f>
@@ -2695,7 +2701,7 @@
       <c r="AC23" s="28"/>
       <c r="AD23" s="28"/>
       <c r="AE23" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AF23" s="0" t="n">
         <v>10000</v>
@@ -2709,7 +2715,7 @@
         <v>31</v>
       </c>
       <c r="C24" s="26" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="D24" s="26">
         <f>COUNTA(F24:AD24)</f>
@@ -2743,7 +2749,7 @@
       <c r="AC24" s="28"/>
       <c r="AD24" s="28"/>
       <c r="AE24" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF24" s="0" t="n">
         <v>10000</v>
@@ -2757,7 +2763,7 @@
         <v>32</v>
       </c>
       <c r="C25" s="26" t="n">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="D25" s="26">
         <f>COUNTA(F25:AD25)</f>
@@ -2791,7 +2797,7 @@
       <c r="AC25" s="28"/>
       <c r="AD25" s="28"/>
       <c r="AE25" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AF25" s="0" t="n">
         <v>20000</v>
@@ -2805,7 +2811,7 @@
         <v>33</v>
       </c>
       <c r="C26" s="26" t="n">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="D26" s="26">
         <f>COUNTA(F26:AD26)</f>
@@ -2839,7 +2845,7 @@
       <c r="AC26" s="28"/>
       <c r="AD26" s="28"/>
       <c r="AE26" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AF26" s="0" t="n">
         <v>10000</v>
@@ -2887,7 +2893,7 @@
       <c r="AC27" s="28"/>
       <c r="AD27" s="28"/>
       <c r="AE27" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AF27" s="0" t="n">
         <v>10000</v>
@@ -2901,7 +2907,7 @@
         <v>35</v>
       </c>
       <c r="C28" s="26" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="D28" s="26">
         <f>COUNTA(F28:AD28)</f>
@@ -2935,7 +2941,7 @@
       <c r="AC28" s="28"/>
       <c r="AD28" s="28"/>
       <c r="AE28" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AF28" s="0" t="n">
         <v>10000</v>
@@ -2983,7 +2989,7 @@
       <c r="AC29" s="28"/>
       <c r="AD29" s="28"/>
       <c r="AE29" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF29" s="0" t="n">
         <v>20000</v>
@@ -2997,7 +3003,7 @@
         <v>37</v>
       </c>
       <c r="C30" s="26" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="D30" s="26">
         <f>COUNTA(F30:AD30)</f>
@@ -3031,7 +3037,7 @@
       <c r="AC30" s="28"/>
       <c r="AD30" s="28"/>
       <c r="AE30" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AF30" s="0" t="n">
         <v>10000</v>
@@ -3045,7 +3051,7 @@
         <v>38</v>
       </c>
       <c r="C31" s="26" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="D31" s="26">
         <f>COUNTA(F31:AD31)</f>
@@ -3079,7 +3085,7 @@
       <c r="AC31" s="28"/>
       <c r="AD31" s="28"/>
       <c r="AE31" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AF31" s="0" t="n">
         <v>10000</v>
@@ -3127,7 +3133,7 @@
       <c r="AC32" s="28"/>
       <c r="AD32" s="28"/>
       <c r="AE32" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AF32" s="0" t="n">
         <v>10000</v>
@@ -3141,7 +3147,7 @@
         <v>40</v>
       </c>
       <c r="C33" s="26" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D33" s="26">
         <f>COUNTA(F33:AD33)</f>
@@ -3175,7 +3181,7 @@
       <c r="AC33" s="28"/>
       <c r="AD33" s="28"/>
       <c r="AE33" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AF33" s="0" t="n">
         <v>20000</v>
@@ -3189,7 +3195,7 @@
         <v>41</v>
       </c>
       <c r="C34" s="26" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D34" s="26">
         <f>COUNTA(F34:AD34)</f>
@@ -3223,7 +3229,7 @@
       <c r="AC34" s="28"/>
       <c r="AD34" s="28"/>
       <c r="AE34" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AF34" s="0" t="n">
         <v>20000</v>
@@ -3237,7 +3243,7 @@
         <v>42</v>
       </c>
       <c r="C35" s="26" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D35" s="26">
         <f>COUNTA(F35:AD35)</f>
@@ -3271,7 +3277,7 @@
       <c r="AC35" s="28"/>
       <c r="AD35" s="28"/>
       <c r="AE35" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AF35" s="0" t="n">
         <v>10000</v>
@@ -3285,7 +3291,7 @@
         <v>43</v>
       </c>
       <c r="C36" s="26" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D36" s="26">
         <f>COUNTA(F36:AD36)</f>
@@ -3319,7 +3325,7 @@
       <c r="AC36" s="28"/>
       <c r="AD36" s="28"/>
       <c r="AE36" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AF36" s="0" t="n">
         <v>20000</v>
@@ -3333,7 +3339,7 @@
         <v>44</v>
       </c>
       <c r="C37" s="26" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D37" s="26">
         <f>COUNTA(F37:AD37)</f>
@@ -3367,7 +3373,7 @@
       <c r="AC37" s="28"/>
       <c r="AD37" s="28"/>
       <c r="AE37" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AF37" s="0" t="n">
         <v>20000</v>
@@ -3381,7 +3387,7 @@
         <v>45</v>
       </c>
       <c r="C38" s="26" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D38" s="26">
         <f>COUNTA(F38:AD38)</f>
@@ -3415,103 +3421,103 @@
       <c r="AC38" s="28"/>
       <c r="AD38" s="28"/>
       <c r="AE38" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AF38" s="0" t="n">
         <v>10000</v>
       </c>
     </row>
     <row r="39" spans="1:32" customHeight="1">
-      <c r="A39" s="30" t="n">
-        <v>6</v>
-      </c>
-      <c r="B39" s="29" t="s">
+      <c r="A39" s="26" t="n">
+        <v>5</v>
+      </c>
+      <c r="B39" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="30" t="n">
+      <c r="C39" s="26" t="n">
         <v>100</v>
       </c>
-      <c r="D39" s="30">
+      <c r="D39" s="26">
         <f>COUNTA(F39:AD39)</f>
       </c>
-      <c r="E39" s="30">
+      <c r="E39" s="26">
         <f>C39*D39</f>
       </c>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="29"/>
-      <c r="J39" s="29"/>
-      <c r="K39" s="29"/>
-      <c r="L39" s="29"/>
-      <c r="M39" s="29"/>
-      <c r="N39" s="29"/>
-      <c r="O39" s="29"/>
-      <c r="P39" s="29"/>
-      <c r="Q39" s="29"/>
-      <c r="R39" s="29"/>
-      <c r="S39" s="29"/>
-      <c r="T39" s="29"/>
-      <c r="U39" s="29"/>
-      <c r="V39" s="29"/>
-      <c r="W39" s="29"/>
-      <c r="X39" s="29"/>
-      <c r="Y39" s="29"/>
-      <c r="Z39" s="29"/>
-      <c r="AA39" s="29"/>
-      <c r="AB39" s="29"/>
-      <c r="AC39" s="29"/>
-      <c r="AD39" s="29"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="28"/>
+      <c r="M39" s="28"/>
+      <c r="N39" s="28"/>
+      <c r="O39" s="28"/>
+      <c r="P39" s="28"/>
+      <c r="Q39" s="28"/>
+      <c r="R39" s="28"/>
+      <c r="S39" s="28"/>
+      <c r="T39" s="28"/>
+      <c r="U39" s="28"/>
+      <c r="V39" s="28"/>
+      <c r="W39" s="28"/>
+      <c r="X39" s="28"/>
+      <c r="Y39" s="28"/>
+      <c r="Z39" s="28"/>
+      <c r="AA39" s="28"/>
+      <c r="AB39" s="28"/>
+      <c r="AC39" s="28"/>
+      <c r="AD39" s="28"/>
       <c r="AE39" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AF39" s="0" t="n">
         <v>10000</v>
       </c>
     </row>
     <row r="40" spans="1:32" customHeight="1">
-      <c r="A40" s="30" t="n">
-        <v>6</v>
-      </c>
-      <c r="B40" s="29" t="s">
+      <c r="A40" s="26" t="n">
+        <v>5</v>
+      </c>
+      <c r="B40" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="30" t="n">
+      <c r="C40" s="26" t="n">
         <v>100</v>
       </c>
-      <c r="D40" s="30">
+      <c r="D40" s="26">
         <f>COUNTA(F40:AD40)</f>
       </c>
-      <c r="E40" s="30">
+      <c r="E40" s="26">
         <f>C40*D40</f>
       </c>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="29"/>
-      <c r="K40" s="29"/>
-      <c r="L40" s="29"/>
-      <c r="M40" s="29"/>
-      <c r="N40" s="29"/>
-      <c r="O40" s="29"/>
-      <c r="P40" s="29"/>
-      <c r="Q40" s="29"/>
-      <c r="R40" s="29"/>
-      <c r="S40" s="29"/>
-      <c r="T40" s="29"/>
-      <c r="U40" s="29"/>
-      <c r="V40" s="29"/>
-      <c r="W40" s="29"/>
-      <c r="X40" s="29"/>
-      <c r="Y40" s="29"/>
-      <c r="Z40" s="29"/>
-      <c r="AA40" s="29"/>
-      <c r="AB40" s="29"/>
-      <c r="AC40" s="29"/>
-      <c r="AD40" s="29"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="28"/>
+      <c r="N40" s="28"/>
+      <c r="O40" s="28"/>
+      <c r="P40" s="28"/>
+      <c r="Q40" s="28"/>
+      <c r="R40" s="28"/>
+      <c r="S40" s="28"/>
+      <c r="T40" s="28"/>
+      <c r="U40" s="28"/>
+      <c r="V40" s="28"/>
+      <c r="W40" s="28"/>
+      <c r="X40" s="28"/>
+      <c r="Y40" s="28"/>
+      <c r="Z40" s="28"/>
+      <c r="AA40" s="28"/>
+      <c r="AB40" s="28"/>
+      <c r="AC40" s="28"/>
+      <c r="AD40" s="28"/>
       <c r="AE40" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AF40" s="0" t="n">
         <v>10000</v>
@@ -3525,7 +3531,7 @@
         <v>48</v>
       </c>
       <c r="C41" s="30" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D41" s="30">
         <f>COUNTA(F41:AD41)</f>
@@ -3559,7 +3565,7 @@
       <c r="AC41" s="29"/>
       <c r="AD41" s="29"/>
       <c r="AE41" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AF41" s="0" t="n">
         <v>10000</v>
@@ -3573,7 +3579,7 @@
         <v>49</v>
       </c>
       <c r="C42" s="30" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D42" s="30">
         <f>COUNTA(F42:AD42)</f>
@@ -3607,23 +3613,103 @@
       <c r="AC42" s="29"/>
       <c r="AD42" s="29"/>
       <c r="AE42" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AF42" s="0" t="n">
         <v>10000</v>
       </c>
     </row>
-    <row r="43" spans="31:32" customHeight="1">
+    <row r="43" spans="1:32" customHeight="1">
+      <c r="A43" s="30" t="n">
+        <v>6</v>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="30" t="n">
+        <v>90</v>
+      </c>
+      <c r="D43" s="30">
+        <f>COUNTA(F43:AD43)</f>
+      </c>
+      <c r="E43" s="30">
+        <f>C43*D43</f>
+      </c>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="29"/>
+      <c r="O43" s="29"/>
+      <c r="P43" s="29"/>
+      <c r="Q43" s="29"/>
+      <c r="R43" s="29"/>
+      <c r="S43" s="29"/>
+      <c r="T43" s="29"/>
+      <c r="U43" s="29"/>
+      <c r="V43" s="29"/>
+      <c r="W43" s="29"/>
+      <c r="X43" s="29"/>
+      <c r="Y43" s="29"/>
+      <c r="Z43" s="29"/>
+      <c r="AA43" s="29"/>
+      <c r="AB43" s="29"/>
+      <c r="AC43" s="29"/>
+      <c r="AD43" s="29"/>
       <c r="AE43" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AF43" s="0" t="n">
         <v>10000</v>
       </c>
     </row>
-    <row r="44" spans="31:32" customHeight="1">
+    <row r="44" spans="1:32" customHeight="1">
+      <c r="A44" s="30" t="n">
+        <v>6</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="30" t="n">
+        <v>80</v>
+      </c>
+      <c r="D44" s="30">
+        <f>COUNTA(F44:AD44)</f>
+      </c>
+      <c r="E44" s="30">
+        <f>C44*D44</f>
+      </c>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="29"/>
+      <c r="M44" s="29"/>
+      <c r="N44" s="29"/>
+      <c r="O44" s="29"/>
+      <c r="P44" s="29"/>
+      <c r="Q44" s="29"/>
+      <c r="R44" s="29"/>
+      <c r="S44" s="29"/>
+      <c r="T44" s="29"/>
+      <c r="U44" s="29"/>
+      <c r="V44" s="29"/>
+      <c r="W44" s="29"/>
+      <c r="X44" s="29"/>
+      <c r="Y44" s="29"/>
+      <c r="Z44" s="29"/>
+      <c r="AA44" s="29"/>
+      <c r="AB44" s="29"/>
+      <c r="AC44" s="29"/>
+      <c r="AD44" s="29"/>
       <c r="AE44" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AF44" s="0" t="n">
         <v>10000</v>
@@ -3631,7 +3717,7 @@
     </row>
     <row r="45" spans="31:32" customHeight="1">
       <c r="AE45" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AF45" s="0" t="n">
         <v>10000</v>
@@ -3639,7 +3725,7 @@
     </row>
     <row r="46" spans="31:32" customHeight="1">
       <c r="AE46" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AF46" s="0" t="n">
         <v>20000</v>
@@ -3647,7 +3733,7 @@
     </row>
     <row r="47" spans="31:32" customHeight="1">
       <c r="AE47" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AF47" s="0" t="n">
         <v>10000</v>
@@ -3655,7 +3741,7 @@
     </row>
     <row r="48" spans="31:32" customHeight="1">
       <c r="AE48" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AF48" s="0" t="n">
         <v>20000</v>
@@ -3663,7 +3749,7 @@
     </row>
     <row r="49" spans="31:32" customHeight="1">
       <c r="AE49" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AF49" s="0" t="n">
         <v>20000</v>
@@ -3671,7 +3757,7 @@
     </row>
     <row r="50" spans="31:32" customHeight="1">
       <c r="AE50" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AF50" s="0" t="n">
         <v>10000</v>
@@ -3679,7 +3765,7 @@
     </row>
     <row r="51" spans="31:32" customHeight="1">
       <c r="AE51" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AF51" s="0" t="n">
         <v>10000</v>
@@ -3687,7 +3773,7 @@
     </row>
     <row r="52" spans="31:32" customHeight="1">
       <c r="AE52" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AF52" s="0" t="n">
         <v>10000</v>
@@ -3695,7 +3781,7 @@
     </row>
     <row r="53" spans="31:32" customHeight="1">
       <c r="AE53" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AF53" s="0" t="n">
         <v>20000</v>
@@ -3703,7 +3789,7 @@
     </row>
     <row r="54" spans="31:32" customHeight="1">
       <c r="AE54" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AF54" s="0" t="n">
         <v>10000</v>
@@ -3711,7 +3797,7 @@
     </row>
     <row r="55" spans="31:32" customHeight="1">
       <c r="AE55" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AF55" s="0" t="n">
         <v>10000</v>
@@ -3719,7 +3805,7 @@
     </row>
     <row r="56" spans="31:32" customHeight="1">
       <c r="AE56" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AF56" s="0" t="n">
         <v>20000</v>
@@ -3727,7 +3813,7 @@
     </row>
     <row r="57" spans="31:32" customHeight="1">
       <c r="AE57" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AF57" s="0" t="n">
         <v>10000</v>
@@ -3735,7 +3821,7 @@
     </row>
     <row r="58" spans="31:32" customHeight="1">
       <c r="AE58" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AF58" s="0" t="n">
         <v>10000</v>
@@ -3743,7 +3829,7 @@
     </row>
     <row r="59" spans="31:32" customHeight="1">
       <c r="AE59" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AF59" s="0" t="n">
         <v>10000</v>
@@ -3751,7 +3837,7 @@
     </row>
     <row r="60" spans="31:32" customHeight="1">
       <c r="AE60" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AF60" s="0" t="n">
         <v>10000</v>
@@ -3759,7 +3845,7 @@
     </row>
     <row r="61" spans="31:32" customHeight="1">
       <c r="AE61" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AF61" s="0" t="n">
         <v>10000</v>
@@ -3767,7 +3853,7 @@
     </row>
     <row r="62" spans="31:32" customHeight="1">
       <c r="AE62" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AF62" s="0" t="n">
         <v>10000</v>
@@ -3775,7 +3861,7 @@
     </row>
     <row r="63" spans="31:32" customHeight="1">
       <c r="AE63" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AF63" s="0" t="n">
         <v>10000</v>
@@ -3783,7 +3869,7 @@
     </row>
     <row r="64" spans="31:32" customHeight="1">
       <c r="AE64" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AF64" s="0" t="n">
         <v>10000</v>
@@ -3791,7 +3877,7 @@
     </row>
     <row r="65" spans="31:32" customHeight="1">
       <c r="AE65" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AF65" s="0" t="n">
         <v>10000</v>
@@ -3799,7 +3885,7 @@
     </row>
     <row r="66" spans="31:32" customHeight="1">
       <c r="AE66" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AF66" s="0" t="n">
         <v>10000</v>
@@ -3807,7 +3893,7 @@
     </row>
     <row r="67" spans="31:32" customHeight="1">
       <c r="AE67" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AF67" s="0" t="n">
         <v>10000</v>
@@ -3815,7 +3901,7 @@
     </row>
     <row r="68" spans="31:32" customHeight="1">
       <c r="AE68" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AF68" s="0" t="n">
         <v>20000</v>
@@ -3823,7 +3909,7 @@
     </row>
     <row r="69" spans="31:32" customHeight="1">
       <c r="AE69" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AF69" s="0" t="n">
         <v>20000</v>
@@ -3831,7 +3917,7 @@
     </row>
     <row r="70" spans="31:32" customHeight="1">
       <c r="AE70" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AF70" s="0" t="n">
         <v>10000</v>
@@ -3839,7 +3925,7 @@
     </row>
     <row r="71" spans="31:32" customHeight="1">
       <c r="AE71" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AF71" s="0" t="n">
         <v>10000</v>
@@ -3847,7 +3933,7 @@
     </row>
     <row r="72" spans="31:32" customHeight="1">
       <c r="AE72" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AF72" s="0" t="n">
         <v>10000</v>
@@ -3855,7 +3941,7 @@
     </row>
     <row r="73" spans="31:32" customHeight="1">
       <c r="AE73" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AF73" s="0" t="n">
         <v>10000</v>
@@ -3863,7 +3949,7 @@
     </row>
     <row r="74" spans="31:32" customHeight="1">
       <c r="AE74" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AF74" s="0" t="n">
         <v>10000</v>
@@ -3871,7 +3957,7 @@
     </row>
     <row r="75" spans="31:32" customHeight="1">
       <c r="AE75" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AF75" s="0" t="n">
         <v>10000</v>
@@ -3879,7 +3965,7 @@
     </row>
     <row r="76" spans="31:32" customHeight="1">
       <c r="AE76" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AF76" s="0" t="n">
         <v>10000</v>
@@ -3887,7 +3973,7 @@
     </row>
     <row r="77" spans="31:32" customHeight="1">
       <c r="AE77" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AF77" s="0" t="n">
         <v>10000</v>
@@ -3895,7 +3981,7 @@
     </row>
     <row r="78" spans="31:32" customHeight="1">
       <c r="AE78" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AF78" s="0" t="n">
         <v>10000</v>
@@ -3903,7 +3989,7 @@
     </row>
     <row r="79" spans="31:32" customHeight="1">
       <c r="AE79" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AF79" s="0" t="n">
         <v>10000</v>
@@ -3911,7 +3997,7 @@
     </row>
     <row r="80" spans="31:32" customHeight="1">
       <c r="AE80" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AF80" s="0" t="n">
         <v>10000</v>
@@ -3919,7 +4005,7 @@
     </row>
     <row r="81" spans="31:32" customHeight="1">
       <c r="AE81" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AF81" s="0" t="n">
         <v>10000</v>
@@ -3927,7 +4013,7 @@
     </row>
     <row r="82" spans="31:32" customHeight="1">
       <c r="AE82" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AF82" s="0" t="n">
         <v>20000</v>
@@ -3935,7 +4021,7 @@
     </row>
     <row r="83" spans="31:32" customHeight="1">
       <c r="AE83" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AF83" s="0" t="n">
         <v>10000</v>
@@ -3943,7 +4029,7 @@
     </row>
     <row r="84" spans="31:32" customHeight="1">
       <c r="AE84" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AF84" s="0" t="n">
         <v>10000</v>
@@ -3951,7 +4037,7 @@
     </row>
     <row r="85" spans="31:32" customHeight="1">
       <c r="AE85" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AF85" s="0" t="n">
         <v>10000</v>
@@ -3959,7 +4045,7 @@
     </row>
     <row r="86" spans="31:32" customHeight="1">
       <c r="AE86" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AF86" s="0" t="n">
         <v>10000</v>
@@ -3967,7 +4053,7 @@
     </row>
     <row r="87" spans="31:32" customHeight="1">
       <c r="AE87" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AF87" s="0" t="n">
         <v>10000</v>
@@ -3975,7 +4061,7 @@
     </row>
     <row r="88" spans="31:32" customHeight="1">
       <c r="AE88" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AF88" s="0" t="n">
         <v>10000</v>
@@ -3983,7 +4069,7 @@
     </row>
     <row r="89" spans="31:32" customHeight="1">
       <c r="AE89" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AF89" s="0" t="n">
         <v>10000</v>
@@ -3991,7 +4077,7 @@
     </row>
     <row r="90" spans="31:32" customHeight="1">
       <c r="AE90" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AF90" s="0" t="n">
         <v>10000</v>
@@ -3999,7 +4085,7 @@
     </row>
     <row r="91" spans="31:32" customHeight="1">
       <c r="AE91" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AF91" s="0" t="n">
         <v>10000</v>
@@ -4007,7 +4093,7 @@
     </row>
     <row r="92" spans="31:32" customHeight="1">
       <c r="AE92" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AF92" s="0" t="n">
         <v>10000</v>
@@ -4015,7 +4101,7 @@
     </row>
     <row r="93" spans="31:32" customHeight="1">
       <c r="AE93" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AF93" s="0" t="n">
         <v>10000</v>
@@ -4023,7 +4109,7 @@
     </row>
     <row r="94" spans="31:32" customHeight="1">
       <c r="AE94" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AF94" s="0" t="n">
         <v>10000</v>
@@ -4031,7 +4117,7 @@
     </row>
     <row r="95" spans="31:32" customHeight="1">
       <c r="AE95" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AF95" s="0" t="n">
         <v>10000</v>
@@ -4039,7 +4125,7 @@
     </row>
     <row r="96" spans="31:32" customHeight="1">
       <c r="AE96" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AF96" s="0" t="n">
         <v>10000</v>
@@ -4047,7 +4133,7 @@
     </row>
     <row r="97" spans="31:32" customHeight="1">
       <c r="AE97" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AF97" s="0" t="n">
         <v>10000</v>
@@ -4055,7 +4141,7 @@
     </row>
     <row r="98" spans="31:32" customHeight="1">
       <c r="AE98" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AF98" s="0" t="n">
         <v>10000</v>
@@ -4063,7 +4149,7 @@
     </row>
     <row r="99" spans="31:32" customHeight="1">
       <c r="AE99" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AF99" s="0" t="n">
         <v>20000</v>
@@ -4071,7 +4157,7 @@
     </row>
     <row r="100" spans="31:32" customHeight="1">
       <c r="AE100" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AF100" s="0" t="n">
         <v>10000</v>
@@ -4079,7 +4165,7 @@
     </row>
     <row r="101" spans="31:32" customHeight="1">
       <c r="AE101" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AF101" s="0" t="n">
         <v>10000</v>
@@ -4087,7 +4173,7 @@
     </row>
     <row r="102" spans="31:32" customHeight="1">
       <c r="AE102" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AF102" s="0" t="n">
         <v>20000</v>
@@ -4095,7 +4181,7 @@
     </row>
     <row r="103" spans="31:32" customHeight="1">
       <c r="AE103" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AF103" s="0" t="n">
         <v>20000</v>
@@ -4103,7 +4189,7 @@
     </row>
     <row r="104" spans="31:32" customHeight="1">
       <c r="AE104" s="0" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AF104" s="0" t="n">
         <v>10000</v>
@@ -4111,7 +4197,7 @@
     </row>
     <row r="105" spans="31:32" customHeight="1">
       <c r="AE105" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AF105" s="0" t="n">
         <v>20000</v>
@@ -4119,7 +4205,7 @@
     </row>
     <row r="106" spans="31:32" customHeight="1">
       <c r="AE106" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AF106" s="0" t="n">
         <v>10000</v>
@@ -4127,7 +4213,7 @@
     </row>
     <row r="107" spans="31:32" customHeight="1">
       <c r="AE107" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AF107" s="0" t="n">
         <v>10000</v>
@@ -4135,7 +4221,7 @@
     </row>
     <row r="108" spans="31:32" customHeight="1">
       <c r="AE108" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AF108" s="0" t="n">
         <v>20000</v>
@@ -4143,7 +4229,7 @@
     </row>
     <row r="109" spans="31:32" customHeight="1">
       <c r="AE109" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AF109" s="0" t="n">
         <v>10000</v>
@@ -4151,7 +4237,7 @@
     </row>
     <row r="110" spans="31:32" customHeight="1">
       <c r="AE110" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AF110" s="0" t="n">
         <v>10000</v>
@@ -4159,7 +4245,7 @@
     </row>
     <row r="111" spans="31:32" customHeight="1">
       <c r="AE111" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AF111" s="0" t="n">
         <v>10000</v>
@@ -4167,7 +4253,7 @@
     </row>
     <row r="112" spans="31:32" customHeight="1">
       <c r="AE112" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AF112" s="0" t="n">
         <v>10000</v>
@@ -4175,7 +4261,7 @@
     </row>
     <row r="113" spans="31:32" customHeight="1">
       <c r="AE113" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AF113" s="0" t="n">
         <v>10000</v>
@@ -4183,7 +4269,7 @@
     </row>
     <row r="114" spans="31:32" customHeight="1">
       <c r="AE114" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AF114" s="0" t="n">
         <v>10000</v>
@@ -4191,7 +4277,7 @@
     </row>
     <row r="115" spans="31:32" customHeight="1">
       <c r="AE115" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AF115" s="0" t="n">
         <v>10000</v>
@@ -4199,7 +4285,7 @@
     </row>
     <row r="116" spans="31:32" customHeight="1">
       <c r="AE116" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AF116" s="0" t="n">
         <v>20000</v>
@@ -4207,7 +4293,7 @@
     </row>
     <row r="117" spans="31:32" customHeight="1">
       <c r="AE117" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AF117" s="0" t="n">
         <v>10000</v>
@@ -4215,7 +4301,7 @@
     </row>
     <row r="118" spans="31:32" customHeight="1">
       <c r="AE118" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AF118" s="0" t="n">
         <v>10000</v>
@@ -4223,7 +4309,7 @@
     </row>
     <row r="119" spans="31:32" customHeight="1">
       <c r="AE119" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AF119" s="0" t="n">
         <v>10000</v>
@@ -4231,7 +4317,7 @@
     </row>
     <row r="120" spans="31:32" customHeight="1">
       <c r="AE120" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AF120" s="0" t="n">
         <v>10000</v>
@@ -4239,7 +4325,7 @@
     </row>
     <row r="121" spans="31:32" customHeight="1">
       <c r="AE121" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AF121" s="0" t="n">
         <v>20000</v>
@@ -4247,7 +4333,7 @@
     </row>
     <row r="122" spans="31:32" customHeight="1">
       <c r="AE122" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AF122" s="0" t="n">
         <v>10000</v>
@@ -4255,7 +4341,7 @@
     </row>
     <row r="123" spans="31:32" customHeight="1">
       <c r="AE123" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AF123" s="0" t="n">
         <v>10000</v>
@@ -4263,7 +4349,7 @@
     </row>
     <row r="124" spans="31:32" customHeight="1">
       <c r="AE124" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AF124" s="0" t="n">
         <v>10000</v>
@@ -4271,7 +4357,7 @@
     </row>
     <row r="125" spans="31:32" customHeight="1">
       <c r="AE125" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AF125" s="0" t="n">
         <v>10000</v>
@@ -4279,7 +4365,7 @@
     </row>
     <row r="126" spans="31:32" customHeight="1">
       <c r="AE126" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AF126" s="0" t="n">
         <v>10000</v>
@@ -4287,7 +4373,7 @@
     </row>
     <row r="127" spans="31:32" customHeight="1">
       <c r="AE127" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AF127" s="0" t="n">
         <v>10000</v>
@@ -4295,7 +4381,7 @@
     </row>
     <row r="128" spans="31:32" customHeight="1">
       <c r="AE128" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AF128" s="0" t="n">
         <v>20000</v>
@@ -4303,7 +4389,7 @@
     </row>
     <row r="129" spans="31:32" customHeight="1">
       <c r="AE129" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AF129" s="0" t="n">
         <v>20000</v>
@@ -4311,7 +4397,7 @@
     </row>
     <row r="130" spans="31:32" customHeight="1">
       <c r="AE130" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AF130" s="0" t="n">
         <v>10000</v>
@@ -4319,7 +4405,7 @@
     </row>
     <row r="131" spans="31:32" customHeight="1">
       <c r="AE131" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AF131" s="0" t="n">
         <v>10000</v>
@@ -4327,7 +4413,7 @@
     </row>
     <row r="132" spans="31:32" customHeight="1">
       <c r="AE132" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AF132" s="0" t="n">
         <v>10000</v>
@@ -4335,7 +4421,7 @@
     </row>
     <row r="133" spans="31:32" customHeight="1">
       <c r="AE133" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AF133" s="0" t="n">
         <v>20000</v>
@@ -4343,7 +4429,7 @@
     </row>
     <row r="134" spans="31:32" customHeight="1">
       <c r="AE134" s="0" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AF134" s="0" t="n">
         <v>10000</v>
@@ -4351,7 +4437,7 @@
     </row>
     <row r="135" spans="31:32" customHeight="1">
       <c r="AE135" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AF135" s="0" t="n">
         <v>10000</v>
@@ -4359,7 +4445,7 @@
     </row>
     <row r="136" spans="31:32" customHeight="1">
       <c r="AE136" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AF136" s="0" t="n">
         <v>10000</v>
@@ -4367,7 +4453,7 @@
     </row>
     <row r="137" spans="31:32" customHeight="1">
       <c r="AE137" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AF137" s="0" t="n">
         <v>10000</v>
@@ -4375,7 +4461,7 @@
     </row>
     <row r="138" spans="31:32" customHeight="1">
       <c r="AE138" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AF138" s="0" t="n">
         <v>10000</v>
@@ -4383,7 +4469,7 @@
     </row>
     <row r="139" spans="31:32" customHeight="1">
       <c r="AE139" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AF139" s="0" t="n">
         <v>10000</v>
@@ -4391,7 +4477,7 @@
     </row>
     <row r="140" spans="31:32" customHeight="1">
       <c r="AE140" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AF140" s="0" t="n">
         <v>10000</v>
@@ -4399,7 +4485,7 @@
     </row>
     <row r="141" spans="31:32" customHeight="1">
       <c r="AE141" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AF141" s="0" t="n">
         <v>10000</v>
@@ -4407,7 +4493,7 @@
     </row>
     <row r="142" spans="31:32" customHeight="1">
       <c r="AE142" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AF142" s="0" t="n">
         <v>10000</v>
@@ -4415,7 +4501,7 @@
     </row>
     <row r="143" spans="31:32" customHeight="1">
       <c r="AE143" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AF143" s="0" t="n">
         <v>10000</v>
@@ -4423,7 +4509,7 @@
     </row>
     <row r="144" spans="31:32" customHeight="1">
       <c r="AE144" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AF144" s="0" t="n">
         <v>10000</v>
@@ -4431,7 +4517,7 @@
     </row>
     <row r="145" spans="31:32" customHeight="1">
       <c r="AE145" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AF145" s="0" t="n">
         <v>20000</v>
@@ -4439,7 +4525,7 @@
     </row>
     <row r="146" spans="31:32" customHeight="1">
       <c r="AE146" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AF146" s="0" t="n">
         <v>10000</v>
@@ -4447,7 +4533,7 @@
     </row>
     <row r="147" spans="31:32" customHeight="1">
       <c r="AE147" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AF147" s="0" t="n">
         <v>10000</v>
@@ -4455,7 +4541,7 @@
     </row>
     <row r="148" spans="31:32" customHeight="1">
       <c r="AE148" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AF148" s="0" t="n">
         <v>10000</v>
@@ -4463,7 +4549,7 @@
     </row>
     <row r="149" spans="31:32" customHeight="1">
       <c r="AE149" s="0" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AF149" s="0" t="n">
         <v>10000</v>
@@ -4471,7 +4557,7 @@
     </row>
     <row r="150" spans="31:32" customHeight="1">
       <c r="AE150" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AF150" s="0" t="n">
         <v>10000</v>
@@ -4479,7 +4565,7 @@
     </row>
     <row r="151" spans="31:32" customHeight="1">
       <c r="AE151" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AF151" s="0" t="n">
         <v>10000</v>
@@ -4487,7 +4573,7 @@
     </row>
     <row r="152" spans="31:32" customHeight="1">
       <c r="AE152" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AF152" s="0" t="n">
         <v>10000</v>
@@ -4495,7 +4581,7 @@
     </row>
     <row r="153" spans="31:32" customHeight="1">
       <c r="AE153" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AF153" s="0" t="n">
         <v>10000</v>
@@ -4503,7 +4589,7 @@
     </row>
     <row r="154" spans="31:32" customHeight="1">
       <c r="AE154" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AF154" s="0" t="n">
         <v>10000</v>
@@ -4511,7 +4597,7 @@
     </row>
     <row r="155" spans="31:32" customHeight="1">
       <c r="AE155" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AF155" s="0" t="n">
         <v>10000</v>
@@ -4519,7 +4605,7 @@
     </row>
     <row r="156" spans="31:32" customHeight="1">
       <c r="AE156" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AF156" s="0" t="n">
         <v>10000</v>
@@ -4527,7 +4613,7 @@
     </row>
     <row r="157" spans="31:32" customHeight="1">
       <c r="AE157" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AF157" s="0" t="n">
         <v>10000</v>
@@ -4535,7 +4621,7 @@
     </row>
     <row r="158" spans="31:32" customHeight="1">
       <c r="AE158" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AF158" s="0" t="n">
         <v>20000</v>
@@ -4543,7 +4629,7 @@
     </row>
     <row r="159" spans="31:32" customHeight="1">
       <c r="AE159" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AF159" s="0" t="n">
         <v>10000</v>
@@ -4551,7 +4637,7 @@
     </row>
     <row r="160" spans="31:32" customHeight="1">
       <c r="AE160" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AF160" s="0" t="n">
         <v>10000</v>
@@ -4559,7 +4645,7 @@
     </row>
     <row r="161" spans="31:32" customHeight="1">
       <c r="AE161" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AF161" s="0" t="n">
         <v>10000</v>
@@ -4567,7 +4653,7 @@
     </row>
     <row r="162" spans="31:32" customHeight="1">
       <c r="AE162" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AF162" s="0" t="n">
         <v>10000</v>
@@ -4575,7 +4661,7 @@
     </row>
     <row r="163" spans="31:32" customHeight="1">
       <c r="AE163" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AF163" s="0" t="n">
         <v>20000</v>
@@ -4583,7 +4669,7 @@
     </row>
     <row r="164" spans="31:32" customHeight="1">
       <c r="AE164" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AF164" s="0" t="n">
         <v>10000</v>
@@ -4591,7 +4677,7 @@
     </row>
     <row r="165" spans="31:32" customHeight="1">
       <c r="AE165" s="0" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AF165" s="0" t="n">
         <v>10000</v>
@@ -4599,7 +4685,7 @@
     </row>
     <row r="166" spans="31:32" customHeight="1">
       <c r="AE166" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AF166" s="0" t="n">
         <v>10000</v>
@@ -4607,7 +4693,7 @@
     </row>
     <row r="167" spans="31:32" customHeight="1">
       <c r="AE167" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AF167" s="0" t="n">
         <v>10000</v>
@@ -4615,7 +4701,7 @@
     </row>
     <row r="168" spans="31:32" customHeight="1">
       <c r="AE168" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AF168" s="0" t="n">
         <v>10000</v>
@@ -4623,7 +4709,7 @@
     </row>
     <row r="169" spans="31:32" customHeight="1">
       <c r="AE169" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AF169" s="0" t="n">
         <v>10000</v>
@@ -4631,7 +4717,7 @@
     </row>
     <row r="170" spans="31:32" customHeight="1">
       <c r="AE170" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AF170" s="0" t="n">
         <v>20000</v>
@@ -4639,7 +4725,7 @@
     </row>
     <row r="171" spans="31:32" customHeight="1">
       <c r="AE171" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AF171" s="0" t="n">
         <v>10000</v>
@@ -4647,7 +4733,7 @@
     </row>
     <row r="172" spans="31:32" customHeight="1">
       <c r="AE172" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AF172" s="0" t="n">
         <v>10000</v>
@@ -4655,7 +4741,7 @@
     </row>
     <row r="173" spans="31:32" customHeight="1">
       <c r="AE173" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AF173" s="0" t="n">
         <v>10000</v>
@@ -4663,7 +4749,7 @@
     </row>
     <row r="174" spans="31:32" customHeight="1">
       <c r="AE174" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AF174" s="0" t="n">
         <v>10000</v>
@@ -4671,7 +4757,7 @@
     </row>
     <row r="175" spans="31:32" customHeight="1">
       <c r="AE175" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AF175" s="0" t="n">
         <v>10000</v>
@@ -4679,7 +4765,7 @@
     </row>
     <row r="176" spans="31:32" customHeight="1">
       <c r="AE176" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AF176" s="0" t="n">
         <v>10000</v>
@@ -4687,7 +4773,7 @@
     </row>
     <row r="177" spans="31:32" customHeight="1">
       <c r="AE177" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AF177" s="0" t="n">
         <v>25000</v>
@@ -4695,7 +4781,7 @@
     </row>
     <row r="178" spans="31:32" customHeight="1">
       <c r="AE178" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AF178" s="0" t="n">
         <v>10000</v>
@@ -4703,7 +4789,7 @@
     </row>
     <row r="179" spans="31:32" customHeight="1">
       <c r="AE179" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AF179" s="0" t="n">
         <v>20000</v>
@@ -4711,7 +4797,7 @@
     </row>
     <row r="180" spans="31:32" customHeight="1">
       <c r="AE180" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AF180" s="0" t="n">
         <v>10000</v>
@@ -4719,7 +4805,7 @@
     </row>
     <row r="181" spans="31:32" customHeight="1">
       <c r="AE181" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AF181" s="0" t="n">
         <v>20000</v>
@@ -4727,7 +4813,7 @@
     </row>
     <row r="182" spans="31:32" customHeight="1">
       <c r="AE182" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AF182" s="0" t="n">
         <v>20000</v>
@@ -4735,7 +4821,7 @@
     </row>
     <row r="183" spans="31:32" customHeight="1">
       <c r="AE183" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AF183" s="0" t="n">
         <v>20000</v>
@@ -4743,7 +4829,7 @@
     </row>
     <row r="184" spans="31:32" customHeight="1">
       <c r="AE184" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AF184" s="0" t="n">
         <v>20000</v>
@@ -4751,7 +4837,7 @@
     </row>
     <row r="185" spans="31:32" customHeight="1">
       <c r="AE185" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AF185" s="0" t="n">
         <v>10000</v>
@@ -4759,7 +4845,7 @@
     </row>
     <row r="186" spans="31:32" customHeight="1">
       <c r="AE186" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AF186" s="0" t="n">
         <v>10000</v>
@@ -4767,7 +4853,7 @@
     </row>
     <row r="187" spans="31:32" customHeight="1">
       <c r="AE187" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AF187" s="0" t="n">
         <v>10000</v>
@@ -4775,7 +4861,7 @@
     </row>
     <row r="188" spans="31:32" customHeight="1">
       <c r="AE188" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AF188" s="0" t="n">
         <v>20000</v>
@@ -4783,7 +4869,7 @@
     </row>
     <row r="189" spans="31:32" customHeight="1">
       <c r="AE189" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AF189" s="0" t="n">
         <v>10000</v>
@@ -4791,7 +4877,7 @@
     </row>
     <row r="190" spans="31:32" customHeight="1">
       <c r="AE190" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AF190" s="0" t="n">
         <v>10000</v>
@@ -4799,7 +4885,7 @@
     </row>
     <row r="191" spans="31:32" customHeight="1">
       <c r="AE191" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AF191" s="0" t="n">
         <v>20000</v>
@@ -4807,7 +4893,7 @@
     </row>
     <row r="192" spans="31:32" customHeight="1">
       <c r="AE192" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AF192" s="0" t="n">
         <v>20000</v>
@@ -4815,7 +4901,7 @@
     </row>
     <row r="193" spans="31:32" customHeight="1">
       <c r="AE193" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AF193" s="0" t="n">
         <v>10000</v>
@@ -4823,7 +4909,7 @@
     </row>
     <row r="194" spans="31:32" customHeight="1">
       <c r="AE194" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AF194" s="0" t="n">
         <v>10000</v>
@@ -4831,7 +4917,7 @@
     </row>
     <row r="195" spans="31:32" customHeight="1">
       <c r="AE195" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AF195" s="0" t="n">
         <v>10000</v>
@@ -4839,7 +4925,7 @@
     </row>
     <row r="196" spans="31:32" customHeight="1">
       <c r="AE196" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AF196" s="0" t="n">
         <v>10000</v>
@@ -4847,7 +4933,7 @@
     </row>
     <row r="197" spans="31:32" customHeight="1">
       <c r="AE197" s="0" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AF197" s="0" t="n">
         <v>20000</v>
@@ -4855,7 +4941,7 @@
     </row>
     <row r="198" spans="31:32" customHeight="1">
       <c r="AE198" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AF198" s="0" t="n">
         <v>20000</v>
@@ -4863,7 +4949,7 @@
     </row>
     <row r="199" spans="31:32" customHeight="1">
       <c r="AE199" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AF199" s="0" t="n">
         <v>10000</v>
@@ -4871,7 +4957,7 @@
     </row>
     <row r="200" spans="31:32" customHeight="1">
       <c r="AE200" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AF200" s="0" t="n">
         <v>10000</v>
@@ -4879,7 +4965,7 @@
     </row>
     <row r="201" spans="31:32" customHeight="1">
       <c r="AE201" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AF201" s="0" t="n">
         <v>10000</v>
@@ -4887,7 +4973,7 @@
     </row>
     <row r="202" spans="31:32" customHeight="1">
       <c r="AE202" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AF202" s="0" t="n">
         <v>20000</v>
@@ -4895,7 +4981,7 @@
     </row>
     <row r="203" spans="31:32" customHeight="1">
       <c r="AE203" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AF203" s="0" t="n">
         <v>10000</v>
@@ -4903,7 +4989,7 @@
     </row>
     <row r="204" spans="31:32" customHeight="1">
       <c r="AE204" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AF204" s="0" t="n">
         <v>10000</v>
@@ -4911,7 +4997,7 @@
     </row>
     <row r="205" spans="31:32" customHeight="1">
       <c r="AE205" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AF205" s="0" t="n">
         <v>20000</v>
@@ -4919,7 +5005,7 @@
     </row>
     <row r="206" spans="31:32" customHeight="1">
       <c r="AE206" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AF206" s="0" t="n">
         <v>10000</v>
@@ -4927,7 +5013,7 @@
     </row>
     <row r="207" spans="31:32" customHeight="1">
       <c r="AE207" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AF207" s="0" t="n">
         <v>10000</v>
@@ -4935,7 +5021,7 @@
     </row>
     <row r="208" spans="31:32" customHeight="1">
       <c r="AE208" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AF208" s="0" t="n">
         <v>10000</v>
@@ -4943,7 +5029,7 @@
     </row>
     <row r="209" spans="31:32" customHeight="1">
       <c r="AE209" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AF209" s="0" t="n">
         <v>20000</v>
@@ -4951,7 +5037,7 @@
     </row>
     <row r="210" spans="31:32" customHeight="1">
       <c r="AE210" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AF210" s="0" t="n">
         <v>10000</v>
@@ -4959,7 +5045,7 @@
     </row>
     <row r="211" spans="31:32" customHeight="1">
       <c r="AE211" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AF211" s="0" t="n">
         <v>20000</v>
@@ -4967,7 +5053,7 @@
     </row>
     <row r="212" spans="31:32" customHeight="1">
       <c r="AE212" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AF212" s="0" t="n">
         <v>10000</v>
@@ -4975,7 +5061,7 @@
     </row>
     <row r="213" spans="31:32" customHeight="1">
       <c r="AE213" s="0" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AF213" s="0" t="n">
         <v>10000</v>
@@ -4983,7 +5069,7 @@
     </row>
     <row r="214" spans="31:32" customHeight="1">
       <c r="AE214" s="0" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AF214" s="0" t="n">
         <v>10000</v>
@@ -4991,7 +5077,7 @@
     </row>
     <row r="215" spans="31:32" customHeight="1">
       <c r="AE215" s="0" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AF215" s="0" t="n">
         <v>20000</v>
@@ -4999,7 +5085,7 @@
     </row>
     <row r="216" spans="31:32" customHeight="1">
       <c r="AE216" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AF216" s="0" t="n">
         <v>10000</v>
@@ -5007,7 +5093,7 @@
     </row>
     <row r="217" spans="31:32" customHeight="1">
       <c r="AE217" s="0" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AF217" s="0" t="n">
         <v>10000</v>
@@ -5015,7 +5101,7 @@
     </row>
     <row r="218" spans="31:32" customHeight="1">
       <c r="AE218" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AF218" s="0" t="n">
         <v>10000</v>
@@ -5023,7 +5109,7 @@
     </row>
     <row r="219" spans="31:32" customHeight="1">
       <c r="AE219" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AF219" s="0" t="n">
         <v>10000</v>
@@ -5031,7 +5117,7 @@
     </row>
     <row r="220" spans="31:32" customHeight="1">
       <c r="AE220" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AF220" s="0" t="n">
         <v>20000</v>
@@ -5039,7 +5125,7 @@
     </row>
     <row r="221" spans="31:32" customHeight="1">
       <c r="AE221" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AF221" s="0" t="n">
         <v>10000</v>
@@ -5047,7 +5133,7 @@
     </row>
     <row r="222" spans="31:32" customHeight="1">
       <c r="AE222" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AF222" s="0" t="n">
         <v>10000</v>
@@ -5055,7 +5141,7 @@
     </row>
     <row r="223" spans="31:32" customHeight="1">
       <c r="AE223" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AF223" s="0" t="n">
         <v>10000</v>
@@ -5063,7 +5149,7 @@
     </row>
     <row r="224" spans="31:32" customHeight="1">
       <c r="AE224" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AF224" s="0" t="n">
         <v>10000</v>
@@ -5071,7 +5157,7 @@
     </row>
     <row r="225" spans="31:32" customHeight="1">
       <c r="AE225" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AF225" s="0" t="n">
         <v>10000</v>
@@ -5079,7 +5165,7 @@
     </row>
     <row r="226" spans="31:32" customHeight="1">
       <c r="AE226" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AF226" s="0" t="n">
         <v>10000</v>
@@ -5087,7 +5173,7 @@
     </row>
     <row r="227" spans="31:32" customHeight="1">
       <c r="AE227" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AF227" s="0" t="n">
         <v>10000</v>
@@ -5095,7 +5181,7 @@
     </row>
     <row r="228" spans="31:32" customHeight="1">
       <c r="AE228" s="0" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AF228" s="0" t="n">
         <v>10000</v>
@@ -5103,7 +5189,7 @@
     </row>
     <row r="229" spans="31:32" customHeight="1">
       <c r="AE229" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AF229" s="0" t="n">
         <v>20000</v>
@@ -5111,7 +5197,7 @@
     </row>
     <row r="230" spans="31:32" customHeight="1">
       <c r="AE230" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AF230" s="0" t="n">
         <v>20000</v>
@@ -5119,7 +5205,7 @@
     </row>
     <row r="231" spans="31:32" customHeight="1">
       <c r="AE231" s="0" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AF231" s="0" t="n">
         <v>10000</v>
@@ -5127,7 +5213,7 @@
     </row>
     <row r="232" spans="31:32" customHeight="1">
       <c r="AE232" s="0" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AF232" s="0" t="n">
         <v>10000</v>
@@ -5135,7 +5221,7 @@
     </row>
     <row r="233" spans="31:32" customHeight="1">
       <c r="AE233" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AF233" s="0" t="n">
         <v>10000</v>
@@ -5143,7 +5229,7 @@
     </row>
     <row r="234" spans="31:32" customHeight="1">
       <c r="AE234" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AF234" s="0" t="n">
         <v>10000</v>
@@ -5151,7 +5237,7 @@
     </row>
     <row r="235" spans="31:32" customHeight="1">
       <c r="AE235" s="0" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AF235" s="0" t="n">
         <v>10000</v>
@@ -5159,7 +5245,7 @@
     </row>
     <row r="236" spans="31:32" customHeight="1">
       <c r="AE236" s="0" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AF236" s="0" t="n">
         <v>10000</v>
@@ -5167,7 +5253,7 @@
     </row>
     <row r="237" spans="31:32" customHeight="1">
       <c r="AE237" s="0" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AF237" s="0" t="n">
         <v>10000</v>
@@ -5175,7 +5261,7 @@
     </row>
     <row r="238" spans="31:32" customHeight="1">
       <c r="AE238" s="0" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AF238" s="0" t="n">
         <v>10000</v>
@@ -5183,7 +5269,7 @@
     </row>
     <row r="239" spans="31:32" customHeight="1">
       <c r="AE239" s="0" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AF239" s="0" t="n">
         <v>20000</v>
@@ -5191,7 +5277,7 @@
     </row>
     <row r="240" spans="31:32" customHeight="1">
       <c r="AE240" s="0" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AF240" s="0" t="n">
         <v>10000</v>
@@ -5199,7 +5285,7 @@
     </row>
     <row r="241" spans="31:32" customHeight="1">
       <c r="AE241" s="0" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AF241" s="0" t="n">
         <v>10000</v>
@@ -5207,7 +5293,7 @@
     </row>
     <row r="242" spans="31:32" customHeight="1">
       <c r="AE242" s="0" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AF242" s="0" t="n">
         <v>10000</v>
@@ -5215,7 +5301,7 @@
     </row>
     <row r="243" spans="31:32" customHeight="1">
       <c r="AE243" s="0" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AF243" s="0" t="n">
         <v>20000</v>
@@ -5223,7 +5309,7 @@
     </row>
     <row r="244" spans="31:32" customHeight="1">
       <c r="AE244" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AF244" s="0" t="n">
         <v>10000</v>
@@ -5231,7 +5317,7 @@
     </row>
     <row r="245" spans="31:32" customHeight="1">
       <c r="AE245" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AF245" s="0" t="n">
         <v>10000</v>
@@ -5239,7 +5325,7 @@
     </row>
     <row r="246" spans="31:32" customHeight="1">
       <c r="AE246" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AF246" s="0" t="n">
         <v>25000</v>
@@ -5247,7 +5333,7 @@
     </row>
     <row r="247" spans="31:32" customHeight="1">
       <c r="AE247" s="0" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AF247" s="0" t="n">
         <v>10000</v>
@@ -5255,7 +5341,7 @@
     </row>
     <row r="248" spans="31:32" customHeight="1">
       <c r="AE248" s="0" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AF248" s="0" t="n">
         <v>10000</v>
@@ -5263,7 +5349,7 @@
     </row>
     <row r="249" spans="31:32" customHeight="1">
       <c r="AE249" s="0" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AF249" s="0" t="n">
         <v>10000</v>
@@ -5271,7 +5357,7 @@
     </row>
     <row r="250" spans="31:32" customHeight="1">
       <c r="AE250" s="0" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AF250" s="0" t="n">
         <v>10000</v>
@@ -5279,7 +5365,7 @@
     </row>
     <row r="251" spans="31:32" customHeight="1">
       <c r="AE251" s="0" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AF251" s="0" t="n">
         <v>10000</v>
@@ -5287,7 +5373,7 @@
     </row>
     <row r="252" spans="31:32" customHeight="1">
       <c r="AE252" s="0" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AF252" s="0" t="n">
         <v>10000</v>
@@ -5295,7 +5381,7 @@
     </row>
     <row r="253" spans="31:32" customHeight="1">
       <c r="AE253" s="0" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AF253" s="0" t="n">
         <v>10000</v>
@@ -5303,7 +5389,7 @@
     </row>
     <row r="254" spans="31:32" customHeight="1">
       <c r="AE254" s="0" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AF254" s="0" t="n">
         <v>10000</v>
@@ -5311,7 +5397,7 @@
     </row>
     <row r="255" spans="31:32" customHeight="1">
       <c r="AE255" s="0" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AF255" s="0" t="n">
         <v>10000</v>
@@ -5319,7 +5405,7 @@
     </row>
     <row r="256" spans="31:32" customHeight="1">
       <c r="AE256" s="0" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AF256" s="0" t="n">
         <v>10000</v>
@@ -5327,7 +5413,7 @@
     </row>
     <row r="257" spans="31:32" customHeight="1">
       <c r="AE257" s="0" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AF257" s="0" t="n">
         <v>10000</v>
@@ -5335,7 +5421,7 @@
     </row>
     <row r="258" spans="31:32" customHeight="1">
       <c r="AE258" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AF258" s="0" t="n">
         <v>20000</v>
@@ -5343,7 +5429,7 @@
     </row>
     <row r="259" spans="31:32" customHeight="1">
       <c r="AE259" s="0" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AF259" s="0" t="n">
         <v>10000</v>
@@ -5351,7 +5437,7 @@
     </row>
     <row r="260" spans="31:32" customHeight="1">
       <c r="AE260" s="0" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AF260" s="0" t="n">
         <v>10000</v>
@@ -5359,7 +5445,7 @@
     </row>
     <row r="261" spans="31:32" customHeight="1">
       <c r="AE261" s="0" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AF261" s="0" t="n">
         <v>10000</v>
@@ -5367,7 +5453,7 @@
     </row>
     <row r="262" spans="31:32" customHeight="1">
       <c r="AE262" s="0" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AF262" s="0" t="n">
         <v>25000</v>
@@ -5375,7 +5461,7 @@
     </row>
     <row r="263" spans="31:32" customHeight="1">
       <c r="AE263" s="0" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AF263" s="0" t="n">
         <v>25000</v>
@@ -5383,7 +5469,7 @@
     </row>
     <row r="264" spans="31:32" customHeight="1">
       <c r="AE264" s="0" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AF264" s="0" t="n">
         <v>10000</v>
@@ -5391,7 +5477,7 @@
     </row>
     <row r="265" spans="31:32" customHeight="1">
       <c r="AE265" s="0" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AF265" s="0" t="n">
         <v>20000</v>
@@ -5399,7 +5485,7 @@
     </row>
     <row r="266" spans="31:32" customHeight="1">
       <c r="AE266" s="0" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AF266" s="0" t="n">
         <v>10000</v>
@@ -5407,7 +5493,7 @@
     </row>
     <row r="267" spans="31:32" customHeight="1">
       <c r="AE267" s="0" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AF267" s="0" t="n">
         <v>20000</v>
@@ -5415,7 +5501,7 @@
     </row>
     <row r="268" spans="31:32" customHeight="1">
       <c r="AE268" s="0" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AF268" s="0" t="n">
         <v>20000</v>
@@ -5423,7 +5509,7 @@
     </row>
     <row r="269" spans="31:32" customHeight="1">
       <c r="AE269" s="0" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AF269" s="0" t="n">
         <v>10000</v>
@@ -5431,7 +5517,7 @@
     </row>
     <row r="270" spans="31:32" customHeight="1">
       <c r="AE270" s="0" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AF270" s="0" t="n">
         <v>10000</v>
@@ -5439,7 +5525,7 @@
     </row>
     <row r="271" spans="31:32" customHeight="1">
       <c r="AE271" s="0" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AF271" s="0" t="n">
         <v>10000</v>
@@ -5447,7 +5533,7 @@
     </row>
     <row r="272" spans="31:32" customHeight="1">
       <c r="AE272" s="0" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AF272" s="0" t="n">
         <v>20000</v>
@@ -5455,7 +5541,7 @@
     </row>
     <row r="273" spans="31:32" customHeight="1">
       <c r="AE273" s="0" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AF273" s="0" t="n">
         <v>10000</v>
@@ -5463,7 +5549,7 @@
     </row>
     <row r="274" spans="31:32" customHeight="1">
       <c r="AE274" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AF274" s="0" t="n">
         <v>20000</v>
@@ -5471,7 +5557,7 @@
     </row>
     <row r="275" spans="31:32" customHeight="1">
       <c r="AE275" s="0" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AF275" s="0" t="n">
         <v>20000</v>
@@ -5479,7 +5565,7 @@
     </row>
     <row r="276" spans="31:32" customHeight="1">
       <c r="AE276" s="0" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AF276" s="0" t="n">
         <v>10000</v>
@@ -5487,7 +5573,7 @@
     </row>
     <row r="277" spans="31:32" customHeight="1">
       <c r="AE277" s="0" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AF277" s="0" t="n">
         <v>10000</v>
@@ -5495,7 +5581,7 @@
     </row>
     <row r="278" spans="31:32" customHeight="1">
       <c r="AE278" s="0" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AF278" s="0" t="n">
         <v>10000</v>
@@ -5503,7 +5589,7 @@
     </row>
     <row r="279" spans="31:32" customHeight="1">
       <c r="AE279" s="0" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AF279" s="0" t="n">
         <v>10000</v>
@@ -5511,7 +5597,7 @@
     </row>
     <row r="280" spans="31:32" customHeight="1">
       <c r="AE280" s="0" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AF280" s="0" t="n">
         <v>10000</v>
@@ -5519,7 +5605,7 @@
     </row>
     <row r="281" spans="31:32" customHeight="1">
       <c r="AE281" s="0" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AF281" s="0" t="n">
         <v>10000</v>
@@ -5527,7 +5613,7 @@
     </row>
     <row r="282" spans="31:32" customHeight="1">
       <c r="AE282" s="0" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AF282" s="0" t="n">
         <v>10000</v>
@@ -5535,7 +5621,7 @@
     </row>
     <row r="283" spans="31:32" customHeight="1">
       <c r="AE283" s="0" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AF283" s="0" t="n">
         <v>10000</v>
@@ -5543,7 +5629,7 @@
     </row>
     <row r="284" spans="31:32" customHeight="1">
       <c r="AE284" s="0" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AF284" s="0" t="n">
         <v>10000</v>
@@ -5551,7 +5637,7 @@
     </row>
     <row r="285" spans="31:32" customHeight="1">
       <c r="AE285" s="0" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AF285" s="0" t="n">
         <v>10000</v>
@@ -5559,7 +5645,7 @@
     </row>
     <row r="286" spans="31:32" customHeight="1">
       <c r="AE286" s="0" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AF286" s="0" t="n">
         <v>10000</v>
@@ -5567,7 +5653,7 @@
     </row>
     <row r="287" spans="31:32" customHeight="1">
       <c r="AE287" s="0" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AF287" s="0" t="n">
         <v>10000</v>
@@ -5575,7 +5661,7 @@
     </row>
     <row r="288" spans="31:32" customHeight="1">
       <c r="AE288" s="0" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AF288" s="0" t="n">
         <v>20000</v>
@@ -5583,7 +5669,7 @@
     </row>
     <row r="289" spans="31:32" customHeight="1">
       <c r="AE289" s="0" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AF289" s="0" t="n">
         <v>10000</v>
@@ -5591,7 +5677,7 @@
     </row>
     <row r="290" spans="31:32" customHeight="1">
       <c r="AE290" s="0" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AF290" s="0" t="n">
         <v>10000</v>
@@ -5599,7 +5685,7 @@
     </row>
     <row r="291" spans="31:32" customHeight="1">
       <c r="AE291" s="0" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AF291" s="0" t="n">
         <v>10000</v>
@@ -5607,7 +5693,7 @@
     </row>
     <row r="292" spans="31:32" customHeight="1">
       <c r="AE292" s="0" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="AF292" s="0" t="n">
         <v>10000</v>
@@ -5615,7 +5701,7 @@
     </row>
     <row r="293" spans="31:32" customHeight="1">
       <c r="AE293" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AF293" s="0" t="n">
         <v>10000</v>
@@ -5623,7 +5709,7 @@
     </row>
     <row r="294" spans="31:32" customHeight="1">
       <c r="AE294" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="AF294" s="0" t="n">
         <v>10000</v>
@@ -5631,7 +5717,7 @@
     </row>
     <row r="295" spans="31:32" customHeight="1">
       <c r="AE295" s="0" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AF295" s="0" t="n">
         <v>25000</v>
@@ -5639,7 +5725,7 @@
     </row>
     <row r="296" spans="31:32" customHeight="1">
       <c r="AE296" s="0" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="AF296" s="0" t="n">
         <v>10000</v>
@@ -5647,7 +5733,7 @@
     </row>
     <row r="297" spans="31:32" customHeight="1">
       <c r="AE297" s="0" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AF297" s="0" t="n">
         <v>10000</v>
@@ -5655,7 +5741,7 @@
     </row>
     <row r="298" spans="31:32" customHeight="1">
       <c r="AE298" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AF298" s="0" t="n">
         <v>10000</v>
@@ -5663,7 +5749,7 @@
     </row>
     <row r="299" spans="31:32" customHeight="1">
       <c r="AE299" s="0" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AF299" s="0" t="n">
         <v>10000</v>
@@ -5671,7 +5757,7 @@
     </row>
     <row r="300" spans="31:32" customHeight="1">
       <c r="AE300" s="0" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AF300" s="0" t="n">
         <v>10000</v>
@@ -5679,7 +5765,7 @@
     </row>
     <row r="301" spans="31:32" customHeight="1">
       <c r="AE301" s="0" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AF301" s="0" t="n">
         <v>20000</v>
@@ -5687,7 +5773,7 @@
     </row>
     <row r="302" spans="31:32" customHeight="1">
       <c r="AE302" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AF302" s="0" t="n">
         <v>20000</v>
@@ -5695,7 +5781,7 @@
     </row>
     <row r="303" spans="31:32" customHeight="1">
       <c r="AE303" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="AF303" s="0" t="n">
         <v>10000</v>
@@ -5703,7 +5789,7 @@
     </row>
     <row r="304" spans="31:32" customHeight="1">
       <c r="AE304" s="0" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AF304" s="0" t="n">
         <v>10000</v>
@@ -5711,7 +5797,7 @@
     </row>
     <row r="305" spans="31:32" customHeight="1">
       <c r="AE305" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AF305" s="0" t="n">
         <v>10000</v>
@@ -5822,7 +5908,7 @@
       <c r="AC1" s="6"/>
       <c r="AD1" s="6"/>
       <c r="AE1" s="0" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="AF1" s="0" t="n">
         <v>1500</v>
@@ -5868,7 +5954,7 @@
       <c r="AC2" s="9"/>
       <c r="AD2" s="9"/>
       <c r="AE2" s="0" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AF2" s="0" t="n">
         <v>1500</v>
@@ -5918,7 +6004,7 @@
       <c r="AC3" s="16"/>
       <c r="AD3" s="16"/>
       <c r="AE3" s="0" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="AF3" s="0" t="n">
         <v>1500</v>
@@ -5962,7 +6048,7 @@
       <c r="AC4" s="22"/>
       <c r="AD4" s="22"/>
       <c r="AE4" s="0" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AF4" s="0" t="n">
         <v>1500</v>
@@ -5973,7 +6059,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" s="26" t="n">
         <v>215</v>
@@ -5985,13 +6071,13 @@
         <f>C5*D5</f>
       </c>
       <c r="F5" s="28" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="I5" s="28"/>
       <c r="J5" s="28"/>
@@ -6016,7 +6102,7 @@
       <c r="AC5" s="28"/>
       <c r="AD5" s="28"/>
       <c r="AE5" s="0" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AF5" s="0" t="n">
         <v>2500</v>
@@ -6027,7 +6113,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C6" s="26" t="n">
         <v>130</v>
@@ -6039,13 +6125,13 @@
         <f>C6*D6</f>
       </c>
       <c r="F6" s="28" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I6" s="28"/>
       <c r="J6" s="28"/>
@@ -6070,7 +6156,7 @@
       <c r="AC6" s="28"/>
       <c r="AD6" s="28"/>
       <c r="AE6" s="0" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="AF6" s="0" t="n">
         <v>1500</v>
@@ -6081,7 +6167,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C7" s="26" t="n">
         <v>120</v>
@@ -6118,7 +6204,7 @@
       <c r="AC7" s="28"/>
       <c r="AD7" s="28"/>
       <c r="AE7" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="AF7" s="0" t="n">
         <v>1500</v>
@@ -6129,7 +6215,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C8" s="26" t="n">
         <v>110</v>
@@ -6166,7 +6252,7 @@
       <c r="AC8" s="28"/>
       <c r="AD8" s="28"/>
       <c r="AE8" s="0" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="AF8" s="0" t="n">
         <v>1500</v>
@@ -6177,7 +6263,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C9" s="26" t="n">
         <v>100</v>
@@ -6214,7 +6300,7 @@
       <c r="AC9" s="28"/>
       <c r="AD9" s="28"/>
       <c r="AE9" s="0" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AF9" s="0" t="n">
         <v>1500</v>
@@ -6225,7 +6311,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C10" s="30" t="n">
         <v>100</v>
@@ -6262,7 +6348,7 @@
       <c r="AC10" s="29"/>
       <c r="AD10" s="29"/>
       <c r="AE10" s="0" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AF10" s="0" t="n">
         <v>1500</v>
@@ -6273,7 +6359,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C11" s="30" t="n">
         <v>100</v>
@@ -6310,7 +6396,7 @@
       <c r="AC11" s="29"/>
       <c r="AD11" s="29"/>
       <c r="AE11" s="0" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AF11" s="0" t="n">
         <v>1500</v>
@@ -6321,7 +6407,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C12" s="30" t="n">
         <v>90</v>
@@ -6358,7 +6444,7 @@
       <c r="AC12" s="29"/>
       <c r="AD12" s="29"/>
       <c r="AE12" s="0" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="AF12" s="0" t="n">
         <v>1500</v>
@@ -6369,7 +6455,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C13" s="30" t="n">
         <v>80</v>
@@ -6406,7 +6492,7 @@
       <c r="AC13" s="29"/>
       <c r="AD13" s="29"/>
       <c r="AE13" s="0" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AF13" s="0" t="n">
         <v>1500</v>
@@ -6417,7 +6503,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C14" s="30" t="n">
         <v>70</v>
@@ -6454,7 +6540,7 @@
       <c r="AC14" s="29"/>
       <c r="AD14" s="29"/>
       <c r="AE14" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="AF14" s="0" t="n">
         <v>1500</v>
@@ -6465,7 +6551,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C15" s="30" t="n">
         <v>70</v>
@@ -6502,7 +6588,7 @@
       <c r="AC15" s="29"/>
       <c r="AD15" s="29"/>
       <c r="AE15" s="0" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AF15" s="0" t="n">
         <v>1500</v>
@@ -6513,7 +6599,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C16" s="30" t="n">
         <v>65</v>
@@ -6550,7 +6636,7 @@
       <c r="AC16" s="29"/>
       <c r="AD16" s="29"/>
       <c r="AE16" s="0" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AF16" s="0" t="n">
         <v>1500</v>
@@ -6561,7 +6647,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C17" s="30" t="n">
         <v>60</v>
@@ -6598,7 +6684,7 @@
       <c r="AC17" s="29"/>
       <c r="AD17" s="29"/>
       <c r="AE17" s="0" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AF17" s="0" t="n">
         <v>1500</v>
@@ -6609,7 +6695,7 @@
         <v>6</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C18" s="30" t="n">
         <v>60</v>
@@ -6646,7 +6732,7 @@
       <c r="AC18" s="29"/>
       <c r="AD18" s="29"/>
       <c r="AE18" s="0" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="AF18" s="0" t="n">
         <v>1500</v>
@@ -6657,7 +6743,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C19" s="30" t="n">
         <v>45</v>
@@ -6694,7 +6780,7 @@
       <c r="AC19" s="29"/>
       <c r="AD19" s="29"/>
       <c r="AE19" s="0" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="AF19" s="0" t="n">
         <v>1500</v>
@@ -6705,7 +6791,7 @@
         <v>7</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C20" s="26" t="n">
         <v>35</v>
@@ -6742,7 +6828,7 @@
       <c r="AC20" s="28"/>
       <c r="AD20" s="28"/>
       <c r="AE20" s="0" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="AF20" s="0" t="n">
         <v>1500</v>
@@ -6753,7 +6839,7 @@
         <v>7</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C21" s="26" t="n">
         <v>30</v>
@@ -6790,7 +6876,7 @@
       <c r="AC21" s="28"/>
       <c r="AD21" s="28"/>
       <c r="AE21" s="0" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="AF21" s="0" t="n">
         <v>1500</v>
@@ -6801,7 +6887,7 @@
         <v>7</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C22" s="26" t="n">
         <v>30</v>
@@ -6838,7 +6924,7 @@
       <c r="AC22" s="28"/>
       <c r="AD22" s="28"/>
       <c r="AE22" s="0" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AF22" s="0" t="n">
         <v>1500</v>
@@ -6849,7 +6935,7 @@
         <v>7</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C23" s="26" t="n">
         <v>30</v>
@@ -6886,7 +6972,7 @@
       <c r="AC23" s="28"/>
       <c r="AD23" s="28"/>
       <c r="AE23" s="0" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AF23" s="0" t="n">
         <v>1500</v>
@@ -6897,7 +6983,7 @@
         <v>7</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C24" s="26" t="n">
         <v>30</v>
@@ -6934,7 +7020,7 @@
       <c r="AC24" s="28"/>
       <c r="AD24" s="28"/>
       <c r="AE24" s="0" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AF24" s="0" t="n">
         <v>1500</v>
@@ -6945,7 +7031,7 @@
         <v>7</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C25" s="26" t="n">
         <v>30</v>
@@ -6982,7 +7068,7 @@
       <c r="AC25" s="28"/>
       <c r="AD25" s="28"/>
       <c r="AE25" s="0" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="AF25" s="0" t="n">
         <v>1500</v>
@@ -6993,7 +7079,7 @@
         <v>7</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C26" s="26" t="n">
         <v>20</v>
@@ -7030,7 +7116,7 @@
       <c r="AC26" s="28"/>
       <c r="AD26" s="28"/>
       <c r="AE26" s="0" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="AF26" s="0" t="n">
         <v>1500</v>
@@ -7038,7 +7124,7 @@
     </row>
     <row r="27" spans="31:32" customHeight="1">
       <c r="AE27" s="0" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="AF27" s="0" t="n">
         <v>2500</v>
@@ -7046,7 +7132,7 @@
     </row>
     <row r="28" spans="31:32" customHeight="1">
       <c r="AE28" s="0" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="AF28" s="0" t="n">
         <v>1500</v>
@@ -7054,7 +7140,7 @@
     </row>
     <row r="29" spans="31:32" customHeight="1">
       <c r="AE29" s="0" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AF29" s="0" t="n">
         <v>1500</v>
@@ -7062,7 +7148,7 @@
     </row>
     <row r="30" spans="31:32" customHeight="1">
       <c r="AE30" s="0" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AF30" s="0" t="n">
         <v>1500</v>
@@ -7070,7 +7156,7 @@
     </row>
     <row r="31" spans="31:32" customHeight="1">
       <c r="AE31" s="0" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AF31" s="0" t="n">
         <v>1500</v>
@@ -7078,7 +7164,7 @@
     </row>
     <row r="32" spans="31:32" customHeight="1">
       <c r="AE32" s="0" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AF32" s="0" t="n">
         <v>1500</v>
@@ -7086,7 +7172,7 @@
     </row>
     <row r="33" spans="31:32" customHeight="1">
       <c r="AE33" s="0" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AF33" s="0" t="n">
         <v>1500</v>
@@ -7094,7 +7180,7 @@
     </row>
     <row r="34" spans="31:32" customHeight="1">
       <c r="AE34" s="0" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AF34" s="0" t="n">
         <v>1500</v>
@@ -7102,7 +7188,7 @@
     </row>
     <row r="35" spans="31:32" customHeight="1">
       <c r="AE35" s="0" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="AF35" s="0" t="n">
         <v>1500</v>
@@ -7110,7 +7196,7 @@
     </row>
     <row r="36" spans="31:32" customHeight="1">
       <c r="AE36" s="0" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AF36" s="0" t="n">
         <v>1500</v>
@@ -7118,7 +7204,7 @@
     </row>
     <row r="37" spans="31:32" customHeight="1">
       <c r="AE37" s="0" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="AF37" s="0" t="n">
         <v>2500</v>
@@ -7126,7 +7212,7 @@
     </row>
     <row r="38" spans="31:32" customHeight="1">
       <c r="AE38" s="0" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="AF38" s="0" t="n">
         <v>1500</v>
@@ -7134,7 +7220,7 @@
     </row>
     <row r="39" spans="31:32" customHeight="1">
       <c r="AE39" s="0" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="AF39" s="0" t="n">
         <v>1500</v>
@@ -7142,7 +7228,7 @@
     </row>
     <row r="40" spans="31:32" customHeight="1">
       <c r="AE40" s="0" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AF40" s="0" t="n">
         <v>1500</v>
@@ -7150,7 +7236,7 @@
     </row>
     <row r="41" spans="31:32" customHeight="1">
       <c r="AE41" s="0" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AF41" s="0" t="n">
         <v>1500</v>
@@ -7158,7 +7244,7 @@
     </row>
     <row r="42" spans="31:32" customHeight="1">
       <c r="AE42" s="0" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AF42" s="0" t="n">
         <v>1500</v>
@@ -7166,7 +7252,7 @@
     </row>
     <row r="43" spans="31:32" customHeight="1">
       <c r="AE43" s="0" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AF43" s="0" t="n">
         <v>1500</v>
@@ -7174,7 +7260,7 @@
     </row>
     <row r="44" spans="31:32" customHeight="1">
       <c r="AE44" s="0" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="AF44" s="0" t="n">
         <v>1500</v>
@@ -7182,7 +7268,7 @@
     </row>
     <row r="45" spans="31:32" customHeight="1">
       <c r="AE45" s="0" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="AF45" s="0" t="n">
         <v>1500</v>
@@ -7190,7 +7276,7 @@
     </row>
     <row r="46" spans="31:32" customHeight="1">
       <c r="AE46" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="AF46" s="0" t="n">
         <v>2500</v>
@@ -7198,7 +7284,7 @@
     </row>
     <row r="47" spans="31:32" customHeight="1">
       <c r="AE47" s="0" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="AF47" s="0" t="n">
         <v>1500</v>
@@ -7206,7 +7292,7 @@
     </row>
     <row r="48" spans="31:32" customHeight="1">
       <c r="AE48" s="0" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="AF48" s="0" t="n">
         <v>1500</v>
@@ -7214,7 +7300,7 @@
     </row>
     <row r="49" spans="31:32" customHeight="1">
       <c r="AE49" s="0" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="AF49" s="0" t="n">
         <v>2500</v>
@@ -7222,7 +7308,7 @@
     </row>
     <row r="50" spans="31:32" customHeight="1">
       <c r="AE50" s="0" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="AF50" s="0" t="n">
         <v>1500</v>
@@ -7230,7 +7316,7 @@
     </row>
     <row r="51" spans="31:32" customHeight="1">
       <c r="AE51" s="0" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AF51" s="0" t="n">
         <v>3000</v>
@@ -7238,7 +7324,7 @@
     </row>
     <row r="52" spans="31:32" customHeight="1">
       <c r="AE52" s="0" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="AF52" s="0" t="n">
         <v>2500</v>
@@ -7246,7 +7332,7 @@
     </row>
     <row r="53" spans="31:32" customHeight="1">
       <c r="AE53" s="0" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="AF53" s="0" t="n">
         <v>1500</v>
@@ -7254,7 +7340,7 @@
     </row>
     <row r="54" spans="31:32" customHeight="1">
       <c r="AE54" s="0" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="AF54" s="0" t="n">
         <v>1500</v>
@@ -7262,7 +7348,7 @@
     </row>
     <row r="55" spans="31:32" customHeight="1">
       <c r="AE55" s="0" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="AF55" s="0" t="n">
         <v>1500</v>
@@ -7270,7 +7356,7 @@
     </row>
     <row r="56" spans="31:32" customHeight="1">
       <c r="AE56" s="0" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AF56" s="0" t="n">
         <v>1500</v>
@@ -7278,7 +7364,7 @@
     </row>
     <row r="57" spans="31:32" customHeight="1">
       <c r="AE57" s="0" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="AF57" s="0" t="n">
         <v>1500</v>
@@ -7286,7 +7372,7 @@
     </row>
     <row r="58" spans="31:32" customHeight="1">
       <c r="AE58" s="0" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="AF58" s="0" t="n">
         <v>1500</v>
@@ -7294,7 +7380,7 @@
     </row>
     <row r="59" spans="31:32" customHeight="1">
       <c r="AE59" s="0" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AF59" s="0" t="n">
         <v>2500</v>
@@ -7302,7 +7388,7 @@
     </row>
     <row r="60" spans="31:32" customHeight="1">
       <c r="AE60" s="0" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="AF60" s="0" t="n">
         <v>1500</v>
@@ -7310,7 +7396,7 @@
     </row>
     <row r="61" spans="31:32" customHeight="1">
       <c r="AE61" s="0" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="AF61" s="0" t="n">
         <v>2500</v>
@@ -7318,7 +7404,7 @@
     </row>
     <row r="62" spans="31:32" customHeight="1">
       <c r="AE62" s="0" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AF62" s="0" t="n">
         <v>1500</v>
@@ -7326,7 +7412,7 @@
     </row>
     <row r="63" spans="31:32" customHeight="1">
       <c r="AE63" s="0" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="AF63" s="0" t="n">
         <v>1500</v>
@@ -7334,7 +7420,7 @@
     </row>
     <row r="64" spans="31:32" customHeight="1">
       <c r="AE64" s="0" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="AF64" s="0" t="n">
         <v>1500</v>
@@ -7342,7 +7428,7 @@
     </row>
     <row r="65" spans="31:32" customHeight="1">
       <c r="AE65" s="0" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="AF65" s="0" t="n">
         <v>1500</v>
@@ -7350,7 +7436,7 @@
     </row>
     <row r="66" spans="31:32" customHeight="1">
       <c r="AE66" s="0" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="AF66" s="0" t="n">
         <v>1500</v>
@@ -7358,7 +7444,7 @@
     </row>
     <row r="67" spans="31:32" customHeight="1">
       <c r="AE67" s="0" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="AF67" s="0" t="n">
         <v>1500</v>
@@ -7366,7 +7452,7 @@
     </row>
     <row r="68" spans="31:32" customHeight="1">
       <c r="AE68" s="0" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AF68" s="0" t="n">
         <v>1500</v>
@@ -7374,7 +7460,7 @@
     </row>
     <row r="69" spans="31:32" customHeight="1">
       <c r="AE69" s="0" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="AF69" s="0" t="n">
         <v>1500</v>
@@ -7382,7 +7468,7 @@
     </row>
     <row r="70" spans="31:32" customHeight="1">
       <c r="AE70" s="0" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AF70" s="0" t="n">
         <v>1500</v>
@@ -7390,7 +7476,7 @@
     </row>
     <row r="71" spans="31:32" customHeight="1">
       <c r="AE71" s="0" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AF71" s="0" t="n">
         <v>2500</v>
@@ -7398,7 +7484,7 @@
     </row>
     <row r="72" spans="31:32" customHeight="1">
       <c r="AE72" s="0" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="AF72" s="0" t="n">
         <v>1500</v>
@@ -7406,7 +7492,7 @@
     </row>
     <row r="73" spans="31:32" customHeight="1">
       <c r="AE73" s="0" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="AF73" s="0" t="n">
         <v>1500</v>

--- a/public/port-battle.xlsx
+++ b/public/port-battle.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="449">
   <si>
     <t>Port battle calculator by Felix Victor</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>3rd Rate</t>
+  </si>
+  <si>
+    <t>Implacable</t>
   </si>
   <si>
     <t>Redoutable</t>
@@ -1637,7 +1640,7 @@
       <c r="AC1" s="6"/>
       <c r="AD1" s="6"/>
       <c r="AE1" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AF1" s="0" t="n">
         <v>10000</v>
@@ -1683,7 +1686,7 @@
       <c r="AC2" s="9"/>
       <c r="AD2" s="9"/>
       <c r="AE2" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AF2" s="0" t="n">
         <v>10000</v>
@@ -1733,7 +1736,7 @@
       <c r="AC3" s="16"/>
       <c r="AD3" s="16"/>
       <c r="AE3" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF3" s="0" t="n">
         <v>10000</v>
@@ -1744,10 +1747,10 @@
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
       <c r="D4" s="21">
-        <f>SUM(D5:D44)</f>
+        <f>SUM(D5:D45)</f>
       </c>
       <c r="E4" s="21">
-        <f>SUM(E5:E44)</f>
+        <f>SUM(E5:E45)</f>
       </c>
       <c r="F4" s="22" t="s">
         <v>11</v>
@@ -1777,7 +1780,7 @@
       <c r="AC4" s="22"/>
       <c r="AD4" s="22"/>
       <c r="AE4" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AF4" s="0" t="n">
         <v>10000</v>
@@ -1800,13 +1803,13 @@
         <f>C5*D5</f>
       </c>
       <c r="F5" s="28" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I5" s="28"/>
       <c r="J5" s="28"/>
@@ -1831,7 +1834,7 @@
       <c r="AC5" s="28"/>
       <c r="AD5" s="28"/>
       <c r="AE5" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AF5" s="0" t="n">
         <v>10000</v>
@@ -1854,13 +1857,13 @@
         <f>C6*D6</f>
       </c>
       <c r="F6" s="28" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G6" s="28" t="s">
+        <v>362</v>
+      </c>
+      <c r="H6" s="28" t="s">
         <v>361</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>360</v>
       </c>
       <c r="I6" s="28"/>
       <c r="J6" s="28"/>
@@ -1885,7 +1888,7 @@
       <c r="AC6" s="28"/>
       <c r="AD6" s="28"/>
       <c r="AE6" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF6" s="0" t="n">
         <v>10000</v>
@@ -1933,7 +1936,7 @@
       <c r="AC7" s="28"/>
       <c r="AD7" s="28"/>
       <c r="AE7" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF7" s="0" t="n">
         <v>10000</v>
@@ -1981,7 +1984,7 @@
       <c r="AC8" s="29"/>
       <c r="AD8" s="29"/>
       <c r="AE8" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AF8" s="0" t="n">
         <v>10000</v>
@@ -2029,7 +2032,7 @@
       <c r="AC9" s="29"/>
       <c r="AD9" s="29"/>
       <c r="AE9" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AF9" s="0" t="n">
         <v>10000</v>
@@ -2077,7 +2080,7 @@
       <c r="AC10" s="29"/>
       <c r="AD10" s="29"/>
       <c r="AE10" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AF10" s="0" t="n">
         <v>10000</v>
@@ -2125,7 +2128,7 @@
       <c r="AC11" s="28"/>
       <c r="AD11" s="28"/>
       <c r="AE11" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AF11" s="0" t="n">
         <v>10000</v>
@@ -2173,7 +2176,7 @@
       <c r="AC12" s="28"/>
       <c r="AD12" s="28"/>
       <c r="AE12" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AF12" s="0" t="n">
         <v>10000</v>
@@ -2221,7 +2224,7 @@
       <c r="AC13" s="28"/>
       <c r="AD13" s="28"/>
       <c r="AE13" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AF13" s="0" t="n">
         <v>10000</v>
@@ -2235,7 +2238,7 @@
         <v>21</v>
       </c>
       <c r="C14" s="26" t="n">
-        <v>400</v>
+        <v>490</v>
       </c>
       <c r="D14" s="26">
         <f>COUNTA(F14:AD14)</f>
@@ -2269,7 +2272,7 @@
       <c r="AC14" s="28"/>
       <c r="AD14" s="28"/>
       <c r="AE14" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AF14" s="0" t="n">
         <v>10000</v>
@@ -2317,7 +2320,7 @@
       <c r="AC15" s="28"/>
       <c r="AD15" s="28"/>
       <c r="AE15" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF15" s="0" t="n">
         <v>20000</v>
@@ -2365,55 +2368,55 @@
       <c r="AC16" s="28"/>
       <c r="AD16" s="28"/>
       <c r="AE16" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF16" s="0" t="n">
         <v>10000</v>
       </c>
     </row>
     <row r="17" spans="1:32" customHeight="1">
-      <c r="A17" s="30" t="n">
-        <v>4</v>
-      </c>
-      <c r="B17" s="29" t="s">
+      <c r="A17" s="26" t="n">
+        <v>3</v>
+      </c>
+      <c r="B17" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="30" t="n">
+      <c r="C17" s="26" t="n">
         <v>400</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D17" s="26">
         <f>COUNTA(F17:AD17)</f>
       </c>
-      <c r="E17" s="30">
+      <c r="E17" s="26">
         <f>C17*D17</f>
       </c>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
-      <c r="T17" s="29"/>
-      <c r="U17" s="29"/>
-      <c r="V17" s="29"/>
-      <c r="W17" s="29"/>
-      <c r="X17" s="29"/>
-      <c r="Y17" s="29"/>
-      <c r="Z17" s="29"/>
-      <c r="AA17" s="29"/>
-      <c r="AB17" s="29"/>
-      <c r="AC17" s="29"/>
-      <c r="AD17" s="29"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="28"/>
+      <c r="W17" s="28"/>
+      <c r="X17" s="28"/>
+      <c r="Y17" s="28"/>
+      <c r="Z17" s="28"/>
+      <c r="AA17" s="28"/>
+      <c r="AB17" s="28"/>
+      <c r="AC17" s="28"/>
+      <c r="AD17" s="28"/>
       <c r="AE17" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AF17" s="0" t="n">
         <v>10000</v>
@@ -2427,7 +2430,7 @@
         <v>25</v>
       </c>
       <c r="C18" s="30" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="D18" s="30">
         <f>COUNTA(F18:AD18)</f>
@@ -2461,7 +2464,7 @@
       <c r="AC18" s="29"/>
       <c r="AD18" s="29"/>
       <c r="AE18" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AF18" s="0" t="n">
         <v>10000</v>
@@ -2509,7 +2512,7 @@
       <c r="AC19" s="29"/>
       <c r="AD19" s="29"/>
       <c r="AE19" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF19" s="0" t="n">
         <v>10000</v>
@@ -2523,7 +2526,7 @@
         <v>27</v>
       </c>
       <c r="C20" s="30" t="n">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="D20" s="30">
         <f>COUNTA(F20:AD20)</f>
@@ -2557,7 +2560,7 @@
       <c r="AC20" s="29"/>
       <c r="AD20" s="29"/>
       <c r="AE20" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF20" s="0" t="n">
         <v>10000</v>
@@ -2571,7 +2574,7 @@
         <v>28</v>
       </c>
       <c r="C21" s="30" t="n">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="D21" s="30">
         <f>COUNTA(F21:AD21)</f>
@@ -2605,7 +2608,7 @@
       <c r="AC21" s="29"/>
       <c r="AD21" s="29"/>
       <c r="AE21" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF21" s="0" t="n">
         <v>20000</v>
@@ -2619,7 +2622,7 @@
         <v>29</v>
       </c>
       <c r="C22" s="30" t="n">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="D22" s="30">
         <f>COUNTA(F22:AD22)</f>
@@ -2653,55 +2656,55 @@
       <c r="AC22" s="29"/>
       <c r="AD22" s="29"/>
       <c r="AE22" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF22" s="0" t="n">
         <v>10000</v>
       </c>
     </row>
     <row r="23" spans="1:32" customHeight="1">
-      <c r="A23" s="26" t="n">
-        <v>5</v>
-      </c>
-      <c r="B23" s="25" t="s">
+      <c r="A23" s="30" t="n">
+        <v>4</v>
+      </c>
+      <c r="B23" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="26" t="n">
-        <v>280</v>
-      </c>
-      <c r="D23" s="26">
+      <c r="C23" s="30" t="n">
+        <v>310</v>
+      </c>
+      <c r="D23" s="30">
         <f>COUNTA(F23:AD23)</f>
       </c>
-      <c r="E23" s="26">
+      <c r="E23" s="30">
         <f>C23*D23</f>
       </c>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="28"/>
-      <c r="S23" s="28"/>
-      <c r="T23" s="28"/>
-      <c r="U23" s="28"/>
-      <c r="V23" s="28"/>
-      <c r="W23" s="28"/>
-      <c r="X23" s="28"/>
-      <c r="Y23" s="28"/>
-      <c r="Z23" s="28"/>
-      <c r="AA23" s="28"/>
-      <c r="AB23" s="28"/>
-      <c r="AC23" s="28"/>
-      <c r="AD23" s="28"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="29"/>
+      <c r="X23" s="29"/>
+      <c r="Y23" s="29"/>
+      <c r="Z23" s="29"/>
+      <c r="AA23" s="29"/>
+      <c r="AB23" s="29"/>
+      <c r="AC23" s="29"/>
+      <c r="AD23" s="29"/>
       <c r="AE23" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF23" s="0" t="n">
         <v>10000</v>
@@ -2715,7 +2718,7 @@
         <v>31</v>
       </c>
       <c r="C24" s="26" t="n">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="D24" s="26">
         <f>COUNTA(F24:AD24)</f>
@@ -2749,7 +2752,7 @@
       <c r="AC24" s="28"/>
       <c r="AD24" s="28"/>
       <c r="AE24" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF24" s="0" t="n">
         <v>10000</v>
@@ -2763,7 +2766,7 @@
         <v>32</v>
       </c>
       <c r="C25" s="26" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="D25" s="26">
         <f>COUNTA(F25:AD25)</f>
@@ -2797,7 +2800,7 @@
       <c r="AC25" s="28"/>
       <c r="AD25" s="28"/>
       <c r="AE25" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF25" s="0" t="n">
         <v>20000</v>
@@ -2811,7 +2814,7 @@
         <v>33</v>
       </c>
       <c r="C26" s="26" t="n">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="D26" s="26">
         <f>COUNTA(F26:AD26)</f>
@@ -2845,7 +2848,7 @@
       <c r="AC26" s="28"/>
       <c r="AD26" s="28"/>
       <c r="AE26" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF26" s="0" t="n">
         <v>10000</v>
@@ -2859,7 +2862,7 @@
         <v>34</v>
       </c>
       <c r="C27" s="26" t="n">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="D27" s="26">
         <f>COUNTA(F27:AD27)</f>
@@ -2893,7 +2896,7 @@
       <c r="AC27" s="28"/>
       <c r="AD27" s="28"/>
       <c r="AE27" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AF27" s="0" t="n">
         <v>10000</v>
@@ -2941,7 +2944,7 @@
       <c r="AC28" s="28"/>
       <c r="AD28" s="28"/>
       <c r="AE28" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF28" s="0" t="n">
         <v>10000</v>
@@ -2955,7 +2958,7 @@
         <v>36</v>
       </c>
       <c r="C29" s="26" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="D29" s="26">
         <f>COUNTA(F29:AD29)</f>
@@ -2989,7 +2992,7 @@
       <c r="AC29" s="28"/>
       <c r="AD29" s="28"/>
       <c r="AE29" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AF29" s="0" t="n">
         <v>20000</v>
@@ -3037,7 +3040,7 @@
       <c r="AC30" s="28"/>
       <c r="AD30" s="28"/>
       <c r="AE30" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AF30" s="0" t="n">
         <v>10000</v>
@@ -3051,7 +3054,7 @@
         <v>38</v>
       </c>
       <c r="C31" s="26" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="D31" s="26">
         <f>COUNTA(F31:AD31)</f>
@@ -3085,7 +3088,7 @@
       <c r="AC31" s="28"/>
       <c r="AD31" s="28"/>
       <c r="AE31" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF31" s="0" t="n">
         <v>10000</v>
@@ -3099,7 +3102,7 @@
         <v>39</v>
       </c>
       <c r="C32" s="26" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="D32" s="26">
         <f>COUNTA(F32:AD32)</f>
@@ -3133,7 +3136,7 @@
       <c r="AC32" s="28"/>
       <c r="AD32" s="28"/>
       <c r="AE32" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AF32" s="0" t="n">
         <v>10000</v>
@@ -3181,7 +3184,7 @@
       <c r="AC33" s="28"/>
       <c r="AD33" s="28"/>
       <c r="AE33" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AF33" s="0" t="n">
         <v>20000</v>
@@ -3229,7 +3232,7 @@
       <c r="AC34" s="28"/>
       <c r="AD34" s="28"/>
       <c r="AE34" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AF34" s="0" t="n">
         <v>20000</v>
@@ -3243,7 +3246,7 @@
         <v>42</v>
       </c>
       <c r="C35" s="26" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D35" s="26">
         <f>COUNTA(F35:AD35)</f>
@@ -3277,7 +3280,7 @@
       <c r="AC35" s="28"/>
       <c r="AD35" s="28"/>
       <c r="AE35" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AF35" s="0" t="n">
         <v>10000</v>
@@ -3291,7 +3294,7 @@
         <v>43</v>
       </c>
       <c r="C36" s="26" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D36" s="26">
         <f>COUNTA(F36:AD36)</f>
@@ -3325,7 +3328,7 @@
       <c r="AC36" s="28"/>
       <c r="AD36" s="28"/>
       <c r="AE36" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AF36" s="0" t="n">
         <v>20000</v>
@@ -3373,7 +3376,7 @@
       <c r="AC37" s="28"/>
       <c r="AD37" s="28"/>
       <c r="AE37" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AF37" s="0" t="n">
         <v>20000</v>
@@ -3387,7 +3390,7 @@
         <v>45</v>
       </c>
       <c r="C38" s="26" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D38" s="26">
         <f>COUNTA(F38:AD38)</f>
@@ -3421,7 +3424,7 @@
       <c r="AC38" s="28"/>
       <c r="AD38" s="28"/>
       <c r="AE38" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF38" s="0" t="n">
         <v>10000</v>
@@ -3435,7 +3438,7 @@
         <v>46</v>
       </c>
       <c r="C39" s="26" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D39" s="26">
         <f>COUNTA(F39:AD39)</f>
@@ -3469,7 +3472,7 @@
       <c r="AC39" s="28"/>
       <c r="AD39" s="28"/>
       <c r="AE39" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AF39" s="0" t="n">
         <v>10000</v>
@@ -3517,55 +3520,55 @@
       <c r="AC40" s="28"/>
       <c r="AD40" s="28"/>
       <c r="AE40" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AF40" s="0" t="n">
         <v>10000</v>
       </c>
     </row>
     <row r="41" spans="1:32" customHeight="1">
-      <c r="A41" s="30" t="n">
-        <v>6</v>
-      </c>
-      <c r="B41" s="29" t="s">
+      <c r="A41" s="26" t="n">
+        <v>5</v>
+      </c>
+      <c r="B41" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="30" t="n">
+      <c r="C41" s="26" t="n">
         <v>100</v>
       </c>
-      <c r="D41" s="30">
+      <c r="D41" s="26">
         <f>COUNTA(F41:AD41)</f>
       </c>
-      <c r="E41" s="30">
+      <c r="E41" s="26">
         <f>C41*D41</f>
       </c>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="29"/>
-      <c r="L41" s="29"/>
-      <c r="M41" s="29"/>
-      <c r="N41" s="29"/>
-      <c r="O41" s="29"/>
-      <c r="P41" s="29"/>
-      <c r="Q41" s="29"/>
-      <c r="R41" s="29"/>
-      <c r="S41" s="29"/>
-      <c r="T41" s="29"/>
-      <c r="U41" s="29"/>
-      <c r="V41" s="29"/>
-      <c r="W41" s="29"/>
-      <c r="X41" s="29"/>
-      <c r="Y41" s="29"/>
-      <c r="Z41" s="29"/>
-      <c r="AA41" s="29"/>
-      <c r="AB41" s="29"/>
-      <c r="AC41" s="29"/>
-      <c r="AD41" s="29"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="28"/>
+      <c r="N41" s="28"/>
+      <c r="O41" s="28"/>
+      <c r="P41" s="28"/>
+      <c r="Q41" s="28"/>
+      <c r="R41" s="28"/>
+      <c r="S41" s="28"/>
+      <c r="T41" s="28"/>
+      <c r="U41" s="28"/>
+      <c r="V41" s="28"/>
+      <c r="W41" s="28"/>
+      <c r="X41" s="28"/>
+      <c r="Y41" s="28"/>
+      <c r="Z41" s="28"/>
+      <c r="AA41" s="28"/>
+      <c r="AB41" s="28"/>
+      <c r="AC41" s="28"/>
+      <c r="AD41" s="28"/>
       <c r="AE41" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AF41" s="0" t="n">
         <v>10000</v>
@@ -3613,7 +3616,7 @@
       <c r="AC42" s="29"/>
       <c r="AD42" s="29"/>
       <c r="AE42" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AF42" s="0" t="n">
         <v>10000</v>
@@ -3627,7 +3630,7 @@
         <v>50</v>
       </c>
       <c r="C43" s="30" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D43" s="30">
         <f>COUNTA(F43:AD43)</f>
@@ -3661,7 +3664,7 @@
       <c r="AC43" s="29"/>
       <c r="AD43" s="29"/>
       <c r="AE43" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF43" s="0" t="n">
         <v>10000</v>
@@ -3675,7 +3678,7 @@
         <v>51</v>
       </c>
       <c r="C44" s="30" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D44" s="30">
         <f>COUNTA(F44:AD44)</f>
@@ -3709,15 +3712,55 @@
       <c r="AC44" s="29"/>
       <c r="AD44" s="29"/>
       <c r="AE44" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF44" s="0" t="n">
         <v>10000</v>
       </c>
     </row>
-    <row r="45" spans="31:32" customHeight="1">
+    <row r="45" spans="1:32" customHeight="1">
+      <c r="A45" s="30" t="n">
+        <v>6</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="30" t="n">
+        <v>80</v>
+      </c>
+      <c r="D45" s="30">
+        <f>COUNTA(F45:AD45)</f>
+      </c>
+      <c r="E45" s="30">
+        <f>C45*D45</f>
+      </c>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="29"/>
+      <c r="M45" s="29"/>
+      <c r="N45" s="29"/>
+      <c r="O45" s="29"/>
+      <c r="P45" s="29"/>
+      <c r="Q45" s="29"/>
+      <c r="R45" s="29"/>
+      <c r="S45" s="29"/>
+      <c r="T45" s="29"/>
+      <c r="U45" s="29"/>
+      <c r="V45" s="29"/>
+      <c r="W45" s="29"/>
+      <c r="X45" s="29"/>
+      <c r="Y45" s="29"/>
+      <c r="Z45" s="29"/>
+      <c r="AA45" s="29"/>
+      <c r="AB45" s="29"/>
+      <c r="AC45" s="29"/>
+      <c r="AD45" s="29"/>
       <c r="AE45" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF45" s="0" t="n">
         <v>10000</v>
@@ -3725,7 +3768,7 @@
     </row>
     <row r="46" spans="31:32" customHeight="1">
       <c r="AE46" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AF46" s="0" t="n">
         <v>20000</v>
@@ -3733,7 +3776,7 @@
     </row>
     <row r="47" spans="31:32" customHeight="1">
       <c r="AE47" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AF47" s="0" t="n">
         <v>10000</v>
@@ -3741,7 +3784,7 @@
     </row>
     <row r="48" spans="31:32" customHeight="1">
       <c r="AE48" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF48" s="0" t="n">
         <v>20000</v>
@@ -3749,7 +3792,7 @@
     </row>
     <row r="49" spans="31:32" customHeight="1">
       <c r="AE49" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF49" s="0" t="n">
         <v>20000</v>
@@ -3757,7 +3800,7 @@
     </row>
     <row r="50" spans="31:32" customHeight="1">
       <c r="AE50" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF50" s="0" t="n">
         <v>10000</v>
@@ -3765,7 +3808,7 @@
     </row>
     <row r="51" spans="31:32" customHeight="1">
       <c r="AE51" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AF51" s="0" t="n">
         <v>10000</v>
@@ -3773,7 +3816,7 @@
     </row>
     <row r="52" spans="31:32" customHeight="1">
       <c r="AE52" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AF52" s="0" t="n">
         <v>10000</v>
@@ -3781,7 +3824,7 @@
     </row>
     <row r="53" spans="31:32" customHeight="1">
       <c r="AE53" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF53" s="0" t="n">
         <v>20000</v>
@@ -3789,7 +3832,7 @@
     </row>
     <row r="54" spans="31:32" customHeight="1">
       <c r="AE54" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AF54" s="0" t="n">
         <v>10000</v>
@@ -3797,7 +3840,7 @@
     </row>
     <row r="55" spans="31:32" customHeight="1">
       <c r="AE55" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AF55" s="0" t="n">
         <v>10000</v>
@@ -3805,7 +3848,7 @@
     </row>
     <row r="56" spans="31:32" customHeight="1">
       <c r="AE56" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AF56" s="0" t="n">
         <v>20000</v>
@@ -3813,7 +3856,7 @@
     </row>
     <row r="57" spans="31:32" customHeight="1">
       <c r="AE57" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AF57" s="0" t="n">
         <v>10000</v>
@@ -3821,7 +3864,7 @@
     </row>
     <row r="58" spans="31:32" customHeight="1">
       <c r="AE58" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF58" s="0" t="n">
         <v>10000</v>
@@ -3829,7 +3872,7 @@
     </row>
     <row r="59" spans="31:32" customHeight="1">
       <c r="AE59" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AF59" s="0" t="n">
         <v>10000</v>
@@ -3837,7 +3880,7 @@
     </row>
     <row r="60" spans="31:32" customHeight="1">
       <c r="AE60" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF60" s="0" t="n">
         <v>10000</v>
@@ -3845,7 +3888,7 @@
     </row>
     <row r="61" spans="31:32" customHeight="1">
       <c r="AE61" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF61" s="0" t="n">
         <v>10000</v>
@@ -3853,7 +3896,7 @@
     </row>
     <row r="62" spans="31:32" customHeight="1">
       <c r="AE62" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF62" s="0" t="n">
         <v>10000</v>
@@ -3861,7 +3904,7 @@
     </row>
     <row r="63" spans="31:32" customHeight="1">
       <c r="AE63" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AF63" s="0" t="n">
         <v>10000</v>
@@ -3869,7 +3912,7 @@
     </row>
     <row r="64" spans="31:32" customHeight="1">
       <c r="AE64" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AF64" s="0" t="n">
         <v>10000</v>
@@ -3877,7 +3920,7 @@
     </row>
     <row r="65" spans="31:32" customHeight="1">
       <c r="AE65" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AF65" s="0" t="n">
         <v>10000</v>
@@ -3885,7 +3928,7 @@
     </row>
     <row r="66" spans="31:32" customHeight="1">
       <c r="AE66" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AF66" s="0" t="n">
         <v>10000</v>
@@ -3893,7 +3936,7 @@
     </row>
     <row r="67" spans="31:32" customHeight="1">
       <c r="AE67" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AF67" s="0" t="n">
         <v>10000</v>
@@ -3901,7 +3944,7 @@
     </row>
     <row r="68" spans="31:32" customHeight="1">
       <c r="AE68" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AF68" s="0" t="n">
         <v>20000</v>
@@ -3909,7 +3952,7 @@
     </row>
     <row r="69" spans="31:32" customHeight="1">
       <c r="AE69" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AF69" s="0" t="n">
         <v>20000</v>
@@ -3917,7 +3960,7 @@
     </row>
     <row r="70" spans="31:32" customHeight="1">
       <c r="AE70" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AF70" s="0" t="n">
         <v>10000</v>
@@ -3925,7 +3968,7 @@
     </row>
     <row r="71" spans="31:32" customHeight="1">
       <c r="AE71" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AF71" s="0" t="n">
         <v>10000</v>
@@ -3933,7 +3976,7 @@
     </row>
     <row r="72" spans="31:32" customHeight="1">
       <c r="AE72" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AF72" s="0" t="n">
         <v>10000</v>
@@ -3941,7 +3984,7 @@
     </row>
     <row r="73" spans="31:32" customHeight="1">
       <c r="AE73" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AF73" s="0" t="n">
         <v>10000</v>
@@ -3949,7 +3992,7 @@
     </row>
     <row r="74" spans="31:32" customHeight="1">
       <c r="AE74" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AF74" s="0" t="n">
         <v>10000</v>
@@ -3957,7 +4000,7 @@
     </row>
     <row r="75" spans="31:32" customHeight="1">
       <c r="AE75" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AF75" s="0" t="n">
         <v>10000</v>
@@ -3965,7 +4008,7 @@
     </row>
     <row r="76" spans="31:32" customHeight="1">
       <c r="AE76" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AF76" s="0" t="n">
         <v>10000</v>
@@ -3973,7 +4016,7 @@
     </row>
     <row r="77" spans="31:32" customHeight="1">
       <c r="AE77" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AF77" s="0" t="n">
         <v>10000</v>
@@ -3981,7 +4024,7 @@
     </row>
     <row r="78" spans="31:32" customHeight="1">
       <c r="AE78" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AF78" s="0" t="n">
         <v>10000</v>
@@ -3989,7 +4032,7 @@
     </row>
     <row r="79" spans="31:32" customHeight="1">
       <c r="AE79" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF79" s="0" t="n">
         <v>10000</v>
@@ -3997,7 +4040,7 @@
     </row>
     <row r="80" spans="31:32" customHeight="1">
       <c r="AE80" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AF80" s="0" t="n">
         <v>10000</v>
@@ -4005,7 +4048,7 @@
     </row>
     <row r="81" spans="31:32" customHeight="1">
       <c r="AE81" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AF81" s="0" t="n">
         <v>10000</v>
@@ -4013,7 +4056,7 @@
     </row>
     <row r="82" spans="31:32" customHeight="1">
       <c r="AE82" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF82" s="0" t="n">
         <v>20000</v>
@@ -4021,7 +4064,7 @@
     </row>
     <row r="83" spans="31:32" customHeight="1">
       <c r="AE83" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AF83" s="0" t="n">
         <v>10000</v>
@@ -4029,7 +4072,7 @@
     </row>
     <row r="84" spans="31:32" customHeight="1">
       <c r="AE84" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AF84" s="0" t="n">
         <v>10000</v>
@@ -4037,7 +4080,7 @@
     </row>
     <row r="85" spans="31:32" customHeight="1">
       <c r="AE85" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AF85" s="0" t="n">
         <v>10000</v>
@@ -4045,7 +4088,7 @@
     </row>
     <row r="86" spans="31:32" customHeight="1">
       <c r="AE86" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF86" s="0" t="n">
         <v>10000</v>
@@ -4053,7 +4096,7 @@
     </row>
     <row r="87" spans="31:32" customHeight="1">
       <c r="AE87" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF87" s="0" t="n">
         <v>10000</v>
@@ -4061,7 +4104,7 @@
     </row>
     <row r="88" spans="31:32" customHeight="1">
       <c r="AE88" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AF88" s="0" t="n">
         <v>10000</v>
@@ -4069,7 +4112,7 @@
     </row>
     <row r="89" spans="31:32" customHeight="1">
       <c r="AE89" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF89" s="0" t="n">
         <v>10000</v>
@@ -4077,7 +4120,7 @@
     </row>
     <row r="90" spans="31:32" customHeight="1">
       <c r="AE90" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AF90" s="0" t="n">
         <v>10000</v>
@@ -4085,7 +4128,7 @@
     </row>
     <row r="91" spans="31:32" customHeight="1">
       <c r="AE91" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AF91" s="0" t="n">
         <v>10000</v>
@@ -4093,7 +4136,7 @@
     </row>
     <row r="92" spans="31:32" customHeight="1">
       <c r="AE92" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF92" s="0" t="n">
         <v>10000</v>
@@ -4101,7 +4144,7 @@
     </row>
     <row r="93" spans="31:32" customHeight="1">
       <c r="AE93" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AF93" s="0" t="n">
         <v>10000</v>
@@ -4109,7 +4152,7 @@
     </row>
     <row r="94" spans="31:32" customHeight="1">
       <c r="AE94" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF94" s="0" t="n">
         <v>10000</v>
@@ -4117,7 +4160,7 @@
     </row>
     <row r="95" spans="31:32" customHeight="1">
       <c r="AE95" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF95" s="0" t="n">
         <v>10000</v>
@@ -4125,7 +4168,7 @@
     </row>
     <row r="96" spans="31:32" customHeight="1">
       <c r="AE96" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF96" s="0" t="n">
         <v>10000</v>
@@ -4133,7 +4176,7 @@
     </row>
     <row r="97" spans="31:32" customHeight="1">
       <c r="AE97" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF97" s="0" t="n">
         <v>10000</v>
@@ -4141,7 +4184,7 @@
     </row>
     <row r="98" spans="31:32" customHeight="1">
       <c r="AE98" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF98" s="0" t="n">
         <v>10000</v>
@@ -4149,7 +4192,7 @@
     </row>
     <row r="99" spans="31:32" customHeight="1">
       <c r="AE99" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AF99" s="0" t="n">
         <v>20000</v>
@@ -4157,7 +4200,7 @@
     </row>
     <row r="100" spans="31:32" customHeight="1">
       <c r="AE100" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF100" s="0" t="n">
         <v>10000</v>
@@ -4165,7 +4208,7 @@
     </row>
     <row r="101" spans="31:32" customHeight="1">
       <c r="AE101" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF101" s="0" t="n">
         <v>10000</v>
@@ -4173,7 +4216,7 @@
     </row>
     <row r="102" spans="31:32" customHeight="1">
       <c r="AE102" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AF102" s="0" t="n">
         <v>20000</v>
@@ -4181,7 +4224,7 @@
     </row>
     <row r="103" spans="31:32" customHeight="1">
       <c r="AE103" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AF103" s="0" t="n">
         <v>20000</v>
@@ -4189,7 +4232,7 @@
     </row>
     <row r="104" spans="31:32" customHeight="1">
       <c r="AE104" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF104" s="0" t="n">
         <v>10000</v>
@@ -4197,7 +4240,7 @@
     </row>
     <row r="105" spans="31:32" customHeight="1">
       <c r="AE105" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AF105" s="0" t="n">
         <v>20000</v>
@@ -4205,7 +4248,7 @@
     </row>
     <row r="106" spans="31:32" customHeight="1">
       <c r="AE106" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF106" s="0" t="n">
         <v>10000</v>
@@ -4213,7 +4256,7 @@
     </row>
     <row r="107" spans="31:32" customHeight="1">
       <c r="AE107" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AF107" s="0" t="n">
         <v>10000</v>
@@ -4221,7 +4264,7 @@
     </row>
     <row r="108" spans="31:32" customHeight="1">
       <c r="AE108" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AF108" s="0" t="n">
         <v>20000</v>
@@ -4229,7 +4272,7 @@
     </row>
     <row r="109" spans="31:32" customHeight="1">
       <c r="AE109" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF109" s="0" t="n">
         <v>10000</v>
@@ -4237,7 +4280,7 @@
     </row>
     <row r="110" spans="31:32" customHeight="1">
       <c r="AE110" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AF110" s="0" t="n">
         <v>10000</v>
@@ -4245,7 +4288,7 @@
     </row>
     <row r="111" spans="31:32" customHeight="1">
       <c r="AE111" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF111" s="0" t="n">
         <v>10000</v>
@@ -4253,7 +4296,7 @@
     </row>
     <row r="112" spans="31:32" customHeight="1">
       <c r="AE112" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF112" s="0" t="n">
         <v>10000</v>
@@ -4261,7 +4304,7 @@
     </row>
     <row r="113" spans="31:32" customHeight="1">
       <c r="AE113" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF113" s="0" t="n">
         <v>10000</v>
@@ -4269,7 +4312,7 @@
     </row>
     <row r="114" spans="31:32" customHeight="1">
       <c r="AE114" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AF114" s="0" t="n">
         <v>10000</v>
@@ -4277,7 +4320,7 @@
     </row>
     <row r="115" spans="31:32" customHeight="1">
       <c r="AE115" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF115" s="0" t="n">
         <v>10000</v>
@@ -4285,7 +4328,7 @@
     </row>
     <row r="116" spans="31:32" customHeight="1">
       <c r="AE116" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF116" s="0" t="n">
         <v>20000</v>
@@ -4293,7 +4336,7 @@
     </row>
     <row r="117" spans="31:32" customHeight="1">
       <c r="AE117" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF117" s="0" t="n">
         <v>10000</v>
@@ -4301,7 +4344,7 @@
     </row>
     <row r="118" spans="31:32" customHeight="1">
       <c r="AE118" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF118" s="0" t="n">
         <v>10000</v>
@@ -4309,7 +4352,7 @@
     </row>
     <row r="119" spans="31:32" customHeight="1">
       <c r="AE119" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AF119" s="0" t="n">
         <v>10000</v>
@@ -4317,7 +4360,7 @@
     </row>
     <row r="120" spans="31:32" customHeight="1">
       <c r="AE120" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF120" s="0" t="n">
         <v>10000</v>
@@ -4325,7 +4368,7 @@
     </row>
     <row r="121" spans="31:32" customHeight="1">
       <c r="AE121" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF121" s="0" t="n">
         <v>20000</v>
@@ -4333,7 +4376,7 @@
     </row>
     <row r="122" spans="31:32" customHeight="1">
       <c r="AE122" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AF122" s="0" t="n">
         <v>10000</v>
@@ -4341,7 +4384,7 @@
     </row>
     <row r="123" spans="31:32" customHeight="1">
       <c r="AE123" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF123" s="0" t="n">
         <v>10000</v>
@@ -4349,7 +4392,7 @@
     </row>
     <row r="124" spans="31:32" customHeight="1">
       <c r="AE124" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF124" s="0" t="n">
         <v>10000</v>
@@ -4357,7 +4400,7 @@
     </row>
     <row r="125" spans="31:32" customHeight="1">
       <c r="AE125" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AF125" s="0" t="n">
         <v>10000</v>
@@ -4365,7 +4408,7 @@
     </row>
     <row r="126" spans="31:32" customHeight="1">
       <c r="AE126" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AF126" s="0" t="n">
         <v>10000</v>
@@ -4373,7 +4416,7 @@
     </row>
     <row r="127" spans="31:32" customHeight="1">
       <c r="AE127" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AF127" s="0" t="n">
         <v>10000</v>
@@ -4381,7 +4424,7 @@
     </row>
     <row r="128" spans="31:32" customHeight="1">
       <c r="AE128" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF128" s="0" t="n">
         <v>20000</v>
@@ -4389,7 +4432,7 @@
     </row>
     <row r="129" spans="31:32" customHeight="1">
       <c r="AE129" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AF129" s="0" t="n">
         <v>20000</v>
@@ -4397,7 +4440,7 @@
     </row>
     <row r="130" spans="31:32" customHeight="1">
       <c r="AE130" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF130" s="0" t="n">
         <v>10000</v>
@@ -4405,7 +4448,7 @@
     </row>
     <row r="131" spans="31:32" customHeight="1">
       <c r="AE131" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF131" s="0" t="n">
         <v>10000</v>
@@ -4413,7 +4456,7 @@
     </row>
     <row r="132" spans="31:32" customHeight="1">
       <c r="AE132" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF132" s="0" t="n">
         <v>10000</v>
@@ -4421,7 +4464,7 @@
     </row>
     <row r="133" spans="31:32" customHeight="1">
       <c r="AE133" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AF133" s="0" t="n">
         <v>20000</v>
@@ -4429,7 +4472,7 @@
     </row>
     <row r="134" spans="31:32" customHeight="1">
       <c r="AE134" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF134" s="0" t="n">
         <v>10000</v>
@@ -4437,7 +4480,7 @@
     </row>
     <row r="135" spans="31:32" customHeight="1">
       <c r="AE135" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF135" s="0" t="n">
         <v>10000</v>
@@ -4445,7 +4488,7 @@
     </row>
     <row r="136" spans="31:32" customHeight="1">
       <c r="AE136" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AF136" s="0" t="n">
         <v>10000</v>
@@ -4453,7 +4496,7 @@
     </row>
     <row r="137" spans="31:32" customHeight="1">
       <c r="AE137" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF137" s="0" t="n">
         <v>10000</v>
@@ -4461,7 +4504,7 @@
     </row>
     <row r="138" spans="31:32" customHeight="1">
       <c r="AE138" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF138" s="0" t="n">
         <v>10000</v>
@@ -4469,7 +4512,7 @@
     </row>
     <row r="139" spans="31:32" customHeight="1">
       <c r="AE139" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF139" s="0" t="n">
         <v>10000</v>
@@ -4477,7 +4520,7 @@
     </row>
     <row r="140" spans="31:32" customHeight="1">
       <c r="AE140" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AF140" s="0" t="n">
         <v>10000</v>
@@ -4485,7 +4528,7 @@
     </row>
     <row r="141" spans="31:32" customHeight="1">
       <c r="AE141" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AF141" s="0" t="n">
         <v>10000</v>
@@ -4493,7 +4536,7 @@
     </row>
     <row r="142" spans="31:32" customHeight="1">
       <c r="AE142" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF142" s="0" t="n">
         <v>10000</v>
@@ -4501,7 +4544,7 @@
     </row>
     <row r="143" spans="31:32" customHeight="1">
       <c r="AE143" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AF143" s="0" t="n">
         <v>10000</v>
@@ -4509,7 +4552,7 @@
     </row>
     <row r="144" spans="31:32" customHeight="1">
       <c r="AE144" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AF144" s="0" t="n">
         <v>10000</v>
@@ -4517,7 +4560,7 @@
     </row>
     <row r="145" spans="31:32" customHeight="1">
       <c r="AE145" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF145" s="0" t="n">
         <v>20000</v>
@@ -4525,7 +4568,7 @@
     </row>
     <row r="146" spans="31:32" customHeight="1">
       <c r="AE146" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AF146" s="0" t="n">
         <v>10000</v>
@@ -4533,7 +4576,7 @@
     </row>
     <row r="147" spans="31:32" customHeight="1">
       <c r="AE147" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AF147" s="0" t="n">
         <v>10000</v>
@@ -4541,7 +4584,7 @@
     </row>
     <row r="148" spans="31:32" customHeight="1">
       <c r="AE148" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF148" s="0" t="n">
         <v>10000</v>
@@ -4549,7 +4592,7 @@
     </row>
     <row r="149" spans="31:32" customHeight="1">
       <c r="AE149" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF149" s="0" t="n">
         <v>10000</v>
@@ -4557,7 +4600,7 @@
     </row>
     <row r="150" spans="31:32" customHeight="1">
       <c r="AE150" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AF150" s="0" t="n">
         <v>10000</v>
@@ -4565,7 +4608,7 @@
     </row>
     <row r="151" spans="31:32" customHeight="1">
       <c r="AE151" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AF151" s="0" t="n">
         <v>10000</v>
@@ -4573,7 +4616,7 @@
     </row>
     <row r="152" spans="31:32" customHeight="1">
       <c r="AE152" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AF152" s="0" t="n">
         <v>10000</v>
@@ -4581,7 +4624,7 @@
     </row>
     <row r="153" spans="31:32" customHeight="1">
       <c r="AE153" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AF153" s="0" t="n">
         <v>10000</v>
@@ -4589,7 +4632,7 @@
     </row>
     <row r="154" spans="31:32" customHeight="1">
       <c r="AE154" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF154" s="0" t="n">
         <v>10000</v>
@@ -4597,7 +4640,7 @@
     </row>
     <row r="155" spans="31:32" customHeight="1">
       <c r="AE155" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF155" s="0" t="n">
         <v>10000</v>
@@ -4605,7 +4648,7 @@
     </row>
     <row r="156" spans="31:32" customHeight="1">
       <c r="AE156" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF156" s="0" t="n">
         <v>10000</v>
@@ -4613,7 +4656,7 @@
     </row>
     <row r="157" spans="31:32" customHeight="1">
       <c r="AE157" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF157" s="0" t="n">
         <v>10000</v>
@@ -4621,7 +4664,7 @@
     </row>
     <row r="158" spans="31:32" customHeight="1">
       <c r="AE158" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AF158" s="0" t="n">
         <v>20000</v>
@@ -4629,7 +4672,7 @@
     </row>
     <row r="159" spans="31:32" customHeight="1">
       <c r="AE159" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF159" s="0" t="n">
         <v>10000</v>
@@ -4637,7 +4680,7 @@
     </row>
     <row r="160" spans="31:32" customHeight="1">
       <c r="AE160" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF160" s="0" t="n">
         <v>10000</v>
@@ -4645,7 +4688,7 @@
     </row>
     <row r="161" spans="31:32" customHeight="1">
       <c r="AE161" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF161" s="0" t="n">
         <v>10000</v>
@@ -4653,7 +4696,7 @@
     </row>
     <row r="162" spans="31:32" customHeight="1">
       <c r="AE162" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AF162" s="0" t="n">
         <v>10000</v>
@@ -4661,7 +4704,7 @@
     </row>
     <row r="163" spans="31:32" customHeight="1">
       <c r="AE163" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF163" s="0" t="n">
         <v>20000</v>
@@ -4669,7 +4712,7 @@
     </row>
     <row r="164" spans="31:32" customHeight="1">
       <c r="AE164" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF164" s="0" t="n">
         <v>10000</v>
@@ -4677,7 +4720,7 @@
     </row>
     <row r="165" spans="31:32" customHeight="1">
       <c r="AE165" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF165" s="0" t="n">
         <v>10000</v>
@@ -4685,7 +4728,7 @@
     </row>
     <row r="166" spans="31:32" customHeight="1">
       <c r="AE166" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AF166" s="0" t="n">
         <v>10000</v>
@@ -4693,7 +4736,7 @@
     </row>
     <row r="167" spans="31:32" customHeight="1">
       <c r="AE167" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF167" s="0" t="n">
         <v>10000</v>
@@ -4701,7 +4744,7 @@
     </row>
     <row r="168" spans="31:32" customHeight="1">
       <c r="AE168" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF168" s="0" t="n">
         <v>10000</v>
@@ -4709,7 +4752,7 @@
     </row>
     <row r="169" spans="31:32" customHeight="1">
       <c r="AE169" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AF169" s="0" t="n">
         <v>10000</v>
@@ -4717,7 +4760,7 @@
     </row>
     <row r="170" spans="31:32" customHeight="1">
       <c r="AE170" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AF170" s="0" t="n">
         <v>20000</v>
@@ -4725,7 +4768,7 @@
     </row>
     <row r="171" spans="31:32" customHeight="1">
       <c r="AE171" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF171" s="0" t="n">
         <v>10000</v>
@@ -4733,7 +4776,7 @@
     </row>
     <row r="172" spans="31:32" customHeight="1">
       <c r="AE172" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF172" s="0" t="n">
         <v>10000</v>
@@ -4741,7 +4784,7 @@
     </row>
     <row r="173" spans="31:32" customHeight="1">
       <c r="AE173" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF173" s="0" t="n">
         <v>10000</v>
@@ -4749,7 +4792,7 @@
     </row>
     <row r="174" spans="31:32" customHeight="1">
       <c r="AE174" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF174" s="0" t="n">
         <v>10000</v>
@@ -4757,7 +4800,7 @@
     </row>
     <row r="175" spans="31:32" customHeight="1">
       <c r="AE175" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF175" s="0" t="n">
         <v>10000</v>
@@ -4765,7 +4808,7 @@
     </row>
     <row r="176" spans="31:32" customHeight="1">
       <c r="AE176" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF176" s="0" t="n">
         <v>10000</v>
@@ -4773,7 +4816,7 @@
     </row>
     <row r="177" spans="31:32" customHeight="1">
       <c r="AE177" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF177" s="0" t="n">
         <v>25000</v>
@@ -4781,7 +4824,7 @@
     </row>
     <row r="178" spans="31:32" customHeight="1">
       <c r="AE178" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF178" s="0" t="n">
         <v>10000</v>
@@ -4789,7 +4832,7 @@
     </row>
     <row r="179" spans="31:32" customHeight="1">
       <c r="AE179" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF179" s="0" t="n">
         <v>20000</v>
@@ -4797,7 +4840,7 @@
     </row>
     <row r="180" spans="31:32" customHeight="1">
       <c r="AE180" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF180" s="0" t="n">
         <v>10000</v>
@@ -4805,7 +4848,7 @@
     </row>
     <row r="181" spans="31:32" customHeight="1">
       <c r="AE181" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF181" s="0" t="n">
         <v>20000</v>
@@ -4813,7 +4856,7 @@
     </row>
     <row r="182" spans="31:32" customHeight="1">
       <c r="AE182" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF182" s="0" t="n">
         <v>20000</v>
@@ -4821,7 +4864,7 @@
     </row>
     <row r="183" spans="31:32" customHeight="1">
       <c r="AE183" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF183" s="0" t="n">
         <v>20000</v>
@@ -4829,7 +4872,7 @@
     </row>
     <row r="184" spans="31:32" customHeight="1">
       <c r="AE184" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF184" s="0" t="n">
         <v>20000</v>
@@ -4837,7 +4880,7 @@
     </row>
     <row r="185" spans="31:32" customHeight="1">
       <c r="AE185" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AF185" s="0" t="n">
         <v>10000</v>
@@ -4845,7 +4888,7 @@
     </row>
     <row r="186" spans="31:32" customHeight="1">
       <c r="AE186" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF186" s="0" t="n">
         <v>10000</v>
@@ -4853,7 +4896,7 @@
     </row>
     <row r="187" spans="31:32" customHeight="1">
       <c r="AE187" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF187" s="0" t="n">
         <v>10000</v>
@@ -4861,7 +4904,7 @@
     </row>
     <row r="188" spans="31:32" customHeight="1">
       <c r="AE188" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF188" s="0" t="n">
         <v>20000</v>
@@ -4869,7 +4912,7 @@
     </row>
     <row r="189" spans="31:32" customHeight="1">
       <c r="AE189" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF189" s="0" t="n">
         <v>10000</v>
@@ -4877,7 +4920,7 @@
     </row>
     <row r="190" spans="31:32" customHeight="1">
       <c r="AE190" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AF190" s="0" t="n">
         <v>10000</v>
@@ -4885,7 +4928,7 @@
     </row>
     <row r="191" spans="31:32" customHeight="1">
       <c r="AE191" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AF191" s="0" t="n">
         <v>20000</v>
@@ -4893,7 +4936,7 @@
     </row>
     <row r="192" spans="31:32" customHeight="1">
       <c r="AE192" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AF192" s="0" t="n">
         <v>20000</v>
@@ -4901,7 +4944,7 @@
     </row>
     <row r="193" spans="31:32" customHeight="1">
       <c r="AE193" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AF193" s="0" t="n">
         <v>10000</v>
@@ -4909,7 +4952,7 @@
     </row>
     <row r="194" spans="31:32" customHeight="1">
       <c r="AE194" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF194" s="0" t="n">
         <v>10000</v>
@@ -4917,7 +4960,7 @@
     </row>
     <row r="195" spans="31:32" customHeight="1">
       <c r="AE195" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF195" s="0" t="n">
         <v>10000</v>
@@ -4925,7 +4968,7 @@
     </row>
     <row r="196" spans="31:32" customHeight="1">
       <c r="AE196" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AF196" s="0" t="n">
         <v>10000</v>
@@ -4933,7 +4976,7 @@
     </row>
     <row r="197" spans="31:32" customHeight="1">
       <c r="AE197" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF197" s="0" t="n">
         <v>20000</v>
@@ -4941,7 +4984,7 @@
     </row>
     <row r="198" spans="31:32" customHeight="1">
       <c r="AE198" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AF198" s="0" t="n">
         <v>20000</v>
@@ -4949,7 +4992,7 @@
     </row>
     <row r="199" spans="31:32" customHeight="1">
       <c r="AE199" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AF199" s="0" t="n">
         <v>10000</v>
@@ -4957,7 +5000,7 @@
     </row>
     <row r="200" spans="31:32" customHeight="1">
       <c r="AE200" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF200" s="0" t="n">
         <v>10000</v>
@@ -4965,7 +5008,7 @@
     </row>
     <row r="201" spans="31:32" customHeight="1">
       <c r="AE201" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AF201" s="0" t="n">
         <v>10000</v>
@@ -4973,7 +5016,7 @@
     </row>
     <row r="202" spans="31:32" customHeight="1">
       <c r="AE202" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF202" s="0" t="n">
         <v>20000</v>
@@ -4981,7 +5024,7 @@
     </row>
     <row r="203" spans="31:32" customHeight="1">
       <c r="AE203" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF203" s="0" t="n">
         <v>10000</v>
@@ -4989,7 +5032,7 @@
     </row>
     <row r="204" spans="31:32" customHeight="1">
       <c r="AE204" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AF204" s="0" t="n">
         <v>10000</v>
@@ -4997,7 +5040,7 @@
     </row>
     <row r="205" spans="31:32" customHeight="1">
       <c r="AE205" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AF205" s="0" t="n">
         <v>20000</v>
@@ -5005,7 +5048,7 @@
     </row>
     <row r="206" spans="31:32" customHeight="1">
       <c r="AE206" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AF206" s="0" t="n">
         <v>10000</v>
@@ -5013,7 +5056,7 @@
     </row>
     <row r="207" spans="31:32" customHeight="1">
       <c r="AE207" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AF207" s="0" t="n">
         <v>10000</v>
@@ -5021,7 +5064,7 @@
     </row>
     <row r="208" spans="31:32" customHeight="1">
       <c r="AE208" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AF208" s="0" t="n">
         <v>10000</v>
@@ -5029,7 +5072,7 @@
     </row>
     <row r="209" spans="31:32" customHeight="1">
       <c r="AE209" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF209" s="0" t="n">
         <v>20000</v>
@@ -5037,7 +5080,7 @@
     </row>
     <row r="210" spans="31:32" customHeight="1">
       <c r="AE210" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF210" s="0" t="n">
         <v>10000</v>
@@ -5045,7 +5088,7 @@
     </row>
     <row r="211" spans="31:32" customHeight="1">
       <c r="AE211" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF211" s="0" t="n">
         <v>20000</v>
@@ -5053,7 +5096,7 @@
     </row>
     <row r="212" spans="31:32" customHeight="1">
       <c r="AE212" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AF212" s="0" t="n">
         <v>10000</v>
@@ -5061,7 +5104,7 @@
     </row>
     <row r="213" spans="31:32" customHeight="1">
       <c r="AE213" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AF213" s="0" t="n">
         <v>10000</v>
@@ -5069,7 +5112,7 @@
     </row>
     <row r="214" spans="31:32" customHeight="1">
       <c r="AE214" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AF214" s="0" t="n">
         <v>10000</v>
@@ -5077,7 +5120,7 @@
     </row>
     <row r="215" spans="31:32" customHeight="1">
       <c r="AE215" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AF215" s="0" t="n">
         <v>20000</v>
@@ -5085,7 +5128,7 @@
     </row>
     <row r="216" spans="31:32" customHeight="1">
       <c r="AE216" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AF216" s="0" t="n">
         <v>10000</v>
@@ -5093,7 +5136,7 @@
     </row>
     <row r="217" spans="31:32" customHeight="1">
       <c r="AE217" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AF217" s="0" t="n">
         <v>10000</v>
@@ -5101,7 +5144,7 @@
     </row>
     <row r="218" spans="31:32" customHeight="1">
       <c r="AE218" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF218" s="0" t="n">
         <v>10000</v>
@@ -5109,7 +5152,7 @@
     </row>
     <row r="219" spans="31:32" customHeight="1">
       <c r="AE219" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF219" s="0" t="n">
         <v>10000</v>
@@ -5117,7 +5160,7 @@
     </row>
     <row r="220" spans="31:32" customHeight="1">
       <c r="AE220" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AF220" s="0" t="n">
         <v>20000</v>
@@ -5125,7 +5168,7 @@
     </row>
     <row r="221" spans="31:32" customHeight="1">
       <c r="AE221" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AF221" s="0" t="n">
         <v>10000</v>
@@ -5133,7 +5176,7 @@
     </row>
     <row r="222" spans="31:32" customHeight="1">
       <c r="AE222" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AF222" s="0" t="n">
         <v>10000</v>
@@ -5141,7 +5184,7 @@
     </row>
     <row r="223" spans="31:32" customHeight="1">
       <c r="AE223" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AF223" s="0" t="n">
         <v>10000</v>
@@ -5149,7 +5192,7 @@
     </row>
     <row r="224" spans="31:32" customHeight="1">
       <c r="AE224" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF224" s="0" t="n">
         <v>10000</v>
@@ -5157,7 +5200,7 @@
     </row>
     <row r="225" spans="31:32" customHeight="1">
       <c r="AE225" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AF225" s="0" t="n">
         <v>10000</v>
@@ -5165,7 +5208,7 @@
     </row>
     <row r="226" spans="31:32" customHeight="1">
       <c r="AE226" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF226" s="0" t="n">
         <v>10000</v>
@@ -5173,7 +5216,7 @@
     </row>
     <row r="227" spans="31:32" customHeight="1">
       <c r="AE227" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AF227" s="0" t="n">
         <v>10000</v>
@@ -5181,7 +5224,7 @@
     </row>
     <row r="228" spans="31:32" customHeight="1">
       <c r="AE228" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF228" s="0" t="n">
         <v>10000</v>
@@ -5189,7 +5232,7 @@
     </row>
     <row r="229" spans="31:32" customHeight="1">
       <c r="AE229" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF229" s="0" t="n">
         <v>20000</v>
@@ -5197,7 +5240,7 @@
     </row>
     <row r="230" spans="31:32" customHeight="1">
       <c r="AE230" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AF230" s="0" t="n">
         <v>20000</v>
@@ -5205,7 +5248,7 @@
     </row>
     <row r="231" spans="31:32" customHeight="1">
       <c r="AE231" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF231" s="0" t="n">
         <v>10000</v>
@@ -5213,7 +5256,7 @@
     </row>
     <row r="232" spans="31:32" customHeight="1">
       <c r="AE232" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF232" s="0" t="n">
         <v>10000</v>
@@ -5221,7 +5264,7 @@
     </row>
     <row r="233" spans="31:32" customHeight="1">
       <c r="AE233" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AF233" s="0" t="n">
         <v>10000</v>
@@ -5229,7 +5272,7 @@
     </row>
     <row r="234" spans="31:32" customHeight="1">
       <c r="AE234" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AF234" s="0" t="n">
         <v>10000</v>
@@ -5237,7 +5280,7 @@
     </row>
     <row r="235" spans="31:32" customHeight="1">
       <c r="AE235" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AF235" s="0" t="n">
         <v>10000</v>
@@ -5245,7 +5288,7 @@
     </row>
     <row r="236" spans="31:32" customHeight="1">
       <c r="AE236" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AF236" s="0" t="n">
         <v>10000</v>
@@ -5253,7 +5296,7 @@
     </row>
     <row r="237" spans="31:32" customHeight="1">
       <c r="AE237" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AF237" s="0" t="n">
         <v>10000</v>
@@ -5261,7 +5304,7 @@
     </row>
     <row r="238" spans="31:32" customHeight="1">
       <c r="AE238" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AF238" s="0" t="n">
         <v>10000</v>
@@ -5269,7 +5312,7 @@
     </row>
     <row r="239" spans="31:32" customHeight="1">
       <c r="AE239" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AF239" s="0" t="n">
         <v>20000</v>
@@ -5277,7 +5320,7 @@
     </row>
     <row r="240" spans="31:32" customHeight="1">
       <c r="AE240" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AF240" s="0" t="n">
         <v>10000</v>
@@ -5285,7 +5328,7 @@
     </row>
     <row r="241" spans="31:32" customHeight="1">
       <c r="AE241" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF241" s="0" t="n">
         <v>10000</v>
@@ -5293,7 +5336,7 @@
     </row>
     <row r="242" spans="31:32" customHeight="1">
       <c r="AE242" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AF242" s="0" t="n">
         <v>10000</v>
@@ -5301,7 +5344,7 @@
     </row>
     <row r="243" spans="31:32" customHeight="1">
       <c r="AE243" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AF243" s="0" t="n">
         <v>20000</v>
@@ -5309,7 +5352,7 @@
     </row>
     <row r="244" spans="31:32" customHeight="1">
       <c r="AE244" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AF244" s="0" t="n">
         <v>10000</v>
@@ -5317,7 +5360,7 @@
     </row>
     <row r="245" spans="31:32" customHeight="1">
       <c r="AE245" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AF245" s="0" t="n">
         <v>10000</v>
@@ -5325,7 +5368,7 @@
     </row>
     <row r="246" spans="31:32" customHeight="1">
       <c r="AE246" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AF246" s="0" t="n">
         <v>25000</v>
@@ -5333,7 +5376,7 @@
     </row>
     <row r="247" spans="31:32" customHeight="1">
       <c r="AE247" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AF247" s="0" t="n">
         <v>10000</v>
@@ -5341,7 +5384,7 @@
     </row>
     <row r="248" spans="31:32" customHeight="1">
       <c r="AE248" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AF248" s="0" t="n">
         <v>10000</v>
@@ -5349,7 +5392,7 @@
     </row>
     <row r="249" spans="31:32" customHeight="1">
       <c r="AE249" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AF249" s="0" t="n">
         <v>10000</v>
@@ -5357,7 +5400,7 @@
     </row>
     <row r="250" spans="31:32" customHeight="1">
       <c r="AE250" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AF250" s="0" t="n">
         <v>10000</v>
@@ -5365,7 +5408,7 @@
     </row>
     <row r="251" spans="31:32" customHeight="1">
       <c r="AE251" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AF251" s="0" t="n">
         <v>10000</v>
@@ -5373,7 +5416,7 @@
     </row>
     <row r="252" spans="31:32" customHeight="1">
       <c r="AE252" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AF252" s="0" t="n">
         <v>10000</v>
@@ -5381,7 +5424,7 @@
     </row>
     <row r="253" spans="31:32" customHeight="1">
       <c r="AE253" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AF253" s="0" t="n">
         <v>10000</v>
@@ -5389,7 +5432,7 @@
     </row>
     <row r="254" spans="31:32" customHeight="1">
       <c r="AE254" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AF254" s="0" t="n">
         <v>10000</v>
@@ -5397,7 +5440,7 @@
     </row>
     <row r="255" spans="31:32" customHeight="1">
       <c r="AE255" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AF255" s="0" t="n">
         <v>10000</v>
@@ -5405,7 +5448,7 @@
     </row>
     <row r="256" spans="31:32" customHeight="1">
       <c r="AE256" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AF256" s="0" t="n">
         <v>10000</v>
@@ -5413,7 +5456,7 @@
     </row>
     <row r="257" spans="31:32" customHeight="1">
       <c r="AE257" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AF257" s="0" t="n">
         <v>10000</v>
@@ -5421,7 +5464,7 @@
     </row>
     <row r="258" spans="31:32" customHeight="1">
       <c r="AE258" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AF258" s="0" t="n">
         <v>20000</v>
@@ -5429,7 +5472,7 @@
     </row>
     <row r="259" spans="31:32" customHeight="1">
       <c r="AE259" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AF259" s="0" t="n">
         <v>10000</v>
@@ -5437,7 +5480,7 @@
     </row>
     <row r="260" spans="31:32" customHeight="1">
       <c r="AE260" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AF260" s="0" t="n">
         <v>10000</v>
@@ -5445,7 +5488,7 @@
     </row>
     <row r="261" spans="31:32" customHeight="1">
       <c r="AE261" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AF261" s="0" t="n">
         <v>10000</v>
@@ -5453,7 +5496,7 @@
     </row>
     <row r="262" spans="31:32" customHeight="1">
       <c r="AE262" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AF262" s="0" t="n">
         <v>25000</v>
@@ -5461,7 +5504,7 @@
     </row>
     <row r="263" spans="31:32" customHeight="1">
       <c r="AE263" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AF263" s="0" t="n">
         <v>25000</v>
@@ -5469,7 +5512,7 @@
     </row>
     <row r="264" spans="31:32" customHeight="1">
       <c r="AE264" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF264" s="0" t="n">
         <v>10000</v>
@@ -5477,7 +5520,7 @@
     </row>
     <row r="265" spans="31:32" customHeight="1">
       <c r="AE265" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF265" s="0" t="n">
         <v>20000</v>
@@ -5485,7 +5528,7 @@
     </row>
     <row r="266" spans="31:32" customHeight="1">
       <c r="AE266" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AF266" s="0" t="n">
         <v>10000</v>
@@ -5493,7 +5536,7 @@
     </row>
     <row r="267" spans="31:32" customHeight="1">
       <c r="AE267" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AF267" s="0" t="n">
         <v>20000</v>
@@ -5501,7 +5544,7 @@
     </row>
     <row r="268" spans="31:32" customHeight="1">
       <c r="AE268" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AF268" s="0" t="n">
         <v>20000</v>
@@ -5509,7 +5552,7 @@
     </row>
     <row r="269" spans="31:32" customHeight="1">
       <c r="AE269" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AF269" s="0" t="n">
         <v>10000</v>
@@ -5517,7 +5560,7 @@
     </row>
     <row r="270" spans="31:32" customHeight="1">
       <c r="AE270" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AF270" s="0" t="n">
         <v>10000</v>
@@ -5525,7 +5568,7 @@
     </row>
     <row r="271" spans="31:32" customHeight="1">
       <c r="AE271" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF271" s="0" t="n">
         <v>10000</v>
@@ -5533,7 +5576,7 @@
     </row>
     <row r="272" spans="31:32" customHeight="1">
       <c r="AE272" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AF272" s="0" t="n">
         <v>20000</v>
@@ -5541,7 +5584,7 @@
     </row>
     <row r="273" spans="31:32" customHeight="1">
       <c r="AE273" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF273" s="0" t="n">
         <v>10000</v>
@@ -5549,7 +5592,7 @@
     </row>
     <row r="274" spans="31:32" customHeight="1">
       <c r="AE274" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AF274" s="0" t="n">
         <v>20000</v>
@@ -5557,7 +5600,7 @@
     </row>
     <row r="275" spans="31:32" customHeight="1">
       <c r="AE275" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AF275" s="0" t="n">
         <v>20000</v>
@@ -5565,7 +5608,7 @@
     </row>
     <row r="276" spans="31:32" customHeight="1">
       <c r="AE276" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AF276" s="0" t="n">
         <v>10000</v>
@@ -5573,7 +5616,7 @@
     </row>
     <row r="277" spans="31:32" customHeight="1">
       <c r="AE277" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF277" s="0" t="n">
         <v>10000</v>
@@ -5581,7 +5624,7 @@
     </row>
     <row r="278" spans="31:32" customHeight="1">
       <c r="AE278" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF278" s="0" t="n">
         <v>10000</v>
@@ -5589,7 +5632,7 @@
     </row>
     <row r="279" spans="31:32" customHeight="1">
       <c r="AE279" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AF279" s="0" t="n">
         <v>10000</v>
@@ -5597,7 +5640,7 @@
     </row>
     <row r="280" spans="31:32" customHeight="1">
       <c r="AE280" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF280" s="0" t="n">
         <v>10000</v>
@@ -5605,7 +5648,7 @@
     </row>
     <row r="281" spans="31:32" customHeight="1">
       <c r="AE281" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AF281" s="0" t="n">
         <v>10000</v>
@@ -5613,7 +5656,7 @@
     </row>
     <row r="282" spans="31:32" customHeight="1">
       <c r="AE282" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AF282" s="0" t="n">
         <v>10000</v>
@@ -5621,7 +5664,7 @@
     </row>
     <row r="283" spans="31:32" customHeight="1">
       <c r="AE283" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AF283" s="0" t="n">
         <v>10000</v>
@@ -5629,7 +5672,7 @@
     </row>
     <row r="284" spans="31:32" customHeight="1">
       <c r="AE284" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AF284" s="0" t="n">
         <v>10000</v>
@@ -5637,7 +5680,7 @@
     </row>
     <row r="285" spans="31:32" customHeight="1">
       <c r="AE285" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AF285" s="0" t="n">
         <v>10000</v>
@@ -5645,7 +5688,7 @@
     </row>
     <row r="286" spans="31:32" customHeight="1">
       <c r="AE286" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AF286" s="0" t="n">
         <v>10000</v>
@@ -5653,7 +5696,7 @@
     </row>
     <row r="287" spans="31:32" customHeight="1">
       <c r="AE287" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AF287" s="0" t="n">
         <v>10000</v>
@@ -5661,7 +5704,7 @@
     </row>
     <row r="288" spans="31:32" customHeight="1">
       <c r="AE288" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AF288" s="0" t="n">
         <v>20000</v>
@@ -5669,7 +5712,7 @@
     </row>
     <row r="289" spans="31:32" customHeight="1">
       <c r="AE289" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AF289" s="0" t="n">
         <v>10000</v>
@@ -5677,7 +5720,7 @@
     </row>
     <row r="290" spans="31:32" customHeight="1">
       <c r="AE290" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AF290" s="0" t="n">
         <v>10000</v>
@@ -5685,7 +5728,7 @@
     </row>
     <row r="291" spans="31:32" customHeight="1">
       <c r="AE291" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AF291" s="0" t="n">
         <v>10000</v>
@@ -5693,7 +5736,7 @@
     </row>
     <row r="292" spans="31:32" customHeight="1">
       <c r="AE292" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AF292" s="0" t="n">
         <v>10000</v>
@@ -5701,7 +5744,7 @@
     </row>
     <row r="293" spans="31:32" customHeight="1">
       <c r="AE293" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AF293" s="0" t="n">
         <v>10000</v>
@@ -5709,7 +5752,7 @@
     </row>
     <row r="294" spans="31:32" customHeight="1">
       <c r="AE294" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AF294" s="0" t="n">
         <v>10000</v>
@@ -5717,7 +5760,7 @@
     </row>
     <row r="295" spans="31:32" customHeight="1">
       <c r="AE295" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AF295" s="0" t="n">
         <v>25000</v>
@@ -5725,7 +5768,7 @@
     </row>
     <row r="296" spans="31:32" customHeight="1">
       <c r="AE296" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AF296" s="0" t="n">
         <v>10000</v>
@@ -5733,7 +5776,7 @@
     </row>
     <row r="297" spans="31:32" customHeight="1">
       <c r="AE297" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AF297" s="0" t="n">
         <v>10000</v>
@@ -5741,7 +5784,7 @@
     </row>
     <row r="298" spans="31:32" customHeight="1">
       <c r="AE298" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AF298" s="0" t="n">
         <v>10000</v>
@@ -5749,7 +5792,7 @@
     </row>
     <row r="299" spans="31:32" customHeight="1">
       <c r="AE299" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AF299" s="0" t="n">
         <v>10000</v>
@@ -5757,7 +5800,7 @@
     </row>
     <row r="300" spans="31:32" customHeight="1">
       <c r="AE300" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AF300" s="0" t="n">
         <v>10000</v>
@@ -5765,7 +5808,7 @@
     </row>
     <row r="301" spans="31:32" customHeight="1">
       <c r="AE301" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AF301" s="0" t="n">
         <v>20000</v>
@@ -5773,7 +5816,7 @@
     </row>
     <row r="302" spans="31:32" customHeight="1">
       <c r="AE302" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AF302" s="0" t="n">
         <v>20000</v>
@@ -5781,7 +5824,7 @@
     </row>
     <row r="303" spans="31:32" customHeight="1">
       <c r="AE303" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AF303" s="0" t="n">
         <v>10000</v>
@@ -5789,7 +5832,7 @@
     </row>
     <row r="304" spans="31:32" customHeight="1">
       <c r="AE304" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AF304" s="0" t="n">
         <v>10000</v>
@@ -5797,7 +5840,7 @@
     </row>
     <row r="305" spans="31:32" customHeight="1">
       <c r="AE305" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AF305" s="0" t="n">
         <v>10000</v>
@@ -5908,7 +5951,7 @@
       <c r="AC1" s="6"/>
       <c r="AD1" s="6"/>
       <c r="AE1" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AF1" s="0" t="n">
         <v>1500</v>
@@ -5954,7 +5997,7 @@
       <c r="AC2" s="9"/>
       <c r="AD2" s="9"/>
       <c r="AE2" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AF2" s="0" t="n">
         <v>1500</v>
@@ -6004,7 +6047,7 @@
       <c r="AC3" s="16"/>
       <c r="AD3" s="16"/>
       <c r="AE3" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AF3" s="0" t="n">
         <v>1500</v>
@@ -6048,7 +6091,7 @@
       <c r="AC4" s="22"/>
       <c r="AD4" s="22"/>
       <c r="AE4" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AF4" s="0" t="n">
         <v>1500</v>
@@ -6059,7 +6102,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" s="26" t="n">
         <v>215</v>
@@ -6071,13 +6114,13 @@
         <f>C5*D5</f>
       </c>
       <c r="F5" s="28" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I5" s="28"/>
       <c r="J5" s="28"/>
@@ -6102,7 +6145,7 @@
       <c r="AC5" s="28"/>
       <c r="AD5" s="28"/>
       <c r="AE5" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AF5" s="0" t="n">
         <v>2500</v>
@@ -6113,7 +6156,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6" s="26" t="n">
         <v>130</v>
@@ -6125,13 +6168,13 @@
         <f>C6*D6</f>
       </c>
       <c r="F6" s="28" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G6" s="28" t="s">
+        <v>362</v>
+      </c>
+      <c r="H6" s="28" t="s">
         <v>361</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>360</v>
       </c>
       <c r="I6" s="28"/>
       <c r="J6" s="28"/>
@@ -6156,7 +6199,7 @@
       <c r="AC6" s="28"/>
       <c r="AD6" s="28"/>
       <c r="AE6" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AF6" s="0" t="n">
         <v>1500</v>
@@ -6167,7 +6210,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C7" s="26" t="n">
         <v>120</v>
@@ -6204,7 +6247,7 @@
       <c r="AC7" s="28"/>
       <c r="AD7" s="28"/>
       <c r="AE7" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AF7" s="0" t="n">
         <v>1500</v>
@@ -6215,7 +6258,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" s="26" t="n">
         <v>110</v>
@@ -6252,7 +6295,7 @@
       <c r="AC8" s="28"/>
       <c r="AD8" s="28"/>
       <c r="AE8" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AF8" s="0" t="n">
         <v>1500</v>
@@ -6263,7 +6306,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C9" s="26" t="n">
         <v>100</v>
@@ -6300,7 +6343,7 @@
       <c r="AC9" s="28"/>
       <c r="AD9" s="28"/>
       <c r="AE9" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AF9" s="0" t="n">
         <v>1500</v>
@@ -6311,7 +6354,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C10" s="30" t="n">
         <v>100</v>
@@ -6348,7 +6391,7 @@
       <c r="AC10" s="29"/>
       <c r="AD10" s="29"/>
       <c r="AE10" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AF10" s="0" t="n">
         <v>1500</v>
@@ -6359,7 +6402,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C11" s="30" t="n">
         <v>100</v>
@@ -6396,7 +6439,7 @@
       <c r="AC11" s="29"/>
       <c r="AD11" s="29"/>
       <c r="AE11" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AF11" s="0" t="n">
         <v>1500</v>
@@ -6407,7 +6450,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C12" s="30" t="n">
         <v>90</v>
@@ -6444,7 +6487,7 @@
       <c r="AC12" s="29"/>
       <c r="AD12" s="29"/>
       <c r="AE12" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AF12" s="0" t="n">
         <v>1500</v>
@@ -6455,7 +6498,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C13" s="30" t="n">
         <v>80</v>
@@ -6492,7 +6535,7 @@
       <c r="AC13" s="29"/>
       <c r="AD13" s="29"/>
       <c r="AE13" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AF13" s="0" t="n">
         <v>1500</v>
@@ -6503,7 +6546,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C14" s="30" t="n">
         <v>70</v>
@@ -6540,7 +6583,7 @@
       <c r="AC14" s="29"/>
       <c r="AD14" s="29"/>
       <c r="AE14" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AF14" s="0" t="n">
         <v>1500</v>
@@ -6551,7 +6594,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C15" s="30" t="n">
         <v>70</v>
@@ -6588,7 +6631,7 @@
       <c r="AC15" s="29"/>
       <c r="AD15" s="29"/>
       <c r="AE15" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AF15" s="0" t="n">
         <v>1500</v>
@@ -6599,7 +6642,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C16" s="30" t="n">
         <v>65</v>
@@ -6636,7 +6679,7 @@
       <c r="AC16" s="29"/>
       <c r="AD16" s="29"/>
       <c r="AE16" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AF16" s="0" t="n">
         <v>1500</v>
@@ -6647,7 +6690,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C17" s="30" t="n">
         <v>60</v>
@@ -6684,7 +6727,7 @@
       <c r="AC17" s="29"/>
       <c r="AD17" s="29"/>
       <c r="AE17" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AF17" s="0" t="n">
         <v>1500</v>
@@ -6695,7 +6738,7 @@
         <v>6</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C18" s="30" t="n">
         <v>60</v>
@@ -6732,7 +6775,7 @@
       <c r="AC18" s="29"/>
       <c r="AD18" s="29"/>
       <c r="AE18" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AF18" s="0" t="n">
         <v>1500</v>
@@ -6743,7 +6786,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C19" s="30" t="n">
         <v>45</v>
@@ -6780,7 +6823,7 @@
       <c r="AC19" s="29"/>
       <c r="AD19" s="29"/>
       <c r="AE19" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AF19" s="0" t="n">
         <v>1500</v>
@@ -6791,7 +6834,7 @@
         <v>7</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C20" s="26" t="n">
         <v>35</v>
@@ -6828,7 +6871,7 @@
       <c r="AC20" s="28"/>
       <c r="AD20" s="28"/>
       <c r="AE20" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AF20" s="0" t="n">
         <v>1500</v>
@@ -6839,7 +6882,7 @@
         <v>7</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C21" s="26" t="n">
         <v>30</v>
@@ -6876,7 +6919,7 @@
       <c r="AC21" s="28"/>
       <c r="AD21" s="28"/>
       <c r="AE21" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AF21" s="0" t="n">
         <v>1500</v>
@@ -6887,7 +6930,7 @@
         <v>7</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C22" s="26" t="n">
         <v>30</v>
@@ -6924,7 +6967,7 @@
       <c r="AC22" s="28"/>
       <c r="AD22" s="28"/>
       <c r="AE22" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AF22" s="0" t="n">
         <v>1500</v>
@@ -6935,7 +6978,7 @@
         <v>7</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C23" s="26" t="n">
         <v>30</v>
@@ -6972,7 +7015,7 @@
       <c r="AC23" s="28"/>
       <c r="AD23" s="28"/>
       <c r="AE23" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AF23" s="0" t="n">
         <v>1500</v>
@@ -6983,7 +7026,7 @@
         <v>7</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C24" s="26" t="n">
         <v>30</v>
@@ -7020,7 +7063,7 @@
       <c r="AC24" s="28"/>
       <c r="AD24" s="28"/>
       <c r="AE24" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AF24" s="0" t="n">
         <v>1500</v>
@@ -7031,7 +7074,7 @@
         <v>7</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C25" s="26" t="n">
         <v>30</v>
@@ -7068,7 +7111,7 @@
       <c r="AC25" s="28"/>
       <c r="AD25" s="28"/>
       <c r="AE25" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AF25" s="0" t="n">
         <v>1500</v>
@@ -7079,7 +7122,7 @@
         <v>7</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C26" s="26" t="n">
         <v>20</v>
@@ -7116,7 +7159,7 @@
       <c r="AC26" s="28"/>
       <c r="AD26" s="28"/>
       <c r="AE26" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AF26" s="0" t="n">
         <v>1500</v>
@@ -7124,7 +7167,7 @@
     </row>
     <row r="27" spans="31:32" customHeight="1">
       <c r="AE27" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AF27" s="0" t="n">
         <v>2500</v>
@@ -7132,7 +7175,7 @@
     </row>
     <row r="28" spans="31:32" customHeight="1">
       <c r="AE28" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AF28" s="0" t="n">
         <v>1500</v>
@@ -7140,7 +7183,7 @@
     </row>
     <row r="29" spans="31:32" customHeight="1">
       <c r="AE29" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AF29" s="0" t="n">
         <v>1500</v>
@@ -7148,7 +7191,7 @@
     </row>
     <row r="30" spans="31:32" customHeight="1">
       <c r="AE30" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AF30" s="0" t="n">
         <v>1500</v>
@@ -7156,7 +7199,7 @@
     </row>
     <row r="31" spans="31:32" customHeight="1">
       <c r="AE31" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AF31" s="0" t="n">
         <v>1500</v>
@@ -7164,7 +7207,7 @@
     </row>
     <row r="32" spans="31:32" customHeight="1">
       <c r="AE32" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AF32" s="0" t="n">
         <v>1500</v>
@@ -7172,7 +7215,7 @@
     </row>
     <row r="33" spans="31:32" customHeight="1">
       <c r="AE33" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AF33" s="0" t="n">
         <v>1500</v>
@@ -7180,7 +7223,7 @@
     </row>
     <row r="34" spans="31:32" customHeight="1">
       <c r="AE34" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AF34" s="0" t="n">
         <v>1500</v>
@@ -7188,7 +7231,7 @@
     </row>
     <row r="35" spans="31:32" customHeight="1">
       <c r="AE35" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AF35" s="0" t="n">
         <v>1500</v>
@@ -7196,7 +7239,7 @@
     </row>
     <row r="36" spans="31:32" customHeight="1">
       <c r="AE36" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AF36" s="0" t="n">
         <v>1500</v>
@@ -7204,7 +7247,7 @@
     </row>
     <row r="37" spans="31:32" customHeight="1">
       <c r="AE37" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AF37" s="0" t="n">
         <v>2500</v>
@@ -7212,7 +7255,7 @@
     </row>
     <row r="38" spans="31:32" customHeight="1">
       <c r="AE38" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AF38" s="0" t="n">
         <v>1500</v>
@@ -7220,7 +7263,7 @@
     </row>
     <row r="39" spans="31:32" customHeight="1">
       <c r="AE39" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AF39" s="0" t="n">
         <v>1500</v>
@@ -7228,7 +7271,7 @@
     </row>
     <row r="40" spans="31:32" customHeight="1">
       <c r="AE40" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AF40" s="0" t="n">
         <v>1500</v>
@@ -7236,7 +7279,7 @@
     </row>
     <row r="41" spans="31:32" customHeight="1">
       <c r="AE41" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AF41" s="0" t="n">
         <v>1500</v>
@@ -7244,7 +7287,7 @@
     </row>
     <row r="42" spans="31:32" customHeight="1">
       <c r="AE42" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AF42" s="0" t="n">
         <v>1500</v>
@@ -7252,7 +7295,7 @@
     </row>
     <row r="43" spans="31:32" customHeight="1">
       <c r="AE43" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AF43" s="0" t="n">
         <v>1500</v>
@@ -7260,7 +7303,7 @@
     </row>
     <row r="44" spans="31:32" customHeight="1">
       <c r="AE44" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AF44" s="0" t="n">
         <v>1500</v>
@@ -7268,7 +7311,7 @@
     </row>
     <row r="45" spans="31:32" customHeight="1">
       <c r="AE45" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AF45" s="0" t="n">
         <v>1500</v>
@@ -7276,7 +7319,7 @@
     </row>
     <row r="46" spans="31:32" customHeight="1">
       <c r="AE46" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AF46" s="0" t="n">
         <v>2500</v>
@@ -7284,7 +7327,7 @@
     </row>
     <row r="47" spans="31:32" customHeight="1">
       <c r="AE47" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AF47" s="0" t="n">
         <v>1500</v>
@@ -7292,7 +7335,7 @@
     </row>
     <row r="48" spans="31:32" customHeight="1">
       <c r="AE48" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AF48" s="0" t="n">
         <v>1500</v>
@@ -7300,7 +7343,7 @@
     </row>
     <row r="49" spans="31:32" customHeight="1">
       <c r="AE49" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AF49" s="0" t="n">
         <v>2500</v>
@@ -7308,7 +7351,7 @@
     </row>
     <row r="50" spans="31:32" customHeight="1">
       <c r="AE50" s="0" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AF50" s="0" t="n">
         <v>1500</v>
@@ -7316,7 +7359,7 @@
     </row>
     <row r="51" spans="31:32" customHeight="1">
       <c r="AE51" s="0" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AF51" s="0" t="n">
         <v>3000</v>
@@ -7324,7 +7367,7 @@
     </row>
     <row r="52" spans="31:32" customHeight="1">
       <c r="AE52" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AF52" s="0" t="n">
         <v>2500</v>
@@ -7332,7 +7375,7 @@
     </row>
     <row r="53" spans="31:32" customHeight="1">
       <c r="AE53" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AF53" s="0" t="n">
         <v>1500</v>
@@ -7340,7 +7383,7 @@
     </row>
     <row r="54" spans="31:32" customHeight="1">
       <c r="AE54" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AF54" s="0" t="n">
         <v>1500</v>
@@ -7348,7 +7391,7 @@
     </row>
     <row r="55" spans="31:32" customHeight="1">
       <c r="AE55" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AF55" s="0" t="n">
         <v>1500</v>
@@ -7356,7 +7399,7 @@
     </row>
     <row r="56" spans="31:32" customHeight="1">
       <c r="AE56" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AF56" s="0" t="n">
         <v>1500</v>
@@ -7364,7 +7407,7 @@
     </row>
     <row r="57" spans="31:32" customHeight="1">
       <c r="AE57" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AF57" s="0" t="n">
         <v>1500</v>
@@ -7372,7 +7415,7 @@
     </row>
     <row r="58" spans="31:32" customHeight="1">
       <c r="AE58" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AF58" s="0" t="n">
         <v>1500</v>
@@ -7380,7 +7423,7 @@
     </row>
     <row r="59" spans="31:32" customHeight="1">
       <c r="AE59" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AF59" s="0" t="n">
         <v>2500</v>
@@ -7388,7 +7431,7 @@
     </row>
     <row r="60" spans="31:32" customHeight="1">
       <c r="AE60" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AF60" s="0" t="n">
         <v>1500</v>
@@ -7396,7 +7439,7 @@
     </row>
     <row r="61" spans="31:32" customHeight="1">
       <c r="AE61" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AF61" s="0" t="n">
         <v>2500</v>
@@ -7404,7 +7447,7 @@
     </row>
     <row r="62" spans="31:32" customHeight="1">
       <c r="AE62" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AF62" s="0" t="n">
         <v>1500</v>
@@ -7412,7 +7455,7 @@
     </row>
     <row r="63" spans="31:32" customHeight="1">
       <c r="AE63" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AF63" s="0" t="n">
         <v>1500</v>
@@ -7420,7 +7463,7 @@
     </row>
     <row r="64" spans="31:32" customHeight="1">
       <c r="AE64" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AF64" s="0" t="n">
         <v>1500</v>
@@ -7428,7 +7471,7 @@
     </row>
     <row r="65" spans="31:32" customHeight="1">
       <c r="AE65" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AF65" s="0" t="n">
         <v>1500</v>
@@ -7436,7 +7479,7 @@
     </row>
     <row r="66" spans="31:32" customHeight="1">
       <c r="AE66" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AF66" s="0" t="n">
         <v>1500</v>
@@ -7444,7 +7487,7 @@
     </row>
     <row r="67" spans="31:32" customHeight="1">
       <c r="AE67" s="0" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AF67" s="0" t="n">
         <v>1500</v>
@@ -7452,7 +7495,7 @@
     </row>
     <row r="68" spans="31:32" customHeight="1">
       <c r="AE68" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AF68" s="0" t="n">
         <v>1500</v>
@@ -7460,7 +7503,7 @@
     </row>
     <row r="69" spans="31:32" customHeight="1">
       <c r="AE69" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AF69" s="0" t="n">
         <v>1500</v>
@@ -7468,7 +7511,7 @@
     </row>
     <row r="70" spans="31:32" customHeight="1">
       <c r="AE70" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AF70" s="0" t="n">
         <v>1500</v>
@@ -7476,7 +7519,7 @@
     </row>
     <row r="71" spans="31:32" customHeight="1">
       <c r="AE71" s="0" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AF71" s="0" t="n">
         <v>2500</v>
@@ -7484,7 +7527,7 @@
     </row>
     <row r="72" spans="31:32" customHeight="1">
       <c r="AE72" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AF72" s="0" t="n">
         <v>1500</v>
@@ -7492,7 +7535,7 @@
     </row>
     <row r="73" spans="31:32" customHeight="1">
       <c r="AE73" s="0" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AF73" s="0" t="n">
         <v>1500</v>

--- a/public/port-battle.xlsx
+++ b/public/port-battle.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="449">
   <si>
     <t>Port battle calculator by Felix Victor</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>3rd Rate</t>
+  </si>
+  <si>
+    <t>Implacable</t>
   </si>
   <si>
     <t>Redoutable</t>
@@ -1376,7 +1379,7 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FFBC7394"/>
+      <color rgb="FFA44373"/>
       <name val="Calibri"/>
       <family val="1"/>
     </font>
@@ -1390,14 +1393,14 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FF6090C3"/>
+      <color rgb="FF3067B7"/>
       <name val="Calibri"/>
       <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FFD2D4CB"/>
+      <color rgb="FFD5DFE0"/>
       <name val="Calibri"/>
       <family val="1"/>
     </font>
@@ -1411,7 +1414,7 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FF4E5439"/>
+      <color rgb="FF485657"/>
       <name val="Calibri"/>
       <family val="1"/>
     </font>
@@ -1430,27 +1433,27 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD2D4CB"/>
+        <fgColor rgb="FFD5DFE0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF80866D"/>
+        <fgColor rgb="FF9DB3B6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB5B8A9"/>
+        <fgColor rgb="FFC2D0D2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEDEEEA"/>
+        <fgColor rgb="FFE8EDEE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF5F3F1"/>
+        <fgColor rgb="FFE1E3DD"/>
       </patternFill>
     </fill>
   </fills>
@@ -1466,10 +1469,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color rgb="FFB5B8A9"/>
+        <color rgb="FFC2D0D2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB5B8A9"/>
+        <color rgb="FFC2D0D2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1550,7 +1553,7 @@
       <font>
         <b/>
         <sz val="12"/>
-        <color rgb="FFBC7394"/>
+        <color rgb="FFA44373"/>
         <name val="Calibri"/>
         <family val="1"/>
       </font>
@@ -1637,7 +1640,7 @@
       <c r="AC1" s="6"/>
       <c r="AD1" s="6"/>
       <c r="AE1" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AF1" s="0" t="n">
         <v>10000</v>
@@ -1683,7 +1686,7 @@
       <c r="AC2" s="9"/>
       <c r="AD2" s="9"/>
       <c r="AE2" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AF2" s="0" t="n">
         <v>10000</v>
@@ -1733,7 +1736,7 @@
       <c r="AC3" s="16"/>
       <c r="AD3" s="16"/>
       <c r="AE3" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF3" s="0" t="n">
         <v>10000</v>
@@ -1744,10 +1747,10 @@
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
       <c r="D4" s="21">
-        <f>SUM(D5:D44)</f>
+        <f>SUM(D5:D45)</f>
       </c>
       <c r="E4" s="21">
-        <f>SUM(E5:E44)</f>
+        <f>SUM(E5:E45)</f>
       </c>
       <c r="F4" s="22" t="s">
         <v>11</v>
@@ -1777,7 +1780,7 @@
       <c r="AC4" s="22"/>
       <c r="AD4" s="22"/>
       <c r="AE4" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AF4" s="0" t="n">
         <v>10000</v>
@@ -1800,13 +1803,13 @@
         <f>C5*D5</f>
       </c>
       <c r="F5" s="28" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I5" s="28"/>
       <c r="J5" s="28"/>
@@ -1831,7 +1834,7 @@
       <c r="AC5" s="28"/>
       <c r="AD5" s="28"/>
       <c r="AE5" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AF5" s="0" t="n">
         <v>10000</v>
@@ -1854,13 +1857,13 @@
         <f>C6*D6</f>
       </c>
       <c r="F6" s="28" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G6" s="28" t="s">
+        <v>362</v>
+      </c>
+      <c r="H6" s="28" t="s">
         <v>361</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>360</v>
       </c>
       <c r="I6" s="28"/>
       <c r="J6" s="28"/>
@@ -1885,7 +1888,7 @@
       <c r="AC6" s="28"/>
       <c r="AD6" s="28"/>
       <c r="AE6" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF6" s="0" t="n">
         <v>10000</v>
@@ -1933,7 +1936,7 @@
       <c r="AC7" s="28"/>
       <c r="AD7" s="28"/>
       <c r="AE7" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF7" s="0" t="n">
         <v>10000</v>
@@ -1981,7 +1984,7 @@
       <c r="AC8" s="29"/>
       <c r="AD8" s="29"/>
       <c r="AE8" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AF8" s="0" t="n">
         <v>10000</v>
@@ -2029,7 +2032,7 @@
       <c r="AC9" s="29"/>
       <c r="AD9" s="29"/>
       <c r="AE9" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AF9" s="0" t="n">
         <v>10000</v>
@@ -2077,7 +2080,7 @@
       <c r="AC10" s="29"/>
       <c r="AD10" s="29"/>
       <c r="AE10" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AF10" s="0" t="n">
         <v>10000</v>
@@ -2125,7 +2128,7 @@
       <c r="AC11" s="28"/>
       <c r="AD11" s="28"/>
       <c r="AE11" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AF11" s="0" t="n">
         <v>10000</v>
@@ -2173,7 +2176,7 @@
       <c r="AC12" s="28"/>
       <c r="AD12" s="28"/>
       <c r="AE12" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AF12" s="0" t="n">
         <v>10000</v>
@@ -2221,7 +2224,7 @@
       <c r="AC13" s="28"/>
       <c r="AD13" s="28"/>
       <c r="AE13" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AF13" s="0" t="n">
         <v>10000</v>
@@ -2235,7 +2238,7 @@
         <v>21</v>
       </c>
       <c r="C14" s="26" t="n">
-        <v>400</v>
+        <v>490</v>
       </c>
       <c r="D14" s="26">
         <f>COUNTA(F14:AD14)</f>
@@ -2269,7 +2272,7 @@
       <c r="AC14" s="28"/>
       <c r="AD14" s="28"/>
       <c r="AE14" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AF14" s="0" t="n">
         <v>10000</v>
@@ -2317,7 +2320,7 @@
       <c r="AC15" s="28"/>
       <c r="AD15" s="28"/>
       <c r="AE15" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF15" s="0" t="n">
         <v>20000</v>
@@ -2365,55 +2368,55 @@
       <c r="AC16" s="28"/>
       <c r="AD16" s="28"/>
       <c r="AE16" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF16" s="0" t="n">
         <v>10000</v>
       </c>
     </row>
     <row r="17" spans="1:32" customHeight="1">
-      <c r="A17" s="30" t="n">
-        <v>4</v>
-      </c>
-      <c r="B17" s="29" t="s">
+      <c r="A17" s="26" t="n">
+        <v>3</v>
+      </c>
+      <c r="B17" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="30" t="n">
+      <c r="C17" s="26" t="n">
         <v>400</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D17" s="26">
         <f>COUNTA(F17:AD17)</f>
       </c>
-      <c r="E17" s="30">
+      <c r="E17" s="26">
         <f>C17*D17</f>
       </c>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
-      <c r="T17" s="29"/>
-      <c r="U17" s="29"/>
-      <c r="V17" s="29"/>
-      <c r="W17" s="29"/>
-      <c r="X17" s="29"/>
-      <c r="Y17" s="29"/>
-      <c r="Z17" s="29"/>
-      <c r="AA17" s="29"/>
-      <c r="AB17" s="29"/>
-      <c r="AC17" s="29"/>
-      <c r="AD17" s="29"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="28"/>
+      <c r="W17" s="28"/>
+      <c r="X17" s="28"/>
+      <c r="Y17" s="28"/>
+      <c r="Z17" s="28"/>
+      <c r="AA17" s="28"/>
+      <c r="AB17" s="28"/>
+      <c r="AC17" s="28"/>
+      <c r="AD17" s="28"/>
       <c r="AE17" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AF17" s="0" t="n">
         <v>10000</v>
@@ -2427,7 +2430,7 @@
         <v>25</v>
       </c>
       <c r="C18" s="30" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="D18" s="30">
         <f>COUNTA(F18:AD18)</f>
@@ -2461,7 +2464,7 @@
       <c r="AC18" s="29"/>
       <c r="AD18" s="29"/>
       <c r="AE18" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AF18" s="0" t="n">
         <v>10000</v>
@@ -2509,7 +2512,7 @@
       <c r="AC19" s="29"/>
       <c r="AD19" s="29"/>
       <c r="AE19" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF19" s="0" t="n">
         <v>10000</v>
@@ -2523,7 +2526,7 @@
         <v>27</v>
       </c>
       <c r="C20" s="30" t="n">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="D20" s="30">
         <f>COUNTA(F20:AD20)</f>
@@ -2557,7 +2560,7 @@
       <c r="AC20" s="29"/>
       <c r="AD20" s="29"/>
       <c r="AE20" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF20" s="0" t="n">
         <v>10000</v>
@@ -2571,7 +2574,7 @@
         <v>28</v>
       </c>
       <c r="C21" s="30" t="n">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="D21" s="30">
         <f>COUNTA(F21:AD21)</f>
@@ -2605,7 +2608,7 @@
       <c r="AC21" s="29"/>
       <c r="AD21" s="29"/>
       <c r="AE21" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF21" s="0" t="n">
         <v>20000</v>
@@ -2619,7 +2622,7 @@
         <v>29</v>
       </c>
       <c r="C22" s="30" t="n">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="D22" s="30">
         <f>COUNTA(F22:AD22)</f>
@@ -2653,55 +2656,55 @@
       <c r="AC22" s="29"/>
       <c r="AD22" s="29"/>
       <c r="AE22" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF22" s="0" t="n">
         <v>10000</v>
       </c>
     </row>
     <row r="23" spans="1:32" customHeight="1">
-      <c r="A23" s="26" t="n">
-        <v>5</v>
-      </c>
-      <c r="B23" s="25" t="s">
+      <c r="A23" s="30" t="n">
+        <v>4</v>
+      </c>
+      <c r="B23" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="26" t="n">
-        <v>280</v>
-      </c>
-      <c r="D23" s="26">
+      <c r="C23" s="30" t="n">
+        <v>310</v>
+      </c>
+      <c r="D23" s="30">
         <f>COUNTA(F23:AD23)</f>
       </c>
-      <c r="E23" s="26">
+      <c r="E23" s="30">
         <f>C23*D23</f>
       </c>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="28"/>
-      <c r="S23" s="28"/>
-      <c r="T23" s="28"/>
-      <c r="U23" s="28"/>
-      <c r="V23" s="28"/>
-      <c r="W23" s="28"/>
-      <c r="X23" s="28"/>
-      <c r="Y23" s="28"/>
-      <c r="Z23" s="28"/>
-      <c r="AA23" s="28"/>
-      <c r="AB23" s="28"/>
-      <c r="AC23" s="28"/>
-      <c r="AD23" s="28"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="29"/>
+      <c r="X23" s="29"/>
+      <c r="Y23" s="29"/>
+      <c r="Z23" s="29"/>
+      <c r="AA23" s="29"/>
+      <c r="AB23" s="29"/>
+      <c r="AC23" s="29"/>
+      <c r="AD23" s="29"/>
       <c r="AE23" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF23" s="0" t="n">
         <v>10000</v>
@@ -2715,7 +2718,7 @@
         <v>31</v>
       </c>
       <c r="C24" s="26" t="n">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="D24" s="26">
         <f>COUNTA(F24:AD24)</f>
@@ -2749,7 +2752,7 @@
       <c r="AC24" s="28"/>
       <c r="AD24" s="28"/>
       <c r="AE24" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF24" s="0" t="n">
         <v>10000</v>
@@ -2763,7 +2766,7 @@
         <v>32</v>
       </c>
       <c r="C25" s="26" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="D25" s="26">
         <f>COUNTA(F25:AD25)</f>
@@ -2797,7 +2800,7 @@
       <c r="AC25" s="28"/>
       <c r="AD25" s="28"/>
       <c r="AE25" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF25" s="0" t="n">
         <v>20000</v>
@@ -2811,7 +2814,7 @@
         <v>33</v>
       </c>
       <c r="C26" s="26" t="n">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="D26" s="26">
         <f>COUNTA(F26:AD26)</f>
@@ -2845,7 +2848,7 @@
       <c r="AC26" s="28"/>
       <c r="AD26" s="28"/>
       <c r="AE26" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF26" s="0" t="n">
         <v>10000</v>
@@ -2859,7 +2862,7 @@
         <v>34</v>
       </c>
       <c r="C27" s="26" t="n">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="D27" s="26">
         <f>COUNTA(F27:AD27)</f>
@@ -2893,7 +2896,7 @@
       <c r="AC27" s="28"/>
       <c r="AD27" s="28"/>
       <c r="AE27" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AF27" s="0" t="n">
         <v>10000</v>
@@ -2941,7 +2944,7 @@
       <c r="AC28" s="28"/>
       <c r="AD28" s="28"/>
       <c r="AE28" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF28" s="0" t="n">
         <v>10000</v>
@@ -2955,7 +2958,7 @@
         <v>36</v>
       </c>
       <c r="C29" s="26" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="D29" s="26">
         <f>COUNTA(F29:AD29)</f>
@@ -2989,7 +2992,7 @@
       <c r="AC29" s="28"/>
       <c r="AD29" s="28"/>
       <c r="AE29" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AF29" s="0" t="n">
         <v>20000</v>
@@ -3037,7 +3040,7 @@
       <c r="AC30" s="28"/>
       <c r="AD30" s="28"/>
       <c r="AE30" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AF30" s="0" t="n">
         <v>10000</v>
@@ -3051,7 +3054,7 @@
         <v>38</v>
       </c>
       <c r="C31" s="26" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="D31" s="26">
         <f>COUNTA(F31:AD31)</f>
@@ -3085,7 +3088,7 @@
       <c r="AC31" s="28"/>
       <c r="AD31" s="28"/>
       <c r="AE31" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF31" s="0" t="n">
         <v>10000</v>
@@ -3099,7 +3102,7 @@
         <v>39</v>
       </c>
       <c r="C32" s="26" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="D32" s="26">
         <f>COUNTA(F32:AD32)</f>
@@ -3133,7 +3136,7 @@
       <c r="AC32" s="28"/>
       <c r="AD32" s="28"/>
       <c r="AE32" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AF32" s="0" t="n">
         <v>10000</v>
@@ -3181,7 +3184,7 @@
       <c r="AC33" s="28"/>
       <c r="AD33" s="28"/>
       <c r="AE33" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AF33" s="0" t="n">
         <v>20000</v>
@@ -3229,7 +3232,7 @@
       <c r="AC34" s="28"/>
       <c r="AD34" s="28"/>
       <c r="AE34" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AF34" s="0" t="n">
         <v>20000</v>
@@ -3243,7 +3246,7 @@
         <v>42</v>
       </c>
       <c r="C35" s="26" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D35" s="26">
         <f>COUNTA(F35:AD35)</f>
@@ -3277,7 +3280,7 @@
       <c r="AC35" s="28"/>
       <c r="AD35" s="28"/>
       <c r="AE35" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AF35" s="0" t="n">
         <v>10000</v>
@@ -3291,7 +3294,7 @@
         <v>43</v>
       </c>
       <c r="C36" s="26" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D36" s="26">
         <f>COUNTA(F36:AD36)</f>
@@ -3325,7 +3328,7 @@
       <c r="AC36" s="28"/>
       <c r="AD36" s="28"/>
       <c r="AE36" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AF36" s="0" t="n">
         <v>20000</v>
@@ -3373,7 +3376,7 @@
       <c r="AC37" s="28"/>
       <c r="AD37" s="28"/>
       <c r="AE37" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AF37" s="0" t="n">
         <v>20000</v>
@@ -3387,7 +3390,7 @@
         <v>45</v>
       </c>
       <c r="C38" s="26" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D38" s="26">
         <f>COUNTA(F38:AD38)</f>
@@ -3421,7 +3424,7 @@
       <c r="AC38" s="28"/>
       <c r="AD38" s="28"/>
       <c r="AE38" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF38" s="0" t="n">
         <v>10000</v>
@@ -3435,7 +3438,7 @@
         <v>46</v>
       </c>
       <c r="C39" s="26" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D39" s="26">
         <f>COUNTA(F39:AD39)</f>
@@ -3469,7 +3472,7 @@
       <c r="AC39" s="28"/>
       <c r="AD39" s="28"/>
       <c r="AE39" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AF39" s="0" t="n">
         <v>10000</v>
@@ -3517,55 +3520,55 @@
       <c r="AC40" s="28"/>
       <c r="AD40" s="28"/>
       <c r="AE40" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AF40" s="0" t="n">
         <v>10000</v>
       </c>
     </row>
     <row r="41" spans="1:32" customHeight="1">
-      <c r="A41" s="30" t="n">
-        <v>6</v>
-      </c>
-      <c r="B41" s="29" t="s">
+      <c r="A41" s="26" t="n">
+        <v>5</v>
+      </c>
+      <c r="B41" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="30" t="n">
+      <c r="C41" s="26" t="n">
         <v>100</v>
       </c>
-      <c r="D41" s="30">
+      <c r="D41" s="26">
         <f>COUNTA(F41:AD41)</f>
       </c>
-      <c r="E41" s="30">
+      <c r="E41" s="26">
         <f>C41*D41</f>
       </c>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="29"/>
-      <c r="L41" s="29"/>
-      <c r="M41" s="29"/>
-      <c r="N41" s="29"/>
-      <c r="O41" s="29"/>
-      <c r="P41" s="29"/>
-      <c r="Q41" s="29"/>
-      <c r="R41" s="29"/>
-      <c r="S41" s="29"/>
-      <c r="T41" s="29"/>
-      <c r="U41" s="29"/>
-      <c r="V41" s="29"/>
-      <c r="W41" s="29"/>
-      <c r="X41" s="29"/>
-      <c r="Y41" s="29"/>
-      <c r="Z41" s="29"/>
-      <c r="AA41" s="29"/>
-      <c r="AB41" s="29"/>
-      <c r="AC41" s="29"/>
-      <c r="AD41" s="29"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="28"/>
+      <c r="N41" s="28"/>
+      <c r="O41" s="28"/>
+      <c r="P41" s="28"/>
+      <c r="Q41" s="28"/>
+      <c r="R41" s="28"/>
+      <c r="S41" s="28"/>
+      <c r="T41" s="28"/>
+      <c r="U41" s="28"/>
+      <c r="V41" s="28"/>
+      <c r="W41" s="28"/>
+      <c r="X41" s="28"/>
+      <c r="Y41" s="28"/>
+      <c r="Z41" s="28"/>
+      <c r="AA41" s="28"/>
+      <c r="AB41" s="28"/>
+      <c r="AC41" s="28"/>
+      <c r="AD41" s="28"/>
       <c r="AE41" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AF41" s="0" t="n">
         <v>10000</v>
@@ -3613,7 +3616,7 @@
       <c r="AC42" s="29"/>
       <c r="AD42" s="29"/>
       <c r="AE42" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AF42" s="0" t="n">
         <v>10000</v>
@@ -3627,7 +3630,7 @@
         <v>50</v>
       </c>
       <c r="C43" s="30" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D43" s="30">
         <f>COUNTA(F43:AD43)</f>
@@ -3661,7 +3664,7 @@
       <c r="AC43" s="29"/>
       <c r="AD43" s="29"/>
       <c r="AE43" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF43" s="0" t="n">
         <v>10000</v>
@@ -3675,7 +3678,7 @@
         <v>51</v>
       </c>
       <c r="C44" s="30" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D44" s="30">
         <f>COUNTA(F44:AD44)</f>
@@ -3709,15 +3712,55 @@
       <c r="AC44" s="29"/>
       <c r="AD44" s="29"/>
       <c r="AE44" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF44" s="0" t="n">
         <v>10000</v>
       </c>
     </row>
-    <row r="45" spans="31:32" customHeight="1">
+    <row r="45" spans="1:32" customHeight="1">
+      <c r="A45" s="30" t="n">
+        <v>6</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="30" t="n">
+        <v>80</v>
+      </c>
+      <c r="D45" s="30">
+        <f>COUNTA(F45:AD45)</f>
+      </c>
+      <c r="E45" s="30">
+        <f>C45*D45</f>
+      </c>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="29"/>
+      <c r="M45" s="29"/>
+      <c r="N45" s="29"/>
+      <c r="O45" s="29"/>
+      <c r="P45" s="29"/>
+      <c r="Q45" s="29"/>
+      <c r="R45" s="29"/>
+      <c r="S45" s="29"/>
+      <c r="T45" s="29"/>
+      <c r="U45" s="29"/>
+      <c r="V45" s="29"/>
+      <c r="W45" s="29"/>
+      <c r="X45" s="29"/>
+      <c r="Y45" s="29"/>
+      <c r="Z45" s="29"/>
+      <c r="AA45" s="29"/>
+      <c r="AB45" s="29"/>
+      <c r="AC45" s="29"/>
+      <c r="AD45" s="29"/>
       <c r="AE45" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF45" s="0" t="n">
         <v>10000</v>
@@ -3725,7 +3768,7 @@
     </row>
     <row r="46" spans="31:32" customHeight="1">
       <c r="AE46" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AF46" s="0" t="n">
         <v>20000</v>
@@ -3733,7 +3776,7 @@
     </row>
     <row r="47" spans="31:32" customHeight="1">
       <c r="AE47" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AF47" s="0" t="n">
         <v>10000</v>
@@ -3741,7 +3784,7 @@
     </row>
     <row r="48" spans="31:32" customHeight="1">
       <c r="AE48" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF48" s="0" t="n">
         <v>20000</v>
@@ -3749,7 +3792,7 @@
     </row>
     <row r="49" spans="31:32" customHeight="1">
       <c r="AE49" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF49" s="0" t="n">
         <v>20000</v>
@@ -3757,7 +3800,7 @@
     </row>
     <row r="50" spans="31:32" customHeight="1">
       <c r="AE50" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF50" s="0" t="n">
         <v>10000</v>
@@ -3765,7 +3808,7 @@
     </row>
     <row r="51" spans="31:32" customHeight="1">
       <c r="AE51" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AF51" s="0" t="n">
         <v>10000</v>
@@ -3773,7 +3816,7 @@
     </row>
     <row r="52" spans="31:32" customHeight="1">
       <c r="AE52" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AF52" s="0" t="n">
         <v>10000</v>
@@ -3781,7 +3824,7 @@
     </row>
     <row r="53" spans="31:32" customHeight="1">
       <c r="AE53" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF53" s="0" t="n">
         <v>20000</v>
@@ -3789,7 +3832,7 @@
     </row>
     <row r="54" spans="31:32" customHeight="1">
       <c r="AE54" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AF54" s="0" t="n">
         <v>10000</v>
@@ -3797,7 +3840,7 @@
     </row>
     <row r="55" spans="31:32" customHeight="1">
       <c r="AE55" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AF55" s="0" t="n">
         <v>10000</v>
@@ -3805,7 +3848,7 @@
     </row>
     <row r="56" spans="31:32" customHeight="1">
       <c r="AE56" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AF56" s="0" t="n">
         <v>20000</v>
@@ -3813,7 +3856,7 @@
     </row>
     <row r="57" spans="31:32" customHeight="1">
       <c r="AE57" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AF57" s="0" t="n">
         <v>10000</v>
@@ -3821,7 +3864,7 @@
     </row>
     <row r="58" spans="31:32" customHeight="1">
       <c r="AE58" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF58" s="0" t="n">
         <v>10000</v>
@@ -3829,7 +3872,7 @@
     </row>
     <row r="59" spans="31:32" customHeight="1">
       <c r="AE59" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AF59" s="0" t="n">
         <v>10000</v>
@@ -3837,7 +3880,7 @@
     </row>
     <row r="60" spans="31:32" customHeight="1">
       <c r="AE60" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF60" s="0" t="n">
         <v>10000</v>
@@ -3845,7 +3888,7 @@
     </row>
     <row r="61" spans="31:32" customHeight="1">
       <c r="AE61" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF61" s="0" t="n">
         <v>10000</v>
@@ -3853,7 +3896,7 @@
     </row>
     <row r="62" spans="31:32" customHeight="1">
       <c r="AE62" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF62" s="0" t="n">
         <v>10000</v>
@@ -3861,7 +3904,7 @@
     </row>
     <row r="63" spans="31:32" customHeight="1">
       <c r="AE63" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AF63" s="0" t="n">
         <v>10000</v>
@@ -3869,7 +3912,7 @@
     </row>
     <row r="64" spans="31:32" customHeight="1">
       <c r="AE64" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AF64" s="0" t="n">
         <v>10000</v>
@@ -3877,7 +3920,7 @@
     </row>
     <row r="65" spans="31:32" customHeight="1">
       <c r="AE65" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AF65" s="0" t="n">
         <v>10000</v>
@@ -3885,7 +3928,7 @@
     </row>
     <row r="66" spans="31:32" customHeight="1">
       <c r="AE66" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AF66" s="0" t="n">
         <v>10000</v>
@@ -3893,7 +3936,7 @@
     </row>
     <row r="67" spans="31:32" customHeight="1">
       <c r="AE67" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AF67" s="0" t="n">
         <v>10000</v>
@@ -3901,7 +3944,7 @@
     </row>
     <row r="68" spans="31:32" customHeight="1">
       <c r="AE68" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AF68" s="0" t="n">
         <v>20000</v>
@@ -3909,7 +3952,7 @@
     </row>
     <row r="69" spans="31:32" customHeight="1">
       <c r="AE69" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AF69" s="0" t="n">
         <v>20000</v>
@@ -3917,7 +3960,7 @@
     </row>
     <row r="70" spans="31:32" customHeight="1">
       <c r="AE70" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AF70" s="0" t="n">
         <v>10000</v>
@@ -3925,7 +3968,7 @@
     </row>
     <row r="71" spans="31:32" customHeight="1">
       <c r="AE71" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AF71" s="0" t="n">
         <v>10000</v>
@@ -3933,7 +3976,7 @@
     </row>
     <row r="72" spans="31:32" customHeight="1">
       <c r="AE72" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AF72" s="0" t="n">
         <v>10000</v>
@@ -3941,7 +3984,7 @@
     </row>
     <row r="73" spans="31:32" customHeight="1">
       <c r="AE73" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AF73" s="0" t="n">
         <v>10000</v>
@@ -3949,7 +3992,7 @@
     </row>
     <row r="74" spans="31:32" customHeight="1">
       <c r="AE74" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AF74" s="0" t="n">
         <v>10000</v>
@@ -3957,7 +4000,7 @@
     </row>
     <row r="75" spans="31:32" customHeight="1">
       <c r="AE75" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AF75" s="0" t="n">
         <v>10000</v>
@@ -3965,7 +4008,7 @@
     </row>
     <row r="76" spans="31:32" customHeight="1">
       <c r="AE76" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AF76" s="0" t="n">
         <v>10000</v>
@@ -3973,7 +4016,7 @@
     </row>
     <row r="77" spans="31:32" customHeight="1">
       <c r="AE77" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AF77" s="0" t="n">
         <v>10000</v>
@@ -3981,7 +4024,7 @@
     </row>
     <row r="78" spans="31:32" customHeight="1">
       <c r="AE78" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AF78" s="0" t="n">
         <v>10000</v>
@@ -3989,7 +4032,7 @@
     </row>
     <row r="79" spans="31:32" customHeight="1">
       <c r="AE79" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF79" s="0" t="n">
         <v>10000</v>
@@ -3997,7 +4040,7 @@
     </row>
     <row r="80" spans="31:32" customHeight="1">
       <c r="AE80" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AF80" s="0" t="n">
         <v>10000</v>
@@ -4005,7 +4048,7 @@
     </row>
     <row r="81" spans="31:32" customHeight="1">
       <c r="AE81" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AF81" s="0" t="n">
         <v>10000</v>
@@ -4013,7 +4056,7 @@
     </row>
     <row r="82" spans="31:32" customHeight="1">
       <c r="AE82" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF82" s="0" t="n">
         <v>20000</v>
@@ -4021,7 +4064,7 @@
     </row>
     <row r="83" spans="31:32" customHeight="1">
       <c r="AE83" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AF83" s="0" t="n">
         <v>10000</v>
@@ -4029,7 +4072,7 @@
     </row>
     <row r="84" spans="31:32" customHeight="1">
       <c r="AE84" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AF84" s="0" t="n">
         <v>10000</v>
@@ -4037,7 +4080,7 @@
     </row>
     <row r="85" spans="31:32" customHeight="1">
       <c r="AE85" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AF85" s="0" t="n">
         <v>10000</v>
@@ -4045,7 +4088,7 @@
     </row>
     <row r="86" spans="31:32" customHeight="1">
       <c r="AE86" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF86" s="0" t="n">
         <v>10000</v>
@@ -4053,7 +4096,7 @@
     </row>
     <row r="87" spans="31:32" customHeight="1">
       <c r="AE87" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF87" s="0" t="n">
         <v>10000</v>
@@ -4061,7 +4104,7 @@
     </row>
     <row r="88" spans="31:32" customHeight="1">
       <c r="AE88" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AF88" s="0" t="n">
         <v>10000</v>
@@ -4069,7 +4112,7 @@
     </row>
     <row r="89" spans="31:32" customHeight="1">
       <c r="AE89" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF89" s="0" t="n">
         <v>10000</v>
@@ -4077,7 +4120,7 @@
     </row>
     <row r="90" spans="31:32" customHeight="1">
       <c r="AE90" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AF90" s="0" t="n">
         <v>10000</v>
@@ -4085,7 +4128,7 @@
     </row>
     <row r="91" spans="31:32" customHeight="1">
       <c r="AE91" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AF91" s="0" t="n">
         <v>10000</v>
@@ -4093,7 +4136,7 @@
     </row>
     <row r="92" spans="31:32" customHeight="1">
       <c r="AE92" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF92" s="0" t="n">
         <v>10000</v>
@@ -4101,7 +4144,7 @@
     </row>
     <row r="93" spans="31:32" customHeight="1">
       <c r="AE93" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AF93" s="0" t="n">
         <v>10000</v>
@@ -4109,7 +4152,7 @@
     </row>
     <row r="94" spans="31:32" customHeight="1">
       <c r="AE94" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF94" s="0" t="n">
         <v>10000</v>
@@ -4117,7 +4160,7 @@
     </row>
     <row r="95" spans="31:32" customHeight="1">
       <c r="AE95" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF95" s="0" t="n">
         <v>10000</v>
@@ -4125,7 +4168,7 @@
     </row>
     <row r="96" spans="31:32" customHeight="1">
       <c r="AE96" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF96" s="0" t="n">
         <v>10000</v>
@@ -4133,7 +4176,7 @@
     </row>
     <row r="97" spans="31:32" customHeight="1">
       <c r="AE97" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF97" s="0" t="n">
         <v>10000</v>
@@ -4141,7 +4184,7 @@
     </row>
     <row r="98" spans="31:32" customHeight="1">
       <c r="AE98" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF98" s="0" t="n">
         <v>10000</v>
@@ -4149,7 +4192,7 @@
     </row>
     <row r="99" spans="31:32" customHeight="1">
       <c r="AE99" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AF99" s="0" t="n">
         <v>20000</v>
@@ -4157,7 +4200,7 @@
     </row>
     <row r="100" spans="31:32" customHeight="1">
       <c r="AE100" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF100" s="0" t="n">
         <v>10000</v>
@@ -4165,7 +4208,7 @@
     </row>
     <row r="101" spans="31:32" customHeight="1">
       <c r="AE101" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF101" s="0" t="n">
         <v>10000</v>
@@ -4173,7 +4216,7 @@
     </row>
     <row r="102" spans="31:32" customHeight="1">
       <c r="AE102" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AF102" s="0" t="n">
         <v>20000</v>
@@ -4181,7 +4224,7 @@
     </row>
     <row r="103" spans="31:32" customHeight="1">
       <c r="AE103" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AF103" s="0" t="n">
         <v>20000</v>
@@ -4189,7 +4232,7 @@
     </row>
     <row r="104" spans="31:32" customHeight="1">
       <c r="AE104" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF104" s="0" t="n">
         <v>10000</v>
@@ -4197,7 +4240,7 @@
     </row>
     <row r="105" spans="31:32" customHeight="1">
       <c r="AE105" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AF105" s="0" t="n">
         <v>20000</v>
@@ -4205,7 +4248,7 @@
     </row>
     <row r="106" spans="31:32" customHeight="1">
       <c r="AE106" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF106" s="0" t="n">
         <v>10000</v>
@@ -4213,7 +4256,7 @@
     </row>
     <row r="107" spans="31:32" customHeight="1">
       <c r="AE107" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AF107" s="0" t="n">
         <v>10000</v>
@@ -4221,7 +4264,7 @@
     </row>
     <row r="108" spans="31:32" customHeight="1">
       <c r="AE108" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AF108" s="0" t="n">
         <v>20000</v>
@@ -4229,7 +4272,7 @@
     </row>
     <row r="109" spans="31:32" customHeight="1">
       <c r="AE109" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF109" s="0" t="n">
         <v>10000</v>
@@ -4237,7 +4280,7 @@
     </row>
     <row r="110" spans="31:32" customHeight="1">
       <c r="AE110" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AF110" s="0" t="n">
         <v>10000</v>
@@ -4245,7 +4288,7 @@
     </row>
     <row r="111" spans="31:32" customHeight="1">
       <c r="AE111" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF111" s="0" t="n">
         <v>10000</v>
@@ -4253,7 +4296,7 @@
     </row>
     <row r="112" spans="31:32" customHeight="1">
       <c r="AE112" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF112" s="0" t="n">
         <v>10000</v>
@@ -4261,7 +4304,7 @@
     </row>
     <row r="113" spans="31:32" customHeight="1">
       <c r="AE113" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF113" s="0" t="n">
         <v>10000</v>
@@ -4269,7 +4312,7 @@
     </row>
     <row r="114" spans="31:32" customHeight="1">
       <c r="AE114" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AF114" s="0" t="n">
         <v>10000</v>
@@ -4277,7 +4320,7 @@
     </row>
     <row r="115" spans="31:32" customHeight="1">
       <c r="AE115" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF115" s="0" t="n">
         <v>10000</v>
@@ -4285,7 +4328,7 @@
     </row>
     <row r="116" spans="31:32" customHeight="1">
       <c r="AE116" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF116" s="0" t="n">
         <v>20000</v>
@@ -4293,7 +4336,7 @@
     </row>
     <row r="117" spans="31:32" customHeight="1">
       <c r="AE117" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF117" s="0" t="n">
         <v>10000</v>
@@ -4301,7 +4344,7 @@
     </row>
     <row r="118" spans="31:32" customHeight="1">
       <c r="AE118" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF118" s="0" t="n">
         <v>10000</v>
@@ -4309,7 +4352,7 @@
     </row>
     <row r="119" spans="31:32" customHeight="1">
       <c r="AE119" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AF119" s="0" t="n">
         <v>10000</v>
@@ -4317,7 +4360,7 @@
     </row>
     <row r="120" spans="31:32" customHeight="1">
       <c r="AE120" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF120" s="0" t="n">
         <v>10000</v>
@@ -4325,7 +4368,7 @@
     </row>
     <row r="121" spans="31:32" customHeight="1">
       <c r="AE121" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF121" s="0" t="n">
         <v>20000</v>
@@ -4333,7 +4376,7 @@
     </row>
     <row r="122" spans="31:32" customHeight="1">
       <c r="AE122" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AF122" s="0" t="n">
         <v>10000</v>
@@ -4341,7 +4384,7 @@
     </row>
     <row r="123" spans="31:32" customHeight="1">
       <c r="AE123" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF123" s="0" t="n">
         <v>10000</v>
@@ -4349,7 +4392,7 @@
     </row>
     <row r="124" spans="31:32" customHeight="1">
       <c r="AE124" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF124" s="0" t="n">
         <v>10000</v>
@@ -4357,7 +4400,7 @@
     </row>
     <row r="125" spans="31:32" customHeight="1">
       <c r="AE125" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AF125" s="0" t="n">
         <v>10000</v>
@@ -4365,7 +4408,7 @@
     </row>
     <row r="126" spans="31:32" customHeight="1">
       <c r="AE126" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AF126" s="0" t="n">
         <v>10000</v>
@@ -4373,7 +4416,7 @@
     </row>
     <row r="127" spans="31:32" customHeight="1">
       <c r="AE127" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AF127" s="0" t="n">
         <v>10000</v>
@@ -4381,7 +4424,7 @@
     </row>
     <row r="128" spans="31:32" customHeight="1">
       <c r="AE128" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF128" s="0" t="n">
         <v>20000</v>
@@ -4389,7 +4432,7 @@
     </row>
     <row r="129" spans="31:32" customHeight="1">
       <c r="AE129" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AF129" s="0" t="n">
         <v>20000</v>
@@ -4397,7 +4440,7 @@
     </row>
     <row r="130" spans="31:32" customHeight="1">
       <c r="AE130" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF130" s="0" t="n">
         <v>10000</v>
@@ -4405,7 +4448,7 @@
     </row>
     <row r="131" spans="31:32" customHeight="1">
       <c r="AE131" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF131" s="0" t="n">
         <v>10000</v>
@@ -4413,7 +4456,7 @@
     </row>
     <row r="132" spans="31:32" customHeight="1">
       <c r="AE132" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF132" s="0" t="n">
         <v>10000</v>
@@ -4421,7 +4464,7 @@
     </row>
     <row r="133" spans="31:32" customHeight="1">
       <c r="AE133" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AF133" s="0" t="n">
         <v>20000</v>
@@ -4429,7 +4472,7 @@
     </row>
     <row r="134" spans="31:32" customHeight="1">
       <c r="AE134" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF134" s="0" t="n">
         <v>10000</v>
@@ -4437,7 +4480,7 @@
     </row>
     <row r="135" spans="31:32" customHeight="1">
       <c r="AE135" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF135" s="0" t="n">
         <v>10000</v>
@@ -4445,7 +4488,7 @@
     </row>
     <row r="136" spans="31:32" customHeight="1">
       <c r="AE136" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AF136" s="0" t="n">
         <v>10000</v>
@@ -4453,7 +4496,7 @@
     </row>
     <row r="137" spans="31:32" customHeight="1">
       <c r="AE137" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF137" s="0" t="n">
         <v>10000</v>
@@ -4461,7 +4504,7 @@
     </row>
     <row r="138" spans="31:32" customHeight="1">
       <c r="AE138" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF138" s="0" t="n">
         <v>10000</v>
@@ -4469,7 +4512,7 @@
     </row>
     <row r="139" spans="31:32" customHeight="1">
       <c r="AE139" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF139" s="0" t="n">
         <v>10000</v>
@@ -4477,7 +4520,7 @@
     </row>
     <row r="140" spans="31:32" customHeight="1">
       <c r="AE140" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AF140" s="0" t="n">
         <v>10000</v>
@@ -4485,7 +4528,7 @@
     </row>
     <row r="141" spans="31:32" customHeight="1">
       <c r="AE141" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AF141" s="0" t="n">
         <v>10000</v>
@@ -4493,7 +4536,7 @@
     </row>
     <row r="142" spans="31:32" customHeight="1">
       <c r="AE142" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF142" s="0" t="n">
         <v>10000</v>
@@ -4501,7 +4544,7 @@
     </row>
     <row r="143" spans="31:32" customHeight="1">
       <c r="AE143" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AF143" s="0" t="n">
         <v>10000</v>
@@ -4509,7 +4552,7 @@
     </row>
     <row r="144" spans="31:32" customHeight="1">
       <c r="AE144" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AF144" s="0" t="n">
         <v>10000</v>
@@ -4517,7 +4560,7 @@
     </row>
     <row r="145" spans="31:32" customHeight="1">
       <c r="AE145" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF145" s="0" t="n">
         <v>20000</v>
@@ -4525,7 +4568,7 @@
     </row>
     <row r="146" spans="31:32" customHeight="1">
       <c r="AE146" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AF146" s="0" t="n">
         <v>10000</v>
@@ -4533,7 +4576,7 @@
     </row>
     <row r="147" spans="31:32" customHeight="1">
       <c r="AE147" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AF147" s="0" t="n">
         <v>10000</v>
@@ -4541,7 +4584,7 @@
     </row>
     <row r="148" spans="31:32" customHeight="1">
       <c r="AE148" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF148" s="0" t="n">
         <v>10000</v>
@@ -4549,7 +4592,7 @@
     </row>
     <row r="149" spans="31:32" customHeight="1">
       <c r="AE149" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF149" s="0" t="n">
         <v>10000</v>
@@ -4557,7 +4600,7 @@
     </row>
     <row r="150" spans="31:32" customHeight="1">
       <c r="AE150" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AF150" s="0" t="n">
         <v>10000</v>
@@ -4565,7 +4608,7 @@
     </row>
     <row r="151" spans="31:32" customHeight="1">
       <c r="AE151" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AF151" s="0" t="n">
         <v>10000</v>
@@ -4573,7 +4616,7 @@
     </row>
     <row r="152" spans="31:32" customHeight="1">
       <c r="AE152" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AF152" s="0" t="n">
         <v>10000</v>
@@ -4581,7 +4624,7 @@
     </row>
     <row r="153" spans="31:32" customHeight="1">
       <c r="AE153" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AF153" s="0" t="n">
         <v>10000</v>
@@ -4589,7 +4632,7 @@
     </row>
     <row r="154" spans="31:32" customHeight="1">
       <c r="AE154" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF154" s="0" t="n">
         <v>10000</v>
@@ -4597,7 +4640,7 @@
     </row>
     <row r="155" spans="31:32" customHeight="1">
       <c r="AE155" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF155" s="0" t="n">
         <v>10000</v>
@@ -4605,7 +4648,7 @@
     </row>
     <row r="156" spans="31:32" customHeight="1">
       <c r="AE156" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF156" s="0" t="n">
         <v>10000</v>
@@ -4613,7 +4656,7 @@
     </row>
     <row r="157" spans="31:32" customHeight="1">
       <c r="AE157" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF157" s="0" t="n">
         <v>10000</v>
@@ -4621,7 +4664,7 @@
     </row>
     <row r="158" spans="31:32" customHeight="1">
       <c r="AE158" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AF158" s="0" t="n">
         <v>20000</v>
@@ -4629,7 +4672,7 @@
     </row>
     <row r="159" spans="31:32" customHeight="1">
       <c r="AE159" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF159" s="0" t="n">
         <v>10000</v>
@@ -4637,7 +4680,7 @@
     </row>
     <row r="160" spans="31:32" customHeight="1">
       <c r="AE160" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF160" s="0" t="n">
         <v>10000</v>
@@ -4645,7 +4688,7 @@
     </row>
     <row r="161" spans="31:32" customHeight="1">
       <c r="AE161" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF161" s="0" t="n">
         <v>10000</v>
@@ -4653,7 +4696,7 @@
     </row>
     <row r="162" spans="31:32" customHeight="1">
       <c r="AE162" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AF162" s="0" t="n">
         <v>10000</v>
@@ -4661,7 +4704,7 @@
     </row>
     <row r="163" spans="31:32" customHeight="1">
       <c r="AE163" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF163" s="0" t="n">
         <v>20000</v>
@@ -4669,7 +4712,7 @@
     </row>
     <row r="164" spans="31:32" customHeight="1">
       <c r="AE164" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF164" s="0" t="n">
         <v>10000</v>
@@ -4677,7 +4720,7 @@
     </row>
     <row r="165" spans="31:32" customHeight="1">
       <c r="AE165" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF165" s="0" t="n">
         <v>10000</v>
@@ -4685,7 +4728,7 @@
     </row>
     <row r="166" spans="31:32" customHeight="1">
       <c r="AE166" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AF166" s="0" t="n">
         <v>10000</v>
@@ -4693,7 +4736,7 @@
     </row>
     <row r="167" spans="31:32" customHeight="1">
       <c r="AE167" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF167" s="0" t="n">
         <v>10000</v>
@@ -4701,7 +4744,7 @@
     </row>
     <row r="168" spans="31:32" customHeight="1">
       <c r="AE168" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF168" s="0" t="n">
         <v>10000</v>
@@ -4709,7 +4752,7 @@
     </row>
     <row r="169" spans="31:32" customHeight="1">
       <c r="AE169" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AF169" s="0" t="n">
         <v>10000</v>
@@ -4717,7 +4760,7 @@
     </row>
     <row r="170" spans="31:32" customHeight="1">
       <c r="AE170" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AF170" s="0" t="n">
         <v>20000</v>
@@ -4725,7 +4768,7 @@
     </row>
     <row r="171" spans="31:32" customHeight="1">
       <c r="AE171" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF171" s="0" t="n">
         <v>10000</v>
@@ -4733,7 +4776,7 @@
     </row>
     <row r="172" spans="31:32" customHeight="1">
       <c r="AE172" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF172" s="0" t="n">
         <v>10000</v>
@@ -4741,7 +4784,7 @@
     </row>
     <row r="173" spans="31:32" customHeight="1">
       <c r="AE173" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF173" s="0" t="n">
         <v>10000</v>
@@ -4749,7 +4792,7 @@
     </row>
     <row r="174" spans="31:32" customHeight="1">
       <c r="AE174" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF174" s="0" t="n">
         <v>10000</v>
@@ -4757,7 +4800,7 @@
     </row>
     <row r="175" spans="31:32" customHeight="1">
       <c r="AE175" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF175" s="0" t="n">
         <v>10000</v>
@@ -4765,7 +4808,7 @@
     </row>
     <row r="176" spans="31:32" customHeight="1">
       <c r="AE176" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF176" s="0" t="n">
         <v>10000</v>
@@ -4773,7 +4816,7 @@
     </row>
     <row r="177" spans="31:32" customHeight="1">
       <c r="AE177" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF177" s="0" t="n">
         <v>25000</v>
@@ -4781,7 +4824,7 @@
     </row>
     <row r="178" spans="31:32" customHeight="1">
       <c r="AE178" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF178" s="0" t="n">
         <v>10000</v>
@@ -4789,7 +4832,7 @@
     </row>
     <row r="179" spans="31:32" customHeight="1">
       <c r="AE179" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF179" s="0" t="n">
         <v>20000</v>
@@ -4797,7 +4840,7 @@
     </row>
     <row r="180" spans="31:32" customHeight="1">
       <c r="AE180" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF180" s="0" t="n">
         <v>10000</v>
@@ -4805,7 +4848,7 @@
     </row>
     <row r="181" spans="31:32" customHeight="1">
       <c r="AE181" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF181" s="0" t="n">
         <v>20000</v>
@@ -4813,7 +4856,7 @@
     </row>
     <row r="182" spans="31:32" customHeight="1">
       <c r="AE182" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF182" s="0" t="n">
         <v>20000</v>
@@ -4821,7 +4864,7 @@
     </row>
     <row r="183" spans="31:32" customHeight="1">
       <c r="AE183" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF183" s="0" t="n">
         <v>20000</v>
@@ -4829,7 +4872,7 @@
     </row>
     <row r="184" spans="31:32" customHeight="1">
       <c r="AE184" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF184" s="0" t="n">
         <v>20000</v>
@@ -4837,7 +4880,7 @@
     </row>
     <row r="185" spans="31:32" customHeight="1">
       <c r="AE185" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AF185" s="0" t="n">
         <v>10000</v>
@@ -4845,7 +4888,7 @@
     </row>
     <row r="186" spans="31:32" customHeight="1">
       <c r="AE186" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF186" s="0" t="n">
         <v>10000</v>
@@ -4853,7 +4896,7 @@
     </row>
     <row r="187" spans="31:32" customHeight="1">
       <c r="AE187" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF187" s="0" t="n">
         <v>10000</v>
@@ -4861,7 +4904,7 @@
     </row>
     <row r="188" spans="31:32" customHeight="1">
       <c r="AE188" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF188" s="0" t="n">
         <v>20000</v>
@@ -4869,7 +4912,7 @@
     </row>
     <row r="189" spans="31:32" customHeight="1">
       <c r="AE189" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF189" s="0" t="n">
         <v>10000</v>
@@ -4877,7 +4920,7 @@
     </row>
     <row r="190" spans="31:32" customHeight="1">
       <c r="AE190" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AF190" s="0" t="n">
         <v>10000</v>
@@ -4885,7 +4928,7 @@
     </row>
     <row r="191" spans="31:32" customHeight="1">
       <c r="AE191" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AF191" s="0" t="n">
         <v>20000</v>
@@ -4893,7 +4936,7 @@
     </row>
     <row r="192" spans="31:32" customHeight="1">
       <c r="AE192" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AF192" s="0" t="n">
         <v>20000</v>
@@ -4901,7 +4944,7 @@
     </row>
     <row r="193" spans="31:32" customHeight="1">
       <c r="AE193" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AF193" s="0" t="n">
         <v>10000</v>
@@ -4909,7 +4952,7 @@
     </row>
     <row r="194" spans="31:32" customHeight="1">
       <c r="AE194" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF194" s="0" t="n">
         <v>10000</v>
@@ -4917,7 +4960,7 @@
     </row>
     <row r="195" spans="31:32" customHeight="1">
       <c r="AE195" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF195" s="0" t="n">
         <v>10000</v>
@@ -4925,7 +4968,7 @@
     </row>
     <row r="196" spans="31:32" customHeight="1">
       <c r="AE196" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AF196" s="0" t="n">
         <v>10000</v>
@@ -4933,7 +4976,7 @@
     </row>
     <row r="197" spans="31:32" customHeight="1">
       <c r="AE197" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF197" s="0" t="n">
         <v>20000</v>
@@ -4941,7 +4984,7 @@
     </row>
     <row r="198" spans="31:32" customHeight="1">
       <c r="AE198" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AF198" s="0" t="n">
         <v>20000</v>
@@ -4949,7 +4992,7 @@
     </row>
     <row r="199" spans="31:32" customHeight="1">
       <c r="AE199" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AF199" s="0" t="n">
         <v>10000</v>
@@ -4957,7 +5000,7 @@
     </row>
     <row r="200" spans="31:32" customHeight="1">
       <c r="AE200" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF200" s="0" t="n">
         <v>10000</v>
@@ -4965,7 +5008,7 @@
     </row>
     <row r="201" spans="31:32" customHeight="1">
       <c r="AE201" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AF201" s="0" t="n">
         <v>10000</v>
@@ -4973,7 +5016,7 @@
     </row>
     <row r="202" spans="31:32" customHeight="1">
       <c r="AE202" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF202" s="0" t="n">
         <v>20000</v>
@@ -4981,7 +5024,7 @@
     </row>
     <row r="203" spans="31:32" customHeight="1">
       <c r="AE203" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF203" s="0" t="n">
         <v>10000</v>
@@ -4989,7 +5032,7 @@
     </row>
     <row r="204" spans="31:32" customHeight="1">
       <c r="AE204" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AF204" s="0" t="n">
         <v>10000</v>
@@ -4997,7 +5040,7 @@
     </row>
     <row r="205" spans="31:32" customHeight="1">
       <c r="AE205" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AF205" s="0" t="n">
         <v>20000</v>
@@ -5005,7 +5048,7 @@
     </row>
     <row r="206" spans="31:32" customHeight="1">
       <c r="AE206" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AF206" s="0" t="n">
         <v>10000</v>
@@ -5013,7 +5056,7 @@
     </row>
     <row r="207" spans="31:32" customHeight="1">
       <c r="AE207" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AF207" s="0" t="n">
         <v>10000</v>
@@ -5021,7 +5064,7 @@
     </row>
     <row r="208" spans="31:32" customHeight="1">
       <c r="AE208" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AF208" s="0" t="n">
         <v>10000</v>
@@ -5029,7 +5072,7 @@
     </row>
     <row r="209" spans="31:32" customHeight="1">
       <c r="AE209" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF209" s="0" t="n">
         <v>20000</v>
@@ -5037,7 +5080,7 @@
     </row>
     <row r="210" spans="31:32" customHeight="1">
       <c r="AE210" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF210" s="0" t="n">
         <v>10000</v>
@@ -5045,7 +5088,7 @@
     </row>
     <row r="211" spans="31:32" customHeight="1">
       <c r="AE211" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF211" s="0" t="n">
         <v>20000</v>
@@ -5053,7 +5096,7 @@
     </row>
     <row r="212" spans="31:32" customHeight="1">
       <c r="AE212" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AF212" s="0" t="n">
         <v>10000</v>
@@ -5061,7 +5104,7 @@
     </row>
     <row r="213" spans="31:32" customHeight="1">
       <c r="AE213" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AF213" s="0" t="n">
         <v>10000</v>
@@ -5069,7 +5112,7 @@
     </row>
     <row r="214" spans="31:32" customHeight="1">
       <c r="AE214" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AF214" s="0" t="n">
         <v>10000</v>
@@ -5077,7 +5120,7 @@
     </row>
     <row r="215" spans="31:32" customHeight="1">
       <c r="AE215" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AF215" s="0" t="n">
         <v>20000</v>
@@ -5085,7 +5128,7 @@
     </row>
     <row r="216" spans="31:32" customHeight="1">
       <c r="AE216" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AF216" s="0" t="n">
         <v>10000</v>
@@ -5093,7 +5136,7 @@
     </row>
     <row r="217" spans="31:32" customHeight="1">
       <c r="AE217" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AF217" s="0" t="n">
         <v>10000</v>
@@ -5101,7 +5144,7 @@
     </row>
     <row r="218" spans="31:32" customHeight="1">
       <c r="AE218" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF218" s="0" t="n">
         <v>10000</v>
@@ -5109,7 +5152,7 @@
     </row>
     <row r="219" spans="31:32" customHeight="1">
       <c r="AE219" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF219" s="0" t="n">
         <v>10000</v>
@@ -5117,7 +5160,7 @@
     </row>
     <row r="220" spans="31:32" customHeight="1">
       <c r="AE220" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AF220" s="0" t="n">
         <v>20000</v>
@@ -5125,7 +5168,7 @@
     </row>
     <row r="221" spans="31:32" customHeight="1">
       <c r="AE221" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AF221" s="0" t="n">
         <v>10000</v>
@@ -5133,7 +5176,7 @@
     </row>
     <row r="222" spans="31:32" customHeight="1">
       <c r="AE222" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AF222" s="0" t="n">
         <v>10000</v>
@@ -5141,7 +5184,7 @@
     </row>
     <row r="223" spans="31:32" customHeight="1">
       <c r="AE223" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AF223" s="0" t="n">
         <v>10000</v>
@@ -5149,7 +5192,7 @@
     </row>
     <row r="224" spans="31:32" customHeight="1">
       <c r="AE224" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF224" s="0" t="n">
         <v>10000</v>
@@ -5157,7 +5200,7 @@
     </row>
     <row r="225" spans="31:32" customHeight="1">
       <c r="AE225" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AF225" s="0" t="n">
         <v>10000</v>
@@ -5165,7 +5208,7 @@
     </row>
     <row r="226" spans="31:32" customHeight="1">
       <c r="AE226" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF226" s="0" t="n">
         <v>10000</v>
@@ -5173,7 +5216,7 @@
     </row>
     <row r="227" spans="31:32" customHeight="1">
       <c r="AE227" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AF227" s="0" t="n">
         <v>10000</v>
@@ -5181,7 +5224,7 @@
     </row>
     <row r="228" spans="31:32" customHeight="1">
       <c r="AE228" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF228" s="0" t="n">
         <v>10000</v>
@@ -5189,7 +5232,7 @@
     </row>
     <row r="229" spans="31:32" customHeight="1">
       <c r="AE229" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF229" s="0" t="n">
         <v>20000</v>
@@ -5197,7 +5240,7 @@
     </row>
     <row r="230" spans="31:32" customHeight="1">
       <c r="AE230" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AF230" s="0" t="n">
         <v>20000</v>
@@ -5205,7 +5248,7 @@
     </row>
     <row r="231" spans="31:32" customHeight="1">
       <c r="AE231" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF231" s="0" t="n">
         <v>10000</v>
@@ -5213,7 +5256,7 @@
     </row>
     <row r="232" spans="31:32" customHeight="1">
       <c r="AE232" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF232" s="0" t="n">
         <v>10000</v>
@@ -5221,7 +5264,7 @@
     </row>
     <row r="233" spans="31:32" customHeight="1">
       <c r="AE233" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AF233" s="0" t="n">
         <v>10000</v>
@@ -5229,7 +5272,7 @@
     </row>
     <row r="234" spans="31:32" customHeight="1">
       <c r="AE234" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AF234" s="0" t="n">
         <v>10000</v>
@@ -5237,7 +5280,7 @@
     </row>
     <row r="235" spans="31:32" customHeight="1">
       <c r="AE235" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AF235" s="0" t="n">
         <v>10000</v>
@@ -5245,7 +5288,7 @@
     </row>
     <row r="236" spans="31:32" customHeight="1">
       <c r="AE236" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AF236" s="0" t="n">
         <v>10000</v>
@@ -5253,7 +5296,7 @@
     </row>
     <row r="237" spans="31:32" customHeight="1">
       <c r="AE237" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AF237" s="0" t="n">
         <v>10000</v>
@@ -5261,7 +5304,7 @@
     </row>
     <row r="238" spans="31:32" customHeight="1">
       <c r="AE238" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AF238" s="0" t="n">
         <v>10000</v>
@@ -5269,7 +5312,7 @@
     </row>
     <row r="239" spans="31:32" customHeight="1">
       <c r="AE239" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AF239" s="0" t="n">
         <v>20000</v>
@@ -5277,7 +5320,7 @@
     </row>
     <row r="240" spans="31:32" customHeight="1">
       <c r="AE240" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AF240" s="0" t="n">
         <v>10000</v>
@@ -5285,7 +5328,7 @@
     </row>
     <row r="241" spans="31:32" customHeight="1">
       <c r="AE241" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF241" s="0" t="n">
         <v>10000</v>
@@ -5293,7 +5336,7 @@
     </row>
     <row r="242" spans="31:32" customHeight="1">
       <c r="AE242" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AF242" s="0" t="n">
         <v>10000</v>
@@ -5301,7 +5344,7 @@
     </row>
     <row r="243" spans="31:32" customHeight="1">
       <c r="AE243" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AF243" s="0" t="n">
         <v>20000</v>
@@ -5309,7 +5352,7 @@
     </row>
     <row r="244" spans="31:32" customHeight="1">
       <c r="AE244" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AF244" s="0" t="n">
         <v>10000</v>
@@ -5317,7 +5360,7 @@
     </row>
     <row r="245" spans="31:32" customHeight="1">
       <c r="AE245" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AF245" s="0" t="n">
         <v>10000</v>
@@ -5325,7 +5368,7 @@
     </row>
     <row r="246" spans="31:32" customHeight="1">
       <c r="AE246" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AF246" s="0" t="n">
         <v>25000</v>
@@ -5333,7 +5376,7 @@
     </row>
     <row r="247" spans="31:32" customHeight="1">
       <c r="AE247" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AF247" s="0" t="n">
         <v>10000</v>
@@ -5341,7 +5384,7 @@
     </row>
     <row r="248" spans="31:32" customHeight="1">
       <c r="AE248" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AF248" s="0" t="n">
         <v>10000</v>
@@ -5349,7 +5392,7 @@
     </row>
     <row r="249" spans="31:32" customHeight="1">
       <c r="AE249" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AF249" s="0" t="n">
         <v>10000</v>
@@ -5357,7 +5400,7 @@
     </row>
     <row r="250" spans="31:32" customHeight="1">
       <c r="AE250" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AF250" s="0" t="n">
         <v>10000</v>
@@ -5365,7 +5408,7 @@
     </row>
     <row r="251" spans="31:32" customHeight="1">
       <c r="AE251" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AF251" s="0" t="n">
         <v>10000</v>
@@ -5373,7 +5416,7 @@
     </row>
     <row r="252" spans="31:32" customHeight="1">
       <c r="AE252" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AF252" s="0" t="n">
         <v>10000</v>
@@ -5381,7 +5424,7 @@
     </row>
     <row r="253" spans="31:32" customHeight="1">
       <c r="AE253" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AF253" s="0" t="n">
         <v>10000</v>
@@ -5389,7 +5432,7 @@
     </row>
     <row r="254" spans="31:32" customHeight="1">
       <c r="AE254" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AF254" s="0" t="n">
         <v>10000</v>
@@ -5397,7 +5440,7 @@
     </row>
     <row r="255" spans="31:32" customHeight="1">
       <c r="AE255" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AF255" s="0" t="n">
         <v>10000</v>
@@ -5405,7 +5448,7 @@
     </row>
     <row r="256" spans="31:32" customHeight="1">
       <c r="AE256" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AF256" s="0" t="n">
         <v>10000</v>
@@ -5413,7 +5456,7 @@
     </row>
     <row r="257" spans="31:32" customHeight="1">
       <c r="AE257" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AF257" s="0" t="n">
         <v>10000</v>
@@ -5421,7 +5464,7 @@
     </row>
     <row r="258" spans="31:32" customHeight="1">
       <c r="AE258" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AF258" s="0" t="n">
         <v>20000</v>
@@ -5429,7 +5472,7 @@
     </row>
     <row r="259" spans="31:32" customHeight="1">
       <c r="AE259" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AF259" s="0" t="n">
         <v>10000</v>
@@ -5437,7 +5480,7 @@
     </row>
     <row r="260" spans="31:32" customHeight="1">
       <c r="AE260" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AF260" s="0" t="n">
         <v>10000</v>
@@ -5445,7 +5488,7 @@
     </row>
     <row r="261" spans="31:32" customHeight="1">
       <c r="AE261" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AF261" s="0" t="n">
         <v>10000</v>
@@ -5453,7 +5496,7 @@
     </row>
     <row r="262" spans="31:32" customHeight="1">
       <c r="AE262" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AF262" s="0" t="n">
         <v>25000</v>
@@ -5461,7 +5504,7 @@
     </row>
     <row r="263" spans="31:32" customHeight="1">
       <c r="AE263" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AF263" s="0" t="n">
         <v>25000</v>
@@ -5469,7 +5512,7 @@
     </row>
     <row r="264" spans="31:32" customHeight="1">
       <c r="AE264" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF264" s="0" t="n">
         <v>10000</v>
@@ -5477,7 +5520,7 @@
     </row>
     <row r="265" spans="31:32" customHeight="1">
       <c r="AE265" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF265" s="0" t="n">
         <v>20000</v>
@@ -5485,7 +5528,7 @@
     </row>
     <row r="266" spans="31:32" customHeight="1">
       <c r="AE266" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AF266" s="0" t="n">
         <v>10000</v>
@@ -5493,7 +5536,7 @@
     </row>
     <row r="267" spans="31:32" customHeight="1">
       <c r="AE267" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AF267" s="0" t="n">
         <v>20000</v>
@@ -5501,7 +5544,7 @@
     </row>
     <row r="268" spans="31:32" customHeight="1">
       <c r="AE268" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AF268" s="0" t="n">
         <v>20000</v>
@@ -5509,7 +5552,7 @@
     </row>
     <row r="269" spans="31:32" customHeight="1">
       <c r="AE269" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AF269" s="0" t="n">
         <v>10000</v>
@@ -5517,7 +5560,7 @@
     </row>
     <row r="270" spans="31:32" customHeight="1">
       <c r="AE270" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AF270" s="0" t="n">
         <v>10000</v>
@@ -5525,7 +5568,7 @@
     </row>
     <row r="271" spans="31:32" customHeight="1">
       <c r="AE271" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF271" s="0" t="n">
         <v>10000</v>
@@ -5533,7 +5576,7 @@
     </row>
     <row r="272" spans="31:32" customHeight="1">
       <c r="AE272" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AF272" s="0" t="n">
         <v>20000</v>
@@ -5541,7 +5584,7 @@
     </row>
     <row r="273" spans="31:32" customHeight="1">
       <c r="AE273" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF273" s="0" t="n">
         <v>10000</v>
@@ -5549,7 +5592,7 @@
     </row>
     <row r="274" spans="31:32" customHeight="1">
       <c r="AE274" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AF274" s="0" t="n">
         <v>20000</v>
@@ -5557,7 +5600,7 @@
     </row>
     <row r="275" spans="31:32" customHeight="1">
       <c r="AE275" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AF275" s="0" t="n">
         <v>20000</v>
@@ -5565,7 +5608,7 @@
     </row>
     <row r="276" spans="31:32" customHeight="1">
       <c r="AE276" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AF276" s="0" t="n">
         <v>10000</v>
@@ -5573,7 +5616,7 @@
     </row>
     <row r="277" spans="31:32" customHeight="1">
       <c r="AE277" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF277" s="0" t="n">
         <v>10000</v>
@@ -5581,7 +5624,7 @@
     </row>
     <row r="278" spans="31:32" customHeight="1">
       <c r="AE278" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF278" s="0" t="n">
         <v>10000</v>
@@ -5589,7 +5632,7 @@
     </row>
     <row r="279" spans="31:32" customHeight="1">
       <c r="AE279" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AF279" s="0" t="n">
         <v>10000</v>
@@ -5597,7 +5640,7 @@
     </row>
     <row r="280" spans="31:32" customHeight="1">
       <c r="AE280" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF280" s="0" t="n">
         <v>10000</v>
@@ -5605,7 +5648,7 @@
     </row>
     <row r="281" spans="31:32" customHeight="1">
       <c r="AE281" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AF281" s="0" t="n">
         <v>10000</v>
@@ -5613,7 +5656,7 @@
     </row>
     <row r="282" spans="31:32" customHeight="1">
       <c r="AE282" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AF282" s="0" t="n">
         <v>10000</v>
@@ -5621,7 +5664,7 @@
     </row>
     <row r="283" spans="31:32" customHeight="1">
       <c r="AE283" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AF283" s="0" t="n">
         <v>10000</v>
@@ -5629,7 +5672,7 @@
     </row>
     <row r="284" spans="31:32" customHeight="1">
       <c r="AE284" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AF284" s="0" t="n">
         <v>10000</v>
@@ -5637,7 +5680,7 @@
     </row>
     <row r="285" spans="31:32" customHeight="1">
       <c r="AE285" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AF285" s="0" t="n">
         <v>10000</v>
@@ -5645,7 +5688,7 @@
     </row>
     <row r="286" spans="31:32" customHeight="1">
       <c r="AE286" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AF286" s="0" t="n">
         <v>10000</v>
@@ -5653,7 +5696,7 @@
     </row>
     <row r="287" spans="31:32" customHeight="1">
       <c r="AE287" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AF287" s="0" t="n">
         <v>10000</v>
@@ -5661,7 +5704,7 @@
     </row>
     <row r="288" spans="31:32" customHeight="1">
       <c r="AE288" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AF288" s="0" t="n">
         <v>20000</v>
@@ -5669,7 +5712,7 @@
     </row>
     <row r="289" spans="31:32" customHeight="1">
       <c r="AE289" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AF289" s="0" t="n">
         <v>10000</v>
@@ -5677,7 +5720,7 @@
     </row>
     <row r="290" spans="31:32" customHeight="1">
       <c r="AE290" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AF290" s="0" t="n">
         <v>10000</v>
@@ -5685,7 +5728,7 @@
     </row>
     <row r="291" spans="31:32" customHeight="1">
       <c r="AE291" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AF291" s="0" t="n">
         <v>10000</v>
@@ -5693,7 +5736,7 @@
     </row>
     <row r="292" spans="31:32" customHeight="1">
       <c r="AE292" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AF292" s="0" t="n">
         <v>10000</v>
@@ -5701,7 +5744,7 @@
     </row>
     <row r="293" spans="31:32" customHeight="1">
       <c r="AE293" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AF293" s="0" t="n">
         <v>10000</v>
@@ -5709,7 +5752,7 @@
     </row>
     <row r="294" spans="31:32" customHeight="1">
       <c r="AE294" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AF294" s="0" t="n">
         <v>10000</v>
@@ -5717,7 +5760,7 @@
     </row>
     <row r="295" spans="31:32" customHeight="1">
       <c r="AE295" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AF295" s="0" t="n">
         <v>25000</v>
@@ -5725,7 +5768,7 @@
     </row>
     <row r="296" spans="31:32" customHeight="1">
       <c r="AE296" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AF296" s="0" t="n">
         <v>10000</v>
@@ -5733,7 +5776,7 @@
     </row>
     <row r="297" spans="31:32" customHeight="1">
       <c r="AE297" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AF297" s="0" t="n">
         <v>10000</v>
@@ -5741,7 +5784,7 @@
     </row>
     <row r="298" spans="31:32" customHeight="1">
       <c r="AE298" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AF298" s="0" t="n">
         <v>10000</v>
@@ -5749,7 +5792,7 @@
     </row>
     <row r="299" spans="31:32" customHeight="1">
       <c r="AE299" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AF299" s="0" t="n">
         <v>10000</v>
@@ -5757,7 +5800,7 @@
     </row>
     <row r="300" spans="31:32" customHeight="1">
       <c r="AE300" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AF300" s="0" t="n">
         <v>10000</v>
@@ -5765,7 +5808,7 @@
     </row>
     <row r="301" spans="31:32" customHeight="1">
       <c r="AE301" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AF301" s="0" t="n">
         <v>20000</v>
@@ -5773,7 +5816,7 @@
     </row>
     <row r="302" spans="31:32" customHeight="1">
       <c r="AE302" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AF302" s="0" t="n">
         <v>20000</v>
@@ -5781,7 +5824,7 @@
     </row>
     <row r="303" spans="31:32" customHeight="1">
       <c r="AE303" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AF303" s="0" t="n">
         <v>10000</v>
@@ -5789,7 +5832,7 @@
     </row>
     <row r="304" spans="31:32" customHeight="1">
       <c r="AE304" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AF304" s="0" t="n">
         <v>10000</v>
@@ -5797,7 +5840,7 @@
     </row>
     <row r="305" spans="31:32" customHeight="1">
       <c r="AE305" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AF305" s="0" t="n">
         <v>10000</v>
@@ -5908,7 +5951,7 @@
       <c r="AC1" s="6"/>
       <c r="AD1" s="6"/>
       <c r="AE1" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AF1" s="0" t="n">
         <v>1500</v>
@@ -5954,7 +5997,7 @@
       <c r="AC2" s="9"/>
       <c r="AD2" s="9"/>
       <c r="AE2" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AF2" s="0" t="n">
         <v>1500</v>
@@ -6004,7 +6047,7 @@
       <c r="AC3" s="16"/>
       <c r="AD3" s="16"/>
       <c r="AE3" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AF3" s="0" t="n">
         <v>1500</v>
@@ -6048,7 +6091,7 @@
       <c r="AC4" s="22"/>
       <c r="AD4" s="22"/>
       <c r="AE4" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AF4" s="0" t="n">
         <v>1500</v>
@@ -6059,7 +6102,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" s="26" t="n">
         <v>215</v>
@@ -6071,13 +6114,13 @@
         <f>C5*D5</f>
       </c>
       <c r="F5" s="28" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I5" s="28"/>
       <c r="J5" s="28"/>
@@ -6102,7 +6145,7 @@
       <c r="AC5" s="28"/>
       <c r="AD5" s="28"/>
       <c r="AE5" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AF5" s="0" t="n">
         <v>2500</v>
@@ -6113,7 +6156,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6" s="26" t="n">
         <v>130</v>
@@ -6125,13 +6168,13 @@
         <f>C6*D6</f>
       </c>
       <c r="F6" s="28" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G6" s="28" t="s">
+        <v>362</v>
+      </c>
+      <c r="H6" s="28" t="s">
         <v>361</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>360</v>
       </c>
       <c r="I6" s="28"/>
       <c r="J6" s="28"/>
@@ -6156,7 +6199,7 @@
       <c r="AC6" s="28"/>
       <c r="AD6" s="28"/>
       <c r="AE6" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AF6" s="0" t="n">
         <v>1500</v>
@@ -6167,7 +6210,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C7" s="26" t="n">
         <v>120</v>
@@ -6204,7 +6247,7 @@
       <c r="AC7" s="28"/>
       <c r="AD7" s="28"/>
       <c r="AE7" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AF7" s="0" t="n">
         <v>1500</v>
@@ -6215,7 +6258,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" s="26" t="n">
         <v>110</v>
@@ -6252,7 +6295,7 @@
       <c r="AC8" s="28"/>
       <c r="AD8" s="28"/>
       <c r="AE8" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AF8" s="0" t="n">
         <v>1500</v>
@@ -6263,7 +6306,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C9" s="26" t="n">
         <v>100</v>
@@ -6300,7 +6343,7 @@
       <c r="AC9" s="28"/>
       <c r="AD9" s="28"/>
       <c r="AE9" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AF9" s="0" t="n">
         <v>1500</v>
@@ -6311,7 +6354,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C10" s="30" t="n">
         <v>100</v>
@@ -6348,7 +6391,7 @@
       <c r="AC10" s="29"/>
       <c r="AD10" s="29"/>
       <c r="AE10" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AF10" s="0" t="n">
         <v>1500</v>
@@ -6359,7 +6402,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C11" s="30" t="n">
         <v>100</v>
@@ -6396,7 +6439,7 @@
       <c r="AC11" s="29"/>
       <c r="AD11" s="29"/>
       <c r="AE11" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AF11" s="0" t="n">
         <v>1500</v>
@@ -6407,7 +6450,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C12" s="30" t="n">
         <v>90</v>
@@ -6444,7 +6487,7 @@
       <c r="AC12" s="29"/>
       <c r="AD12" s="29"/>
       <c r="AE12" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AF12" s="0" t="n">
         <v>1500</v>
@@ -6455,7 +6498,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C13" s="30" t="n">
         <v>80</v>
@@ -6492,7 +6535,7 @@
       <c r="AC13" s="29"/>
       <c r="AD13" s="29"/>
       <c r="AE13" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AF13" s="0" t="n">
         <v>1500</v>
@@ -6503,7 +6546,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C14" s="30" t="n">
         <v>70</v>
@@ -6540,7 +6583,7 @@
       <c r="AC14" s="29"/>
       <c r="AD14" s="29"/>
       <c r="AE14" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AF14" s="0" t="n">
         <v>1500</v>
@@ -6551,7 +6594,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C15" s="30" t="n">
         <v>70</v>
@@ -6588,7 +6631,7 @@
       <c r="AC15" s="29"/>
       <c r="AD15" s="29"/>
       <c r="AE15" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AF15" s="0" t="n">
         <v>1500</v>
@@ -6599,7 +6642,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C16" s="30" t="n">
         <v>65</v>
@@ -6636,7 +6679,7 @@
       <c r="AC16" s="29"/>
       <c r="AD16" s="29"/>
       <c r="AE16" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AF16" s="0" t="n">
         <v>1500</v>
@@ -6647,7 +6690,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C17" s="30" t="n">
         <v>60</v>
@@ -6684,7 +6727,7 @@
       <c r="AC17" s="29"/>
       <c r="AD17" s="29"/>
       <c r="AE17" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AF17" s="0" t="n">
         <v>1500</v>
@@ -6695,7 +6738,7 @@
         <v>6</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C18" s="30" t="n">
         <v>60</v>
@@ -6732,7 +6775,7 @@
       <c r="AC18" s="29"/>
       <c r="AD18" s="29"/>
       <c r="AE18" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AF18" s="0" t="n">
         <v>1500</v>
@@ -6743,7 +6786,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C19" s="30" t="n">
         <v>45</v>
@@ -6780,7 +6823,7 @@
       <c r="AC19" s="29"/>
       <c r="AD19" s="29"/>
       <c r="AE19" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AF19" s="0" t="n">
         <v>1500</v>
@@ -6791,7 +6834,7 @@
         <v>7</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C20" s="26" t="n">
         <v>35</v>
@@ -6828,7 +6871,7 @@
       <c r="AC20" s="28"/>
       <c r="AD20" s="28"/>
       <c r="AE20" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AF20" s="0" t="n">
         <v>1500</v>
@@ -6839,7 +6882,7 @@
         <v>7</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C21" s="26" t="n">
         <v>30</v>
@@ -6876,7 +6919,7 @@
       <c r="AC21" s="28"/>
       <c r="AD21" s="28"/>
       <c r="AE21" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AF21" s="0" t="n">
         <v>1500</v>
@@ -6887,7 +6930,7 @@
         <v>7</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C22" s="26" t="n">
         <v>30</v>
@@ -6924,7 +6967,7 @@
       <c r="AC22" s="28"/>
       <c r="AD22" s="28"/>
       <c r="AE22" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AF22" s="0" t="n">
         <v>1500</v>
@@ -6935,7 +6978,7 @@
         <v>7</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C23" s="26" t="n">
         <v>30</v>
@@ -6972,7 +7015,7 @@
       <c r="AC23" s="28"/>
       <c r="AD23" s="28"/>
       <c r="AE23" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AF23" s="0" t="n">
         <v>1500</v>
@@ -6983,7 +7026,7 @@
         <v>7</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C24" s="26" t="n">
         <v>30</v>
@@ -7020,7 +7063,7 @@
       <c r="AC24" s="28"/>
       <c r="AD24" s="28"/>
       <c r="AE24" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AF24" s="0" t="n">
         <v>1500</v>
@@ -7031,7 +7074,7 @@
         <v>7</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C25" s="26" t="n">
         <v>30</v>
@@ -7068,7 +7111,7 @@
       <c r="AC25" s="28"/>
       <c r="AD25" s="28"/>
       <c r="AE25" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AF25" s="0" t="n">
         <v>1500</v>
@@ -7079,7 +7122,7 @@
         <v>7</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C26" s="26" t="n">
         <v>20</v>
@@ -7116,7 +7159,7 @@
       <c r="AC26" s="28"/>
       <c r="AD26" s="28"/>
       <c r="AE26" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AF26" s="0" t="n">
         <v>1500</v>
@@ -7124,7 +7167,7 @@
     </row>
     <row r="27" spans="31:32" customHeight="1">
       <c r="AE27" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AF27" s="0" t="n">
         <v>2500</v>
@@ -7132,7 +7175,7 @@
     </row>
     <row r="28" spans="31:32" customHeight="1">
       <c r="AE28" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AF28" s="0" t="n">
         <v>1500</v>
@@ -7140,7 +7183,7 @@
     </row>
     <row r="29" spans="31:32" customHeight="1">
       <c r="AE29" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AF29" s="0" t="n">
         <v>1500</v>
@@ -7148,7 +7191,7 @@
     </row>
     <row r="30" spans="31:32" customHeight="1">
       <c r="AE30" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AF30" s="0" t="n">
         <v>1500</v>
@@ -7156,7 +7199,7 @@
     </row>
     <row r="31" spans="31:32" customHeight="1">
       <c r="AE31" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AF31" s="0" t="n">
         <v>1500</v>
@@ -7164,7 +7207,7 @@
     </row>
     <row r="32" spans="31:32" customHeight="1">
       <c r="AE32" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AF32" s="0" t="n">
         <v>1500</v>
@@ -7172,7 +7215,7 @@
     </row>
     <row r="33" spans="31:32" customHeight="1">
       <c r="AE33" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AF33" s="0" t="n">
         <v>1500</v>
@@ -7180,7 +7223,7 @@
     </row>
     <row r="34" spans="31:32" customHeight="1">
       <c r="AE34" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AF34" s="0" t="n">
         <v>1500</v>
@@ -7188,7 +7231,7 @@
     </row>
     <row r="35" spans="31:32" customHeight="1">
       <c r="AE35" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AF35" s="0" t="n">
         <v>1500</v>
@@ -7196,7 +7239,7 @@
     </row>
     <row r="36" spans="31:32" customHeight="1">
       <c r="AE36" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AF36" s="0" t="n">
         <v>1500</v>
@@ -7204,7 +7247,7 @@
     </row>
     <row r="37" spans="31:32" customHeight="1">
       <c r="AE37" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AF37" s="0" t="n">
         <v>2500</v>
@@ -7212,7 +7255,7 @@
     </row>
     <row r="38" spans="31:32" customHeight="1">
       <c r="AE38" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AF38" s="0" t="n">
         <v>1500</v>
@@ -7220,7 +7263,7 @@
     </row>
     <row r="39" spans="31:32" customHeight="1">
       <c r="AE39" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AF39" s="0" t="n">
         <v>1500</v>
@@ -7228,7 +7271,7 @@
     </row>
     <row r="40" spans="31:32" customHeight="1">
       <c r="AE40" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AF40" s="0" t="n">
         <v>1500</v>
@@ -7236,7 +7279,7 @@
     </row>
     <row r="41" spans="31:32" customHeight="1">
       <c r="AE41" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AF41" s="0" t="n">
         <v>1500</v>
@@ -7244,7 +7287,7 @@
     </row>
     <row r="42" spans="31:32" customHeight="1">
       <c r="AE42" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AF42" s="0" t="n">
         <v>1500</v>
@@ -7252,7 +7295,7 @@
     </row>
     <row r="43" spans="31:32" customHeight="1">
       <c r="AE43" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AF43" s="0" t="n">
         <v>1500</v>
@@ -7260,7 +7303,7 @@
     </row>
     <row r="44" spans="31:32" customHeight="1">
       <c r="AE44" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AF44" s="0" t="n">
         <v>1500</v>
@@ -7268,7 +7311,7 @@
     </row>
     <row r="45" spans="31:32" customHeight="1">
       <c r="AE45" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AF45" s="0" t="n">
         <v>1500</v>
@@ -7276,7 +7319,7 @@
     </row>
     <row r="46" spans="31:32" customHeight="1">
       <c r="AE46" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AF46" s="0" t="n">
         <v>2500</v>
@@ -7284,7 +7327,7 @@
     </row>
     <row r="47" spans="31:32" customHeight="1">
       <c r="AE47" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AF47" s="0" t="n">
         <v>1500</v>
@@ -7292,7 +7335,7 @@
     </row>
     <row r="48" spans="31:32" customHeight="1">
       <c r="AE48" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AF48" s="0" t="n">
         <v>1500</v>
@@ -7300,7 +7343,7 @@
     </row>
     <row r="49" spans="31:32" customHeight="1">
       <c r="AE49" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AF49" s="0" t="n">
         <v>2500</v>
@@ -7308,7 +7351,7 @@
     </row>
     <row r="50" spans="31:32" customHeight="1">
       <c r="AE50" s="0" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AF50" s="0" t="n">
         <v>1500</v>
@@ -7316,7 +7359,7 @@
     </row>
     <row r="51" spans="31:32" customHeight="1">
       <c r="AE51" s="0" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AF51" s="0" t="n">
         <v>3000</v>
@@ -7324,7 +7367,7 @@
     </row>
     <row r="52" spans="31:32" customHeight="1">
       <c r="AE52" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AF52" s="0" t="n">
         <v>2500</v>
@@ -7332,7 +7375,7 @@
     </row>
     <row r="53" spans="31:32" customHeight="1">
       <c r="AE53" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AF53" s="0" t="n">
         <v>1500</v>
@@ -7340,7 +7383,7 @@
     </row>
     <row r="54" spans="31:32" customHeight="1">
       <c r="AE54" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AF54" s="0" t="n">
         <v>1500</v>
@@ -7348,7 +7391,7 @@
     </row>
     <row r="55" spans="31:32" customHeight="1">
       <c r="AE55" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AF55" s="0" t="n">
         <v>1500</v>
@@ -7356,7 +7399,7 @@
     </row>
     <row r="56" spans="31:32" customHeight="1">
       <c r="AE56" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AF56" s="0" t="n">
         <v>1500</v>
@@ -7364,7 +7407,7 @@
     </row>
     <row r="57" spans="31:32" customHeight="1">
       <c r="AE57" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AF57" s="0" t="n">
         <v>1500</v>
@@ -7372,7 +7415,7 @@
     </row>
     <row r="58" spans="31:32" customHeight="1">
       <c r="AE58" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AF58" s="0" t="n">
         <v>1500</v>
@@ -7380,7 +7423,7 @@
     </row>
     <row r="59" spans="31:32" customHeight="1">
       <c r="AE59" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AF59" s="0" t="n">
         <v>2500</v>
@@ -7388,7 +7431,7 @@
     </row>
     <row r="60" spans="31:32" customHeight="1">
       <c r="AE60" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AF60" s="0" t="n">
         <v>1500</v>
@@ -7396,7 +7439,7 @@
     </row>
     <row r="61" spans="31:32" customHeight="1">
       <c r="AE61" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AF61" s="0" t="n">
         <v>2500</v>
@@ -7404,7 +7447,7 @@
     </row>
     <row r="62" spans="31:32" customHeight="1">
       <c r="AE62" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AF62" s="0" t="n">
         <v>1500</v>
@@ -7412,7 +7455,7 @@
     </row>
     <row r="63" spans="31:32" customHeight="1">
       <c r="AE63" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AF63" s="0" t="n">
         <v>1500</v>
@@ -7420,7 +7463,7 @@
     </row>
     <row r="64" spans="31:32" customHeight="1">
       <c r="AE64" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AF64" s="0" t="n">
         <v>1500</v>
@@ -7428,7 +7471,7 @@
     </row>
     <row r="65" spans="31:32" customHeight="1">
       <c r="AE65" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AF65" s="0" t="n">
         <v>1500</v>
@@ -7436,7 +7479,7 @@
     </row>
     <row r="66" spans="31:32" customHeight="1">
       <c r="AE66" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AF66" s="0" t="n">
         <v>1500</v>
@@ -7444,7 +7487,7 @@
     </row>
     <row r="67" spans="31:32" customHeight="1">
       <c r="AE67" s="0" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AF67" s="0" t="n">
         <v>1500</v>
@@ -7452,7 +7495,7 @@
     </row>
     <row r="68" spans="31:32" customHeight="1">
       <c r="AE68" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AF68" s="0" t="n">
         <v>1500</v>
@@ -7460,7 +7503,7 @@
     </row>
     <row r="69" spans="31:32" customHeight="1">
       <c r="AE69" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AF69" s="0" t="n">
         <v>1500</v>
@@ -7468,7 +7511,7 @@
     </row>
     <row r="70" spans="31:32" customHeight="1">
       <c r="AE70" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AF70" s="0" t="n">
         <v>1500</v>
@@ -7476,7 +7519,7 @@
     </row>
     <row r="71" spans="31:32" customHeight="1">
       <c r="AE71" s="0" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AF71" s="0" t="n">
         <v>2500</v>
@@ -7484,7 +7527,7 @@
     </row>
     <row r="72" spans="31:32" customHeight="1">
       <c r="AE72" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AF72" s="0" t="n">
         <v>1500</v>
@@ -7492,7 +7535,7 @@
     </row>
     <row r="73" spans="31:32" customHeight="1">
       <c r="AE73" s="0" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AF73" s="0" t="n">
         <v>1500</v>

--- a/public/port-battle.xlsx
+++ b/public/port-battle.xlsx
@@ -89,22 +89,22 @@
     <t>Wasa</t>
   </si>
   <si>
+    <t>Agamemnon</t>
+  </si>
+  <si>
+    <t>Rättvisan</t>
+  </si>
+  <si>
     <t>Leopard</t>
   </si>
   <si>
-    <t>Agamemnon</t>
-  </si>
-  <si>
-    <t>Rättvisan</t>
+    <t>Indefatigable</t>
+  </si>
+  <si>
+    <t>Ingermanland</t>
   </si>
   <si>
     <t>Wapen von Hamburg</t>
-  </si>
-  <si>
-    <t>Indefatigable</t>
-  </si>
-  <si>
-    <t>Ingermanland</t>
   </si>
   <si>
     <t>Endymion</t>
@@ -1689,7 +1689,7 @@
         <v>54</v>
       </c>
       <c r="AF2" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="3" spans="1:32" customHeight="1">
@@ -1739,7 +1739,7 @@
         <v>55</v>
       </c>
       <c r="AF3" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="4" spans="1:32" customHeight="1">
@@ -1783,7 +1783,7 @@
         <v>56</v>
       </c>
       <c r="AF4" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="5" spans="1:32" customHeight="1">
@@ -1939,7 +1939,7 @@
         <v>59</v>
       </c>
       <c r="AF7" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="8" spans="1:32" customHeight="1">
@@ -1987,7 +1987,7 @@
         <v>60</v>
       </c>
       <c r="AF8" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="9" spans="1:32" customHeight="1">
@@ -2035,7 +2035,7 @@
         <v>61</v>
       </c>
       <c r="AF9" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="10" spans="1:32" customHeight="1">
@@ -2131,7 +2131,7 @@
         <v>63</v>
       </c>
       <c r="AF11" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="12" spans="1:32" customHeight="1">
@@ -2179,7 +2179,7 @@
         <v>64</v>
       </c>
       <c r="AF12" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="13" spans="1:32" customHeight="1">
@@ -2227,7 +2227,7 @@
         <v>65</v>
       </c>
       <c r="AF13" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="14" spans="1:32" customHeight="1">
@@ -2275,7 +2275,7 @@
         <v>66</v>
       </c>
       <c r="AF14" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="15" spans="1:32" customHeight="1">
@@ -2323,7 +2323,7 @@
         <v>67</v>
       </c>
       <c r="AF15" s="0" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="16" spans="1:32" customHeight="1">
@@ -2419,7 +2419,7 @@
         <v>69</v>
       </c>
       <c r="AF17" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="18" spans="1:32" customHeight="1">
@@ -2430,7 +2430,7 @@
         <v>25</v>
       </c>
       <c r="C18" s="30" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="D18" s="30">
         <f>COUNTA(F18:AD18)</f>
@@ -2515,7 +2515,7 @@
         <v>71</v>
       </c>
       <c r="AF19" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="20" spans="1:32" customHeight="1">
@@ -2526,7 +2526,7 @@
         <v>27</v>
       </c>
       <c r="C20" s="30" t="n">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="D20" s="30">
         <f>COUNTA(F20:AD20)</f>
@@ -2574,7 +2574,7 @@
         <v>28</v>
       </c>
       <c r="C21" s="30" t="n">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="D21" s="30">
         <f>COUNTA(F21:AD21)</f>
@@ -2622,7 +2622,7 @@
         <v>29</v>
       </c>
       <c r="C22" s="30" t="n">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="D22" s="30">
         <f>COUNTA(F22:AD22)</f>
@@ -2659,7 +2659,7 @@
         <v>74</v>
       </c>
       <c r="AF22" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="23" spans="1:32" customHeight="1">
@@ -2670,7 +2670,7 @@
         <v>30</v>
       </c>
       <c r="C23" s="30" t="n">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="D23" s="30">
         <f>COUNTA(F23:AD23)</f>
@@ -2707,7 +2707,7 @@
         <v>75</v>
       </c>
       <c r="AF23" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="24" spans="1:32" customHeight="1">
@@ -2755,7 +2755,7 @@
         <v>76</v>
       </c>
       <c r="AF24" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="25" spans="1:32" customHeight="1">
@@ -2899,7 +2899,7 @@
         <v>79</v>
       </c>
       <c r="AF27" s="0" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="28" spans="1:32" customHeight="1">
@@ -3043,7 +3043,7 @@
         <v>82</v>
       </c>
       <c r="AF30" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="31" spans="1:32" customHeight="1">
@@ -3091,7 +3091,7 @@
         <v>83</v>
       </c>
       <c r="AF31" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="32" spans="1:32" customHeight="1">
@@ -3187,7 +3187,7 @@
         <v>85</v>
       </c>
       <c r="AF33" s="0" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="34" spans="1:32" customHeight="1">
@@ -3283,7 +3283,7 @@
         <v>87</v>
       </c>
       <c r="AF35" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="36" spans="1:32" customHeight="1">
@@ -3331,7 +3331,7 @@
         <v>88</v>
       </c>
       <c r="AF36" s="0" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="37" spans="1:32" customHeight="1">
@@ -3475,7 +3475,7 @@
         <v>91</v>
       </c>
       <c r="AF39" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="40" spans="1:32" customHeight="1">
@@ -3523,7 +3523,7 @@
         <v>92</v>
       </c>
       <c r="AF40" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="41" spans="1:32" customHeight="1">
@@ -3571,7 +3571,7 @@
         <v>93</v>
       </c>
       <c r="AF41" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="42" spans="1:32" customHeight="1">
@@ -3619,7 +3619,7 @@
         <v>94</v>
       </c>
       <c r="AF42" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="43" spans="1:32" customHeight="1">
@@ -3667,7 +3667,7 @@
         <v>95</v>
       </c>
       <c r="AF43" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="44" spans="1:32" customHeight="1">
@@ -3715,7 +3715,7 @@
         <v>96</v>
       </c>
       <c r="AF44" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="45" spans="1:32" customHeight="1">
@@ -3763,7 +3763,7 @@
         <v>97</v>
       </c>
       <c r="AF45" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="46" spans="31:32" customHeight="1">
@@ -3779,7 +3779,7 @@
         <v>99</v>
       </c>
       <c r="AF47" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="48" spans="31:32" customHeight="1">
@@ -3819,7 +3819,7 @@
         <v>104</v>
       </c>
       <c r="AF52" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="53" spans="31:32" customHeight="1">
@@ -3835,7 +3835,7 @@
         <v>106</v>
       </c>
       <c r="AF54" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="55" spans="31:32" customHeight="1">
@@ -3843,7 +3843,7 @@
         <v>107</v>
       </c>
       <c r="AF55" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="56" spans="31:32" customHeight="1">
@@ -3851,7 +3851,7 @@
         <v>108</v>
       </c>
       <c r="AF56" s="0" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="57" spans="31:32" customHeight="1">
@@ -3859,7 +3859,7 @@
         <v>109</v>
       </c>
       <c r="AF57" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="58" spans="31:32" customHeight="1">
@@ -3867,7 +3867,7 @@
         <v>110</v>
       </c>
       <c r="AF58" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="59" spans="31:32" customHeight="1">
@@ -3875,7 +3875,7 @@
         <v>111</v>
       </c>
       <c r="AF59" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="60" spans="31:32" customHeight="1">
@@ -3883,7 +3883,7 @@
         <v>112</v>
       </c>
       <c r="AF60" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="61" spans="31:32" customHeight="1">
@@ -3891,7 +3891,7 @@
         <v>113</v>
       </c>
       <c r="AF61" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="62" spans="31:32" customHeight="1">
@@ -3899,7 +3899,7 @@
         <v>114</v>
       </c>
       <c r="AF62" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="63" spans="31:32" customHeight="1">
@@ -3907,7 +3907,7 @@
         <v>115</v>
       </c>
       <c r="AF63" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="64" spans="31:32" customHeight="1">
@@ -3915,7 +3915,7 @@
         <v>116</v>
       </c>
       <c r="AF64" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="65" spans="31:32" customHeight="1">
@@ -3923,7 +3923,7 @@
         <v>117</v>
       </c>
       <c r="AF65" s="0" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="66" spans="31:32" customHeight="1">
@@ -3931,7 +3931,7 @@
         <v>118</v>
       </c>
       <c r="AF66" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="67" spans="31:32" customHeight="1">
@@ -3971,7 +3971,7 @@
         <v>123</v>
       </c>
       <c r="AF71" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="72" spans="31:32" customHeight="1">
@@ -3979,7 +3979,7 @@
         <v>124</v>
       </c>
       <c r="AF72" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="73" spans="31:32" customHeight="1">
@@ -3987,7 +3987,7 @@
         <v>125</v>
       </c>
       <c r="AF73" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="74" spans="31:32" customHeight="1">
@@ -3995,7 +3995,7 @@
         <v>126</v>
       </c>
       <c r="AF74" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="75" spans="31:32" customHeight="1">
@@ -4003,7 +4003,7 @@
         <v>127</v>
       </c>
       <c r="AF75" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="76" spans="31:32" customHeight="1">
@@ -4011,7 +4011,7 @@
         <v>128</v>
       </c>
       <c r="AF76" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="77" spans="31:32" customHeight="1">
@@ -4019,7 +4019,7 @@
         <v>129</v>
       </c>
       <c r="AF77" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="78" spans="31:32" customHeight="1">
@@ -4027,7 +4027,7 @@
         <v>130</v>
       </c>
       <c r="AF78" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="79" spans="31:32" customHeight="1">
@@ -4035,7 +4035,7 @@
         <v>131</v>
       </c>
       <c r="AF79" s="0" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="80" spans="31:32" customHeight="1">
@@ -4043,7 +4043,7 @@
         <v>132</v>
       </c>
       <c r="AF80" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="81" spans="31:32" customHeight="1">
@@ -4051,7 +4051,7 @@
         <v>133</v>
       </c>
       <c r="AF81" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="82" spans="31:32" customHeight="1">
@@ -4067,7 +4067,7 @@
         <v>135</v>
       </c>
       <c r="AF83" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="84" spans="31:32" customHeight="1">
@@ -4083,7 +4083,7 @@
         <v>137</v>
       </c>
       <c r="AF85" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="86" spans="31:32" customHeight="1">
@@ -4091,7 +4091,7 @@
         <v>138</v>
       </c>
       <c r="AF86" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="87" spans="31:32" customHeight="1">
@@ -4099,7 +4099,7 @@
         <v>139</v>
       </c>
       <c r="AF87" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="88" spans="31:32" customHeight="1">
@@ -4107,7 +4107,7 @@
         <v>140</v>
       </c>
       <c r="AF88" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="89" spans="31:32" customHeight="1">
@@ -4115,7 +4115,7 @@
         <v>141</v>
       </c>
       <c r="AF89" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="90" spans="31:32" customHeight="1">
@@ -4123,7 +4123,7 @@
         <v>142</v>
       </c>
       <c r="AF90" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="91" spans="31:32" customHeight="1">
@@ -4131,7 +4131,7 @@
         <v>143</v>
       </c>
       <c r="AF91" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="92" spans="31:32" customHeight="1">
@@ -4147,7 +4147,7 @@
         <v>145</v>
       </c>
       <c r="AF93" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="94" spans="31:32" customHeight="1">
@@ -4155,7 +4155,7 @@
         <v>146</v>
       </c>
       <c r="AF94" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="95" spans="31:32" customHeight="1">
@@ -4163,7 +4163,7 @@
         <v>147</v>
       </c>
       <c r="AF95" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="96" spans="31:32" customHeight="1">
@@ -4171,7 +4171,7 @@
         <v>148</v>
       </c>
       <c r="AF96" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="97" spans="31:32" customHeight="1">
@@ -4179,7 +4179,7 @@
         <v>149</v>
       </c>
       <c r="AF97" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="98" spans="31:32" customHeight="1">
@@ -4211,7 +4211,7 @@
         <v>153</v>
       </c>
       <c r="AF101" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="102" spans="31:32" customHeight="1">
@@ -4219,7 +4219,7 @@
         <v>154</v>
       </c>
       <c r="AF102" s="0" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="103" spans="31:32" customHeight="1">
@@ -4227,7 +4227,7 @@
         <v>155</v>
       </c>
       <c r="AF103" s="0" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="104" spans="31:32" customHeight="1">
@@ -4235,7 +4235,7 @@
         <v>156</v>
       </c>
       <c r="AF104" s="0" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="105" spans="31:32" customHeight="1">
@@ -4243,7 +4243,7 @@
         <v>157</v>
       </c>
       <c r="AF105" s="0" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="106" spans="31:32" customHeight="1">
@@ -4251,7 +4251,7 @@
         <v>158</v>
       </c>
       <c r="AF106" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="107" spans="31:32" customHeight="1">
@@ -4267,7 +4267,7 @@
         <v>160</v>
       </c>
       <c r="AF108" s="0" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="109" spans="31:32" customHeight="1">
@@ -4275,7 +4275,7 @@
         <v>161</v>
       </c>
       <c r="AF109" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="110" spans="31:32" customHeight="1">
@@ -4283,7 +4283,7 @@
         <v>162</v>
       </c>
       <c r="AF110" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="111" spans="31:32" customHeight="1">
@@ -4291,7 +4291,7 @@
         <v>163</v>
       </c>
       <c r="AF111" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="112" spans="31:32" customHeight="1">
@@ -4299,7 +4299,7 @@
         <v>164</v>
       </c>
       <c r="AF112" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="113" spans="31:32" customHeight="1">
@@ -4307,7 +4307,7 @@
         <v>165</v>
       </c>
       <c r="AF113" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="114" spans="31:32" customHeight="1">
@@ -4315,7 +4315,7 @@
         <v>166</v>
       </c>
       <c r="AF114" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="115" spans="31:32" customHeight="1">
@@ -4323,7 +4323,7 @@
         <v>167</v>
       </c>
       <c r="AF115" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="116" spans="31:32" customHeight="1">
@@ -4355,7 +4355,7 @@
         <v>171</v>
       </c>
       <c r="AF119" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="120" spans="31:32" customHeight="1">
@@ -4371,7 +4371,7 @@
         <v>173</v>
       </c>
       <c r="AF121" s="0" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="122" spans="31:32" customHeight="1">
@@ -4395,7 +4395,7 @@
         <v>176</v>
       </c>
       <c r="AF124" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="125" spans="31:32" customHeight="1">
@@ -4403,7 +4403,7 @@
         <v>177</v>
       </c>
       <c r="AF125" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="126" spans="31:32" customHeight="1">
@@ -4419,7 +4419,7 @@
         <v>179</v>
       </c>
       <c r="AF127" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="128" spans="31:32" customHeight="1">
@@ -4427,7 +4427,7 @@
         <v>180</v>
       </c>
       <c r="AF128" s="0" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="129" spans="31:32" customHeight="1">
@@ -4451,7 +4451,7 @@
         <v>183</v>
       </c>
       <c r="AF131" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="132" spans="31:32" customHeight="1">
@@ -4459,7 +4459,7 @@
         <v>184</v>
       </c>
       <c r="AF132" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="133" spans="31:32" customHeight="1">
@@ -4475,7 +4475,7 @@
         <v>186</v>
       </c>
       <c r="AF134" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="135" spans="31:32" customHeight="1">
@@ -4483,7 +4483,7 @@
         <v>187</v>
       </c>
       <c r="AF135" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="136" spans="31:32" customHeight="1">
@@ -4491,7 +4491,7 @@
         <v>188</v>
       </c>
       <c r="AF136" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="137" spans="31:32" customHeight="1">
@@ -4499,7 +4499,7 @@
         <v>189</v>
       </c>
       <c r="AF137" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="138" spans="31:32" customHeight="1">
@@ -4507,7 +4507,7 @@
         <v>190</v>
       </c>
       <c r="AF138" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="139" spans="31:32" customHeight="1">
@@ -4515,7 +4515,7 @@
         <v>191</v>
       </c>
       <c r="AF139" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="140" spans="31:32" customHeight="1">
@@ -4531,7 +4531,7 @@
         <v>193</v>
       </c>
       <c r="AF141" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="142" spans="31:32" customHeight="1">
@@ -4539,7 +4539,7 @@
         <v>194</v>
       </c>
       <c r="AF142" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="143" spans="31:32" customHeight="1">
@@ -4547,7 +4547,7 @@
         <v>195</v>
       </c>
       <c r="AF143" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="144" spans="31:32" customHeight="1">
@@ -4555,7 +4555,7 @@
         <v>196</v>
       </c>
       <c r="AF144" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="145" spans="31:32" customHeight="1">
@@ -4579,7 +4579,7 @@
         <v>199</v>
       </c>
       <c r="AF147" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="148" spans="31:32" customHeight="1">
@@ -4587,7 +4587,7 @@
         <v>200</v>
       </c>
       <c r="AF148" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="149" spans="31:32" customHeight="1">
@@ -4595,7 +4595,7 @@
         <v>201</v>
       </c>
       <c r="AF149" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="150" spans="31:32" customHeight="1">
@@ -4603,7 +4603,7 @@
         <v>202</v>
       </c>
       <c r="AF150" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="151" spans="31:32" customHeight="1">
@@ -4627,7 +4627,7 @@
         <v>205</v>
       </c>
       <c r="AF153" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="154" spans="31:32" customHeight="1">
@@ -4635,7 +4635,7 @@
         <v>206</v>
       </c>
       <c r="AF154" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="155" spans="31:32" customHeight="1">
@@ -4643,7 +4643,7 @@
         <v>207</v>
       </c>
       <c r="AF155" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="156" spans="31:32" customHeight="1">
@@ -4659,7 +4659,7 @@
         <v>209</v>
       </c>
       <c r="AF157" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="158" spans="31:32" customHeight="1">
@@ -4675,7 +4675,7 @@
         <v>211</v>
       </c>
       <c r="AF159" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="160" spans="31:32" customHeight="1">
@@ -4691,7 +4691,7 @@
         <v>213</v>
       </c>
       <c r="AF161" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="162" spans="31:32" customHeight="1">
@@ -4699,7 +4699,7 @@
         <v>214</v>
       </c>
       <c r="AF162" s="0" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="163" spans="31:32" customHeight="1">
@@ -4707,7 +4707,7 @@
         <v>215</v>
       </c>
       <c r="AF163" s="0" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="164" spans="31:32" customHeight="1">
@@ -4715,7 +4715,7 @@
         <v>216</v>
       </c>
       <c r="AF164" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="165" spans="31:32" customHeight="1">
@@ -4723,7 +4723,7 @@
         <v>217</v>
       </c>
       <c r="AF165" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="166" spans="31:32" customHeight="1">
@@ -4747,7 +4747,7 @@
         <v>220</v>
       </c>
       <c r="AF168" s="0" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="169" spans="31:32" customHeight="1">
@@ -4755,7 +4755,7 @@
         <v>221</v>
       </c>
       <c r="AF169" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="170" spans="31:32" customHeight="1">
@@ -4763,7 +4763,7 @@
         <v>222</v>
       </c>
       <c r="AF170" s="0" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="171" spans="31:32" customHeight="1">
@@ -4771,7 +4771,7 @@
         <v>223</v>
       </c>
       <c r="AF171" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="172" spans="31:32" customHeight="1">
@@ -4779,7 +4779,7 @@
         <v>224</v>
       </c>
       <c r="AF172" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="173" spans="31:32" customHeight="1">
@@ -4787,7 +4787,7 @@
         <v>225</v>
       </c>
       <c r="AF173" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="174" spans="31:32" customHeight="1">
@@ -4795,7 +4795,7 @@
         <v>226</v>
       </c>
       <c r="AF174" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="175" spans="31:32" customHeight="1">
@@ -4803,7 +4803,7 @@
         <v>227</v>
       </c>
       <c r="AF175" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="176" spans="31:32" customHeight="1">
@@ -4811,7 +4811,7 @@
         <v>228</v>
       </c>
       <c r="AF176" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="177" spans="31:32" customHeight="1">
@@ -4819,7 +4819,7 @@
         <v>229</v>
       </c>
       <c r="AF177" s="0" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="178" spans="31:32" customHeight="1">
@@ -4827,7 +4827,7 @@
         <v>230</v>
       </c>
       <c r="AF178" s="0" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="179" spans="31:32" customHeight="1">
@@ -4843,7 +4843,7 @@
         <v>232</v>
       </c>
       <c r="AF180" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="181" spans="31:32" customHeight="1">
@@ -4851,7 +4851,7 @@
         <v>233</v>
       </c>
       <c r="AF181" s="0" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="182" spans="31:32" customHeight="1">
@@ -4859,7 +4859,7 @@
         <v>234</v>
       </c>
       <c r="AF182" s="0" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="183" spans="31:32" customHeight="1">
@@ -4875,7 +4875,7 @@
         <v>236</v>
       </c>
       <c r="AF184" s="0" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="185" spans="31:32" customHeight="1">
@@ -4883,7 +4883,7 @@
         <v>237</v>
       </c>
       <c r="AF185" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="186" spans="31:32" customHeight="1">
@@ -4891,7 +4891,7 @@
         <v>238</v>
       </c>
       <c r="AF186" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="187" spans="31:32" customHeight="1">
@@ -4899,7 +4899,7 @@
         <v>239</v>
       </c>
       <c r="AF187" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="188" spans="31:32" customHeight="1">
@@ -4907,7 +4907,7 @@
         <v>240</v>
       </c>
       <c r="AF188" s="0" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="189" spans="31:32" customHeight="1">
@@ -4915,7 +4915,7 @@
         <v>241</v>
       </c>
       <c r="AF189" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="190" spans="31:32" customHeight="1">
@@ -4931,7 +4931,7 @@
         <v>243</v>
       </c>
       <c r="AF191" s="0" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="192" spans="31:32" customHeight="1">
@@ -4939,7 +4939,7 @@
         <v>244</v>
       </c>
       <c r="AF192" s="0" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="193" spans="31:32" customHeight="1">
@@ -4947,7 +4947,7 @@
         <v>245</v>
       </c>
       <c r="AF193" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="194" spans="31:32" customHeight="1">
@@ -4955,7 +4955,7 @@
         <v>246</v>
       </c>
       <c r="AF194" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="195" spans="31:32" customHeight="1">
@@ -4963,7 +4963,7 @@
         <v>247</v>
       </c>
       <c r="AF195" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="196" spans="31:32" customHeight="1">
@@ -4971,7 +4971,7 @@
         <v>248</v>
       </c>
       <c r="AF196" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="197" spans="31:32" customHeight="1">
@@ -4979,7 +4979,7 @@
         <v>249</v>
       </c>
       <c r="AF197" s="0" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="198" spans="31:32" customHeight="1">
@@ -4987,7 +4987,7 @@
         <v>250</v>
       </c>
       <c r="AF198" s="0" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="199" spans="31:32" customHeight="1">
@@ -5035,7 +5035,7 @@
         <v>256</v>
       </c>
       <c r="AF204" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="205" spans="31:32" customHeight="1">
@@ -5051,7 +5051,7 @@
         <v>258</v>
       </c>
       <c r="AF206" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="207" spans="31:32" customHeight="1">
@@ -5067,7 +5067,7 @@
         <v>260</v>
       </c>
       <c r="AF208" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="209" spans="31:32" customHeight="1">
@@ -5083,7 +5083,7 @@
         <v>262</v>
       </c>
       <c r="AF210" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="211" spans="31:32" customHeight="1">
@@ -5107,7 +5107,7 @@
         <v>265</v>
       </c>
       <c r="AF213" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="214" spans="31:32" customHeight="1">
@@ -5115,7 +5115,7 @@
         <v>266</v>
       </c>
       <c r="AF214" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="215" spans="31:32" customHeight="1">
@@ -5131,7 +5131,7 @@
         <v>268</v>
       </c>
       <c r="AF216" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="217" spans="31:32" customHeight="1">
@@ -5147,7 +5147,7 @@
         <v>270</v>
       </c>
       <c r="AF218" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="219" spans="31:32" customHeight="1">
@@ -5163,7 +5163,7 @@
         <v>272</v>
       </c>
       <c r="AF220" s="0" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="221" spans="31:32" customHeight="1">
@@ -5171,7 +5171,7 @@
         <v>273</v>
       </c>
       <c r="AF221" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="222" spans="31:32" customHeight="1">
@@ -5187,7 +5187,7 @@
         <v>275</v>
       </c>
       <c r="AF223" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="224" spans="31:32" customHeight="1">
@@ -5195,7 +5195,7 @@
         <v>276</v>
       </c>
       <c r="AF224" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="225" spans="31:32" customHeight="1">
@@ -5203,7 +5203,7 @@
         <v>277</v>
       </c>
       <c r="AF225" s="0" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="226" spans="31:32" customHeight="1">
@@ -5211,7 +5211,7 @@
         <v>278</v>
       </c>
       <c r="AF226" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="227" spans="31:32" customHeight="1">
@@ -5219,7 +5219,7 @@
         <v>279</v>
       </c>
       <c r="AF227" s="0" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="228" spans="31:32" customHeight="1">
@@ -5251,7 +5251,7 @@
         <v>283</v>
       </c>
       <c r="AF231" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="232" spans="31:32" customHeight="1">
@@ -5259,7 +5259,7 @@
         <v>284</v>
       </c>
       <c r="AF232" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="233" spans="31:32" customHeight="1">
@@ -5267,7 +5267,7 @@
         <v>285</v>
       </c>
       <c r="AF233" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="234" spans="31:32" customHeight="1">
@@ -5283,7 +5283,7 @@
         <v>287</v>
       </c>
       <c r="AF235" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="236" spans="31:32" customHeight="1">
@@ -5307,7 +5307,7 @@
         <v>290</v>
       </c>
       <c r="AF238" s="0" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="239" spans="31:32" customHeight="1">
@@ -5323,7 +5323,7 @@
         <v>292</v>
       </c>
       <c r="AF240" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="241" spans="31:32" customHeight="1">
@@ -5331,7 +5331,7 @@
         <v>293</v>
       </c>
       <c r="AF241" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="242" spans="31:32" customHeight="1">
@@ -5355,7 +5355,7 @@
         <v>296</v>
       </c>
       <c r="AF244" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="245" spans="31:32" customHeight="1">
@@ -5363,7 +5363,7 @@
         <v>297</v>
       </c>
       <c r="AF245" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="246" spans="31:32" customHeight="1">
@@ -5371,7 +5371,7 @@
         <v>298</v>
       </c>
       <c r="AF246" s="0" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="247" spans="31:32" customHeight="1">
@@ -5387,7 +5387,7 @@
         <v>300</v>
       </c>
       <c r="AF248" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="249" spans="31:32" customHeight="1">
@@ -5395,7 +5395,7 @@
         <v>301</v>
       </c>
       <c r="AF249" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="250" spans="31:32" customHeight="1">
@@ -5403,7 +5403,7 @@
         <v>302</v>
       </c>
       <c r="AF250" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="251" spans="31:32" customHeight="1">
@@ -5411,7 +5411,7 @@
         <v>303</v>
       </c>
       <c r="AF251" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="252" spans="31:32" customHeight="1">
@@ -5419,7 +5419,7 @@
         <v>304</v>
       </c>
       <c r="AF252" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="253" spans="31:32" customHeight="1">
@@ -5435,7 +5435,7 @@
         <v>306</v>
       </c>
       <c r="AF254" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="255" spans="31:32" customHeight="1">
@@ -5443,7 +5443,7 @@
         <v>307</v>
       </c>
       <c r="AF255" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="256" spans="31:32" customHeight="1">
@@ -5451,7 +5451,7 @@
         <v>308</v>
       </c>
       <c r="AF256" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="257" spans="31:32" customHeight="1">
@@ -5459,7 +5459,7 @@
         <v>309</v>
       </c>
       <c r="AF257" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="258" spans="31:32" customHeight="1">
@@ -5475,7 +5475,7 @@
         <v>311</v>
       </c>
       <c r="AF259" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="260" spans="31:32" customHeight="1">
@@ -5483,7 +5483,7 @@
         <v>312</v>
       </c>
       <c r="AF260" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="261" spans="31:32" customHeight="1">
@@ -5491,7 +5491,7 @@
         <v>313</v>
       </c>
       <c r="AF261" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="262" spans="31:32" customHeight="1">
@@ -5499,7 +5499,7 @@
         <v>314</v>
       </c>
       <c r="AF262" s="0" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="263" spans="31:32" customHeight="1">
@@ -5507,7 +5507,7 @@
         <v>315</v>
       </c>
       <c r="AF263" s="0" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="264" spans="31:32" customHeight="1">
@@ -5531,7 +5531,7 @@
         <v>318</v>
       </c>
       <c r="AF266" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="267" spans="31:32" customHeight="1">
@@ -5547,7 +5547,7 @@
         <v>320</v>
       </c>
       <c r="AF268" s="0" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="269" spans="31:32" customHeight="1">
@@ -5555,7 +5555,7 @@
         <v>321</v>
       </c>
       <c r="AF269" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="270" spans="31:32" customHeight="1">
@@ -5571,7 +5571,7 @@
         <v>323</v>
       </c>
       <c r="AF271" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="272" spans="31:32" customHeight="1">
@@ -5587,7 +5587,7 @@
         <v>325</v>
       </c>
       <c r="AF273" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="274" spans="31:32" customHeight="1">
@@ -5595,7 +5595,7 @@
         <v>326</v>
       </c>
       <c r="AF274" s="0" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="275" spans="31:32" customHeight="1">
@@ -5603,7 +5603,7 @@
         <v>327</v>
       </c>
       <c r="AF275" s="0" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="276" spans="31:32" customHeight="1">
@@ -5619,7 +5619,7 @@
         <v>329</v>
       </c>
       <c r="AF277" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="278" spans="31:32" customHeight="1">
@@ -5627,7 +5627,7 @@
         <v>330</v>
       </c>
       <c r="AF278" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="279" spans="31:32" customHeight="1">
@@ -5635,7 +5635,7 @@
         <v>331</v>
       </c>
       <c r="AF279" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="280" spans="31:32" customHeight="1">
@@ -5643,7 +5643,7 @@
         <v>332</v>
       </c>
       <c r="AF280" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="281" spans="31:32" customHeight="1">
@@ -5659,7 +5659,7 @@
         <v>334</v>
       </c>
       <c r="AF282" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="283" spans="31:32" customHeight="1">
@@ -5667,7 +5667,7 @@
         <v>335</v>
       </c>
       <c r="AF283" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="284" spans="31:32" customHeight="1">
@@ -5675,7 +5675,7 @@
         <v>336</v>
       </c>
       <c r="AF284" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="285" spans="31:32" customHeight="1">
@@ -5691,7 +5691,7 @@
         <v>338</v>
       </c>
       <c r="AF286" s="0" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="287" spans="31:32" customHeight="1">
@@ -5699,7 +5699,7 @@
         <v>339</v>
       </c>
       <c r="AF287" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="288" spans="31:32" customHeight="1">
@@ -5723,7 +5723,7 @@
         <v>342</v>
       </c>
       <c r="AF290" s="0" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="291" spans="31:32" customHeight="1">
@@ -5731,7 +5731,7 @@
         <v>343</v>
       </c>
       <c r="AF291" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="292" spans="31:32" customHeight="1">
@@ -5739,7 +5739,7 @@
         <v>344</v>
       </c>
       <c r="AF292" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="293" spans="31:32" customHeight="1">
@@ -5747,7 +5747,7 @@
         <v>345</v>
       </c>
       <c r="AF293" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="294" spans="31:32" customHeight="1">
@@ -5763,7 +5763,7 @@
         <v>347</v>
       </c>
       <c r="AF295" s="0" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="296" spans="31:32" customHeight="1">
@@ -5771,7 +5771,7 @@
         <v>348</v>
       </c>
       <c r="AF296" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="297" spans="31:32" customHeight="1">
@@ -5779,7 +5779,7 @@
         <v>349</v>
       </c>
       <c r="AF297" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="298" spans="31:32" customHeight="1">
@@ -5787,7 +5787,7 @@
         <v>350</v>
       </c>
       <c r="AF298" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="299" spans="31:32" customHeight="1">
@@ -5803,7 +5803,7 @@
         <v>352</v>
       </c>
       <c r="AF300" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="301" spans="31:32" customHeight="1">
@@ -5827,7 +5827,7 @@
         <v>355</v>
       </c>
       <c r="AF303" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="304" spans="31:32" customHeight="1">
@@ -5835,7 +5835,7 @@
         <v>356</v>
       </c>
       <c r="AF304" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="305" spans="31:32" customHeight="1">
@@ -5954,7 +5954,7 @@
         <v>376</v>
       </c>
       <c r="AF1" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="2" spans="1:32" customHeight="1">
@@ -6000,7 +6000,7 @@
         <v>377</v>
       </c>
       <c r="AF2" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="3" spans="1:32" customHeight="1">
@@ -6050,7 +6050,7 @@
         <v>378</v>
       </c>
       <c r="AF3" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="4" spans="1:32" customHeight="1">
@@ -6094,7 +6094,7 @@
         <v>379</v>
       </c>
       <c r="AF4" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="5" spans="1:32" customHeight="1">
@@ -6148,7 +6148,7 @@
         <v>380</v>
       </c>
       <c r="AF5" s="0" t="n">
-        <v>2500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="6" spans="1:32" customHeight="1">
@@ -6202,7 +6202,7 @@
         <v>381</v>
       </c>
       <c r="AF6" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="7" spans="1:32" customHeight="1">
@@ -6250,7 +6250,7 @@
         <v>382</v>
       </c>
       <c r="AF7" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="8" spans="1:32" customHeight="1">
@@ -6298,7 +6298,7 @@
         <v>383</v>
       </c>
       <c r="AF8" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="9" spans="1:32" customHeight="1">
@@ -6346,7 +6346,7 @@
         <v>384</v>
       </c>
       <c r="AF9" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="10" spans="1:32" customHeight="1">
@@ -6394,7 +6394,7 @@
         <v>385</v>
       </c>
       <c r="AF10" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="11" spans="1:32" customHeight="1">
@@ -6442,7 +6442,7 @@
         <v>386</v>
       </c>
       <c r="AF11" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="12" spans="1:32" customHeight="1">
@@ -6490,7 +6490,7 @@
         <v>387</v>
       </c>
       <c r="AF12" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="13" spans="1:32" customHeight="1">
@@ -6538,7 +6538,7 @@
         <v>388</v>
       </c>
       <c r="AF13" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="14" spans="1:32" customHeight="1">
@@ -6586,7 +6586,7 @@
         <v>389</v>
       </c>
       <c r="AF14" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="15" spans="1:32" customHeight="1">
@@ -6634,7 +6634,7 @@
         <v>390</v>
       </c>
       <c r="AF15" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="16" spans="1:32" customHeight="1">
@@ -6682,7 +6682,7 @@
         <v>391</v>
       </c>
       <c r="AF16" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="17" spans="1:32" customHeight="1">
@@ -6730,7 +6730,7 @@
         <v>392</v>
       </c>
       <c r="AF17" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="18" spans="1:32" customHeight="1">
@@ -6778,7 +6778,7 @@
         <v>393</v>
       </c>
       <c r="AF18" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="19" spans="1:32" customHeight="1">
@@ -6826,7 +6826,7 @@
         <v>394</v>
       </c>
       <c r="AF19" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="20" spans="1:32" customHeight="1">
@@ -6874,7 +6874,7 @@
         <v>395</v>
       </c>
       <c r="AF20" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="21" spans="1:32" customHeight="1">
@@ -6922,7 +6922,7 @@
         <v>396</v>
       </c>
       <c r="AF21" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="22" spans="1:32" customHeight="1">
@@ -6970,7 +6970,7 @@
         <v>397</v>
       </c>
       <c r="AF22" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="23" spans="1:32" customHeight="1">
@@ -7018,7 +7018,7 @@
         <v>398</v>
       </c>
       <c r="AF23" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="24" spans="1:32" customHeight="1">
@@ -7066,7 +7066,7 @@
         <v>399</v>
       </c>
       <c r="AF24" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="25" spans="1:32" customHeight="1">
@@ -7114,7 +7114,7 @@
         <v>400</v>
       </c>
       <c r="AF25" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="26" spans="1:32" customHeight="1">
@@ -7162,7 +7162,7 @@
         <v>401</v>
       </c>
       <c r="AF26" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="27" spans="31:32" customHeight="1">
@@ -7170,7 +7170,7 @@
         <v>402</v>
       </c>
       <c r="AF27" s="0" t="n">
-        <v>2500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="28" spans="31:32" customHeight="1">
@@ -7178,7 +7178,7 @@
         <v>403</v>
       </c>
       <c r="AF28" s="0" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="29" spans="31:32" customHeight="1">
@@ -7186,7 +7186,7 @@
         <v>404</v>
       </c>
       <c r="AF29" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="30" spans="31:32" customHeight="1">
@@ -7194,7 +7194,7 @@
         <v>405</v>
       </c>
       <c r="AF30" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="31" spans="31:32" customHeight="1">
@@ -7202,7 +7202,7 @@
         <v>406</v>
       </c>
       <c r="AF31" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="32" spans="31:32" customHeight="1">
@@ -7210,7 +7210,7 @@
         <v>407</v>
       </c>
       <c r="AF32" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="33" spans="31:32" customHeight="1">
@@ -7218,7 +7218,7 @@
         <v>408</v>
       </c>
       <c r="AF33" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="34" spans="31:32" customHeight="1">
@@ -7226,7 +7226,7 @@
         <v>409</v>
       </c>
       <c r="AF34" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="35" spans="31:32" customHeight="1">
@@ -7234,7 +7234,7 @@
         <v>410</v>
       </c>
       <c r="AF35" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="36" spans="31:32" customHeight="1">
@@ -7242,7 +7242,7 @@
         <v>411</v>
       </c>
       <c r="AF36" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="37" spans="31:32" customHeight="1">
@@ -7250,7 +7250,7 @@
         <v>412</v>
       </c>
       <c r="AF37" s="0" t="n">
-        <v>2500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="38" spans="31:32" customHeight="1">
@@ -7258,7 +7258,7 @@
         <v>413</v>
       </c>
       <c r="AF38" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="39" spans="31:32" customHeight="1">
@@ -7266,7 +7266,7 @@
         <v>414</v>
       </c>
       <c r="AF39" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="40" spans="31:32" customHeight="1">
@@ -7274,7 +7274,7 @@
         <v>415</v>
       </c>
       <c r="AF40" s="0" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="41" spans="31:32" customHeight="1">
@@ -7282,7 +7282,7 @@
         <v>416</v>
       </c>
       <c r="AF41" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="42" spans="31:32" customHeight="1">
@@ -7290,7 +7290,7 @@
         <v>417</v>
       </c>
       <c r="AF42" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="43" spans="31:32" customHeight="1">
@@ -7298,7 +7298,7 @@
         <v>418</v>
       </c>
       <c r="AF43" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="44" spans="31:32" customHeight="1">
@@ -7306,7 +7306,7 @@
         <v>419</v>
       </c>
       <c r="AF44" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="45" spans="31:32" customHeight="1">
@@ -7314,7 +7314,7 @@
         <v>420</v>
       </c>
       <c r="AF45" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="46" spans="31:32" customHeight="1">
@@ -7322,7 +7322,7 @@
         <v>421</v>
       </c>
       <c r="AF46" s="0" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="47" spans="31:32" customHeight="1">
@@ -7330,7 +7330,7 @@
         <v>422</v>
       </c>
       <c r="AF47" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="48" spans="31:32" customHeight="1">
@@ -7338,7 +7338,7 @@
         <v>423</v>
       </c>
       <c r="AF48" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="49" spans="31:32" customHeight="1">
@@ -7346,7 +7346,7 @@
         <v>424</v>
       </c>
       <c r="AF49" s="0" t="n">
-        <v>2500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="50" spans="31:32" customHeight="1">
@@ -7354,7 +7354,7 @@
         <v>425</v>
       </c>
       <c r="AF50" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="51" spans="31:32" customHeight="1">
@@ -7362,7 +7362,7 @@
         <v>426</v>
       </c>
       <c r="AF51" s="0" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="52" spans="31:32" customHeight="1">
@@ -7370,7 +7370,7 @@
         <v>427</v>
       </c>
       <c r="AF52" s="0" t="n">
-        <v>2500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="53" spans="31:32" customHeight="1">
@@ -7378,7 +7378,7 @@
         <v>428</v>
       </c>
       <c r="AF53" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="54" spans="31:32" customHeight="1">
@@ -7386,7 +7386,7 @@
         <v>429</v>
       </c>
       <c r="AF54" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="55" spans="31:32" customHeight="1">
@@ -7394,7 +7394,7 @@
         <v>430</v>
       </c>
       <c r="AF55" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="56" spans="31:32" customHeight="1">
@@ -7402,7 +7402,7 @@
         <v>431</v>
       </c>
       <c r="AF56" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="57" spans="31:32" customHeight="1">
@@ -7410,7 +7410,7 @@
         <v>432</v>
       </c>
       <c r="AF57" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="58" spans="31:32" customHeight="1">
@@ -7418,7 +7418,7 @@
         <v>433</v>
       </c>
       <c r="AF58" s="0" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="59" spans="31:32" customHeight="1">
@@ -7426,7 +7426,7 @@
         <v>434</v>
       </c>
       <c r="AF59" s="0" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="60" spans="31:32" customHeight="1">
@@ -7434,7 +7434,7 @@
         <v>435</v>
       </c>
       <c r="AF60" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="61" spans="31:32" customHeight="1">
@@ -7442,7 +7442,7 @@
         <v>436</v>
       </c>
       <c r="AF61" s="0" t="n">
-        <v>2500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="62" spans="31:32" customHeight="1">
@@ -7450,7 +7450,7 @@
         <v>437</v>
       </c>
       <c r="AF62" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="63" spans="31:32" customHeight="1">
@@ -7458,7 +7458,7 @@
         <v>438</v>
       </c>
       <c r="AF63" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="64" spans="31:32" customHeight="1">
@@ -7466,7 +7466,7 @@
         <v>439</v>
       </c>
       <c r="AF64" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="65" spans="31:32" customHeight="1">
@@ -7474,7 +7474,7 @@
         <v>440</v>
       </c>
       <c r="AF65" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="66" spans="31:32" customHeight="1">
@@ -7482,7 +7482,7 @@
         <v>441</v>
       </c>
       <c r="AF66" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="67" spans="31:32" customHeight="1">
@@ -7490,7 +7490,7 @@
         <v>442</v>
       </c>
       <c r="AF67" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="68" spans="31:32" customHeight="1">
@@ -7498,7 +7498,7 @@
         <v>443</v>
       </c>
       <c r="AF68" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="69" spans="31:32" customHeight="1">
@@ -7506,7 +7506,7 @@
         <v>444</v>
       </c>
       <c r="AF69" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="70" spans="31:32" customHeight="1">
@@ -7514,7 +7514,7 @@
         <v>445</v>
       </c>
       <c r="AF70" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="71" spans="31:32" customHeight="1">
@@ -7522,7 +7522,7 @@
         <v>446</v>
       </c>
       <c r="AF71" s="0" t="n">
-        <v>2500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="72" spans="31:32" customHeight="1">
@@ -7530,7 +7530,7 @@
         <v>447</v>
       </c>
       <c r="AF72" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="73" spans="31:32" customHeight="1">
@@ -7538,7 +7538,7 @@
         <v>448</v>
       </c>
       <c r="AF73" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
   </sheetData>

--- a/public/port-battle.xlsx
+++ b/public/port-battle.xlsx
@@ -143,15 +143,15 @@
     <t>Le Gros Ventre Refit</t>
   </si>
   <si>
+    <t>La Renommée</t>
+  </si>
+  <si>
+    <t>Le Gros Ventre</t>
+  </si>
+  <si>
     <t>Surprise</t>
   </si>
   <si>
-    <t>La Renommée</t>
-  </si>
-  <si>
-    <t>Le Gros Ventre</t>
-  </si>
-  <si>
     <t>Hercules</t>
   </si>
   <si>
@@ -1103,19 +1103,19 @@
     <t>X</t>
   </si>
   <si>
+    <t>Prince de Neufchâtel</t>
+  </si>
+  <si>
     <t>Mercury</t>
   </si>
   <si>
+    <t>Navy Brig</t>
+  </si>
+  <si>
+    <t>Rattlesnake</t>
+  </si>
+  <si>
     <t>Snow</t>
-  </si>
-  <si>
-    <t>Prince de Neufchâtel</t>
-  </si>
-  <si>
-    <t>Navy Brig</t>
-  </si>
-  <si>
-    <t>Rattlesnake</t>
   </si>
   <si>
     <t>Brig</t>
@@ -2046,7 +2046,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="30" t="n">
-        <v>570</v>
+        <v>550</v>
       </c>
       <c r="D10" s="30">
         <f>COUNTA(F10:AD10)</f>
@@ -3294,7 +3294,7 @@
         <v>43</v>
       </c>
       <c r="C36" s="26" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D36" s="26">
         <f>COUNTA(F36:AD36)</f>
@@ -5954,7 +5954,7 @@
         <v>376</v>
       </c>
       <c r="AF1" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="2" spans="1:32" customHeight="1">
@@ -6000,7 +6000,7 @@
         <v>377</v>
       </c>
       <c r="AF2" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="3" spans="1:32" customHeight="1">
@@ -6050,7 +6050,7 @@
         <v>378</v>
       </c>
       <c r="AF3" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="4" spans="1:32" customHeight="1">
@@ -6094,7 +6094,7 @@
         <v>379</v>
       </c>
       <c r="AF4" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="5" spans="1:32" customHeight="1">
@@ -6148,7 +6148,7 @@
         <v>380</v>
       </c>
       <c r="AF5" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="6" spans="1:32" customHeight="1">
@@ -6159,7 +6159,7 @@
         <v>43</v>
       </c>
       <c r="C6" s="26" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D6" s="26">
         <f>COUNTA(F6:AD6)</f>
@@ -6202,7 +6202,7 @@
         <v>381</v>
       </c>
       <c r="AF6" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="7" spans="1:32" customHeight="1">
@@ -6210,7 +6210,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C7" s="26" t="n">
         <v>120</v>
@@ -6250,7 +6250,7 @@
         <v>382</v>
       </c>
       <c r="AF7" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="8" spans="1:32" customHeight="1">
@@ -6298,7 +6298,7 @@
         <v>383</v>
       </c>
       <c r="AF8" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="9" spans="1:32" customHeight="1">
@@ -6346,7 +6346,7 @@
         <v>384</v>
       </c>
       <c r="AF9" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="10" spans="1:32" customHeight="1">
@@ -6394,7 +6394,7 @@
         <v>385</v>
       </c>
       <c r="AF10" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="11" spans="1:32" customHeight="1">
@@ -6442,7 +6442,7 @@
         <v>386</v>
       </c>
       <c r="AF11" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="12" spans="1:32" customHeight="1">
@@ -6490,7 +6490,7 @@
         <v>387</v>
       </c>
       <c r="AF12" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="13" spans="1:32" customHeight="1">
@@ -6538,7 +6538,7 @@
         <v>388</v>
       </c>
       <c r="AF13" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="14" spans="1:32" customHeight="1">
@@ -6549,7 +6549,7 @@
         <v>363</v>
       </c>
       <c r="C14" s="30" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D14" s="30">
         <f>COUNTA(F14:AD14)</f>
@@ -6586,7 +6586,7 @@
         <v>389</v>
       </c>
       <c r="AF14" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="15" spans="1:32" customHeight="1">
@@ -6597,7 +6597,7 @@
         <v>364</v>
       </c>
       <c r="C15" s="30" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D15" s="30">
         <f>COUNTA(F15:AD15)</f>
@@ -6634,7 +6634,7 @@
         <v>390</v>
       </c>
       <c r="AF15" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="16" spans="1:32" customHeight="1">
@@ -6645,7 +6645,7 @@
         <v>365</v>
       </c>
       <c r="C16" s="30" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D16" s="30">
         <f>COUNTA(F16:AD16)</f>
@@ -6682,7 +6682,7 @@
         <v>391</v>
       </c>
       <c r="AF16" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="17" spans="1:32" customHeight="1">
@@ -6730,7 +6730,7 @@
         <v>392</v>
       </c>
       <c r="AF17" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="18" spans="1:32" customHeight="1">
@@ -6778,7 +6778,7 @@
         <v>393</v>
       </c>
       <c r="AF18" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="19" spans="1:32" customHeight="1">
@@ -6826,7 +6826,7 @@
         <v>394</v>
       </c>
       <c r="AF19" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="20" spans="1:32" customHeight="1">
@@ -6874,7 +6874,7 @@
         <v>395</v>
       </c>
       <c r="AF20" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="21" spans="1:32" customHeight="1">
@@ -6922,7 +6922,7 @@
         <v>396</v>
       </c>
       <c r="AF21" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="22" spans="1:32" customHeight="1">
@@ -6970,7 +6970,7 @@
         <v>397</v>
       </c>
       <c r="AF22" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="23" spans="1:32" customHeight="1">
@@ -7018,7 +7018,7 @@
         <v>398</v>
       </c>
       <c r="AF23" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="24" spans="1:32" customHeight="1">
@@ -7066,7 +7066,7 @@
         <v>399</v>
       </c>
       <c r="AF24" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="25" spans="1:32" customHeight="1">
@@ -7114,7 +7114,7 @@
         <v>400</v>
       </c>
       <c r="AF25" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="26" spans="1:32" customHeight="1">
@@ -7162,7 +7162,7 @@
         <v>401</v>
       </c>
       <c r="AF26" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="27" spans="31:32" customHeight="1">
@@ -7170,7 +7170,7 @@
         <v>402</v>
       </c>
       <c r="AF27" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="28" spans="31:32" customHeight="1">
@@ -7178,7 +7178,7 @@
         <v>403</v>
       </c>
       <c r="AF28" s="0" t="n">
-        <v>2000</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="29" spans="31:32" customHeight="1">
@@ -7186,7 +7186,7 @@
         <v>404</v>
       </c>
       <c r="AF29" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="30" spans="31:32" customHeight="1">
@@ -7194,7 +7194,7 @@
         <v>405</v>
       </c>
       <c r="AF30" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="31" spans="31:32" customHeight="1">
@@ -7202,7 +7202,7 @@
         <v>406</v>
       </c>
       <c r="AF31" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="32" spans="31:32" customHeight="1">
@@ -7210,7 +7210,7 @@
         <v>407</v>
       </c>
       <c r="AF32" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="33" spans="31:32" customHeight="1">
@@ -7218,7 +7218,7 @@
         <v>408</v>
       </c>
       <c r="AF33" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="34" spans="31:32" customHeight="1">
@@ -7226,7 +7226,7 @@
         <v>409</v>
       </c>
       <c r="AF34" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="35" spans="31:32" customHeight="1">
@@ -7234,7 +7234,7 @@
         <v>410</v>
       </c>
       <c r="AF35" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="36" spans="31:32" customHeight="1">
@@ -7242,7 +7242,7 @@
         <v>411</v>
       </c>
       <c r="AF36" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="37" spans="31:32" customHeight="1">
@@ -7250,7 +7250,7 @@
         <v>412</v>
       </c>
       <c r="AF37" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="38" spans="31:32" customHeight="1">
@@ -7258,7 +7258,7 @@
         <v>413</v>
       </c>
       <c r="AF38" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="39" spans="31:32" customHeight="1">
@@ -7266,7 +7266,7 @@
         <v>414</v>
       </c>
       <c r="AF39" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="40" spans="31:32" customHeight="1">
@@ -7274,7 +7274,7 @@
         <v>415</v>
       </c>
       <c r="AF40" s="0" t="n">
-        <v>2000</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="41" spans="31:32" customHeight="1">
@@ -7282,7 +7282,7 @@
         <v>416</v>
       </c>
       <c r="AF41" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="42" spans="31:32" customHeight="1">
@@ -7290,7 +7290,7 @@
         <v>417</v>
       </c>
       <c r="AF42" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="43" spans="31:32" customHeight="1">
@@ -7298,7 +7298,7 @@
         <v>418</v>
       </c>
       <c r="AF43" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="44" spans="31:32" customHeight="1">
@@ -7306,7 +7306,7 @@
         <v>419</v>
       </c>
       <c r="AF44" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="45" spans="31:32" customHeight="1">
@@ -7314,7 +7314,7 @@
         <v>420</v>
       </c>
       <c r="AF45" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="46" spans="31:32" customHeight="1">
@@ -7322,7 +7322,7 @@
         <v>421</v>
       </c>
       <c r="AF46" s="0" t="n">
-        <v>2000</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="47" spans="31:32" customHeight="1">
@@ -7330,7 +7330,7 @@
         <v>422</v>
       </c>
       <c r="AF47" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="48" spans="31:32" customHeight="1">
@@ -7338,7 +7338,7 @@
         <v>423</v>
       </c>
       <c r="AF48" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="49" spans="31:32" customHeight="1">
@@ -7346,7 +7346,7 @@
         <v>424</v>
       </c>
       <c r="AF49" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="50" spans="31:32" customHeight="1">
@@ -7354,7 +7354,7 @@
         <v>425</v>
       </c>
       <c r="AF50" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="51" spans="31:32" customHeight="1">
@@ -7362,7 +7362,7 @@
         <v>426</v>
       </c>
       <c r="AF51" s="0" t="n">
-        <v>2500</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="52" spans="31:32" customHeight="1">
@@ -7370,7 +7370,7 @@
         <v>427</v>
       </c>
       <c r="AF52" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="53" spans="31:32" customHeight="1">
@@ -7378,7 +7378,7 @@
         <v>428</v>
       </c>
       <c r="AF53" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="54" spans="31:32" customHeight="1">
@@ -7386,7 +7386,7 @@
         <v>429</v>
       </c>
       <c r="AF54" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="55" spans="31:32" customHeight="1">
@@ -7394,7 +7394,7 @@
         <v>430</v>
       </c>
       <c r="AF55" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="56" spans="31:32" customHeight="1">
@@ -7402,7 +7402,7 @@
         <v>431</v>
       </c>
       <c r="AF56" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="57" spans="31:32" customHeight="1">
@@ -7410,7 +7410,7 @@
         <v>432</v>
       </c>
       <c r="AF57" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="58" spans="31:32" customHeight="1">
@@ -7418,7 +7418,7 @@
         <v>433</v>
       </c>
       <c r="AF58" s="0" t="n">
-        <v>2000</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="59" spans="31:32" customHeight="1">
@@ -7426,7 +7426,7 @@
         <v>434</v>
       </c>
       <c r="AF59" s="0" t="n">
-        <v>2000</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="60" spans="31:32" customHeight="1">
@@ -7434,7 +7434,7 @@
         <v>435</v>
       </c>
       <c r="AF60" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="61" spans="31:32" customHeight="1">
@@ -7442,7 +7442,7 @@
         <v>436</v>
       </c>
       <c r="AF61" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="62" spans="31:32" customHeight="1">
@@ -7450,7 +7450,7 @@
         <v>437</v>
       </c>
       <c r="AF62" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="63" spans="31:32" customHeight="1">
@@ -7458,7 +7458,7 @@
         <v>438</v>
       </c>
       <c r="AF63" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="64" spans="31:32" customHeight="1">
@@ -7466,7 +7466,7 @@
         <v>439</v>
       </c>
       <c r="AF64" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="65" spans="31:32" customHeight="1">
@@ -7474,7 +7474,7 @@
         <v>440</v>
       </c>
       <c r="AF65" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="66" spans="31:32" customHeight="1">
@@ -7482,7 +7482,7 @@
         <v>441</v>
       </c>
       <c r="AF66" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="67" spans="31:32" customHeight="1">
@@ -7490,7 +7490,7 @@
         <v>442</v>
       </c>
       <c r="AF67" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="68" spans="31:32" customHeight="1">
@@ -7498,7 +7498,7 @@
         <v>443</v>
       </c>
       <c r="AF68" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="69" spans="31:32" customHeight="1">
@@ -7506,7 +7506,7 @@
         <v>444</v>
       </c>
       <c r="AF69" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="70" spans="31:32" customHeight="1">
@@ -7514,7 +7514,7 @@
         <v>445</v>
       </c>
       <c r="AF70" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="71" spans="31:32" customHeight="1">
@@ -7522,7 +7522,7 @@
         <v>446</v>
       </c>
       <c r="AF71" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="72" spans="31:32" customHeight="1">
@@ -7530,7 +7530,7 @@
         <v>447</v>
       </c>
       <c r="AF72" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="73" spans="31:32" customHeight="1">
@@ -7538,7 +7538,7 @@
         <v>448</v>
       </c>
       <c r="AF73" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
   </sheetData>

--- a/public/port-battle.xlsx
+++ b/public/port-battle.xlsx
@@ -137,10 +137,10 @@
     <t>Hulk Indiaman</t>
   </si>
   <si>
+    <t>Le Gros Ventre Refit</t>
+  </si>
+  <si>
     <t>Indiaman</t>
-  </si>
-  <si>
-    <t>Le Gros Ventre Refit</t>
   </si>
   <si>
     <t>La Renommée</t>
@@ -1643,7 +1643,7 @@
         <v>53</v>
       </c>
       <c r="AF1" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="2" spans="1:32" customHeight="1">
@@ -1689,7 +1689,7 @@
         <v>54</v>
       </c>
       <c r="AF2" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="3" spans="1:32" customHeight="1">
@@ -1739,7 +1739,7 @@
         <v>55</v>
       </c>
       <c r="AF3" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="4" spans="1:32" customHeight="1">
@@ -1783,7 +1783,7 @@
         <v>56</v>
       </c>
       <c r="AF4" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="5" spans="1:32" customHeight="1">
@@ -1837,7 +1837,7 @@
         <v>57</v>
       </c>
       <c r="AF5" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="6" spans="1:32" customHeight="1">
@@ -1891,7 +1891,7 @@
         <v>58</v>
       </c>
       <c r="AF6" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="7" spans="1:32" customHeight="1">
@@ -1939,7 +1939,7 @@
         <v>59</v>
       </c>
       <c r="AF7" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="8" spans="1:32" customHeight="1">
@@ -1987,7 +1987,7 @@
         <v>60</v>
       </c>
       <c r="AF8" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="9" spans="1:32" customHeight="1">
@@ -2035,7 +2035,7 @@
         <v>61</v>
       </c>
       <c r="AF9" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="10" spans="1:32" customHeight="1">
@@ -2046,7 +2046,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="30" t="n">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="D10" s="30">
         <f>COUNTA(F10:AD10)</f>
@@ -2083,7 +2083,7 @@
         <v>62</v>
       </c>
       <c r="AF10" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="11" spans="1:32" customHeight="1">
@@ -2131,7 +2131,7 @@
         <v>63</v>
       </c>
       <c r="AF11" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="12" spans="1:32" customHeight="1">
@@ -2179,7 +2179,7 @@
         <v>64</v>
       </c>
       <c r="AF12" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="13" spans="1:32" customHeight="1">
@@ -2227,7 +2227,7 @@
         <v>65</v>
       </c>
       <c r="AF13" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="14" spans="1:32" customHeight="1">
@@ -2275,7 +2275,7 @@
         <v>66</v>
       </c>
       <c r="AF14" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="15" spans="1:32" customHeight="1">
@@ -2323,7 +2323,7 @@
         <v>67</v>
       </c>
       <c r="AF15" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="16" spans="1:32" customHeight="1">
@@ -2371,7 +2371,7 @@
         <v>68</v>
       </c>
       <c r="AF16" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="17" spans="1:32" customHeight="1">
@@ -2419,7 +2419,7 @@
         <v>69</v>
       </c>
       <c r="AF17" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="18" spans="1:32" customHeight="1">
@@ -2467,7 +2467,7 @@
         <v>70</v>
       </c>
       <c r="AF18" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="19" spans="1:32" customHeight="1">
@@ -2515,7 +2515,7 @@
         <v>71</v>
       </c>
       <c r="AF19" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="20" spans="1:32" customHeight="1">
@@ -2563,7 +2563,7 @@
         <v>72</v>
       </c>
       <c r="AF20" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="21" spans="1:32" customHeight="1">
@@ -2659,7 +2659,7 @@
         <v>74</v>
       </c>
       <c r="AF22" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="23" spans="1:32" customHeight="1">
@@ -2707,7 +2707,7 @@
         <v>75</v>
       </c>
       <c r="AF23" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="24" spans="1:32" customHeight="1">
@@ -2718,7 +2718,7 @@
         <v>31</v>
       </c>
       <c r="C24" s="26" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="D24" s="26">
         <f>COUNTA(F24:AD24)</f>
@@ -2755,7 +2755,7 @@
         <v>76</v>
       </c>
       <c r="AF24" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="25" spans="1:32" customHeight="1">
@@ -2766,7 +2766,7 @@
         <v>32</v>
       </c>
       <c r="C25" s="26" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="D25" s="26">
         <f>COUNTA(F25:AD25)</f>
@@ -2851,7 +2851,7 @@
         <v>78</v>
       </c>
       <c r="AF26" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="27" spans="1:32" customHeight="1">
@@ -2947,7 +2947,7 @@
         <v>80</v>
       </c>
       <c r="AF28" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="29" spans="1:32" customHeight="1">
@@ -3043,7 +3043,7 @@
         <v>82</v>
       </c>
       <c r="AF30" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="31" spans="1:32" customHeight="1">
@@ -3091,7 +3091,7 @@
         <v>83</v>
       </c>
       <c r="AF31" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="32" spans="1:32" customHeight="1">
@@ -3139,7 +3139,7 @@
         <v>84</v>
       </c>
       <c r="AF32" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="33" spans="1:32" customHeight="1">
@@ -3187,7 +3187,7 @@
         <v>85</v>
       </c>
       <c r="AF33" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="34" spans="1:32" customHeight="1">
@@ -3246,7 +3246,7 @@
         <v>42</v>
       </c>
       <c r="C35" s="26" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D35" s="26">
         <f>COUNTA(F35:AD35)</f>
@@ -3283,7 +3283,7 @@
         <v>87</v>
       </c>
       <c r="AF35" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="36" spans="1:32" customHeight="1">
@@ -3331,7 +3331,7 @@
         <v>88</v>
       </c>
       <c r="AF36" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="37" spans="1:32" customHeight="1">
@@ -3427,7 +3427,7 @@
         <v>90</v>
       </c>
       <c r="AF38" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="39" spans="1:32" customHeight="1">
@@ -3475,7 +3475,7 @@
         <v>91</v>
       </c>
       <c r="AF39" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="40" spans="1:32" customHeight="1">
@@ -3523,7 +3523,7 @@
         <v>92</v>
       </c>
       <c r="AF40" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="41" spans="1:32" customHeight="1">
@@ -3571,7 +3571,7 @@
         <v>93</v>
       </c>
       <c r="AF41" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="42" spans="1:32" customHeight="1">
@@ -3619,7 +3619,7 @@
         <v>94</v>
       </c>
       <c r="AF42" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="43" spans="1:32" customHeight="1">
@@ -3667,7 +3667,7 @@
         <v>95</v>
       </c>
       <c r="AF43" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="44" spans="1:32" customHeight="1">
@@ -3715,7 +3715,7 @@
         <v>96</v>
       </c>
       <c r="AF44" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="45" spans="1:32" customHeight="1">
@@ -3763,7 +3763,7 @@
         <v>97</v>
       </c>
       <c r="AF45" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="46" spans="31:32" customHeight="1">
@@ -3779,7 +3779,7 @@
         <v>99</v>
       </c>
       <c r="AF47" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="48" spans="31:32" customHeight="1">
@@ -3803,7 +3803,7 @@
         <v>102</v>
       </c>
       <c r="AF50" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="51" spans="31:32" customHeight="1">
@@ -3811,7 +3811,7 @@
         <v>103</v>
       </c>
       <c r="AF51" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="52" spans="31:32" customHeight="1">
@@ -3819,7 +3819,7 @@
         <v>104</v>
       </c>
       <c r="AF52" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="53" spans="31:32" customHeight="1">
@@ -3835,7 +3835,7 @@
         <v>106</v>
       </c>
       <c r="AF54" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="55" spans="31:32" customHeight="1">
@@ -3843,7 +3843,7 @@
         <v>107</v>
       </c>
       <c r="AF55" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="56" spans="31:32" customHeight="1">
@@ -3851,7 +3851,7 @@
         <v>108</v>
       </c>
       <c r="AF56" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="57" spans="31:32" customHeight="1">
@@ -3859,7 +3859,7 @@
         <v>109</v>
       </c>
       <c r="AF57" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="58" spans="31:32" customHeight="1">
@@ -3867,7 +3867,7 @@
         <v>110</v>
       </c>
       <c r="AF58" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="59" spans="31:32" customHeight="1">
@@ -3875,7 +3875,7 @@
         <v>111</v>
       </c>
       <c r="AF59" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="60" spans="31:32" customHeight="1">
@@ -3883,7 +3883,7 @@
         <v>112</v>
       </c>
       <c r="AF60" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="61" spans="31:32" customHeight="1">
@@ -3891,7 +3891,7 @@
         <v>113</v>
       </c>
       <c r="AF61" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="62" spans="31:32" customHeight="1">
@@ -3899,7 +3899,7 @@
         <v>114</v>
       </c>
       <c r="AF62" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="63" spans="31:32" customHeight="1">
@@ -3907,7 +3907,7 @@
         <v>115</v>
       </c>
       <c r="AF63" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="64" spans="31:32" customHeight="1">
@@ -3915,7 +3915,7 @@
         <v>116</v>
       </c>
       <c r="AF64" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="65" spans="31:32" customHeight="1">
@@ -3931,7 +3931,7 @@
         <v>118</v>
       </c>
       <c r="AF66" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="67" spans="31:32" customHeight="1">
@@ -3939,7 +3939,7 @@
         <v>119</v>
       </c>
       <c r="AF67" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="68" spans="31:32" customHeight="1">
@@ -3963,7 +3963,7 @@
         <v>122</v>
       </c>
       <c r="AF70" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="71" spans="31:32" customHeight="1">
@@ -3971,7 +3971,7 @@
         <v>123</v>
       </c>
       <c r="AF71" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="72" spans="31:32" customHeight="1">
@@ -3979,7 +3979,7 @@
         <v>124</v>
       </c>
       <c r="AF72" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="73" spans="31:32" customHeight="1">
@@ -3987,7 +3987,7 @@
         <v>125</v>
       </c>
       <c r="AF73" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="74" spans="31:32" customHeight="1">
@@ -3995,7 +3995,7 @@
         <v>126</v>
       </c>
       <c r="AF74" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="75" spans="31:32" customHeight="1">
@@ -4003,7 +4003,7 @@
         <v>127</v>
       </c>
       <c r="AF75" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="76" spans="31:32" customHeight="1">
@@ -4011,7 +4011,7 @@
         <v>128</v>
       </c>
       <c r="AF76" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="77" spans="31:32" customHeight="1">
@@ -4019,7 +4019,7 @@
         <v>129</v>
       </c>
       <c r="AF77" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="78" spans="31:32" customHeight="1">
@@ -4027,7 +4027,7 @@
         <v>130</v>
       </c>
       <c r="AF78" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="79" spans="31:32" customHeight="1">
@@ -4043,7 +4043,7 @@
         <v>132</v>
       </c>
       <c r="AF80" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="81" spans="31:32" customHeight="1">
@@ -4051,7 +4051,7 @@
         <v>133</v>
       </c>
       <c r="AF81" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="82" spans="31:32" customHeight="1">
@@ -4067,7 +4067,7 @@
         <v>135</v>
       </c>
       <c r="AF83" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="84" spans="31:32" customHeight="1">
@@ -4075,7 +4075,7 @@
         <v>136</v>
       </c>
       <c r="AF84" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="85" spans="31:32" customHeight="1">
@@ -4083,7 +4083,7 @@
         <v>137</v>
       </c>
       <c r="AF85" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="86" spans="31:32" customHeight="1">
@@ -4091,7 +4091,7 @@
         <v>138</v>
       </c>
       <c r="AF86" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="87" spans="31:32" customHeight="1">
@@ -4099,7 +4099,7 @@
         <v>139</v>
       </c>
       <c r="AF87" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="88" spans="31:32" customHeight="1">
@@ -4107,7 +4107,7 @@
         <v>140</v>
       </c>
       <c r="AF88" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="89" spans="31:32" customHeight="1">
@@ -4115,7 +4115,7 @@
         <v>141</v>
       </c>
       <c r="AF89" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="90" spans="31:32" customHeight="1">
@@ -4123,7 +4123,7 @@
         <v>142</v>
       </c>
       <c r="AF90" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="91" spans="31:32" customHeight="1">
@@ -4131,7 +4131,7 @@
         <v>143</v>
       </c>
       <c r="AF91" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="92" spans="31:32" customHeight="1">
@@ -4139,7 +4139,7 @@
         <v>144</v>
       </c>
       <c r="AF92" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="93" spans="31:32" customHeight="1">
@@ -4147,7 +4147,7 @@
         <v>145</v>
       </c>
       <c r="AF93" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="94" spans="31:32" customHeight="1">
@@ -4155,7 +4155,7 @@
         <v>146</v>
       </c>
       <c r="AF94" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="95" spans="31:32" customHeight="1">
@@ -4163,7 +4163,7 @@
         <v>147</v>
       </c>
       <c r="AF95" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="96" spans="31:32" customHeight="1">
@@ -4171,7 +4171,7 @@
         <v>148</v>
       </c>
       <c r="AF96" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="97" spans="31:32" customHeight="1">
@@ -4179,7 +4179,7 @@
         <v>149</v>
       </c>
       <c r="AF97" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="98" spans="31:32" customHeight="1">
@@ -4187,7 +4187,7 @@
         <v>150</v>
       </c>
       <c r="AF98" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="99" spans="31:32" customHeight="1">
@@ -4203,7 +4203,7 @@
         <v>152</v>
       </c>
       <c r="AF100" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="101" spans="31:32" customHeight="1">
@@ -4211,7 +4211,7 @@
         <v>153</v>
       </c>
       <c r="AF101" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="102" spans="31:32" customHeight="1">
@@ -4219,7 +4219,7 @@
         <v>154</v>
       </c>
       <c r="AF102" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="103" spans="31:32" customHeight="1">
@@ -4227,7 +4227,7 @@
         <v>155</v>
       </c>
       <c r="AF103" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="104" spans="31:32" customHeight="1">
@@ -4243,7 +4243,7 @@
         <v>157</v>
       </c>
       <c r="AF105" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="106" spans="31:32" customHeight="1">
@@ -4251,7 +4251,7 @@
         <v>158</v>
       </c>
       <c r="AF106" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="107" spans="31:32" customHeight="1">
@@ -4259,7 +4259,7 @@
         <v>159</v>
       </c>
       <c r="AF107" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="108" spans="31:32" customHeight="1">
@@ -4267,7 +4267,7 @@
         <v>160</v>
       </c>
       <c r="AF108" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="109" spans="31:32" customHeight="1">
@@ -4275,7 +4275,7 @@
         <v>161</v>
       </c>
       <c r="AF109" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="110" spans="31:32" customHeight="1">
@@ -4283,7 +4283,7 @@
         <v>162</v>
       </c>
       <c r="AF110" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="111" spans="31:32" customHeight="1">
@@ -4291,7 +4291,7 @@
         <v>163</v>
       </c>
       <c r="AF111" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="112" spans="31:32" customHeight="1">
@@ -4299,7 +4299,7 @@
         <v>164</v>
       </c>
       <c r="AF112" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="113" spans="31:32" customHeight="1">
@@ -4307,7 +4307,7 @@
         <v>165</v>
       </c>
       <c r="AF113" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="114" spans="31:32" customHeight="1">
@@ -4315,7 +4315,7 @@
         <v>166</v>
       </c>
       <c r="AF114" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="115" spans="31:32" customHeight="1">
@@ -4323,7 +4323,7 @@
         <v>167</v>
       </c>
       <c r="AF115" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="116" spans="31:32" customHeight="1">
@@ -4339,7 +4339,7 @@
         <v>169</v>
       </c>
       <c r="AF117" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="118" spans="31:32" customHeight="1">
@@ -4347,7 +4347,7 @@
         <v>170</v>
       </c>
       <c r="AF118" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="119" spans="31:32" customHeight="1">
@@ -4355,7 +4355,7 @@
         <v>171</v>
       </c>
       <c r="AF119" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="120" spans="31:32" customHeight="1">
@@ -4363,7 +4363,7 @@
         <v>172</v>
       </c>
       <c r="AF120" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="121" spans="31:32" customHeight="1">
@@ -4371,7 +4371,7 @@
         <v>173</v>
       </c>
       <c r="AF121" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="122" spans="31:32" customHeight="1">
@@ -4379,7 +4379,7 @@
         <v>174</v>
       </c>
       <c r="AF122" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="123" spans="31:32" customHeight="1">
@@ -4387,7 +4387,7 @@
         <v>175</v>
       </c>
       <c r="AF123" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="124" spans="31:32" customHeight="1">
@@ -4395,7 +4395,7 @@
         <v>176</v>
       </c>
       <c r="AF124" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="125" spans="31:32" customHeight="1">
@@ -4403,7 +4403,7 @@
         <v>177</v>
       </c>
       <c r="AF125" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="126" spans="31:32" customHeight="1">
@@ -4411,7 +4411,7 @@
         <v>178</v>
       </c>
       <c r="AF126" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="127" spans="31:32" customHeight="1">
@@ -4419,7 +4419,7 @@
         <v>179</v>
       </c>
       <c r="AF127" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="128" spans="31:32" customHeight="1">
@@ -4427,7 +4427,7 @@
         <v>180</v>
       </c>
       <c r="AF128" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="129" spans="31:32" customHeight="1">
@@ -4443,7 +4443,7 @@
         <v>182</v>
       </c>
       <c r="AF130" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="131" spans="31:32" customHeight="1">
@@ -4451,7 +4451,7 @@
         <v>183</v>
       </c>
       <c r="AF131" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="132" spans="31:32" customHeight="1">
@@ -4459,7 +4459,7 @@
         <v>184</v>
       </c>
       <c r="AF132" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="133" spans="31:32" customHeight="1">
@@ -4475,7 +4475,7 @@
         <v>186</v>
       </c>
       <c r="AF134" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="135" spans="31:32" customHeight="1">
@@ -4483,7 +4483,7 @@
         <v>187</v>
       </c>
       <c r="AF135" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="136" spans="31:32" customHeight="1">
@@ -4491,7 +4491,7 @@
         <v>188</v>
       </c>
       <c r="AF136" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="137" spans="31:32" customHeight="1">
@@ -4499,7 +4499,7 @@
         <v>189</v>
       </c>
       <c r="AF137" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="138" spans="31:32" customHeight="1">
@@ -4507,7 +4507,7 @@
         <v>190</v>
       </c>
       <c r="AF138" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="139" spans="31:32" customHeight="1">
@@ -4515,7 +4515,7 @@
         <v>191</v>
       </c>
       <c r="AF139" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="140" spans="31:32" customHeight="1">
@@ -4523,7 +4523,7 @@
         <v>192</v>
       </c>
       <c r="AF140" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="141" spans="31:32" customHeight="1">
@@ -4531,7 +4531,7 @@
         <v>193</v>
       </c>
       <c r="AF141" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="142" spans="31:32" customHeight="1">
@@ -4539,7 +4539,7 @@
         <v>194</v>
       </c>
       <c r="AF142" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="143" spans="31:32" customHeight="1">
@@ -4547,7 +4547,7 @@
         <v>195</v>
       </c>
       <c r="AF143" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="144" spans="31:32" customHeight="1">
@@ -4555,7 +4555,7 @@
         <v>196</v>
       </c>
       <c r="AF144" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="145" spans="31:32" customHeight="1">
@@ -4571,7 +4571,7 @@
         <v>198</v>
       </c>
       <c r="AF146" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="147" spans="31:32" customHeight="1">
@@ -4579,7 +4579,7 @@
         <v>199</v>
       </c>
       <c r="AF147" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="148" spans="31:32" customHeight="1">
@@ -4587,7 +4587,7 @@
         <v>200</v>
       </c>
       <c r="AF148" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="149" spans="31:32" customHeight="1">
@@ -4595,7 +4595,7 @@
         <v>201</v>
       </c>
       <c r="AF149" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="150" spans="31:32" customHeight="1">
@@ -4603,7 +4603,7 @@
         <v>202</v>
       </c>
       <c r="AF150" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="151" spans="31:32" customHeight="1">
@@ -4611,7 +4611,7 @@
         <v>203</v>
       </c>
       <c r="AF151" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="152" spans="31:32" customHeight="1">
@@ -4619,7 +4619,7 @@
         <v>204</v>
       </c>
       <c r="AF152" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="153" spans="31:32" customHeight="1">
@@ -4627,7 +4627,7 @@
         <v>205</v>
       </c>
       <c r="AF153" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="154" spans="31:32" customHeight="1">
@@ -4635,7 +4635,7 @@
         <v>206</v>
       </c>
       <c r="AF154" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="155" spans="31:32" customHeight="1">
@@ -4643,7 +4643,7 @@
         <v>207</v>
       </c>
       <c r="AF155" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="156" spans="31:32" customHeight="1">
@@ -4651,7 +4651,7 @@
         <v>208</v>
       </c>
       <c r="AF156" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="157" spans="31:32" customHeight="1">
@@ -4659,7 +4659,7 @@
         <v>209</v>
       </c>
       <c r="AF157" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="158" spans="31:32" customHeight="1">
@@ -4675,7 +4675,7 @@
         <v>211</v>
       </c>
       <c r="AF159" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="160" spans="31:32" customHeight="1">
@@ -4683,7 +4683,7 @@
         <v>212</v>
       </c>
       <c r="AF160" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="161" spans="31:32" customHeight="1">
@@ -4691,7 +4691,7 @@
         <v>213</v>
       </c>
       <c r="AF161" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="162" spans="31:32" customHeight="1">
@@ -4707,7 +4707,7 @@
         <v>215</v>
       </c>
       <c r="AF163" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="164" spans="31:32" customHeight="1">
@@ -4715,7 +4715,7 @@
         <v>216</v>
       </c>
       <c r="AF164" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="165" spans="31:32" customHeight="1">
@@ -4723,7 +4723,7 @@
         <v>217</v>
       </c>
       <c r="AF165" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="166" spans="31:32" customHeight="1">
@@ -4731,7 +4731,7 @@
         <v>218</v>
       </c>
       <c r="AF166" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="167" spans="31:32" customHeight="1">
@@ -4739,7 +4739,7 @@
         <v>219</v>
       </c>
       <c r="AF167" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="168" spans="31:32" customHeight="1">
@@ -4755,7 +4755,7 @@
         <v>221</v>
       </c>
       <c r="AF169" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="170" spans="31:32" customHeight="1">
@@ -4763,7 +4763,7 @@
         <v>222</v>
       </c>
       <c r="AF170" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="171" spans="31:32" customHeight="1">
@@ -4771,7 +4771,7 @@
         <v>223</v>
       </c>
       <c r="AF171" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="172" spans="31:32" customHeight="1">
@@ -4779,7 +4779,7 @@
         <v>224</v>
       </c>
       <c r="AF172" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="173" spans="31:32" customHeight="1">
@@ -4787,7 +4787,7 @@
         <v>225</v>
       </c>
       <c r="AF173" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="174" spans="31:32" customHeight="1">
@@ -4795,7 +4795,7 @@
         <v>226</v>
       </c>
       <c r="AF174" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="175" spans="31:32" customHeight="1">
@@ -4803,7 +4803,7 @@
         <v>227</v>
       </c>
       <c r="AF175" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="176" spans="31:32" customHeight="1">
@@ -4811,7 +4811,7 @@
         <v>228</v>
       </c>
       <c r="AF176" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="177" spans="31:32" customHeight="1">
@@ -4843,7 +4843,7 @@
         <v>232</v>
       </c>
       <c r="AF180" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="181" spans="31:32" customHeight="1">
@@ -4851,7 +4851,7 @@
         <v>233</v>
       </c>
       <c r="AF181" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="182" spans="31:32" customHeight="1">
@@ -4859,7 +4859,7 @@
         <v>234</v>
       </c>
       <c r="AF182" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="183" spans="31:32" customHeight="1">
@@ -4875,7 +4875,7 @@
         <v>236</v>
       </c>
       <c r="AF184" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="185" spans="31:32" customHeight="1">
@@ -4883,7 +4883,7 @@
         <v>237</v>
       </c>
       <c r="AF185" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="186" spans="31:32" customHeight="1">
@@ -4891,7 +4891,7 @@
         <v>238</v>
       </c>
       <c r="AF186" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="187" spans="31:32" customHeight="1">
@@ -4899,7 +4899,7 @@
         <v>239</v>
       </c>
       <c r="AF187" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="188" spans="31:32" customHeight="1">
@@ -4907,7 +4907,7 @@
         <v>240</v>
       </c>
       <c r="AF188" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="189" spans="31:32" customHeight="1">
@@ -4915,7 +4915,7 @@
         <v>241</v>
       </c>
       <c r="AF189" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="190" spans="31:32" customHeight="1">
@@ -4923,7 +4923,7 @@
         <v>242</v>
       </c>
       <c r="AF190" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="191" spans="31:32" customHeight="1">
@@ -4931,7 +4931,7 @@
         <v>243</v>
       </c>
       <c r="AF191" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="192" spans="31:32" customHeight="1">
@@ -4939,7 +4939,7 @@
         <v>244</v>
       </c>
       <c r="AF192" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="193" spans="31:32" customHeight="1">
@@ -4947,7 +4947,7 @@
         <v>245</v>
       </c>
       <c r="AF193" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="194" spans="31:32" customHeight="1">
@@ -4955,7 +4955,7 @@
         <v>246</v>
       </c>
       <c r="AF194" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="195" spans="31:32" customHeight="1">
@@ -4963,7 +4963,7 @@
         <v>247</v>
       </c>
       <c r="AF195" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="196" spans="31:32" customHeight="1">
@@ -4971,7 +4971,7 @@
         <v>248</v>
       </c>
       <c r="AF196" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="197" spans="31:32" customHeight="1">
@@ -4979,7 +4979,7 @@
         <v>249</v>
       </c>
       <c r="AF197" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="198" spans="31:32" customHeight="1">
@@ -4987,7 +4987,7 @@
         <v>250</v>
       </c>
       <c r="AF198" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="199" spans="31:32" customHeight="1">
@@ -4995,7 +4995,7 @@
         <v>251</v>
       </c>
       <c r="AF199" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="200" spans="31:32" customHeight="1">
@@ -5003,7 +5003,7 @@
         <v>252</v>
       </c>
       <c r="AF200" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="201" spans="31:32" customHeight="1">
@@ -5011,7 +5011,7 @@
         <v>253</v>
       </c>
       <c r="AF201" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="202" spans="31:32" customHeight="1">
@@ -5027,7 +5027,7 @@
         <v>255</v>
       </c>
       <c r="AF203" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="204" spans="31:32" customHeight="1">
@@ -5035,7 +5035,7 @@
         <v>256</v>
       </c>
       <c r="AF204" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="205" spans="31:32" customHeight="1">
@@ -5051,7 +5051,7 @@
         <v>258</v>
       </c>
       <c r="AF206" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="207" spans="31:32" customHeight="1">
@@ -5059,7 +5059,7 @@
         <v>259</v>
       </c>
       <c r="AF207" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="208" spans="31:32" customHeight="1">
@@ -5067,7 +5067,7 @@
         <v>260</v>
       </c>
       <c r="AF208" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="209" spans="31:32" customHeight="1">
@@ -5083,7 +5083,7 @@
         <v>262</v>
       </c>
       <c r="AF210" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="211" spans="31:32" customHeight="1">
@@ -5099,7 +5099,7 @@
         <v>264</v>
       </c>
       <c r="AF212" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="213" spans="31:32" customHeight="1">
@@ -5107,7 +5107,7 @@
         <v>265</v>
       </c>
       <c r="AF213" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="214" spans="31:32" customHeight="1">
@@ -5115,7 +5115,7 @@
         <v>266</v>
       </c>
       <c r="AF214" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="215" spans="31:32" customHeight="1">
@@ -5131,7 +5131,7 @@
         <v>268</v>
       </c>
       <c r="AF216" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="217" spans="31:32" customHeight="1">
@@ -5139,7 +5139,7 @@
         <v>269</v>
       </c>
       <c r="AF217" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="218" spans="31:32" customHeight="1">
@@ -5147,7 +5147,7 @@
         <v>270</v>
       </c>
       <c r="AF218" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="219" spans="31:32" customHeight="1">
@@ -5155,7 +5155,7 @@
         <v>271</v>
       </c>
       <c r="AF219" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="220" spans="31:32" customHeight="1">
@@ -5163,7 +5163,7 @@
         <v>272</v>
       </c>
       <c r="AF220" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="221" spans="31:32" customHeight="1">
@@ -5171,7 +5171,7 @@
         <v>273</v>
       </c>
       <c r="AF221" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="222" spans="31:32" customHeight="1">
@@ -5179,7 +5179,7 @@
         <v>274</v>
       </c>
       <c r="AF222" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="223" spans="31:32" customHeight="1">
@@ -5187,7 +5187,7 @@
         <v>275</v>
       </c>
       <c r="AF223" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="224" spans="31:32" customHeight="1">
@@ -5195,7 +5195,7 @@
         <v>276</v>
       </c>
       <c r="AF224" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="225" spans="31:32" customHeight="1">
@@ -5211,7 +5211,7 @@
         <v>278</v>
       </c>
       <c r="AF226" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="227" spans="31:32" customHeight="1">
@@ -5227,7 +5227,7 @@
         <v>280</v>
       </c>
       <c r="AF228" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="229" spans="31:32" customHeight="1">
@@ -5251,7 +5251,7 @@
         <v>283</v>
       </c>
       <c r="AF231" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="232" spans="31:32" customHeight="1">
@@ -5259,7 +5259,7 @@
         <v>284</v>
       </c>
       <c r="AF232" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="233" spans="31:32" customHeight="1">
@@ -5267,7 +5267,7 @@
         <v>285</v>
       </c>
       <c r="AF233" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="234" spans="31:32" customHeight="1">
@@ -5275,7 +5275,7 @@
         <v>286</v>
       </c>
       <c r="AF234" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="235" spans="31:32" customHeight="1">
@@ -5283,7 +5283,7 @@
         <v>287</v>
       </c>
       <c r="AF235" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="236" spans="31:32" customHeight="1">
@@ -5291,7 +5291,7 @@
         <v>288</v>
       </c>
       <c r="AF236" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="237" spans="31:32" customHeight="1">
@@ -5299,7 +5299,7 @@
         <v>289</v>
       </c>
       <c r="AF237" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="238" spans="31:32" customHeight="1">
@@ -5323,7 +5323,7 @@
         <v>292</v>
       </c>
       <c r="AF240" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="241" spans="31:32" customHeight="1">
@@ -5331,7 +5331,7 @@
         <v>293</v>
       </c>
       <c r="AF241" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="242" spans="31:32" customHeight="1">
@@ -5339,7 +5339,7 @@
         <v>294</v>
       </c>
       <c r="AF242" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="243" spans="31:32" customHeight="1">
@@ -5355,7 +5355,7 @@
         <v>296</v>
       </c>
       <c r="AF244" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="245" spans="31:32" customHeight="1">
@@ -5363,7 +5363,7 @@
         <v>297</v>
       </c>
       <c r="AF245" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="246" spans="31:32" customHeight="1">
@@ -5379,7 +5379,7 @@
         <v>299</v>
       </c>
       <c r="AF247" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="248" spans="31:32" customHeight="1">
@@ -5387,7 +5387,7 @@
         <v>300</v>
       </c>
       <c r="AF248" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="249" spans="31:32" customHeight="1">
@@ -5395,7 +5395,7 @@
         <v>301</v>
       </c>
       <c r="AF249" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="250" spans="31:32" customHeight="1">
@@ -5403,7 +5403,7 @@
         <v>302</v>
       </c>
       <c r="AF250" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="251" spans="31:32" customHeight="1">
@@ -5411,7 +5411,7 @@
         <v>303</v>
       </c>
       <c r="AF251" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="252" spans="31:32" customHeight="1">
@@ -5419,7 +5419,7 @@
         <v>304</v>
       </c>
       <c r="AF252" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="253" spans="31:32" customHeight="1">
@@ -5427,7 +5427,7 @@
         <v>305</v>
       </c>
       <c r="AF253" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="254" spans="31:32" customHeight="1">
@@ -5435,7 +5435,7 @@
         <v>306</v>
       </c>
       <c r="AF254" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="255" spans="31:32" customHeight="1">
@@ -5443,7 +5443,7 @@
         <v>307</v>
       </c>
       <c r="AF255" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="256" spans="31:32" customHeight="1">
@@ -5451,7 +5451,7 @@
         <v>308</v>
       </c>
       <c r="AF256" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="257" spans="31:32" customHeight="1">
@@ -5459,7 +5459,7 @@
         <v>309</v>
       </c>
       <c r="AF257" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="258" spans="31:32" customHeight="1">
@@ -5475,7 +5475,7 @@
         <v>311</v>
       </c>
       <c r="AF259" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="260" spans="31:32" customHeight="1">
@@ -5483,7 +5483,7 @@
         <v>312</v>
       </c>
       <c r="AF260" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="261" spans="31:32" customHeight="1">
@@ -5491,7 +5491,7 @@
         <v>313</v>
       </c>
       <c r="AF261" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="262" spans="31:32" customHeight="1">
@@ -5515,7 +5515,7 @@
         <v>316</v>
       </c>
       <c r="AF264" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="265" spans="31:32" customHeight="1">
@@ -5531,7 +5531,7 @@
         <v>318</v>
       </c>
       <c r="AF266" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="267" spans="31:32" customHeight="1">
@@ -5547,7 +5547,7 @@
         <v>320</v>
       </c>
       <c r="AF268" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="269" spans="31:32" customHeight="1">
@@ -5555,7 +5555,7 @@
         <v>321</v>
       </c>
       <c r="AF269" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="270" spans="31:32" customHeight="1">
@@ -5563,7 +5563,7 @@
         <v>322</v>
       </c>
       <c r="AF270" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="271" spans="31:32" customHeight="1">
@@ -5571,7 +5571,7 @@
         <v>323</v>
       </c>
       <c r="AF271" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="272" spans="31:32" customHeight="1">
@@ -5587,7 +5587,7 @@
         <v>325</v>
       </c>
       <c r="AF273" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="274" spans="31:32" customHeight="1">
@@ -5595,7 +5595,7 @@
         <v>326</v>
       </c>
       <c r="AF274" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="275" spans="31:32" customHeight="1">
@@ -5603,7 +5603,7 @@
         <v>327</v>
       </c>
       <c r="AF275" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="276" spans="31:32" customHeight="1">
@@ -5611,7 +5611,7 @@
         <v>328</v>
       </c>
       <c r="AF276" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="277" spans="31:32" customHeight="1">
@@ -5619,7 +5619,7 @@
         <v>329</v>
       </c>
       <c r="AF277" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="278" spans="31:32" customHeight="1">
@@ -5627,7 +5627,7 @@
         <v>330</v>
       </c>
       <c r="AF278" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="279" spans="31:32" customHeight="1">
@@ -5635,7 +5635,7 @@
         <v>331</v>
       </c>
       <c r="AF279" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="280" spans="31:32" customHeight="1">
@@ -5643,7 +5643,7 @@
         <v>332</v>
       </c>
       <c r="AF280" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="281" spans="31:32" customHeight="1">
@@ -5651,7 +5651,7 @@
         <v>333</v>
       </c>
       <c r="AF281" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="282" spans="31:32" customHeight="1">
@@ -5659,7 +5659,7 @@
         <v>334</v>
       </c>
       <c r="AF282" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="283" spans="31:32" customHeight="1">
@@ -5667,7 +5667,7 @@
         <v>335</v>
       </c>
       <c r="AF283" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="284" spans="31:32" customHeight="1">
@@ -5675,7 +5675,7 @@
         <v>336</v>
       </c>
       <c r="AF284" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="285" spans="31:32" customHeight="1">
@@ -5683,7 +5683,7 @@
         <v>337</v>
       </c>
       <c r="AF285" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="286" spans="31:32" customHeight="1">
@@ -5699,7 +5699,7 @@
         <v>339</v>
       </c>
       <c r="AF287" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="288" spans="31:32" customHeight="1">
@@ -5715,7 +5715,7 @@
         <v>341</v>
       </c>
       <c r="AF289" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="290" spans="31:32" customHeight="1">
@@ -5731,7 +5731,7 @@
         <v>343</v>
       </c>
       <c r="AF291" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="292" spans="31:32" customHeight="1">
@@ -5739,7 +5739,7 @@
         <v>344</v>
       </c>
       <c r="AF292" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="293" spans="31:32" customHeight="1">
@@ -5747,7 +5747,7 @@
         <v>345</v>
       </c>
       <c r="AF293" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="294" spans="31:32" customHeight="1">
@@ -5755,7 +5755,7 @@
         <v>346</v>
       </c>
       <c r="AF294" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="295" spans="31:32" customHeight="1">
@@ -5771,7 +5771,7 @@
         <v>348</v>
       </c>
       <c r="AF296" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="297" spans="31:32" customHeight="1">
@@ -5779,7 +5779,7 @@
         <v>349</v>
       </c>
       <c r="AF297" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="298" spans="31:32" customHeight="1">
@@ -5787,7 +5787,7 @@
         <v>350</v>
       </c>
       <c r="AF298" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="299" spans="31:32" customHeight="1">
@@ -5795,7 +5795,7 @@
         <v>351</v>
       </c>
       <c r="AF299" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="300" spans="31:32" customHeight="1">
@@ -5803,7 +5803,7 @@
         <v>352</v>
       </c>
       <c r="AF300" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="301" spans="31:32" customHeight="1">
@@ -5827,7 +5827,7 @@
         <v>355</v>
       </c>
       <c r="AF303" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="304" spans="31:32" customHeight="1">
@@ -5835,7 +5835,7 @@
         <v>356</v>
       </c>
       <c r="AF304" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="305" spans="31:32" customHeight="1">
@@ -5843,7 +5843,7 @@
         <v>357</v>
       </c>
       <c r="AF305" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
   </sheetData>
